--- a/doc/Reorder APPs Menu.xlsx
+++ b/doc/Reorder APPs Menu.xlsx
@@ -9,253 +9,22 @@
   <sheets>
     <sheet name="ReorderMenu" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReorderMenu!$A$70:$C$117</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
-  <si>
-    <t>| | | | | |</t>
-  </si>
-  <si>
-    <t>| ![web](/doc/img/website.jpg)              | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                     | | | | |</t>
-  </si>
-  <si>
-    <t>| ![acc](/doc/img/account_accountant.jpg)   | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)                         | ![apt](/doc/img/appointments.jpg)         | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                     | ![apr](/doc/img/hr_appraisal.jpg)         | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![apv](/doc/img/approval.jpg)             | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                           | ![blg](/doc/img/website_blog.jpg)         | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                                     | ![cal](/doc/img/calendar.jpg)             | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                             |</t>
-  </si>
-  <si>
-    <t>| ![ctc](/doc/img/contacts.jpg)             | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                             | ![crm](/doc/img/crm.jpg)                  | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                       | ![dsc](/doc/img/discuss.jpg)              | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                               |</t>
-  </si>
-  <si>
-    <t>| ![eco](/doc/img/website_sale.jpg)         | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                           | ![emp](/doc/img/hr_employees.jpg)         | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                           | ![equ](/doc/img/equipment.jpg)            | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![esg](/doc/img/website_sign.jpg)         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                         | ![eve](/doc/img/event.jpg)                | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                                 | ![exp](/doc/img/hr_expense.jpg)           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                             |</t>
-  </si>
-  <si>
-    <t>| ![flt](/doc/img/fleet.jpg)                | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                                   | ![for](/doc/img/website_forum.jpg)        | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                                   | ![fsv](/doc/img/field_service.jpg)        | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)                   |</t>
-  </si>
-  <si>
-    <t>| ![hdk](/doc/img/helpdesk.jpg)             | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                             | ![iot](/doc/img/iot.jpg)                  | [Internet of Things (IOT)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)   | ![inv](/doc/img/stock.jpg)                | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![ivc](/doc/img/account_invoicing.jpg)    | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)                           | ![tof](/doc/img/timeoff.jpg)              | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                              | ![lvc](/doc/img/im_livechat.jpg)          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![lun](/doc/img/lunch.jpg)                | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                                   | ![mnt](/doc/img/maintenance.jpg)          | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                       | ![mka](/doc/img/marketing_automation.jpg) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md)           |</t>
-  </si>
-  <si>
-    <t>| ![msm](/doc/img/mass_mailing.jpg)         | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)                      | ![mrp](/doc/img/mrp.jpg)                  | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                       | ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                               |</t>
-  </si>
-  <si>
-    <t>| ![stu](/doc/img/web_studio.jpg)           | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                            | ![pyr](/doc/img/hr_payroll.jpg)           | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                               | ![pch](/doc/img/purchase.jpg)             | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                         |</t>
-  </si>
-  <si>
-    <t>| ![plm](/doc/img/plm.jpg)                  | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                       | ![pos](/doc/img/point_of_sale.jpg)        | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)                   | ![psc](/doc/img/hr_presence.jpg)          | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                             |</t>
-  </si>
-  <si>
-    <t>| ![prj](/doc/img/project.jpg)              | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                             | ![rcr](/doc/img/hr_recruitment.jpg)       | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                       | ![rnt](/doc/img/rentals.jpg)              | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                                 |</t>
-  </si>
-  <si>
-    <t>| ![sls](/doc/img/sale.jpg)                 | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                   | ![skm](/doc/img/hr_skills.jpg)            | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                                 | ![sli](/doc/img/website_slides.jpg)       | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                                 |</t>
-  </si>
-  <si>
-    <t>| ![sub](/doc/img/sale_subscription.jpg)    | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)                   | ![svy](/doc/img/survey.jpg)               | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                                | ![tsh](/doc/img/hr_timesheet.jpg)         | [Time Sheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                          |</t>
-  </si>
-  <si>
-    <t>| ![acc](/doc/img/account_accountant.jpg)   | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)                         |</t>
-  </si>
-  <si>
-    <t>| ![apv](/doc/img/approval.jpg)             | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![ctc](/doc/img/contacts.jpg)             | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                             |</t>
-  </si>
-  <si>
-    <t>| ![eco](/doc/img/website_sale.jpg)         | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![esg](/doc/img/website_sign.jpg)         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                         |</t>
-  </si>
-  <si>
-    <t>| ![flt](/doc/img/fleet.jpg)                | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                                   |</t>
-  </si>
-  <si>
-    <t>| ![hdk](/doc/img/helpdesk.jpg)             | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                             |</t>
-  </si>
-  <si>
-    <t>| ![ivc](/doc/img/account_invoicing.jpg)    | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![lun](/doc/img/lunch.jpg)                | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                                   |</t>
-  </si>
-  <si>
-    <t>| ![msm](/doc/img/mass_mailing.jpg)         | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)                      |</t>
-  </si>
-  <si>
-    <t>| ![stu](/doc/img/web_studio.jpg)           | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                            |</t>
-  </si>
-  <si>
-    <t>| ![plm](/doc/img/plm.jpg)                  | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                       |</t>
-  </si>
-  <si>
-    <t>| ![prj](/doc/img/project.jpg)              | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                             |</t>
-  </si>
-  <si>
-    <t>| ![sls](/doc/img/sale.jpg)                 | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                   |</t>
-  </si>
-  <si>
-    <t>| ![sub](/doc/img/sale_subscription.jpg)    | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)                   |</t>
-  </si>
-  <si>
-    <t>| ![web](/doc/img/website.jpg)              | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                     |</t>
-  </si>
-  <si>
-    <t>| ![apt](/doc/img/appointments.jpg)         | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                     |</t>
-  </si>
-  <si>
-    <t>| ![blg](/doc/img/website_blog.jpg)         | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                                     |</t>
-  </si>
-  <si>
-    <t>| ![crm](/doc/img/crm.jpg)                  | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                       |</t>
-  </si>
-  <si>
-    <t>| ![emp](/doc/img/hr_employees.jpg)         | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![eve](/doc/img/event.jpg)                | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                                 |</t>
-  </si>
-  <si>
-    <t>| ![for](/doc/img/website_forum.jpg)        | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                                   |</t>
-  </si>
-  <si>
-    <t>| ![iot](/doc/img/iot.jpg)                  | [Internet of Things (IOT)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)   |</t>
-  </si>
-  <si>
-    <t>| ![tof](/doc/img/timeoff.jpg)              | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                              |</t>
-  </si>
-  <si>
-    <t>| ![mnt](/doc/img/maintenance.jpg)          | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                       |</t>
-  </si>
-  <si>
-    <t>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                       |</t>
-  </si>
-  <si>
-    <t>| ![pyr](/doc/img/hr_payroll.jpg)           | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                               |</t>
-  </si>
-  <si>
-    <t>| ![pos](/doc/img/point_of_sale.jpg)        | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)                   |</t>
-  </si>
-  <si>
-    <t>| ![rcr](/doc/img/hr_recruitment.jpg)       | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                       |</t>
-  </si>
-  <si>
-    <t>| ![skm](/doc/img/hr_skills.jpg)            | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                                 |</t>
-  </si>
-  <si>
-    <t>| ![svy](/doc/img/survey.jpg)               | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                                |</t>
-  </si>
-  <si>
-    <t>| ![apr](/doc/img/hr_appraisal.jpg)         | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![cal](/doc/img/calendar.jpg)             | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                             |</t>
-  </si>
-  <si>
-    <t>| ![dsc](/doc/img/discuss.jpg)              | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                               |</t>
-  </si>
-  <si>
-    <t>| ![equ](/doc/img/equipment.jpg)            | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![exp](/doc/img/hr_expense.jpg)           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                             |</t>
-  </si>
-  <si>
-    <t>| ![fsv](/doc/img/field_service.jpg)        | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)                   |</t>
-  </si>
-  <si>
-    <t>| ![inv](/doc/img/stock.jpg)                | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![lvc](/doc/img/im_livechat.jpg)          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![mka](/doc/img/marketing_automation.jpg) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md)           |</t>
-  </si>
-  <si>
-    <t>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                               |</t>
-  </si>
-  <si>
-    <t>| ![pch](/doc/img/purchase.jpg)             | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                         |</t>
-  </si>
-  <si>
-    <t>| ![psc](/doc/img/hr_presence.jpg)          | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                             |</t>
-  </si>
-  <si>
-    <t>| ![rnt](/doc/img/rentals.jpg)              | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                                 |</t>
-  </si>
-  <si>
-    <t>| ![sli](/doc/img/website_slides.jpg)       | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                                 |</t>
-  </si>
-  <si>
-    <t>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Time Sheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                          |</t>
-  </si>
-  <si>
-    <t>| ![o13](/doc/img/odoo13.jpg)               | [System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                            | | | | |</t>
-  </si>
-  <si>
-    <t>| ![acc](/doc/img/account_accountant.jpg)   | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)                         | ![apr](/doc/img/hr_appraisal.jpg)         | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                           | ![apt](/doc/img/appointments.jpg)         | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                     |</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
   <si>
     <t/>
   </si>
   <si>
-    <t>| ![crm](/doc/img/crm.jpg)                  | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                       | ![ctc](/doc/img/contacts.jpg)             | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                             | ![dsc](/doc/img/discuss.jpg)              | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                               |</t>
-  </si>
-  <si>
-    <t>| ![hdk](/doc/img/helpdesk.jpg)             | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                             | ![inv](/doc/img/stock.jpg)                | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           | ![iot](/doc/img/iot.jpg)                  | [Internet of Things (IOT)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)   |</t>
-  </si>
-  <si>
-    <t>| ![ivc](/doc/img/account_invoicing.jpg)    | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)                           | ![lun](/doc/img/lunch.jpg)                | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                                   | ![lvc](/doc/img/im_livechat.jpg)          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![mka](/doc/img/marketing_automation.jpg) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md)           | ![mnt](/doc/img/maintenance.jpg)          | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                       | ![mrp](/doc/img/mrp.jpg)                  | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                       |</t>
-  </si>
-  <si>
-    <t>| ![msm](/doc/img/mass_mailing.jpg)         | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)                      | ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                               | ![pch](/doc/img/purchase.jpg)             | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                         |</t>
-  </si>
-  <si>
-    <t>| ![plm](/doc/img/plm.jpg)                  | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                       | ![pos](/doc/img/point_of_sale.jpg)        | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)                   | ![prj](/doc/img/project.jpg)              | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                             |</t>
-  </si>
-  <si>
-    <t>| ![psc](/doc/img/hr_presence.jpg)          | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                             | ![pyr](/doc/img/hr_payroll.jpg)           | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                               | ![rcr](/doc/img/hr_recruitment.jpg)       | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                       |</t>
-  </si>
-  <si>
-    <t>| ![rnt](/doc/img/rentals.jpg)              | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                                 | ![skm](/doc/img/hr_skills.jpg)            | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                                 | ![sli](/doc/img/website_slides.jpg)       | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                                 |</t>
-  </si>
-  <si>
-    <t>| ![sls](/doc/img/sale.jpg)                 | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                   | ![stu](/doc/img/web_studio.jpg)           | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                            | ![sub](/doc/img/sale_subscription.jpg)    | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)                   |</t>
-  </si>
-  <si>
-    <t>| ![svy](/doc/img/survey.jpg)               | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                                | ![tof](/doc/img/timeoff.jpg)              | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                              | ![tsh](/doc/img/hr_timesheet.jpg)         | [Time Sheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                          |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">| ![web](/doc/img/website.jpg)              | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                     | | | | | </t>
-  </si>
-  <si>
-    <t>|  ![o13](/doc/img/odoo13.jpg)               | [System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                            | | | | |</t>
-  </si>
-  <si>
     <t>1) copy MD menu to a1..a18</t>
   </si>
   <si>
-    <t xml:space="preserve">|  ![o13](/doc/img/odoo13.jpg)               | [System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                            | </t>
-  </si>
-  <si>
     <t>2) copy values a20..a66 to a71</t>
   </si>
   <si>
@@ -272,13 +41,226 @@
   </si>
   <si>
     <t>7) remove blank before o13 in a157</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>CALL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> | | | |</t>
+  </si>
+  <si>
+    <t>| ![psc](/doc/img/hr_presence.jpg)          | [Asistencias](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-presence-guides.md)                          | ![apv](/doc/img/approval.jpg)             | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-approvals-guides.md)                      | ![blg](/doc/img/website_blog.jpg)         | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-blog-guides.md)                                     |</t>
+  </si>
+  <si>
+    <t>| ![cal](/doc/img/calendar.jpg)             | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-calendar-guides.md)                           | ![mka](/doc/img/marketing_automation.jpg) | [Campañas](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-marketing-automation-guides.md)                 | ![lvc](/doc/img/im_livechat.jpg)          | [Chat en vivo](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-live_chat-guides.md)                        |</t>
+  </si>
+  <si>
+    <t>| ![apt](/doc/img/appointments.jpg)         | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-appointments-guides.md)                            | ![crm](/doc/img/crm.jpg)                  | [Clientes](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-crm-guides.md)                                  | ![dsc](/doc/img/discuss.jpg)              | [Comentarios](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-discuss-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| ![lun](/doc/img/lunch.jpg)                | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-lunch-guides.md)                                 | ![skm](/doc/img/hr_skills.jpg)            | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-skills-guides.md)                           | ![pch](/doc/img/purchase.jpg)             | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-purchasing-guides.md)                            |</t>
+  </si>
+  <si>
+    <t>| ![acc](/doc/img/account_accountant.jpg)   | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-accounting-guides.md)                       | ![ctc](/doc/img/contacts.jpg)             | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-contacts-guides.md)                            | ![msm](/doc/img/mass_mailing.jpg)         | [Correo masivo](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-mass-marketing-guides.md)                  |</t>
+  </si>
+  <si>
+    <t>| ![eco](/doc/img/website_sale.jpg)         | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-ecommerce-guides.md)                           | ![esg](/doc/img/website_sign.jpg)         | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-esignature-guides.md)                             | ![emp](/doc/img/hr_employees.jpg)         | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-employees-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| ![svy](/doc/img/survey.jpg)               | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-survey-guides.md)                              | ![equ](/doc/img/equipment.jpg)            | [Equipo](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-equipment-guides.md)                              | ![apr](/doc/img/hr_appraisal.jpg)         | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-appraisal-guides.md)                        |</t>
+  </si>
+  <si>
+    <t>| ![eve](/doc/img/event.jpg)                | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-events-guides.md)                                | ![ivc](/doc/img/account_invoicing.jpg)    | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-invoicing-guides.md)                         | ![flt](/doc/img/fleet.jpg)                | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-fleet-guides.md)                               |</t>
+  </si>
+  <si>
+    <t>| ![for](/doc/img/website_forum.jpg)        | [Foros](/es-mx/o13/ee/for/es-mx-o13-ee-for-forum-guides.md)                                   | ![exp](/doc/img/hr_expense.jpg)           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-expenses-guides.md)                               | ![iot](/doc/img/iot.jpg)                  | [Internet de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-internet_of_things-guides.md)      |</t>
+  </si>
+  <si>
+    <t>| ![inv](/doc/img/stock.jpg)                | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-inventory-guides.md)                         | ![mnt](/doc/img/maintenance.jpg)          | [Manenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-maintenance-guides.md)                      | ![hdk](/doc/img/helpdesk.jpg)             | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-helpdesk-guides.md)                        |</t>
+  </si>
+  <si>
+    <t>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-mrp-guides.md)                                       | ![pyr](/doc/img/hr_payroll.jpg)           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-payroll-guides.md)                                | ![stu](/doc/img/web_studio.jpg)           | [Odoo Estudio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-studio-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-odoo-sh-guides.md)                               | ![tof](/doc/img/timeoff.jpg)              | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-timeoff-guides.md)                              | ![plm](/doc/img/plm.jpg)                  | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-plm-guides.md)                                       |</t>
+  </si>
+  <si>
+    <t>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Productividad](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-timesheet-guides.md)                       | ![prj](/doc/img/project.jpg)              | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-projects-guides.md)                            | ![sli](/doc/img/website_slides.jpg)       | [Publicaciones](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-slides-guides.md)                          |</t>
+  </si>
+  <si>
+    <t>| ![pos](/doc/img/point_of_sale.jpg)        | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-point-of-sale-guides.md)                  | ![rcr](/doc/img/hr_recruitment.jpg)       | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-recruitment-guides.md)                     | ![rnt](/doc/img/rentals.jpg)              | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-rental-guides.md)                                 |</t>
+  </si>
+  <si>
+    <t>| ![fsv](/doc/img/field_service.jpg)        | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-field-service-guides.md)                        | ![web](/doc/img/website.jpg)              | [Sitios Web](/es-mx/o13/ee/web/es-mx-o13-ee-web-websites-builder-guides.md)                   | ![sub](/doc/img/sale_subscription.jpg)    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-subscriptions-guides.md)                   |</t>
+  </si>
+  <si>
+    <t xml:space="preserve">| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  | | | | |                               </t>
+  </si>
+  <si>
+    <t>| ![o13](/doc/img/odoo13.jpg)               | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           | | | | |</t>
+  </si>
+  <si>
+    <t>| ![o13](/doc/img/odoo13.jpg)               | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| ![psc](/doc/img/hr_presence.jpg)          | [Asistencias](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-presence-guides.md)                          |</t>
+  </si>
+  <si>
+    <t>| ![cal](/doc/img/calendar.jpg)             | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-calendar-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| ![apt](/doc/img/appointments.jpg)         | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-appointments-guides.md)                            |</t>
+  </si>
+  <si>
+    <t>| ![lun](/doc/img/lunch.jpg)                | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-lunch-guides.md)                                 |</t>
+  </si>
+  <si>
+    <t>| ![acc](/doc/img/account_accountant.jpg)   | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-accounting-guides.md)                       |</t>
+  </si>
+  <si>
+    <t>| ![eco](/doc/img/website_sale.jpg)         | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-ecommerce-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| ![svy](/doc/img/survey.jpg)               | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-survey-guides.md)                              |</t>
+  </si>
+  <si>
+    <t>| ![eve](/doc/img/event.jpg)                | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-events-guides.md)                                |</t>
+  </si>
+  <si>
+    <t>| ![for](/doc/img/website_forum.jpg)        | [Foros](/es-mx/o13/ee/for/es-mx-o13-ee-for-forum-guides.md)                                   |</t>
+  </si>
+  <si>
+    <t>| ![inv](/doc/img/stock.jpg)                | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-inventory-guides.md)                         |</t>
+  </si>
+  <si>
+    <t>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-mrp-guides.md)                                       |</t>
+  </si>
+  <si>
+    <t>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-odoo-sh-guides.md)                               |</t>
+  </si>
+  <si>
+    <t>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Productividad](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-timesheet-guides.md)                       |</t>
+  </si>
+  <si>
+    <t>| ![pos](/doc/img/point_of_sale.jpg)        | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-point-of-sale-guides.md)                  |</t>
+  </si>
+  <si>
+    <t>| ![fsv](/doc/img/field_service.jpg)        | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-field-service-guides.md)                        |</t>
+  </si>
+  <si>
+    <t>| ![apv](/doc/img/approval.jpg)             | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-approvals-guides.md)                      |</t>
+  </si>
+  <si>
+    <t>| ![mka](/doc/img/marketing_automation.jpg) | [Campañas](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-marketing-automation-guides.md)                 |</t>
+  </si>
+  <si>
+    <t>| ![crm](/doc/img/crm.jpg)                  | [Clientes](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-crm-guides.md)                                  |</t>
+  </si>
+  <si>
+    <t>| ![skm](/doc/img/hr_skills.jpg)            | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-skills-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| ![ctc](/doc/img/contacts.jpg)             | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-contacts-guides.md)                            |</t>
+  </si>
+  <si>
+    <t>| ![esg](/doc/img/website_sign.jpg)         | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-esignature-guides.md)                             |</t>
+  </si>
+  <si>
+    <t>| ![equ](/doc/img/equipment.jpg)            | [Equipo](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-equipment-guides.md)                              |</t>
+  </si>
+  <si>
+    <t>| ![ivc](/doc/img/account_invoicing.jpg)    | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-invoicing-guides.md)                         |</t>
+  </si>
+  <si>
+    <t>| ![exp](/doc/img/hr_expense.jpg)           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-expenses-guides.md)                               |</t>
+  </si>
+  <si>
+    <t>| ![mnt](/doc/img/maintenance.jpg)          | [Manenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-maintenance-guides.md)                      |</t>
+  </si>
+  <si>
+    <t>| ![pyr](/doc/img/hr_payroll.jpg)           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-payroll-guides.md)                                |</t>
+  </si>
+  <si>
+    <t>| ![tof](/doc/img/timeoff.jpg)              | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-timeoff-guides.md)                              |</t>
+  </si>
+  <si>
+    <t>| ![prj](/doc/img/project.jpg)              | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-projects-guides.md)                            |</t>
+  </si>
+  <si>
+    <t>| ![rcr](/doc/img/hr_recruitment.jpg)       | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-recruitment-guides.md)                     |</t>
+  </si>
+  <si>
+    <t>| ![web](/doc/img/website.jpg)              | [Sitios Web](/es-mx/o13/ee/web/es-mx-o13-ee-web-websites-builder-guides.md)                   |</t>
+  </si>
+  <si>
+    <t>| ![blg](/doc/img/website_blog.jpg)         | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-blog-guides.md)                                     |</t>
+  </si>
+  <si>
+    <t>| ![lvc](/doc/img/im_livechat.jpg)          | [Chat en vivo](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-live_chat-guides.md)                        |</t>
+  </si>
+  <si>
+    <t>| ![dsc](/doc/img/discuss.jpg)              | [Comentarios](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-discuss-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| ![pch](/doc/img/purchase.jpg)             | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-purchasing-guides.md)                            |</t>
+  </si>
+  <si>
+    <t>| ![msm](/doc/img/mass_mailing.jpg)         | [Correo masivo](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-mass-marketing-guides.md)                  |</t>
+  </si>
+  <si>
+    <t>| ![emp](/doc/img/hr_employees.jpg)         | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-employees-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| ![apr](/doc/img/hr_appraisal.jpg)         | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-appraisal-guides.md)                        |</t>
+  </si>
+  <si>
+    <t>| ![flt](/doc/img/fleet.jpg)                | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-fleet-guides.md)                               |</t>
+  </si>
+  <si>
+    <t>| ![iot](/doc/img/iot.jpg)                  | [Internet de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-internet_of_things-guides.md)      |</t>
+  </si>
+  <si>
+    <t>| ![hdk](/doc/img/helpdesk.jpg)             | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-helpdesk-guides.md)                        |</t>
+  </si>
+  <si>
+    <t>| ![stu](/doc/img/web_studio.jpg)           | [Odoo Estudio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-studio-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| ![plm](/doc/img/plm.jpg)                  | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-plm-guides.md)                                       |</t>
+  </si>
+  <si>
+    <t>| ![sli](/doc/img/website_slides.jpg)       | [Publicaciones](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-slides-guides.md)                          |</t>
+  </si>
+  <si>
+    <t>| ![rnt](/doc/img/rentals.jpg)              | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-rental-guides.md)                                 |</t>
+  </si>
+  <si>
+    <t>| ![sub](/doc/img/sale_subscription.jpg)    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-subscriptions-guides.md)                   |</t>
+  </si>
+  <si>
+    <t>| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  |</t>
+  </si>
+  <si>
+    <t>| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  | | | | |</t>
+  </si>
+  <si>
+    <t>| ![o13(/doc/img/odoo13.jpg)                | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           | | | | |</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +277,21 @@
     <font>
       <sz val="8"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,13 +324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00FF00"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -358,8 +355,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,14 +680,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="144.5703125" customWidth="1"/>
+    <col min="1" max="1" width="144.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B1" s="10"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -695,9 +702,9 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B2" s="10"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -711,9 +718,9 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B3" s="10"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -727,9 +734,9 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B4" s="10"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -743,9 +750,9 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B5" s="10"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -759,9 +766,9 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B6" s="10"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -775,9 +782,9 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B7" s="10"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -791,9 +798,9 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B8" s="10"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -807,9 +814,9 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B9" s="10"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -823,9 +830,9 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -839,9 +846,9 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -855,9 +862,9 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -871,9 +878,9 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -887,9 +894,9 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -903,9 +910,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -919,9 +926,9 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -935,9 +942,9 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -950,8 +957,7 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -964,8 +970,7 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -978,14 +983,14 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="str">
-        <f>"|  " &amp; MID(A1,3,140)</f>
-        <v xml:space="preserve">|  ![o13](/doc/img/odoo13.jpg)               | [System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                            | </v>
-      </c>
-      <c r="B20" s="2"/>
+      <c r="A20" s="3" t="str">
+        <f>LEFT(A1,141)</f>
+        <v>| ![o13](/doc/img/odoo13.jpg)               | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           |</v>
+      </c>
+      <c r="B20" s="10"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -999,12 +1004,12 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f>LEFT(A2,141)</f>
-        <v>| ![acc](/doc/img/account_accountant.jpg)   | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)                         |</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>| ![psc](/doc/img/hr_presence.jpg)          | [Asistencias](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-presence-guides.md)                          |</v>
+      </c>
+      <c r="B21" s="10"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1017,13 +1022,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
-        <f t="shared" ref="A22:A36" si="0">LEFT(A3,141)</f>
-        <v>| ![apv](/doc/img/approval.jpg)             | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                           |</v>
-      </c>
-      <c r="B22" s="2"/>
+        <f t="shared" ref="A22:A35" si="0">LEFT(A3,141)</f>
+        <v>| ![cal](/doc/img/calendar.jpg)             | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-calendar-guides.md)                           |</v>
+      </c>
+      <c r="B22" s="10"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1037,12 +1042,12 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![ctc](/doc/img/contacts.jpg)             | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                             |</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>| ![apt](/doc/img/appointments.jpg)         | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-appointments-guides.md)                            |</v>
+      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1056,12 +1061,12 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![eco](/doc/img/website_sale.jpg)         | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                           |</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>| ![lun](/doc/img/lunch.jpg)                | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-lunch-guides.md)                                 |</v>
+      </c>
+      <c r="B24" s="10"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1075,12 +1080,12 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![esg](/doc/img/website_sign.jpg)         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                         |</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>| ![acc](/doc/img/account_accountant.jpg)   | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-accounting-guides.md)                       |</v>
+      </c>
+      <c r="B25" s="10"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1094,12 +1099,12 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![flt](/doc/img/fleet.jpg)                | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                                   |</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>| ![eco](/doc/img/website_sale.jpg)         | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-ecommerce-guides.md)                           |</v>
+      </c>
+      <c r="B26" s="10"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1113,9 +1118,9 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![hdk](/doc/img/helpdesk.jpg)             | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                             |</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>| ![svy](/doc/img/survey.jpg)               | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-survey-guides.md)                              |</v>
+      </c>
+      <c r="B27" s="10"/>
       <c r="C27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1129,9 +1134,9 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![ivc](/doc/img/account_invoicing.jpg)    | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)                           |</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>| ![eve](/doc/img/event.jpg)                | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-events-guides.md)                                |</v>
+      </c>
+      <c r="B28" s="10"/>
       <c r="C28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1145,9 +1150,9 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![lun](/doc/img/lunch.jpg)                | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                                   |</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>| ![for](/doc/img/website_forum.jpg)        | [Foros](/es-mx/o13/ee/for/es-mx-o13-ee-for-forum-guides.md)                                   |</v>
+      </c>
+      <c r="B29" s="10"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1162,9 +1167,9 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![msm](/doc/img/mass_mailing.jpg)         | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)                      |</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>| ![inv](/doc/img/stock.jpg)                | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-inventory-guides.md)                         |</v>
+      </c>
+      <c r="B30" s="10"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1179,9 +1184,9 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![stu](/doc/img/web_studio.jpg)           | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                            |</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-mrp-guides.md)                                       |</v>
+      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1196,9 +1201,9 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![plm](/doc/img/plm.jpg)                  | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                       |</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-odoo-sh-guides.md)                               |</v>
+      </c>
+      <c r="B32" s="10"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1213,9 +1218,9 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![prj](/doc/img/project.jpg)              | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                             |</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Productividad](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-timesheet-guides.md)                       |</v>
+      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1230,9 +1235,9 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![sls](/doc/img/sale.jpg)                 | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                   |</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>| ![pos](/doc/img/point_of_sale.jpg)        | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-point-of-sale-guides.md)                  |</v>
+      </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1247,9 +1252,9 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![sub](/doc/img/sale_subscription.jpg)    | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)                   |</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>| ![fsv](/doc/img/field_service.jpg)        | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-field-service-guides.md)                        |</v>
+      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1263,10 +1268,10 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="str">
-        <f>MID(A2,141,141)</f>
-        <v>| ![apt](/doc/img/appointments.jpg)         | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                     |</v>
-      </c>
-      <c r="B36" s="2"/>
+        <f t="shared" ref="A36:A50" si="1">MID(A2,141,141)</f>
+        <v>| ![apv](/doc/img/approval.jpg)             | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-approvals-guides.md)                      |</v>
+      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1280,10 +1285,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="str">
-        <f>MID(A3,141,141)</f>
-        <v>| ![blg](/doc/img/website_blog.jpg)         | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                                     |</v>
-      </c>
-      <c r="B37" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![mka](/doc/img/marketing_automation.jpg) | [Campañas](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-marketing-automation-guides.md)                 |</v>
+      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1297,10 +1302,10 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="str">
-        <f>MID(A4,141,141)</f>
-        <v>| ![crm](/doc/img/crm.jpg)                  | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                       |</v>
-      </c>
-      <c r="B38" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![crm](/doc/img/crm.jpg)                  | [Clientes](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-crm-guides.md)                                  |</v>
+      </c>
+      <c r="B38" s="10"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1314,10 +1319,10 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="str">
-        <f>MID(A5,141,141)</f>
-        <v>| ![emp](/doc/img/hr_employees.jpg)         | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                           |</v>
-      </c>
-      <c r="B39" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![skm](/doc/img/hr_skills.jpg)            | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-skills-guides.md)                           |</v>
+      </c>
+      <c r="B39" s="10"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1331,10 +1336,10 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="str">
-        <f>MID(A6,141,141)</f>
-        <v>| ![eve](/doc/img/event.jpg)                | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                                 |</v>
-      </c>
-      <c r="B40" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![ctc](/doc/img/contacts.jpg)             | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-contacts-guides.md)                            |</v>
+      </c>
+      <c r="B40" s="10"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1348,10 +1353,10 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="str">
-        <f>MID(A7,141,141)</f>
-        <v>| ![for](/doc/img/website_forum.jpg)        | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                                   |</v>
-      </c>
-      <c r="B41" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![esg](/doc/img/website_sign.jpg)         | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-esignature-guides.md)                             |</v>
+      </c>
+      <c r="B41" s="10"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1365,10 +1370,10 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="str">
-        <f>MID(A8,141,141)</f>
-        <v>| ![iot](/doc/img/iot.jpg)                  | [Internet of Things (IOT)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)   |</v>
-      </c>
-      <c r="B42" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![equ](/doc/img/equipment.jpg)            | [Equipo](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-equipment-guides.md)                              |</v>
+      </c>
+      <c r="B42" s="10"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1382,10 +1387,10 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="str">
-        <f>MID(A9,141,141)</f>
-        <v>| ![tof](/doc/img/timeoff.jpg)              | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                              |</v>
-      </c>
-      <c r="B43" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![ivc](/doc/img/account_invoicing.jpg)    | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-invoicing-guides.md)                         |</v>
+      </c>
+      <c r="B43" s="10"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1399,10 +1404,10 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="str">
-        <f>MID(A10,141,141)</f>
-        <v>| ![mnt](/doc/img/maintenance.jpg)          | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                       |</v>
-      </c>
-      <c r="B44" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![exp](/doc/img/hr_expense.jpg)           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-expenses-guides.md)                               |</v>
+      </c>
+      <c r="B44" s="10"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1416,10 +1421,10 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="str">
-        <f>MID(A11,141,141)</f>
-        <v>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                       |</v>
-      </c>
-      <c r="B45" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![mnt](/doc/img/maintenance.jpg)          | [Manenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-maintenance-guides.md)                      |</v>
+      </c>
+      <c r="B45" s="10"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1433,10 +1438,10 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="str">
-        <f>MID(A12,141,141)</f>
-        <v>| ![pyr](/doc/img/hr_payroll.jpg)           | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                               |</v>
-      </c>
-      <c r="B46" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![pyr](/doc/img/hr_payroll.jpg)           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-payroll-guides.md)                                |</v>
+      </c>
+      <c r="B46" s="10"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1450,10 +1455,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="str">
-        <f>MID(A13,141,141)</f>
-        <v>| ![pos](/doc/img/point_of_sale.jpg)        | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)                   |</v>
-      </c>
-      <c r="B47" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![tof](/doc/img/timeoff.jpg)              | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-timeoff-guides.md)                              |</v>
+      </c>
+      <c r="B47" s="10"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1467,10 +1472,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="str">
-        <f>MID(A14,141,141)</f>
-        <v>| ![rcr](/doc/img/hr_recruitment.jpg)       | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                       |</v>
-      </c>
-      <c r="B48" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![prj](/doc/img/project.jpg)              | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-projects-guides.md)                            |</v>
+      </c>
+      <c r="B48" s="10"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1484,10 +1489,10 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="str">
-        <f>MID(A15,141,141)</f>
-        <v>| ![skm](/doc/img/hr_skills.jpg)            | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                                 |</v>
-      </c>
-      <c r="B49" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![rcr](/doc/img/hr_recruitment.jpg)       | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-recruitment-guides.md)                     |</v>
+      </c>
+      <c r="B49" s="10"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1501,10 +1506,10 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="str">
-        <f>MID(A16,141,141)</f>
-        <v>| ![svy](/doc/img/survey.jpg)               | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                                |</v>
-      </c>
-      <c r="B50" s="2"/>
+        <f t="shared" si="1"/>
+        <v>| ![web](/doc/img/website.jpg)              | [Sitios Web](/es-mx/o13/ee/web/es-mx-o13-ee-web-websites-builder-guides.md)                   |</v>
+      </c>
+      <c r="B50" s="10"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1518,10 +1523,10 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f>MID(A2,281,141)</f>
-        <v>| ![apr](/doc/img/hr_appraisal.jpg)         | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                           |</v>
-      </c>
-      <c r="B51" s="2"/>
+        <f t="shared" ref="A51:A65" si="2">MID(A2,281,141)</f>
+        <v>| ![blg](/doc/img/website_blog.jpg)         | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-blog-guides.md)                                     |</v>
+      </c>
+      <c r="B51" s="10"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1535,10 +1540,10 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f>MID(A3,281,141)</f>
-        <v>| ![cal](/doc/img/calendar.jpg)             | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                             |</v>
-      </c>
-      <c r="B52" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![lvc](/doc/img/im_livechat.jpg)          | [Chat en vivo](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-live_chat-guides.md)                        |</v>
+      </c>
+      <c r="B52" s="10"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1552,10 +1557,10 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f>MID(A4,281,141)</f>
-        <v>| ![dsc](/doc/img/discuss.jpg)              | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                               |</v>
-      </c>
-      <c r="B53" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![dsc](/doc/img/discuss.jpg)              | [Comentarios](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-discuss-guides.md)                           |</v>
+      </c>
+      <c r="B53" s="10"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1569,10 +1574,10 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f>MID(A5,281,141)</f>
-        <v>| ![equ](/doc/img/equipment.jpg)            | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                           |</v>
-      </c>
-      <c r="B54" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![pch](/doc/img/purchase.jpg)             | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-purchasing-guides.md)                            |</v>
+      </c>
+      <c r="B54" s="10"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1586,10 +1591,10 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f>MID(A6,281,141)</f>
-        <v>| ![exp](/doc/img/hr_expense.jpg)           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                             |</v>
-      </c>
-      <c r="B55" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![msm](/doc/img/mass_mailing.jpg)         | [Correo masivo](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-mass-marketing-guides.md)                  |</v>
+      </c>
+      <c r="B55" s="10"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1603,10 +1608,10 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f>MID(A7,281,141)</f>
-        <v>| ![fsv](/doc/img/field_service.jpg)        | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)                   |</v>
-      </c>
-      <c r="B56" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![emp](/doc/img/hr_employees.jpg)         | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-employees-guides.md)                           |</v>
+      </c>
+      <c r="B56" s="10"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -1620,10 +1625,10 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f>MID(A8,281,141)</f>
-        <v>| ![inv](/doc/img/stock.jpg)                | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           |</v>
-      </c>
-      <c r="B57" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![apr](/doc/img/hr_appraisal.jpg)         | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-appraisal-guides.md)                        |</v>
+      </c>
+      <c r="B57" s="10"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1637,10 +1642,10 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f>MID(A9,281,141)</f>
-        <v>| ![lvc](/doc/img/im_livechat.jpg)          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                           |</v>
-      </c>
-      <c r="B58" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![flt](/doc/img/fleet.jpg)                | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-fleet-guides.md)                               |</v>
+      </c>
+      <c r="B58" s="10"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1654,10 +1659,10 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f>MID(A10,281,141)</f>
-        <v>| ![mka](/doc/img/marketing_automation.jpg) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md)           |</v>
-      </c>
-      <c r="B59" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![iot](/doc/img/iot.jpg)                  | [Internet de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-internet_of_things-guides.md)      |</v>
+      </c>
+      <c r="B59" s="10"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -1671,10 +1676,10 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f>MID(A11,281,141)</f>
-        <v>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                               |</v>
-      </c>
-      <c r="B60" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![hdk](/doc/img/helpdesk.jpg)             | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-helpdesk-guides.md)                        |</v>
+      </c>
+      <c r="B60" s="10"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1688,10 +1693,10 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f>MID(A12,281,141)</f>
-        <v>| ![pch](/doc/img/purchase.jpg)             | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                         |</v>
-      </c>
-      <c r="B61" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![stu](/doc/img/web_studio.jpg)           | [Odoo Estudio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-studio-guides.md)                           |</v>
+      </c>
+      <c r="B61" s="10"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -1705,10 +1710,10 @@
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f>MID(A13,281,141)</f>
-        <v>| ![psc](/doc/img/hr_presence.jpg)          | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                             |</v>
-      </c>
-      <c r="B62" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![plm](/doc/img/plm.jpg)                  | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-plm-guides.md)                                       |</v>
+      </c>
+      <c r="B62" s="10"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -1722,10 +1727,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f>MID(A14,281,141)</f>
-        <v>| ![rnt](/doc/img/rentals.jpg)              | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                                 |</v>
-      </c>
-      <c r="B63" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![sli](/doc/img/website_slides.jpg)       | [Publicaciones](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-slides-guides.md)                          |</v>
+      </c>
+      <c r="B63" s="10"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1739,10 +1744,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f>MID(A15,281,141)</f>
-        <v>| ![sli](/doc/img/website_slides.jpg)       | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                                 |</v>
-      </c>
-      <c r="B64" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![rnt](/doc/img/rentals.jpg)              | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-rental-guides.md)                                 |</v>
+      </c>
+      <c r="B64" s="10"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -1756,10 +1761,10 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f>MID(A16,281,141)</f>
-        <v>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Time Sheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                          |</v>
-      </c>
-      <c r="B65" s="2"/>
+        <f t="shared" si="2"/>
+        <v>| ![sub](/doc/img/sale_subscription.jpg)    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-subscriptions-guides.md)                   |</v>
+      </c>
+      <c r="B65" s="10"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -1774,9 +1779,9 @@
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="str">
         <f>LEFT(A17,141)</f>
-        <v>| ![web](/doc/img/website.jpg)              | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                     |</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  |</v>
+      </c>
+      <c r="B66" s="10"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -1789,8 +1794,7 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -1803,8 +1807,7 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
+      <c r="B68" s="10"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -1817,16 +1820,15 @@
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="7" t="str">
-        <f>A71&amp;"| | | |"</f>
-        <v>|  ![o13](/doc/img/odoo13.jpg)               | [System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                            | | | | |</v>
+      <c r="H69" s="6" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A71,"![o13]"," ![o13"),"| [System]"," | [System]"),"| [Sistema]"," | [Sistema]")&amp;" | | | |"</f>
+        <v>|  ![o13(/doc/img/odoo13.jpg)                | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           | | | | |</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -1834,15 +1836,21 @@
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="A70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="8" t="s">
-        <v>65</v>
+      <c r="H70" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -1851,16 +1859,22 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B71" s="10">
+        <f>SEARCH("]",A71,40)</f>
+        <v>55</v>
+      </c>
+      <c r="C71" s="2" t="str">
+        <f>IF(MID(A71,5,3)="o13","",MID(A71,46,B71-45))</f>
+        <v/>
+      </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="8" t="s">
-        <v>65</v>
+      <c r="H71" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -1869,23 +1883,22 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2">
-        <f t="shared" ref="C72:C118" si="1">SEARCH("]",A72,40)</f>
-        <v>58</v>
-      </c>
-      <c r="D72" s="2" t="str">
-        <f t="shared" ref="D72:D118" si="2">MID(A72,46,C72-45)</f>
-        <v xml:space="preserve"> [Accounting]</v>
+        <v>31</v>
+      </c>
+      <c r="B72" s="10">
+        <f>SEARCH("]",A72,40)</f>
+        <v>59</v>
+      </c>
+      <c r="C72" s="2" t="str">
+        <f>IF(MID(A72,5,3)="o13","",MID(A72,46,B72-45))</f>
+        <v xml:space="preserve"> [Asistencias]</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="7" t="str">
+      <c r="H72" s="6" t="str">
         <f>IF(ROW()/3=INT(ROW()/3),A72&amp;MID(A73,2,LEN(A73)-2)&amp;A74,"")</f>
-        <v>| ![acc](/doc/img/account_accountant.jpg)   | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)                         | ![apr](/doc/img/hr_appraisal.jpg)         | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                           | ![apt](/doc/img/appointments.jpg)         | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                     |</v>
+        <v>| ![psc](/doc/img/hr_presence.jpg)          | [Asistencias](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-presence-guides.md)                          | ![apv](/doc/img/approval.jpg)             | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-approvals-guides.md)                      | ![blg](/doc/img/website_blog.jpg)         | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-blog-guides.md)                                     |</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -1894,22 +1907,21 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="D73" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Appraisal]</v>
+        <v>46</v>
+      </c>
+      <c r="B73" s="10">
+        <f>SEARCH("]",A73,40)</f>
+        <v>62</v>
+      </c>
+      <c r="C73" s="2" t="str">
+        <f>IF(MID(A73,5,3)="o13","",MID(A73,46,B73-45))</f>
+        <v xml:space="preserve"> [Autorizaciones]</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="7" t="str">
-        <f t="shared" ref="H73:H117" si="3">IF(ROW()/3=INT(ROW()/3),A73&amp;MID(A74,2,LEN(A74)-2)&amp;A75,"")</f>
+      <c r="H73" s="6" t="str">
+        <f>IF(ROW()/3=INT(ROW()/3),A73&amp;MID(A74,2,LEN(A74)-2)&amp;A75,"")</f>
         <v/>
       </c>
       <c r="I73" s="2"/>
@@ -1919,22 +1931,21 @@
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="D74" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Appointments]</v>
+        <v>61</v>
+      </c>
+      <c r="B74" s="10">
+        <f>SEARCH("]",A74,40)</f>
+        <v>52</v>
+      </c>
+      <c r="C74" s="2" t="str">
+        <f>IF(MID(A74,5,3)="o13","",MID(A74,46,B74-45))</f>
+        <v xml:space="preserve"> [Blog]</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="1"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="H74" s="6" t="str">
+        <f t="shared" ref="H74:H118" si="3">IF(ROW()/3=INT(ROW()/3),A74&amp;MID(A75,2,LEN(A75)-2)&amp;A76,"")</f>
         <v/>
       </c>
       <c r="I74" s="2"/>
@@ -1944,23 +1955,22 @@
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="D75" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Approvals]</v>
+        <v>32</v>
+      </c>
+      <c r="B75" s="10">
+        <f>SEARCH("]",A75,40)</f>
+        <v>58</v>
+      </c>
+      <c r="C75" s="2" t="str">
+        <f>IF(MID(A75,5,3)="o13","",MID(A75,46,B75-45))</f>
+        <v xml:space="preserve"> [Calendario]</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![apv](/doc/img/approval.jpg)             | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                           | ![blg](/doc/img/website_blog.jpg)         | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                                     | ![cal](/doc/img/calendar.jpg)             | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                             |</v>
+      <c r="H75" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![cal](/doc/img/calendar.jpg)             | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-calendar-guides.md)                           | ![mka](/doc/img/marketing_automation.jpg) | [Campañas](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-marketing-automation-guides.md)                 | ![lvc](/doc/img/im_livechat.jpg)          | [Chat en vivo](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-live_chat-guides.md)                        |</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -1969,21 +1979,20 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="D76" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Blog]</v>
+        <v>47</v>
+      </c>
+      <c r="B76" s="10">
+        <f>SEARCH("]",A76,40)</f>
+        <v>56</v>
+      </c>
+      <c r="C76" s="2" t="str">
+        <f>IF(MID(A76,5,3)="o13","",MID(A76,46,B76-45))</f>
+        <v xml:space="preserve"> [Campañas]</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="7" t="str">
+      <c r="H76" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1994,21 +2003,20 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D77" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Calendar]</v>
+        <v>62</v>
+      </c>
+      <c r="B77" s="10">
+        <f>SEARCH("]",A77,40)</f>
+        <v>60</v>
+      </c>
+      <c r="C77" s="2" t="str">
+        <f>IF(MID(A77,5,3)="o13","",MID(A77,46,B77-45))</f>
+        <v xml:space="preserve"> [Chat en vivo]</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="7" t="str">
+      <c r="H77" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2019,23 +2027,22 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="D78" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [CRM]</v>
+        <v>33</v>
+      </c>
+      <c r="B78" s="10">
+        <f>SEARCH("]",A78,40)</f>
+        <v>53</v>
+      </c>
+      <c r="C78" s="2" t="str">
+        <f>IF(MID(A78,5,3)="o13","",MID(A78,46,B78-45))</f>
+        <v xml:space="preserve"> [Citas]</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![crm](/doc/img/crm.jpg)                  | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                       | ![ctc](/doc/img/contacts.jpg)             | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                             | ![dsc](/doc/img/discuss.jpg)              | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                               |</v>
+      <c r="H78" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![apt](/doc/img/appointments.jpg)         | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-appointments-guides.md)                            | ![crm](/doc/img/crm.jpg)                  | [Clientes](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-crm-guides.md)                                  | ![dsc](/doc/img/discuss.jpg)              | [Comentarios](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-discuss-guides.md)                           |</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -2044,21 +2051,20 @@
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2">
-        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B79" s="10">
+        <f>SEARCH("]",A79,40)</f>
         <v>56</v>
       </c>
-      <c r="D79" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Contacts]</v>
+      <c r="C79" s="2" t="str">
+        <f>IF(MID(A79,5,3)="o13","",MID(A79,46,B79-45))</f>
+        <v xml:space="preserve"> [Clientes]</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="1"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="7" t="str">
+      <c r="H79" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2069,21 +2075,20 @@
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D80" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Discuss]</v>
+        <v>63</v>
+      </c>
+      <c r="B80" s="10">
+        <f>SEARCH("]",A80,40)</f>
+        <v>59</v>
+      </c>
+      <c r="C80" s="2" t="str">
+        <f>IF(MID(A80,5,3)="o13","",MID(A80,46,B80-45))</f>
+        <v xml:space="preserve"> [Comentarios]</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="7" t="str">
+      <c r="H80" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2094,23 +2099,22 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="D81" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [eCommerce]</v>
+        <v>34</v>
+      </c>
+      <c r="B81" s="10">
+        <f>SEARCH("]",A81,40)</f>
+        <v>55</v>
+      </c>
+      <c r="C81" s="2" t="str">
+        <f>IF(MID(A81,5,3)="o13","",MID(A81,46,B81-45))</f>
+        <v xml:space="preserve"> [Comidas]</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="1"/>
       <c r="G81" s="2"/>
-      <c r="H81" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![eco](/doc/img/website_sale.jpg)         | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                           | ![emp](/doc/img/hr_employees.jpg)         | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                           | ![equ](/doc/img/equipment.jpg)            | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                           |</v>
+      <c r="H81" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![lun](/doc/img/lunch.jpg)                | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-lunch-guides.md)                                 | ![skm](/doc/img/hr_skills.jpg)            | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-skills-guides.md)                           | ![pch](/doc/img/purchase.jpg)             | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-purchasing-guides.md)                            |</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -2119,21 +2123,20 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="D82" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Employees]</v>
+        <v>49</v>
+      </c>
+      <c r="B82" s="10">
+        <f>SEARCH("]",A82,40)</f>
+        <v>60</v>
+      </c>
+      <c r="C82" s="2" t="str">
+        <f>IF(MID(A82,5,3)="o13","",MID(A82,46,B82-45))</f>
+        <v xml:space="preserve"> [Competencias]</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="1"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="7" t="str">
+      <c r="H82" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2144,21 +2147,20 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="D83" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Equipment]</v>
+        <v>64</v>
+      </c>
+      <c r="B83" s="10">
+        <f>SEARCH("]",A83,40)</f>
+        <v>55</v>
+      </c>
+      <c r="C83" s="2" t="str">
+        <f>IF(MID(A83,5,3)="o13","",MID(A83,46,B83-45))</f>
+        <v xml:space="preserve"> [Compras]</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="7" t="str">
+      <c r="H83" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2169,23 +2171,22 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="D84" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [eSignature]</v>
+        <v>35</v>
+      </c>
+      <c r="B84" s="10">
+        <f>SEARCH("]",A84,40)</f>
+        <v>60</v>
+      </c>
+      <c r="C84" s="2" t="str">
+        <f>IF(MID(A84,5,3)="o13","",MID(A84,46,B84-45))</f>
+        <v xml:space="preserve"> [Contabilidad]</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
       <c r="G84" s="2"/>
-      <c r="H84" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![esg](/doc/img/website_sign.jpg)         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                         | ![eve](/doc/img/event.jpg)                | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                                 | ![exp](/doc/img/hr_expense.jpg)           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                             |</v>
+      <c r="H84" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![acc](/doc/img/account_accountant.jpg)   | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-accounting-guides.md)                       | ![ctc](/doc/img/contacts.jpg)             | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-contacts-guides.md)                            | ![msm](/doc/img/mass_mailing.jpg)         | [Correo masivo](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-mass-marketing-guides.md)                  |</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -2194,21 +2195,20 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="D85" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Events]</v>
+        <v>50</v>
+      </c>
+      <c r="B85" s="10">
+        <f>SEARCH("]",A85,40)</f>
+        <v>57</v>
+      </c>
+      <c r="C85" s="2" t="str">
+        <f>IF(MID(A85,5,3)="o13","",MID(A85,46,B85-45))</f>
+        <v xml:space="preserve"> [Contactos]</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
       <c r="G85" s="2"/>
-      <c r="H85" s="7" t="str">
+      <c r="H85" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2219,21 +2219,20 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D86" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Expenses]</v>
+        <v>65</v>
+      </c>
+      <c r="B86" s="10">
+        <f>SEARCH("]",A86,40)</f>
+        <v>61</v>
+      </c>
+      <c r="C86" s="2" t="str">
+        <f>IF(MID(A86,5,3)="o13","",MID(A86,46,B86-45))</f>
+        <v xml:space="preserve"> [Correo masivo]</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="7" t="str">
+      <c r="H86" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2244,23 +2243,22 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="D87" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Fleet]</v>
+        <v>36</v>
+      </c>
+      <c r="B87" s="10">
+        <f>SEARCH("]",A87,40)</f>
+        <v>57</v>
+      </c>
+      <c r="C87" s="2" t="str">
+        <f>IF(MID(A87,5,3)="o13","",MID(A87,46,B87-45))</f>
+        <v xml:space="preserve"> [eComercio]</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![flt](/doc/img/fleet.jpg)                | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                                   | ![for](/doc/img/website_forum.jpg)        | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                                   | ![fsv](/doc/img/field_service.jpg)        | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)                   |</v>
+      <c r="H87" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![eco](/doc/img/website_sale.jpg)         | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-ecommerce-guides.md)                           | ![esg](/doc/img/website_sign.jpg)         | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-esignature-guides.md)                             | ![emp](/doc/img/hr_employees.jpg)         | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-employees-guides.md)                           |</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -2269,21 +2267,20 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="D88" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Forum]</v>
+        <v>51</v>
+      </c>
+      <c r="B88" s="10">
+        <f>SEARCH("]",A88,40)</f>
+        <v>54</v>
+      </c>
+      <c r="C88" s="2" t="str">
+        <f>IF(MID(A88,5,3)="o13","",MID(A88,46,B88-45))</f>
+        <v xml:space="preserve"> [eFirma]</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="7" t="str">
+      <c r="H88" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2294,21 +2291,20 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="D89" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Field Service]</v>
+        <v>66</v>
+      </c>
+      <c r="B89" s="10">
+        <f>SEARCH("]",A89,40)</f>
+        <v>57</v>
+      </c>
+      <c r="C89" s="2" t="str">
+        <f>IF(MID(A89,5,3)="o13","",MID(A89,46,B89-45))</f>
+        <v xml:space="preserve"> [Empleados]</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="7" t="str">
+      <c r="H89" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2319,23 +2315,22 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D90" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Helpdesk]</v>
+        <v>37</v>
+      </c>
+      <c r="B90" s="10">
+        <f>SEARCH("]",A90,40)</f>
+        <v>57</v>
+      </c>
+      <c r="C90" s="2" t="str">
+        <f>IF(MID(A90,5,3)="o13","",MID(A90,46,B90-45))</f>
+        <v xml:space="preserve"> [Encuestas]</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
       <c r="G90" s="2"/>
-      <c r="H90" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![hdk](/doc/img/helpdesk.jpg)             | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                             | ![inv](/doc/img/stock.jpg)                | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           | ![iot](/doc/img/iot.jpg)                  | [Internet of Things (IOT)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)   |</v>
+      <c r="H90" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![svy](/doc/img/survey.jpg)               | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-survey-guides.md)                              | ![equ](/doc/img/equipment.jpg)            | [Equipo](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-equipment-guides.md)                              | ![apr](/doc/img/hr_appraisal.jpg)         | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-appraisal-guides.md)                        |</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -2344,21 +2339,20 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91" s="10">
+        <f>SEARCH("]",A91,40)</f>
         <v>54</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="D91" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Inventory]</v>
+      <c r="C91" s="2" t="str">
+        <f>IF(MID(A91,5,3)="o13","",MID(A91,46,B91-45))</f>
+        <v xml:space="preserve"> [Equipo]</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="1"/>
       <c r="G91" s="2"/>
-      <c r="H91" s="7" t="str">
+      <c r="H91" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2369,21 +2363,20 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="D92" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Internet of Things (IOT)]</v>
+        <v>67</v>
+      </c>
+      <c r="B92" s="10">
+        <f>SEARCH("]",A92,40)</f>
+        <v>60</v>
+      </c>
+      <c r="C92" s="2" t="str">
+        <f>IF(MID(A92,5,3)="o13","",MID(A92,46,B92-45))</f>
+        <v xml:space="preserve"> [Evaluaciones]</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="1"/>
       <c r="G92" s="2"/>
-      <c r="H92" s="7" t="str">
+      <c r="H92" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2394,23 +2387,22 @@
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="D93" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Invoicing]</v>
+        <v>38</v>
+      </c>
+      <c r="B93" s="10">
+        <f>SEARCH("]",A93,40)</f>
+        <v>55</v>
+      </c>
+      <c r="C93" s="2" t="str">
+        <f>IF(MID(A93,5,3)="o13","",MID(A93,46,B93-45))</f>
+        <v xml:space="preserve"> [Eventos]</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="1"/>
       <c r="G93" s="2"/>
-      <c r="H93" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![ivc](/doc/img/account_invoicing.jpg)    | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)                           | ![lun](/doc/img/lunch.jpg)                | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                                   | ![lvc](/doc/img/im_livechat.jpg)          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                           |</v>
+      <c r="H93" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![eve](/doc/img/event.jpg)                | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-events-guides.md)                                | ![ivc](/doc/img/account_invoicing.jpg)    | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-invoicing-guides.md)                         | ![flt](/doc/img/fleet.jpg)                | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-fleet-guides.md)                               |</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -2419,21 +2411,20 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2">
-        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="D94" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Lunch]</v>
+      <c r="B94" s="10">
+        <f>SEARCH("]",A94,40)</f>
+        <v>59</v>
+      </c>
+      <c r="C94" s="2" t="str">
+        <f>IF(MID(A94,5,3)="o13","",MID(A94,46,B94-45))</f>
+        <v xml:space="preserve"> [Facturación]</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="1"/>
       <c r="G94" s="2"/>
-      <c r="H94" s="7" t="str">
+      <c r="H94" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2444,21 +2435,20 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2">
-        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B95" s="10">
+        <f>SEARCH("]",A95,40)</f>
         <v>57</v>
       </c>
-      <c r="D95" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Live Chat]</v>
+      <c r="C95" s="2" t="str">
+        <f>IF(MID(A95,5,3)="o13","",MID(A95,46,B95-45))</f>
+        <v xml:space="preserve"> [Flotillas]</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="1"/>
       <c r="G95" s="2"/>
-      <c r="H95" s="7" t="str">
+      <c r="H95" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2469,23 +2459,22 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-      <c r="D96" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Marketing Auto]</v>
+        <v>39</v>
+      </c>
+      <c r="B96" s="10">
+        <f>SEARCH("]",A96,40)</f>
+        <v>53</v>
+      </c>
+      <c r="C96" s="2" t="str">
+        <f>IF(MID(A96,5,3)="o13","",MID(A96,46,B96-45))</f>
+        <v xml:space="preserve"> [Foros]</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="1"/>
       <c r="G96" s="2"/>
-      <c r="H96" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![mka](/doc/img/marketing_automation.jpg) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md)           | ![mnt](/doc/img/maintenance.jpg)          | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                       | ![mrp](/doc/img/mrp.jpg)                  | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                       |</v>
+      <c r="H96" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![for](/doc/img/website_forum.jpg)        | [Foros](/es-mx/o13/ee/for/es-mx-o13-ee-for-forum-guides.md)                                   | ![exp](/doc/img/hr_expense.jpg)           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-expenses-guides.md)                               | ![iot](/doc/img/iot.jpg)                  | [Internet de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-internet_of_things-guides.md)      |</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -2494,21 +2483,20 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="D97" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Maintenance]</v>
+        <v>54</v>
+      </c>
+      <c r="B97" s="10">
+        <f>SEARCH("]",A97,40)</f>
+        <v>54</v>
+      </c>
+      <c r="C97" s="2" t="str">
+        <f>IF(MID(A97,5,3)="o13","",MID(A97,46,B97-45))</f>
+        <v xml:space="preserve"> [Gastos]</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
-      <c r="H97" s="7" t="str">
+      <c r="H97" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2519,21 +2507,20 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="D98" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [MRP]</v>
+        <v>69</v>
+      </c>
+      <c r="B98" s="10">
+        <f>SEARCH("]",A98,40)</f>
+        <v>69</v>
+      </c>
+      <c r="C98" s="2" t="str">
+        <f>IF(MID(A98,5,3)="o13","",MID(A98,46,B98-45))</f>
+        <v xml:space="preserve"> [Internet de las Cosas]</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="1"/>
       <c r="G98" s="2"/>
-      <c r="H98" s="7" t="str">
+      <c r="H98" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2544,23 +2531,22 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="D99" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Mass Mail]</v>
+        <v>40</v>
+      </c>
+      <c r="B99" s="10">
+        <f>SEARCH("]",A99,40)</f>
+        <v>59</v>
+      </c>
+      <c r="C99" s="2" t="str">
+        <f>IF(MID(A99,5,3)="o13","",MID(A99,46,B99-45))</f>
+        <v xml:space="preserve"> [Inventarios]</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="1"/>
       <c r="G99" s="2"/>
-      <c r="H99" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![msm](/doc/img/mass_mailing.jpg)         | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)                      | ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                               | ![pch](/doc/img/purchase.jpg)             | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                         |</v>
+      <c r="H99" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![inv](/doc/img/stock.jpg)                | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-inventory-guides.md)                         | ![mnt](/doc/img/maintenance.jpg)          | [Manenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-maintenance-guides.md)                      | ![hdk](/doc/img/helpdesk.jpg)             | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-helpdesk-guides.md)                        |</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -2569,21 +2555,20 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2">
-        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="D100" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Odoo SH]</v>
+      <c r="B100" s="10">
+        <f>SEARCH("]",A100,40)</f>
+        <v>60</v>
+      </c>
+      <c r="C100" s="2" t="str">
+        <f>IF(MID(A100,5,3)="o13","",MID(A100,46,B100-45))</f>
+        <v xml:space="preserve"> [Manenimiento]</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="1"/>
       <c r="G100" s="2"/>
-      <c r="H100" s="7" t="str">
+      <c r="H100" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2594,21 +2579,20 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="D101" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Purchasing]</v>
+        <v>70</v>
+      </c>
+      <c r="B101" s="10">
+        <f>SEARCH("]",A101,40)</f>
+        <v>61</v>
+      </c>
+      <c r="C101" s="2" t="str">
+        <f>IF(MID(A101,5,3)="o13","",MID(A101,46,B101-45))</f>
+        <v xml:space="preserve"> [Mesa de Ayuda]</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="1"/>
       <c r="G101" s="2"/>
-      <c r="H101" s="7" t="str">
+      <c r="H101" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2619,23 +2603,22 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2">
-        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B102" s="10">
+        <f>SEARCH("]",A102,40)</f>
         <v>51</v>
       </c>
-      <c r="D102" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [PLM]</v>
+      <c r="C102" s="2" t="str">
+        <f>IF(MID(A102,5,3)="o13","",MID(A102,46,B102-45))</f>
+        <v xml:space="preserve"> [MRP]</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="1"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![plm](/doc/img/plm.jpg)                  | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                       | ![pos](/doc/img/point_of_sale.jpg)        | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)                   | ![prj](/doc/img/project.jpg)              | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                             |</v>
+      <c r="H102" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-mrp-guides.md)                                       | ![pyr](/doc/img/hr_payroll.jpg)           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-payroll-guides.md)                                | ![stu](/doc/img/web_studio.jpg)           | [Odoo Estudio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-studio-guides.md)                           |</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -2644,21 +2627,20 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="D103" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Point of Sale]</v>
+        <v>56</v>
+      </c>
+      <c r="B103" s="10">
+        <f>SEARCH("]",A103,40)</f>
+        <v>54</v>
+      </c>
+      <c r="C103" s="2" t="str">
+        <f>IF(MID(A103,5,3)="o13","",MID(A103,46,B103-45))</f>
+        <v xml:space="preserve"> [Nómina]</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="1"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="7" t="str">
+      <c r="H103" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2669,21 +2651,20 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D104" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Projects]</v>
+        <v>71</v>
+      </c>
+      <c r="B104" s="10">
+        <f>SEARCH("]",A104,40)</f>
+        <v>60</v>
+      </c>
+      <c r="C104" s="2" t="str">
+        <f>IF(MID(A104,5,3)="o13","",MID(A104,46,B104-45))</f>
+        <v xml:space="preserve"> [Odoo Estudio]</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="1"/>
       <c r="G104" s="2"/>
-      <c r="H104" s="7" t="str">
+      <c r="H104" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2694,23 +2675,22 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D105" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Presence]</v>
+        <v>42</v>
+      </c>
+      <c r="B105" s="10">
+        <f>SEARCH("]",A105,40)</f>
+        <v>55</v>
+      </c>
+      <c r="C105" s="2" t="str">
+        <f>IF(MID(A105,5,3)="o13","",MID(A105,46,B105-45))</f>
+        <v xml:space="preserve"> [Odoo SH]</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="1"/>
       <c r="G105" s="2"/>
-      <c r="H105" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![psc](/doc/img/hr_presence.jpg)          | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                             | ![pyr](/doc/img/hr_payroll.jpg)           | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                               | ![rcr](/doc/img/hr_recruitment.jpg)       | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                       |</v>
+      <c r="H105" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-odoo-sh-guides.md)                               | ![tof](/doc/img/timeoff.jpg)              | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-timeoff-guides.md)                              | ![plm](/doc/img/plm.jpg)                  | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-plm-guides.md)                                       |</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
@@ -2719,21 +2699,20 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D106" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Payroll]</v>
+        <v>57</v>
+      </c>
+      <c r="B106" s="10">
+        <f>SEARCH("]",A106,40)</f>
+        <v>56</v>
+      </c>
+      <c r="C106" s="2" t="str">
+        <f>IF(MID(A106,5,3)="o13","",MID(A106,46,B106-45))</f>
+        <v xml:space="preserve"> [Permisos]</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="1"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="7" t="str">
+      <c r="H106" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2744,21 +2723,20 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="D107" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Recruitment]</v>
+        <v>72</v>
+      </c>
+      <c r="B107" s="10">
+        <f>SEARCH("]",A107,40)</f>
+        <v>51</v>
+      </c>
+      <c r="C107" s="2" t="str">
+        <f>IF(MID(A107,5,3)="o13","",MID(A107,46,B107-45))</f>
+        <v xml:space="preserve"> [PLM]</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="1"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="7" t="str">
+      <c r="H107" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2769,23 +2747,22 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="D108" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Rental]</v>
+        <v>43</v>
+      </c>
+      <c r="B108" s="10">
+        <f>SEARCH("]",A108,40)</f>
+        <v>61</v>
+      </c>
+      <c r="C108" s="2" t="str">
+        <f>IF(MID(A108,5,3)="o13","",MID(A108,46,B108-45))</f>
+        <v xml:space="preserve"> [Productividad]</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="1"/>
       <c r="G108" s="2"/>
-      <c r="H108" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![rnt](/doc/img/rentals.jpg)              | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                                 | ![skm](/doc/img/hr_skills.jpg)            | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                                 | ![sli](/doc/img/website_slides.jpg)       | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                                 |</v>
+      <c r="H108" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Productividad](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-timesheet-guides.md)                       | ![prj](/doc/img/project.jpg)              | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-projects-guides.md)                            | ![sli](/doc/img/website_slides.jpg)       | [Publicaciones](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-slides-guides.md)                          |</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -2794,21 +2771,20 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="D109" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Skills]</v>
+        <v>58</v>
+      </c>
+      <c r="B109" s="10">
+        <f>SEARCH("]",A109,40)</f>
+        <v>57</v>
+      </c>
+      <c r="C109" s="2" t="str">
+        <f>IF(MID(A109,5,3)="o13","",MID(A109,46,B109-45))</f>
+        <v xml:space="preserve"> [Proyectos]</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="1"/>
       <c r="G109" s="2"/>
-      <c r="H109" s="7" t="str">
+      <c r="H109" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2819,21 +2795,20 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B110" s="10">
+        <f>SEARCH("]",A110,40)</f>
         <v>61</v>
       </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="D110" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Slides]</v>
+      <c r="C110" s="2" t="str">
+        <f>IF(MID(A110,5,3)="o13","",MID(A110,46,B110-45))</f>
+        <v xml:space="preserve"> [Publicaciones]</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="1"/>
       <c r="G110" s="2"/>
-      <c r="H110" s="7" t="str">
+      <c r="H110" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2844,23 +2819,22 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="D111" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Sales]</v>
+        <v>44</v>
+      </c>
+      <c r="B111" s="10">
+        <f>SEARCH("]",A111,40)</f>
+        <v>62</v>
+      </c>
+      <c r="C111" s="2" t="str">
+        <f>IF(MID(A111,5,3)="o13","",MID(A111,46,B111-45))</f>
+        <v xml:space="preserve"> [Punto de Venta]</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="1"/>
       <c r="G111" s="2"/>
-      <c r="H111" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![sls](/doc/img/sale.jpg)                 | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                   | ![stu](/doc/img/web_studio.jpg)           | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                            | ![sub](/doc/img/sale_subscription.jpg)    | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)                   |</v>
+      <c r="H111" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![pos](/doc/img/point_of_sale.jpg)        | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-point-of-sale-guides.md)                  | ![rcr](/doc/img/hr_recruitment.jpg)       | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-recruitment-guides.md)                     | ![rnt](/doc/img/rentals.jpg)              | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-rental-guides.md)                                 |</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
@@ -2869,21 +2843,20 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2">
-        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="D112" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Odoo Studio]</v>
+      <c r="B112" s="10">
+        <f>SEARCH("]",A112,40)</f>
+        <v>61</v>
+      </c>
+      <c r="C112" s="2" t="str">
+        <f>IF(MID(A112,5,3)="o13","",MID(A112,46,B112-45))</f>
+        <v xml:space="preserve"> [Reclutamiento]</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="1"/>
       <c r="G112" s="2"/>
-      <c r="H112" s="7" t="str">
+      <c r="H112" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2894,21 +2867,20 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="D113" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Subscriptions]</v>
+        <v>74</v>
+      </c>
+      <c r="B113" s="10">
+        <f>SEARCH("]",A113,40)</f>
+        <v>54</v>
+      </c>
+      <c r="C113" s="2" t="str">
+        <f>IF(MID(A113,5,3)="o13","",MID(A113,46,B113-45))</f>
+        <v xml:space="preserve"> [Rentas]</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="1"/>
       <c r="G113" s="2"/>
-      <c r="H113" s="7" t="str">
+      <c r="H113" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2919,23 +2891,22 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="D114" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Surveys]</v>
+        <v>45</v>
+      </c>
+      <c r="B114" s="10">
+        <f>SEARCH("]",A114,40)</f>
+        <v>56</v>
+      </c>
+      <c r="C114" s="2" t="str">
+        <f>IF(MID(A114,5,3)="o13","",MID(A114,46,B114-45))</f>
+        <v xml:space="preserve"> [Servicio]</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="1"/>
       <c r="G114" s="2"/>
-      <c r="H114" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![svy](/doc/img/survey.jpg)               | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                                | ![tof](/doc/img/timeoff.jpg)              | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                              | ![tsh](/doc/img/hr_timesheet.jpg)         | [Time Sheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                          |</v>
+      <c r="H114" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>| ![fsv](/doc/img/field_service.jpg)        | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-field-service-guides.md)                        | ![web](/doc/img/website.jpg)              | [Sitios Web](/es-mx/o13/ee/web/es-mx-o13-ee-web-websites-builder-guides.md)                   | ![sub](/doc/img/sale_subscription.jpg)    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-subscriptions-guides.md)                   |</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -2944,21 +2915,20 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D115" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Time Off]</v>
+        <v>60</v>
+      </c>
+      <c r="B115" s="10">
+        <f>SEARCH("]",A115,40)</f>
+        <v>58</v>
+      </c>
+      <c r="C115" s="2" t="str">
+        <f>IF(MID(A115,5,3)="o13","",MID(A115,46,B115-45))</f>
+        <v xml:space="preserve"> [Sitios Web]</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="1"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="7" t="str">
+      <c r="H115" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2969,21 +2939,20 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="D116" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Time Sheet]</v>
+        <v>75</v>
+      </c>
+      <c r="B116" s="10">
+        <f>SEARCH("]",A116,40)</f>
+        <v>61</v>
+      </c>
+      <c r="C116" s="2" t="str">
+        <f>IF(MID(A116,5,3)="o13","",MID(A116,46,B116-45))</f>
+        <v xml:space="preserve"> [Suscripciones]</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="1"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="7" t="str">
+      <c r="H116" s="6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -2994,23 +2963,22 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="D117" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> [Websites]</v>
+        <v>76</v>
+      </c>
+      <c r="B117" s="10">
+        <f>SEARCH("]",A117,40)</f>
+        <v>54</v>
+      </c>
+      <c r="C117" s="2" t="str">
+        <f>IF(MID(A117,5,3)="o13","",MID(A117,46,B117-45))</f>
+        <v xml:space="preserve"> [Ventas]</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="1"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">| ![web](/doc/img/website.jpg)              | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                     | | | | | </v>
+      <c r="H117" s="6" t="str">
+        <f>IF(ROW()/3=INT(ROW()/3),A117&amp;MID(A118,2,LEN(A118)-2)&amp;A119,"")</f>
+        <v>| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  | | | | |</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -3019,15 +2987,14 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B118" s="11" t="e">
+        <f>SEARCH("]",A118,40)</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="C118" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D118" s="2" t="e">
-        <f t="shared" si="2"/>
+        <f>IF(MID(A118,5,3)="o13","",MID(A118,46,B118-45))</f>
         <v>#VALUE!</v>
       </c>
       <c r="E118" s="2"/>
@@ -3039,261 +3006,272 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A124" s="1"/>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="10"/>
+      <c r="C119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>65</v>
+      <c r="A145" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>70</v>
+      <c r="A167" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A70:C117">
+    <sortState ref="A73:C119">
+      <sortCondition ref="C73"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A125:A173">
     <sortCondition ref="A125"/>
   </sortState>

--- a/doc/Reorder APPs Menu.xlsx
+++ b/doc/Reorder APPs Menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t/>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  | | | | |</t>
-  </si>
-  <si>
-    <t>| ![o13(/doc/img/odoo13.jpg)                | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           | | | | |</t>
   </si>
 </sst>
 </file>
@@ -676,7 +673,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157:A173"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1827,8 +1826,8 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="6" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A71,"![o13]"," ![o13"),"| [System]"," | [System]"),"| [Sistema]"," | [Sistema]")&amp;" | | | |"</f>
-        <v>|  ![o13(/doc/img/odoo13.jpg)                | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           | | | | |</v>
+        <f>" " &amp; A71&amp;" | | | |"</f>
+        <v xml:space="preserve"> | ![o13](/doc/img/odoo13.jpg)               | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           | | | | |</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -1862,11 +1861,11 @@
         <v>30</v>
       </c>
       <c r="B71" s="10">
-        <f>SEARCH("]",A71,40)</f>
+        <f t="shared" ref="B71:B118" si="3">SEARCH("]",A71,40)</f>
         <v>55</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f>IF(MID(A71,5,3)="o13","",MID(A71,46,B71-45))</f>
+        <f t="shared" ref="C71:C118" si="4">IF(MID(A71,5,3)="o13","",MID(A71,46,B71-45))</f>
         <v/>
       </c>
       <c r="D71" s="2"/>
@@ -1886,18 +1885,18 @@
         <v>31</v>
       </c>
       <c r="B72" s="10">
-        <f>SEARCH("]",A72,40)</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f>IF(MID(A72,5,3)="o13","",MID(A72,46,B72-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Asistencias]</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="6" t="str">
-        <f>IF(ROW()/3=INT(ROW()/3),A72&amp;MID(A73,2,LEN(A73)-2)&amp;A74,"")</f>
+        <f>IF(ISERROR(B73),"|","") &amp; IF(ROW()/3=INT(ROW()/3),A72&amp;MID(A73,2,LEN(A73)-2)&amp;A74,"")</f>
         <v>| ![psc](/doc/img/hr_presence.jpg)          | [Asistencias](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-presence-guides.md)                          | ![apv](/doc/img/approval.jpg)             | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-approvals-guides.md)                      | ![blg](/doc/img/website_blog.jpg)         | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-blog-guides.md)                                     |</v>
       </c>
       <c r="I72" s="2"/>
@@ -1910,18 +1909,18 @@
         <v>46</v>
       </c>
       <c r="B73" s="10">
-        <f>SEARCH("]",A73,40)</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="C73" s="2" t="str">
-        <f>IF(MID(A73,5,3)="o13","",MID(A73,46,B73-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Autorizaciones]</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
       <c r="H73" s="6" t="str">
-        <f>IF(ROW()/3=INT(ROW()/3),A73&amp;MID(A74,2,LEN(A74)-2)&amp;A75,"")</f>
+        <f t="shared" ref="H73:H117" si="5">IF(ISERROR(B74),"|","") &amp; IF(ROW()/3=INT(ROW()/3),A73&amp;MID(A74,2,LEN(A74)-2)&amp;A75,"")</f>
         <v/>
       </c>
       <c r="I73" s="2"/>
@@ -1934,18 +1933,18 @@
         <v>61</v>
       </c>
       <c r="B74" s="10">
-        <f>SEARCH("]",A74,40)</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f>IF(MID(A74,5,3)="o13","",MID(A74,46,B74-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Blog]</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="1"/>
       <c r="G74" s="2"/>
       <c r="H74" s="6" t="str">
-        <f t="shared" ref="H74:H118" si="3">IF(ROW()/3=INT(ROW()/3),A74&amp;MID(A75,2,LEN(A75)-2)&amp;A76,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I74" s="2"/>
@@ -1958,18 +1957,18 @@
         <v>32</v>
       </c>
       <c r="B75" s="10">
-        <f>SEARCH("]",A75,40)</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f>IF(MID(A75,5,3)="o13","",MID(A75,46,B75-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Calendario]</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
       <c r="H75" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![cal](/doc/img/calendar.jpg)             | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-calendar-guides.md)                           | ![mka](/doc/img/marketing_automation.jpg) | [Campañas](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-marketing-automation-guides.md)                 | ![lvc](/doc/img/im_livechat.jpg)          | [Chat en vivo](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-live_chat-guides.md)                        |</v>
       </c>
       <c r="I75" s="2"/>
@@ -1982,18 +1981,18 @@
         <v>47</v>
       </c>
       <c r="B76" s="10">
-        <f>SEARCH("]",A76,40)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f>IF(MID(A76,5,3)="o13","",MID(A76,46,B76-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Campañas]</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
       <c r="G76" s="2"/>
       <c r="H76" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I76" s="2"/>
@@ -2006,18 +2005,18 @@
         <v>62</v>
       </c>
       <c r="B77" s="10">
-        <f>SEARCH("]",A77,40)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f>IF(MID(A77,5,3)="o13","",MID(A77,46,B77-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Chat en vivo]</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
       <c r="H77" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I77" s="2"/>
@@ -2030,18 +2029,18 @@
         <v>33</v>
       </c>
       <c r="B78" s="10">
-        <f>SEARCH("]",A78,40)</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f>IF(MID(A78,5,3)="o13","",MID(A78,46,B78-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Citas]</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1"/>
       <c r="G78" s="2"/>
       <c r="H78" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![apt](/doc/img/appointments.jpg)         | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-appointments-guides.md)                            | ![crm](/doc/img/crm.jpg)                  | [Clientes](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-crm-guides.md)                                  | ![dsc](/doc/img/discuss.jpg)              | [Comentarios](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-discuss-guides.md)                           |</v>
       </c>
       <c r="I78" s="2"/>
@@ -2054,18 +2053,18 @@
         <v>48</v>
       </c>
       <c r="B79" s="10">
-        <f>SEARCH("]",A79,40)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f>IF(MID(A79,5,3)="o13","",MID(A79,46,B79-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Clientes]</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="1"/>
       <c r="G79" s="2"/>
       <c r="H79" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I79" s="2"/>
@@ -2078,18 +2077,18 @@
         <v>63</v>
       </c>
       <c r="B80" s="10">
-        <f>SEARCH("]",A80,40)</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="C80" s="2" t="str">
-        <f>IF(MID(A80,5,3)="o13","",MID(A80,46,B80-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Comentarios]</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1"/>
       <c r="G80" s="2"/>
       <c r="H80" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I80" s="2"/>
@@ -2102,18 +2101,18 @@
         <v>34</v>
       </c>
       <c r="B81" s="10">
-        <f>SEARCH("]",A81,40)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f>IF(MID(A81,5,3)="o13","",MID(A81,46,B81-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Comidas]</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="1"/>
       <c r="G81" s="2"/>
       <c r="H81" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![lun](/doc/img/lunch.jpg)                | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-lunch-guides.md)                                 | ![skm](/doc/img/hr_skills.jpg)            | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-skills-guides.md)                           | ![pch](/doc/img/purchase.jpg)             | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-purchasing-guides.md)                            |</v>
       </c>
       <c r="I81" s="2"/>
@@ -2126,18 +2125,18 @@
         <v>49</v>
       </c>
       <c r="B82" s="10">
-        <f>SEARCH("]",A82,40)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f>IF(MID(A82,5,3)="o13","",MID(A82,46,B82-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Competencias]</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="1"/>
       <c r="G82" s="2"/>
       <c r="H82" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I82" s="2"/>
@@ -2150,18 +2149,18 @@
         <v>64</v>
       </c>
       <c r="B83" s="10">
-        <f>SEARCH("]",A83,40)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f>IF(MID(A83,5,3)="o13","",MID(A83,46,B83-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Compras]</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
       <c r="G83" s="2"/>
       <c r="H83" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I83" s="2"/>
@@ -2174,18 +2173,18 @@
         <v>35</v>
       </c>
       <c r="B84" s="10">
-        <f>SEARCH("]",A84,40)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f>IF(MID(A84,5,3)="o13","",MID(A84,46,B84-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Contabilidad]</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
       <c r="G84" s="2"/>
       <c r="H84" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![acc](/doc/img/account_accountant.jpg)   | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-accounting-guides.md)                       | ![ctc](/doc/img/contacts.jpg)             | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-contacts-guides.md)                            | ![msm](/doc/img/mass_mailing.jpg)         | [Correo masivo](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-mass-marketing-guides.md)                  |</v>
       </c>
       <c r="I84" s="2"/>
@@ -2198,18 +2197,18 @@
         <v>50</v>
       </c>
       <c r="B85" s="10">
-        <f>SEARCH("]",A85,40)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f>IF(MID(A85,5,3)="o13","",MID(A85,46,B85-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Contactos]</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
       <c r="G85" s="2"/>
       <c r="H85" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I85" s="2"/>
@@ -2222,18 +2221,18 @@
         <v>65</v>
       </c>
       <c r="B86" s="10">
-        <f>SEARCH("]",A86,40)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f>IF(MID(A86,5,3)="o13","",MID(A86,46,B86-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Correo masivo]</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
       <c r="G86" s="2"/>
       <c r="H86" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I86" s="2"/>
@@ -2246,18 +2245,18 @@
         <v>36</v>
       </c>
       <c r="B87" s="10">
-        <f>SEARCH("]",A87,40)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f>IF(MID(A87,5,3)="o13","",MID(A87,46,B87-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [eComercio]</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
       <c r="G87" s="2"/>
       <c r="H87" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![eco](/doc/img/website_sale.jpg)         | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-ecommerce-guides.md)                           | ![esg](/doc/img/website_sign.jpg)         | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-esignature-guides.md)                             | ![emp](/doc/img/hr_employees.jpg)         | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-employees-guides.md)                           |</v>
       </c>
       <c r="I87" s="2"/>
@@ -2270,18 +2269,18 @@
         <v>51</v>
       </c>
       <c r="B88" s="10">
-        <f>SEARCH("]",A88,40)</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f>IF(MID(A88,5,3)="o13","",MID(A88,46,B88-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [eFirma]</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
       <c r="G88" s="2"/>
       <c r="H88" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I88" s="2"/>
@@ -2294,18 +2293,18 @@
         <v>66</v>
       </c>
       <c r="B89" s="10">
-        <f>SEARCH("]",A89,40)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f>IF(MID(A89,5,3)="o13","",MID(A89,46,B89-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Empleados]</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
       <c r="G89" s="2"/>
       <c r="H89" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I89" s="2"/>
@@ -2318,18 +2317,18 @@
         <v>37</v>
       </c>
       <c r="B90" s="10">
-        <f>SEARCH("]",A90,40)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f>IF(MID(A90,5,3)="o13","",MID(A90,46,B90-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Encuestas]</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
       <c r="G90" s="2"/>
       <c r="H90" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![svy](/doc/img/survey.jpg)               | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-survey-guides.md)                              | ![equ](/doc/img/equipment.jpg)            | [Equipo](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-equipment-guides.md)                              | ![apr](/doc/img/hr_appraisal.jpg)         | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-appraisal-guides.md)                        |</v>
       </c>
       <c r="I90" s="2"/>
@@ -2342,18 +2341,18 @@
         <v>52</v>
       </c>
       <c r="B91" s="10">
-        <f>SEARCH("]",A91,40)</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f>IF(MID(A91,5,3)="o13","",MID(A91,46,B91-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Equipo]</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="1"/>
       <c r="G91" s="2"/>
       <c r="H91" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I91" s="2"/>
@@ -2366,18 +2365,18 @@
         <v>67</v>
       </c>
       <c r="B92" s="10">
-        <f>SEARCH("]",A92,40)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="C92" s="2" t="str">
-        <f>IF(MID(A92,5,3)="o13","",MID(A92,46,B92-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Evaluaciones]</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="1"/>
       <c r="G92" s="2"/>
       <c r="H92" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I92" s="2"/>
@@ -2390,18 +2389,18 @@
         <v>38</v>
       </c>
       <c r="B93" s="10">
-        <f>SEARCH("]",A93,40)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f>IF(MID(A93,5,3)="o13","",MID(A93,46,B93-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Eventos]</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="1"/>
       <c r="G93" s="2"/>
       <c r="H93" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![eve](/doc/img/event.jpg)                | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-events-guides.md)                                | ![ivc](/doc/img/account_invoicing.jpg)    | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-invoicing-guides.md)                         | ![flt](/doc/img/fleet.jpg)                | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-fleet-guides.md)                               |</v>
       </c>
       <c r="I93" s="2"/>
@@ -2414,18 +2413,18 @@
         <v>53</v>
       </c>
       <c r="B94" s="10">
-        <f>SEARCH("]",A94,40)</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="C94" s="2" t="str">
-        <f>IF(MID(A94,5,3)="o13","",MID(A94,46,B94-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Facturación]</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="1"/>
       <c r="G94" s="2"/>
       <c r="H94" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I94" s="2"/>
@@ -2438,18 +2437,18 @@
         <v>68</v>
       </c>
       <c r="B95" s="10">
-        <f>SEARCH("]",A95,40)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="C95" s="2" t="str">
-        <f>IF(MID(A95,5,3)="o13","",MID(A95,46,B95-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Flotillas]</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="1"/>
       <c r="G95" s="2"/>
       <c r="H95" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I95" s="2"/>
@@ -2462,18 +2461,18 @@
         <v>39</v>
       </c>
       <c r="B96" s="10">
-        <f>SEARCH("]",A96,40)</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f>IF(MID(A96,5,3)="o13","",MID(A96,46,B96-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Foros]</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="1"/>
       <c r="G96" s="2"/>
       <c r="H96" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![for](/doc/img/website_forum.jpg)        | [Foros](/es-mx/o13/ee/for/es-mx-o13-ee-for-forum-guides.md)                                   | ![exp](/doc/img/hr_expense.jpg)           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-expenses-guides.md)                               | ![iot](/doc/img/iot.jpg)                  | [Internet de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-internet_of_things-guides.md)      |</v>
       </c>
       <c r="I96" s="2"/>
@@ -2486,18 +2485,18 @@
         <v>54</v>
       </c>
       <c r="B97" s="10">
-        <f>SEARCH("]",A97,40)</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="C97" s="2" t="str">
-        <f>IF(MID(A97,5,3)="o13","",MID(A97,46,B97-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Gastos]</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
       <c r="H97" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I97" s="2"/>
@@ -2510,18 +2509,18 @@
         <v>69</v>
       </c>
       <c r="B98" s="10">
-        <f>SEARCH("]",A98,40)</f>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f>IF(MID(A98,5,3)="o13","",MID(A98,46,B98-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Internet de las Cosas]</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="1"/>
       <c r="G98" s="2"/>
       <c r="H98" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I98" s="2"/>
@@ -2534,18 +2533,18 @@
         <v>40</v>
       </c>
       <c r="B99" s="10">
-        <f>SEARCH("]",A99,40)</f>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f>IF(MID(A99,5,3)="o13","",MID(A99,46,B99-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Inventarios]</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="1"/>
       <c r="G99" s="2"/>
       <c r="H99" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![inv](/doc/img/stock.jpg)                | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-inventory-guides.md)                         | ![mnt](/doc/img/maintenance.jpg)          | [Manenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-maintenance-guides.md)                      | ![hdk](/doc/img/helpdesk.jpg)             | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-helpdesk-guides.md)                        |</v>
       </c>
       <c r="I99" s="2"/>
@@ -2558,18 +2557,18 @@
         <v>55</v>
       </c>
       <c r="B100" s="10">
-        <f>SEARCH("]",A100,40)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f>IF(MID(A100,5,3)="o13","",MID(A100,46,B100-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Manenimiento]</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="1"/>
       <c r="G100" s="2"/>
       <c r="H100" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I100" s="2"/>
@@ -2582,18 +2581,18 @@
         <v>70</v>
       </c>
       <c r="B101" s="10">
-        <f>SEARCH("]",A101,40)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f>IF(MID(A101,5,3)="o13","",MID(A101,46,B101-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Mesa de Ayuda]</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="1"/>
       <c r="G101" s="2"/>
       <c r="H101" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I101" s="2"/>
@@ -2606,18 +2605,18 @@
         <v>41</v>
       </c>
       <c r="B102" s="10">
-        <f>SEARCH("]",A102,40)</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f>IF(MID(A102,5,3)="o13","",MID(A102,46,B102-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [MRP]</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="1"/>
       <c r="G102" s="2"/>
       <c r="H102" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-mrp-guides.md)                                       | ![pyr](/doc/img/hr_payroll.jpg)           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-payroll-guides.md)                                | ![stu](/doc/img/web_studio.jpg)           | [Odoo Estudio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-studio-guides.md)                           |</v>
       </c>
       <c r="I102" s="2"/>
@@ -2630,18 +2629,18 @@
         <v>56</v>
       </c>
       <c r="B103" s="10">
-        <f>SEARCH("]",A103,40)</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f>IF(MID(A103,5,3)="o13","",MID(A103,46,B103-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Nómina]</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="1"/>
       <c r="G103" s="2"/>
       <c r="H103" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I103" s="2"/>
@@ -2654,18 +2653,18 @@
         <v>71</v>
       </c>
       <c r="B104" s="10">
-        <f>SEARCH("]",A104,40)</f>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f>IF(MID(A104,5,3)="o13","",MID(A104,46,B104-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Odoo Estudio]</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="1"/>
       <c r="G104" s="2"/>
       <c r="H104" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I104" s="2"/>
@@ -2678,18 +2677,18 @@
         <v>42</v>
       </c>
       <c r="B105" s="10">
-        <f>SEARCH("]",A105,40)</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f>IF(MID(A105,5,3)="o13","",MID(A105,46,B105-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Odoo SH]</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="1"/>
       <c r="G105" s="2"/>
       <c r="H105" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-odoo-sh-guides.md)                               | ![tof](/doc/img/timeoff.jpg)              | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-timeoff-guides.md)                              | ![plm](/doc/img/plm.jpg)                  | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-plm-guides.md)                                       |</v>
       </c>
       <c r="I105" s="2"/>
@@ -2702,18 +2701,18 @@
         <v>57</v>
       </c>
       <c r="B106" s="10">
-        <f>SEARCH("]",A106,40)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f>IF(MID(A106,5,3)="o13","",MID(A106,46,B106-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Permisos]</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="1"/>
       <c r="G106" s="2"/>
       <c r="H106" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I106" s="2"/>
@@ -2726,18 +2725,18 @@
         <v>72</v>
       </c>
       <c r="B107" s="10">
-        <f>SEARCH("]",A107,40)</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f>IF(MID(A107,5,3)="o13","",MID(A107,46,B107-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [PLM]</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="1"/>
       <c r="G107" s="2"/>
       <c r="H107" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I107" s="2"/>
@@ -2750,18 +2749,18 @@
         <v>43</v>
       </c>
       <c r="B108" s="10">
-        <f>SEARCH("]",A108,40)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f>IF(MID(A108,5,3)="o13","",MID(A108,46,B108-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Productividad]</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="1"/>
       <c r="G108" s="2"/>
       <c r="H108" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Productividad](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-timesheet-guides.md)                       | ![prj](/doc/img/project.jpg)              | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-projects-guides.md)                            | ![sli](/doc/img/website_slides.jpg)       | [Publicaciones](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-slides-guides.md)                          |</v>
       </c>
       <c r="I108" s="2"/>
@@ -2774,18 +2773,18 @@
         <v>58</v>
       </c>
       <c r="B109" s="10">
-        <f>SEARCH("]",A109,40)</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f>IF(MID(A109,5,3)="o13","",MID(A109,46,B109-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Proyectos]</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="1"/>
       <c r="G109" s="2"/>
       <c r="H109" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I109" s="2"/>
@@ -2798,18 +2797,18 @@
         <v>73</v>
       </c>
       <c r="B110" s="10">
-        <f>SEARCH("]",A110,40)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f>IF(MID(A110,5,3)="o13","",MID(A110,46,B110-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Publicaciones]</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="1"/>
       <c r="G110" s="2"/>
       <c r="H110" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I110" s="2"/>
@@ -2822,18 +2821,18 @@
         <v>44</v>
       </c>
       <c r="B111" s="10">
-        <f>SEARCH("]",A111,40)</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f>IF(MID(A111,5,3)="o13","",MID(A111,46,B111-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Punto de Venta]</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="1"/>
       <c r="G111" s="2"/>
       <c r="H111" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![pos](/doc/img/point_of_sale.jpg)        | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-point-of-sale-guides.md)                  | ![rcr](/doc/img/hr_recruitment.jpg)       | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-recruitment-guides.md)                     | ![rnt](/doc/img/rentals.jpg)              | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-rental-guides.md)                                 |</v>
       </c>
       <c r="I111" s="2"/>
@@ -2846,18 +2845,18 @@
         <v>59</v>
       </c>
       <c r="B112" s="10">
-        <f>SEARCH("]",A112,40)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f>IF(MID(A112,5,3)="o13","",MID(A112,46,B112-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Reclutamiento]</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="1"/>
       <c r="G112" s="2"/>
       <c r="H112" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I112" s="2"/>
@@ -2870,18 +2869,18 @@
         <v>74</v>
       </c>
       <c r="B113" s="10">
-        <f>SEARCH("]",A113,40)</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f>IF(MID(A113,5,3)="o13","",MID(A113,46,B113-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Rentas]</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="1"/>
       <c r="G113" s="2"/>
       <c r="H113" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I113" s="2"/>
@@ -2894,18 +2893,18 @@
         <v>45</v>
       </c>
       <c r="B114" s="10">
-        <f>SEARCH("]",A114,40)</f>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f>IF(MID(A114,5,3)="o13","",MID(A114,46,B114-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Servicio]</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="1"/>
       <c r="G114" s="2"/>
       <c r="H114" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>| ![fsv](/doc/img/field_service.jpg)        | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-field-service-guides.md)                        | ![web](/doc/img/website.jpg)              | [Sitios Web](/es-mx/o13/ee/web/es-mx-o13-ee-web-websites-builder-guides.md)                   | ![sub](/doc/img/sale_subscription.jpg)    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-subscriptions-guides.md)                   |</v>
       </c>
       <c r="I114" s="2"/>
@@ -2918,18 +2917,18 @@
         <v>60</v>
       </c>
       <c r="B115" s="10">
-        <f>SEARCH("]",A115,40)</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="C115" s="2" t="str">
-        <f>IF(MID(A115,5,3)="o13","",MID(A115,46,B115-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Sitios Web]</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="1"/>
       <c r="G115" s="2"/>
       <c r="H115" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I115" s="2"/>
@@ -2942,18 +2941,18 @@
         <v>75</v>
       </c>
       <c r="B116" s="10">
-        <f>SEARCH("]",A116,40)</f>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="C116" s="2" t="str">
-        <f>IF(MID(A116,5,3)="o13","",MID(A116,46,B116-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Suscripciones]</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="1"/>
       <c r="G116" s="2"/>
       <c r="H116" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I116" s="2"/>
@@ -2966,19 +2965,19 @@
         <v>76</v>
       </c>
       <c r="B117" s="10">
-        <f>SEARCH("]",A117,40)</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="C117" s="2" t="str">
-        <f>IF(MID(A117,5,3)="o13","",MID(A117,46,B117-45))</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve"> [Ventas]</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="1"/>
       <c r="G117" s="2"/>
       <c r="H117" s="6" t="str">
-        <f>IF(ROW()/3=INT(ROW()/3),A117&amp;MID(A118,2,LEN(A118)-2)&amp;A119,"")</f>
-        <v>| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  | | | | |</v>
+        <f t="shared" si="5"/>
+        <v>|| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  | | | | |</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -2990,11 +2989,11 @@
         <v>11</v>
       </c>
       <c r="B118" s="11" t="e">
-        <f>SEARCH("]",A118,40)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="C118" s="2" t="e">
-        <f>IF(MID(A118,5,3)="o13","",MID(A118,46,B118-45))</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="E118" s="2"/>
@@ -3183,7 +3182,7 @@
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
@@ -3253,17 +3252,17 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Reorder APPs Menu.xlsx
+++ b/doc/Reorder APPs Menu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t/>
   </si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  |</t>
-  </si>
-  <si>
-    <t>| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  | | | | |</t>
   </si>
 </sst>
 </file>
@@ -671,10 +668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:L173"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
-      <selection activeCell="A157" sqref="A157:A173"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,11 +1858,11 @@
         <v>30</v>
       </c>
       <c r="B71" s="10">
-        <f t="shared" ref="B71:B118" si="3">SEARCH("]",A71,40)</f>
+        <f>SEARCH("]",A71,40)</f>
         <v>55</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f t="shared" ref="C71:C118" si="4">IF(MID(A71,5,3)="o13","",MID(A71,46,B71-45))</f>
+        <f>IF(MID(A71,5,3)="o13","",MID(A71,46,B71-45))</f>
         <v/>
       </c>
       <c r="D71" s="2"/>
@@ -1885,11 +1882,11 @@
         <v>31</v>
       </c>
       <c r="B72" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A72,40)</f>
         <v>59</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A72,5,3)="o13","",MID(A72,46,B72-45))</f>
         <v xml:space="preserve"> [Asistencias]</v>
       </c>
       <c r="E72" s="2"/>
@@ -1909,18 +1906,18 @@
         <v>46</v>
       </c>
       <c r="B73" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A73,40)</f>
         <v>62</v>
       </c>
       <c r="C73" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A73,5,3)="o13","",MID(A73,46,B73-45))</f>
         <v xml:space="preserve"> [Autorizaciones]</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="1"/>
       <c r="G73" s="2"/>
       <c r="H73" s="6" t="str">
-        <f t="shared" ref="H73:H117" si="5">IF(ISERROR(B74),"|","") &amp; IF(ROW()/3=INT(ROW()/3),A73&amp;MID(A74,2,LEN(A74)-2)&amp;A75,"")</f>
+        <f t="shared" ref="H73:H117" si="3">IF(ISERROR(B74),"|","") &amp; IF(ROW()/3=INT(ROW()/3),A73&amp;MID(A74,2,LEN(A74)-2)&amp;A75,"")</f>
         <v/>
       </c>
       <c r="I73" s="2"/>
@@ -1933,18 +1930,18 @@
         <v>61</v>
       </c>
       <c r="B74" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A74,40)</f>
         <v>52</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A74,5,3)="o13","",MID(A74,46,B74-45))</f>
         <v xml:space="preserve"> [Blog]</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="1"/>
       <c r="G74" s="2"/>
       <c r="H74" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I74" s="2"/>
@@ -1957,18 +1954,18 @@
         <v>32</v>
       </c>
       <c r="B75" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A75,40)</f>
         <v>58</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A75,5,3)="o13","",MID(A75,46,B75-45))</f>
         <v xml:space="preserve"> [Calendario]</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="1"/>
       <c r="G75" s="2"/>
       <c r="H75" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![cal](/doc/img/calendar.jpg)             | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-calendar-guides.md)                           | ![mka](/doc/img/marketing_automation.jpg) | [Campañas](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-marketing-automation-guides.md)                 | ![lvc](/doc/img/im_livechat.jpg)          | [Chat en vivo](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-live_chat-guides.md)                        |</v>
       </c>
       <c r="I75" s="2"/>
@@ -1981,18 +1978,18 @@
         <v>47</v>
       </c>
       <c r="B76" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A76,40)</f>
         <v>56</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A76,5,3)="o13","",MID(A76,46,B76-45))</f>
         <v xml:space="preserve"> [Campañas]</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
       <c r="G76" s="2"/>
       <c r="H76" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I76" s="2"/>
@@ -2005,18 +2002,18 @@
         <v>62</v>
       </c>
       <c r="B77" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A77,40)</f>
         <v>60</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A77,5,3)="o13","",MID(A77,46,B77-45))</f>
         <v xml:space="preserve"> [Chat en vivo]</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
       <c r="G77" s="2"/>
       <c r="H77" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I77" s="2"/>
@@ -2029,18 +2026,18 @@
         <v>33</v>
       </c>
       <c r="B78" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A78,40)</f>
         <v>53</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A78,5,3)="o13","",MID(A78,46,B78-45))</f>
         <v xml:space="preserve"> [Citas]</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1"/>
       <c r="G78" s="2"/>
       <c r="H78" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![apt](/doc/img/appointments.jpg)         | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-appointments-guides.md)                            | ![crm](/doc/img/crm.jpg)                  | [Clientes](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-crm-guides.md)                                  | ![dsc](/doc/img/discuss.jpg)              | [Comentarios](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-discuss-guides.md)                           |</v>
       </c>
       <c r="I78" s="2"/>
@@ -2053,18 +2050,18 @@
         <v>48</v>
       </c>
       <c r="B79" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A79,40)</f>
         <v>56</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A79,5,3)="o13","",MID(A79,46,B79-45))</f>
         <v xml:space="preserve"> [Clientes]</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="1"/>
       <c r="G79" s="2"/>
       <c r="H79" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I79" s="2"/>
@@ -2077,18 +2074,18 @@
         <v>63</v>
       </c>
       <c r="B80" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A80,40)</f>
         <v>59</v>
       </c>
       <c r="C80" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A80,5,3)="o13","",MID(A80,46,B80-45))</f>
         <v xml:space="preserve"> [Comentarios]</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1"/>
       <c r="G80" s="2"/>
       <c r="H80" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I80" s="2"/>
@@ -2101,18 +2098,18 @@
         <v>34</v>
       </c>
       <c r="B81" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A81,40)</f>
         <v>55</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A81,5,3)="o13","",MID(A81,46,B81-45))</f>
         <v xml:space="preserve"> [Comidas]</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="1"/>
       <c r="G81" s="2"/>
       <c r="H81" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![lun](/doc/img/lunch.jpg)                | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-lunch-guides.md)                                 | ![skm](/doc/img/hr_skills.jpg)            | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-skills-guides.md)                           | ![pch](/doc/img/purchase.jpg)             | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-purchasing-guides.md)                            |</v>
       </c>
       <c r="I81" s="2"/>
@@ -2125,18 +2122,18 @@
         <v>49</v>
       </c>
       <c r="B82" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A82,40)</f>
         <v>60</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A82,5,3)="o13","",MID(A82,46,B82-45))</f>
         <v xml:space="preserve"> [Competencias]</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="1"/>
       <c r="G82" s="2"/>
       <c r="H82" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I82" s="2"/>
@@ -2149,18 +2146,18 @@
         <v>64</v>
       </c>
       <c r="B83" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A83,40)</f>
         <v>55</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A83,5,3)="o13","",MID(A83,46,B83-45))</f>
         <v xml:space="preserve"> [Compras]</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
       <c r="G83" s="2"/>
       <c r="H83" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I83" s="2"/>
@@ -2173,18 +2170,18 @@
         <v>35</v>
       </c>
       <c r="B84" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A84,40)</f>
         <v>60</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A84,5,3)="o13","",MID(A84,46,B84-45))</f>
         <v xml:space="preserve"> [Contabilidad]</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
       <c r="G84" s="2"/>
       <c r="H84" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![acc](/doc/img/account_accountant.jpg)   | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-accounting-guides.md)                       | ![ctc](/doc/img/contacts.jpg)             | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-contacts-guides.md)                            | ![msm](/doc/img/mass_mailing.jpg)         | [Correo masivo](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-mass-marketing-guides.md)                  |</v>
       </c>
       <c r="I84" s="2"/>
@@ -2197,18 +2194,18 @@
         <v>50</v>
       </c>
       <c r="B85" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A85,40)</f>
         <v>57</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A85,5,3)="o13","",MID(A85,46,B85-45))</f>
         <v xml:space="preserve"> [Contactos]</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
       <c r="G85" s="2"/>
       <c r="H85" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I85" s="2"/>
@@ -2221,18 +2218,18 @@
         <v>65</v>
       </c>
       <c r="B86" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A86,40)</f>
         <v>61</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A86,5,3)="o13","",MID(A86,46,B86-45))</f>
         <v xml:space="preserve"> [Correo masivo]</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
       <c r="G86" s="2"/>
       <c r="H86" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I86" s="2"/>
@@ -2245,18 +2242,18 @@
         <v>36</v>
       </c>
       <c r="B87" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A87,40)</f>
         <v>57</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A87,5,3)="o13","",MID(A87,46,B87-45))</f>
         <v xml:space="preserve"> [eComercio]</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
       <c r="G87" s="2"/>
       <c r="H87" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![eco](/doc/img/website_sale.jpg)         | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-ecommerce-guides.md)                           | ![esg](/doc/img/website_sign.jpg)         | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-esignature-guides.md)                             | ![emp](/doc/img/hr_employees.jpg)         | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-employees-guides.md)                           |</v>
       </c>
       <c r="I87" s="2"/>
@@ -2269,18 +2266,18 @@
         <v>51</v>
       </c>
       <c r="B88" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A88,40)</f>
         <v>54</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A88,5,3)="o13","",MID(A88,46,B88-45))</f>
         <v xml:space="preserve"> [eFirma]</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
       <c r="G88" s="2"/>
       <c r="H88" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I88" s="2"/>
@@ -2293,18 +2290,18 @@
         <v>66</v>
       </c>
       <c r="B89" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A89,40)</f>
         <v>57</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A89,5,3)="o13","",MID(A89,46,B89-45))</f>
         <v xml:space="preserve"> [Empleados]</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
       <c r="G89" s="2"/>
       <c r="H89" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I89" s="2"/>
@@ -2317,18 +2314,18 @@
         <v>37</v>
       </c>
       <c r="B90" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A90,40)</f>
         <v>57</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A90,5,3)="o13","",MID(A90,46,B90-45))</f>
         <v xml:space="preserve"> [Encuestas]</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
       <c r="G90" s="2"/>
       <c r="H90" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![svy](/doc/img/survey.jpg)               | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-survey-guides.md)                              | ![equ](/doc/img/equipment.jpg)            | [Equipo](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-equipment-guides.md)                              | ![apr](/doc/img/hr_appraisal.jpg)         | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-appraisal-guides.md)                        |</v>
       </c>
       <c r="I90" s="2"/>
@@ -2341,18 +2338,18 @@
         <v>52</v>
       </c>
       <c r="B91" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A91,40)</f>
         <v>54</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A91,5,3)="o13","",MID(A91,46,B91-45))</f>
         <v xml:space="preserve"> [Equipo]</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="1"/>
       <c r="G91" s="2"/>
       <c r="H91" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I91" s="2"/>
@@ -2365,18 +2362,18 @@
         <v>67</v>
       </c>
       <c r="B92" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A92,40)</f>
         <v>60</v>
       </c>
       <c r="C92" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A92,5,3)="o13","",MID(A92,46,B92-45))</f>
         <v xml:space="preserve"> [Evaluaciones]</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="1"/>
       <c r="G92" s="2"/>
       <c r="H92" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I92" s="2"/>
@@ -2389,18 +2386,18 @@
         <v>38</v>
       </c>
       <c r="B93" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A93,40)</f>
         <v>55</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A93,5,3)="o13","",MID(A93,46,B93-45))</f>
         <v xml:space="preserve"> [Eventos]</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="1"/>
       <c r="G93" s="2"/>
       <c r="H93" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![eve](/doc/img/event.jpg)                | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-events-guides.md)                                | ![ivc](/doc/img/account_invoicing.jpg)    | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-invoicing-guides.md)                         | ![flt](/doc/img/fleet.jpg)                | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-fleet-guides.md)                               |</v>
       </c>
       <c r="I93" s="2"/>
@@ -2413,18 +2410,18 @@
         <v>53</v>
       </c>
       <c r="B94" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A94,40)</f>
         <v>59</v>
       </c>
       <c r="C94" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A94,5,3)="o13","",MID(A94,46,B94-45))</f>
         <v xml:space="preserve"> [Facturación]</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="1"/>
       <c r="G94" s="2"/>
       <c r="H94" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I94" s="2"/>
@@ -2437,18 +2434,18 @@
         <v>68</v>
       </c>
       <c r="B95" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A95,40)</f>
         <v>57</v>
       </c>
       <c r="C95" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A95,5,3)="o13","",MID(A95,46,B95-45))</f>
         <v xml:space="preserve"> [Flotillas]</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="1"/>
       <c r="G95" s="2"/>
       <c r="H95" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I95" s="2"/>
@@ -2461,18 +2458,18 @@
         <v>39</v>
       </c>
       <c r="B96" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A96,40)</f>
         <v>53</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A96,5,3)="o13","",MID(A96,46,B96-45))</f>
         <v xml:space="preserve"> [Foros]</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="1"/>
       <c r="G96" s="2"/>
       <c r="H96" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![for](/doc/img/website_forum.jpg)        | [Foros](/es-mx/o13/ee/for/es-mx-o13-ee-for-forum-guides.md)                                   | ![exp](/doc/img/hr_expense.jpg)           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-expenses-guides.md)                               | ![iot](/doc/img/iot.jpg)                  | [Internet de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-internet_of_things-guides.md)      |</v>
       </c>
       <c r="I96" s="2"/>
@@ -2485,18 +2482,18 @@
         <v>54</v>
       </c>
       <c r="B97" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A97,40)</f>
         <v>54</v>
       </c>
       <c r="C97" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A97,5,3)="o13","",MID(A97,46,B97-45))</f>
         <v xml:space="preserve"> [Gastos]</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
       <c r="H97" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I97" s="2"/>
@@ -2509,18 +2506,18 @@
         <v>69</v>
       </c>
       <c r="B98" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A98,40)</f>
         <v>69</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A98,5,3)="o13","",MID(A98,46,B98-45))</f>
         <v xml:space="preserve"> [Internet de las Cosas]</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="1"/>
       <c r="G98" s="2"/>
       <c r="H98" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I98" s="2"/>
@@ -2533,18 +2530,18 @@
         <v>40</v>
       </c>
       <c r="B99" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A99,40)</f>
         <v>59</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A99,5,3)="o13","",MID(A99,46,B99-45))</f>
         <v xml:space="preserve"> [Inventarios]</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="1"/>
       <c r="G99" s="2"/>
       <c r="H99" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![inv](/doc/img/stock.jpg)                | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-inventory-guides.md)                         | ![mnt](/doc/img/maintenance.jpg)          | [Manenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-maintenance-guides.md)                      | ![hdk](/doc/img/helpdesk.jpg)             | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-helpdesk-guides.md)                        |</v>
       </c>
       <c r="I99" s="2"/>
@@ -2557,18 +2554,18 @@
         <v>55</v>
       </c>
       <c r="B100" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A100,40)</f>
         <v>60</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A100,5,3)="o13","",MID(A100,46,B100-45))</f>
         <v xml:space="preserve"> [Manenimiento]</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="1"/>
       <c r="G100" s="2"/>
       <c r="H100" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I100" s="2"/>
@@ -2581,18 +2578,18 @@
         <v>70</v>
       </c>
       <c r="B101" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A101,40)</f>
         <v>61</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A101,5,3)="o13","",MID(A101,46,B101-45))</f>
         <v xml:space="preserve"> [Mesa de Ayuda]</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="1"/>
       <c r="G101" s="2"/>
       <c r="H101" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I101" s="2"/>
@@ -2605,18 +2602,18 @@
         <v>41</v>
       </c>
       <c r="B102" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A102,40)</f>
         <v>51</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A102,5,3)="o13","",MID(A102,46,B102-45))</f>
         <v xml:space="preserve"> [MRP]</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="1"/>
       <c r="G102" s="2"/>
       <c r="H102" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-mrp-guides.md)                                       | ![pyr](/doc/img/hr_payroll.jpg)           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-payroll-guides.md)                                | ![stu](/doc/img/web_studio.jpg)           | [Odoo Estudio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-studio-guides.md)                           |</v>
       </c>
       <c r="I102" s="2"/>
@@ -2629,18 +2626,18 @@
         <v>56</v>
       </c>
       <c r="B103" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A103,40)</f>
         <v>54</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A103,5,3)="o13","",MID(A103,46,B103-45))</f>
         <v xml:space="preserve"> [Nómina]</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="1"/>
       <c r="G103" s="2"/>
       <c r="H103" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I103" s="2"/>
@@ -2653,18 +2650,18 @@
         <v>71</v>
       </c>
       <c r="B104" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A104,40)</f>
         <v>60</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A104,5,3)="o13","",MID(A104,46,B104-45))</f>
         <v xml:space="preserve"> [Odoo Estudio]</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="1"/>
       <c r="G104" s="2"/>
       <c r="H104" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I104" s="2"/>
@@ -2677,18 +2674,18 @@
         <v>42</v>
       </c>
       <c r="B105" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A105,40)</f>
         <v>55</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A105,5,3)="o13","",MID(A105,46,B105-45))</f>
         <v xml:space="preserve"> [Odoo SH]</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="1"/>
       <c r="G105" s="2"/>
       <c r="H105" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-odoo-sh-guides.md)                               | ![tof](/doc/img/timeoff.jpg)              | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-timeoff-guides.md)                              | ![plm](/doc/img/plm.jpg)                  | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-plm-guides.md)                                       |</v>
       </c>
       <c r="I105" s="2"/>
@@ -2701,18 +2698,18 @@
         <v>57</v>
       </c>
       <c r="B106" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A106,40)</f>
         <v>56</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A106,5,3)="o13","",MID(A106,46,B106-45))</f>
         <v xml:space="preserve"> [Permisos]</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="1"/>
       <c r="G106" s="2"/>
       <c r="H106" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I106" s="2"/>
@@ -2725,18 +2722,18 @@
         <v>72</v>
       </c>
       <c r="B107" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A107,40)</f>
         <v>51</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A107,5,3)="o13","",MID(A107,46,B107-45))</f>
         <v xml:space="preserve"> [PLM]</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="1"/>
       <c r="G107" s="2"/>
       <c r="H107" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I107" s="2"/>
@@ -2749,18 +2746,18 @@
         <v>43</v>
       </c>
       <c r="B108" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A108,40)</f>
         <v>61</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A108,5,3)="o13","",MID(A108,46,B108-45))</f>
         <v xml:space="preserve"> [Productividad]</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="1"/>
       <c r="G108" s="2"/>
       <c r="H108" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Productividad](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-timesheet-guides.md)                       | ![prj](/doc/img/project.jpg)              | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-projects-guides.md)                            | ![sli](/doc/img/website_slides.jpg)       | [Publicaciones](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-slides-guides.md)                          |</v>
       </c>
       <c r="I108" s="2"/>
@@ -2773,18 +2770,18 @@
         <v>58</v>
       </c>
       <c r="B109" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A109,40)</f>
         <v>57</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A109,5,3)="o13","",MID(A109,46,B109-45))</f>
         <v xml:space="preserve"> [Proyectos]</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="1"/>
       <c r="G109" s="2"/>
       <c r="H109" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I109" s="2"/>
@@ -2797,18 +2794,18 @@
         <v>73</v>
       </c>
       <c r="B110" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A110,40)</f>
         <v>61</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A110,5,3)="o13","",MID(A110,46,B110-45))</f>
         <v xml:space="preserve"> [Publicaciones]</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="1"/>
       <c r="G110" s="2"/>
       <c r="H110" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I110" s="2"/>
@@ -2821,18 +2818,18 @@
         <v>44</v>
       </c>
       <c r="B111" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A111,40)</f>
         <v>62</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A111,5,3)="o13","",MID(A111,46,B111-45))</f>
         <v xml:space="preserve"> [Punto de Venta]</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="1"/>
       <c r="G111" s="2"/>
       <c r="H111" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![pos](/doc/img/point_of_sale.jpg)        | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-point-of-sale-guides.md)                  | ![rcr](/doc/img/hr_recruitment.jpg)       | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-recruitment-guides.md)                     | ![rnt](/doc/img/rentals.jpg)              | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-rental-guides.md)                                 |</v>
       </c>
       <c r="I111" s="2"/>
@@ -2845,18 +2842,18 @@
         <v>59</v>
       </c>
       <c r="B112" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A112,40)</f>
         <v>61</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A112,5,3)="o13","",MID(A112,46,B112-45))</f>
         <v xml:space="preserve"> [Reclutamiento]</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="1"/>
       <c r="G112" s="2"/>
       <c r="H112" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I112" s="2"/>
@@ -2869,18 +2866,18 @@
         <v>74</v>
       </c>
       <c r="B113" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A113,40)</f>
         <v>54</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A113,5,3)="o13","",MID(A113,46,B113-45))</f>
         <v xml:space="preserve"> [Rentas]</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="1"/>
       <c r="G113" s="2"/>
       <c r="H113" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I113" s="2"/>
@@ -2893,18 +2890,18 @@
         <v>45</v>
       </c>
       <c r="B114" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A114,40)</f>
         <v>56</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A114,5,3)="o13","",MID(A114,46,B114-45))</f>
         <v xml:space="preserve"> [Servicio]</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="1"/>
       <c r="G114" s="2"/>
       <c r="H114" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>| ![fsv](/doc/img/field_service.jpg)        | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-field-service-guides.md)                        | ![web](/doc/img/website.jpg)              | [Sitios Web](/es-mx/o13/ee/web/es-mx-o13-ee-web-websites-builder-guides.md)                   | ![sub](/doc/img/sale_subscription.jpg)    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-subscriptions-guides.md)                   |</v>
       </c>
       <c r="I114" s="2"/>
@@ -2917,18 +2914,18 @@
         <v>60</v>
       </c>
       <c r="B115" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A115,40)</f>
         <v>58</v>
       </c>
       <c r="C115" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A115,5,3)="o13","",MID(A115,46,B115-45))</f>
         <v xml:space="preserve"> [Sitios Web]</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="1"/>
       <c r="G115" s="2"/>
       <c r="H115" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I115" s="2"/>
@@ -2941,18 +2938,18 @@
         <v>75</v>
       </c>
       <c r="B116" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A116,40)</f>
         <v>61</v>
       </c>
       <c r="C116" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A116,5,3)="o13","",MID(A116,46,B116-45))</f>
         <v xml:space="preserve"> [Suscripciones]</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="1"/>
       <c r="G116" s="2"/>
       <c r="H116" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I116" s="2"/>
@@ -2965,18 +2962,18 @@
         <v>76</v>
       </c>
       <c r="B117" s="10">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A117,40)</f>
         <v>54</v>
       </c>
       <c r="C117" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A117,5,3)="o13","",MID(A117,46,B117-45))</f>
         <v xml:space="preserve"> [Ventas]</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="1"/>
       <c r="G117" s="2"/>
       <c r="H117" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>|| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  | | | | |</v>
       </c>
       <c r="I117" s="2"/>
@@ -2989,11 +2986,11 @@
         <v>11</v>
       </c>
       <c r="B118" s="11" t="e">
-        <f t="shared" si="3"/>
+        <f>SEARCH("]",A118,40)</f>
         <v>#VALUE!</v>
       </c>
       <c r="C118" s="2" t="e">
-        <f t="shared" si="4"/>
+        <f>IF(MID(A118,5,3)="o13","",MID(A118,46,B118-45))</f>
         <v>#VALUE!</v>
       </c>
       <c r="E118" s="2"/>
@@ -3021,248 +3018,105 @@
       <c r="L119" s="2"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>0</v>
+      <c r="A125" s="1" t="str">
+        <f>MID(H69,2,1000)</f>
+        <v>| ![o13](/doc/img/odoo13.jpg)               | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           | | | | |</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>0</v>
+      <c r="A126" s="1" t="str">
+        <f>H72</f>
+        <v>| ![psc](/doc/img/hr_presence.jpg)          | [Asistencias](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-presence-guides.md)                          | ![apv](/doc/img/approval.jpg)             | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-approvals-guides.md)                      | ![blg](/doc/img/website_blog.jpg)         | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-blog-guides.md)                                     |</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>0</v>
+      <c r="A127" s="1" t="str">
+        <f>H75</f>
+        <v>| ![cal](/doc/img/calendar.jpg)             | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-calendar-guides.md)                           | ![mka](/doc/img/marketing_automation.jpg) | [Campañas](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-marketing-automation-guides.md)                 | ![lvc](/doc/img/im_livechat.jpg)          | [Chat en vivo](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-live_chat-guides.md)                        |</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>0</v>
+      <c r="A128" s="1" t="str">
+        <f>H78</f>
+        <v>| ![apt](/doc/img/appointments.jpg)         | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-appointments-guides.md)                            | ![crm](/doc/img/crm.jpg)                  | [Clientes](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-crm-guides.md)                                  | ![dsc](/doc/img/discuss.jpg)              | [Comentarios](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-discuss-guides.md)                           |</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>0</v>
+      <c r="A129" s="1" t="str">
+        <f>H81</f>
+        <v>| ![lun](/doc/img/lunch.jpg)                | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-lunch-guides.md)                                 | ![skm](/doc/img/hr_skills.jpg)            | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-skills-guides.md)                           | ![pch](/doc/img/purchase.jpg)             | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-purchasing-guides.md)                            |</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>0</v>
+      <c r="A130" s="1" t="str">
+        <f>H84</f>
+        <v>| ![acc](/doc/img/account_accountant.jpg)   | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-accounting-guides.md)                       | ![ctc](/doc/img/contacts.jpg)             | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-contacts-guides.md)                            | ![msm](/doc/img/mass_mailing.jpg)         | [Correo masivo](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-mass-marketing-guides.md)                  |</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>0</v>
+      <c r="A131" s="1" t="str">
+        <f>H87</f>
+        <v>| ![eco](/doc/img/website_sale.jpg)         | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-ecommerce-guides.md)                           | ![esg](/doc/img/website_sign.jpg)         | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-esignature-guides.md)                             | ![emp](/doc/img/hr_employees.jpg)         | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-employees-guides.md)                           |</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>0</v>
+      <c r="A132" s="1" t="str">
+        <f>H90</f>
+        <v>| ![svy](/doc/img/survey.jpg)               | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-survey-guides.md)                              | ![equ](/doc/img/equipment.jpg)            | [Equipo](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-equipment-guides.md)                              | ![apr](/doc/img/hr_appraisal.jpg)         | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-appraisal-guides.md)                        |</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>0</v>
+      <c r="A133" s="1" t="str">
+        <f>H93</f>
+        <v>| ![eve](/doc/img/event.jpg)                | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-events-guides.md)                                | ![ivc](/doc/img/account_invoicing.jpg)    | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-invoicing-guides.md)                         | ![flt](/doc/img/fleet.jpg)                | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-fleet-guides.md)                               |</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>0</v>
+      <c r="A134" s="1" t="str">
+        <f>H96</f>
+        <v>| ![for](/doc/img/website_forum.jpg)        | [Foros](/es-mx/o13/ee/for/es-mx-o13-ee-for-forum-guides.md)                                   | ![exp](/doc/img/hr_expense.jpg)           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-expenses-guides.md)                               | ![iot](/doc/img/iot.jpg)                  | [Internet de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-internet_of_things-guides.md)      |</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>0</v>
+      <c r="A135" s="1" t="str">
+        <f>H99</f>
+        <v>| ![inv](/doc/img/stock.jpg)                | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-inventory-guides.md)                         | ![mnt](/doc/img/maintenance.jpg)          | [Manenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-maintenance-guides.md)                      | ![hdk](/doc/img/helpdesk.jpg)             | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-helpdesk-guides.md)                        |</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>0</v>
+      <c r="A136" s="1" t="str">
+        <f>H102</f>
+        <v>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-mrp-guides.md)                                       | ![pyr](/doc/img/hr_payroll.jpg)           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-payroll-guides.md)                                | ![stu](/doc/img/web_studio.jpg)           | [Odoo Estudio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-studio-guides.md)                           |</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>0</v>
+      <c r="A137" s="1" t="str">
+        <f>H105</f>
+        <v>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-odoo-sh-guides.md)                               | ![tof](/doc/img/timeoff.jpg)              | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-timeoff-guides.md)                              | ![plm](/doc/img/plm.jpg)                  | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-plm-guides.md)                                       |</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>0</v>
+      <c r="A138" s="1" t="str">
+        <f>H108</f>
+        <v>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Productividad](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-timesheet-guides.md)                       | ![prj](/doc/img/project.jpg)              | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-projects-guides.md)                            | ![sli](/doc/img/website_slides.jpg)       | [Publicaciones](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-slides-guides.md)                          |</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>0</v>
+      <c r="A139" s="1" t="str">
+        <f>H111</f>
+        <v>| ![pos](/doc/img/point_of_sale.jpg)        | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-point-of-sale-guides.md)                  | ![rcr](/doc/img/hr_recruitment.jpg)       | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-recruitment-guides.md)                     | ![rnt](/doc/img/rentals.jpg)              | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-rental-guides.md)                                 |</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>0</v>
+      <c r="A140" s="1" t="str">
+        <f>H114</f>
+        <v>| ![fsv](/doc/img/field_service.jpg)        | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-field-service-guides.md)                        | ![web](/doc/img/website.jpg)              | [Sitios Web](/es-mx/o13/ee/web/es-mx-o13-ee-web-websites-builder-guides.md)                   | ![sub](/doc/img/sale_subscription.jpg)    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-subscriptions-guides.md)                   |</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
-        <v>77</v>
+      <c r="A141" s="1" t="str">
+        <f>MID(H117,2,1000)</f>
+        <v>| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  | | | | |</v>
       </c>
     </row>
   </sheetData>
@@ -3271,8 +3125,8 @@
       <sortCondition ref="C73"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A125:A173">
-    <sortCondition ref="A125"/>
+  <sortState ref="A71:C119">
+    <sortCondition ref="C72"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/Reorder APPs Menu.xlsx
+++ b/doc/Reorder APPs Menu.xlsx
@@ -10,14 +10,14 @@
     <sheet name="ReorderMenu" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReorderMenu!$A$70:$C$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReorderMenu!$A$82:$C$129</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
   <si>
     <t/>
   </si>
@@ -52,202 +52,208 @@
     <t>CALL</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> | | | |</t>
-  </si>
-  <si>
-    <t>| ![psc](/doc/img/hr_presence.jpg)          | [Asistencias](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-presence-guides.md)                          | ![apv](/doc/img/approval.jpg)             | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-approvals-guides.md)                      | ![blg](/doc/img/website_blog.jpg)         | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-blog-guides.md)                                     |</t>
-  </si>
-  <si>
-    <t>| ![cal](/doc/img/calendar.jpg)             | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-calendar-guides.md)                           | ![mka](/doc/img/marketing_automation.jpg) | [Campañas](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-marketing-automation-guides.md)                 | ![lvc](/doc/img/im_livechat.jpg)          | [Chat en vivo](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-live_chat-guides.md)                        |</t>
-  </si>
-  <si>
-    <t>| ![apt](/doc/img/appointments.jpg)         | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-appointments-guides.md)                            | ![crm](/doc/img/crm.jpg)                  | [Clientes](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-crm-guides.md)                                  | ![dsc](/doc/img/discuss.jpg)              | [Comentarios](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-discuss-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![lun](/doc/img/lunch.jpg)                | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-lunch-guides.md)                                 | ![skm](/doc/img/hr_skills.jpg)            | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-skills-guides.md)                           | ![pch](/doc/img/purchase.jpg)             | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-purchasing-guides.md)                            |</t>
-  </si>
-  <si>
-    <t>| ![acc](/doc/img/account_accountant.jpg)   | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-accounting-guides.md)                       | ![ctc](/doc/img/contacts.jpg)             | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-contacts-guides.md)                            | ![msm](/doc/img/mass_mailing.jpg)         | [Correo masivo](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-mass-marketing-guides.md)                  |</t>
-  </si>
-  <si>
-    <t>| ![eco](/doc/img/website_sale.jpg)         | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-ecommerce-guides.md)                           | ![esg](/doc/img/website_sign.jpg)         | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-esignature-guides.md)                             | ![emp](/doc/img/hr_employees.jpg)         | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-employees-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![svy](/doc/img/survey.jpg)               | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-survey-guides.md)                              | ![equ](/doc/img/equipment.jpg)            | [Equipo](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-equipment-guides.md)                              | ![apr](/doc/img/hr_appraisal.jpg)         | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-appraisal-guides.md)                        |</t>
-  </si>
-  <si>
-    <t>| ![eve](/doc/img/event.jpg)                | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-events-guides.md)                                | ![ivc](/doc/img/account_invoicing.jpg)    | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-invoicing-guides.md)                         | ![flt](/doc/img/fleet.jpg)                | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-fleet-guides.md)                               |</t>
-  </si>
-  <si>
-    <t>| ![for](/doc/img/website_forum.jpg)        | [Foros](/es-mx/o13/ee/for/es-mx-o13-ee-for-forum-guides.md)                                   | ![exp](/doc/img/hr_expense.jpg)           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-expenses-guides.md)                               | ![iot](/doc/img/iot.jpg)                  | [Internet de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-internet_of_things-guides.md)      |</t>
-  </si>
-  <si>
-    <t>| ![inv](/doc/img/stock.jpg)                | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-inventory-guides.md)                         | ![mnt](/doc/img/maintenance.jpg)          | [Manenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-maintenance-guides.md)                      | ![hdk](/doc/img/helpdesk.jpg)             | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-helpdesk-guides.md)                        |</t>
-  </si>
-  <si>
-    <t>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-mrp-guides.md)                                       | ![pyr](/doc/img/hr_payroll.jpg)           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-payroll-guides.md)                                | ![stu](/doc/img/web_studio.jpg)           | [Odoo Estudio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-studio-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-odoo-sh-guides.md)                               | ![tof](/doc/img/timeoff.jpg)              | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-timeoff-guides.md)                              | ![plm](/doc/img/plm.jpg)                  | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-plm-guides.md)                                       |</t>
-  </si>
-  <si>
-    <t>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Productividad](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-timesheet-guides.md)                       | ![prj](/doc/img/project.jpg)              | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-projects-guides.md)                            | ![sli](/doc/img/website_slides.jpg)       | [Publicaciones](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-slides-guides.md)                          |</t>
-  </si>
-  <si>
-    <t>| ![pos](/doc/img/point_of_sale.jpg)        | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-point-of-sale-guides.md)                  | ![rcr](/doc/img/hr_recruitment.jpg)       | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-recruitment-guides.md)                     | ![rnt](/doc/img/rentals.jpg)              | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-rental-guides.md)                                 |</t>
-  </si>
-  <si>
-    <t>| ![fsv](/doc/img/field_service.jpg)        | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-field-service-guides.md)                        | ![web](/doc/img/website.jpg)              | [Sitios Web](/es-mx/o13/ee/web/es-mx-o13-ee-web-websites-builder-guides.md)                   | ![sub](/doc/img/sale_subscription.jpg)    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-subscriptions-guides.md)                   |</t>
-  </si>
-  <si>
-    <t xml:space="preserve">| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  | | | | |                               </t>
-  </si>
-  <si>
-    <t>| ![o13](/doc/img/odoo13.jpg)               | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           | | | | |</t>
-  </si>
-  <si>
-    <t>| ![o13](/doc/img/odoo13.jpg)               | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![psc](/doc/img/hr_presence.jpg)          | [Asistencias](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-presence-guides.md)                          |</t>
-  </si>
-  <si>
-    <t>| ![cal](/doc/img/calendar.jpg)             | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-calendar-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![apt](/doc/img/appointments.jpg)         | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-appointments-guides.md)                            |</t>
-  </si>
-  <si>
-    <t>| ![lun](/doc/img/lunch.jpg)                | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-lunch-guides.md)                                 |</t>
-  </si>
-  <si>
-    <t>| ![acc](/doc/img/account_accountant.jpg)   | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-accounting-guides.md)                       |</t>
-  </si>
-  <si>
-    <t>| ![eco](/doc/img/website_sale.jpg)         | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-ecommerce-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![svy](/doc/img/survey.jpg)               | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-survey-guides.md)                              |</t>
-  </si>
-  <si>
-    <t>| ![eve](/doc/img/event.jpg)                | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-events-guides.md)                                |</t>
-  </si>
-  <si>
-    <t>| ![for](/doc/img/website_forum.jpg)        | [Foros](/es-mx/o13/ee/for/es-mx-o13-ee-for-forum-guides.md)                                   |</t>
-  </si>
-  <si>
-    <t>| ![inv](/doc/img/stock.jpg)                | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-inventory-guides.md)                         |</t>
-  </si>
-  <si>
-    <t>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-mrp-guides.md)                                       |</t>
-  </si>
-  <si>
-    <t>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-odoo-sh-guides.md)                               |</t>
-  </si>
-  <si>
-    <t>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Productividad](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-timesheet-guides.md)                       |</t>
-  </si>
-  <si>
-    <t>| ![pos](/doc/img/point_of_sale.jpg)        | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-point-of-sale-guides.md)                  |</t>
-  </si>
-  <si>
-    <t>| ![fsv](/doc/img/field_service.jpg)        | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-field-service-guides.md)                        |</t>
-  </si>
-  <si>
-    <t>| ![apv](/doc/img/approval.jpg)             | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-approvals-guides.md)                      |</t>
-  </si>
-  <si>
-    <t>| ![mka](/doc/img/marketing_automation.jpg) | [Campañas](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-marketing-automation-guides.md)                 |</t>
-  </si>
-  <si>
-    <t>| ![crm](/doc/img/crm.jpg)                  | [Clientes](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-crm-guides.md)                                  |</t>
-  </si>
-  <si>
-    <t>| ![skm](/doc/img/hr_skills.jpg)            | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-skills-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![ctc](/doc/img/contacts.jpg)             | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-contacts-guides.md)                            |</t>
-  </si>
-  <si>
-    <t>| ![esg](/doc/img/website_sign.jpg)         | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-esignature-guides.md)                             |</t>
-  </si>
-  <si>
-    <t>| ![equ](/doc/img/equipment.jpg)            | [Equipo](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-equipment-guides.md)                              |</t>
-  </si>
-  <si>
-    <t>| ![ivc](/doc/img/account_invoicing.jpg)    | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-invoicing-guides.md)                         |</t>
-  </si>
-  <si>
-    <t>| ![exp](/doc/img/hr_expense.jpg)           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-expenses-guides.md)                               |</t>
-  </si>
-  <si>
-    <t>| ![mnt](/doc/img/maintenance.jpg)          | [Manenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-maintenance-guides.md)                      |</t>
-  </si>
-  <si>
-    <t>| ![pyr](/doc/img/hr_payroll.jpg)           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-payroll-guides.md)                                |</t>
-  </si>
-  <si>
-    <t>| ![tof](/doc/img/timeoff.jpg)              | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-timeoff-guides.md)                              |</t>
-  </si>
-  <si>
-    <t>| ![prj](/doc/img/project.jpg)              | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-projects-guides.md)                            |</t>
-  </si>
-  <si>
-    <t>| ![rcr](/doc/img/hr_recruitment.jpg)       | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-recruitment-guides.md)                     |</t>
-  </si>
-  <si>
-    <t>| ![web](/doc/img/website.jpg)              | [Sitios Web](/es-mx/o13/ee/web/es-mx-o13-ee-web-websites-builder-guides.md)                   |</t>
-  </si>
-  <si>
-    <t>| ![blg](/doc/img/website_blog.jpg)         | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-blog-guides.md)                                     |</t>
-  </si>
-  <si>
-    <t>| ![lvc](/doc/img/im_livechat.jpg)          | [Chat en vivo](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-live_chat-guides.md)                        |</t>
-  </si>
-  <si>
-    <t>| ![dsc](/doc/img/discuss.jpg)              | [Comentarios](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-discuss-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![pch](/doc/img/purchase.jpg)             | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-purchasing-guides.md)                            |</t>
-  </si>
-  <si>
-    <t>| ![msm](/doc/img/mass_mailing.jpg)         | [Correo masivo](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-mass-marketing-guides.md)                  |</t>
-  </si>
-  <si>
-    <t>| ![emp](/doc/img/hr_employees.jpg)         | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-employees-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![apr](/doc/img/hr_appraisal.jpg)         | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-appraisal-guides.md)                        |</t>
-  </si>
-  <si>
-    <t>| ![flt](/doc/img/fleet.jpg)                | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-fleet-guides.md)                               |</t>
-  </si>
-  <si>
-    <t>| ![iot](/doc/img/iot.jpg)                  | [Internet de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-internet_of_things-guides.md)      |</t>
-  </si>
-  <si>
-    <t>| ![hdk](/doc/img/helpdesk.jpg)             | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-helpdesk-guides.md)                        |</t>
-  </si>
-  <si>
-    <t>| ![stu](/doc/img/web_studio.jpg)           | [Odoo Estudio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-studio-guides.md)                           |</t>
-  </si>
-  <si>
-    <t>| ![plm](/doc/img/plm.jpg)                  | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-plm-guides.md)                                       |</t>
-  </si>
-  <si>
-    <t>| ![sli](/doc/img/website_slides.jpg)       | [Publicaciones](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-slides-guides.md)                          |</t>
-  </si>
-  <si>
-    <t>| ![rnt](/doc/img/rentals.jpg)              | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-rental-guides.md)                                 |</t>
-  </si>
-  <si>
-    <t>| ![sub](/doc/img/sale_subscription.jpg)    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-subscriptions-guides.md)                   |</t>
-  </si>
-  <si>
-    <t>| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  |</t>
+    <t>| [![o13](/doc/img/odoo13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                        | [System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                            | | | | |</t>
+  </si>
+  <si>
+    <t>| [![acc](/doc/img/account_accountant.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)             | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)                         | [![apt](/doc/img/appointments.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                 | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                     | [![apr](/doc/img/hr_appraisal.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                    | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![apv](/doc/img/approval.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                        | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                           | [![blg](/doc/img/website_blog.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                         | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                                     | [![cal](/doc/img/calendar.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                         | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                             |</t>
+  </si>
+  <si>
+    <t>| [![ctc](/doc/img/contacts.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                         | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                             | [![crm](/doc/img/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                   | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                       | [![dsc](/doc/img/discuss.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                           | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                               |</t>
+  </si>
+  <si>
+    <t>| [![eco](/doc/img/website_sale.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                    | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                           | [![emp](/doc/img/hr_employees.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                    | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                           | [![equ](/doc/img/equipment.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                       | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![esg](/doc/img/website_sign.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                   | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                         | [![eve](/doc/img/event.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                              | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                                 | [![exp](/doc/img/hr_expense.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                       | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                             |</t>
+  </si>
+  <si>
+    <t>| [![fsv](/doc/img/field_service.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)               | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)                   | [![flt](/doc/img/fleet.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                               | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                                   | [![for](/doc/img/website_forum.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                       | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                                   |</t>
+  </si>
+  <si>
+    <t>| [![hdk](/doc/img/helpdesk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                         | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                             | [![iot](/doc/img/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)                    | [Internet of Things (IOT)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)   | [![inv](/doc/img/stock.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![ivc](/doc/img/account_invoicing.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)               | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)                           | [![lvc](/doc/img/im_livechat.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                     | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                           | [![lun](/doc/img/lunch.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                               | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                                   |</t>
+  </si>
+  <si>
+    <t>| [![mnt](/doc/img/maintenance.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                   | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                       | [![mka](/doc/img/marketing_automation.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md)           | [![msm](/doc/img/mass_mailing.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)               | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)                      |</t>
+  </si>
+  <si>
+    <t>| [![mrp](/doc/img/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                   | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                       | [![osh](/doc/img/odoosh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                               | [![stu](/doc/img/web_studio.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                         | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                            |</t>
+  </si>
+  <si>
+    <t>| [![pyr](/doc/img/hr_payroll.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                        | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                               | [![plm](/doc/img/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                   | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                       | [![pos](/doc/img/point_of_sale.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)               | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)                   |</t>
+  </si>
+  <si>
+    <t>| [![psc](/doc/img/hr_presence.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                      | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                             | [![prj](/doc/img/project.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                          | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                             | [![pch](/doc/img/purchase.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                       | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                         |</t>
+  </si>
+  <si>
+    <t>| [![rcr](/doc/img/hr_recruitment.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                       | [![rnt](/doc/img/rentals.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                            | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                                 | [![sls](/doc/img/sale.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                   |</t>
+  </si>
+  <si>
+    <t>| [![skm](/doc/img/hr_skills.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                          | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                                 | [![sli](/doc/img/website_slides.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                     | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                                 | [![sub](/doc/img/sale_subscription.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)           | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)                   |</t>
+  </si>
+  <si>
+    <t>| [![svy](/doc/img/survey.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                             | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                                | [![tof](/doc/img/timeoff.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                              | [![tsh](/doc/img/hr_timesheet.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                    | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![web](/doc/img/website.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                  | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                     |                                                                                                                |                                                                                               | [![3rd](/doc/img/third_parties.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-third-parties-guides.md)               | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-third-parties-guides.md)                     |</t>
+  </si>
+  <si>
+    <t>| [![o13](/doc/img/odoo13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                        | [System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                            |</t>
+  </si>
+  <si>
+    <t>| [![acc](/doc/img/account_accountant.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)             | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)                         |</t>
+  </si>
+  <si>
+    <t>| [![apv](/doc/img/approval.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                        | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![ctc](/doc/img/contacts.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                         | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                             |</t>
+  </si>
+  <si>
+    <t>| [![eco](/doc/img/website_sale.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                    | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![esg](/doc/img/website_sign.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                   | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                         |</t>
+  </si>
+  <si>
+    <t>| [![fsv](/doc/img/field_service.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)               | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)                   |</t>
+  </si>
+  <si>
+    <t>| [![hdk](/doc/img/helpdesk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                         | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                             |</t>
+  </si>
+  <si>
+    <t>| [![ivc](/doc/img/account_invoicing.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)               | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![mnt](/doc/img/maintenance.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                   | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                       |</t>
+  </si>
+  <si>
+    <t>| [![mrp](/doc/img/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                   | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                       |</t>
+  </si>
+  <si>
+    <t>| [![pyr](/doc/img/hr_payroll.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                        | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                               |</t>
+  </si>
+  <si>
+    <t>| [![psc](/doc/img/hr_presence.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                      | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                             |</t>
+  </si>
+  <si>
+    <t>| [![rcr](/doc/img/hr_recruitment.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                       |</t>
+  </si>
+  <si>
+    <t>| [![skm](/doc/img/hr_skills.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                          | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                                 |</t>
+  </si>
+  <si>
+    <t>| [![svy](/doc/img/survey.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                             | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                                |</t>
+  </si>
+  <si>
+    <t>| [![web](/doc/img/website.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                  | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                     |</t>
+  </si>
+  <si>
+    <t>| [![apt](/doc/img/appointments.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                 | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                     |</t>
+  </si>
+  <si>
+    <t>| [![blg](/doc/img/website_blog.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                         | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                                     |</t>
+  </si>
+  <si>
+    <t>| [![crm](/doc/img/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                   | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                       |</t>
+  </si>
+  <si>
+    <t>| [![emp](/doc/img/hr_employees.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                    | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![eve](/doc/img/event.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                              | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                                 |</t>
+  </si>
+  <si>
+    <t>| [![flt](/doc/img/fleet.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                               | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                                   |</t>
+  </si>
+  <si>
+    <t>| [![iot](/doc/img/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)                    | [Internet of Things (IOT)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)   |</t>
+  </si>
+  <si>
+    <t>| [![lvc](/doc/img/im_livechat.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                     | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![mka](/doc/img/marketing_automation.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md)           |</t>
+  </si>
+  <si>
+    <t>| [![osh](/doc/img/odoosh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                               |</t>
+  </si>
+  <si>
+    <t>| [![plm](/doc/img/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                   | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                       |</t>
+  </si>
+  <si>
+    <t>| [![prj](/doc/img/project.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                          | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                             |</t>
+  </si>
+  <si>
+    <t>| [![rnt](/doc/img/rentals.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                            | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                                 |</t>
+  </si>
+  <si>
+    <t>| [![sli](/doc/img/website_slides.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                     | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                                 |</t>
+  </si>
+  <si>
+    <t>| [![tof](/doc/img/timeoff.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                              |</t>
+  </si>
+  <si>
+    <t>|                                                                                                                |                                                                                               |</t>
+  </si>
+  <si>
+    <t>| [![apr](/doc/img/hr_appraisal.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                    | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![cal](/doc/img/calendar.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                         | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                             |</t>
+  </si>
+  <si>
+    <t>| [![dsc](/doc/img/discuss.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                           | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                               |</t>
+  </si>
+  <si>
+    <t>| [![equ](/doc/img/equipment.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                       | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![exp](/doc/img/hr_expense.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                       | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                             |</t>
+  </si>
+  <si>
+    <t>| [![for](/doc/img/website_forum.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                       | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                                   |</t>
+  </si>
+  <si>
+    <t>| [![inv](/doc/img/stock.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![lun](/doc/img/lunch.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                               | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                                   |</t>
+  </si>
+  <si>
+    <t>| [![msm](/doc/img/mass_mailing.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)               | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)                      |</t>
+  </si>
+  <si>
+    <t>| [![stu](/doc/img/web_studio.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                         | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                            |</t>
+  </si>
+  <si>
+    <t>| [![pos](/doc/img/point_of_sale.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)               | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)                   |</t>
+  </si>
+  <si>
+    <t>| [![pch](/doc/img/purchase.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                       | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                         |</t>
+  </si>
+  <si>
+    <t>| [![sls](/doc/img/sale.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                   |</t>
+  </si>
+  <si>
+    <t>| [![sub](/doc/img/sale_subscription.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)           | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)                   |</t>
+  </si>
+  <si>
+    <t>| [![tsh](/doc/img/hr_timesheet.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                    | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                           |</t>
+  </si>
+  <si>
+    <t>| [![3rd](/doc/img/third_parties.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-third-parties-guides.md)               | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-third-parties-guides.md)                     |</t>
+  </si>
+  <si>
+    <t>=SI(EXTRAE(A83,5,3)="o13","",EXTRAE(A83,46,B83-45))</t>
+  </si>
+  <si>
+    <t>| [![doc](/doc/img/documents.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-3rd-third-parties-guides.md)               | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-third-parties-guides.md)                     |</t>
   </si>
 </sst>
 </file>
@@ -291,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +334,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -341,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -360,6 +372,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,181 +682,56 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125:A141"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="144.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="113.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="96" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="2"/>
@@ -858,7 +747,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="2"/>
@@ -874,7 +763,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="2"/>
@@ -890,7 +779,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="2"/>
@@ -906,7 +795,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="2"/>
@@ -922,7 +811,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="2"/>
@@ -938,7 +827,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="2"/>
@@ -953,6 +842,9 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B18" s="10"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -966,6 +858,9 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B19" s="10"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -979,15 +874,12 @@
       <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="str">
-        <f>LEFT(A1,141)</f>
-        <v>| ![o13](/doc/img/odoo13.jpg)               | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           |</v>
+      <c r="A20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -998,15 +890,12 @@
       <c r="L20" s="2"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="str">
-        <f>LEFT(A2,141)</f>
-        <v>| ![psc](/doc/img/hr_presence.jpg)          | [Asistencias](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-presence-guides.md)                          |</v>
+      <c r="A21" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1017,15 +906,12 @@
       <c r="L21" s="2"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="str">
-        <f t="shared" ref="A22:A35" si="0">LEFT(A3,141)</f>
-        <v>| ![cal](/doc/img/calendar.jpg)             | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-calendar-guides.md)                           |</v>
+      <c r="A22" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B22" s="10"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1036,15 +922,12 @@
       <c r="L22" s="2"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>| ![apt](/doc/img/appointments.jpg)         | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-appointments-guides.md)                            |</v>
+      <c r="A23" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1055,15 +938,12 @@
       <c r="L23" s="2"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>| ![lun](/doc/img/lunch.jpg)                | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-lunch-guides.md)                                 |</v>
+      <c r="A24" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1074,15 +954,12 @@
       <c r="L24" s="2"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>| ![acc](/doc/img/account_accountant.jpg)   | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-accounting-guides.md)                       |</v>
+      <c r="A25" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="10"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1093,15 +970,12 @@
       <c r="L25" s="2"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>| ![eco](/doc/img/website_sale.jpg)         | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-ecommerce-guides.md)                           |</v>
+      <c r="A26" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1112,12 +986,12 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>| ![svy](/doc/img/survey.jpg)               | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-survey-guides.md)                              |</v>
+      <c r="A27" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1128,12 +1002,9 @@
       <c r="L27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>| ![eve](/doc/img/event.jpg)                | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-events-guides.md)                                |</v>
-      </c>
       <c r="B28" s="10"/>
       <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -1144,10 +1015,6 @@
       <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>| ![for](/doc/img/website_forum.jpg)        | [Foros](/es-mx/o13/ee/for/es-mx-o13-ee-for-forum-guides.md)                                   |</v>
-      </c>
       <c r="B29" s="10"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1162,12 +1029,11 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>| ![inv](/doc/img/stock.jpg)                | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-inventory-guides.md)                         |</v>
-      </c>
-      <c r="B30" s="10"/>
+        <f>LEFT(A11,210)</f>
+        <v>| [![o13](/doc/img/odoo13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                        | [System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                            |</v>
+      </c>
+      <c r="B30" s="3"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1179,12 +1045,11 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-mrp-guides.md)                                       |</v>
-      </c>
-      <c r="B31" s="10"/>
+        <f t="shared" ref="A31:A46" si="0">LEFT(A12,210)</f>
+        <v>| [![acc](/doc/img/account_accountant.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)             | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)                         |</v>
+      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1197,11 +1062,10 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-odoo-sh-guides.md)                               |</v>
-      </c>
-      <c r="B32" s="10"/>
+        <v>| [![apv](/doc/img/approval.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                        | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                           |</v>
+      </c>
+      <c r="B32" s="3"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -1214,11 +1078,10 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Productividad](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-timesheet-guides.md)                       |</v>
-      </c>
-      <c r="B33" s="10"/>
+        <v>| [![ctc](/doc/img/contacts.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                         | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                             |</v>
+      </c>
+      <c r="B33" s="3"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1231,11 +1094,10 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![pos](/doc/img/point_of_sale.jpg)        | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-point-of-sale-guides.md)                  |</v>
-      </c>
-      <c r="B34" s="10"/>
+        <v>| [![eco](/doc/img/website_sale.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                    | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                           |</v>
+      </c>
+      <c r="B34" s="3"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1248,11 +1110,10 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>| ![fsv](/doc/img/field_service.jpg)        | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-field-service-guides.md)                        |</v>
-      </c>
-      <c r="B35" s="10"/>
+        <v>| [![esg](/doc/img/website_sign.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                   | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                         |</v>
+      </c>
+      <c r="B35" s="3"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -1263,13 +1124,12 @@
       <c r="L35" s="2"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="str">
-        <f t="shared" ref="A36:A50" si="1">MID(A2,141,141)</f>
-        <v>| ![apv](/doc/img/approval.jpg)             | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-approvals-guides.md)                      |</v>
-      </c>
-      <c r="B36" s="10"/>
+      <c r="A36" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| [![fsv](/doc/img/field_service.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)               | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)                   |</v>
+      </c>
+      <c r="B36" s="3"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -1280,13 +1140,12 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| ![mka](/doc/img/marketing_automation.jpg) | [Campañas](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-marketing-automation-guides.md)                 |</v>
-      </c>
-      <c r="B37" s="10"/>
+      <c r="A37" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| [![hdk](/doc/img/helpdesk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                         | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                             |</v>
+      </c>
+      <c r="B37" s="3"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1297,13 +1156,12 @@
       <c r="L37" s="2"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| ![crm](/doc/img/crm.jpg)                  | [Clientes](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-crm-guides.md)                                  |</v>
-      </c>
-      <c r="B38" s="10"/>
+      <c r="A38" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| [![ivc](/doc/img/account_invoicing.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)               | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)                           |</v>
+      </c>
+      <c r="B38" s="3"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -1314,11 +1172,11 @@
       <c r="L38" s="2"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| ![skm](/doc/img/hr_skills.jpg)            | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-skills-guides.md)                           |</v>
-      </c>
-      <c r="B39" s="10"/>
+      <c r="A39" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| [![mnt](/doc/img/maintenance.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                   | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                       |</v>
+      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1331,11 +1189,11 @@
       <c r="L39" s="2"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| ![ctc](/doc/img/contacts.jpg)             | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-contacts-guides.md)                            |</v>
-      </c>
-      <c r="B40" s="10"/>
+      <c r="A40" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| [![mrp](/doc/img/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                   | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                       |</v>
+      </c>
+      <c r="B40" s="3"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1348,11 +1206,11 @@
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| ![esg](/doc/img/website_sign.jpg)         | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-esignature-guides.md)                             |</v>
-      </c>
-      <c r="B41" s="10"/>
+      <c r="A41" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| [![pyr](/doc/img/hr_payroll.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                        | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                               |</v>
+      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1365,11 +1223,11 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| ![equ](/doc/img/equipment.jpg)            | [Equipo](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-equipment-guides.md)                              |</v>
-      </c>
-      <c r="B42" s="10"/>
+      <c r="A42" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| [![psc](/doc/img/hr_presence.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                      | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                             |</v>
+      </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1382,11 +1240,11 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| ![ivc](/doc/img/account_invoicing.jpg)    | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-invoicing-guides.md)                         |</v>
-      </c>
-      <c r="B43" s="10"/>
+      <c r="A43" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| [![rcr](/doc/img/hr_recruitment.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                       |</v>
+      </c>
+      <c r="B43" s="3"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1399,11 +1257,11 @@
       <c r="L43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| ![exp](/doc/img/hr_expense.jpg)           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-expenses-guides.md)                               |</v>
-      </c>
-      <c r="B44" s="10"/>
+      <c r="A44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| [![skm](/doc/img/hr_skills.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                          | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                                 |</v>
+      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1416,11 +1274,11 @@
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| ![mnt](/doc/img/maintenance.jpg)          | [Manenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-maintenance-guides.md)                      |</v>
-      </c>
-      <c r="B45" s="10"/>
+      <c r="A45" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| [![svy](/doc/img/survey.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                             | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                                |</v>
+      </c>
+      <c r="B45" s="3"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -1433,11 +1291,11 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| ![pyr](/doc/img/hr_payroll.jpg)           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-payroll-guides.md)                                |</v>
-      </c>
-      <c r="B46" s="10"/>
+      <c r="A46" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>| [![web](/doc/img/website.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                  | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                     |</v>
+      </c>
+      <c r="B46" s="3"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1451,10 +1309,10 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| ![tof](/doc/img/timeoff.jpg)              | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-timeoff-guides.md)                              |</v>
-      </c>
-      <c r="B47" s="10"/>
+        <f>MID(A12,210,210)</f>
+        <v>| [![apt](/doc/img/appointments.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                 | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                     |</v>
+      </c>
+      <c r="B47" s="5"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1468,10 +1326,10 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>| ![prj](/doc/img/project.jpg)              | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-projects-guides.md)                            |</v>
-      </c>
-      <c r="B48" s="10"/>
+        <f t="shared" ref="A48:A62" si="1">MID(A13,210,210)</f>
+        <v>| [![blg](/doc/img/website_blog.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                         | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                                     |</v>
+      </c>
+      <c r="B48" s="5"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1486,9 +1344,9 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| ![rcr](/doc/img/hr_recruitment.jpg)       | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-recruitment-guides.md)                     |</v>
-      </c>
-      <c r="B49" s="10"/>
+        <v>| [![crm](/doc/img/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                   | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                       |</v>
+      </c>
+      <c r="B49" s="5"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -1503,9 +1361,9 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>| ![web](/doc/img/website.jpg)              | [Sitios Web](/es-mx/o13/ee/web/es-mx-o13-ee-web-websites-builder-guides.md)                   |</v>
-      </c>
-      <c r="B50" s="10"/>
+        <v>| [![emp](/doc/img/hr_employees.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                    | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                           |</v>
+      </c>
+      <c r="B50" s="5"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1518,11 +1376,11 @@
       <c r="L50" s="2"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="str">
-        <f t="shared" ref="A51:A65" si="2">MID(A2,281,141)</f>
-        <v>| ![blg](/doc/img/website_blog.jpg)         | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-blog-guides.md)                                     |</v>
-      </c>
-      <c r="B51" s="10"/>
+      <c r="A51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [![eve](/doc/img/event.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                              | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                                 |</v>
+      </c>
+      <c r="B51" s="5"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -1535,11 +1393,11 @@
       <c r="L51" s="2"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![lvc](/doc/img/im_livechat.jpg)          | [Chat en vivo](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-live_chat-guides.md)                        |</v>
-      </c>
-      <c r="B52" s="10"/>
+      <c r="A52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [![flt](/doc/img/fleet.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                               | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                                   |</v>
+      </c>
+      <c r="B52" s="5"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1552,11 +1410,11 @@
       <c r="L52" s="2"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![dsc](/doc/img/discuss.jpg)              | [Comentarios](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-discuss-guides.md)                           |</v>
-      </c>
-      <c r="B53" s="10"/>
+      <c r="A53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [![iot](/doc/img/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)                    | [Internet of Things (IOT)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)   |</v>
+      </c>
+      <c r="B53" s="5"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
@@ -1569,11 +1427,11 @@
       <c r="L53" s="2"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![pch](/doc/img/purchase.jpg)             | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-purchasing-guides.md)                            |</v>
-      </c>
-      <c r="B54" s="10"/>
+      <c r="A54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [![lvc](/doc/img/im_livechat.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                     | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                           |</v>
+      </c>
+      <c r="B54" s="5"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -1586,11 +1444,11 @@
       <c r="L54" s="2"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![msm](/doc/img/mass_mailing.jpg)         | [Correo masivo](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-mass-marketing-guides.md)                  |</v>
-      </c>
-      <c r="B55" s="10"/>
+      <c r="A55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [![mka](/doc/img/marketing_automation.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md)           |</v>
+      </c>
+      <c r="B55" s="5"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -1603,11 +1461,11 @@
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![emp](/doc/img/hr_employees.jpg)         | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-employees-guides.md)                           |</v>
-      </c>
-      <c r="B56" s="10"/>
+      <c r="A56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [![osh](/doc/img/odoosh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                               |</v>
+      </c>
+      <c r="B56" s="5"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -1620,11 +1478,11 @@
       <c r="L56" s="2"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![apr](/doc/img/hr_appraisal.jpg)         | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-appraisal-guides.md)                        |</v>
-      </c>
-      <c r="B57" s="10"/>
+      <c r="A57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [![plm](/doc/img/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                   | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                       |</v>
+      </c>
+      <c r="B57" s="5"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -1637,11 +1495,11 @@
       <c r="L57" s="2"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![flt](/doc/img/fleet.jpg)                | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-fleet-guides.md)                               |</v>
-      </c>
-      <c r="B58" s="10"/>
+      <c r="A58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [![prj](/doc/img/project.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                          | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                             |</v>
+      </c>
+      <c r="B58" s="5"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -1654,11 +1512,11 @@
       <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![iot](/doc/img/iot.jpg)                  | [Internet de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-internet_of_things-guides.md)      |</v>
-      </c>
-      <c r="B59" s="10"/>
+      <c r="A59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [![rnt](/doc/img/rentals.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                            | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                                 |</v>
+      </c>
+      <c r="B59" s="5"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -1671,11 +1529,11 @@
       <c r="L59" s="2"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![hdk](/doc/img/helpdesk.jpg)             | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-helpdesk-guides.md)                        |</v>
-      </c>
-      <c r="B60" s="10"/>
+      <c r="A60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [![sli](/doc/img/website_slides.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                     | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                                 |</v>
+      </c>
+      <c r="B60" s="5"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -1688,11 +1546,11 @@
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![stu](/doc/img/web_studio.jpg)           | [Odoo Estudio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-studio-guides.md)                           |</v>
-      </c>
-      <c r="B61" s="10"/>
+      <c r="A61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>| [![tof](/doc/img/timeoff.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                              |</v>
+      </c>
+      <c r="B61" s="5"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -1705,11 +1563,11 @@
       <c r="L61" s="2"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![plm](/doc/img/plm.jpg)                  | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-plm-guides.md)                                       |</v>
-      </c>
-      <c r="B62" s="10"/>
+      <c r="A62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>|                                                                                                                |                                                                                               |</v>
+      </c>
+      <c r="B62" s="5"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -1723,10 +1581,10 @@
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![sli](/doc/img/website_slides.jpg)       | [Publicaciones](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-slides-guides.md)                          |</v>
-      </c>
-      <c r="B63" s="10"/>
+        <f>MID(A12,419,210)</f>
+        <v>| [![apr](/doc/img/hr_appraisal.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                    | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                           |</v>
+      </c>
+      <c r="B63" s="4"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -1740,10 +1598,10 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>| ![rnt](/doc/img/rentals.jpg)              | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-rental-guides.md)                                 |</v>
-      </c>
-      <c r="B64" s="10"/>
+        <f t="shared" ref="A64:A78" si="2">MID(A13,419,210)</f>
+        <v>| [![cal](/doc/img/calendar.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                         | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                             |</v>
+      </c>
+      <c r="B64" s="4"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -1758,9 +1616,9 @@
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>| ![sub](/doc/img/sale_subscription.jpg)    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-subscriptions-guides.md)                   |</v>
-      </c>
-      <c r="B65" s="10"/>
+        <v>| [![dsc](/doc/img/discuss.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                           | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                               |</v>
+      </c>
+      <c r="B65" s="4"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -1773,11 +1631,11 @@
       <c r="L65" s="2"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="str">
-        <f>LEFT(A17,141)</f>
-        <v>| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  |</v>
-      </c>
-      <c r="B66" s="10"/>
+      <c r="A66" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![equ](/doc/img/equipment.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                       | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                           |</v>
+      </c>
+      <c r="B66" s="4"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -1790,7 +1648,11 @@
       <c r="L66" s="2"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="10"/>
+      <c r="A67" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![exp](/doc/img/hr_expense.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                       | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                             |</v>
+      </c>
+      <c r="B67" s="4"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -1803,7 +1665,11 @@
       <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
+      <c r="A68" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![for](/doc/img/website_forum.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                       | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                                   |</v>
+      </c>
+      <c r="B68" s="4"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -1816,301 +1682,216 @@
       <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="10"/>
+      <c r="A69" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![inv](/doc/img/stock.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           |</v>
+      </c>
+      <c r="B69" s="4"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="6" t="str">
-        <f>" " &amp; A71&amp;" | | | |"</f>
-        <v xml:space="preserve"> | ![o13](/doc/img/odoo13.jpg)               | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           | | | | |</v>
-      </c>
+      <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>8</v>
-      </c>
+      <c r="A70" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![lun](/doc/img/lunch.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                               | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                                   |</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="10">
-        <f>SEARCH("]",A71,40)</f>
-        <v>55</v>
-      </c>
-      <c r="C71" s="2" t="str">
-        <f>IF(MID(A71,5,3)="o13","",MID(A71,46,B71-45))</f>
-        <v/>
-      </c>
+      <c r="A71" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![msm](/doc/img/mass_mailing.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)               | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)                      |</v>
+      </c>
+      <c r="B71" s="4"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="7" t="s">
-        <v>0</v>
-      </c>
+      <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="2"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B72" s="10">
-        <f>SEARCH("]",A72,40)</f>
-        <v>59</v>
-      </c>
-      <c r="C72" s="2" t="str">
-        <f>IF(MID(A72,5,3)="o13","",MID(A72,46,B72-45))</f>
-        <v xml:space="preserve"> [Asistencias]</v>
-      </c>
+      <c r="A72" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![stu](/doc/img/web_studio.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                         | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                            |</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="6" t="str">
-        <f>IF(ISERROR(B73),"|","") &amp; IF(ROW()/3=INT(ROW()/3),A72&amp;MID(A73,2,LEN(A73)-2)&amp;A74,"")</f>
-        <v>| ![psc](/doc/img/hr_presence.jpg)          | [Asistencias](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-presence-guides.md)                          | ![apv](/doc/img/approval.jpg)             | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-approvals-guides.md)                      | ![blg](/doc/img/website_blog.jpg)         | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-blog-guides.md)                                     |</v>
-      </c>
+      <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B73" s="10">
-        <f>SEARCH("]",A73,40)</f>
-        <v>62</v>
-      </c>
-      <c r="C73" s="2" t="str">
-        <f>IF(MID(A73,5,3)="o13","",MID(A73,46,B73-45))</f>
-        <v xml:space="preserve"> [Autorizaciones]</v>
-      </c>
+      <c r="A73" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![pos](/doc/img/point_of_sale.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)               | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)                   |</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="6" t="str">
-        <f t="shared" ref="H73:H117" si="3">IF(ISERROR(B74),"|","") &amp; IF(ROW()/3=INT(ROW()/3),A73&amp;MID(A74,2,LEN(A74)-2)&amp;A75,"")</f>
-        <v/>
-      </c>
+      <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B74" s="10">
-        <f>SEARCH("]",A74,40)</f>
-        <v>52</v>
-      </c>
-      <c r="C74" s="2" t="str">
-        <f>IF(MID(A74,5,3)="o13","",MID(A74,46,B74-45))</f>
-        <v xml:space="preserve"> [Blog]</v>
-      </c>
+      <c r="A74" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![pch](/doc/img/purchase.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                       | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                         |</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" s="10">
-        <f>SEARCH("]",A75,40)</f>
-        <v>58</v>
-      </c>
-      <c r="C75" s="2" t="str">
-        <f>IF(MID(A75,5,3)="o13","",MID(A75,46,B75-45))</f>
-        <v xml:space="preserve"> [Calendario]</v>
-      </c>
+      <c r="A75" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![sls](/doc/img/sale.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                   |</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="1"/>
+      <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![cal](/doc/img/calendar.jpg)             | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-calendar-guides.md)                           | ![mka](/doc/img/marketing_automation.jpg) | [Campañas](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-marketing-automation-guides.md)                 | ![lvc](/doc/img/im_livechat.jpg)          | [Chat en vivo](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-live_chat-guides.md)                        |</v>
-      </c>
+      <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
       <c r="L75" s="2"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B76" s="10">
-        <f>SEARCH("]",A76,40)</f>
-        <v>56</v>
-      </c>
-      <c r="C76" s="2" t="str">
-        <f>IF(MID(A76,5,3)="o13","",MID(A76,46,B76-45))</f>
-        <v xml:space="preserve"> [Campañas]</v>
-      </c>
+      <c r="A76" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![sub](/doc/img/sale_subscription.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)           | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)                   |</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" s="10">
-        <f>SEARCH("]",A77,40)</f>
-        <v>60</v>
-      </c>
-      <c r="C77" s="2" t="str">
-        <f>IF(MID(A77,5,3)="o13","",MID(A77,46,B77-45))</f>
-        <v xml:space="preserve"> [Chat en vivo]</v>
-      </c>
+      <c r="A77" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![tsh](/doc/img/hr_timesheet.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                    | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                           |</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" s="10">
-        <f>SEARCH("]",A78,40)</f>
-        <v>53</v>
-      </c>
-      <c r="C78" s="2" t="str">
-        <f>IF(MID(A78,5,3)="o13","",MID(A78,46,B78-45))</f>
-        <v xml:space="preserve"> [Citas]</v>
-      </c>
+      <c r="A78" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>| [![3rd](/doc/img/third_parties.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-third-parties-guides.md)               | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-third-parties-guides.md)                     |</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="2"/>
       <c r="G78" s="2"/>
-      <c r="H78" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![apt](/doc/img/appointments.jpg)         | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-appointments-guides.md)                            | ![crm](/doc/img/crm.jpg)                  | [Clientes](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-crm-guides.md)                                  | ![dsc](/doc/img/discuss.jpg)              | [Comentarios](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-discuss-guides.md)                           |</v>
-      </c>
+      <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B79" s="10">
-        <f>SEARCH("]",A79,40)</f>
-        <v>56</v>
-      </c>
-      <c r="C79" s="2" t="str">
-        <f>IF(MID(A79,5,3)="o13","",MID(A79,46,B79-45))</f>
-        <v xml:space="preserve"> [Clientes]</v>
-      </c>
+      <c r="A79" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="13"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="1"/>
+      <c r="F79" s="2"/>
       <c r="G79" s="2"/>
-      <c r="H79" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" s="10">
-        <f>SEARCH("]",A80,40)</f>
-        <v>59</v>
-      </c>
-      <c r="C80" s="2" t="str">
-        <f>IF(MID(A80,5,3)="o13","",MID(A80,46,B80-45))</f>
-        <v xml:space="preserve"> [Comentarios]</v>
-      </c>
+      <c r="B80" s="10"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B81" s="10">
-        <f>SEARCH("]",A81,40)</f>
-        <v>55</v>
-      </c>
-      <c r="C81" s="2" t="str">
-        <f>IF(MID(A81,5,3)="o13","",MID(A81,46,B81-45))</f>
-        <v xml:space="preserve"> [Comidas]</v>
-      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![lun](/doc/img/lunch.jpg)                | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-lunch-guides.md)                                 | ![skm](/doc/img/hr_skills.jpg)            | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-skills-guides.md)                           | ![pch](/doc/img/purchase.jpg)             | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-purchasing-guides.md)                            |</v>
+        <f>" " &amp; A83&amp;" | | | |"</f>
+        <v xml:space="preserve"> | [![o13](/doc/img/odoo13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                        | [System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                            | | | | |</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -2118,23 +1899,21 @@
       <c r="L81" s="2"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B82" s="10">
-        <f>SEARCH("]",A82,40)</f>
-        <v>60</v>
-      </c>
-      <c r="C82" s="2" t="str">
-        <f>IF(MID(A82,5,3)="o13","",MID(A82,46,B82-45))</f>
-        <v xml:space="preserve"> [Competencias]</v>
-      </c>
+      <c r="A82" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="1"/>
+      <c r="F82" s="2"/>
       <c r="G82" s="2"/>
-      <c r="H82" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="H82" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -2143,22 +1922,22 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B83" s="10">
-        <f>SEARCH("]",A83,40)</f>
-        <v>55</v>
+        <f>SEARCH("]",A83,80)</f>
+        <v>123</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f>IF(MID(A83,5,3)="o13","",MID(A83,46,B83-45))</f>
-        <v xml:space="preserve"> [Compras]</v>
-      </c>
+        <f t="shared" ref="C83:C130" si="3">IF(MID(A83,5,3)="o13","",MID(A83,46,B83-45))</f>
+        <v>/o13/en-uk-o13-ee-o13-system-wide-guides.md)                        | [System]</v>
+      </c>
+      <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="1"/>
+      <c r="F83" s="2"/>
       <c r="G83" s="2"/>
-      <c r="H83" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="H83" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -2167,22 +1946,22 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B84" s="10">
-        <f>SEARCH("]",A84,40)</f>
-        <v>60</v>
+        <f t="shared" ref="B84:B131" si="4">SEARCH("]",A84,80)</f>
+        <v>127</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f>IF(MID(A84,5,3)="o13","",MID(A84,46,B84-45))</f>
-        <v xml:space="preserve"> [Contabilidad]</v>
+        <f t="shared" si="3"/>
+        <v>en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)             | [Accounting]</v>
       </c>
       <c r="E84" s="2"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![acc](/doc/img/account_accountant.jpg)   | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-accounting-guides.md)                       | ![ctc](/doc/img/contacts.jpg)             | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-contacts-guides.md)                            | ![msm](/doc/img/mass_mailing.jpg)         | [Correo masivo](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-mass-marketing-guides.md)                  |</v>
+        <f>IF(ISERROR(B85),"|","") &amp; IF(ROW()/3=INT(ROW()/3),A84&amp;MID(A85,2,LEN(A85)-2)&amp;A86,"")</f>
+        <v>| [![acc](/doc/img/account_accountant.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)             | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)                         | [![apv](/doc/img/approval.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                        | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                           | [![ctc](/doc/img/contacts.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                         | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                             |</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -2191,21 +1970,21 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="B85" s="10">
-        <f>SEARCH("]",A85,40)</f>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>126</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f>IF(MID(A85,5,3)="o13","",MID(A85,46,B85-45))</f>
-        <v xml:space="preserve"> [Contactos]</v>
+        <f t="shared" si="3"/>
+        <v>ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                        | [Approvals]</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
       <c r="G85" s="2"/>
       <c r="H85" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H85:H129" si="5">IF(ISERROR(B86),"|","") &amp; IF(ROW()/3=INT(ROW()/3),A85&amp;MID(A86,2,LEN(A86)-2)&amp;A87,"")</f>
         <v/>
       </c>
       <c r="I85" s="2"/>
@@ -2215,21 +1994,21 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="B86" s="10">
-        <f>SEARCH("]",A86,40)</f>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f>IF(MID(A86,5,3)="o13","",MID(A86,46,B86-45))</f>
-        <v xml:space="preserve"> [Correo masivo]</v>
+        <f t="shared" si="3"/>
+        <v>ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                         | [Contacts]</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
       <c r="G86" s="2"/>
       <c r="H86" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I86" s="2"/>
@@ -2239,22 +2018,22 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B87" s="10">
-        <f>SEARCH("]",A87,40)</f>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>126</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f>IF(MID(A87,5,3)="o13","",MID(A87,46,B87-45))</f>
-        <v xml:space="preserve"> [eComercio]</v>
+        <f t="shared" si="3"/>
+        <v>o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                    | [eCommerce]</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
       <c r="G87" s="2"/>
       <c r="H87" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![eco](/doc/img/website_sale.jpg)         | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-ecommerce-guides.md)                           | ![esg](/doc/img/website_sign.jpg)         | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-esignature-guides.md)                             | ![emp](/doc/img/hr_employees.jpg)         | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-employees-guides.md)                           |</v>
+        <f t="shared" si="5"/>
+        <v>| [![eco](/doc/img/website_sale.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                    | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                           | [![esg](/doc/img/website_sign.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                   | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                         | [![fsv](/doc/img/field_service.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)               | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)                   |</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -2263,21 +2042,21 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B88" s="10">
-        <f>SEARCH("]",A88,40)</f>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>127</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f>IF(MID(A88,5,3)="o13","",MID(A88,46,B88-45))</f>
-        <v xml:space="preserve"> [eFirma]</v>
+        <f t="shared" si="3"/>
+        <v>o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                   | [eSignature]</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
       <c r="G88" s="2"/>
       <c r="H88" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I88" s="2"/>
@@ -2287,21 +2066,21 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B89" s="10">
-        <f>SEARCH("]",A89,40)</f>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>130</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f>IF(MID(A89,5,3)="o13","",MID(A89,46,B89-45))</f>
-        <v xml:space="preserve"> [Empleados]</v>
+        <f t="shared" si="3"/>
+        <v>/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)               | [Field Service]</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
       <c r="G89" s="2"/>
       <c r="H89" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I89" s="2"/>
@@ -2311,22 +2090,22 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B90" s="10">
-        <f>SEARCH("]",A90,40)</f>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f>IF(MID(A90,5,3)="o13","",MID(A90,46,B90-45))</f>
-        <v xml:space="preserve"> [Encuestas]</v>
+        <f t="shared" si="3"/>
+        <v>ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                         | [Helpdesk]</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
       <c r="G90" s="2"/>
       <c r="H90" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![svy](/doc/img/survey.jpg)               | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-survey-guides.md)                              | ![equ](/doc/img/equipment.jpg)            | [Equipo](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-equipment-guides.md)                              | ![apr](/doc/img/hr_appraisal.jpg)         | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-appraisal-guides.md)                        |</v>
+        <f t="shared" si="5"/>
+        <v>| [![hdk](/doc/img/helpdesk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                         | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                             | [![ivc](/doc/img/account_invoicing.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)               | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)                           | [![mnt](/doc/img/maintenance.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                   | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                       |</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -2335,21 +2114,21 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B91" s="10">
-        <f>SEARCH("]",A91,40)</f>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f>IF(MID(A91,5,3)="o13","",MID(A91,46,B91-45))</f>
-        <v xml:space="preserve"> [Equipo]</v>
+        <f t="shared" si="3"/>
+        <v>n-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)               | [Invoicing]</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="1"/>
       <c r="G91" s="2"/>
       <c r="H91" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I91" s="2"/>
@@ -2359,21 +2138,21 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B92" s="10">
-        <f>SEARCH("]",A92,40)</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="str">
-        <f>IF(MID(A92,5,3)="o13","",MID(A92,46,B92-45))</f>
-        <v xml:space="preserve"> [Evaluaciones]</v>
+        <f t="shared" si="3"/>
+        <v>13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                   | [Maintenance]</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="1"/>
       <c r="G92" s="2"/>
       <c r="H92" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I92" s="2"/>
@@ -2386,19 +2165,19 @@
         <v>38</v>
       </c>
       <c r="B93" s="10">
-        <f>SEARCH("]",A93,40)</f>
-        <v>55</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f>IF(MID(A93,5,3)="o13","",MID(A93,46,B93-45))</f>
-        <v xml:space="preserve"> [Eventos]</v>
+        <f t="shared" si="3"/>
+        <v>p/en-uk-o13-ee-mrp-mrp-guides.md)                                   | [MRP]</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="1"/>
       <c r="G93" s="2"/>
       <c r="H93" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![eve](/doc/img/event.jpg)                | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-events-guides.md)                                | ![ivc](/doc/img/account_invoicing.jpg)    | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-invoicing-guides.md)                         | ![flt](/doc/img/fleet.jpg)                | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-fleet-guides.md)                               |</v>
+        <f t="shared" si="5"/>
+        <v>| [![mrp](/doc/img/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                   | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                       | [![pyr](/doc/img/hr_payroll.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                        | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                               | [![psc](/doc/img/hr_presence.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                      | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                             |</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -2407,21 +2186,21 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B94" s="10">
-        <f>SEARCH("]",A94,40)</f>
-        <v>59</v>
+        <f t="shared" si="4"/>
+        <v>124</v>
       </c>
       <c r="C94" s="2" t="str">
-        <f>IF(MID(A94,5,3)="o13","",MID(A94,46,B94-45))</f>
-        <v xml:space="preserve"> [Facturación]</v>
+        <f t="shared" si="3"/>
+        <v>3/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                        | [Payroll]</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="1"/>
       <c r="G94" s="2"/>
       <c r="H94" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I94" s="2"/>
@@ -2431,21 +2210,21 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="B95" s="10">
-        <f>SEARCH("]",A95,40)</f>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="C95" s="2" t="str">
-        <f>IF(MID(A95,5,3)="o13","",MID(A95,46,B95-45))</f>
-        <v xml:space="preserve"> [Flotillas]</v>
+        <f t="shared" si="3"/>
+        <v>13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                      | [Presence]</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="1"/>
       <c r="G95" s="2"/>
       <c r="H95" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I95" s="2"/>
@@ -2455,22 +2234,22 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B96" s="10">
-        <f>SEARCH("]",A96,40)</f>
-        <v>53</v>
+        <f t="shared" si="4"/>
+        <v>128</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f>IF(MID(A96,5,3)="o13","",MID(A96,46,B96-45))</f>
-        <v xml:space="preserve"> [Foros]</v>
+        <f t="shared" si="3"/>
+        <v>k/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                | [Recruitment]</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="1"/>
       <c r="G96" s="2"/>
       <c r="H96" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![for](/doc/img/website_forum.jpg)        | [Foros](/es-mx/o13/ee/for/es-mx-o13-ee-for-forum-guides.md)                                   | ![exp](/doc/img/hr_expense.jpg)           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-expenses-guides.md)                               | ![iot](/doc/img/iot.jpg)                  | [Internet de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-internet_of_things-guides.md)      |</v>
+        <f t="shared" si="5"/>
+        <v>| [![rcr](/doc/img/hr_recruitment.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                       | [![skm](/doc/img/hr_skills.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                          | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                                 | [![svy](/doc/img/survey.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                             | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                                |</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -2479,21 +2258,21 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B97" s="10">
-        <f>SEARCH("]",A97,40)</f>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>123</v>
       </c>
       <c r="C97" s="2" t="str">
-        <f>IF(MID(A97,5,3)="o13","",MID(A97,46,B97-45))</f>
-        <v xml:space="preserve"> [Gastos]</v>
+        <f t="shared" si="3"/>
+        <v>/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                          | [Skills]</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="1"/>
       <c r="G97" s="2"/>
       <c r="H97" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I97" s="2"/>
@@ -2503,21 +2282,21 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B98" s="10">
-        <f>SEARCH("]",A98,40)</f>
-        <v>69</v>
+        <f t="shared" si="4"/>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f>IF(MID(A98,5,3)="o13","",MID(A98,46,B98-45))</f>
-        <v xml:space="preserve"> [Internet de las Cosas]</v>
+        <f t="shared" si="3"/>
+        <v>/svy/en-uk-o13-ee-svy-survey-guides.md)                             | [Surveys]</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="1"/>
       <c r="G98" s="2"/>
       <c r="H98" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I98" s="2"/>
@@ -2527,22 +2306,22 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B99" s="10">
-        <f>SEARCH("]",A99,40)</f>
-        <v>59</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f>IF(MID(A99,5,3)="o13","",MID(A99,46,B99-45))</f>
-        <v xml:space="preserve"> [Inventarios]</v>
+        <f t="shared" si="3"/>
+        <v>e/web/en-uk-o13-ee-web-websites-builder-guides.md)                  | [Websites]</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="1"/>
       <c r="G99" s="2"/>
       <c r="H99" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![inv](/doc/img/stock.jpg)                | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-inventory-guides.md)                         | ![mnt](/doc/img/maintenance.jpg)          | [Manenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-maintenance-guides.md)                      | ![hdk](/doc/img/helpdesk.jpg)             | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-helpdesk-guides.md)                        |</v>
+        <f t="shared" si="5"/>
+        <v>| [![web](/doc/img/website.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                  | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                     | [![apt](/doc/img/appointments.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                 | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                     | [![blg](/doc/img/website_blog.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                         | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                                     |</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -2551,21 +2330,21 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B100" s="10">
-        <f>SEARCH("]",A100,40)</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>129</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f>IF(MID(A100,5,3)="o13","",MID(A100,46,B100-45))</f>
-        <v xml:space="preserve"> [Manenimiento]</v>
+        <f t="shared" si="3"/>
+        <v>o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                 | [Appointments]</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="1"/>
       <c r="G100" s="2"/>
       <c r="H100" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I100" s="2"/>
@@ -2575,21 +2354,21 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B101" s="10">
-        <f>SEARCH("]",A101,40)</f>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>121</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f>IF(MID(A101,5,3)="o13","",MID(A101,46,B101-45))</f>
-        <v xml:space="preserve"> [Mesa de Ayuda]</v>
+        <f t="shared" si="3"/>
+        <v>o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                         | [Blog]</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="1"/>
       <c r="G101" s="2"/>
       <c r="H101" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I101" s="2"/>
@@ -2599,22 +2378,22 @@
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B102" s="10">
-        <f>SEARCH("]",A102,40)</f>
-        <v>51</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f>IF(MID(A102,5,3)="o13","",MID(A102,46,B102-45))</f>
-        <v xml:space="preserve"> [MRP]</v>
+        <f t="shared" si="3"/>
+        <v>m/en-uk-o13-ee-crm-crm-guides.md)                                   | [CRM]</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="1"/>
       <c r="G102" s="2"/>
       <c r="H102" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-mrp-guides.md)                                       | ![pyr](/doc/img/hr_payroll.jpg)           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-payroll-guides.md)                                | ![stu](/doc/img/web_studio.jpg)           | [Odoo Estudio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-studio-guides.md)                           |</v>
+        <f t="shared" si="5"/>
+        <v>| [![crm](/doc/img/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                   | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                       | [![emp](/doc/img/hr_employees.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                    | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                           | [![eve](/doc/img/event.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                              | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                                 |</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -2623,21 +2402,21 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B103" s="10">
-        <f>SEARCH("]",A103,40)</f>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>126</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f>IF(MID(A103,5,3)="o13","",MID(A103,46,B103-45))</f>
-        <v xml:space="preserve"> [Nómina]</v>
+        <f t="shared" si="3"/>
+        <v>o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                    | [Employees]</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="1"/>
       <c r="G103" s="2"/>
       <c r="H103" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I103" s="2"/>
@@ -2647,21 +2426,21 @@
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="B104" s="10">
-        <f>SEARCH("]",A104,40)</f>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>123</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f>IF(MID(A104,5,3)="o13","",MID(A104,46,B104-45))</f>
-        <v xml:space="preserve"> [Odoo Estudio]</v>
+        <f t="shared" si="3"/>
+        <v>eve/en-uk-o13-ee-eve-events-guides.md)                              | [Events]</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="1"/>
       <c r="G104" s="2"/>
       <c r="H104" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I104" s="2"/>
@@ -2671,22 +2450,22 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B105" s="10">
-        <f>SEARCH("]",A105,40)</f>
-        <v>55</v>
+        <f t="shared" si="4"/>
+        <v>122</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f>IF(MID(A105,5,3)="o13","",MID(A105,46,B105-45))</f>
-        <v xml:space="preserve"> [Odoo SH]</v>
+        <f t="shared" si="3"/>
+        <v>flt/en-uk-o13-ee-flt-fleet-guides.md)                               | [Fleet]</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="1"/>
       <c r="G105" s="2"/>
       <c r="H105" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-odoo-sh-guides.md)                               | ![tof](/doc/img/timeoff.jpg)              | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-timeoff-guides.md)                              | ![plm](/doc/img/plm.jpg)                  | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-plm-guides.md)                                       |</v>
+        <f t="shared" si="5"/>
+        <v>| [![flt](/doc/img/fleet.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                               | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                                   | [![iot](/doc/img/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)                    | [Internet of Things (IOT)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)   | [![lvc](/doc/img/im_livechat.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                     | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                           |</v>
       </c>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
@@ -2695,21 +2474,21 @@
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B106" s="10">
-        <f>SEARCH("]",A106,40)</f>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>141</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f>IF(MID(A106,5,3)="o13","",MID(A106,46,B106-45))</f>
-        <v xml:space="preserve"> [Permisos]</v>
+        <f t="shared" si="3"/>
+        <v>t/en-uk-o13-ee-iot-internet_of_things-guides.md)                    | [Internet of Things (IOT)]</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="1"/>
       <c r="G106" s="2"/>
       <c r="H106" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I106" s="2"/>
@@ -2719,21 +2498,21 @@
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B107" s="10">
-        <f>SEARCH("]",A107,40)</f>
-        <v>51</v>
+        <f t="shared" si="4"/>
+        <v>126</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f>IF(MID(A107,5,3)="o13","",MID(A107,46,B107-45))</f>
-        <v xml:space="preserve"> [PLM]</v>
+        <f t="shared" si="3"/>
+        <v>13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                     | [Live Chat]</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="1"/>
       <c r="G107" s="2"/>
       <c r="H107" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I107" s="2"/>
@@ -2743,22 +2522,22 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B108" s="10">
-        <f>SEARCH("]",A108,40)</f>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>131</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f>IF(MID(A108,5,3)="o13","",MID(A108,46,B108-45))</f>
-        <v xml:space="preserve"> [Productividad]</v>
+        <f t="shared" si="3"/>
+        <v>(/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md) | [Marketing Auto]</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="1"/>
       <c r="G108" s="2"/>
       <c r="H108" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Productividad](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-timesheet-guides.md)                       | ![prj](/doc/img/project.jpg)              | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-projects-guides.md)                            | ![sli](/doc/img/website_slides.jpg)       | [Publicaciones](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-slides-guides.md)                          |</v>
+        <f t="shared" si="5"/>
+        <v>| [![mka](/doc/img/marketing_automation.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md)           | [![osh](/doc/img/odoosh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                               | [![plm](/doc/img/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                   | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                       |</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -2767,21 +2546,21 @@
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B109" s="10">
-        <f>SEARCH("]",A109,40)</f>
-        <v>57</v>
+        <f t="shared" si="4"/>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f>IF(MID(A109,5,3)="o13","",MID(A109,46,B109-45))</f>
-        <v xml:space="preserve"> [Proyectos]</v>
+        <f t="shared" si="3"/>
+        <v>/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                            | [Odoo SH]</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="1"/>
       <c r="G109" s="2"/>
       <c r="H109" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I109" s="2"/>
@@ -2791,21 +2570,21 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="B110" s="10">
-        <f>SEARCH("]",A110,40)</f>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>120</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f>IF(MID(A110,5,3)="o13","",MID(A110,46,B110-45))</f>
-        <v xml:space="preserve"> [Publicaciones]</v>
+        <f t="shared" si="3"/>
+        <v>m/en-uk-o13-ee-plm-plm-guides.md)                                   | [PLM]</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="1"/>
       <c r="G110" s="2"/>
       <c r="H110" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I110" s="2"/>
@@ -2815,22 +2594,22 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B111" s="10">
-        <f>SEARCH("]",A111,40)</f>
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f>IF(MID(A111,5,3)="o13","",MID(A111,46,B111-45))</f>
-        <v xml:space="preserve"> [Punto de Venta]</v>
+        <f t="shared" si="3"/>
+        <v>e/prj/en-uk-o13-ee-prj-projects-guides.md)                          | [Projects]</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="1"/>
       <c r="G111" s="2"/>
       <c r="H111" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![pos](/doc/img/point_of_sale.jpg)        | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-point-of-sale-guides.md)                  | ![rcr](/doc/img/hr_recruitment.jpg)       | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-recruitment-guides.md)                     | ![rnt](/doc/img/rentals.jpg)              | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-rental-guides.md)                                 |</v>
+        <f t="shared" si="5"/>
+        <v>| [![prj](/doc/img/project.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                          | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                             | [![rnt](/doc/img/rentals.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                            | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                                 | [![sli](/doc/img/website_slides.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                     | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                                 |</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
@@ -2839,21 +2618,21 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B112" s="10">
-        <f>SEARCH("]",A112,40)</f>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>123</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f>IF(MID(A112,5,3)="o13","",MID(A112,46,B112-45))</f>
-        <v xml:space="preserve"> [Reclutamiento]</v>
+        <f t="shared" si="3"/>
+        <v>e/rnt/en-uk-o13-ee-rnt-rental-guides.md)                            | [Rental]</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="1"/>
       <c r="G112" s="2"/>
       <c r="H112" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I112" s="2"/>
@@ -2863,21 +2642,21 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="B113" s="10">
-        <f>SEARCH("]",A113,40)</f>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>123</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f>IF(MID(A113,5,3)="o13","",MID(A113,46,B113-45))</f>
-        <v xml:space="preserve"> [Rentas]</v>
+        <f t="shared" si="3"/>
+        <v>k/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                     | [Slides]</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="1"/>
       <c r="G113" s="2"/>
       <c r="H113" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I113" s="2"/>
@@ -2887,22 +2666,22 @@
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B114" s="10">
-        <f>SEARCH("]",A114,40)</f>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f>IF(MID(A114,5,3)="o13","",MID(A114,46,B114-45))</f>
-        <v xml:space="preserve"> [Servicio]</v>
+        <f t="shared" si="3"/>
+        <v>e/tof/en-uk-o13-ee-tof-timeoff-guides.md)                           | [Time Off]</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="1"/>
       <c r="G114" s="2"/>
       <c r="H114" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>| ![fsv](/doc/img/field_service.jpg)        | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-field-service-guides.md)                        | ![web](/doc/img/website.jpg)              | [Sitios Web](/es-mx/o13/ee/web/es-mx-o13-ee-web-websites-builder-guides.md)                   | ![sub](/doc/img/sale_subscription.jpg)    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-subscriptions-guides.md)                   |</v>
+        <f t="shared" si="5"/>
+        <v>|| [![tof](/doc/img/timeoff.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                              |                                                                                                                |                                                                                               | [![apr](/doc/img/hr_appraisal.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                    | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                           |</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -2913,19 +2692,19 @@
       <c r="A115" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B115" s="10">
-        <f>SEARCH("]",A115,40)</f>
-        <v>58</v>
-      </c>
-      <c r="C115" s="2" t="str">
-        <f>IF(MID(A115,5,3)="o13","",MID(A115,46,B115-45))</f>
-        <v xml:space="preserve"> [Sitios Web]</v>
+      <c r="B115" s="10" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C115" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="1"/>
       <c r="G115" s="2"/>
       <c r="H115" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I115" s="2"/>
@@ -2935,21 +2714,21 @@
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B116" s="10">
-        <f>SEARCH("]",A116,40)</f>
-        <v>61</v>
+        <f t="shared" si="4"/>
+        <v>126</v>
       </c>
       <c r="C116" s="2" t="str">
-        <f>IF(MID(A116,5,3)="o13","",MID(A116,46,B116-45))</f>
-        <v xml:space="preserve"> [Suscripciones]</v>
+        <f t="shared" si="3"/>
+        <v>o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                    | [Appraisal]</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="1"/>
       <c r="G116" s="2"/>
       <c r="H116" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="I116" s="2"/>
@@ -2959,22 +2738,22 @@
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B117" s="10">
-        <f>SEARCH("]",A117,40)</f>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>125</v>
       </c>
       <c r="C117" s="2" t="str">
-        <f>IF(MID(A117,5,3)="o13","",MID(A117,46,B117-45))</f>
-        <v xml:space="preserve"> [Ventas]</v>
+        <f t="shared" si="3"/>
+        <v>ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                         | [Calendar]</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="1"/>
       <c r="G117" s="2"/>
       <c r="H117" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>|| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  | | | | |</v>
+        <f t="shared" si="5"/>
+        <v>| [![cal](/doc/img/calendar.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                         | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                             | [![dsc](/doc/img/discuss.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                           | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                               | [![equ](/doc/img/equipment.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                       | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                           |</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -2983,20 +2762,23 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" s="11" t="e">
-        <f>SEARCH("]",A118,40)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C118" s="2" t="e">
-        <f>IF(MID(A118,5,3)="o13","",MID(A118,46,B118-45))</f>
-        <v>#VALUE!</v>
+        <v>63</v>
+      </c>
+      <c r="B118" s="10">
+        <f t="shared" si="4"/>
+        <v>124</v>
+      </c>
+      <c r="C118" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>e/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                           | [Discuss]</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="1"/>
       <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
+      <c r="H118" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
@@ -3004,123 +2786,411 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B119" s="10"/>
-      <c r="C119" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="B119" s="10">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="C119" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                       | [Equipment]</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="1"/>
       <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
+      <c r="H119" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
     </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B120" s="10">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="C120" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                       | [Expenses]</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>| [![exp](/doc/img/hr_expense.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                       | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                             | [![for](/doc/img/website_forum.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                       | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                                   | [![inv](/doc/img/stock.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           |</v>
+      </c>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B121" s="10">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="C121" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                       | [Forum]</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B122" s="10">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="C122" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>inv/en-uk-o13-ee-inv-inventory-guides.md)                           | [Inventory]</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B123" s="10">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="C123" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>lun/en-uk-o13-ee-lun-lunch-guides.md)                               | [Lunch]</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>| [![lun](/doc/img/lunch.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                               | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                                   | [![msm](/doc/img/mass_mailing.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)               | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)                      | [![stu](/doc/img/web_studio.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                         | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                            |</v>
+      </c>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B124" s="10">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="C124" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)               | [Mass Mail]</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+    </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="str">
-        <f>MID(H69,2,1000)</f>
-        <v>| ![o13](/doc/img/odoo13.jpg)               | [Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-system-wide-guides.md)                           | | | | |</v>
-      </c>
+      <c r="A125" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B125" s="10">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="C125" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>3/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                         | [Odoo Studio]</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="str">
-        <f>H72</f>
-        <v>| ![psc](/doc/img/hr_presence.jpg)          | [Asistencias](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-presence-guides.md)                          | ![apv](/doc/img/approval.jpg)             | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-approvals-guides.md)                      | ![blg](/doc/img/website_blog.jpg)         | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-blog-guides.md)                                     |</v>
-      </c>
+      <c r="A126" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B126" s="10">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="C126" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)               | [Point of Sale]</v>
+      </c>
+      <c r="E126" s="2"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>| [![pos](/doc/img/point_of_sale.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)               | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)                   | [![pch](/doc/img/purchase.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                       | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                         | [![sls](/doc/img/sale.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                   |</v>
+      </c>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="str">
-        <f>H75</f>
-        <v>| ![cal](/doc/img/calendar.jpg)             | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-calendar-guides.md)                           | ![mka](/doc/img/marketing_automation.jpg) | [Campañas](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-marketing-automation-guides.md)                 | ![lvc](/doc/img/im_livechat.jpg)          | [Chat en vivo](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-live_chat-guides.md)                        |</v>
-      </c>
+      <c r="A127" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B127" s="10">
+        <f t="shared" si="4"/>
+        <v>127</v>
+      </c>
+      <c r="C127" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                       | [Purchasing]</v>
+      </c>
+      <c r="E127" s="2"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="str">
-        <f>H78</f>
-        <v>| ![apt](/doc/img/appointments.jpg)         | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-appointments-guides.md)                            | ![crm](/doc/img/crm.jpg)                  | [Clientes](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-crm-guides.md)                                  | ![dsc](/doc/img/discuss.jpg)              | [Comentarios](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-discuss-guides.md)                           |</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="str">
-        <f>H81</f>
-        <v>| ![lun](/doc/img/lunch.jpg)                | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-lunch-guides.md)                                 | ![skm](/doc/img/hr_skills.jpg)            | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-skills-guides.md)                           | ![pch](/doc/img/purchase.jpg)             | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-purchasing-guides.md)                            |</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="str">
+      <c r="A128" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B128" s="10">
+        <f t="shared" si="4"/>
+        <v>122</v>
+      </c>
+      <c r="C128" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ls/en-uk-o13-ee-sls-sales-guides.md)                                | [Sales]</v>
+      </c>
+      <c r="E128" s="2"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B129" s="10">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
+      <c r="C129" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>n-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)           | [Subscriptions]</v>
+      </c>
+      <c r="E129" s="2"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>| [![sub](/doc/img/sale_subscription.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)           | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)                   | [![tsh](/doc/img/hr_timesheet.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                    | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                           | [![3rd](/doc/img/third_parties.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-third-parties-guides.md)               | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-third-parties-guides.md)                     |</v>
+      </c>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B130" s="10">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+      <c r="C130" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                    | [Timesheet]</v>
+      </c>
+      <c r="E130" s="2"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="10">
+        <f t="shared" si="4"/>
+        <v>128</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="str">
+        <f>MID(H81,2,1000)</f>
+        <v>| [![o13](/doc/img/odoo13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                        | [System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-system-wide-guides.md)                            | | | | |</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="str">
         <f>H84</f>
-        <v>| ![acc](/doc/img/account_accountant.jpg)   | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-accounting-guides.md)                       | ![ctc](/doc/img/contacts.jpg)             | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-contacts-guides.md)                            | ![msm](/doc/img/mass_mailing.jpg)         | [Correo masivo](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-mass-marketing-guides.md)                  |</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="str">
+        <v>| [![acc](/doc/img/account_accountant.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)             | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-accounting-guides.md)                         | [![apv](/doc/img/approval.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                        | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-approvals-guides.md)                           | [![ctc](/doc/img/contacts.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                         | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-contacts-guides.md)                             |</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="str">
         <f>H87</f>
-        <v>| ![eco](/doc/img/website_sale.jpg)         | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-ecommerce-guides.md)                           | ![esg](/doc/img/website_sign.jpg)         | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-esignature-guides.md)                             | ![emp](/doc/img/hr_employees.jpg)         | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-employees-guides.md)                           |</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="str">
+        <v>| [![eco](/doc/img/website_sale.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                    | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-ecommerce-guides.md)                           | [![esg](/doc/img/website_sign.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                   | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-esignature-guides.md)                         | [![fsv](/doc/img/field_service.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)               | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-field-service-guides.md)                   |</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="str">
         <f>H90</f>
-        <v>| ![svy](/doc/img/survey.jpg)               | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-survey-guides.md)                              | ![equ](/doc/img/equipment.jpg)            | [Equipo](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-equipment-guides.md)                              | ![apr](/doc/img/hr_appraisal.jpg)         | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-appraisal-guides.md)                        |</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="str">
+        <v>| [![hdk](/doc/img/helpdesk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                         | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-helpdesk-guides.md)                             | [![ivc](/doc/img/account_invoicing.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)               | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-invoicing-guides.md)                           | [![mnt](/doc/img/maintenance.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                   | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-maintenance-guides.md)                       |</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="str">
         <f>H93</f>
-        <v>| ![eve](/doc/img/event.jpg)                | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-events-guides.md)                                | ![ivc](/doc/img/account_invoicing.jpg)    | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-invoicing-guides.md)                         | ![flt](/doc/img/fleet.jpg)                | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-fleet-guides.md)                               |</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="str">
+        <v>| [![mrp](/doc/img/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                   | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-mrp-guides.md)                                       | [![pyr](/doc/img/hr_payroll.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                        | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-payroll-guides.md)                               | [![psc](/doc/img/hr_presence.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                      | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-presence-guides.md)                             |</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="str">
         <f>H96</f>
-        <v>| ![for](/doc/img/website_forum.jpg)        | [Foros](/es-mx/o13/ee/for/es-mx-o13-ee-for-forum-guides.md)                                   | ![exp](/doc/img/hr_expense.jpg)           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-expenses-guides.md)                               | ![iot](/doc/img/iot.jpg)                  | [Internet de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-internet_of_things-guides.md)      |</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="str">
+        <v>| [![rcr](/doc/img/hr_recruitment.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-recruitment-guides.md)                       | [![skm](/doc/img/hr_skills.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                          | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-skills-guides.md)                                 | [![svy](/doc/img/survey.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                             | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-survey-guides.md)                                |</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="str">
         <f>H99</f>
-        <v>| ![inv](/doc/img/stock.jpg)                | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-inventory-guides.md)                         | ![mnt](/doc/img/maintenance.jpg)          | [Manenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-maintenance-guides.md)                      | ![hdk](/doc/img/helpdesk.jpg)             | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-helpdesk-guides.md)                        |</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="str">
+        <v>| [![web](/doc/img/website.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                  | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-websites-builder-guides.md)                     | [![apt](/doc/img/appointments.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                 | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-appointments-guides.md)                     | [![blg](/doc/img/website_blog.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                         | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-blog-guides.md)                                     |</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="str">
         <f>H102</f>
-        <v>| ![mrp](/doc/img/mrp.jpg)                  | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-mrp-guides.md)                                       | ![pyr](/doc/img/hr_payroll.jpg)           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-payroll-guides.md)                                | ![stu](/doc/img/web_studio.jpg)           | [Odoo Estudio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-studio-guides.md)                           |</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="str">
+        <v>| [![crm](/doc/img/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                   | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-crm-guides.md)                                       | [![emp](/doc/img/hr_employees.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                    | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-employees-guides.md)                           | [![eve](/doc/img/event.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                              | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-events-guides.md)                                 |</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="str">
         <f>H105</f>
-        <v>| ![osh](/doc/img/odoosh.jpg)               | [Odoo SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-odoo-sh-guides.md)                               | ![tof](/doc/img/timeoff.jpg)              | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-timeoff-guides.md)                              | ![plm](/doc/img/plm.jpg)                  | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-plm-guides.md)                                       |</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="str">
+        <v>| [![flt](/doc/img/fleet.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                               | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-fleet-guides.md)                                   | [![iot](/doc/img/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)                    | [Internet of Things (IOT)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-internet_of_things-guides.md)   | [![lvc](/doc/img/im_livechat.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                     | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-live_chat-guides.md)                           |</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="str">
         <f>H108</f>
-        <v>| ![tsh](/doc/img/hr_timesheet.jpg)         | [Productividad](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-timesheet-guides.md)                       | ![prj](/doc/img/project.jpg)              | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-projects-guides.md)                            | ![sli](/doc/img/website_slides.jpg)       | [Publicaciones](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-slides-guides.md)                          |</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="str">
+        <v>| [![mka](/doc/img/marketing_automation.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-marketing-automation-guides.md)           | [![osh](/doc/img/odoosh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-odoo-sh-guides.md)                               | [![plm](/doc/img/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                   | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-plm-guides.md)                                       |</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="str">
         <f>H111</f>
-        <v>| ![pos](/doc/img/point_of_sale.jpg)        | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-point-of-sale-guides.md)                  | ![rcr](/doc/img/hr_recruitment.jpg)       | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-recruitment-guides.md)                     | ![rnt](/doc/img/rentals.jpg)              | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-rental-guides.md)                                 |</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="str">
+        <v>| [![prj](/doc/img/project.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                          | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-projects-guides.md)                             | [![rnt](/doc/img/rentals.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                            | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-rental-guides.md)                                 | [![sli](/doc/img/website_slides.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                     | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-slides-guides.md)                                 |</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="str">
         <f>H114</f>
-        <v>| ![fsv](/doc/img/field_service.jpg)        | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-field-service-guides.md)                        | ![web](/doc/img/website.jpg)              | [Sitios Web](/es-mx/o13/ee/web/es-mx-o13-ee-web-websites-builder-guides.md)                   | ![sub](/doc/img/sale_subscription.jpg)    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-subscriptions-guides.md)                   |</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="str">
-        <f>MID(H117,2,1000)</f>
-        <v>| ![sls](/doc/img/sale.jpg)                 | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-sales-guides.md)                                  | | | | |</v>
+        <v>|| [![tof](/doc/img/timeoff.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-timeoff-guides.md)                              |                                                                                                                |                                                                                               | [![apr](/doc/img/hr_appraisal.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                    | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-appraisal-guides.md)                           |</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="str">
+        <f>H117</f>
+        <v>| [![cal](/doc/img/calendar.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                         | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-calendar-guides.md)                             | [![dsc](/doc/img/discuss.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                           | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-discuss-guides.md)                               | [![equ](/doc/img/equipment.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                       | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-equipment-guides.md)                           |</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="str">
+        <f>H120</f>
+        <v>| [![exp](/doc/img/hr_expense.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                       | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-expenses-guides.md)                             | [![for](/doc/img/website_forum.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                       | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-forum-guides.md)                                   | [![inv](/doc/img/stock.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-inventory-guides.md)                           |</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="str">
+        <f>H123</f>
+        <v>| [![lun](/doc/img/lunch.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                               | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-lunch-guides.md)                                   | [![msm](/doc/img/mass_mailing.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)               | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-mass-marketing-guides.md)                      | [![stu](/doc/img/web_studio.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                         | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-studio-guides.md)                            |</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="str">
+        <f>H126</f>
+        <v>| [![pos](/doc/img/point_of_sale.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)               | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-point-of-sale-guides.md)                   | [![pch](/doc/img/purchase.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                       | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-purchasing-guides.md)                         | [![sls](/doc/img/sale.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-sales-guides.md)                                   |</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="str">
+        <f>MID(H129,2,1000)</f>
+        <v xml:space="preserve"> [![sub](/doc/img/sale_subscription.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)           | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-subscriptions-guides.md)                   | [![tsh](/doc/img/hr_timesheet.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                    | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-timesheet-guides.md)                           | [![3rd](/doc/img/third_parties.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-third-parties-guides.md)               | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-third-parties-guides.md)                     |</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A70:C117">
+  <autoFilter ref="A82:C129">
     <sortState ref="A73:C119">
       <sortCondition ref="C73"/>
     </sortState>

--- a/doc/Reorder APPs Menu.xlsx
+++ b/doc/Reorder APPs Menu.xlsx
@@ -7,17 +7,21 @@
     <workbookView xWindow="120" yWindow="45" windowWidth="28515" windowHeight="12855"/>
   </bookViews>
   <sheets>
-    <sheet name="ReorderMenu" sheetId="1" r:id="rId1"/>
+    <sheet name="NewMenu" sheetId="2" r:id="rId1"/>
+    <sheet name="ReorderMenu" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ReorderMenu!$A$82:$C$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ReorderMenu!$A$82:$C$129</definedName>
+    <definedName name="actual">NewMenu!#REF!</definedName>
+    <definedName name="dir">NewMenu!$A$3:$A$106</definedName>
+    <definedName name="maxlen">NewMenu!$D$108</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="288">
   <si>
     <t/>
   </si>
@@ -254,13 +258,640 @@
   </si>
   <si>
     <t>| [![doc](/doc/img/documents.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-3rd-third-parties-guides.md)               | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-third-parties-guides.md)                     |</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>acc</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>apt</t>
+  </si>
+  <si>
+    <t>apv</t>
+  </si>
+  <si>
+    <t>blg</t>
+  </si>
+  <si>
+    <t>cal</t>
+  </si>
+  <si>
+    <t>crm</t>
+  </si>
+  <si>
+    <t>ctc</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>dsc</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>emp</t>
+  </si>
+  <si>
+    <t>equ</t>
+  </si>
+  <si>
+    <t>esg</t>
+  </si>
+  <si>
+    <t>eve</t>
+  </si>
+  <si>
+    <t>exp</t>
+  </si>
+  <si>
+    <t>flt</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>fsv</t>
+  </si>
+  <si>
+    <t>hdk</t>
+  </si>
+  <si>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>iot</t>
+  </si>
+  <si>
+    <t>ivc</t>
+  </si>
+  <si>
+    <t>lun</t>
+  </si>
+  <si>
+    <t>mka</t>
+  </si>
+  <si>
+    <t>mnt</t>
+  </si>
+  <si>
+    <t>mrp</t>
+  </si>
+  <si>
+    <t>msm</t>
+  </si>
+  <si>
+    <t>o13</t>
+  </si>
+  <si>
+    <t>osh</t>
+  </si>
+  <si>
+    <t>pch</t>
+  </si>
+  <si>
+    <t>plm</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>prj</t>
+  </si>
+  <si>
+    <t>psc</t>
+  </si>
+  <si>
+    <t>pyr</t>
+  </si>
+  <si>
+    <t>rcr</t>
+  </si>
+  <si>
+    <t>rnt</t>
+  </si>
+  <si>
+    <t>skm</t>
+  </si>
+  <si>
+    <t>sli</t>
+  </si>
+  <si>
+    <t>sls</t>
+  </si>
+  <si>
+    <t>stu</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>svy</t>
+  </si>
+  <si>
+    <t>tof</t>
+  </si>
+  <si>
+    <t>tsh</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>ast</t>
+  </si>
+  <si>
+    <t>atn</t>
+  </si>
+  <si>
+    <t>bar</t>
+  </si>
+  <si>
+    <t>dbp</t>
+  </si>
+  <si>
+    <t>ddh</t>
+  </si>
+  <si>
+    <t>dfe</t>
+  </si>
+  <si>
+    <t>dsh</t>
+  </si>
+  <si>
+    <t>dup</t>
+  </si>
+  <si>
+    <t>dus</t>
+  </si>
+  <si>
+    <t>eml</t>
+  </si>
+  <si>
+    <t>gam</t>
+  </si>
+  <si>
+    <t>gca</t>
+  </si>
+  <si>
+    <t>gdr</t>
+  </si>
+  <si>
+    <t>ghm</t>
+  </si>
+  <si>
+    <t>hol</t>
+  </si>
+  <si>
+    <t>lch</t>
+  </si>
+  <si>
+    <t>mdl</t>
+  </si>
+  <si>
+    <t>mem</t>
+  </si>
+  <si>
+    <t>mma</t>
+  </si>
+  <si>
+    <t>mpu</t>
+  </si>
+  <si>
+    <t>nte</t>
+  </si>
+  <si>
+    <t>pfc</t>
+  </si>
+  <si>
+    <t>pmt</t>
+  </si>
+  <si>
+    <t>qco</t>
+  </si>
+  <si>
+    <t>rpr</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>smg</t>
+  </si>
+  <si>
+    <t>vip</t>
+  </si>
+  <si>
+    <t>wca</t>
+  </si>
+  <si>
+    <t>wcr</t>
+  </si>
+  <si>
+    <t>wcs</t>
+  </si>
+  <si>
+    <t>wcu</t>
+  </si>
+  <si>
+    <t>wen</t>
+  </si>
+  <si>
+    <t>weq</t>
+  </si>
+  <si>
+    <t>wes</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>wev</t>
+  </si>
+  <si>
+    <t>wfd</t>
+  </si>
+  <si>
+    <t>wfe</t>
+  </si>
+  <si>
+    <t>wge</t>
+  </si>
+  <si>
+    <t>whr</t>
+  </si>
+  <si>
+    <t>wlc</t>
+  </si>
+  <si>
+    <t>wmc</t>
+  </si>
+  <si>
+    <t>wme</t>
+  </si>
+  <si>
+    <t>wpa</t>
+  </si>
+  <si>
+    <t>wpt</t>
+  </si>
+  <si>
+    <t>wpy</t>
+  </si>
+  <si>
+    <t>wqt</t>
+  </si>
+  <si>
+    <t>wrc</t>
+  </si>
+  <si>
+    <t>wrp</t>
+  </si>
+  <si>
+    <t>wsd</t>
+  </si>
+  <si>
+    <t>wso</t>
+  </si>
+  <si>
+    <t>wti</t>
+  </si>
+  <si>
+    <t>wtw</t>
+  </si>
+  <si>
+    <t>wve</t>
+  </si>
+  <si>
+    <t>3rd Parties</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Appraisal</t>
+  </si>
+  <si>
+    <t>Appointments</t>
+  </si>
+  <si>
+    <t>Approvals</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>Discuss</t>
+  </si>
+  <si>
+    <t>eCommerce</t>
+  </si>
+  <si>
+    <t>Employees</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>eSignature</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Fleet</t>
+  </si>
+  <si>
+    <t>Forum</t>
+  </si>
+  <si>
+    <t>Field Service</t>
+  </si>
+  <si>
+    <t>Helpdesk</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Invoicing</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Live Chat</t>
+  </si>
+  <si>
+    <t>Marketing Auto</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>Mass Mail</t>
+  </si>
+  <si>
+    <t>Odoo SH</t>
+  </si>
+  <si>
+    <t>Purchasing</t>
+  </si>
+  <si>
+    <t>PLM</t>
+  </si>
+  <si>
+    <t>Point of Sale</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>Presence</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>Rental</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>Slides</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Odoo Studio</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>Surveys</t>
+  </si>
+  <si>
+    <t>Time Off</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>Websites</t>
+  </si>
+  <si>
+    <t>Internet of Things</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Bar Code</t>
+  </si>
+  <si>
+    <t>Delivery Bpost</t>
+  </si>
+  <si>
+    <t>Delivery DHL</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>Delivery FedEx</t>
+  </si>
+  <si>
+    <t>Delivery UPS</t>
+  </si>
+  <si>
+    <t>Delivery USps</t>
+  </si>
+  <si>
+    <t>eMail</t>
+  </si>
+  <si>
+    <t>Gamification</t>
+  </si>
+  <si>
+    <t>Google Calendar</t>
+  </si>
+  <si>
+    <t>Google Drive</t>
+  </si>
+  <si>
+    <t>Github Mail</t>
+  </si>
+  <si>
+    <t>Holidays</t>
+  </si>
+  <si>
+    <t>Modules</t>
+  </si>
+  <si>
+    <t>Membership</t>
+  </si>
+  <si>
+    <t>MRP Maintenance</t>
+  </si>
+  <si>
+    <t>Mail Push</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Project Forecast</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Quality Control</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>S€PA</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Sale Management</t>
+  </si>
+  <si>
+    <t>Voice IP</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>Ws Calendar</t>
+  </si>
+  <si>
+    <t>Ws CRM</t>
+  </si>
+  <si>
+    <t>Ws CRM Score</t>
+  </si>
+  <si>
+    <t>Ws Customer</t>
+  </si>
+  <si>
+    <t>Ws Enterprise</t>
+  </si>
+  <si>
+    <t>Ws Event Quest</t>
+  </si>
+  <si>
+    <t>Ws Event Sale</t>
+  </si>
+  <si>
+    <t>Ws Event Track</t>
+  </si>
+  <si>
+    <t>Ws Event</t>
+  </si>
+  <si>
+    <t>Ws Forum Doc</t>
+  </si>
+  <si>
+    <t>Ws Forum Editor</t>
+  </si>
+  <si>
+    <t>Ws Gengo</t>
+  </si>
+  <si>
+    <t>Ws HR</t>
+  </si>
+  <si>
+    <t>Ws Live Chat</t>
+  </si>
+  <si>
+    <t>Ws Mail Channel</t>
+  </si>
+  <si>
+    <t>Ws Membership</t>
+  </si>
+  <si>
+    <t>Ws CRM Partners</t>
+  </si>
+  <si>
+    <t>Ws Partner</t>
+  </si>
+  <si>
+    <t>Ws Payment</t>
+  </si>
+  <si>
+    <t>Ws Quote</t>
+  </si>
+  <si>
+    <t>Ws Rating Project</t>
+  </si>
+  <si>
+    <t>Ws Sale Delivery</t>
+  </si>
+  <si>
+    <t>Ws Sale Options</t>
+  </si>
+  <si>
+    <t>Ws Theme Install</t>
+  </si>
+  <si>
+    <t>Ws Twitter</t>
+  </si>
+  <si>
+    <t>Ws Version</t>
+  </si>
+  <si>
+    <t>Ws HR Recruit</t>
+  </si>
+  <si>
+    <t>SORT ⯆</t>
+  </si>
+  <si>
+    <t>Odoo System</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +922,13 @@
     <font>
       <b/>
       <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -353,7 +991,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -374,6 +1012,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,11 +1320,3116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F282"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113:A138"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C1" s="14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="str">
+        <f>"_1_ "&amp; B3</f>
+        <v>_1_ Odoo System</v>
+      </c>
+      <c r="D3">
+        <f>LEN(B3)</f>
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>"| [![" &amp; A3 &amp; "](/doc/img/app/sml/" &amp; A3 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A3 &amp; "/en-uk-o13-ee-" &amp; A3 &amp; "-guides.md ""Goto " &amp; B3 &amp; " guides \[" &amp; A3 &amp; "]"" ) | [" &amp; B3 &amp; "](/en-uk/o13/ee/"&amp;A3&amp;"/en-uk-o13-ee-" &amp; A3 &amp; "-guides.md)"</f>
+        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md "Goto Odoo System guides \[o13]" ) | [Odoo System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md)</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f>LEFT(E3,106+D3) &amp; REPT(" ",maxlen-D3) &amp; MID(E3,107+D3,200)&amp;REPT(" ",maxlen-D3+1) &amp;"|"</f>
+        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md "Goto Odoo System guides \[o13]" )        | [Odoo System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md)        |</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" t="str">
+        <f>"_2_ "&amp; B4</f>
+        <v>_2_ Odoo Studio</v>
+      </c>
+      <c r="D4">
+        <f>LEN(B4)</f>
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>"| [![" &amp; A4 &amp; "](/doc/img/app/sml/" &amp; A4 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A4 &amp; "/en-uk-o13-ee-" &amp; A4 &amp; "-guides.md ""Goto " &amp; B4 &amp; " guides \[" &amp; A4 &amp; "]"" ) | [" &amp; B4 &amp; "](/en-uk/o13/ee/"&amp;A4&amp;"/en-uk-o13-ee-" &amp; A4 &amp; "-guides.md)"</f>
+        <v>| [![stu](/doc/img/app/sml/stu.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md "Goto Odoo Studio guides \[stu]" ) | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md)</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <f>LEFT(E4,106+D4) &amp; REPT(" ",maxlen-D4) &amp; MID(E4,107+D4,200)&amp;REPT(" ",maxlen-D4+1) &amp;"|"</f>
+        <v>| [![stu](/doc/img/app/sml/stu.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md "Goto Odoo Studio guides \[stu]" )        | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md)        |</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" t="str">
+        <f>"_3_ "&amp; B5</f>
+        <v>_3_ Odoo SH</v>
+      </c>
+      <c r="D5">
+        <f>LEN(B5)</f>
+        <v>7</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f>"| [![" &amp; A5 &amp; "](/doc/img/app/sml/" &amp; A5 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A5 &amp; "/en-uk-o13-ee-" &amp; A5 &amp; "-guides.md ""Goto " &amp; B5 &amp; " guides \[" &amp; A5 &amp; "]"" ) | [" &amp; B5 &amp; "](/en-uk/o13/ee/"&amp;A5&amp;"/en-uk-o13-ee-" &amp; A5 &amp; "-guides.md)"</f>
+        <v>| [![osh](/doc/img/app/sml/osh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md "Goto Odoo SH guides \[osh]" ) | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md)</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <f>LEFT(E5,106+D5) &amp; REPT(" ",maxlen-D5) &amp; MID(E5,107+D5,200)&amp;REPT(" ",maxlen-D5+1) &amp;"|"</f>
+        <v>| [![osh](/doc/img/app/sml/osh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md "Goto Odoo SH guides \[osh]" )            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md)            |</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" t="str">
+        <f>"_4_ "&amp; B6</f>
+        <v>_4_ 3rd Parties</v>
+      </c>
+      <c r="D6">
+        <f>LEN(B6)</f>
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f>"| [![" &amp; A6 &amp; "](/doc/img/app/sml/" &amp; A6 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A6 &amp; "/en-uk-o13-ee-" &amp; A6 &amp; "-guides.md ""Goto " &amp; B6 &amp; " guides \[" &amp; A6 &amp; "]"" ) | [" &amp; B6 &amp; "](/en-uk/o13/ee/"&amp;A6&amp;"/en-uk-o13-ee-" &amp; A6 &amp; "-guides.md)"</f>
+        <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md "Goto 3rd Parties guides \[3rd]" ) | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md)</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f>LEFT(E6,106+D6) &amp; REPT(" ",maxlen-D6) &amp; MID(E6,107+D6,200)&amp;REPT(" ",maxlen-D6+1) &amp;"|"</f>
+        <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md "Goto 3rd Parties guides \[3rd]" )        | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md)        |</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" t="str">
+        <f>B7</f>
+        <v>Accounting</v>
+      </c>
+      <c r="D7">
+        <f>LEN(B7)</f>
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f>"| [![" &amp; A7 &amp; "](/doc/img/app/sml/" &amp; A7 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A7 &amp; "/en-uk-o13-ee-" &amp; A7 &amp; "-guides.md ""Goto " &amp; B7 &amp; " guides \[" &amp; A7 &amp; "]"" ) | [" &amp; B7 &amp; "](/en-uk/o13/ee/"&amp;A7&amp;"/en-uk-o13-ee-" &amp; A7 &amp; "-guides.md)"</f>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" ) | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f>LEFT(E7,106+D7) &amp; REPT(" ",maxlen-D7) &amp; MID(E7,107+D7,200)&amp;REPT(" ",maxlen-D7+1) &amp;"|"</f>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" )         | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" t="str">
+        <f>B8</f>
+        <v>Appointments</v>
+      </c>
+      <c r="D8">
+        <f>LEN(B8)</f>
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>"| [![" &amp; A8 &amp; "](/doc/img/app/sml/" &amp; A8 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A8 &amp; "/en-uk-o13-ee-" &amp; A8 &amp; "-guides.md ""Goto " &amp; B8 &amp; " guides \[" &amp; A8 &amp; "]"" ) | [" &amp; B8 &amp; "](/en-uk/o13/ee/"&amp;A8&amp;"/en-uk-o13-ee-" &amp; A8 &amp; "-guides.md)"</f>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" ) | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>LEFT(E8,106+D8) &amp; REPT(" ",maxlen-D8) &amp; MID(E8,107+D8,200)&amp;REPT(" ",maxlen-D8+1) &amp;"|"</f>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" )       | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)       |</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="str">
+        <f>B9</f>
+        <v>Appraisal</v>
+      </c>
+      <c r="D9">
+        <f>LEN(B9)</f>
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>"| [![" &amp; A9 &amp; "](/doc/img/app/sml/" &amp; A9 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A9 &amp; "/en-uk-o13-ee-" &amp; A9 &amp; "-guides.md ""Goto " &amp; B9 &amp; " guides \[" &amp; A9 &amp; "]"" ) | [" &amp; B9 &amp; "](/en-uk/o13/ee/"&amp;A9&amp;"/en-uk-o13-ee-" &amp; A9 &amp; "-guides.md)"</f>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" ) | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>LEFT(E9,106+D9) &amp; REPT(" ",maxlen-D9) &amp; MID(E9,107+D9,200)&amp;REPT(" ",maxlen-D9+1) &amp;"|"</f>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" )          | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" t="str">
+        <f>B10</f>
+        <v>Approvals</v>
+      </c>
+      <c r="D10">
+        <f>LEN(B10)</f>
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>"| [![" &amp; A10 &amp; "](/doc/img/app/sml/" &amp; A10 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A10 &amp; "/en-uk-o13-ee-" &amp; A10 &amp; "-guides.md ""Goto " &amp; B10 &amp; " guides \[" &amp; A10 &amp; "]"" ) | [" &amp; B10 &amp; "](/en-uk/o13/ee/"&amp;A10&amp;"/en-uk-o13-ee-" &amp; A10 &amp; "-guides.md)"</f>
+        <v>| [![apv](/doc/img/app/sml/apv.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md "Goto Approvals guides \[apv]" ) | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md)</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>LEFT(E10,106+D10) &amp; REPT(" ",maxlen-D10) &amp; MID(E10,107+D10,200)&amp;REPT(" ",maxlen-D10+1) &amp;"|"</f>
+        <v>| [![apv](/doc/img/app/sml/apv.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md "Goto Approvals guides \[apv]" )          | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" t="str">
+        <f>B11</f>
+        <v>Assets</v>
+      </c>
+      <c r="D11">
+        <f>LEN(B11)</f>
+        <v>6</v>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>"| [![" &amp; A11 &amp; "](/doc/img/app/sml/" &amp; A11 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A11 &amp; "/en-uk-o13-ee-" &amp; A11 &amp; "-guides.md ""Goto " &amp; B11 &amp; " guides \[" &amp; A11 &amp; "]"" ) | [" &amp; B11 &amp; "](/en-uk/o13/ee/"&amp;A11&amp;"/en-uk-o13-ee-" &amp; A11 &amp; "-guides.md)"</f>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" ) | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>LEFT(E11,106+D11) &amp; REPT(" ",maxlen-D11) &amp; MID(E11,107+D11,200)&amp;REPT(" ",maxlen-D11+1) &amp;"|"</f>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" )             | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)             |</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" t="str">
+        <f>B12</f>
+        <v>Attendance</v>
+      </c>
+      <c r="D12">
+        <f>LEN(B12)</f>
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>"| [![" &amp; A12 &amp; "](/doc/img/app/sml/" &amp; A12 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A12 &amp; "/en-uk-o13-ee-" &amp; A12 &amp; "-guides.md ""Goto " &amp; B12 &amp; " guides \[" &amp; A12 &amp; "]"" ) | [" &amp; B12 &amp; "](/en-uk/o13/ee/"&amp;A12&amp;"/en-uk-o13-ee-" &amp; A12 &amp; "-guides.md)"</f>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" ) | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f>LEFT(E12,106+D12) &amp; REPT(" ",maxlen-D12) &amp; MID(E12,107+D12,200)&amp;REPT(" ",maxlen-D12+1) &amp;"|"</f>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" )         | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" t="str">
+        <f>B13</f>
+        <v>Bar Code</v>
+      </c>
+      <c r="D13">
+        <f>LEN(B13)</f>
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="str">
+        <f>"| [![" &amp; A13 &amp; "](/doc/img/app/sml/" &amp; A13 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A13 &amp; "/en-uk-o13-ee-" &amp; A13 &amp; "-guides.md ""Goto " &amp; B13 &amp; " guides \[" &amp; A13 &amp; "]"" ) | [" &amp; B13 &amp; "](/en-uk/o13/ee/"&amp;A13&amp;"/en-uk-o13-ee-" &amp; A13 &amp; "-guides.md)"</f>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" ) | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f>LEFT(E13,106+D13) &amp; REPT(" ",maxlen-D13) &amp; MID(E13,107+D13,200)&amp;REPT(" ",maxlen-D13+1) &amp;"|"</f>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" )           | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" t="str">
+        <f>B14</f>
+        <v>Blog</v>
+      </c>
+      <c r="D14">
+        <f>LEN(B14)</f>
+        <v>4</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>"| [![" &amp; A14 &amp; "](/doc/img/app/sml/" &amp; A14 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A14 &amp; "/en-uk-o13-ee-" &amp; A14 &amp; "-guides.md ""Goto " &amp; B14 &amp; " guides \[" &amp; A14 &amp; "]"" ) | [" &amp; B14 &amp; "](/en-uk/o13/ee/"&amp;A14&amp;"/en-uk-o13-ee-" &amp; A14 &amp; "-guides.md)"</f>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" ) | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>LEFT(E14,106+D14) &amp; REPT(" ",maxlen-D14) &amp; MID(E14,107+D14,200)&amp;REPT(" ",maxlen-D14+1) &amp;"|"</f>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" )               | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)               |</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" t="str">
+        <f>B15</f>
+        <v>Calendar</v>
+      </c>
+      <c r="D15">
+        <f>LEN(B15)</f>
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="str">
+        <f>"| [![" &amp; A15 &amp; "](/doc/img/app/sml/" &amp; A15 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A15 &amp; "/en-uk-o13-ee-" &amp; A15 &amp; "-guides.md ""Goto " &amp; B15 &amp; " guides \[" &amp; A15 &amp; "]"" ) | [" &amp; B15 &amp; "](/en-uk/o13/ee/"&amp;A15&amp;"/en-uk-o13-ee-" &amp; A15 &amp; "-guides.md)"</f>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" ) | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f>LEFT(E15,106+D15) &amp; REPT(" ",maxlen-D15) &amp; MID(E15,107+D15,200)&amp;REPT(" ",maxlen-D15+1) &amp;"|"</f>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" )           | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" t="str">
+        <f>B16</f>
+        <v>Contacts</v>
+      </c>
+      <c r="D16">
+        <f>LEN(B16)</f>
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>"| [![" &amp; A16 &amp; "](/doc/img/app/sml/" &amp; A16 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A16 &amp; "/en-uk-o13-ee-" &amp; A16 &amp; "-guides.md ""Goto " &amp; B16 &amp; " guides \[" &amp; A16 &amp; "]"" ) | [" &amp; B16 &amp; "](/en-uk/o13/ee/"&amp;A16&amp;"/en-uk-o13-ee-" &amp; A16 &amp; "-guides.md)"</f>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" ) | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f>LEFT(E16,106+D16) &amp; REPT(" ",maxlen-D16) &amp; MID(E16,107+D16,200)&amp;REPT(" ",maxlen-D16+1) &amp;"|"</f>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" )           | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="str">
+        <f>B17</f>
+        <v>CRM</v>
+      </c>
+      <c r="D17">
+        <f>LEN(B17)</f>
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="str">
+        <f>"| [![" &amp; A17 &amp; "](/doc/img/app/sml/" &amp; A17 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A17 &amp; "/en-uk-o13-ee-" &amp; A17 &amp; "-guides.md ""Goto " &amp; B17 &amp; " guides \[" &amp; A17 &amp; "]"" ) | [" &amp; B17 &amp; "](/en-uk/o13/ee/"&amp;A17&amp;"/en-uk-o13-ee-" &amp; A17 &amp; "-guides.md)"</f>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" ) | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f>LEFT(E17,106+D17) &amp; REPT(" ",maxlen-D17) &amp; MID(E17,107+D17,200)&amp;REPT(" ",maxlen-D17+1) &amp;"|"</f>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" )                | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)                |</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" t="str">
+        <f>B18</f>
+        <v>Dashboards</v>
+      </c>
+      <c r="D18">
+        <f>LEN(B18)</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="str">
+        <f>"| [![" &amp; A18 &amp; "](/doc/img/app/sml/" &amp; A18 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A18 &amp; "/en-uk-o13-ee-" &amp; A18 &amp; "-guides.md ""Goto " &amp; B18 &amp; " guides \[" &amp; A18 &amp; "]"" ) | [" &amp; B18 &amp; "](/en-uk/o13/ee/"&amp;A18&amp;"/en-uk-o13-ee-" &amp; A18 &amp; "-guides.md)"</f>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" ) | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f>LEFT(E18,106+D18) &amp; REPT(" ",maxlen-D18) &amp; MID(E18,107+D18,200)&amp;REPT(" ",maxlen-D18+1) &amp;"|"</f>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" )         | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" t="str">
+        <f>B19</f>
+        <v>Delivery Bpost</v>
+      </c>
+      <c r="D19">
+        <f>LEN(B19)</f>
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>"| [![" &amp; A19 &amp; "](/doc/img/app/sml/" &amp; A19 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A19 &amp; "/en-uk-o13-ee-" &amp; A19 &amp; "-guides.md ""Goto " &amp; B19 &amp; " guides \[" &amp; A19 &amp; "]"" ) | [" &amp; B19 &amp; "](/en-uk/o13/ee/"&amp;A19&amp;"/en-uk-o13-ee-" &amp; A19 &amp; "-guides.md)"</f>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" ) | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f>LEFT(E19,106+D19) &amp; REPT(" ",maxlen-D19) &amp; MID(E19,107+D19,200)&amp;REPT(" ",maxlen-D19+1) &amp;"|"</f>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" )     | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)     |</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" t="str">
+        <f>B20</f>
+        <v>Delivery DHL</v>
+      </c>
+      <c r="D20">
+        <f>LEN(B20)</f>
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="str">
+        <f>"| [![" &amp; A20 &amp; "](/doc/img/app/sml/" &amp; A20 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A20 &amp; "/en-uk-o13-ee-" &amp; A20 &amp; "-guides.md ""Goto " &amp; B20 &amp; " guides \[" &amp; A20 &amp; "]"" ) | [" &amp; B20 &amp; "](/en-uk/o13/ee/"&amp;A20&amp;"/en-uk-o13-ee-" &amp; A20 &amp; "-guides.md)"</f>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" ) | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f>LEFT(E20,106+D20) &amp; REPT(" ",maxlen-D20) &amp; MID(E20,107+D20,200)&amp;REPT(" ",maxlen-D20+1) &amp;"|"</f>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" )       | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)       |</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B21" t="s">
+        <v>236</v>
+      </c>
+      <c r="C21" t="str">
+        <f>B21</f>
+        <v>Delivery FedEx</v>
+      </c>
+      <c r="D21">
+        <f>LEN(B21)</f>
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="str">
+        <f>"| [![" &amp; A21 &amp; "](/doc/img/app/sml/" &amp; A21 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A21 &amp; "/en-uk-o13-ee-" &amp; A21 &amp; "-guides.md ""Goto " &amp; B21 &amp; " guides \[" &amp; A21 &amp; "]"" ) | [" &amp; B21 &amp; "](/en-uk/o13/ee/"&amp;A21&amp;"/en-uk-o13-ee-" &amp; A21 &amp; "-guides.md)"</f>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" ) | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f>LEFT(E21,106+D21) &amp; REPT(" ",maxlen-D21) &amp; MID(E21,107+D21,200)&amp;REPT(" ",maxlen-D21+1) &amp;"|"</f>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" )     | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)     |</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" t="s">
+        <v>237</v>
+      </c>
+      <c r="C22" t="str">
+        <f>B22</f>
+        <v>Delivery UPS</v>
+      </c>
+      <c r="D22">
+        <f>LEN(B22)</f>
+        <v>12</v>
+      </c>
+      <c r="E22" s="1" t="str">
+        <f>"| [![" &amp; A22 &amp; "](/doc/img/app/sml/" &amp; A22 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A22 &amp; "/en-uk-o13-ee-" &amp; A22 &amp; "-guides.md ""Goto " &amp; B22 &amp; " guides \[" &amp; A22 &amp; "]"" ) | [" &amp; B22 &amp; "](/en-uk/o13/ee/"&amp;A22&amp;"/en-uk-o13-ee-" &amp; A22 &amp; "-guides.md)"</f>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" ) | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f>LEFT(E22,106+D22) &amp; REPT(" ",maxlen-D22) &amp; MID(E22,107+D22,200)&amp;REPT(" ",maxlen-D22+1) &amp;"|"</f>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" )       | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)       |</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C23" t="str">
+        <f>B23</f>
+        <v>Delivery USps</v>
+      </c>
+      <c r="D23">
+        <f>LEN(B23)</f>
+        <v>13</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>"| [![" &amp; A23 &amp; "](/doc/img/app/sml/" &amp; A23 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A23 &amp; "/en-uk-o13-ee-" &amp; A23 &amp; "-guides.md ""Goto " &amp; B23 &amp; " guides \[" &amp; A23 &amp; "]"" ) | [" &amp; B23 &amp; "](/en-uk/o13/ee/"&amp;A23&amp;"/en-uk-o13-ee-" &amp; A23 &amp; "-guides.md)"</f>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" ) | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f>LEFT(E23,106+D23) &amp; REPT(" ",maxlen-D23) &amp; MID(E23,107+D23,200)&amp;REPT(" ",maxlen-D23+1) &amp;"|"</f>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" )      | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)      |</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C24" t="str">
+        <f>B24</f>
+        <v>Discuss</v>
+      </c>
+      <c r="D24">
+        <f>LEN(B24)</f>
+        <v>7</v>
+      </c>
+      <c r="E24" s="1" t="str">
+        <f>"| [![" &amp; A24 &amp; "](/doc/img/app/sml/" &amp; A24 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A24 &amp; "/en-uk-o13-ee-" &amp; A24 &amp; "-guides.md ""Goto " &amp; B24 &amp; " guides \[" &amp; A24 &amp; "]"" ) | [" &amp; B24 &amp; "](/en-uk/o13/ee/"&amp;A24&amp;"/en-uk-o13-ee-" &amp; A24 &amp; "-guides.md)"</f>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" ) | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f>LEFT(E24,106+D24) &amp; REPT(" ",maxlen-D24) &amp; MID(E24,107+D24,200)&amp;REPT(" ",maxlen-D24+1) &amp;"|"</f>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" )            | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)            |</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" t="str">
+        <f>B25</f>
+        <v>Documents</v>
+      </c>
+      <c r="D25">
+        <f>LEN(B25)</f>
+        <v>9</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>"| [![" &amp; A25 &amp; "](/doc/img/app/sml/" &amp; A25 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A25 &amp; "/en-uk-o13-ee-" &amp; A25 &amp; "-guides.md ""Goto " &amp; B25 &amp; " guides \[" &amp; A25 &amp; "]"" ) | [" &amp; B25 &amp; "](/en-uk/o13/ee/"&amp;A25&amp;"/en-uk-o13-ee-" &amp; A25 &amp; "-guides.md)"</f>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" ) | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f>LEFT(E25,106+D25) &amp; REPT(" ",maxlen-D25) &amp; MID(E25,107+D25,200)&amp;REPT(" ",maxlen-D25+1) &amp;"|"</f>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" )          | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" t="str">
+        <f>B26</f>
+        <v>eCommerce</v>
+      </c>
+      <c r="D26">
+        <f>LEN(B26)</f>
+        <v>9</v>
+      </c>
+      <c r="E26" s="1" t="str">
+        <f>"| [![" &amp; A26 &amp; "](/doc/img/app/sml/" &amp; A26 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A26 &amp; "/en-uk-o13-ee-" &amp; A26 &amp; "-guides.md ""Goto " &amp; B26 &amp; " guides \[" &amp; A26 &amp; "]"" ) | [" &amp; B26 &amp; "](/en-uk/o13/ee/"&amp;A26&amp;"/en-uk-o13-ee-" &amp; A26 &amp; "-guides.md)"</f>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" ) | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f>LEFT(E26,106+D26) &amp; REPT(" ",maxlen-D26) &amp; MID(E26,107+D26,200)&amp;REPT(" ",maxlen-D26+1) &amp;"|"</f>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" )          | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C27" t="str">
+        <f>B27</f>
+        <v>eMail</v>
+      </c>
+      <c r="D27">
+        <f>LEN(B27)</f>
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="str">
+        <f>"| [![" &amp; A27 &amp; "](/doc/img/app/sml/" &amp; A27 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A27 &amp; "/en-uk-o13-ee-" &amp; A27 &amp; "-guides.md ""Goto " &amp; B27 &amp; " guides \[" &amp; A27 &amp; "]"" ) | [" &amp; B27 &amp; "](/en-uk/o13/ee/"&amp;A27&amp;"/en-uk-o13-ee-" &amp; A27 &amp; "-guides.md)"</f>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" ) | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f>LEFT(E27,106+D27) &amp; REPT(" ",maxlen-D27) &amp; MID(E27,107+D27,200)&amp;REPT(" ",maxlen-D27+1) &amp;"|"</f>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" )              | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)              |</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" t="str">
+        <f>B28</f>
+        <v>Employees</v>
+      </c>
+      <c r="D28">
+        <f>LEN(B28)</f>
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="str">
+        <f>"| [![" &amp; A28 &amp; "](/doc/img/app/sml/" &amp; A28 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A28 &amp; "/en-uk-o13-ee-" &amp; A28 &amp; "-guides.md ""Goto " &amp; B28 &amp; " guides \[" &amp; A28 &amp; "]"" ) | [" &amp; B28 &amp; "](/en-uk/o13/ee/"&amp;A28&amp;"/en-uk-o13-ee-" &amp; A28 &amp; "-guides.md)"</f>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" ) | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)</v>
+      </c>
+      <c r="F28" s="1" t="str">
+        <f>LEFT(E28,106+D28) &amp; REPT(" ",maxlen-D28) &amp; MID(E28,107+D28,200)&amp;REPT(" ",maxlen-D28+1) &amp;"|"</f>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" )          | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" t="str">
+        <f>B29</f>
+        <v>Equipment</v>
+      </c>
+      <c r="D29">
+        <f>LEN(B29)</f>
+        <v>9</v>
+      </c>
+      <c r="E29" s="1" t="str">
+        <f>"| [![" &amp; A29 &amp; "](/doc/img/app/sml/" &amp; A29 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A29 &amp; "/en-uk-o13-ee-" &amp; A29 &amp; "-guides.md ""Goto " &amp; B29 &amp; " guides \[" &amp; A29 &amp; "]"" ) | [" &amp; B29 &amp; "](/en-uk/o13/ee/"&amp;A29&amp;"/en-uk-o13-ee-" &amp; A29 &amp; "-guides.md)"</f>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" ) | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)</v>
+      </c>
+      <c r="F29" s="1" t="str">
+        <f>LEFT(E29,106+D29) &amp; REPT(" ",maxlen-D29) &amp; MID(E29,107+D29,200)&amp;REPT(" ",maxlen-D29+1) &amp;"|"</f>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" )          | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" t="str">
+        <f>B30</f>
+        <v>eSignature</v>
+      </c>
+      <c r="D30">
+        <f>LEN(B30)</f>
+        <v>10</v>
+      </c>
+      <c r="E30" s="1" t="str">
+        <f>"| [![" &amp; A30 &amp; "](/doc/img/app/sml/" &amp; A30 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A30 &amp; "/en-uk-o13-ee-" &amp; A30 &amp; "-guides.md ""Goto " &amp; B30 &amp; " guides \[" &amp; A30 &amp; "]"" ) | [" &amp; B30 &amp; "](/en-uk/o13/ee/"&amp;A30&amp;"/en-uk-o13-ee-" &amp; A30 &amp; "-guides.md)"</f>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" ) | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)</v>
+      </c>
+      <c r="F30" s="1" t="str">
+        <f>LEFT(E30,106+D30) &amp; REPT(" ",maxlen-D30) &amp; MID(E30,107+D30,200)&amp;REPT(" ",maxlen-D30+1) &amp;"|"</f>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" )         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" t="str">
+        <f>B31</f>
+        <v>Events</v>
+      </c>
+      <c r="D31">
+        <f>LEN(B31)</f>
+        <v>6</v>
+      </c>
+      <c r="E31" s="1" t="str">
+        <f>"| [![" &amp; A31 &amp; "](/doc/img/app/sml/" &amp; A31 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A31 &amp; "/en-uk-o13-ee-" &amp; A31 &amp; "-guides.md ""Goto " &amp; B31 &amp; " guides \[" &amp; A31 &amp; "]"" ) | [" &amp; B31 &amp; "](/en-uk/o13/ee/"&amp;A31&amp;"/en-uk-o13-ee-" &amp; A31 &amp; "-guides.md)"</f>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" ) | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)</v>
+      </c>
+      <c r="F31" s="1" t="str">
+        <f>LEFT(E31,106+D31) &amp; REPT(" ",maxlen-D31) &amp; MID(E31,107+D31,200)&amp;REPT(" ",maxlen-D31+1) &amp;"|"</f>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" )             | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)             |</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" t="str">
+        <f>B32</f>
+        <v>Expenses</v>
+      </c>
+      <c r="D32">
+        <f>LEN(B32)</f>
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f>"| [![" &amp; A32 &amp; "](/doc/img/app/sml/" &amp; A32 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A32 &amp; "/en-uk-o13-ee-" &amp; A32 &amp; "-guides.md ""Goto " &amp; B32 &amp; " guides \[" &amp; A32 &amp; "]"" ) | [" &amp; B32 &amp; "](/en-uk/o13/ee/"&amp;A32&amp;"/en-uk-o13-ee-" &amp; A32 &amp; "-guides.md)"</f>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" ) | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f>LEFT(E32,106+D32) &amp; REPT(" ",maxlen-D32) &amp; MID(E32,107+D32,200)&amp;REPT(" ",maxlen-D32+1) &amp;"|"</f>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" )           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>201</v>
+      </c>
+      <c r="C33" t="str">
+        <f>B33</f>
+        <v>Field Service</v>
+      </c>
+      <c r="D33">
+        <f>LEN(B33)</f>
+        <v>13</v>
+      </c>
+      <c r="E33" s="1" t="str">
+        <f>"| [![" &amp; A33 &amp; "](/doc/img/app/sml/" &amp; A33 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A33 &amp; "/en-uk-o13-ee-" &amp; A33 &amp; "-guides.md ""Goto " &amp; B33 &amp; " guides \[" &amp; A33 &amp; "]"" ) | [" &amp; B33 &amp; "](/en-uk/o13/ee/"&amp;A33&amp;"/en-uk-o13-ee-" &amp; A33 &amp; "-guides.md)"</f>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" ) | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)</v>
+      </c>
+      <c r="F33" s="1" t="str">
+        <f>LEFT(E33,106+D33) &amp; REPT(" ",maxlen-D33) &amp; MID(E33,107+D33,200)&amp;REPT(" ",maxlen-D33+1) &amp;"|"</f>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" )      | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)      |</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" t="str">
+        <f>B34</f>
+        <v>Fleet</v>
+      </c>
+      <c r="D34">
+        <f>LEN(B34)</f>
+        <v>5</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f>"| [![" &amp; A34 &amp; "](/doc/img/app/sml/" &amp; A34 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A34 &amp; "/en-uk-o13-ee-" &amp; A34 &amp; "-guides.md ""Goto " &amp; B34 &amp; " guides \[" &amp; A34 &amp; "]"" ) | [" &amp; B34 &amp; "](/en-uk/o13/ee/"&amp;A34&amp;"/en-uk-o13-ee-" &amp; A34 &amp; "-guides.md)"</f>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" ) | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f>LEFT(E34,106+D34) &amp; REPT(" ",maxlen-D34) &amp; MID(E34,107+D34,200)&amp;REPT(" ",maxlen-D34+1) &amp;"|"</f>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" )              | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)              |</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>200</v>
+      </c>
+      <c r="C35" t="str">
+        <f>B35</f>
+        <v>Forum</v>
+      </c>
+      <c r="D35">
+        <f>LEN(B35)</f>
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="str">
+        <f>"| [![" &amp; A35 &amp; "](/doc/img/app/sml/" &amp; A35 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A35 &amp; "/en-uk-o13-ee-" &amp; A35 &amp; "-guides.md ""Goto " &amp; B35 &amp; " guides \[" &amp; A35 &amp; "]"" ) | [" &amp; B35 &amp; "](/en-uk/o13/ee/"&amp;A35&amp;"/en-uk-o13-ee-" &amp; A35 &amp; "-guides.md)"</f>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" ) | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)</v>
+      </c>
+      <c r="F35" s="1" t="str">
+        <f>LEFT(E35,106+D35) &amp; REPT(" ",maxlen-D35) &amp; MID(E35,107+D35,200)&amp;REPT(" ",maxlen-D35+1) &amp;"|"</f>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" )              | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)              |</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" t="s">
+        <v>240</v>
+      </c>
+      <c r="C36" t="str">
+        <f>B36</f>
+        <v>Gamification</v>
+      </c>
+      <c r="D36">
+        <f>LEN(B36)</f>
+        <v>12</v>
+      </c>
+      <c r="E36" s="1" t="str">
+        <f>"| [![" &amp; A36 &amp; "](/doc/img/app/sml/" &amp; A36 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A36 &amp; "/en-uk-o13-ee-" &amp; A36 &amp; "-guides.md ""Goto " &amp; B36 &amp; " guides \[" &amp; A36 &amp; "]"" ) | [" &amp; B36 &amp; "](/en-uk/o13/ee/"&amp;A36&amp;"/en-uk-o13-ee-" &amp; A36 &amp; "-guides.md)"</f>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" ) | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)</v>
+      </c>
+      <c r="F36" s="1" t="str">
+        <f>LEFT(E36,106+D36) &amp; REPT(" ",maxlen-D36) &amp; MID(E36,107+D36,200)&amp;REPT(" ",maxlen-D36+1) &amp;"|"</f>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" )       | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)       |</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" t="str">
+        <f>B37</f>
+        <v>Github Mail</v>
+      </c>
+      <c r="D37">
+        <f>LEN(B37)</f>
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="str">
+        <f>"| [![" &amp; A37 &amp; "](/doc/img/app/sml/" &amp; A37 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A37 &amp; "/en-uk-o13-ee-" &amp; A37 &amp; "-guides.md ""Goto " &amp; B37 &amp; " guides \[" &amp; A37 &amp; "]"" ) | [" &amp; B37 &amp; "](/en-uk/o13/ee/"&amp;A37&amp;"/en-uk-o13-ee-" &amp; A37 &amp; "-guides.md)"</f>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" ) | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)</v>
+      </c>
+      <c r="F37" s="1" t="str">
+        <f>LEFT(E37,106+D37) &amp; REPT(" ",maxlen-D37) &amp; MID(E37,107+D37,200)&amp;REPT(" ",maxlen-D37+1) &amp;"|"</f>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" )        | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)        |</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C38" t="str">
+        <f>B38</f>
+        <v>Google Calendar</v>
+      </c>
+      <c r="D38">
+        <f>LEN(B38)</f>
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="str">
+        <f>"| [![" &amp; A38 &amp; "](/doc/img/app/sml/" &amp; A38 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A38 &amp; "/en-uk-o13-ee-" &amp; A38 &amp; "-guides.md ""Goto " &amp; B38 &amp; " guides \[" &amp; A38 &amp; "]"" ) | [" &amp; B38 &amp; "](/en-uk/o13/ee/"&amp;A38&amp;"/en-uk-o13-ee-" &amp; A38 &amp; "-guides.md)"</f>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" ) | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)</v>
+      </c>
+      <c r="F38" s="1" t="str">
+        <f>LEFT(E38,106+D38) &amp; REPT(" ",maxlen-D38) &amp; MID(E38,107+D38,200)&amp;REPT(" ",maxlen-D38+1) &amp;"|"</f>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" )    | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)    |</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
+        <v>242</v>
+      </c>
+      <c r="C39" t="str">
+        <f>B39</f>
+        <v>Google Drive</v>
+      </c>
+      <c r="D39">
+        <f>LEN(B39)</f>
+        <v>12</v>
+      </c>
+      <c r="E39" s="1" t="str">
+        <f>"| [![" &amp; A39 &amp; "](/doc/img/app/sml/" &amp; A39 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A39 &amp; "/en-uk-o13-ee-" &amp; A39 &amp; "-guides.md ""Goto " &amp; B39 &amp; " guides \[" &amp; A39 &amp; "]"" ) | [" &amp; B39 &amp; "](/en-uk/o13/ee/"&amp;A39&amp;"/en-uk-o13-ee-" &amp; A39 &amp; "-guides.md)"</f>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" ) | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)</v>
+      </c>
+      <c r="F39" s="1" t="str">
+        <f>LEFT(E39,106+D39) &amp; REPT(" ",maxlen-D39) &amp; MID(E39,107+D39,200)&amp;REPT(" ",maxlen-D39+1) &amp;"|"</f>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" )       | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)       |</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>202</v>
+      </c>
+      <c r="C40" t="str">
+        <f>B40</f>
+        <v>Helpdesk</v>
+      </c>
+      <c r="D40">
+        <f>LEN(B40)</f>
+        <v>8</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f>"| [![" &amp; A40 &amp; "](/doc/img/app/sml/" &amp; A40 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A40 &amp; "/en-uk-o13-ee-" &amp; A40 &amp; "-guides.md ""Goto " &amp; B40 &amp; " guides \[" &amp; A40 &amp; "]"" ) | [" &amp; B40 &amp; "](/en-uk/o13/ee/"&amp;A40&amp;"/en-uk-o13-ee-" &amp; A40 &amp; "-guides.md)"</f>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" ) | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f>LEFT(E40,106+D40) &amp; REPT(" ",maxlen-D40) &amp; MID(E40,107+D40,200)&amp;REPT(" ",maxlen-D40+1) &amp;"|"</f>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" )           | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>244</v>
+      </c>
+      <c r="C41" t="str">
+        <f>B41</f>
+        <v>Holidays</v>
+      </c>
+      <c r="D41">
+        <f>LEN(B41)</f>
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="str">
+        <f>"| [![" &amp; A41 &amp; "](/doc/img/app/sml/" &amp; A41 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A41 &amp; "/en-uk-o13-ee-" &amp; A41 &amp; "-guides.md ""Goto " &amp; B41 &amp; " guides \[" &amp; A41 &amp; "]"" ) | [" &amp; B41 &amp; "](/en-uk/o13/ee/"&amp;A41&amp;"/en-uk-o13-ee-" &amp; A41 &amp; "-guides.md)"</f>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" ) | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)</v>
+      </c>
+      <c r="F41" s="1" t="str">
+        <f>LEFT(E41,106+D41) &amp; REPT(" ",maxlen-D41) &amp; MID(E41,107+D41,200)&amp;REPT(" ",maxlen-D41+1) &amp;"|"</f>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" )           | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" t="str">
+        <f>B42</f>
+        <v>Internet of Things</v>
+      </c>
+      <c r="D42">
+        <f>LEN(B42)</f>
+        <v>18</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f>"| [![" &amp; A42 &amp; "](/doc/img/app/sml/" &amp; A42 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A42 &amp; "/en-uk-o13-ee-" &amp; A42 &amp; "-guides.md ""Goto " &amp; B42 &amp; " guides \[" &amp; A42 &amp; "]"" ) | [" &amp; B42 &amp; "](/en-uk/o13/ee/"&amp;A42&amp;"/en-uk-o13-ee-" &amp; A42 &amp; "-guides.md)"</f>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md)</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f>LEFT(E42,106+D42) &amp; REPT(" ",maxlen-D42) &amp; MID(E42,107+D42,200)&amp;REPT(" ",maxlen-D42+1) &amp;"|"</f>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md) |</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" t="str">
+        <f>B43</f>
+        <v>Inventory</v>
+      </c>
+      <c r="D43">
+        <f>LEN(B43)</f>
+        <v>9</v>
+      </c>
+      <c r="E43" s="1" t="str">
+        <f>"| [![" &amp; A43 &amp; "](/doc/img/app/sml/" &amp; A43 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A43 &amp; "/en-uk-o13-ee-" &amp; A43 &amp; "-guides.md ""Goto " &amp; B43 &amp; " guides \[" &amp; A43 &amp; "]"" ) | [" &amp; B43 &amp; "](/en-uk/o13/ee/"&amp;A43&amp;"/en-uk-o13-ee-" &amp; A43 &amp; "-guides.md)"</f>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" ) | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)</v>
+      </c>
+      <c r="F43" s="1" t="str">
+        <f>LEFT(E43,106+D43) &amp; REPT(" ",maxlen-D43) &amp; MID(E43,107+D43,200)&amp;REPT(" ",maxlen-D43+1) &amp;"|"</f>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" )          | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" t="str">
+        <f>B44</f>
+        <v>Invoicing</v>
+      </c>
+      <c r="D44">
+        <f>LEN(B44)</f>
+        <v>9</v>
+      </c>
+      <c r="E44" s="1" t="str">
+        <f>"| [![" &amp; A44 &amp; "](/doc/img/app/sml/" &amp; A44 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A44 &amp; "/en-uk-o13-ee-" &amp; A44 &amp; "-guides.md ""Goto " &amp; B44 &amp; " guides \[" &amp; A44 &amp; "]"" ) | [" &amp; B44 &amp; "](/en-uk/o13/ee/"&amp;A44&amp;"/en-uk-o13-ee-" &amp; A44 &amp; "-guides.md)"</f>
+        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" ) | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)</v>
+      </c>
+      <c r="F44" s="1" t="str">
+        <f>LEFT(E44,106+D44) &amp; REPT(" ",maxlen-D44) &amp; MID(E44,107+D44,200)&amp;REPT(" ",maxlen-D44+1) &amp;"|"</f>
+        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" )          | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" t="s">
+        <v>206</v>
+      </c>
+      <c r="C45" t="str">
+        <f>B45</f>
+        <v>Live Chat</v>
+      </c>
+      <c r="D45">
+        <f>LEN(B45)</f>
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="str">
+        <f>"| [![" &amp; A45 &amp; "](/doc/img/app/sml/" &amp; A45 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A45 &amp; "/en-uk-o13-ee-" &amp; A45 &amp; "-guides.md ""Goto " &amp; B45 &amp; " guides \[" &amp; A45 &amp; "]"" ) | [" &amp; B45 &amp; "](/en-uk/o13/ee/"&amp;A45&amp;"/en-uk-o13-ee-" &amp; A45 &amp; "-guides.md)"</f>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" ) | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)</v>
+      </c>
+      <c r="F45" s="1" t="str">
+        <f>LEFT(E45,106+D45) &amp; REPT(" ",maxlen-D45) &amp; MID(E45,107+D45,200)&amp;REPT(" ",maxlen-D45+1) &amp;"|"</f>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" )          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" t="str">
+        <f>B46</f>
+        <v>Lunch</v>
+      </c>
+      <c r="D46">
+        <f>LEN(B46)</f>
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="str">
+        <f>"| [![" &amp; A46 &amp; "](/doc/img/app/sml/" &amp; A46 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A46 &amp; "/en-uk-o13-ee-" &amp; A46 &amp; "-guides.md ""Goto " &amp; B46 &amp; " guides \[" &amp; A46 &amp; "]"" ) | [" &amp; B46 &amp; "](/en-uk/o13/ee/"&amp;A46&amp;"/en-uk-o13-ee-" &amp; A46 &amp; "-guides.md)"</f>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" ) | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)</v>
+      </c>
+      <c r="F46" s="1" t="str">
+        <f>LEFT(E46,106+D46) &amp; REPT(" ",maxlen-D46) &amp; MID(E46,107+D46,200)&amp;REPT(" ",maxlen-D46+1) &amp;"|"</f>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" )              | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)              |</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" t="str">
+        <f>B47</f>
+        <v>Mail Push</v>
+      </c>
+      <c r="D47">
+        <f>LEN(B47)</f>
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="str">
+        <f>"| [![" &amp; A47 &amp; "](/doc/img/app/sml/" &amp; A47 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A47 &amp; "/en-uk-o13-ee-" &amp; A47 &amp; "-guides.md ""Goto " &amp; B47 &amp; " guides \[" &amp; A47 &amp; "]"" ) | [" &amp; B47 &amp; "](/en-uk/o13/ee/"&amp;A47&amp;"/en-uk-o13-ee-" &amp; A47 &amp; "-guides.md)"</f>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" ) | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)</v>
+      </c>
+      <c r="F47" s="1" t="str">
+        <f>LEFT(E47,106+D47) &amp; REPT(" ",maxlen-D47) &amp; MID(E47,107+D47,200)&amp;REPT(" ",maxlen-D47+1) &amp;"|"</f>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" )          | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B48" t="s">
+        <v>208</v>
+      </c>
+      <c r="C48" t="str">
+        <f>B48</f>
+        <v>Maintenance</v>
+      </c>
+      <c r="D48">
+        <f>LEN(B48)</f>
+        <v>11</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f>"| [![" &amp; A48 &amp; "](/doc/img/app/sml/" &amp; A48 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A48 &amp; "/en-uk-o13-ee-" &amp; A48 &amp; "-guides.md ""Goto " &amp; B48 &amp; " guides \[" &amp; A48 &amp; "]"" ) | [" &amp; B48 &amp; "](/en-uk/o13/ee/"&amp;A48&amp;"/en-uk-o13-ee-" &amp; A48 &amp; "-guides.md)"</f>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" ) | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f>LEFT(E48,106+D48) &amp; REPT(" ",maxlen-D48) &amp; MID(E48,107+D48,200)&amp;REPT(" ",maxlen-D48+1) &amp;"|"</f>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" )        | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)        |</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" t="str">
+        <f>B49</f>
+        <v>Marketing Auto</v>
+      </c>
+      <c r="D49">
+        <f>LEN(B49)</f>
+        <v>14</v>
+      </c>
+      <c r="E49" s="1" t="str">
+        <f>"| [![" &amp; A49 &amp; "](/doc/img/app/sml/" &amp; A49 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A49 &amp; "/en-uk-o13-ee-" &amp; A49 &amp; "-guides.md ""Goto " &amp; B49 &amp; " guides \[" &amp; A49 &amp; "]"" ) | [" &amp; B49 &amp; "](/en-uk/o13/ee/"&amp;A49&amp;"/en-uk-o13-ee-" &amp; A49 &amp; "-guides.md)"</f>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" ) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)</v>
+      </c>
+      <c r="F49" s="1" t="str">
+        <f>LEFT(E49,106+D49) &amp; REPT(" ",maxlen-D49) &amp; MID(E49,107+D49,200)&amp;REPT(" ",maxlen-D49+1) &amp;"|"</f>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" )     | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)     |</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>210</v>
+      </c>
+      <c r="C50" t="str">
+        <f>B50</f>
+        <v>Mass Mail</v>
+      </c>
+      <c r="D50">
+        <f>LEN(B50)</f>
+        <v>9</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f>"| [![" &amp; A50 &amp; "](/doc/img/app/sml/" &amp; A50 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A50 &amp; "/en-uk-o13-ee-" &amp; A50 &amp; "-guides.md ""Goto " &amp; B50 &amp; " guides \[" &amp; A50 &amp; "]"" ) | [" &amp; B50 &amp; "](/en-uk/o13/ee/"&amp;A50&amp;"/en-uk-o13-ee-" &amp; A50 &amp; "-guides.md)"</f>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" ) | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f>LEFT(E50,106+D50) &amp; REPT(" ",maxlen-D50) &amp; MID(E50,107+D50,200)&amp;REPT(" ",maxlen-D50+1) &amp;"|"</f>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" )          | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" t="str">
+        <f>B51</f>
+        <v>Membership</v>
+      </c>
+      <c r="D51">
+        <f>LEN(B51)</f>
+        <v>10</v>
+      </c>
+      <c r="E51" s="1" t="str">
+        <f>"| [![" &amp; A51 &amp; "](/doc/img/app/sml/" &amp; A51 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A51 &amp; "/en-uk-o13-ee-" &amp; A51 &amp; "-guides.md ""Goto " &amp; B51 &amp; " guides \[" &amp; A51 &amp; "]"" ) | [" &amp; B51 &amp; "](/en-uk/o13/ee/"&amp;A51&amp;"/en-uk-o13-ee-" &amp; A51 &amp; "-guides.md)"</f>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" ) | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)</v>
+      </c>
+      <c r="F51" s="1" t="str">
+        <f>LEFT(E51,106+D51) &amp; REPT(" ",maxlen-D51) &amp; MID(E51,107+D51,200)&amp;REPT(" ",maxlen-D51+1) &amp;"|"</f>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" )         | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" t="str">
+        <f>B52</f>
+        <v>Modules</v>
+      </c>
+      <c r="D52">
+        <f>LEN(B52)</f>
+        <v>7</v>
+      </c>
+      <c r="E52" s="1" t="str">
+        <f>"| [![" &amp; A52 &amp; "](/doc/img/app/sml/" &amp; A52 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A52 &amp; "/en-uk-o13-ee-" &amp; A52 &amp; "-guides.md ""Goto " &amp; B52 &amp; " guides \[" &amp; A52 &amp; "]"" ) | [" &amp; B52 &amp; "](/en-uk/o13/ee/"&amp;A52&amp;"/en-uk-o13-ee-" &amp; A52 &amp; "-guides.md)"</f>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" ) | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)</v>
+      </c>
+      <c r="F52" s="1" t="str">
+        <f>LEFT(E52,106+D52) &amp; REPT(" ",maxlen-D52) &amp; MID(E52,107+D52,200)&amp;REPT(" ",maxlen-D52+1) &amp;"|"</f>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" )            | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)            |</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" t="str">
+        <f>B53</f>
+        <v>MRP</v>
+      </c>
+      <c r="D53">
+        <f>LEN(B53)</f>
+        <v>3</v>
+      </c>
+      <c r="E53" s="1" t="str">
+        <f>"| [![" &amp; A53 &amp; "](/doc/img/app/sml/" &amp; A53 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A53 &amp; "/en-uk-o13-ee-" &amp; A53 &amp; "-guides.md ""Goto " &amp; B53 &amp; " guides \[" &amp; A53 &amp; "]"" ) | [" &amp; B53 &amp; "](/en-uk/o13/ee/"&amp;A53&amp;"/en-uk-o13-ee-" &amp; A53 &amp; "-guides.md)"</f>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" ) | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)</v>
+      </c>
+      <c r="F53" s="1" t="str">
+        <f>LEFT(E53,106+D53) &amp; REPT(" ",maxlen-D53) &amp; MID(E53,107+D53,200)&amp;REPT(" ",maxlen-D53+1) &amp;"|"</f>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" )                | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)                |</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" t="str">
+        <f>B54</f>
+        <v>MRP Maintenance</v>
+      </c>
+      <c r="D54">
+        <f>LEN(B54)</f>
+        <v>15</v>
+      </c>
+      <c r="E54" s="1" t="str">
+        <f>"| [![" &amp; A54 &amp; "](/doc/img/app/sml/" &amp; A54 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A54 &amp; "/en-uk-o13-ee-" &amp; A54 &amp; "-guides.md ""Goto " &amp; B54 &amp; " guides \[" &amp; A54 &amp; "]"" ) | [" &amp; B54 &amp; "](/en-uk/o13/ee/"&amp;A54&amp;"/en-uk-o13-ee-" &amp; A54 &amp; "-guides.md)"</f>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" ) | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)</v>
+      </c>
+      <c r="F54" s="1" t="str">
+        <f>LEFT(E54,106+D54) &amp; REPT(" ",maxlen-D54) &amp; MID(E54,107+D54,200)&amp;REPT(" ",maxlen-D54+1) &amp;"|"</f>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" )    | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)    |</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C55" t="str">
+        <f>B55</f>
+        <v>Note</v>
+      </c>
+      <c r="D55">
+        <f>LEN(B55)</f>
+        <v>4</v>
+      </c>
+      <c r="E55" s="1" t="str">
+        <f>"| [![" &amp; A55 &amp; "](/doc/img/app/sml/" &amp; A55 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A55 &amp; "/en-uk-o13-ee-" &amp; A55 &amp; "-guides.md ""Goto " &amp; B55 &amp; " guides \[" &amp; A55 &amp; "]"" ) | [" &amp; B55 &amp; "](/en-uk/o13/ee/"&amp;A55&amp;"/en-uk-o13-ee-" &amp; A55 &amp; "-guides.md)"</f>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" ) | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)</v>
+      </c>
+      <c r="F55" s="1" t="str">
+        <f>LEFT(E55,106+D55) &amp; REPT(" ",maxlen-D55) &amp; MID(E55,107+D55,200)&amp;REPT(" ",maxlen-D55+1) &amp;"|"</f>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" )               | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)               |</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B56" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" t="str">
+        <f>B56</f>
+        <v>Payment</v>
+      </c>
+      <c r="D56">
+        <f>LEN(B56)</f>
+        <v>7</v>
+      </c>
+      <c r="E56" s="1" t="str">
+        <f>"| [![" &amp; A56 &amp; "](/doc/img/app/sml/" &amp; A56 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A56 &amp; "/en-uk-o13-ee-" &amp; A56 &amp; "-guides.md ""Goto " &amp; B56 &amp; " guides \[" &amp; A56 &amp; "]"" ) | [" &amp; B56 &amp; "](/en-uk/o13/ee/"&amp;A56&amp;"/en-uk-o13-ee-" &amp; A56 &amp; "-guides.md)"</f>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" ) | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)</v>
+      </c>
+      <c r="F56" s="1" t="str">
+        <f>LEFT(E56,106+D56) &amp; REPT(" ",maxlen-D56) &amp; MID(E56,107+D56,200)&amp;REPT(" ",maxlen-D56+1) &amp;"|"</f>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" )            | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)            |</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C57" t="str">
+        <f>B57</f>
+        <v>Payroll</v>
+      </c>
+      <c r="D57">
+        <f>LEN(B57)</f>
+        <v>7</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f>"| [![" &amp; A57 &amp; "](/doc/img/app/sml/" &amp; A57 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A57 &amp; "/en-uk-o13-ee-" &amp; A57 &amp; "-guides.md ""Goto " &amp; B57 &amp; " guides \[" &amp; A57 &amp; "]"" ) | [" &amp; B57 &amp; "](/en-uk/o13/ee/"&amp;A57&amp;"/en-uk-o13-ee-" &amp; A57 &amp; "-guides.md)"</f>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" ) | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f>LEFT(E57,106+D57) &amp; REPT(" ",maxlen-D57) &amp; MID(E57,107+D57,200)&amp;REPT(" ",maxlen-D57+1) &amp;"|"</f>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" )            | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)            |</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>213</v>
+      </c>
+      <c r="C58" t="str">
+        <f>B58</f>
+        <v>PLM</v>
+      </c>
+      <c r="D58">
+        <f>LEN(B58)</f>
+        <v>3</v>
+      </c>
+      <c r="E58" s="1" t="str">
+        <f>"| [![" &amp; A58 &amp; "](/doc/img/app/sml/" &amp; A58 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A58 &amp; "/en-uk-o13-ee-" &amp; A58 &amp; "-guides.md ""Goto " &amp; B58 &amp; " guides \[" &amp; A58 &amp; "]"" ) | [" &amp; B58 &amp; "](/en-uk/o13/ee/"&amp;A58&amp;"/en-uk-o13-ee-" &amp; A58 &amp; "-guides.md)"</f>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" ) | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)</v>
+      </c>
+      <c r="F58" s="1" t="str">
+        <f>LEFT(E58,106+D58) &amp; REPT(" ",maxlen-D58) &amp; MID(E58,107+D58,200)&amp;REPT(" ",maxlen-D58+1) &amp;"|"</f>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" )                | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)                |</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" t="str">
+        <f>B59</f>
+        <v>Point of Sale</v>
+      </c>
+      <c r="D59">
+        <f>LEN(B59)</f>
+        <v>13</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f>"| [![" &amp; A59 &amp; "](/doc/img/app/sml/" &amp; A59 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A59 &amp; "/en-uk-o13-ee-" &amp; A59 &amp; "-guides.md ""Goto " &amp; B59 &amp; " guides \[" &amp; A59 &amp; "]"" ) | [" &amp; B59 &amp; "](/en-uk/o13/ee/"&amp;A59&amp;"/en-uk-o13-ee-" &amp; A59 &amp; "-guides.md)"</f>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" ) | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f>LEFT(E59,106+D59) &amp; REPT(" ",maxlen-D59) &amp; MID(E59,107+D59,200)&amp;REPT(" ",maxlen-D59+1) &amp;"|"</f>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" )      | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)      |</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" t="str">
+        <f>B60</f>
+        <v>Presence</v>
+      </c>
+      <c r="D60">
+        <f>LEN(B60)</f>
+        <v>8</v>
+      </c>
+      <c r="E60" s="1" t="str">
+        <f>"| [![" &amp; A60 &amp; "](/doc/img/app/sml/" &amp; A60 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A60 &amp; "/en-uk-o13-ee-" &amp; A60 &amp; "-guides.md ""Goto " &amp; B60 &amp; " guides \[" &amp; A60 &amp; "]"" ) | [" &amp; B60 &amp; "](/en-uk/o13/ee/"&amp;A60&amp;"/en-uk-o13-ee-" &amp; A60 &amp; "-guides.md)"</f>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" ) | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)</v>
+      </c>
+      <c r="F60" s="1" t="str">
+        <f>LEFT(E60,106+D60) &amp; REPT(" ",maxlen-D60) &amp; MID(E60,107+D60,200)&amp;REPT(" ",maxlen-D60+1) &amp;"|"</f>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" )           | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" t="str">
+        <f>B61</f>
+        <v>Project Forecast</v>
+      </c>
+      <c r="D61">
+        <f>LEN(B61)</f>
+        <v>16</v>
+      </c>
+      <c r="E61" s="1" t="str">
+        <f>"| [![" &amp; A61 &amp; "](/doc/img/app/sml/" &amp; A61 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A61 &amp; "/en-uk-o13-ee-" &amp; A61 &amp; "-guides.md ""Goto " &amp; B61 &amp; " guides \[" &amp; A61 &amp; "]"" ) | [" &amp; B61 &amp; "](/en-uk/o13/ee/"&amp;A61&amp;"/en-uk-o13-ee-" &amp; A61 &amp; "-guides.md)"</f>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" ) | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)</v>
+      </c>
+      <c r="F61" s="1" t="str">
+        <f>LEFT(E61,106+D61) &amp; REPT(" ",maxlen-D61) &amp; MID(E61,107+D61,200)&amp;REPT(" ",maxlen-D61+1) &amp;"|"</f>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" )   | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)   |</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>113</v>
+      </c>
+      <c r="B62" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" t="str">
+        <f>B62</f>
+        <v>Projects</v>
+      </c>
+      <c r="D62">
+        <f>LEN(B62)</f>
+        <v>8</v>
+      </c>
+      <c r="E62" s="1" t="str">
+        <f>"| [![" &amp; A62 &amp; "](/doc/img/app/sml/" &amp; A62 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A62 &amp; "/en-uk-o13-ee-" &amp; A62 &amp; "-guides.md ""Goto " &amp; B62 &amp; " guides \[" &amp; A62 &amp; "]"" ) | [" &amp; B62 &amp; "](/en-uk/o13/ee/"&amp;A62&amp;"/en-uk-o13-ee-" &amp; A62 &amp; "-guides.md)"</f>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" ) | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)</v>
+      </c>
+      <c r="F62" s="1" t="str">
+        <f>LEFT(E62,106+D62) &amp; REPT(" ",maxlen-D62) &amp; MID(E62,107+D62,200)&amp;REPT(" ",maxlen-D62+1) &amp;"|"</f>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" )           | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" t="str">
+        <f>B63</f>
+        <v>Purchasing</v>
+      </c>
+      <c r="D63">
+        <f>LEN(B63)</f>
+        <v>10</v>
+      </c>
+      <c r="E63" s="1" t="str">
+        <f>"| [![" &amp; A63 &amp; "](/doc/img/app/sml/" &amp; A63 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A63 &amp; "/en-uk-o13-ee-" &amp; A63 &amp; "-guides.md ""Goto " &amp; B63 &amp; " guides \[" &amp; A63 &amp; "]"" ) | [" &amp; B63 &amp; "](/en-uk/o13/ee/"&amp;A63&amp;"/en-uk-o13-ee-" &amp; A63 &amp; "-guides.md)"</f>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" ) | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)</v>
+      </c>
+      <c r="F63" s="1" t="str">
+        <f>LEFT(E63,106+D63) &amp; REPT(" ",maxlen-D63) &amp; MID(E63,107+D63,200)&amp;REPT(" ",maxlen-D63+1) &amp;"|"</f>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" )         | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" t="s">
+        <v>252</v>
+      </c>
+      <c r="C64" t="str">
+        <f>B64</f>
+        <v>Quality Control</v>
+      </c>
+      <c r="D64">
+        <f>LEN(B64)</f>
+        <v>15</v>
+      </c>
+      <c r="E64" s="1" t="str">
+        <f>"| [![" &amp; A64 &amp; "](/doc/img/app/sml/" &amp; A64 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A64 &amp; "/en-uk-o13-ee-" &amp; A64 &amp; "-guides.md ""Goto " &amp; B64 &amp; " guides \[" &amp; A64 &amp; "]"" ) | [" &amp; B64 &amp; "](/en-uk/o13/ee/"&amp;A64&amp;"/en-uk-o13-ee-" &amp; A64 &amp; "-guides.md)"</f>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" ) | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)</v>
+      </c>
+      <c r="F64" s="1" t="str">
+        <f>LEFT(E64,106+D64) &amp; REPT(" ",maxlen-D64) &amp; MID(E64,107+D64,200)&amp;REPT(" ",maxlen-D64+1) &amp;"|"</f>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" )    | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)    |</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B65" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" t="str">
+        <f>B65</f>
+        <v>Recruitment</v>
+      </c>
+      <c r="D65">
+        <f>LEN(B65)</f>
+        <v>11</v>
+      </c>
+      <c r="E65" s="1" t="str">
+        <f>"| [![" &amp; A65 &amp; "](/doc/img/app/sml/" &amp; A65 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A65 &amp; "/en-uk-o13-ee-" &amp; A65 &amp; "-guides.md ""Goto " &amp; B65 &amp; " guides \[" &amp; A65 &amp; "]"" ) | [" &amp; B65 &amp; "](/en-uk/o13/ee/"&amp;A65&amp;"/en-uk-o13-ee-" &amp; A65 &amp; "-guides.md)"</f>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" ) | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)</v>
+      </c>
+      <c r="F65" s="1" t="str">
+        <f>LEFT(E65,106+D65) &amp; REPT(" ",maxlen-D65) &amp; MID(E65,107+D65,200)&amp;REPT(" ",maxlen-D65+1) &amp;"|"</f>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" )        | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)        |</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" t="str">
+        <f>B66</f>
+        <v>Rental</v>
+      </c>
+      <c r="D66">
+        <f>LEN(B66)</f>
+        <v>6</v>
+      </c>
+      <c r="E66" s="1" t="str">
+        <f>"| [![" &amp; A66 &amp; "](/doc/img/app/sml/" &amp; A66 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A66 &amp; "/en-uk-o13-ee-" &amp; A66 &amp; "-guides.md ""Goto " &amp; B66 &amp; " guides \[" &amp; A66 &amp; "]"" ) | [" &amp; B66 &amp; "](/en-uk/o13/ee/"&amp;A66&amp;"/en-uk-o13-ee-" &amp; A66 &amp; "-guides.md)"</f>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" ) | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)</v>
+      </c>
+      <c r="F66" s="1" t="str">
+        <f>LEFT(E66,106+D66) &amp; REPT(" ",maxlen-D66) &amp; MID(E66,107+D66,200)&amp;REPT(" ",maxlen-D66+1) &amp;"|"</f>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" )             | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)             |</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" t="s">
+        <v>253</v>
+      </c>
+      <c r="C67" t="str">
+        <f>B67</f>
+        <v>Repair</v>
+      </c>
+      <c r="D67">
+        <f>LEN(B67)</f>
+        <v>6</v>
+      </c>
+      <c r="E67" s="1" t="str">
+        <f>"| [![" &amp; A67 &amp; "](/doc/img/app/sml/" &amp; A67 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A67 &amp; "/en-uk-o13-ee-" &amp; A67 &amp; "-guides.md ""Goto " &amp; B67 &amp; " guides \[" &amp; A67 &amp; "]"" ) | [" &amp; B67 &amp; "](/en-uk/o13/ee/"&amp;A67&amp;"/en-uk-o13-ee-" &amp; A67 &amp; "-guides.md)"</f>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" ) | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)</v>
+      </c>
+      <c r="F67" s="1" t="str">
+        <f>LEFT(E67,106+D67) &amp; REPT(" ",maxlen-D67) &amp; MID(E67,107+D67,200)&amp;REPT(" ",maxlen-D67+1) &amp;"|"</f>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" )             | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)             |</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" t="str">
+        <f>B68</f>
+        <v>S€PA</v>
+      </c>
+      <c r="D68">
+        <f>LEN(B68)</f>
+        <v>4</v>
+      </c>
+      <c r="E68" s="1" t="str">
+        <f>"| [![" &amp; A68 &amp; "](/doc/img/app/sml/" &amp; A68 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A68 &amp; "/en-uk-o13-ee-" &amp; A68 &amp; "-guides.md ""Goto " &amp; B68 &amp; " guides \[" &amp; A68 &amp; "]"" ) | [" &amp; B68 &amp; "](/en-uk/o13/ee/"&amp;A68&amp;"/en-uk-o13-ee-" &amp; A68 &amp; "-guides.md)"</f>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" ) | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)</v>
+      </c>
+      <c r="F68" s="1" t="str">
+        <f>LEFT(E68,106+D68) &amp; REPT(" ",maxlen-D68) &amp; MID(E68,107+D68,200)&amp;REPT(" ",maxlen-D68+1) &amp;"|"</f>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" )               | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)               |</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" t="str">
+        <f>B69</f>
+        <v>Sale Management</v>
+      </c>
+      <c r="D69">
+        <f>LEN(B69)</f>
+        <v>15</v>
+      </c>
+      <c r="E69" s="1" t="str">
+        <f>"| [![" &amp; A69 &amp; "](/doc/img/app/sml/" &amp; A69 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A69 &amp; "/en-uk-o13-ee-" &amp; A69 &amp; "-guides.md ""Goto " &amp; B69 &amp; " guides \[" &amp; A69 &amp; "]"" ) | [" &amp; B69 &amp; "](/en-uk/o13/ee/"&amp;A69&amp;"/en-uk-o13-ee-" &amp; A69 &amp; "-guides.md)"</f>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sale Management guides \[smg]" ) | [Sale Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)</v>
+      </c>
+      <c r="F69" s="1" t="str">
+        <f>LEFT(E69,106+D69) &amp; REPT(" ",maxlen-D69) &amp; MID(E69,107+D69,200)&amp;REPT(" ",maxlen-D69+1) &amp;"|"</f>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sale Management guides \[smg]" )    | [Sale Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)    |</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" t="str">
+        <f>B70</f>
+        <v>Sales</v>
+      </c>
+      <c r="D70">
+        <f>LEN(B70)</f>
+        <v>5</v>
+      </c>
+      <c r="E70" s="1" t="str">
+        <f>"| [![" &amp; A70 &amp; "](/doc/img/app/sml/" &amp; A70 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A70 &amp; "/en-uk-o13-ee-" &amp; A70 &amp; "-guides.md ""Goto " &amp; B70 &amp; " guides \[" &amp; A70 &amp; "]"" ) | [" &amp; B70 &amp; "](/en-uk/o13/ee/"&amp;A70&amp;"/en-uk-o13-ee-" &amp; A70 &amp; "-guides.md)"</f>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" ) | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)</v>
+      </c>
+      <c r="F70" s="1" t="str">
+        <f>LEFT(E70,106+D70) &amp; REPT(" ",maxlen-D70) &amp; MID(E70,107+D70,200)&amp;REPT(" ",maxlen-D70+1) &amp;"|"</f>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" )              | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)              |</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" t="str">
+        <f>B71</f>
+        <v>Settings</v>
+      </c>
+      <c r="D71">
+        <f>LEN(B71)</f>
+        <v>8</v>
+      </c>
+      <c r="E71" s="1" t="str">
+        <f>"| [![" &amp; A71 &amp; "](/doc/img/app/sml/" &amp; A71 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A71 &amp; "/en-uk-o13-ee-" &amp; A71 &amp; "-guides.md ""Goto " &amp; B71 &amp; " guides \[" &amp; A71 &amp; "]"" ) | [" &amp; B71 &amp; "](/en-uk/o13/ee/"&amp;A71&amp;"/en-uk-o13-ee-" &amp; A71 &amp; "-guides.md)"</f>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" ) | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)</v>
+      </c>
+      <c r="F71" s="1" t="str">
+        <f>LEFT(E71,106+D71) &amp; REPT(" ",maxlen-D71) &amp; MID(E71,107+D71,200)&amp;REPT(" ",maxlen-D71+1) &amp;"|"</f>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" )           | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" t="str">
+        <f>B72</f>
+        <v>Skills</v>
+      </c>
+      <c r="D72">
+        <f>LEN(B72)</f>
+        <v>6</v>
+      </c>
+      <c r="E72" s="1" t="str">
+        <f>"| [![" &amp; A72 &amp; "](/doc/img/app/sml/" &amp; A72 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A72 &amp; "/en-uk-o13-ee-" &amp; A72 &amp; "-guides.md ""Goto " &amp; B72 &amp; " guides \[" &amp; A72 &amp; "]"" ) | [" &amp; B72 &amp; "](/en-uk/o13/ee/"&amp;A72&amp;"/en-uk-o13-ee-" &amp; A72 &amp; "-guides.md)"</f>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" ) | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)</v>
+      </c>
+      <c r="F72" s="1" t="str">
+        <f>LEFT(E72,106+D72) &amp; REPT(" ",maxlen-D72) &amp; MID(E72,107+D72,200)&amp;REPT(" ",maxlen-D72+1) &amp;"|"</f>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" )             | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)             |</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" t="str">
+        <f>B73</f>
+        <v>Slides</v>
+      </c>
+      <c r="D73">
+        <f>LEN(B73)</f>
+        <v>6</v>
+      </c>
+      <c r="E73" s="1" t="str">
+        <f>"| [![" &amp; A73 &amp; "](/doc/img/app/sml/" &amp; A73 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A73 &amp; "/en-uk-o13-ee-" &amp; A73 &amp; "-guides.md ""Goto " &amp; B73 &amp; " guides \[" &amp; A73 &amp; "]"" ) | [" &amp; B73 &amp; "](/en-uk/o13/ee/"&amp;A73&amp;"/en-uk-o13-ee-" &amp; A73 &amp; "-guides.md)"</f>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" ) | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)</v>
+      </c>
+      <c r="F73" s="1" t="str">
+        <f>LEFT(E73,106+D73) &amp; REPT(" ",maxlen-D73) &amp; MID(E73,107+D73,200)&amp;REPT(" ",maxlen-D73+1) &amp;"|"</f>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" )             | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)             |</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" t="str">
+        <f>B74</f>
+        <v>Subscriptions</v>
+      </c>
+      <c r="D74">
+        <f>LEN(B74)</f>
+        <v>13</v>
+      </c>
+      <c r="E74" s="1" t="str">
+        <f>"| [![" &amp; A74 &amp; "](/doc/img/app/sml/" &amp; A74 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A74 &amp; "/en-uk-o13-ee-" &amp; A74 &amp; "-guides.md ""Goto " &amp; B74 &amp; " guides \[" &amp; A74 &amp; "]"" ) | [" &amp; B74 &amp; "](/en-uk/o13/ee/"&amp;A74&amp;"/en-uk-o13-ee-" &amp; A74 &amp; "-guides.md)"</f>
+        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" ) | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)</v>
+      </c>
+      <c r="F74" s="1" t="str">
+        <f>LEFT(E74,106+D74) &amp; REPT(" ",maxlen-D74) &amp; MID(E74,107+D74,200)&amp;REPT(" ",maxlen-D74+1) &amp;"|"</f>
+        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" )      | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)      |</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" t="str">
+        <f>B75</f>
+        <v>Surveys</v>
+      </c>
+      <c r="D75">
+        <f>LEN(B75)</f>
+        <v>7</v>
+      </c>
+      <c r="E75" s="1" t="str">
+        <f>"| [![" &amp; A75 &amp; "](/doc/img/app/sml/" &amp; A75 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A75 &amp; "/en-uk-o13-ee-" &amp; A75 &amp; "-guides.md ""Goto " &amp; B75 &amp; " guides \[" &amp; A75 &amp; "]"" ) | [" &amp; B75 &amp; "](/en-uk/o13/ee/"&amp;A75&amp;"/en-uk-o13-ee-" &amp; A75 &amp; "-guides.md)"</f>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" ) | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)</v>
+      </c>
+      <c r="F75" s="1" t="str">
+        <f>LEFT(E75,106+D75) &amp; REPT(" ",maxlen-D75) &amp; MID(E75,107+D75,200)&amp;REPT(" ",maxlen-D75+1) &amp;"|"</f>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" )            | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)            |</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" t="str">
+        <f>B76</f>
+        <v>Time Off</v>
+      </c>
+      <c r="D76">
+        <f>LEN(B76)</f>
+        <v>8</v>
+      </c>
+      <c r="E76" s="1" t="str">
+        <f>"| [![" &amp; A76 &amp; "](/doc/img/app/sml/" &amp; A76 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A76 &amp; "/en-uk-o13-ee-" &amp; A76 &amp; "-guides.md ""Goto " &amp; B76 &amp; " guides \[" &amp; A76 &amp; "]"" ) | [" &amp; B76 &amp; "](/en-uk/o13/ee/"&amp;A76&amp;"/en-uk-o13-ee-" &amp; A76 &amp; "-guides.md)"</f>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" ) | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)</v>
+      </c>
+      <c r="F76" s="1" t="str">
+        <f>LEFT(E76,106+D76) &amp; REPT(" ",maxlen-D76) &amp; MID(E76,107+D76,200)&amp;REPT(" ",maxlen-D76+1) &amp;"|"</f>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" )           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" t="str">
+        <f>B77</f>
+        <v>Timesheet</v>
+      </c>
+      <c r="D77">
+        <f>LEN(B77)</f>
+        <v>9</v>
+      </c>
+      <c r="E77" s="1" t="str">
+        <f>"| [![" &amp; A77 &amp; "](/doc/img/app/sml/" &amp; A77 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A77 &amp; "/en-uk-o13-ee-" &amp; A77 &amp; "-guides.md ""Goto " &amp; B77 &amp; " guides \[" &amp; A77 &amp; "]"" ) | [" &amp; B77 &amp; "](/en-uk/o13/ee/"&amp;A77&amp;"/en-uk-o13-ee-" &amp; A77 &amp; "-guides.md)"</f>
+        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" ) | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)</v>
+      </c>
+      <c r="F77" s="1" t="str">
+        <f>LEFT(E77,106+D77) &amp; REPT(" ",maxlen-D77) &amp; MID(E77,107+D77,200)&amp;REPT(" ",maxlen-D77+1) &amp;"|"</f>
+        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" )          | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s">
+        <v>257</v>
+      </c>
+      <c r="C78" t="str">
+        <f>B78</f>
+        <v>Voice IP</v>
+      </c>
+      <c r="D78">
+        <f>LEN(B78)</f>
+        <v>8</v>
+      </c>
+      <c r="E78" s="1" t="str">
+        <f>"| [![" &amp; A78 &amp; "](/doc/img/app/sml/" &amp; A78 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A78 &amp; "/en-uk-o13-ee-" &amp; A78 &amp; "-guides.md ""Goto " &amp; B78 &amp; " guides \[" &amp; A78 &amp; "]"" ) | [" &amp; B78 &amp; "](/en-uk/o13/ee/"&amp;A78&amp;"/en-uk-o13-ee-" &amp; A78 &amp; "-guides.md)"</f>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" ) | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)</v>
+      </c>
+      <c r="F78" s="1" t="str">
+        <f>LEFT(E78,106+D78) &amp; REPT(" ",maxlen-D78) &amp; MID(E78,107+D78,200)&amp;REPT(" ",maxlen-D78+1) &amp;"|"</f>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" )           | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>126</v>
+      </c>
+      <c r="B79" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" t="str">
+        <f>B79</f>
+        <v>Websites</v>
+      </c>
+      <c r="D79">
+        <f>LEN(B79)</f>
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="str">
+        <f>"| [![" &amp; A79 &amp; "](/doc/img/app/sml/" &amp; A79 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A79 &amp; "/en-uk-o13-ee-" &amp; A79 &amp; "-guides.md ""Goto " &amp; B79 &amp; " guides \[" &amp; A79 &amp; "]"" ) | [" &amp; B79 &amp; "](/en-uk/o13/ee/"&amp;A79&amp;"/en-uk-o13-ee-" &amp; A79 &amp; "-guides.md)"</f>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" ) | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)</v>
+      </c>
+      <c r="F79" s="1" t="str">
+        <f>LEFT(E79,106+D79) &amp; REPT(" ",maxlen-D79) &amp; MID(E79,107+D79,200)&amp;REPT(" ",maxlen-D79+1) &amp;"|"</f>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" )           | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>259</v>
+      </c>
+      <c r="C80" t="str">
+        <f>B80</f>
+        <v>Ws Calendar</v>
+      </c>
+      <c r="D80">
+        <f>LEN(B80)</f>
+        <v>11</v>
+      </c>
+      <c r="E80" s="1" t="str">
+        <f>"| [![" &amp; A80 &amp; "](/doc/img/app/sml/" &amp; A80 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A80 &amp; "/en-uk-o13-ee-" &amp; A80 &amp; "-guides.md ""Goto " &amp; B80 &amp; " guides \[" &amp; A80 &amp; "]"" ) | [" &amp; B80 &amp; "](/en-uk/o13/ee/"&amp;A80&amp;"/en-uk-o13-ee-" &amp; A80 &amp; "-guides.md)"</f>
+        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" ) | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)</v>
+      </c>
+      <c r="F80" s="1" t="str">
+        <f>LEFT(E80,106+D80) &amp; REPT(" ",maxlen-D80) &amp; MID(E80,107+D80,200)&amp;REPT(" ",maxlen-D80+1) &amp;"|"</f>
+        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" )        | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)        |</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" t="s">
+        <v>260</v>
+      </c>
+      <c r="C81" t="str">
+        <f>B81</f>
+        <v>Ws CRM</v>
+      </c>
+      <c r="D81">
+        <f>LEN(B81)</f>
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="str">
+        <f>"| [![" &amp; A81 &amp; "](/doc/img/app/sml/" &amp; A81 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A81 &amp; "/en-uk-o13-ee-" &amp; A81 &amp; "-guides.md ""Goto " &amp; B81 &amp; " guides \[" &amp; A81 &amp; "]"" ) | [" &amp; B81 &amp; "](/en-uk/o13/ee/"&amp;A81&amp;"/en-uk-o13-ee-" &amp; A81 &amp; "-guides.md)"</f>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" ) | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)</v>
+      </c>
+      <c r="F81" s="1" t="str">
+        <f>LEFT(E81,106+D81) &amp; REPT(" ",maxlen-D81) &amp; MID(E81,107+D81,200)&amp;REPT(" ",maxlen-D81+1) &amp;"|"</f>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" )             | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)             |</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" t="s">
+        <v>275</v>
+      </c>
+      <c r="C82" t="str">
+        <f>B82</f>
+        <v>Ws CRM Partners</v>
+      </c>
+      <c r="D82">
+        <f>LEN(B82)</f>
+        <v>15</v>
+      </c>
+      <c r="E82" s="1" t="str">
+        <f>"| [![" &amp; A82 &amp; "](/doc/img/app/sml/" &amp; A82 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A82 &amp; "/en-uk-o13-ee-" &amp; A82 &amp; "-guides.md ""Goto " &amp; B82 &amp; " guides \[" &amp; A82 &amp; "]"" ) | [" &amp; B82 &amp; "](/en-uk/o13/ee/"&amp;A82&amp;"/en-uk-o13-ee-" &amp; A82 &amp; "-guides.md)"</f>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" ) | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)</v>
+      </c>
+      <c r="F82" s="1" t="str">
+        <f>LEFT(E82,106+D82) &amp; REPT(" ",maxlen-D82) &amp; MID(E82,107+D82,200)&amp;REPT(" ",maxlen-D82+1) &amp;"|"</f>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" )    | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)    |</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" t="s">
+        <v>261</v>
+      </c>
+      <c r="C83" t="str">
+        <f>B83</f>
+        <v>Ws CRM Score</v>
+      </c>
+      <c r="D83">
+        <f>LEN(B83)</f>
+        <v>12</v>
+      </c>
+      <c r="E83" s="1" t="str">
+        <f>"| [![" &amp; A83 &amp; "](/doc/img/app/sml/" &amp; A83 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A83 &amp; "/en-uk-o13-ee-" &amp; A83 &amp; "-guides.md ""Goto " &amp; B83 &amp; " guides \[" &amp; A83 &amp; "]"" ) | [" &amp; B83 &amp; "](/en-uk/o13/ee/"&amp;A83&amp;"/en-uk-o13-ee-" &amp; A83 &amp; "-guides.md)"</f>
+        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" ) | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)</v>
+      </c>
+      <c r="F83" s="1" t="str">
+        <f>LEFT(E83,106+D83) &amp; REPT(" ",maxlen-D83) &amp; MID(E83,107+D83,200)&amp;REPT(" ",maxlen-D83+1) &amp;"|"</f>
+        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" )       | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)       |</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" t="s">
+        <v>262</v>
+      </c>
+      <c r="C84" t="str">
+        <f>B84</f>
+        <v>Ws Customer</v>
+      </c>
+      <c r="D84">
+        <f>LEN(B84)</f>
+        <v>11</v>
+      </c>
+      <c r="E84" s="1" t="str">
+        <f>"| [![" &amp; A84 &amp; "](/doc/img/app/sml/" &amp; A84 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A84 &amp; "/en-uk-o13-ee-" &amp; A84 &amp; "-guides.md ""Goto " &amp; B84 &amp; " guides \[" &amp; A84 &amp; "]"" ) | [" &amp; B84 &amp; "](/en-uk/o13/ee/"&amp;A84&amp;"/en-uk-o13-ee-" &amp; A84 &amp; "-guides.md)"</f>
+        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md "Goto Ws Customer guides \[wcu]" ) | [Ws Customer](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md)</v>
+      </c>
+      <c r="F84" s="1" t="str">
+        <f>LEFT(E84,106+D84) &amp; REPT(" ",maxlen-D84) &amp; MID(E84,107+D84,200)&amp;REPT(" ",maxlen-D84+1) &amp;"|"</f>
+        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md "Goto Ws Customer guides \[wcu]" )        | [Ws Customer](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md)        |</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" t="str">
+        <f>B85</f>
+        <v>Ws Enterprise</v>
+      </c>
+      <c r="D85">
+        <f>LEN(B85)</f>
+        <v>13</v>
+      </c>
+      <c r="E85" s="1" t="str">
+        <f>"| [![" &amp; A85 &amp; "](/doc/img/app/sml/" &amp; A85 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A85 &amp; "/en-uk-o13-ee-" &amp; A85 &amp; "-guides.md ""Goto " &amp; B85 &amp; " guides \[" &amp; A85 &amp; "]"" ) | [" &amp; B85 &amp; "](/en-uk/o13/ee/"&amp;A85&amp;"/en-uk-o13-ee-" &amp; A85 &amp; "-guides.md)"</f>
+        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" ) | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)</v>
+      </c>
+      <c r="F85" s="1" t="str">
+        <f>LEFT(E85,106+D85) &amp; REPT(" ",maxlen-D85) &amp; MID(E85,107+D85,200)&amp;REPT(" ",maxlen-D85+1) &amp;"|"</f>
+        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" )      | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)      |</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>164</v>
+      </c>
+      <c r="B86" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" t="str">
+        <f>B86</f>
+        <v>Ws Event</v>
+      </c>
+      <c r="D86">
+        <f>LEN(B86)</f>
+        <v>8</v>
+      </c>
+      <c r="E86" s="1" t="str">
+        <f>"| [![" &amp; A86 &amp; "](/doc/img/app/sml/" &amp; A86 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A86 &amp; "/en-uk-o13-ee-" &amp; A86 &amp; "-guides.md ""Goto " &amp; B86 &amp; " guides \[" &amp; A86 &amp; "]"" ) | [" &amp; B86 &amp; "](/en-uk/o13/ee/"&amp;A86&amp;"/en-uk-o13-ee-" &amp; A86 &amp; "-guides.md)"</f>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" ) | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)</v>
+      </c>
+      <c r="F86" s="1" t="str">
+        <f>LEFT(E86,106+D86) &amp; REPT(" ",maxlen-D86) &amp; MID(E86,107+D86,200)&amp;REPT(" ",maxlen-D86+1) &amp;"|"</f>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" )           | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" t="s">
+        <v>264</v>
+      </c>
+      <c r="C87" t="str">
+        <f>B87</f>
+        <v>Ws Event Quest</v>
+      </c>
+      <c r="D87">
+        <f>LEN(B87)</f>
+        <v>14</v>
+      </c>
+      <c r="E87" s="1" t="str">
+        <f>"| [![" &amp; A87 &amp; "](/doc/img/app/sml/" &amp; A87 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A87 &amp; "/en-uk-o13-ee-" &amp; A87 &amp; "-guides.md ""Goto " &amp; B87 &amp; " guides \[" &amp; A87 &amp; "]"" ) | [" &amp; B87 &amp; "](/en-uk/o13/ee/"&amp;A87&amp;"/en-uk-o13-ee-" &amp; A87 &amp; "-guides.md)"</f>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" ) | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)</v>
+      </c>
+      <c r="F87" s="1" t="str">
+        <f>LEFT(E87,106+D87) &amp; REPT(" ",maxlen-D87) &amp; MID(E87,107+D87,200)&amp;REPT(" ",maxlen-D87+1) &amp;"|"</f>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" )     | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)     |</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>162</v>
+      </c>
+      <c r="B88" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" t="str">
+        <f>B88</f>
+        <v>Ws Event Sale</v>
+      </c>
+      <c r="D88">
+        <f>LEN(B88)</f>
+        <v>13</v>
+      </c>
+      <c r="E88" s="1" t="str">
+        <f>"| [![" &amp; A88 &amp; "](/doc/img/app/sml/" &amp; A88 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A88 &amp; "/en-uk-o13-ee-" &amp; A88 &amp; "-guides.md ""Goto " &amp; B88 &amp; " guides \[" &amp; A88 &amp; "]"" ) | [" &amp; B88 &amp; "](/en-uk/o13/ee/"&amp;A88&amp;"/en-uk-o13-ee-" &amp; A88 &amp; "-guides.md)"</f>
+        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" ) | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)</v>
+      </c>
+      <c r="F88" s="1" t="str">
+        <f>LEFT(E88,106+D88) &amp; REPT(" ",maxlen-D88) &amp; MID(E88,107+D88,200)&amp;REPT(" ",maxlen-D88+1) &amp;"|"</f>
+        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" )      | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)      |</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>163</v>
+      </c>
+      <c r="B89" t="s">
+        <v>266</v>
+      </c>
+      <c r="C89" t="str">
+        <f>B89</f>
+        <v>Ws Event Track</v>
+      </c>
+      <c r="D89">
+        <f>LEN(B89)</f>
+        <v>14</v>
+      </c>
+      <c r="E89" s="1" t="str">
+        <f>"| [![" &amp; A89 &amp; "](/doc/img/app/sml/" &amp; A89 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A89 &amp; "/en-uk-o13-ee-" &amp; A89 &amp; "-guides.md ""Goto " &amp; B89 &amp; " guides \[" &amp; A89 &amp; "]"" ) | [" &amp; B89 &amp; "](/en-uk/o13/ee/"&amp;A89&amp;"/en-uk-o13-ee-" &amp; A89 &amp; "-guides.md)"</f>
+        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" ) | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)</v>
+      </c>
+      <c r="F89" s="1" t="str">
+        <f>LEFT(E89,106+D89) &amp; REPT(" ",maxlen-D89) &amp; MID(E89,107+D89,200)&amp;REPT(" ",maxlen-D89+1) &amp;"|"</f>
+        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" )     | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)     |</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" t="str">
+        <f>B90</f>
+        <v>Ws Forum Doc</v>
+      </c>
+      <c r="D90">
+        <f>LEN(B90)</f>
+        <v>12</v>
+      </c>
+      <c r="E90" s="1" t="str">
+        <f>"| [![" &amp; A90 &amp; "](/doc/img/app/sml/" &amp; A90 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A90 &amp; "/en-uk-o13-ee-" &amp; A90 &amp; "-guides.md ""Goto " &amp; B90 &amp; " guides \[" &amp; A90 &amp; "]"" ) | [" &amp; B90 &amp; "](/en-uk/o13/ee/"&amp;A90&amp;"/en-uk-o13-ee-" &amp; A90 &amp; "-guides.md)"</f>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" ) | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)</v>
+      </c>
+      <c r="F90" s="1" t="str">
+        <f>LEFT(E90,106+D90) &amp; REPT(" ",maxlen-D90) &amp; MID(E90,107+D90,200)&amp;REPT(" ",maxlen-D90+1) &amp;"|"</f>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" )       | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)       |</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" t="str">
+        <f>B91</f>
+        <v>Ws Forum Editor</v>
+      </c>
+      <c r="D91">
+        <f>LEN(B91)</f>
+        <v>15</v>
+      </c>
+      <c r="E91" s="1" t="str">
+        <f>"| [![" &amp; A91 &amp; "](/doc/img/app/sml/" &amp; A91 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A91 &amp; "/en-uk-o13-ee-" &amp; A91 &amp; "-guides.md ""Goto " &amp; B91 &amp; " guides \[" &amp; A91 &amp; "]"" ) | [" &amp; B91 &amp; "](/en-uk/o13/ee/"&amp;A91&amp;"/en-uk-o13-ee-" &amp; A91 &amp; "-guides.md)"</f>
+        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" ) | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)</v>
+      </c>
+      <c r="F91" s="1" t="str">
+        <f>LEFT(E91,106+D91) &amp; REPT(" ",maxlen-D91) &amp; MID(E91,107+D91,200)&amp;REPT(" ",maxlen-D91+1) &amp;"|"</f>
+        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" )    | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)    |</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B92" t="s">
+        <v>270</v>
+      </c>
+      <c r="C92" t="str">
+        <f>B92</f>
+        <v>Ws Gengo</v>
+      </c>
+      <c r="D92">
+        <f>LEN(B92)</f>
+        <v>8</v>
+      </c>
+      <c r="E92" s="1" t="str">
+        <f>"| [![" &amp; A92 &amp; "](/doc/img/app/sml/" &amp; A92 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A92 &amp; "/en-uk-o13-ee-" &amp; A92 &amp; "-guides.md ""Goto " &amp; B92 &amp; " guides \[" &amp; A92 &amp; "]"" ) | [" &amp; B92 &amp; "](/en-uk/o13/ee/"&amp;A92&amp;"/en-uk-o13-ee-" &amp; A92 &amp; "-guides.md)"</f>
+        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" ) | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)</v>
+      </c>
+      <c r="F92" s="1" t="str">
+        <f>LEFT(E92,106+D92) &amp; REPT(" ",maxlen-D92) &amp; MID(E92,107+D92,200)&amp;REPT(" ",maxlen-D92+1) &amp;"|"</f>
+        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" )           | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" t="str">
+        <f>B93</f>
+        <v>Ws HR</v>
+      </c>
+      <c r="D93">
+        <f>LEN(B93)</f>
+        <v>5</v>
+      </c>
+      <c r="E93" s="1" t="str">
+        <f>"| [![" &amp; A93 &amp; "](/doc/img/app/sml/" &amp; A93 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A93 &amp; "/en-uk-o13-ee-" &amp; A93 &amp; "-guides.md ""Goto " &amp; B93 &amp; " guides \[" &amp; A93 &amp; "]"" ) | [" &amp; B93 &amp; "](/en-uk/o13/ee/"&amp;A93&amp;"/en-uk-o13-ee-" &amp; A93 &amp; "-guides.md)"</f>
+        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" ) | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)</v>
+      </c>
+      <c r="F93" s="1" t="str">
+        <f>LEFT(E93,106+D93) &amp; REPT(" ",maxlen-D93) &amp; MID(E93,107+D93,200)&amp;REPT(" ",maxlen-D93+1) &amp;"|"</f>
+        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" )              | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)              |</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>176</v>
+      </c>
+      <c r="B94" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" t="str">
+        <f>B94</f>
+        <v>Ws HR Recruit</v>
+      </c>
+      <c r="D94">
+        <f>LEN(B94)</f>
+        <v>13</v>
+      </c>
+      <c r="E94" s="1" t="str">
+        <f>"| [![" &amp; A94 &amp; "](/doc/img/app/sml/" &amp; A94 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A94 &amp; "/en-uk-o13-ee-" &amp; A94 &amp; "-guides.md ""Goto " &amp; B94 &amp; " guides \[" &amp; A94 &amp; "]"" ) | [" &amp; B94 &amp; "](/en-uk/o13/ee/"&amp;A94&amp;"/en-uk-o13-ee-" &amp; A94 &amp; "-guides.md)"</f>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" ) | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)</v>
+      </c>
+      <c r="F94" s="1" t="str">
+        <f>LEFT(E94,106+D94) &amp; REPT(" ",maxlen-D94) &amp; MID(E94,107+D94,200)&amp;REPT(" ",maxlen-D94+1) &amp;"|"</f>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" )      | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)      |</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" t="s">
+        <v>272</v>
+      </c>
+      <c r="C95" t="str">
+        <f>B95</f>
+        <v>Ws Live Chat</v>
+      </c>
+      <c r="D95">
+        <f>LEN(B95)</f>
+        <v>12</v>
+      </c>
+      <c r="E95" s="1" t="str">
+        <f>"| [![" &amp; A95 &amp; "](/doc/img/app/sml/" &amp; A95 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A95 &amp; "/en-uk-o13-ee-" &amp; A95 &amp; "-guides.md ""Goto " &amp; B95 &amp; " guides \[" &amp; A95 &amp; "]"" ) | [" &amp; B95 &amp; "](/en-uk/o13/ee/"&amp;A95&amp;"/en-uk-o13-ee-" &amp; A95 &amp; "-guides.md)"</f>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" ) | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)</v>
+      </c>
+      <c r="F95" s="1" t="str">
+        <f>LEFT(E95,106+D95) &amp; REPT(" ",maxlen-D95) &amp; MID(E95,107+D95,200)&amp;REPT(" ",maxlen-D95+1) &amp;"|"</f>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" )       | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)       |</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" t="s">
+        <v>273</v>
+      </c>
+      <c r="C96" t="str">
+        <f>B96</f>
+        <v>Ws Mail Channel</v>
+      </c>
+      <c r="D96">
+        <f>LEN(B96)</f>
+        <v>15</v>
+      </c>
+      <c r="E96" s="1" t="str">
+        <f>"| [![" &amp; A96 &amp; "](/doc/img/app/sml/" &amp; A96 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A96 &amp; "/en-uk-o13-ee-" &amp; A96 &amp; "-guides.md ""Goto " &amp; B96 &amp; " guides \[" &amp; A96 &amp; "]"" ) | [" &amp; B96 &amp; "](/en-uk/o13/ee/"&amp;A96&amp;"/en-uk-o13-ee-" &amp; A96 &amp; "-guides.md)"</f>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" ) | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)</v>
+      </c>
+      <c r="F96" s="1" t="str">
+        <f>LEFT(E96,106+D96) &amp; REPT(" ",maxlen-D96) &amp; MID(E96,107+D96,200)&amp;REPT(" ",maxlen-D96+1) &amp;"|"</f>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" )    | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)    |</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" t="s">
+        <v>274</v>
+      </c>
+      <c r="C97" t="str">
+        <f>B97</f>
+        <v>Ws Membership</v>
+      </c>
+      <c r="D97">
+        <f>LEN(B97)</f>
+        <v>13</v>
+      </c>
+      <c r="E97" s="1" t="str">
+        <f>"| [![" &amp; A97 &amp; "](/doc/img/app/sml/" &amp; A97 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A97 &amp; "/en-uk-o13-ee-" &amp; A97 &amp; "-guides.md ""Goto " &amp; B97 &amp; " guides \[" &amp; A97 &amp; "]"" ) | [" &amp; B97 &amp; "](/en-uk/o13/ee/"&amp;A97&amp;"/en-uk-o13-ee-" &amp; A97 &amp; "-guides.md)"</f>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" ) | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)</v>
+      </c>
+      <c r="F97" s="1" t="str">
+        <f>LEFT(E97,106+D97) &amp; REPT(" ",maxlen-D97) &amp; MID(E97,107+D97,200)&amp;REPT(" ",maxlen-D97+1) &amp;"|"</f>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" )      | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)      |</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" t="str">
+        <f>B98</f>
+        <v>Ws Partner</v>
+      </c>
+      <c r="D98">
+        <f>LEN(B98)</f>
+        <v>10</v>
+      </c>
+      <c r="E98" s="1" t="str">
+        <f>"| [![" &amp; A98 &amp; "](/doc/img/app/sml/" &amp; A98 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A98 &amp; "/en-uk-o13-ee-" &amp; A98 &amp; "-guides.md ""Goto " &amp; B98 &amp; " guides \[" &amp; A98 &amp; "]"" ) | [" &amp; B98 &amp; "](/en-uk/o13/ee/"&amp;A98&amp;"/en-uk-o13-ee-" &amp; A98 &amp; "-guides.md)"</f>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" ) | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)</v>
+      </c>
+      <c r="F98" s="1" t="str">
+        <f>LEFT(E98,106+D98) &amp; REPT(" ",maxlen-D98) &amp; MID(E98,107+D98,200)&amp;REPT(" ",maxlen-D98+1) &amp;"|"</f>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" )         | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>174</v>
+      </c>
+      <c r="B99" t="s">
+        <v>277</v>
+      </c>
+      <c r="C99" t="str">
+        <f>B99</f>
+        <v>Ws Payment</v>
+      </c>
+      <c r="D99">
+        <f>LEN(B99)</f>
+        <v>10</v>
+      </c>
+      <c r="E99" s="1" t="str">
+        <f>"| [![" &amp; A99 &amp; "](/doc/img/app/sml/" &amp; A99 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A99 &amp; "/en-uk-o13-ee-" &amp; A99 &amp; "-guides.md ""Goto " &amp; B99 &amp; " guides \[" &amp; A99 &amp; "]"" ) | [" &amp; B99 &amp; "](/en-uk/o13/ee/"&amp;A99&amp;"/en-uk-o13-ee-" &amp; A99 &amp; "-guides.md)"</f>
+        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" ) | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)</v>
+      </c>
+      <c r="F99" s="1" t="str">
+        <f>LEFT(E99,106+D99) &amp; REPT(" ",maxlen-D99) &amp; MID(E99,107+D99,200)&amp;REPT(" ",maxlen-D99+1) &amp;"|"</f>
+        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" )         | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" t="s">
+        <v>278</v>
+      </c>
+      <c r="C100" t="str">
+        <f>B100</f>
+        <v>Ws Quote</v>
+      </c>
+      <c r="D100">
+        <f>LEN(B100)</f>
+        <v>8</v>
+      </c>
+      <c r="E100" s="1" t="str">
+        <f>"| [![" &amp; A100 &amp; "](/doc/img/app/sml/" &amp; A100 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A100 &amp; "/en-uk-o13-ee-" &amp; A100 &amp; "-guides.md ""Goto " &amp; B100 &amp; " guides \[" &amp; A100 &amp; "]"" ) | [" &amp; B100 &amp; "](/en-uk/o13/ee/"&amp;A100&amp;"/en-uk-o13-ee-" &amp; A100 &amp; "-guides.md)"</f>
+        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" ) | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)</v>
+      </c>
+      <c r="F100" s="1" t="str">
+        <f>LEFT(E100,106+D100) &amp; REPT(" ",maxlen-D100) &amp; MID(E100,107+D100,200)&amp;REPT(" ",maxlen-D100+1) &amp;"|"</f>
+        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" )           | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>177</v>
+      </c>
+      <c r="B101" t="s">
+        <v>279</v>
+      </c>
+      <c r="C101" t="str">
+        <f>B101</f>
+        <v>Ws Rating Project</v>
+      </c>
+      <c r="D101">
+        <f>LEN(B101)</f>
+        <v>17</v>
+      </c>
+      <c r="E101" s="1" t="str">
+        <f>"| [![" &amp; A101 &amp; "](/doc/img/app/sml/" &amp; A101 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A101 &amp; "/en-uk-o13-ee-" &amp; A101 &amp; "-guides.md ""Goto " &amp; B101 &amp; " guides \[" &amp; A101 &amp; "]"" ) | [" &amp; B101 &amp; "](/en-uk/o13/ee/"&amp;A101&amp;"/en-uk-o13-ee-" &amp; A101 &amp; "-guides.md)"</f>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" ) | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)</v>
+      </c>
+      <c r="F101" s="1" t="str">
+        <f>LEFT(E101,106+D101) &amp; REPT(" ",maxlen-D101) &amp; MID(E101,107+D101,200)&amp;REPT(" ",maxlen-D101+1) &amp;"|"</f>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" )  | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)  |</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" t="s">
+        <v>280</v>
+      </c>
+      <c r="C102" t="str">
+        <f>B102</f>
+        <v>Ws Sale Delivery</v>
+      </c>
+      <c r="D102">
+        <f>LEN(B102)</f>
+        <v>16</v>
+      </c>
+      <c r="E102" s="1" t="str">
+        <f>"| [![" &amp; A102 &amp; "](/doc/img/app/sml/" &amp; A102 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A102 &amp; "/en-uk-o13-ee-" &amp; A102 &amp; "-guides.md ""Goto " &amp; B102 &amp; " guides \[" &amp; A102 &amp; "]"" ) | [" &amp; B102 &amp; "](/en-uk/o13/ee/"&amp;A102&amp;"/en-uk-o13-ee-" &amp; A102 &amp; "-guides.md)"</f>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" ) | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)</v>
+      </c>
+      <c r="F102" s="1" t="str">
+        <f>LEFT(E102,106+D102) &amp; REPT(" ",maxlen-D102) &amp; MID(E102,107+D102,200)&amp;REPT(" ",maxlen-D102+1) &amp;"|"</f>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" )   | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)   |</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" t="s">
+        <v>281</v>
+      </c>
+      <c r="C103" t="str">
+        <f>B103</f>
+        <v>Ws Sale Options</v>
+      </c>
+      <c r="D103">
+        <f>LEN(B103)</f>
+        <v>15</v>
+      </c>
+      <c r="E103" s="1" t="str">
+        <f>"| [![" &amp; A103 &amp; "](/doc/img/app/sml/" &amp; A103 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A103 &amp; "/en-uk-o13-ee-" &amp; A103 &amp; "-guides.md ""Goto " &amp; B103 &amp; " guides \[" &amp; A103 &amp; "]"" ) | [" &amp; B103 &amp; "](/en-uk/o13/ee/"&amp;A103&amp;"/en-uk-o13-ee-" &amp; A103 &amp; "-guides.md)"</f>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" ) | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)</v>
+      </c>
+      <c r="F103" s="1" t="str">
+        <f>LEFT(E103,106+D103) &amp; REPT(" ",maxlen-D103) &amp; MID(E103,107+D103,200)&amp;REPT(" ",maxlen-D103+1) &amp;"|"</f>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" )    | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)    |</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>180</v>
+      </c>
+      <c r="B104" t="s">
+        <v>282</v>
+      </c>
+      <c r="C104" t="str">
+        <f>B104</f>
+        <v>Ws Theme Install</v>
+      </c>
+      <c r="D104">
+        <f>LEN(B104)</f>
+        <v>16</v>
+      </c>
+      <c r="E104" s="1" t="str">
+        <f>"| [![" &amp; A104 &amp; "](/doc/img/app/sml/" &amp; A104 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A104 &amp; "/en-uk-o13-ee-" &amp; A104 &amp; "-guides.md ""Goto " &amp; B104 &amp; " guides \[" &amp; A104 &amp; "]"" ) | [" &amp; B104 &amp; "](/en-uk/o13/ee/"&amp;A104&amp;"/en-uk-o13-ee-" &amp; A104 &amp; "-guides.md)"</f>
+        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" ) | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)</v>
+      </c>
+      <c r="F104" s="1" t="str">
+        <f>LEFT(E104,106+D104) &amp; REPT(" ",maxlen-D104) &amp; MID(E104,107+D104,200)&amp;REPT(" ",maxlen-D104+1) &amp;"|"</f>
+        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" )   | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)   |</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>181</v>
+      </c>
+      <c r="B105" t="s">
+        <v>283</v>
+      </c>
+      <c r="C105" t="str">
+        <f>B105</f>
+        <v>Ws Twitter</v>
+      </c>
+      <c r="D105">
+        <f>LEN(B105)</f>
+        <v>10</v>
+      </c>
+      <c r="E105" s="1" t="str">
+        <f>"| [![" &amp; A105 &amp; "](/doc/img/app/sml/" &amp; A105 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A105 &amp; "/en-uk-o13-ee-" &amp; A105 &amp; "-guides.md ""Goto " &amp; B105 &amp; " guides \[" &amp; A105 &amp; "]"" ) | [" &amp; B105 &amp; "](/en-uk/o13/ee/"&amp;A105&amp;"/en-uk-o13-ee-" &amp; A105 &amp; "-guides.md)"</f>
+        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" ) | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)</v>
+      </c>
+      <c r="F105" s="1" t="str">
+        <f>LEFT(E105,106+D105) &amp; REPT(" ",maxlen-D105) &amp; MID(E105,107+D105,200)&amp;REPT(" ",maxlen-D105+1) &amp;"|"</f>
+        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" )         | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>182</v>
+      </c>
+      <c r="B106" t="s">
+        <v>284</v>
+      </c>
+      <c r="C106" t="str">
+        <f>B106</f>
+        <v>Ws Version</v>
+      </c>
+      <c r="D106">
+        <f>LEN(B106)</f>
+        <v>10</v>
+      </c>
+      <c r="E106" s="1" t="str">
+        <f>"| [![" &amp; A106 &amp; "](/doc/img/app/sml/" &amp; A106 &amp; ".jpg)](/en-uk/o13/ee/" &amp; A106 &amp; "/en-uk-o13-ee-" &amp; A106 &amp; "-guides.md ""Goto " &amp; B106 &amp; " guides \[" &amp; A106 &amp; "]"" ) | [" &amp; B106 &amp; "](/en-uk/o13/ee/"&amp;A106&amp;"/en-uk-o13-ee-" &amp; A106 &amp; "-guides.md)"</f>
+        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" ) | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)</v>
+      </c>
+      <c r="F106" s="1" t="str">
+        <f>LEFT(E106,106+D106) &amp; REPT(" ",maxlen-D106) &amp; MID(E106,107+D106,200)&amp;REPT(" ",maxlen-D106+1) &amp;"|"</f>
+        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" )         | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <f>MAX(D3:D106)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="str">
+        <f>F3 &amp; MID(F4,2,200) &amp; MID(F5,2,200) &amp; MID(F6,2,200)</f>
+        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md "Goto Odoo System guides \[o13]" )        | [Odoo System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md)        | [![stu](/doc/img/app/sml/stu.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md "Goto Odoo Studio guides \[stu]" )        | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md)        | [![osh](/doc/img/app/sml/osh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md "Goto Odoo SH guides \[osh]" )            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md)            | [![3rd](/doc/img/app/sml/3rd.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md "Goto 3rd Parties guides \[3rd]" )        | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md)        |</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="str">
+        <f>F7 &amp; MID(F8,2,200) &amp; MID(F9,2,200) &amp; MID(F10,2,200)</f>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" )         | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)         | [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" )       | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)       | [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" )          | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)          | [![apv](/doc/img/app/sml/apv.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md "Goto Approvals guides \[apv]" )          | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="str">
+        <f>F11 &amp; MID(F12,2,200) &amp; MID(F13,2,200) &amp; MID(F14,2,200)</f>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" )             | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)             | [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" )         | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)         | [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" )           | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)           | [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" )               | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)               |</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="str">
+        <f>F15 &amp; MID(F16,2,200) &amp; MID(F17,2,200) &amp; MID(F18,2,200)</f>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" )           | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)           | [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" )           | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)           | [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" )                | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)                | [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" )         | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="str">
+        <f>F19 &amp; MID(F20,2,200) &amp; MID(F21,2,200) &amp; MID(F22,2,200)</f>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" )     | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)     | [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" )       | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)       | [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" )     | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)     | [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" )       | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)       |</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="str">
+        <f>F23 &amp; MID(F24,2,200) &amp; MID(F25,2,200) &amp; MID(F26,2,200)</f>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" )      | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)      | [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" )            | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)            | [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" )          | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)          | [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" )          | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="str">
+        <f>F27 &amp; MID(F28,2,200) &amp; MID(F29,2,200) &amp; MID(F30,2,200)</f>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" )              | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)              | [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" )          | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)          | [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" )          | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)          | [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" )         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="str">
+        <f>F31 &amp; MID(F32,2,200) &amp; MID(F33,2,200) &amp; MID(F34,2,200)</f>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" )             | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)             | [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" )           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)           | [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" )      | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)      | [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" )              | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)              |</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="str">
+        <f>F35 &amp; MID(F36,2,200) &amp; MID(F37,2,200) &amp; MID(F38,2,200)</f>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" )              | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)              | [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" )       | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)       | [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" )        | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)        | [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" )    | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)    |</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="str">
+        <f>F39 &amp; MID(F40,2,200) &amp; MID(F41,2,200) &amp; MID(F42,2,200)</f>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" )       | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)       | [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" )           | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)           | [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" )           | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)           | [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md) |</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="str">
+        <f>F43 &amp; MID(F44,2,200) &amp; MID(F45,2,200) &amp; MID(F46,2,200)</f>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" )          | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)          | [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" )          | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)          | [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" )          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)          | [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" )              | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)              |</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="str">
+        <f>F47 &amp; MID(F48,2,200) &amp; MID(F49,2,200) &amp; MID(F50,2,200)</f>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" )          | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)          | [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" )        | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)        | [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" )     | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)     | [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" )          | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)          |</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="str">
+        <f>F51 &amp; MID(F52,2,200) &amp; MID(F53,2,200) &amp; MID(F54,2,200)</f>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" )         | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)         | [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" )            | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)            | [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" )                | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)                | [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" )    | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)    |</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="str">
+        <f>F55 &amp; MID(F56,2,200) &amp; MID(F57,2,200) &amp; MID(F58,2,200)</f>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" )               | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)               | [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" )            | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)            | [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" )            | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)            | [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" )                | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)                |</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="str">
+        <f>F59 &amp; MID(F60,2,200) &amp; MID(F61,2,200) &amp; MID(F62,2,200)</f>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" )      | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)      | [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" )           | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)           | [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" )   | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)   | [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" )           | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="str">
+        <f>F63 &amp; MID(F64,2,200) &amp; MID(F65,2,200) &amp; MID(F66,2,200)</f>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" )         | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)         | [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" )    | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)    | [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" )        | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)        | [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" )             | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)             |</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="str">
+        <f>F67 &amp; MID(F68,2,200) &amp; MID(F69,2,200) &amp; MID(F70,2,200)</f>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" )             | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)             | [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" )               | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)               | [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sale Management guides \[smg]" )    | [Sale Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)    | [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" )              | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)              |</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="str">
+        <f>F71 &amp; MID(F72,2,200) &amp; MID(F73,2,200) &amp; MID(F74,2,200)</f>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" )           | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)           | [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" )             | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)             | [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" )             | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)             | [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" )      | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)      |</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="str">
+        <f>F75 &amp; MID(F76,2,200) &amp; MID(F77,2,200) &amp; MID(F78,2,200)</f>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" )            | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)            | [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" )           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)           | [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" )          | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)          | [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" )           | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="str">
+        <f>F79 &amp; MID(F80,2,200) &amp; MID(F81,2,200) &amp; MID(F82,2,200)</f>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" )           | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)           | [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" )        | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)        | [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" )             | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)             | [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" )    | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)    |</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="str">
+        <f>F83 &amp; MID(F84,2,200) &amp; MID(F85,2,200) &amp; MID(F86,2,200)</f>
+        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" )       | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)       | [![wcu](/doc/img/app/sml/wcu.jpg)](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md "Goto Ws Customer guides \[wcu]" )        | [Ws Customer](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md)        | [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" )      | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)      | [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" )           | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)           |</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="str">
+        <f>F87 &amp; MID(F88,2,200) &amp; MID(F89,2,200) &amp; MID(F90,2,200)</f>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" )     | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)     | [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" )      | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)      | [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" )     | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)     | [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" )       | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)       |</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="str">
+        <f>F91 &amp; MID(F92,2,200) &amp; MID(F93,2,200) &amp; MID(F94,2,200)</f>
+        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" )    | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)    | [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" )           | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)           | [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" )              | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)              | [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" )      | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)      |</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="str">
+        <f>F95 &amp; MID(F96,2,200) &amp; MID(F97,2,200) &amp; MID(F98,2,200)</f>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" )       | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)       | [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" )    | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)    | [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" )      | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)      | [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" )         | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="str">
+        <f>F99 &amp; MID(F100,2,200) &amp; MID(F101,2,200) &amp; MID(F102,2,200)</f>
+        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" )         | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)         | [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" )           | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)           | [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" )  | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)  | [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" )   | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)   |</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="str">
+        <f>F103 &amp; MID(F104,2,200) &amp; MID(F105,2,200) &amp; MID(F106,2,200)</f>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" )    | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)    | [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" )   | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)   | [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" )         | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)         | [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" )         | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)         |</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:F106">
+    <sortCondition ref="C3"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:L153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/Reorder APPs Menu.xlsx
+++ b/doc/Reorder APPs Menu.xlsx
@@ -720,9 +720,6 @@
     <t>eComercio</t>
   </si>
   <si>
-    <t>Correo Electrónico</t>
-  </si>
-  <si>
     <t>Empleados</t>
   </si>
   <si>
@@ -753,9 +750,6 @@
     <t>Correo Github</t>
   </si>
   <si>
-    <t>Google Calendario</t>
-  </si>
-  <si>
     <t>Mesa de Ayuda</t>
   </si>
   <si>
@@ -816,9 +810,6 @@
     <t>Compras</t>
   </si>
   <si>
-    <t>Control de Calidad</t>
-  </si>
-  <si>
     <t>Reclutamiento</t>
   </si>
   <si>
@@ -900,9 +891,6 @@
     <t>Ws Nom Reclut</t>
   </si>
   <si>
-    <t>Ws Chat en Línea</t>
-  </si>
-  <si>
     <t>Chat en Línea</t>
   </si>
   <si>
@@ -943,6 +931,18 @@
   </si>
   <si>
     <t>MENU es-mx⯆</t>
+  </si>
+  <si>
+    <t>Ctrl de Calidad</t>
+  </si>
+  <si>
+    <t>eCorreo</t>
+  </si>
+  <si>
+    <t>Google Calend</t>
+  </si>
+  <si>
+    <t>Ws Chat en Vivo</t>
   </si>
 </sst>
 </file>
@@ -1328,7 +1328,7 @@
         <v>209</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="L3" s="1" t="str">
         <f>LEFT(K3,LN_es_mx+G3-1) &amp; REPT(" ",ML_es_mx-G3) &amp; MID(K3,LN_es_mx+G3,200)&amp;REPT(" ",ML_es_mx-G3+1) &amp;"|"</f>
-        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" )     | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)     |</v>
+        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" )   | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)   |</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
       </c>
       <c r="L4" s="1" t="str">
         <f>LEFT(K4,LN_es_mx+G4-1) &amp; REPT(" ",ML_es_mx-G4) &amp; MID(K4,LN_es_mx+G4,200)&amp;REPT(" ",ML_es_mx-G4+1) &amp;"|"</f>
-        <v>| [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" )      | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)      |</v>
+        <v>| [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" )    | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)    |</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" ref="L5:L36" si="5">LEFT(K5,LN_es_mx-1+G5) &amp; REPT(" ",ML_es_mx-G5) &amp; MID(K5,LN_es_mx+G5,200)&amp;REPT(" ",ML_es_mx-G5+1) &amp;"|"</f>
-        <v>| [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" )          | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)          |</v>
+        <v>| [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" )        | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)        |</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" )       | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)       |</v>
+        <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" )     | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)     |</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )            | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)            |</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )          | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)          |</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1575,7 +1575,7 @@
         <v>Timesheet</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="7"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )       | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)       |</v>
+        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )     | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)     |</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )         | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)         |</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )       | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)       |</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>Approvals</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="7"/>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" )     | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)     |</v>
+        <v>| [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" )   | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)   |</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )               | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)               |</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )             | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)             |</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )         | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)         |</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )       | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)       |</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1805,7 +1805,7 @@
         <v>Mass Mail</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="7"/>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )           | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)           |</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )         | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)         |</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )            | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)            |</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )          | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)          |</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1897,7 +1897,7 @@
         <v>Live Chat</v>
       </c>
       <c r="D15" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="7"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )      | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)      |</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )    | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)    |</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )              | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)              |</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )            | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)            |</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" )   | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md)   |</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md) |</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2035,7 +2035,7 @@
         <v>Lunch</v>
       </c>
       <c r="D18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="7"/>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )            | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)            |</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )          | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)          |</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2081,7 +2081,7 @@
         <v>Skills</v>
       </c>
       <c r="D19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="7"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )       | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)       |</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )     | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)     |</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2127,7 +2127,7 @@
         <v>Purchasing</v>
       </c>
       <c r="D20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="7"/>
@@ -2158,7 +2158,7 @@
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )            | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)            |</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )          | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)          |</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,7 @@
         <v>Settings</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="7"/>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )      | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)      |</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )    | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)    |</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )       | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)       |</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )     | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)     |</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )          | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)          |</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )        | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)        |</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2311,11 +2311,11 @@
         <v>Quality Control</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="7"/>
-        <v>Control de Calidad</v>
+        <v>Ctrl de Calidad</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2338,11 +2338,11 @@
       </c>
       <c r="K24" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Control de Calidad \[qco]" ) | [Control de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" ) | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)</v>
       </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Control de Calidad \[qco]" ) | [Control de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md) |</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" )  | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)  |</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2357,11 +2357,11 @@
         <v>eMail</v>
       </c>
       <c r="D25" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="7"/>
-        <v>Correo Electrónico</v>
+        <v>eCorreo</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
@@ -2369,7 +2369,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2384,11 +2384,11 @@
       </c>
       <c r="K25" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de Correo Electrónico \[eml]" ) | [Correo Electrónico](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" ) | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)</v>
       </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de Correo Electrónico \[eml]" ) | [Correo Electrónico](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md) |</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" )          | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)          |</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2403,7 +2403,7 @@
         <v>Github Mail</v>
       </c>
       <c r="D26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="7"/>
@@ -2434,7 +2434,7 @@
       </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )      | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)      |</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )    | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)    |</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -2449,7 +2449,7 @@
         <v>Mail Push</v>
       </c>
       <c r="D27" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="7"/>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )        | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)        |</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )      | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)      |</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="L28" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )                | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)                |</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )              | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)              |</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -2541,7 +2541,7 @@
         <v>Slides</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="7"/>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="L29" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )       | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)       |</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )     | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)     |</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )         | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)         |</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )       | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)       |</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="L31" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )          | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)          |</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )        | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)        |</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>eSignature</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="7"/>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )             | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)             |</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )           | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)           |</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
         <v>Employees</v>
       </c>
       <c r="D33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="7"/>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="L33" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )          | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)          |</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )        | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)        |</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -2771,7 +2771,7 @@
         <v>Surveys</v>
       </c>
       <c r="D34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="7"/>
@@ -2802,7 +2802,7 @@
       </c>
       <c r="L34" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )          | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)          |</v>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )        | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)        |</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -2848,7 +2848,7 @@
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )       | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)       |</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )     | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)     |</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )         | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)         |</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )       | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)       |</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2940,7 +2940,7 @@
       </c>
       <c r="L37" s="1" t="str">
         <f t="shared" ref="L37:L68" si="13">LEFT(K37,LN_es_mx-1+G37) &amp; REPT(" ",ML_es_mx-G37) &amp; MID(K37,LN_es_mx+G37,200)&amp;REPT(" ",ML_es_mx-G37+1) &amp;"|"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )       | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)       |</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )     | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)     |</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )         | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)         |</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )       | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)       |</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )        | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)        |</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )      | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)      |</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -3047,7 +3047,7 @@
         <v>Equipment</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="15"/>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )            | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)            |</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )          | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)          |</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )       | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)       |</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )     | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)     |</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -3139,7 +3139,7 @@
         <v>Events</v>
       </c>
       <c r="D42" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="15"/>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="L42" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )            | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)            |</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )          | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)          |</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -3185,7 +3185,7 @@
         <v>Invoicing</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="15"/>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )        | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)        |</v>
+        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )      | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)      |</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -3231,7 +3231,7 @@
         <v>Fleet</v>
       </c>
       <c r="D44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="15"/>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="L44" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )          | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)          |</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )        | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)        |</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>Forum</v>
       </c>
       <c r="D45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="15"/>
@@ -3308,7 +3308,7 @@
       </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )               | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)               |</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )             | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)             |</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -3323,7 +3323,7 @@
         <v>Gamification</v>
       </c>
       <c r="D46" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="15"/>
@@ -3354,7 +3354,7 @@
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )       | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)       |</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )     | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)     |</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -3369,7 +3369,7 @@
         <v>Expenses</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="15"/>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )             | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)             |</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)           |</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -3415,11 +3415,11 @@
         <v>Google Calendar</v>
       </c>
       <c r="D48" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="15"/>
-        <v>Google Calendario</v>
+        <v>Google Calend</v>
       </c>
       <c r="F48">
         <f t="shared" si="8"/>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="9"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="10"/>
@@ -3442,11 +3442,11 @@
       </c>
       <c r="K48" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calendario \[gca]" ) | [Google Calendario](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" ) | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calendario \[gca]" )  | [Google Calendario](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)  |</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" )    | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)    |</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )       | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)       |</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )     | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)     |</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -3507,7 +3507,7 @@
         <v>Internet of Things</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="15"/>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" )   | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md)   |</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md) |</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3553,7 +3553,7 @@
         <v>Inventory</v>
       </c>
       <c r="D51" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="15"/>
@@ -3584,7 +3584,7 @@
       </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )        | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)        |</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )      | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)      |</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -3599,7 +3599,7 @@
         <v>Maintenance</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="15"/>
@@ -3630,7 +3630,7 @@
       </c>
       <c r="L52" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )      | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)      |</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )    | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)    |</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="L53" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )     | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)     |</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )   | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)   |</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -3692,7 +3692,7 @@
         <v>Membership</v>
       </c>
       <c r="D54" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="15"/>
@@ -3723,7 +3723,7 @@
       </c>
       <c r="L54" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )         | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)         |</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )       | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)       |</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -3738,7 +3738,7 @@
         <v>Helpdesk</v>
       </c>
       <c r="D55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="15"/>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="L55" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )      | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)      |</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )    | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)    |</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3784,7 +3784,7 @@
         <v>Modules</v>
       </c>
       <c r="D56" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="15"/>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="L56" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )            | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)            |</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )          | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)          |</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="L57" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )                | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)                |</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )              | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)              |</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -3876,7 +3876,7 @@
         <v>MRP Maintenance</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="15"/>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="L58" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )         | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)         |</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )       | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)       |</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
         <v>Payroll</v>
       </c>
       <c r="D59" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="15"/>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="L59" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )             | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)             |</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)           |</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3968,7 +3968,7 @@
         <v>Note</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="15"/>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="L60" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )              | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)              |</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )            | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)            |</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -4014,7 +4014,7 @@
         <v>Payment</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="15"/>
@@ -4045,7 +4045,7 @@
       </c>
       <c r="L61" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )              | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)              |</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )            | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)            |</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -4091,7 +4091,7 @@
       </c>
       <c r="L62" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )           | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)           |</v>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )         | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)         |</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="L63" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )                | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)                |</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )              | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)              |</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -4152,7 +4152,7 @@
         <v>Presence</v>
       </c>
       <c r="D64" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="15"/>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="L64" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )          | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)          |</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )        | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)        |</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -4198,7 +4198,7 @@
         <v>Project Forecast</v>
       </c>
       <c r="D65" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="15"/>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="L65" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )        | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)        |</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )      | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)      |</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -4244,7 +4244,7 @@
         <v>Projects</v>
       </c>
       <c r="D66" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="15"/>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="L66" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )          | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)          |</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )        | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)        |</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -4290,7 +4290,7 @@
         <v>Point of Sale</v>
       </c>
       <c r="D67" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="15"/>
@@ -4321,7 +4321,7 @@
       </c>
       <c r="L67" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )     | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)     |</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )   | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)   |</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -4336,7 +4336,7 @@
         <v>Recruitment</v>
       </c>
       <c r="D68" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" si="15"/>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="L68" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )      | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)      |</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )    | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)    |</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -4382,7 +4382,7 @@
         <v>Rental</v>
       </c>
       <c r="D69" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" si="15"/>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="L69" s="1" t="str">
         <f t="shared" ref="L69:L100" si="21">LEFT(K69,LN_es_mx-1+G69) &amp; REPT(" ",ML_es_mx-G69) &amp; MID(K69,LN_es_mx+G69,200)&amp;REPT(" ",ML_es_mx-G69+1) &amp;"|"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )             | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)             |</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )           | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)           |</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -4428,7 +4428,7 @@
         <v>Repair</v>
       </c>
       <c r="D70" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" si="15"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="L70" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )       | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)       |</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )     | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)     |</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="L71" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )               | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)               |</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )             | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)             |</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -4521,7 +4521,7 @@
         <v>Field Service</v>
       </c>
       <c r="D72" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E72" t="str">
         <f t="shared" si="23"/>
@@ -4552,7 +4552,7 @@
       </c>
       <c r="L72" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )           | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)           |</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )         | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)         |</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -4567,7 +4567,7 @@
         <v>Subscriptions</v>
       </c>
       <c r="D73" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E73" t="str">
         <f t="shared" si="23"/>
@@ -4598,7 +4598,7 @@
       </c>
       <c r="L73" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" )      | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)      |</v>
+        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" )    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)    |</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="L74" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )           | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)           |</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )         | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)         |</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -4659,7 +4659,7 @@
         <v>Holidays</v>
       </c>
       <c r="D75" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="23"/>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="L75" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )         | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)         |</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )       | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)       |</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -4705,7 +4705,7 @@
         <v>Sales</v>
       </c>
       <c r="D76" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="23"/>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="L76" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )             | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)             |</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )           | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)           |</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -4751,7 +4751,7 @@
         <v>Sale Management</v>
       </c>
       <c r="D77" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="23"/>
@@ -4782,7 +4782,7 @@
       </c>
       <c r="L77" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" )   | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md)   |</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md) |</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -4797,7 +4797,7 @@
         <v>Voice IP</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="23"/>
@@ -4828,7 +4828,7 @@
       </c>
       <c r="L78" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" )         | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)         |</v>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" )       | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)       |</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -4843,7 +4843,7 @@
         <v>Websites</v>
       </c>
       <c r="D79" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="23"/>
@@ -4874,7 +4874,7 @@
       </c>
       <c r="L79" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" )         | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)         |</v>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" )       | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)       |</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -4889,7 +4889,7 @@
         <v>Ws Calendar</v>
       </c>
       <c r="D80" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="23"/>
@@ -4920,7 +4920,7 @@
       </c>
       <c r="L80" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" )      | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)      |</v>
+        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" )    | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)    |</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -4935,7 +4935,7 @@
         <v>Ws Mail Channel</v>
       </c>
       <c r="D81" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="23"/>
@@ -4966,7 +4966,7 @@
       </c>
       <c r="L81" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" )    | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)    |</v>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" )  | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)  |</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -4981,11 +4981,11 @@
         <v>Ws Live Chat</v>
       </c>
       <c r="D82" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="23"/>
-        <v>Ws Chat en Línea</v>
+        <v>Ws Chat en Vivo</v>
       </c>
       <c r="F82">
         <f t="shared" si="16"/>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="G82">
         <f t="shared" si="17"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H82" s="1" t="str">
         <f t="shared" si="18"/>
@@ -5008,11 +5008,11 @@
       </c>
       <c r="K82" s="1" t="str">
         <f t="shared" si="20"/>
-        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Línea \[wlc]" ) | [Ws Chat en Línea](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)</v>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" ) | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)</v>
       </c>
       <c r="L82" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Línea \[wlc]" )   | [Ws Chat en Línea](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)   |</v>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" )  | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)  |</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -5027,7 +5027,7 @@
         <v>Ws Customer</v>
       </c>
       <c r="D83" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="23"/>
@@ -5058,7 +5058,7 @@
       </c>
       <c r="L83" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" )         | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)         |</v>
+        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" )       | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)       |</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -5073,7 +5073,7 @@
         <v>Ws Quote</v>
       </c>
       <c r="D84" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="23"/>
@@ -5104,7 +5104,7 @@
       </c>
       <c r="L84" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" )    | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)    |</v>
+        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" )  | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)  |</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="L85" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" )             | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)             |</v>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" )           | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)           |</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -5165,7 +5165,7 @@
         <v>Ws CRM Score</v>
       </c>
       <c r="D86" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="23"/>
@@ -5196,7 +5196,7 @@
       </c>
       <c r="L86" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" )      | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)      |</v>
+        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" )    | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)    |</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -5211,7 +5211,7 @@
         <v>Ws CRM Partners</v>
       </c>
       <c r="D87" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="23"/>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="L87" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" )      | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)      |</v>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" )    | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)    |</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -5257,7 +5257,7 @@
         <v>Ws Enterprise</v>
       </c>
       <c r="D88" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="23"/>
@@ -5288,7 +5288,7 @@
       </c>
       <c r="L88" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" )     | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)     |</v>
+        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" )   | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)   |</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -5303,7 +5303,7 @@
         <v>Ws Event Quest</v>
       </c>
       <c r="D89" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="23"/>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="L89" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" )   | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md)   |</v>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md) |</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -5349,7 +5349,7 @@
         <v>Ws Event Track</v>
       </c>
       <c r="D90" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="23"/>
@@ -5380,7 +5380,7 @@
       </c>
       <c r="L90" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" )     | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)     |</v>
+        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" )   | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)   |</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -5395,7 +5395,7 @@
         <v>Ws Event Sale</v>
       </c>
       <c r="D91" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="23"/>
@@ -5426,7 +5426,7 @@
       </c>
       <c r="L91" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" )      | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)      |</v>
+        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" )    | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)    |</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -5441,7 +5441,7 @@
         <v>Ws Event</v>
       </c>
       <c r="D92" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="23"/>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="L92" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" )         | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)         |</v>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" )       | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)       |</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -5487,7 +5487,7 @@
         <v>Ws Forum Doc</v>
       </c>
       <c r="D93" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="23"/>
@@ -5518,7 +5518,7 @@
       </c>
       <c r="L93" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" )       | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)       |</v>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" )     | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)     |</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -5533,7 +5533,7 @@
         <v>Ws Forum Editor</v>
       </c>
       <c r="D94" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="23"/>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="L94" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" )     | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)     |</v>
+        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" )   | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)   |</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="L95" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" )           | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)           |</v>
+        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" )         | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)         |</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -5625,7 +5625,7 @@
         <v>Ws Theme Install</v>
       </c>
       <c r="D96" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="23"/>
@@ -5656,7 +5656,7 @@
       </c>
       <c r="L96" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" )   | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md)   |</v>
+        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md) |</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -5671,7 +5671,7 @@
         <v>Ws Membership</v>
       </c>
       <c r="D97" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="23"/>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="L97" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" )      | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)      |</v>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" )    | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)    |</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -5717,7 +5717,7 @@
         <v>Ws HR Recruit</v>
       </c>
       <c r="D98" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="23"/>
@@ -5748,7 +5748,7 @@
       </c>
       <c r="L98" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" )      | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)      |</v>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" )    | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)    |</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -5763,7 +5763,7 @@
         <v>Ws HR</v>
       </c>
       <c r="D99" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="23"/>
@@ -5782,7 +5782,7 @@
         <v>| [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" ) | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)</v>
       </c>
       <c r="I99" s="1" t="str">
-        <f t="shared" ref="I99:I130" si="27">LEFT(H99,LN_en_uk+F99-1) &amp; REPT(" ",ML_en_uk-F99) &amp; MID(H99,LN_en_uk+F99,200)&amp;REPT(" ",ML_en_uk-F99+1) &amp;"|"</f>
+        <f t="shared" ref="I99:I106" si="27">LEFT(H99,LN_en_uk+F99-1) &amp; REPT(" ",ML_en_uk-F99) &amp; MID(H99,LN_en_uk+F99,200)&amp;REPT(" ",ML_en_uk-F99+1) &amp;"|"</f>
         <v>| [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" )              | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)              |</v>
       </c>
       <c r="J99" s="3" t="s">
@@ -5794,7 +5794,7 @@
       </c>
       <c r="L99" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" )          | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)          |</v>
+        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" )        | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)        |</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -5809,7 +5809,7 @@
         <v>Ws Payment</v>
       </c>
       <c r="D100" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="23"/>
@@ -5840,7 +5840,7 @@
       </c>
       <c r="L100" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" )           | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)           |</v>
+        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" )         | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)         |</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -5855,7 +5855,7 @@
         <v>Ws Rating Project</v>
       </c>
       <c r="D101" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="23"/>
@@ -5885,8 +5885,8 @@
         <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md)</v>
       </c>
       <c r="L101" s="1" t="str">
-        <f t="shared" ref="L101:L132" si="29">LEFT(K101,LN_es_mx-1+G101) &amp; REPT(" ",ML_es_mx-G101) &amp; MID(K101,LN_es_mx+G101,200)&amp;REPT(" ",ML_es_mx-G101+1) &amp;"|"</f>
-        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" )   | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md)   |</v>
+        <f t="shared" ref="L101:L106" si="29">LEFT(K101,LN_es_mx-1+G101) &amp; REPT(" ",ML_es_mx-G101) &amp; MID(K101,LN_es_mx+G101,200)&amp;REPT(" ",ML_es_mx-G101+1) &amp;"|"</f>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md) |</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -5901,7 +5901,7 @@
         <v>Ws Partner</v>
       </c>
       <c r="D102" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="23"/>
@@ -5932,7 +5932,7 @@
       </c>
       <c r="L102" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" )          | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)          |</v>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" )        | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)        |</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -5943,14 +5943,14 @@
         <v>205</v>
       </c>
       <c r="C103" t="str">
-        <f t="shared" ref="C103:C134" si="30">B103</f>
+        <f t="shared" ref="C103:C106" si="30">B103</f>
         <v>Ws Twitter</v>
       </c>
       <c r="D103" t="s">
         <v>205</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" ref="E103:E134" si="31">D103</f>
+        <f t="shared" ref="E103:E106" si="31">D103</f>
         <v>Ws Twitter</v>
       </c>
       <c r="F103">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="L103" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" )         | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)         |</v>
+        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" )       | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)       |</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -5993,7 +5993,7 @@
         <v>Ws Sale Delivery</v>
       </c>
       <c r="D104" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E104" t="str">
         <f t="shared" si="31"/>
@@ -6024,7 +6024,7 @@
       </c>
       <c r="L104" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" )      | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)      |</v>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" )    | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)    |</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -6039,7 +6039,7 @@
         <v>Ws Sale Options</v>
       </c>
       <c r="D105" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E105" t="str">
         <f t="shared" si="31"/>
@@ -6070,7 +6070,7 @@
       </c>
       <c r="L105" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" )    | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)    |</v>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" )  | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)  |</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -6085,7 +6085,7 @@
         <v>Ws Version</v>
       </c>
       <c r="D106" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E106" t="str">
         <f t="shared" si="31"/>
@@ -6116,7 +6116,7 @@
       </c>
       <c r="L106" s="1" t="str">
         <f t="shared" si="29"/>
-        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" )         | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)         |</v>
+        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" )       | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)       |</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -6126,7 +6126,7 @@
       </c>
       <c r="G108">
         <f>MAX(G3:G106)</f>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -6139,10 +6139,10 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="D113" s="1" t="str">
         <f>L3 &amp; MID(L4,2,200) &amp; MID(L5,2,200) &amp; MID(L6,2,200)</f>
-        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" )     | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)     | [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" )      | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)      | [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" )          | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)          | [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" )       | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)       |</v>
+        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" )   | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)   | [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" )    | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)    | [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" )        | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)        | [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" )     | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)     |</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>0</v>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="D114" s="1" t="str">
         <f>L7 &amp; MID(L8,2,200) &amp; MID(L9,2,200) &amp; MID(L10,2,200)</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )            | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)            | [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )       | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)       | [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )         | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)         | [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" )     | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)     |</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )          | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)          | [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )     | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)     | [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )       | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)       | [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" )   | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)   |</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>0</v>
@@ -6187,7 +6187,7 @@
       </c>
       <c r="D115" s="1" t="str">
         <f>L11 &amp; MID(L12,2,200) &amp; MID(L13,2,200) &amp; MID(L14,2,200)</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )               | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)               | [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )         | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)         | [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )           | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)           | [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )            | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)            |</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )             | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)             | [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )       | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)       | [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )         | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)         | [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )          | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)          |</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>0</v>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="D116" s="1" t="str">
         <f>L15 &amp; MID(L16,2,200) &amp; MID(L17,2,200) &amp; MID(L18,2,200)</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )      | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)      | [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )              | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)              | [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" )   | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md)   | [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )            | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)            |</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )    | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)    | [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )            | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)            | [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md) | [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )          | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)          |</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>0</v>
@@ -6219,7 +6219,7 @@
       </c>
       <c r="D117" s="1" t="str">
         <f>L19 &amp; MID(L20,2,200) &amp; MID(L21,2,200) &amp; MID(L22,2,200)</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )       | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)       | [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )            | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)            | [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )      | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)      | [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )       | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)       |</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )     | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)     | [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )          | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)          | [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )    | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)    | [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )     | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)     |</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>0</v>
@@ -6235,7 +6235,7 @@
       </c>
       <c r="D118" s="1" t="str">
         <f>L23 &amp; MID(L24,2,200) &amp; MID(L25,2,200) &amp; MID(L26,2,200)</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )          | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)          | [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Control de Calidad \[qco]" ) | [Control de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md) | [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de Correo Electrónico \[eml]" ) | [Correo Electrónico](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md) | [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )      | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)      |</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )        | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)        | [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" )  | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)  | [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" )          | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)          | [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )    | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)    |</v>
       </c>
       <c r="E118" s="4" t="s">
         <v>0</v>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="D119" s="1" t="str">
         <f>L27 &amp; MID(L28,2,200) &amp; MID(L29,2,200) &amp; MID(L30,2,200)</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )        | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)        | [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )                | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)                | [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )       | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)       | [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )         | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)         |</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )      | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)      | [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )              | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)              | [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )     | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)     | [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )       | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)       |</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>0</v>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="D120" s="1" t="str">
         <f>L31 &amp; MID(L32,2,200) &amp; MID(L33,2,200) &amp; MID(L34,2,200)</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )          | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)          | [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )             | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)             | [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )          | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)          | [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )          | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)          |</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )        | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)        | [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )           | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)           | [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )        | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)        | [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )        | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)        |</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>0</v>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="D121" s="1" t="str">
         <f>L35 &amp; MID(L36,2,200) &amp; MID(L37,2,200) &amp; MID(L38,2,200)</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )       | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)       | [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )         | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)         | [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )       | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)       | [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )         | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)         |</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )     | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)     | [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )       | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)       | [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )     | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)     | [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )       | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)       |</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>0</v>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="D122" s="1" t="str">
         <f>L39 &amp; MID(L40,2,200) &amp; MID(L41,2,200) &amp; MID(L42,2,200)</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )        | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)        | [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )            | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)            | [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )       | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)       | [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )            | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)            |</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )      | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)      | [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )          | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)          | [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )     | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)     | [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )          | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)          |</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>0</v>
@@ -6315,7 +6315,7 @@
       </c>
       <c r="D123" s="1" t="str">
         <f>L43 &amp; MID(L44,2,200) &amp; MID(L45,2,200) &amp; MID(L46,2,200)</f>
-        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )        | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)        | [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )          | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)          | [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )               | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)               | [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )       | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)       |</v>
+        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )      | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)      | [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )        | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)        | [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )             | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)             | [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )     | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)     |</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>0</v>
@@ -6331,7 +6331,7 @@
       </c>
       <c r="D124" s="1" t="str">
         <f>L47 &amp; MID(L48,2,200) &amp; MID(L49,2,200) &amp; MID(L50,2,200)</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )             | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)             | [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calendario \[gca]" )  | [Google Calendario](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)  | [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )       | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)       | [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" )   | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md)   |</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)           | [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" )    | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)    | [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )     | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)     | [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md) |</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>0</v>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="D125" s="1" t="str">
         <f>L51 &amp; MID(L52,2,200) &amp; MID(L53,2,200) &amp; MID(L54,2,200)</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )        | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)        | [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )      | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)      | [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )     | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)     | [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )         | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)         |</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )      | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)      | [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )    | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)    | [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )   | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)   | [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )       | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)       |</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>0</v>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="D126" s="1" t="str">
         <f>L55 &amp; MID(L56,2,200) &amp; MID(L57,2,200) &amp; MID(L58,2,200)</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )      | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)      | [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )            | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)            | [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )                | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)                | [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )         | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)         |</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )    | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)    | [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )          | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)          | [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )              | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)              | [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )       | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)       |</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>0</v>
@@ -6379,7 +6379,7 @@
       </c>
       <c r="D127" s="1" t="str">
         <f>L59 &amp; MID(L60,2,200) &amp; MID(L61,2,200) &amp; MID(L62,2,200)</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )             | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)             | [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )              | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)              | [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )              | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)              | [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )           | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)           |</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)           | [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )            | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)            | [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )            | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)            | [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )         | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)         |</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>0</v>
@@ -6395,7 +6395,7 @@
       </c>
       <c r="D128" s="1" t="str">
         <f>L63 &amp; MID(L64,2,200) &amp; MID(L65,2,200) &amp; MID(L66,2,200)</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )                | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)                | [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )          | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)          | [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )        | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)        | [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )          | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)          |</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )              | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)              | [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )        | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)        | [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )      | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)      | [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )        | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)        |</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>0</v>
@@ -6411,7 +6411,7 @@
       </c>
       <c r="D129" s="1" t="str">
         <f>L67 &amp; MID(L68,2,200) &amp; MID(L69,2,200) &amp; MID(L70,2,200)</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )     | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)     | [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )      | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)      | [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )             | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)             | [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )       | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)       |</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )   | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)   | [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )    | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)    | [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )           | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)           | [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )     | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)     |</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>0</v>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="D130" s="1" t="str">
         <f>L71 &amp; MID(L72,2,200) &amp; MID(L73,2,200) &amp; MID(L74,2,200)</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )               | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)               | [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )           | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)           | [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" )      | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)      | [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )           | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)           |</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )             | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)             | [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )         | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)         | [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" )    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)    | [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )         | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)         |</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>0</v>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="D131" s="1" t="str">
         <f>L75 &amp; MID(L76,2,200) &amp; MID(L77,2,200) &amp; MID(L78,2,200)</f>
-        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )         | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)         | [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )             | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)             | [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" )   | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md)   | [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" )         | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)         |</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )       | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)       | [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )           | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)           | [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md) | [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" )       | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)       |</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>0</v>
@@ -6459,7 +6459,7 @@
       </c>
       <c r="D132" s="1" t="str">
         <f>L79 &amp; MID(L80,2,200) &amp; MID(L81,2,200) &amp; MID(L82,2,200)</f>
-        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" )         | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)         | [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" )      | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)      | [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" )    | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)    | [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Línea \[wlc]" )   | [Ws Chat en Línea](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)   |</v>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" )       | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)       | [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" )    | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)    | [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" )  | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)  | [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" )  | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)  |</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>0</v>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="D133" s="1" t="str">
         <f>L83 &amp; MID(L84,2,200) &amp; MID(L85,2,200) &amp; MID(L86,2,200)</f>
-        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" )         | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)         | [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" )    | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)    | [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" )             | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)             | [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" )      | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)      |</v>
+        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" )       | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)       | [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" )  | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)  | [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" )           | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)           | [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" )    | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)    |</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>0</v>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="D134" s="1" t="str">
         <f>L87 &amp; MID(L88,2,200) &amp; MID(L89,2,200) &amp; MID(L90,2,200)</f>
-        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" )      | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)      | [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" )     | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)     | [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" )   | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md)   | [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" )     | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)     |</v>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" )    | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)    | [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" )   | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)   | [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md) | [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" )   | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)   |</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>0</v>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="D135" s="1" t="str">
         <f>L91 &amp; MID(L92,2,200) &amp; MID(L93,2,200) &amp; MID(L94,2,200)</f>
-        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" )      | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)      | [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" )         | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)         | [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" )       | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)       | [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" )     | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)     |</v>
+        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" )    | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)    | [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" )       | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)       | [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" )     | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)     | [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" )   | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)   |</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>0</v>
@@ -6523,7 +6523,7 @@
       </c>
       <c r="D136" s="1" t="str">
         <f>L95 &amp; MID(L96,2,200) &amp; MID(L97,2,200) &amp; MID(L98,2,200)</f>
-        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" )           | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)           | [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" )   | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md)   | [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" )      | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)      | [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" )      | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)      |</v>
+        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" )         | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)         | [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md) | [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" )    | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)    | [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" )    | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)    |</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>0</v>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="D137" s="1" t="str">
         <f>L99 &amp; MID(L100,2,200) &amp; MID(L101,2,200) &amp; MID(L102,2,200)</f>
-        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" )          | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)          | [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" )           | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)           | [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" )   | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md)   | [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" )          | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)          |</v>
+        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" )        | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)        | [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" )         | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)         | [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md) | [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" )        | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)        |</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>0</v>
@@ -6555,7 +6555,7 @@
       </c>
       <c r="D138" s="1" t="str">
         <f>L103 &amp; MID(L104,2,200) &amp; MID(L105,2,200) &amp; MID(L106,2,200)</f>
-        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" )         | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)         | [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" )      | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)      | [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" )    | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)    | [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" )         | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)         |</v>
+        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" )       | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)       | [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" )    | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)    | [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" )  | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)  | [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" )       | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)       |</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>0</v>

--- a/doc/Reorder APPs Menu.xlsx
+++ b/doc/Reorder APPs Menu.xlsx
@@ -11,18 +11,18 @@
   </sheets>
   <definedNames>
     <definedName name="actual">NewMenu!#REF!</definedName>
-    <definedName name="dir">NewMenu!$A$3:$A$106</definedName>
-    <definedName name="LN_en_uk">NewMenu!$F$109</definedName>
-    <definedName name="LN_es_mx">NewMenu!$G$109</definedName>
-    <definedName name="ML_en_uk">NewMenu!$F$108</definedName>
-    <definedName name="ML_es_mx">NewMenu!$G$108</definedName>
+    <definedName name="dir">NewMenu!$A$4:$A$108</definedName>
+    <definedName name="LN_en_uk">NewMenu!$F$111</definedName>
+    <definedName name="LN_es_mx">NewMenu!$G$111</definedName>
+    <definedName name="ML_en_uk">NewMenu!$F$110</definedName>
+    <definedName name="ML_es_mx">NewMenu!$G$110</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="311">
   <si>
     <t/>
   </si>
@@ -943,6 +943,18 @@
   </si>
   <si>
     <t>Sales Management</t>
+  </si>
+  <si>
+    <t>rfr</t>
+  </si>
+  <si>
+    <t>Referrals</t>
+  </si>
+  <si>
+    <t>Referencias</t>
+  </si>
+  <si>
+    <t>| | |</t>
   </si>
 </sst>
 </file>
@@ -1310,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M282"/>
+  <dimension ref="A1:M289"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,73 +1344,27 @@
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" t="str">
-        <f>"_1_ "&amp; B3</f>
-        <v>_1_ Odoo System</v>
-      </c>
-      <c r="D3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E3" t="str">
-        <f>"_1_ "&amp; D3</f>
-        <v>_1_ Odoo - Sistema</v>
-      </c>
-      <c r="F3">
-        <f>LEN(B3)</f>
-        <v>11</v>
-      </c>
-      <c r="G3">
-        <f>LEN(D3)</f>
-        <v>14</v>
-      </c>
-      <c r="H3" s="1" t="str">
-        <f>"| [![" &amp; $A3 &amp; "](/doc/img/app/sml/" &amp; $A3 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A3 &amp; "/en-uk-o13-ee-" &amp; $A3 &amp; "-guides.md ""Goto " &amp; B3 &amp; " guides \[" &amp; $A3 &amp; "]"" ) | [" &amp; B3 &amp; "](/en-uk/o13/ee/"&amp;$A3&amp;"/en-uk-o13-ee-" &amp; $A3 &amp; "-guides.md)"</f>
-        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md "Goto Odoo System guides \[o13]" ) | [Odoo System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md)</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f>LEFT(H3,LN_en_uk+F3-1) &amp; REPT(" ",ML_en_uk-F3) &amp; MID(H3,LN_en_uk+F3,200)&amp;REPT(" ",ML_en_uk-F3+1) &amp;"|"</f>
-        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md "Goto Odoo System guides \[o13]" )        | [Odoo System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md)        |</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1" t="str">
-        <f>"| [![" &amp; $A3 &amp; "](/doc/img/app/sml/" &amp; $A3 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A3 &amp; "/es-mx-o13-ee-" &amp; $A3 &amp; "-guides.md ""Ver a las guías de " &amp; D3 &amp; " \[" &amp; $A3 &amp; "]"" ) | [" &amp; D3 &amp; "](/es-mx/o13/ee/"&amp;$A3&amp;"/es-mx-o13-ee-" &amp; $A3 &amp; "-guides.md)"</f>
-        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" ) | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)</v>
-      </c>
-      <c r="L3" s="1" t="str">
-        <f>LEFT(K3,LN_es_mx+G3-1) &amp; REPT(" ",ML_es_mx-G3) &amp; MID(K3,LN_es_mx+G3,200)&amp;REPT(" ",ML_es_mx-G3+1) &amp;"|"</f>
-        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" )   | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)   |</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>207</v>
       </c>
       <c r="C4" t="str">
-        <f>"_2_ "&amp; B4</f>
-        <v>_2_ Odoo Studio</v>
+        <f>"_1_ "&amp; B4</f>
+        <v>_1_ Odoo System</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E4" t="str">
-        <f>"_2_ "&amp; D4</f>
-        <v>_2_ Odoo - Studio</v>
+        <f>"_1_ "&amp; D4</f>
+        <v>_1_ Odoo - Sistema</v>
       </c>
       <c r="F4">
         <f>LEN(B4)</f>
@@ -1406,26 +1372,26 @@
       </c>
       <c r="G4">
         <f>LEN(D4)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="str">
         <f>"| [![" &amp; $A4 &amp; "](/doc/img/app/sml/" &amp; $A4 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A4 &amp; "/en-uk-o13-ee-" &amp; $A4 &amp; "-guides.md ""Goto " &amp; B4 &amp; " guides \[" &amp; $A4 &amp; "]"" ) | [" &amp; B4 &amp; "](/en-uk/o13/ee/"&amp;$A4&amp;"/en-uk-o13-ee-" &amp; $A4 &amp; "-guides.md)"</f>
-        <v>| [![stu](/doc/img/app/sml/stu.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md "Goto Odoo Studio guides \[stu]" ) | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md)</v>
+        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md "Goto Odoo System guides \[o13]" ) | [Odoo System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md)</v>
       </c>
       <c r="I4" s="1" t="str">
         <f>LEFT(H4,LN_en_uk+F4-1) &amp; REPT(" ",ML_en_uk-F4) &amp; MID(H4,LN_en_uk+F4,200)&amp;REPT(" ",ML_en_uk-F4+1) &amp;"|"</f>
-        <v>| [![stu](/doc/img/app/sml/stu.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md "Goto Odoo Studio guides \[stu]" )        | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md)        |</v>
+        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md "Goto Odoo System guides \[o13]" )        | [Odoo System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md)        |</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K4" s="1" t="str">
         <f>"| [![" &amp; $A4 &amp; "](/doc/img/app/sml/" &amp; $A4 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A4 &amp; "/es-mx-o13-ee-" &amp; $A4 &amp; "-guides.md ""Ver a las guías de " &amp; D4 &amp; " \[" &amp; $A4 &amp; "]"" ) | [" &amp; D4 &amp; "](/es-mx/o13/ee/"&amp;$A4&amp;"/es-mx-o13-ee-" &amp; $A4 &amp; "-guides.md)"</f>
-        <v>| [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" ) | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)</v>
+        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" ) | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)</v>
       </c>
       <c r="L4" s="1" t="str">
         <f>LEFT(K4,LN_es_mx+G4-1) &amp; REPT(" ",ML_es_mx-G4) &amp; MID(K4,LN_es_mx+G4,200)&amp;REPT(" ",ML_es_mx-G4+1) &amp;"|"</f>
-        <v>| [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" )    | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)    |</v>
+        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" )   | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)   |</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>0</v>
@@ -1433,48 +1399,48 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C5" t="str">
-        <f>"_3_ "&amp; B5</f>
-        <v>_3_ Odoo SH</v>
+        <f>"_2_ "&amp; B5</f>
+        <v>_2_ Odoo Studio</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E5" t="str">
-        <f>"_3_ "&amp; D5</f>
-        <v>_3_ Odoo - SH</v>
+        <f>"_2_ "&amp; D5</f>
+        <v>_2_ Odoo - Studio</v>
       </c>
       <c r="F5">
         <f>LEN(B5)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <f>LEN(D5)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="str">
         <f>"| [![" &amp; $A5 &amp; "](/doc/img/app/sml/" &amp; $A5 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A5 &amp; "/en-uk-o13-ee-" &amp; $A5 &amp; "-guides.md ""Goto " &amp; B5 &amp; " guides \[" &amp; $A5 &amp; "]"" ) | [" &amp; B5 &amp; "](/en-uk/o13/ee/"&amp;$A5&amp;"/en-uk-o13-ee-" &amp; $A5 &amp; "-guides.md)"</f>
-        <v>| [![osh](/doc/img/app/sml/osh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md "Goto Odoo SH guides \[osh]" ) | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md)</v>
+        <v>| [![stu](/doc/img/app/sml/stu.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md "Goto Odoo Studio guides \[stu]" ) | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md)</v>
       </c>
       <c r="I5" s="1" t="str">
         <f>LEFT(H5,LN_en_uk+F5-1) &amp; REPT(" ",ML_en_uk-F5) &amp; MID(H5,LN_en_uk+F5,200)&amp;REPT(" ",ML_en_uk-F5+1) &amp;"|"</f>
-        <v>| [![osh](/doc/img/app/sml/osh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md "Goto Odoo SH guides \[osh]" )            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md)            |</v>
+        <v>| [![stu](/doc/img/app/sml/stu.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md "Goto Odoo Studio guides \[stu]" )        | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md)        |</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="1" t="str">
         <f>"| [![" &amp; $A5 &amp; "](/doc/img/app/sml/" &amp; $A5 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A5 &amp; "/es-mx-o13-ee-" &amp; $A5 &amp; "-guides.md ""Ver a las guías de " &amp; D5 &amp; " \[" &amp; $A5 &amp; "]"" ) | [" &amp; D5 &amp; "](/es-mx/o13/ee/"&amp;$A5&amp;"/es-mx-o13-ee-" &amp; $A5 &amp; "-guides.md)"</f>
-        <v>| [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" ) | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)</v>
+        <v>| [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" ) | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)</v>
       </c>
       <c r="L5" s="1" t="str">
-        <f>LEFT(K5,LN_es_mx-1+G5) &amp; REPT(" ",ML_es_mx-G5) &amp; MID(K5,LN_es_mx+G5,200)&amp;REPT(" ",ML_es_mx-G5+1) &amp;"|"</f>
-        <v>| [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" )        | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)        |</v>
+        <f>LEFT(K5,LN_es_mx+G5-1) &amp; REPT(" ",ML_es_mx-G5) &amp; MID(K5,LN_es_mx+G5,200)&amp;REPT(" ",ML_es_mx-G5+1) &amp;"|"</f>
+        <v>| [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" )    | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)    |</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>0</v>
@@ -1482,48 +1448,48 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="C6" t="str">
-        <f>"_4_ "&amp; B6</f>
-        <v>_4_ 3rd Parties</v>
+        <f>"_3_ "&amp; B6</f>
+        <v>_3_ Odoo SH</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E6" t="str">
-        <f>"_4_ "&amp; D6</f>
-        <v>_4_ Apps de 3os.</v>
+        <f>"_3_ "&amp; D6</f>
+        <v>_3_ Odoo - SH</v>
       </c>
       <c r="F6">
         <f>LEN(B6)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <f>LEN(D6)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="str">
         <f>"| [![" &amp; $A6 &amp; "](/doc/img/app/sml/" &amp; $A6 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A6 &amp; "/en-uk-o13-ee-" &amp; $A6 &amp; "-guides.md ""Goto " &amp; B6 &amp; " guides \[" &amp; $A6 &amp; "]"" ) | [" &amp; B6 &amp; "](/en-uk/o13/ee/"&amp;$A6&amp;"/en-uk-o13-ee-" &amp; $A6 &amp; "-guides.md)"</f>
-        <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md "Goto 3rd Parties guides \[3rd]" ) | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md)</v>
+        <v>| [![osh](/doc/img/app/sml/osh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md "Goto Odoo SH guides \[osh]" ) | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md)</v>
       </c>
       <c r="I6" s="1" t="str">
         <f>LEFT(H6,LN_en_uk+F6-1) &amp; REPT(" ",ML_en_uk-F6) &amp; MID(H6,LN_en_uk+F6,200)&amp;REPT(" ",ML_en_uk-F6+1) &amp;"|"</f>
-        <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md "Goto 3rd Parties guides \[3rd]" )        | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md)        |</v>
+        <v>| [![osh](/doc/img/app/sml/osh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md "Goto Odoo SH guides \[osh]" )            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md)            |</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K6" s="1" t="str">
         <f>"| [![" &amp; $A6 &amp; "](/doc/img/app/sml/" &amp; $A6 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A6 &amp; "/es-mx-o13-ee-" &amp; $A6 &amp; "-guides.md ""Ver a las guías de " &amp; D6 &amp; " \[" &amp; $A6 &amp; "]"" ) | [" &amp; D6 &amp; "](/es-mx/o13/ee/"&amp;$A6&amp;"/es-mx-o13-ee-" &amp; $A6 &amp; "-guides.md)"</f>
-        <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" ) | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)</v>
+        <v>| [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" ) | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)</v>
       </c>
       <c r="L6" s="1" t="str">
         <f>LEFT(K6,LN_es_mx-1+G6) &amp; REPT(" ",ML_es_mx-G6) &amp; MID(K6,LN_es_mx+G6,200)&amp;REPT(" ",ML_es_mx-G6+1) &amp;"|"</f>
-        <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" )     | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)     |</v>
+        <v>| [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" )        | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)        |</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>0</v>
@@ -1531,25 +1497,25 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" t="str">
-        <f>B7</f>
-        <v>Accounting</v>
+        <f>"_4_ "&amp; B7</f>
+        <v>_4_ 3rd Parties</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7" t="str">
-        <f>D7</f>
-        <v>Contabilidad</v>
+        <f>"_4_ "&amp; D7</f>
+        <v>_4_ Apps de 3os.</v>
       </c>
       <c r="F7">
         <f>LEN(B7)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <f>LEN(D7)</f>
@@ -1557,22 +1523,22 @@
       </c>
       <c r="H7" s="1" t="str">
         <f>"| [![" &amp; $A7 &amp; "](/doc/img/app/sml/" &amp; $A7 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A7 &amp; "/en-uk-o13-ee-" &amp; $A7 &amp; "-guides.md ""Goto " &amp; B7 &amp; " guides \[" &amp; $A7 &amp; "]"" ) | [" &amp; B7 &amp; "](/en-uk/o13/ee/"&amp;$A7&amp;"/en-uk-o13-ee-" &amp; $A7 &amp; "-guides.md)"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" ) | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)</v>
+        <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md "Goto 3rd Parties guides \[3rd]" ) | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md)</v>
       </c>
       <c r="I7" s="1" t="str">
         <f>LEFT(H7,LN_en_uk+F7-1) &amp; REPT(" ",ML_en_uk-F7) &amp; MID(H7,LN_en_uk+F7,200)&amp;REPT(" ",ML_en_uk-F7+1) &amp;"|"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" )         | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)         |</v>
+        <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md "Goto 3rd Parties guides \[3rd]" )        | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md)        |</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K7" s="1" t="str">
         <f>"| [![" &amp; $A7 &amp; "](/doc/img/app/sml/" &amp; $A7 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A7 &amp; "/es-mx-o13-ee-" &amp; $A7 &amp; "-guides.md ""Ver a las guías de " &amp; D7 &amp; " \[" &amp; $A7 &amp; "]"" ) | [" &amp; D7 &amp; "](/es-mx/o13/ee/"&amp;$A7&amp;"/es-mx-o13-ee-" &amp; $A7 &amp; "-guides.md)"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" ) | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)</v>
+        <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" ) | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)</v>
       </c>
       <c r="L7" s="1" t="str">
         <f>LEFT(K7,LN_es_mx-1+G7) &amp; REPT(" ",ML_es_mx-G7) &amp; MID(K7,LN_es_mx+G7,200)&amp;REPT(" ",ML_es_mx-G7+1) &amp;"|"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )     | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)     |</v>
+        <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" )     | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)     |</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>0</v>
@@ -1580,48 +1546,48 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" t="str">
         <f>B8</f>
-        <v>Appointments</v>
+        <v>Accounting</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E8" t="str">
         <f>D8</f>
-        <v>Citas</v>
+        <v>Contabilidad</v>
       </c>
       <c r="F8">
         <f>LEN(B8)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <f>LEN(D8)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>"| [![" &amp; $A8 &amp; "](/doc/img/app/sml/" &amp; $A8 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A8 &amp; "/en-uk-o13-ee-" &amp; $A8 &amp; "-guides.md ""Goto " &amp; B8 &amp; " guides \[" &amp; $A8 &amp; "]"" ) | [" &amp; B8 &amp; "](/en-uk/o13/ee/"&amp;$A8&amp;"/en-uk-o13-ee-" &amp; $A8 &amp; "-guides.md)"</f>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" ) | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" ) | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>LEFT(H8,LN_en_uk+F8-1) &amp; REPT(" ",ML_en_uk-F8) &amp; MID(H8,LN_en_uk+F8,200)&amp;REPT(" ",ML_en_uk-F8+1) &amp;"|"</f>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" )       | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)       |</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" )         | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)         |</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="1" t="str">
         <f>"| [![" &amp; $A8 &amp; "](/doc/img/app/sml/" &amp; $A8 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A8 &amp; "/es-mx-o13-ee-" &amp; $A8 &amp; "-guides.md ""Ver a las guías de " &amp; D8 &amp; " \[" &amp; $A8 &amp; "]"" ) | [" &amp; D8 &amp; "](/es-mx/o13/ee/"&amp;$A8&amp;"/es-mx-o13-ee-" &amp; $A8 &amp; "-guides.md)"</f>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" ) | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" ) | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)</v>
       </c>
       <c r="L8" s="1" t="str">
         <f>LEFT(K8,LN_es_mx-1+G8) &amp; REPT(" ",ML_es_mx-G8) &amp; MID(K8,LN_es_mx+G8,200)&amp;REPT(" ",ML_es_mx-G8+1) &amp;"|"</f>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )            | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)            |</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )     | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)     |</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>0</v>
@@ -1629,48 +1595,48 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9" t="str">
         <f>B9</f>
-        <v>Appraisal</v>
+        <v>Appointments</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E9" t="str">
         <f>D9</f>
-        <v>Evaluaciones</v>
+        <v>Citas</v>
       </c>
       <c r="F9">
         <f>LEN(B9)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <f>LEN(D9)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>"| [![" &amp; $A9 &amp; "](/doc/img/app/sml/" &amp; $A9 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A9 &amp; "/en-uk-o13-ee-" &amp; $A9 &amp; "-guides.md ""Goto " &amp; B9 &amp; " guides \[" &amp; $A9 &amp; "]"" ) | [" &amp; B9 &amp; "](/en-uk/o13/ee/"&amp;$A9&amp;"/en-uk-o13-ee-" &amp; $A9 &amp; "-guides.md)"</f>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" ) | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" ) | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>LEFT(H9,LN_en_uk+F9-1) &amp; REPT(" ",ML_en_uk-F9) &amp; MID(H9,LN_en_uk+F9,200)&amp;REPT(" ",ML_en_uk-F9+1) &amp;"|"</f>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" )          | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)          |</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" )       | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)       |</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K9" s="1" t="str">
         <f>"| [![" &amp; $A9 &amp; "](/doc/img/app/sml/" &amp; $A9 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A9 &amp; "/es-mx-o13-ee-" &amp; $A9 &amp; "-guides.md ""Ver a las guías de " &amp; D9 &amp; " \[" &amp; $A9 &amp; "]"" ) | [" &amp; D9 &amp; "](/es-mx/o13/ee/"&amp;$A9&amp;"/es-mx-o13-ee-" &amp; $A9 &amp; "-guides.md)"</f>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" ) | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" ) | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>LEFT(K9,LN_es_mx-1+G9) &amp; REPT(" ",ML_es_mx-G9) &amp; MID(K9,LN_es_mx+G9,200)&amp;REPT(" ",ML_es_mx-G9+1) &amp;"|"</f>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )     | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)     |</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )            | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)            |</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>0</v>
@@ -1678,21 +1644,21 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" t="str">
         <f>B10</f>
-        <v>Approvals</v>
+        <v>Appraisal</v>
       </c>
       <c r="D10" t="s">
-        <v>271</v>
+        <v>215</v>
       </c>
       <c r="E10" t="str">
         <f>D10</f>
-        <v>Autorizaciones</v>
+        <v>Evaluaciones</v>
       </c>
       <c r="F10">
         <f>LEN(B10)</f>
@@ -1700,26 +1666,26 @@
       </c>
       <c r="G10">
         <f>LEN(D10)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>"| [![" &amp; $A10 &amp; "](/doc/img/app/sml/" &amp; $A10 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A10 &amp; "/en-uk-o13-ee-" &amp; $A10 &amp; "-guides.md ""Goto " &amp; B10 &amp; " guides \[" &amp; $A10 &amp; "]"" ) | [" &amp; B10 &amp; "](/en-uk/o13/ee/"&amp;$A10&amp;"/en-uk-o13-ee-" &amp; $A10 &amp; "-guides.md)"</f>
-        <v>| [![apv](/doc/img/app/sml/apv.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md "Goto Approvals guides \[apv]" ) | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md)</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" ) | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>LEFT(H10,LN_en_uk+F10-1) &amp; REPT(" ",ML_en_uk-F10) &amp; MID(H10,LN_en_uk+F10,200)&amp;REPT(" ",ML_en_uk-F10+1) &amp;"|"</f>
-        <v>| [![apv](/doc/img/app/sml/apv.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md "Goto Approvals guides \[apv]" )          | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md)          |</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" )          | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)          |</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K10" s="1" t="str">
         <f>"| [![" &amp; $A10 &amp; "](/doc/img/app/sml/" &amp; $A10 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A10 &amp; "/es-mx-o13-ee-" &amp; $A10 &amp; "-guides.md ""Ver a las guías de " &amp; D10 &amp; " \[" &amp; $A10 &amp; "]"" ) | [" &amp; D10 &amp; "](/es-mx/o13/ee/"&amp;$A10&amp;"/es-mx-o13-ee-" &amp; $A10 &amp; "-guides.md)"</f>
-        <v>| [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" ) | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" ) | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)</v>
       </c>
       <c r="L10" s="1" t="str">
         <f>LEFT(K10,LN_es_mx-1+G10) &amp; REPT(" ",ML_es_mx-G10) &amp; MID(K10,LN_es_mx+G10,200)&amp;REPT(" ",ML_es_mx-G10+1) &amp;"|"</f>
-        <v>| [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" )   | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)   |</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )     | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)     |</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>0</v>
@@ -1727,48 +1693,48 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="C11" t="str">
         <f>B11</f>
-        <v>Assets</v>
+        <v>Approvals</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="E11" t="str">
         <f>D11</f>
-        <v>Activos</v>
+        <v>Autorizaciones</v>
       </c>
       <c r="F11">
         <f>LEN(B11)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <f>LEN(D11)</f>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H11" s="1" t="str">
         <f>"| [![" &amp; $A11 &amp; "](/doc/img/app/sml/" &amp; $A11 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A11 &amp; "/en-uk-o13-ee-" &amp; $A11 &amp; "-guides.md ""Goto " &amp; B11 &amp; " guides \[" &amp; $A11 &amp; "]"" ) | [" &amp; B11 &amp; "](/en-uk/o13/ee/"&amp;$A11&amp;"/en-uk-o13-ee-" &amp; $A11 &amp; "-guides.md)"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" ) | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)</v>
+        <v>| [![apv](/doc/img/app/sml/apv.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md "Goto Approvals guides \[apv]" ) | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md)</v>
       </c>
       <c r="I11" s="1" t="str">
         <f>LEFT(H11,LN_en_uk+F11-1) &amp; REPT(" ",ML_en_uk-F11) &amp; MID(H11,LN_en_uk+F11,200)&amp;REPT(" ",ML_en_uk-F11+1) &amp;"|"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" )             | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)             |</v>
+        <v>| [![apv](/doc/img/app/sml/apv.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md "Goto Approvals guides \[apv]" )          | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md)          |</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K11" s="1" t="str">
         <f>"| [![" &amp; $A11 &amp; "](/doc/img/app/sml/" &amp; $A11 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A11 &amp; "/es-mx-o13-ee-" &amp; $A11 &amp; "-guides.md ""Ver a las guías de " &amp; D11 &amp; " \[" &amp; $A11 &amp; "]"" ) | [" &amp; D11 &amp; "](/es-mx/o13/ee/"&amp;$A11&amp;"/es-mx-o13-ee-" &amp; $A11 &amp; "-guides.md)"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" ) | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)</v>
+        <v>| [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" ) | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)</v>
       </c>
       <c r="L11" s="1" t="str">
         <f>LEFT(K11,LN_es_mx-1+G11) &amp; REPT(" ",ML_es_mx-G11) &amp; MID(K11,LN_es_mx+G11,200)&amp;REPT(" ",ML_es_mx-G11+1) &amp;"|"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )          | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)          |</v>
+        <v>| [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" )   | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)   |</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>0</v>
@@ -1776,48 +1742,48 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C12" t="str">
         <f>B12</f>
-        <v>Attendance</v>
+        <v>Assets</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E12" t="str">
         <f>D12</f>
-        <v>Asistencia</v>
+        <v>Activos</v>
       </c>
       <c r="F12">
         <f>LEN(B12)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <f>LEN(D12)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1" t="str">
         <f>"| [![" &amp; $A12 &amp; "](/doc/img/app/sml/" &amp; $A12 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A12 &amp; "/en-uk-o13-ee-" &amp; $A12 &amp; "-guides.md ""Goto " &amp; B12 &amp; " guides \[" &amp; $A12 &amp; "]"" ) | [" &amp; B12 &amp; "](/en-uk/o13/ee/"&amp;$A12&amp;"/en-uk-o13-ee-" &amp; $A12 &amp; "-guides.md)"</f>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" ) | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" ) | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>LEFT(H12,LN_en_uk+F12-1) &amp; REPT(" ",ML_en_uk-F12) &amp; MID(H12,LN_en_uk+F12,200)&amp;REPT(" ",ML_en_uk-F12+1) &amp;"|"</f>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" )         | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)         |</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" )             | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)             |</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K12" s="1" t="str">
         <f>"| [![" &amp; $A12 &amp; "](/doc/img/app/sml/" &amp; $A12 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A12 &amp; "/es-mx-o13-ee-" &amp; $A12 &amp; "-guides.md ""Ver a las guías de " &amp; D12 &amp; " \[" &amp; $A12 &amp; "]"" ) | [" &amp; D12 &amp; "](/es-mx/o13/ee/"&amp;$A12&amp;"/es-mx-o13-ee-" &amp; $A12 &amp; "-guides.md)"</f>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" ) | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" ) | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)</v>
       </c>
       <c r="L12" s="1" t="str">
         <f>LEFT(K12,LN_es_mx-1+G12) &amp; REPT(" ",ML_es_mx-G12) &amp; MID(K12,LN_es_mx+G12,200)&amp;REPT(" ",ML_es_mx-G12+1) &amp;"|"</f>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )       | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)       |</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )          | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)          |</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>0</v>
@@ -1825,48 +1791,48 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C13" t="str">
         <f>B13</f>
-        <v>Bar Code</v>
+        <v>Attendance</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" t="str">
         <f>D13</f>
-        <v>Código de Barras</v>
+        <v>Asistencia</v>
       </c>
       <c r="F13">
         <f>LEN(B13)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <f>LEN(D13)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H13" s="1" t="str">
         <f>"| [![" &amp; $A13 &amp; "](/doc/img/app/sml/" &amp; $A13 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A13 &amp; "/en-uk-o13-ee-" &amp; $A13 &amp; "-guides.md ""Goto " &amp; B13 &amp; " guides \[" &amp; $A13 &amp; "]"" ) | [" &amp; B13 &amp; "](/en-uk/o13/ee/"&amp;$A13&amp;"/en-uk-o13-ee-" &amp; $A13 &amp; "-guides.md)"</f>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" ) | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" ) | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>LEFT(H13,LN_en_uk+F13-1) &amp; REPT(" ",ML_en_uk-F13) &amp; MID(H13,LN_en_uk+F13,200)&amp;REPT(" ",ML_en_uk-F13+1) &amp;"|"</f>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" )           | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)           |</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" )         | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)         |</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K13" s="1" t="str">
         <f>"| [![" &amp; $A13 &amp; "](/doc/img/app/sml/" &amp; $A13 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A13 &amp; "/es-mx-o13-ee-" &amp; $A13 &amp; "-guides.md ""Ver a las guías de " &amp; D13 &amp; " \[" &amp; $A13 &amp; "]"" ) | [" &amp; D13 &amp; "](/es-mx/o13/ee/"&amp;$A13&amp;"/es-mx-o13-ee-" &amp; $A13 &amp; "-guides.md)"</f>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md)</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" ) | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)</v>
       </c>
       <c r="L13" s="1" t="str">
         <f>LEFT(K13,LN_es_mx-1+G13) &amp; REPT(" ",ML_es_mx-G13) &amp; MID(K13,LN_es_mx+G13,200)&amp;REPT(" ",ML_es_mx-G13+1) &amp;"|"</f>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md) |</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )       | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)       |</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>0</v>
@@ -1874,48 +1840,48 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="C14" t="str">
         <f>B14</f>
-        <v>Blog</v>
+        <v>Bar Code</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="E14" t="str">
         <f>D14</f>
-        <v>Blog</v>
+        <v>Código de Barras</v>
       </c>
       <c r="F14">
         <f>LEN(B14)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <f>LEN(D14)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>"| [![" &amp; $A14 &amp; "](/doc/img/app/sml/" &amp; $A14 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A14 &amp; "/en-uk-o13-ee-" &amp; $A14 &amp; "-guides.md ""Goto " &amp; B14 &amp; " guides \[" &amp; $A14 &amp; "]"" ) | [" &amp; B14 &amp; "](/en-uk/o13/ee/"&amp;$A14&amp;"/en-uk-o13-ee-" &amp; $A14 &amp; "-guides.md)"</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" ) | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" ) | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>LEFT(H14,LN_en_uk+F14-1) &amp; REPT(" ",ML_en_uk-F14) &amp; MID(H14,LN_en_uk+F14,200)&amp;REPT(" ",ML_en_uk-F14+1) &amp;"|"</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" )               | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)               |</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" )           | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)           |</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K14" s="1" t="str">
         <f>"| [![" &amp; $A14 &amp; "](/doc/img/app/sml/" &amp; $A14 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A14 &amp; "/es-mx-o13-ee-" &amp; $A14 &amp; "-guides.md ""Ver a las guías de " &amp; D14 &amp; " \[" &amp; $A14 &amp; "]"" ) | [" &amp; D14 &amp; "](/es-mx/o13/ee/"&amp;$A14&amp;"/es-mx-o13-ee-" &amp; $A14 &amp; "-guides.md)"</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" ) | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md)</v>
       </c>
       <c r="L14" s="1" t="str">
         <f>LEFT(K14,LN_es_mx-1+G14) &amp; REPT(" ",ML_es_mx-G14) &amp; MID(K14,LN_es_mx+G14,200)&amp;REPT(" ",ML_es_mx-G14+1) &amp;"|"</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )             | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)             |</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md) |</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>0</v>
@@ -1923,48 +1889,48 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" t="str">
         <f>B15</f>
-        <v>Calendar</v>
+        <v>Blog</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="E15" t="str">
         <f>D15</f>
-        <v>Calendario</v>
+        <v>Blog</v>
       </c>
       <c r="F15">
         <f>LEN(B15)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <f>LEN(D15)</f>
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>"| [![" &amp; $A15 &amp; "](/doc/img/app/sml/" &amp; $A15 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A15 &amp; "/en-uk-o13-ee-" &amp; $A15 &amp; "-guides.md ""Goto " &amp; B15 &amp; " guides \[" &amp; $A15 &amp; "]"" ) | [" &amp; B15 &amp; "](/en-uk/o13/ee/"&amp;$A15&amp;"/en-uk-o13-ee-" &amp; $A15 &amp; "-guides.md)"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" ) | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" ) | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>LEFT(H15,LN_en_uk+F15-1) &amp; REPT(" ",ML_en_uk-F15) &amp; MID(H15,LN_en_uk+F15,200)&amp;REPT(" ",ML_en_uk-F15+1) &amp;"|"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" )           | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)           |</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" )               | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)               |</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K15" s="1" t="str">
         <f>"| [![" &amp; $A15 &amp; "](/doc/img/app/sml/" &amp; $A15 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A15 &amp; "/es-mx-o13-ee-" &amp; $A15 &amp; "-guides.md ""Ver a las guías de " &amp; D15 &amp; " \[" &amp; $A15 &amp; "]"" ) | [" &amp; D15 &amp; "](/es-mx/o13/ee/"&amp;$A15&amp;"/es-mx-o13-ee-" &amp; $A15 &amp; "-guides.md)"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" ) | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" ) | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)</v>
       </c>
       <c r="L15" s="1" t="str">
         <f>LEFT(K15,LN_es_mx-1+G15) &amp; REPT(" ",ML_es_mx-G15) &amp; MID(K15,LN_es_mx+G15,200)&amp;REPT(" ",ML_es_mx-G15+1) &amp;"|"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )       | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)       |</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )             | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)             |</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>0</v>
@@ -1972,21 +1938,21 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C16" t="str">
         <f>B16</f>
-        <v>Contacts</v>
+        <v>Calendar</v>
       </c>
       <c r="D16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" t="str">
         <f>D16</f>
-        <v>Contactos</v>
+        <v>Calendario</v>
       </c>
       <c r="F16">
         <f>LEN(B16)</f>
@@ -1994,26 +1960,26 @@
       </c>
       <c r="G16">
         <f>LEN(D16)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="str">
         <f>"| [![" &amp; $A16 &amp; "](/doc/img/app/sml/" &amp; $A16 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A16 &amp; "/en-uk-o13-ee-" &amp; $A16 &amp; "-guides.md ""Goto " &amp; B16 &amp; " guides \[" &amp; $A16 &amp; "]"" ) | [" &amp; B16 &amp; "](/en-uk/o13/ee/"&amp;$A16&amp;"/en-uk-o13-ee-" &amp; $A16 &amp; "-guides.md)"</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" ) | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" ) | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>LEFT(H16,LN_en_uk+F16-1) &amp; REPT(" ",ML_en_uk-F16) &amp; MID(H16,LN_en_uk+F16,200)&amp;REPT(" ",ML_en_uk-F16+1) &amp;"|"</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" )           | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)           |</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" )           | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)           |</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K16" s="1" t="str">
         <f>"| [![" &amp; $A16 &amp; "](/doc/img/app/sml/" &amp; $A16 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A16 &amp; "/es-mx-o13-ee-" &amp; $A16 &amp; "-guides.md ""Ver a las guías de " &amp; D16 &amp; " \[" &amp; $A16 &amp; "]"" ) | [" &amp; D16 &amp; "](/es-mx/o13/ee/"&amp;$A16&amp;"/es-mx-o13-ee-" &amp; $A16 &amp; "-guides.md)"</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" ) | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" ) | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)</v>
       </c>
       <c r="L16" s="1" t="str">
         <f>LEFT(K16,LN_es_mx-1+G16) &amp; REPT(" ",ML_es_mx-G16) &amp; MID(K16,LN_es_mx+G16,200)&amp;REPT(" ",ML_es_mx-G16+1) &amp;"|"</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )        | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)        |</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )       | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)       |</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>0</v>
@@ -2021,48 +1987,48 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C17" t="str">
         <f>B17</f>
-        <v>CRM</v>
+        <v>Contacts</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="E17" t="str">
         <f>D17</f>
-        <v>CRM</v>
+        <v>Contactos</v>
       </c>
       <c r="F17">
         <f>LEN(B17)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <f>LEN(D17)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1" t="str">
         <f>"| [![" &amp; $A17 &amp; "](/doc/img/app/sml/" &amp; $A17 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A17 &amp; "/en-uk-o13-ee-" &amp; $A17 &amp; "-guides.md ""Goto " &amp; B17 &amp; " guides \[" &amp; $A17 &amp; "]"" ) | [" &amp; B17 &amp; "](/en-uk/o13/ee/"&amp;$A17&amp;"/en-uk-o13-ee-" &amp; $A17 &amp; "-guides.md)"</f>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" ) | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" ) | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>LEFT(H17,LN_en_uk+F17-1) &amp; REPT(" ",ML_en_uk-F17) &amp; MID(H17,LN_en_uk+F17,200)&amp;REPT(" ",ML_en_uk-F17+1) &amp;"|"</f>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" )                | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)                |</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" )           | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)           |</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="1" t="str">
         <f>"| [![" &amp; $A17 &amp; "](/doc/img/app/sml/" &amp; $A17 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A17 &amp; "/es-mx-o13-ee-" &amp; $A17 &amp; "-guides.md ""Ver a las guías de " &amp; D17 &amp; " \[" &amp; $A17 &amp; "]"" ) | [" &amp; D17 &amp; "](/es-mx/o13/ee/"&amp;$A17&amp;"/es-mx-o13-ee-" &amp; $A17 &amp; "-guides.md)"</f>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" ) | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" ) | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)</v>
       </c>
       <c r="L17" s="1" t="str">
         <f>LEFT(K17,LN_es_mx-1+G17) &amp; REPT(" ",ML_es_mx-G17) &amp; MID(K17,LN_es_mx+G17,200)&amp;REPT(" ",ML_es_mx-G17+1) &amp;"|"</f>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )              | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)              |</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )        | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)        |</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>0</v>
@@ -2070,48 +2036,48 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="C18" t="str">
         <f>B18</f>
-        <v>Dashboards</v>
+        <v>CRM</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>112</v>
       </c>
       <c r="E18" t="str">
         <f>D18</f>
-        <v>Tableros</v>
+        <v>CRM</v>
       </c>
       <c r="F18">
         <f>LEN(B18)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <f>LEN(D18)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>"| [![" &amp; $A18 &amp; "](/doc/img/app/sml/" &amp; $A18 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A18 &amp; "/en-uk-o13-ee-" &amp; $A18 &amp; "-guides.md ""Goto " &amp; B18 &amp; " guides \[" &amp; $A18 &amp; "]"" ) | [" &amp; B18 &amp; "](/en-uk/o13/ee/"&amp;$A18&amp;"/en-uk-o13-ee-" &amp; $A18 &amp; "-guides.md)"</f>
-        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" ) | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" ) | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>LEFT(H18,LN_en_uk+F18-1) &amp; REPT(" ",ML_en_uk-F18) &amp; MID(H18,LN_en_uk+F18,200)&amp;REPT(" ",ML_en_uk-F18+1) &amp;"|"</f>
-        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" )         | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)         |</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" )                | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)                |</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K18" s="1" t="str">
         <f>"| [![" &amp; $A18 &amp; "](/doc/img/app/sml/" &amp; $A18 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A18 &amp; "/es-mx-o13-ee-" &amp; $A18 &amp; "-guides.md ""Ver a las guías de " &amp; D18 &amp; " \[" &amp; $A18 &amp; "]"" ) | [" &amp; D18 &amp; "](/es-mx/o13/ee/"&amp;$A18&amp;"/es-mx-o13-ee-" &amp; $A18 &amp; "-guides.md)"</f>
-        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" ) | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" ) | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)</v>
       </c>
       <c r="L18" s="1" t="str">
         <f>LEFT(K18,LN_es_mx-1+G18) &amp; REPT(" ",ML_es_mx-G18) &amp; MID(K18,LN_es_mx+G18,200)&amp;REPT(" ",ML_es_mx-G18+1) &amp;"|"</f>
-        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )         | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)         |</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )              | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)              |</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>0</v>
@@ -2119,48 +2085,48 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C19" t="str">
         <f>B19</f>
-        <v>Delivery Bpost</v>
+        <v>Dashboards</v>
       </c>
       <c r="D19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E19" t="str">
         <f>D19</f>
-        <v>Envíos Bpost</v>
+        <v>Tableros</v>
       </c>
       <c r="F19">
         <f>LEN(B19)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <f>LEN(D19)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>"| [![" &amp; $A19 &amp; "](/doc/img/app/sml/" &amp; $A19 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A19 &amp; "/en-uk-o13-ee-" &amp; $A19 &amp; "-guides.md ""Goto " &amp; B19 &amp; " guides \[" &amp; $A19 &amp; "]"" ) | [" &amp; B19 &amp; "](/en-uk/o13/ee/"&amp;$A19&amp;"/en-uk-o13-ee-" &amp; $A19 &amp; "-guides.md)"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" ) | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" ) | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>LEFT(H19,LN_en_uk+F19-1) &amp; REPT(" ",ML_en_uk-F19) &amp; MID(H19,LN_en_uk+F19,200)&amp;REPT(" ",ML_en_uk-F19+1) &amp;"|"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" )     | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)     |</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" )         | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)         |</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K19" s="1" t="str">
         <f>"| [![" &amp; $A19 &amp; "](/doc/img/app/sml/" &amp; $A19 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A19 &amp; "/es-mx-o13-ee-" &amp; $A19 &amp; "-guides.md ""Ver a las guías de " &amp; D19 &amp; " \[" &amp; $A19 &amp; "]"" ) | [" &amp; D19 &amp; "](/es-mx/o13/ee/"&amp;$A19&amp;"/es-mx-o13-ee-" &amp; $A19 &amp; "-guides.md)"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" ) | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" ) | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)</v>
       </c>
       <c r="L19" s="1" t="str">
         <f>LEFT(K19,LN_es_mx-1+G19) &amp; REPT(" ",ML_es_mx-G19) &amp; MID(K19,LN_es_mx+G19,200)&amp;REPT(" ",ML_es_mx-G19+1) &amp;"|"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )     | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)     |</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )         | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)         |</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>0</v>
@@ -2168,48 +2134,48 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" t="str">
         <f>B20</f>
-        <v>Delivery DHL</v>
+        <v>Delivery Bpost</v>
       </c>
       <c r="D20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" t="str">
         <f>D20</f>
-        <v>Envíos DHL</v>
+        <v>Envíos Bpost</v>
       </c>
       <c r="F20">
         <f>LEN(B20)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G20">
         <f>LEN(D20)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H20" s="1" t="str">
         <f>"| [![" &amp; $A20 &amp; "](/doc/img/app/sml/" &amp; $A20 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A20 &amp; "/en-uk-o13-ee-" &amp; $A20 &amp; "-guides.md ""Goto " &amp; B20 &amp; " guides \[" &amp; $A20 &amp; "]"" ) | [" &amp; B20 &amp; "](/en-uk/o13/ee/"&amp;$A20&amp;"/en-uk-o13-ee-" &amp; $A20 &amp; "-guides.md)"</f>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" ) | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" ) | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)</v>
       </c>
       <c r="I20" s="1" t="str">
         <f>LEFT(H20,LN_en_uk+F20-1) &amp; REPT(" ",ML_en_uk-F20) &amp; MID(H20,LN_en_uk+F20,200)&amp;REPT(" ",ML_en_uk-F20+1) &amp;"|"</f>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" )       | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)       |</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" )     | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)     |</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K20" s="1" t="str">
         <f>"| [![" &amp; $A20 &amp; "](/doc/img/app/sml/" &amp; $A20 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A20 &amp; "/es-mx-o13-ee-" &amp; $A20 &amp; "-guides.md ""Ver a las guías de " &amp; D20 &amp; " \[" &amp; $A20 &amp; "]"" ) | [" &amp; D20 &amp; "](/es-mx/o13/ee/"&amp;$A20&amp;"/es-mx-o13-ee-" &amp; $A20 &amp; "-guides.md)"</f>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" ) | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" ) | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)</v>
       </c>
       <c r="L20" s="1" t="str">
         <f>LEFT(K20,LN_es_mx-1+G20) &amp; REPT(" ",ML_es_mx-G20) &amp; MID(K20,LN_es_mx+G20,200)&amp;REPT(" ",ML_es_mx-G20+1) &amp;"|"</f>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )       | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)       |</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )     | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)     |</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>0</v>
@@ -2217,48 +2183,48 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C21" t="str">
         <f>B21</f>
-        <v>Delivery FedEx</v>
+        <v>Delivery DHL</v>
       </c>
       <c r="D21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" t="str">
         <f>D21</f>
-        <v>Envíos FedEx</v>
+        <v>Envíos DHL</v>
       </c>
       <c r="F21">
         <f>LEN(B21)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <f>LEN(D21)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1" t="str">
         <f>"| [![" &amp; $A21 &amp; "](/doc/img/app/sml/" &amp; $A21 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A21 &amp; "/en-uk-o13-ee-" &amp; $A21 &amp; "-guides.md ""Goto " &amp; B21 &amp; " guides \[" &amp; $A21 &amp; "]"" ) | [" &amp; B21 &amp; "](/en-uk/o13/ee/"&amp;$A21&amp;"/en-uk-o13-ee-" &amp; $A21 &amp; "-guides.md)"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" ) | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" ) | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>LEFT(H21,LN_en_uk+F21-1) &amp; REPT(" ",ML_en_uk-F21) &amp; MID(H21,LN_en_uk+F21,200)&amp;REPT(" ",ML_en_uk-F21+1) &amp;"|"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" )     | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)     |</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" )       | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)       |</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K21" s="1" t="str">
         <f>"| [![" &amp; $A21 &amp; "](/doc/img/app/sml/" &amp; $A21 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A21 &amp; "/es-mx-o13-ee-" &amp; $A21 &amp; "-guides.md ""Ver a las guías de " &amp; D21 &amp; " \[" &amp; $A21 &amp; "]"" ) | [" &amp; D21 &amp; "](/es-mx/o13/ee/"&amp;$A21&amp;"/es-mx-o13-ee-" &amp; $A21 &amp; "-guides.md)"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" ) | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" ) | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)</v>
       </c>
       <c r="L21" s="1" t="str">
         <f>LEFT(K21,LN_es_mx-1+G21) &amp; REPT(" ",ML_es_mx-G21) &amp; MID(K21,LN_es_mx+G21,200)&amp;REPT(" ",ML_es_mx-G21+1) &amp;"|"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )     | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)     |</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )       | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)       |</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>0</v>
@@ -2266,48 +2232,48 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" t="str">
         <f>B22</f>
-        <v>Delivery UPS</v>
+        <v>Delivery FedEx</v>
       </c>
       <c r="D22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" t="str">
         <f>D22</f>
-        <v>Envíos UPS</v>
+        <v>Envíos FedEx</v>
       </c>
       <c r="F22">
         <f>LEN(B22)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <f>LEN(D22)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1" t="str">
         <f>"| [![" &amp; $A22 &amp; "](/doc/img/app/sml/" &amp; $A22 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A22 &amp; "/en-uk-o13-ee-" &amp; $A22 &amp; "-guides.md ""Goto " &amp; B22 &amp; " guides \[" &amp; $A22 &amp; "]"" ) | [" &amp; B22 &amp; "](/en-uk/o13/ee/"&amp;$A22&amp;"/en-uk-o13-ee-" &amp; $A22 &amp; "-guides.md)"</f>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" ) | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" ) | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)</v>
       </c>
       <c r="I22" s="1" t="str">
         <f>LEFT(H22,LN_en_uk+F22-1) &amp; REPT(" ",ML_en_uk-F22) &amp; MID(H22,LN_en_uk+F22,200)&amp;REPT(" ",ML_en_uk-F22+1) &amp;"|"</f>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" )       | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)       |</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" )     | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)     |</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K22" s="1" t="str">
         <f>"| [![" &amp; $A22 &amp; "](/doc/img/app/sml/" &amp; $A22 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A22 &amp; "/es-mx-o13-ee-" &amp; $A22 &amp; "-guides.md ""Ver a las guías de " &amp; D22 &amp; " \[" &amp; $A22 &amp; "]"" ) | [" &amp; D22 &amp; "](/es-mx/o13/ee/"&amp;$A22&amp;"/es-mx-o13-ee-" &amp; $A22 &amp; "-guides.md)"</f>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" ) | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" ) | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)</v>
       </c>
       <c r="L22" s="1" t="str">
         <f>LEFT(K22,LN_es_mx-1+G22) &amp; REPT(" ",ML_es_mx-G22) &amp; MID(K22,LN_es_mx+G22,200)&amp;REPT(" ",ML_es_mx-G22+1) &amp;"|"</f>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )       | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)       |</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )     | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)     |</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>0</v>
@@ -2315,48 +2281,48 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C23" t="str">
         <f>B23</f>
-        <v>Delivery USps</v>
+        <v>Delivery UPS</v>
       </c>
       <c r="D23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" t="str">
         <f>D23</f>
-        <v>Envíos Usps</v>
+        <v>Envíos UPS</v>
       </c>
       <c r="F23">
         <f>LEN(B23)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <f>LEN(D23)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1" t="str">
         <f>"| [![" &amp; $A23 &amp; "](/doc/img/app/sml/" &amp; $A23 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A23 &amp; "/en-uk-o13-ee-" &amp; $A23 &amp; "-guides.md ""Goto " &amp; B23 &amp; " guides \[" &amp; $A23 &amp; "]"" ) | [" &amp; B23 &amp; "](/en-uk/o13/ee/"&amp;$A23&amp;"/en-uk-o13-ee-" &amp; $A23 &amp; "-guides.md)"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" ) | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" ) | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>LEFT(H23,LN_en_uk+F23-1) &amp; REPT(" ",ML_en_uk-F23) &amp; MID(H23,LN_en_uk+F23,200)&amp;REPT(" ",ML_en_uk-F23+1) &amp;"|"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" )      | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)      |</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" )       | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)       |</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K23" s="1" t="str">
         <f>"| [![" &amp; $A23 &amp; "](/doc/img/app/sml/" &amp; $A23 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A23 &amp; "/es-mx-o13-ee-" &amp; $A23 &amp; "-guides.md ""Ver a las guías de " &amp; D23 &amp; " \[" &amp; $A23 &amp; "]"" ) | [" &amp; D23 &amp; "](/es-mx/o13/ee/"&amp;$A23&amp;"/es-mx-o13-ee-" &amp; $A23 &amp; "-guides.md)"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" ) | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" ) | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)</v>
       </c>
       <c r="L23" s="1" t="str">
         <f>LEFT(K23,LN_es_mx-1+G23) &amp; REPT(" ",ML_es_mx-G23) &amp; MID(K23,LN_es_mx+G23,200)&amp;REPT(" ",ML_es_mx-G23+1) &amp;"|"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )      | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)      |</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )       | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)       |</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>0</v>
@@ -2364,48 +2330,48 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="C24" t="str">
         <f>B24</f>
-        <v>Discuss</v>
+        <v>Delivery USps</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" t="str">
         <f>D24</f>
-        <v>Charlas</v>
+        <v>Envíos Usps</v>
       </c>
       <c r="F24">
         <f>LEN(B24)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G24">
         <f>LEN(D24)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H24" s="1" t="str">
         <f>"| [![" &amp; $A24 &amp; "](/doc/img/app/sml/" &amp; $A24 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A24 &amp; "/en-uk-o13-ee-" &amp; $A24 &amp; "-guides.md ""Goto " &amp; B24 &amp; " guides \[" &amp; $A24 &amp; "]"" ) | [" &amp; B24 &amp; "](/en-uk/o13/ee/"&amp;$A24&amp;"/en-uk-o13-ee-" &amp; $A24 &amp; "-guides.md)"</f>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" ) | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" ) | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>LEFT(H24,LN_en_uk+F24-1) &amp; REPT(" ",ML_en_uk-F24) &amp; MID(H24,LN_en_uk+F24,200)&amp;REPT(" ",ML_en_uk-F24+1) &amp;"|"</f>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" )            | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)            |</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" )      | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)      |</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K24" s="1" t="str">
         <f>"| [![" &amp; $A24 &amp; "](/doc/img/app/sml/" &amp; $A24 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A24 &amp; "/es-mx-o13-ee-" &amp; $A24 &amp; "-guides.md ""Ver a las guías de " &amp; D24 &amp; " \[" &amp; $A24 &amp; "]"" ) | [" &amp; D24 &amp; "](/es-mx/o13/ee/"&amp;$A24&amp;"/es-mx-o13-ee-" &amp; $A24 &amp; "-guides.md)"</f>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" ) | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" ) | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)</v>
       </c>
       <c r="L24" s="1" t="str">
         <f>LEFT(K24,LN_es_mx-1+G24) &amp; REPT(" ",ML_es_mx-G24) &amp; MID(K24,LN_es_mx+G24,200)&amp;REPT(" ",ML_es_mx-G24+1) &amp;"|"</f>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )          | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)          |</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )      | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)      |</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>0</v>
@@ -2413,48 +2379,48 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="C25" t="str">
         <f>B25</f>
-        <v>Documents</v>
+        <v>Discuss</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" t="str">
         <f>D25</f>
-        <v>Documentos</v>
+        <v>Charlas</v>
       </c>
       <c r="F25">
         <f>LEN(B25)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <f>LEN(D25)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H25" s="1" t="str">
         <f>"| [![" &amp; $A25 &amp; "](/doc/img/app/sml/" &amp; $A25 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A25 &amp; "/en-uk-o13-ee-" &amp; $A25 &amp; "-guides.md ""Goto " &amp; B25 &amp; " guides \[" &amp; $A25 &amp; "]"" ) | [" &amp; B25 &amp; "](/en-uk/o13/ee/"&amp;$A25&amp;"/en-uk-o13-ee-" &amp; $A25 &amp; "-guides.md)"</f>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" ) | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" ) | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>LEFT(H25,LN_en_uk+F25-1) &amp; REPT(" ",ML_en_uk-F25) &amp; MID(H25,LN_en_uk+F25,200)&amp;REPT(" ",ML_en_uk-F25+1) &amp;"|"</f>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" )          | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)          |</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" )            | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)            |</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K25" s="1" t="str">
         <f>"| [![" &amp; $A25 &amp; "](/doc/img/app/sml/" &amp; $A25 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A25 &amp; "/es-mx-o13-ee-" &amp; $A25 &amp; "-guides.md ""Ver a las guías de " &amp; D25 &amp; " \[" &amp; $A25 &amp; "]"" ) | [" &amp; D25 &amp; "](/es-mx/o13/ee/"&amp;$A25&amp;"/es-mx-o13-ee-" &amp; $A25 &amp; "-guides.md)"</f>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" ) | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" ) | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)</v>
       </c>
       <c r="L25" s="1" t="str">
         <f>LEFT(K25,LN_es_mx-1+G25) &amp; REPT(" ",ML_es_mx-G25) &amp; MID(K25,LN_es_mx+G25,200)&amp;REPT(" ",ML_es_mx-G25+1) &amp;"|"</f>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )       | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)       |</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )          | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)          |</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>0</v>
@@ -2462,21 +2428,21 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="C26" t="str">
         <f>B26</f>
-        <v>eCommerce</v>
+        <v>Documents</v>
       </c>
       <c r="D26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E26" t="str">
         <f>D26</f>
-        <v>eComercio</v>
+        <v>Documentos</v>
       </c>
       <c r="F26">
         <f>LEN(B26)</f>
@@ -2484,26 +2450,26 @@
       </c>
       <c r="G26">
         <f>LEN(D26)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1" t="str">
         <f>"| [![" &amp; $A26 &amp; "](/doc/img/app/sml/" &amp; $A26 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A26 &amp; "/en-uk-o13-ee-" &amp; $A26 &amp; "-guides.md ""Goto " &amp; B26 &amp; " guides \[" &amp; $A26 &amp; "]"" ) | [" &amp; B26 &amp; "](/en-uk/o13/ee/"&amp;$A26&amp;"/en-uk-o13-ee-" &amp; $A26 &amp; "-guides.md)"</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" ) | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" ) | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>LEFT(H26,LN_en_uk+F26-1) &amp; REPT(" ",ML_en_uk-F26) &amp; MID(H26,LN_en_uk+F26,200)&amp;REPT(" ",ML_en_uk-F26+1) &amp;"|"</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" )          | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)          |</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" )          | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)          |</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K26" s="1" t="str">
         <f>"| [![" &amp; $A26 &amp; "](/doc/img/app/sml/" &amp; $A26 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A26 &amp; "/es-mx-o13-ee-" &amp; $A26 &amp; "-guides.md ""Ver a las guías de " &amp; D26 &amp; " \[" &amp; $A26 &amp; "]"" ) | [" &amp; D26 &amp; "](/es-mx/o13/ee/"&amp;$A26&amp;"/es-mx-o13-ee-" &amp; $A26 &amp; "-guides.md)"</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" ) | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" ) | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)</v>
       </c>
       <c r="L26" s="1" t="str">
         <f>LEFT(K26,LN_es_mx-1+G26) &amp; REPT(" ",ML_es_mx-G26) &amp; MID(K26,LN_es_mx+G26,200)&amp;REPT(" ",ML_es_mx-G26+1) &amp;"|"</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )        | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)        |</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )       | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)       |</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>0</v>
@@ -2511,48 +2477,48 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C27" t="str">
         <f>B27</f>
-        <v>eMail</v>
+        <v>eCommerce</v>
       </c>
       <c r="D27" t="s">
-        <v>303</v>
+        <v>230</v>
       </c>
       <c r="E27" t="str">
         <f>D27</f>
-        <v>eCorreo</v>
+        <v>eComercio</v>
       </c>
       <c r="F27">
         <f>LEN(B27)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <f>LEN(D27)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H27" s="1" t="str">
         <f>"| [![" &amp; $A27 &amp; "](/doc/img/app/sml/" &amp; $A27 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A27 &amp; "/en-uk-o13-ee-" &amp; $A27 &amp; "-guides.md ""Goto " &amp; B27 &amp; " guides \[" &amp; $A27 &amp; "]"" ) | [" &amp; B27 &amp; "](/en-uk/o13/ee/"&amp;$A27&amp;"/en-uk-o13-ee-" &amp; $A27 &amp; "-guides.md)"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" ) | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" ) | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)</v>
       </c>
       <c r="I27" s="1" t="str">
         <f>LEFT(H27,LN_en_uk+F27-1) &amp; REPT(" ",ML_en_uk-F27) &amp; MID(H27,LN_en_uk+F27,200)&amp;REPT(" ",ML_en_uk-F27+1) &amp;"|"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" )              | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)              |</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" )          | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)          |</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K27" s="1" t="str">
         <f>"| [![" &amp; $A27 &amp; "](/doc/img/app/sml/" &amp; $A27 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A27 &amp; "/es-mx-o13-ee-" &amp; $A27 &amp; "-guides.md ""Ver a las guías de " &amp; D27 &amp; " \[" &amp; $A27 &amp; "]"" ) | [" &amp; D27 &amp; "](/es-mx/o13/ee/"&amp;$A27&amp;"/es-mx-o13-ee-" &amp; $A27 &amp; "-guides.md)"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" ) | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" ) | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)</v>
       </c>
       <c r="L27" s="1" t="str">
         <f>LEFT(K27,LN_es_mx-1+G27) &amp; REPT(" ",ML_es_mx-G27) &amp; MID(K27,LN_es_mx+G27,200)&amp;REPT(" ",ML_es_mx-G27+1) &amp;"|"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" )          | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)          |</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )        | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)        |</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>0</v>
@@ -2560,48 +2526,48 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C28" t="str">
         <f>B28</f>
-        <v>Employees</v>
+        <v>eMail</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="E28" t="str">
         <f>D28</f>
-        <v>Empleados</v>
+        <v>eCorreo</v>
       </c>
       <c r="F28">
         <f>LEN(B28)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <f>LEN(D28)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H28" s="1" t="str">
         <f>"| [![" &amp; $A28 &amp; "](/doc/img/app/sml/" &amp; $A28 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A28 &amp; "/en-uk-o13-ee-" &amp; $A28 &amp; "-guides.md ""Goto " &amp; B28 &amp; " guides \[" &amp; $A28 &amp; "]"" ) | [" &amp; B28 &amp; "](/en-uk/o13/ee/"&amp;$A28&amp;"/en-uk-o13-ee-" &amp; $A28 &amp; "-guides.md)"</f>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" ) | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" ) | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)</v>
       </c>
       <c r="I28" s="1" t="str">
         <f>LEFT(H28,LN_en_uk+F28-1) &amp; REPT(" ",ML_en_uk-F28) &amp; MID(H28,LN_en_uk+F28,200)&amp;REPT(" ",ML_en_uk-F28+1) &amp;"|"</f>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" )          | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)          |</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" )              | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)              |</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K28" s="1" t="str">
         <f>"| [![" &amp; $A28 &amp; "](/doc/img/app/sml/" &amp; $A28 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A28 &amp; "/es-mx-o13-ee-" &amp; $A28 &amp; "-guides.md ""Ver a las guías de " &amp; D28 &amp; " \[" &amp; $A28 &amp; "]"" ) | [" &amp; D28 &amp; "](/es-mx/o13/ee/"&amp;$A28&amp;"/es-mx-o13-ee-" &amp; $A28 &amp; "-guides.md)"</f>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" ) | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" ) | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)</v>
       </c>
       <c r="L28" s="1" t="str">
         <f>LEFT(K28,LN_es_mx-1+G28) &amp; REPT(" ",ML_es_mx-G28) &amp; MID(K28,LN_es_mx+G28,200)&amp;REPT(" ",ML_es_mx-G28+1) &amp;"|"</f>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )        | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)        |</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" )          | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)          |</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>0</v>
@@ -2609,21 +2575,21 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" t="str">
         <f>B29</f>
-        <v>Equipment</v>
+        <v>Employees</v>
       </c>
       <c r="D29" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E29" t="str">
         <f>D29</f>
-        <v>Equipos</v>
+        <v>Empleados</v>
       </c>
       <c r="F29">
         <f>LEN(B29)</f>
@@ -2631,26 +2597,26 @@
       </c>
       <c r="G29">
         <f>LEN(D29)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>"| [![" &amp; $A29 &amp; "](/doc/img/app/sml/" &amp; $A29 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A29 &amp; "/en-uk-o13-ee-" &amp; $A29 &amp; "-guides.md ""Goto " &amp; B29 &amp; " guides \[" &amp; $A29 &amp; "]"" ) | [" &amp; B29 &amp; "](/en-uk/o13/ee/"&amp;$A29&amp;"/en-uk-o13-ee-" &amp; $A29 &amp; "-guides.md)"</f>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" ) | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" ) | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>LEFT(H29,LN_en_uk+F29-1) &amp; REPT(" ",ML_en_uk-F29) &amp; MID(H29,LN_en_uk+F29,200)&amp;REPT(" ",ML_en_uk-F29+1) &amp;"|"</f>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" )          | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)          |</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" )          | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)          |</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K29" s="1" t="str">
         <f>"| [![" &amp; $A29 &amp; "](/doc/img/app/sml/" &amp; $A29 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A29 &amp; "/es-mx-o13-ee-" &amp; $A29 &amp; "-guides.md ""Ver a las guías de " &amp; D29 &amp; " \[" &amp; $A29 &amp; "]"" ) | [" &amp; D29 &amp; "](/es-mx/o13/ee/"&amp;$A29&amp;"/es-mx-o13-ee-" &amp; $A29 &amp; "-guides.md)"</f>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" ) | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" ) | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)</v>
       </c>
       <c r="L29" s="1" t="str">
         <f>LEFT(K29,LN_es_mx-1+G29) &amp; REPT(" ",ML_es_mx-G29) &amp; MID(K29,LN_es_mx+G29,200)&amp;REPT(" ",ML_es_mx-G29+1) &amp;"|"</f>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )          | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)          |</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )        | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)        |</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>0</v>
@@ -2658,48 +2624,48 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C30" t="str">
         <f>B30</f>
-        <v>eSignature</v>
+        <v>Equipment</v>
       </c>
       <c r="D30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E30" t="str">
         <f>D30</f>
-        <v>eFirma</v>
+        <v>Equipos</v>
       </c>
       <c r="F30">
         <f>LEN(B30)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30">
         <f>LEN(D30)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H30" s="1" t="str">
         <f>"| [![" &amp; $A30 &amp; "](/doc/img/app/sml/" &amp; $A30 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A30 &amp; "/en-uk-o13-ee-" &amp; $A30 &amp; "-guides.md ""Goto " &amp; B30 &amp; " guides \[" &amp; $A30 &amp; "]"" ) | [" &amp; B30 &amp; "](/en-uk/o13/ee/"&amp;$A30&amp;"/en-uk-o13-ee-" &amp; $A30 &amp; "-guides.md)"</f>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" ) | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" ) | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)</v>
       </c>
       <c r="I30" s="1" t="str">
         <f>LEFT(H30,LN_en_uk+F30-1) &amp; REPT(" ",ML_en_uk-F30) &amp; MID(H30,LN_en_uk+F30,200)&amp;REPT(" ",ML_en_uk-F30+1) &amp;"|"</f>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" )         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)         |</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" )          | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)          |</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K30" s="1" t="str">
         <f>"| [![" &amp; $A30 &amp; "](/doc/img/app/sml/" &amp; $A30 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A30 &amp; "/es-mx-o13-ee-" &amp; $A30 &amp; "-guides.md ""Ver a las guías de " &amp; D30 &amp; " \[" &amp; $A30 &amp; "]"" ) | [" &amp; D30 &amp; "](/es-mx/o13/ee/"&amp;$A30&amp;"/es-mx-o13-ee-" &amp; $A30 &amp; "-guides.md)"</f>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" ) | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" ) | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)</v>
       </c>
       <c r="L30" s="1" t="str">
         <f>LEFT(K30,LN_es_mx-1+G30) &amp; REPT(" ",ML_es_mx-G30) &amp; MID(K30,LN_es_mx+G30,200)&amp;REPT(" ",ML_es_mx-G30+1) &amp;"|"</f>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )           | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)           |</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )          | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)          |</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>0</v>
@@ -2707,48 +2673,48 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" t="str">
         <f>B31</f>
-        <v>Events</v>
+        <v>eSignature</v>
       </c>
       <c r="D31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E31" t="str">
         <f>D31</f>
-        <v>Eventos</v>
+        <v>eFirma</v>
       </c>
       <c r="F31">
         <f>LEN(B31)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G31">
         <f>LEN(D31)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H31" s="1" t="str">
         <f>"| [![" &amp; $A31 &amp; "](/doc/img/app/sml/" &amp; $A31 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A31 &amp; "/en-uk-o13-ee-" &amp; $A31 &amp; "-guides.md ""Goto " &amp; B31 &amp; " guides \[" &amp; $A31 &amp; "]"" ) | [" &amp; B31 &amp; "](/en-uk/o13/ee/"&amp;$A31&amp;"/en-uk-o13-ee-" &amp; $A31 &amp; "-guides.md)"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" ) | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" ) | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>LEFT(H31,LN_en_uk+F31-1) &amp; REPT(" ",ML_en_uk-F31) &amp; MID(H31,LN_en_uk+F31,200)&amp;REPT(" ",ML_en_uk-F31+1) &amp;"|"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" )             | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)             |</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" )         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)         |</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K31" s="1" t="str">
         <f>"| [![" &amp; $A31 &amp; "](/doc/img/app/sml/" &amp; $A31 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A31 &amp; "/es-mx-o13-ee-" &amp; $A31 &amp; "-guides.md ""Ver a las guías de " &amp; D31 &amp; " \[" &amp; $A31 &amp; "]"" ) | [" &amp; D31 &amp; "](/es-mx/o13/ee/"&amp;$A31&amp;"/es-mx-o13-ee-" &amp; $A31 &amp; "-guides.md)"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" ) | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" ) | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)</v>
       </c>
       <c r="L31" s="1" t="str">
         <f>LEFT(K31,LN_es_mx-1+G31) &amp; REPT(" ",ML_es_mx-G31) &amp; MID(K31,LN_es_mx+G31,200)&amp;REPT(" ",ML_es_mx-G31+1) &amp;"|"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )          | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)          |</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )           | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)           |</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>0</v>
@@ -2756,48 +2722,48 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" t="str">
         <f>B32</f>
-        <v>Expenses</v>
+        <v>Events</v>
       </c>
       <c r="D32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E32" t="str">
         <f>D32</f>
-        <v>Gastos</v>
+        <v>Eventos</v>
       </c>
       <c r="F32">
         <f>LEN(B32)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G32">
         <f>LEN(D32)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H32" s="1" t="str">
         <f>"| [![" &amp; $A32 &amp; "](/doc/img/app/sml/" &amp; $A32 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A32 &amp; "/en-uk-o13-ee-" &amp; $A32 &amp; "-guides.md ""Goto " &amp; B32 &amp; " guides \[" &amp; $A32 &amp; "]"" ) | [" &amp; B32 &amp; "](/en-uk/o13/ee/"&amp;$A32&amp;"/en-uk-o13-ee-" &amp; $A32 &amp; "-guides.md)"</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" ) | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" ) | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)</v>
       </c>
       <c r="I32" s="1" t="str">
         <f>LEFT(H32,LN_en_uk+F32-1) &amp; REPT(" ",ML_en_uk-F32) &amp; MID(H32,LN_en_uk+F32,200)&amp;REPT(" ",ML_en_uk-F32+1) &amp;"|"</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" )           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)           |</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" )             | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)             |</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K32" s="1" t="str">
         <f>"| [![" &amp; $A32 &amp; "](/doc/img/app/sml/" &amp; $A32 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A32 &amp; "/es-mx-o13-ee-" &amp; $A32 &amp; "-guides.md ""Ver a las guías de " &amp; D32 &amp; " \[" &amp; $A32 &amp; "]"" ) | [" &amp; D32 &amp; "](/es-mx/o13/ee/"&amp;$A32&amp;"/es-mx-o13-ee-" &amp; $A32 &amp; "-guides.md)"</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" ) | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" ) | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)</v>
       </c>
       <c r="L32" s="1" t="str">
         <f>LEFT(K32,LN_es_mx-1+G32) &amp; REPT(" ",ML_es_mx-G32) &amp; MID(K32,LN_es_mx+G32,200)&amp;REPT(" ",ML_es_mx-G32+1) &amp;"|"</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)           |</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )          | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)          |</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>0</v>
@@ -2805,48 +2771,48 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33" t="str">
         <f>B33</f>
-        <v>Field Service</v>
+        <v>Expenses</v>
       </c>
       <c r="D33" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E33" t="str">
         <f>D33</f>
-        <v>Servicio</v>
+        <v>Gastos</v>
       </c>
       <c r="F33">
         <f>LEN(B33)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G33">
         <f>LEN(D33)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H33" s="1" t="str">
         <f>"| [![" &amp; $A33 &amp; "](/doc/img/app/sml/" &amp; $A33 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A33 &amp; "/en-uk-o13-ee-" &amp; $A33 &amp; "-guides.md ""Goto " &amp; B33 &amp; " guides \[" &amp; $A33 &amp; "]"" ) | [" &amp; B33 &amp; "](/en-uk/o13/ee/"&amp;$A33&amp;"/en-uk-o13-ee-" &amp; $A33 &amp; "-guides.md)"</f>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" ) | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" ) | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>LEFT(H33,LN_en_uk+F33-1) &amp; REPT(" ",ML_en_uk-F33) &amp; MID(H33,LN_en_uk+F33,200)&amp;REPT(" ",ML_en_uk-F33+1) &amp;"|"</f>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" )      | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)      |</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" )           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)           |</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K33" s="1" t="str">
         <f>"| [![" &amp; $A33 &amp; "](/doc/img/app/sml/" &amp; $A33 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A33 &amp; "/es-mx-o13-ee-" &amp; $A33 &amp; "-guides.md ""Ver a las guías de " &amp; D33 &amp; " \[" &amp; $A33 &amp; "]"" ) | [" &amp; D33 &amp; "](/es-mx/o13/ee/"&amp;$A33&amp;"/es-mx-o13-ee-" &amp; $A33 &amp; "-guides.md)"</f>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" ) | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" ) | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)</v>
       </c>
       <c r="L33" s="1" t="str">
         <f>LEFT(K33,LN_es_mx-1+G33) &amp; REPT(" ",ML_es_mx-G33) &amp; MID(K33,LN_es_mx+G33,200)&amp;REPT(" ",ML_es_mx-G33+1) &amp;"|"</f>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )         | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)         |</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)           |</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>0</v>
@@ -2854,48 +2820,48 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C34" t="str">
         <f>B34</f>
-        <v>Fleet</v>
+        <v>Field Service</v>
       </c>
       <c r="D34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E34" t="str">
         <f>D34</f>
-        <v>Flotillas</v>
+        <v>Servicio</v>
       </c>
       <c r="F34">
         <f>LEN(B34)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G34">
         <f>LEN(D34)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H34" s="1" t="str">
         <f>"| [![" &amp; $A34 &amp; "](/doc/img/app/sml/" &amp; $A34 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A34 &amp; "/en-uk-o13-ee-" &amp; $A34 &amp; "-guides.md ""Goto " &amp; B34 &amp; " guides \[" &amp; $A34 &amp; "]"" ) | [" &amp; B34 &amp; "](/en-uk/o13/ee/"&amp;$A34&amp;"/en-uk-o13-ee-" &amp; $A34 &amp; "-guides.md)"</f>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" ) | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" ) | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>LEFT(H34,LN_en_uk+F34-1) &amp; REPT(" ",ML_en_uk-F34) &amp; MID(H34,LN_en_uk+F34,200)&amp;REPT(" ",ML_en_uk-F34+1) &amp;"|"</f>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" )              | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)              |</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" )      | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)      |</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K34" s="1" t="str">
         <f>"| [![" &amp; $A34 &amp; "](/doc/img/app/sml/" &amp; $A34 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A34 &amp; "/es-mx-o13-ee-" &amp; $A34 &amp; "-guides.md ""Ver a las guías de " &amp; D34 &amp; " \[" &amp; $A34 &amp; "]"" ) | [" &amp; D34 &amp; "](/es-mx/o13/ee/"&amp;$A34&amp;"/es-mx-o13-ee-" &amp; $A34 &amp; "-guides.md)"</f>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" ) | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" ) | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)</v>
       </c>
       <c r="L34" s="1" t="str">
         <f>LEFT(K34,LN_es_mx-1+G34) &amp; REPT(" ",ML_es_mx-G34) &amp; MID(K34,LN_es_mx+G34,200)&amp;REPT(" ",ML_es_mx-G34+1) &amp;"|"</f>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )        | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)        |</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )         | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)         |</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>0</v>
@@ -2903,21 +2869,21 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" t="str">
         <f>B35</f>
-        <v>Forum</v>
+        <v>Fleet</v>
       </c>
       <c r="D35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35" t="str">
         <f>D35</f>
-        <v>Foro</v>
+        <v>Flotillas</v>
       </c>
       <c r="F35">
         <f>LEN(B35)</f>
@@ -2925,26 +2891,26 @@
       </c>
       <c r="G35">
         <f>LEN(D35)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H35" s="1" t="str">
         <f>"| [![" &amp; $A35 &amp; "](/doc/img/app/sml/" &amp; $A35 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A35 &amp; "/en-uk-o13-ee-" &amp; $A35 &amp; "-guides.md ""Goto " &amp; B35 &amp; " guides \[" &amp; $A35 &amp; "]"" ) | [" &amp; B35 &amp; "](/en-uk/o13/ee/"&amp;$A35&amp;"/en-uk-o13-ee-" &amp; $A35 &amp; "-guides.md)"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" ) | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" ) | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>LEFT(H35,LN_en_uk+F35-1) &amp; REPT(" ",ML_en_uk-F35) &amp; MID(H35,LN_en_uk+F35,200)&amp;REPT(" ",ML_en_uk-F35+1) &amp;"|"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" )              | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)              |</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" )              | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)              |</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K35" s="1" t="str">
         <f>"| [![" &amp; $A35 &amp; "](/doc/img/app/sml/" &amp; $A35 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A35 &amp; "/es-mx-o13-ee-" &amp; $A35 &amp; "-guides.md ""Ver a las guías de " &amp; D35 &amp; " \[" &amp; $A35 &amp; "]"" ) | [" &amp; D35 &amp; "](/es-mx/o13/ee/"&amp;$A35&amp;"/es-mx-o13-ee-" &amp; $A35 &amp; "-guides.md)"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" ) | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" ) | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)</v>
       </c>
       <c r="L35" s="1" t="str">
         <f>LEFT(K35,LN_es_mx-1+G35) &amp; REPT(" ",ML_es_mx-G35) &amp; MID(K35,LN_es_mx+G35,200)&amp;REPT(" ",ML_es_mx-G35+1) &amp;"|"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )             | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)             |</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )        | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)        |</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>0</v>
@@ -2952,48 +2918,48 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C36" t="str">
         <f>B36</f>
-        <v>Gamification</v>
+        <v>Forum</v>
       </c>
       <c r="D36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E36" t="str">
         <f>D36</f>
-        <v>Gamificación</v>
+        <v>Foro</v>
       </c>
       <c r="F36">
         <f>LEN(B36)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <f>LEN(D36)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1" t="str">
         <f>"| [![" &amp; $A36 &amp; "](/doc/img/app/sml/" &amp; $A36 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A36 &amp; "/en-uk-o13-ee-" &amp; $A36 &amp; "-guides.md ""Goto " &amp; B36 &amp; " guides \[" &amp; $A36 &amp; "]"" ) | [" &amp; B36 &amp; "](/en-uk/o13/ee/"&amp;$A36&amp;"/en-uk-o13-ee-" &amp; $A36 &amp; "-guides.md)"</f>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" ) | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" ) | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)</v>
       </c>
       <c r="I36" s="1" t="str">
         <f>LEFT(H36,LN_en_uk+F36-1) &amp; REPT(" ",ML_en_uk-F36) &amp; MID(H36,LN_en_uk+F36,200)&amp;REPT(" ",ML_en_uk-F36+1) &amp;"|"</f>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" )       | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)       |</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" )              | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)              |</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K36" s="1" t="str">
         <f>"| [![" &amp; $A36 &amp; "](/doc/img/app/sml/" &amp; $A36 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A36 &amp; "/es-mx-o13-ee-" &amp; $A36 &amp; "-guides.md ""Ver a las guías de " &amp; D36 &amp; " \[" &amp; $A36 &amp; "]"" ) | [" &amp; D36 &amp; "](/es-mx/o13/ee/"&amp;$A36&amp;"/es-mx-o13-ee-" &amp; $A36 &amp; "-guides.md)"</f>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" ) | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" ) | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)</v>
       </c>
       <c r="L36" s="1" t="str">
         <f>LEFT(K36,LN_es_mx-1+G36) &amp; REPT(" ",ML_es_mx-G36) &amp; MID(K36,LN_es_mx+G36,200)&amp;REPT(" ",ML_es_mx-G36+1) &amp;"|"</f>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )     | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)     |</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )             | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)             |</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>0</v>
@@ -3001,48 +2967,48 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C37" t="str">
         <f>B37</f>
-        <v>Github Mail</v>
+        <v>Gamification</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E37" t="str">
         <f>D37</f>
-        <v>Correo Github</v>
+        <v>Gamificación</v>
       </c>
       <c r="F37">
         <f>LEN(B37)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G37">
         <f>LEN(D37)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H37" s="1" t="str">
         <f>"| [![" &amp; $A37 &amp; "](/doc/img/app/sml/" &amp; $A37 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A37 &amp; "/en-uk-o13-ee-" &amp; $A37 &amp; "-guides.md ""Goto " &amp; B37 &amp; " guides \[" &amp; $A37 &amp; "]"" ) | [" &amp; B37 &amp; "](/en-uk/o13/ee/"&amp;$A37&amp;"/en-uk-o13-ee-" &amp; $A37 &amp; "-guides.md)"</f>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" ) | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" ) | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)</v>
       </c>
       <c r="I37" s="1" t="str">
         <f>LEFT(H37,LN_en_uk+F37-1) &amp; REPT(" ",ML_en_uk-F37) &amp; MID(H37,LN_en_uk+F37,200)&amp;REPT(" ",ML_en_uk-F37+1) &amp;"|"</f>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" )        | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)        |</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" )       | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)       |</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K37" s="1" t="str">
         <f>"| [![" &amp; $A37 &amp; "](/doc/img/app/sml/" &amp; $A37 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A37 &amp; "/es-mx-o13-ee-" &amp; $A37 &amp; "-guides.md ""Ver a las guías de " &amp; D37 &amp; " \[" &amp; $A37 &amp; "]"" ) | [" &amp; D37 &amp; "](/es-mx/o13/ee/"&amp;$A37&amp;"/es-mx-o13-ee-" &amp; $A37 &amp; "-guides.md)"</f>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" ) | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" ) | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)</v>
       </c>
       <c r="L37" s="1" t="str">
         <f>LEFT(K37,LN_es_mx-1+G37) &amp; REPT(" ",ML_es_mx-G37) &amp; MID(K37,LN_es_mx+G37,200)&amp;REPT(" ",ML_es_mx-G37+1) &amp;"|"</f>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )    | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)    |</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )     | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)     |</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>0</v>
@@ -3050,25 +3016,25 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C38" t="str">
         <f>B38</f>
-        <v>Google Calendar</v>
+        <v>Github Mail</v>
       </c>
       <c r="D38" t="s">
-        <v>304</v>
+        <v>240</v>
       </c>
       <c r="E38" t="str">
         <f>D38</f>
-        <v>Google Calend</v>
+        <v>Correo Github</v>
       </c>
       <c r="F38">
         <f>LEN(B38)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G38">
         <f>LEN(D38)</f>
@@ -3076,22 +3042,22 @@
       </c>
       <c r="H38" s="1" t="str">
         <f>"| [![" &amp; $A38 &amp; "](/doc/img/app/sml/" &amp; $A38 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A38 &amp; "/en-uk-o13-ee-" &amp; $A38 &amp; "-guides.md ""Goto " &amp; B38 &amp; " guides \[" &amp; $A38 &amp; "]"" ) | [" &amp; B38 &amp; "](/en-uk/o13/ee/"&amp;$A38&amp;"/en-uk-o13-ee-" &amp; $A38 &amp; "-guides.md)"</f>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" ) | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" ) | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)</v>
       </c>
       <c r="I38" s="1" t="str">
         <f>LEFT(H38,LN_en_uk+F38-1) &amp; REPT(" ",ML_en_uk-F38) &amp; MID(H38,LN_en_uk+F38,200)&amp;REPT(" ",ML_en_uk-F38+1) &amp;"|"</f>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" )    | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)    |</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" )        | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)        |</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K38" s="1" t="str">
         <f>"| [![" &amp; $A38 &amp; "](/doc/img/app/sml/" &amp; $A38 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A38 &amp; "/es-mx-o13-ee-" &amp; $A38 &amp; "-guides.md ""Ver a las guías de " &amp; D38 &amp; " \[" &amp; $A38 &amp; "]"" ) | [" &amp; D38 &amp; "](/es-mx/o13/ee/"&amp;$A38&amp;"/es-mx-o13-ee-" &amp; $A38 &amp; "-guides.md)"</f>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" ) | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" ) | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)</v>
       </c>
       <c r="L38" s="1" t="str">
         <f>LEFT(K38,LN_es_mx-1+G38) &amp; REPT(" ",ML_es_mx-G38) &amp; MID(K38,LN_es_mx+G38,200)&amp;REPT(" ",ML_es_mx-G38+1) &amp;"|"</f>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" )    | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)    |</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )    | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)    |</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>0</v>
@@ -3099,48 +3065,48 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" t="str">
         <f>B39</f>
-        <v>Google Drive</v>
+        <v>Google Calendar</v>
       </c>
       <c r="D39" t="s">
-        <v>164</v>
+        <v>304</v>
       </c>
       <c r="E39" t="str">
         <f>D39</f>
-        <v>Google Drive</v>
+        <v>Google Calend</v>
       </c>
       <c r="F39">
         <f>LEN(B39)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G39">
         <f>LEN(D39)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" s="1" t="str">
         <f>"| [![" &amp; $A39 &amp; "](/doc/img/app/sml/" &amp; $A39 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A39 &amp; "/en-uk-o13-ee-" &amp; $A39 &amp; "-guides.md ""Goto " &amp; B39 &amp; " guides \[" &amp; $A39 &amp; "]"" ) | [" &amp; B39 &amp; "](/en-uk/o13/ee/"&amp;$A39&amp;"/en-uk-o13-ee-" &amp; $A39 &amp; "-guides.md)"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" ) | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" ) | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)</v>
       </c>
       <c r="I39" s="1" t="str">
         <f>LEFT(H39,LN_en_uk+F39-1) &amp; REPT(" ",ML_en_uk-F39) &amp; MID(H39,LN_en_uk+F39,200)&amp;REPT(" ",ML_en_uk-F39+1) &amp;"|"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" )       | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)       |</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" )    | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)    |</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K39" s="1" t="str">
         <f>"| [![" &amp; $A39 &amp; "](/doc/img/app/sml/" &amp; $A39 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A39 &amp; "/es-mx-o13-ee-" &amp; $A39 &amp; "-guides.md ""Ver a las guías de " &amp; D39 &amp; " \[" &amp; $A39 &amp; "]"" ) | [" &amp; D39 &amp; "](/es-mx/o13/ee/"&amp;$A39&amp;"/es-mx-o13-ee-" &amp; $A39 &amp; "-guides.md)"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" ) | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" ) | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)</v>
       </c>
       <c r="L39" s="1" t="str">
         <f>LEFT(K39,LN_es_mx-1+G39) &amp; REPT(" ",ML_es_mx-G39) &amp; MID(K39,LN_es_mx+G39,200)&amp;REPT(" ",ML_es_mx-G39+1) &amp;"|"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )     | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)     |</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" )    | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)    |</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>0</v>
@@ -3148,48 +3114,48 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="C40" t="str">
         <f>B40</f>
-        <v>Helpdesk</v>
+        <v>Google Drive</v>
       </c>
       <c r="D40" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="E40" t="str">
         <f>D40</f>
-        <v>Mesa de Ayuda</v>
+        <v>Google Drive</v>
       </c>
       <c r="F40">
         <f>LEN(B40)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G40">
         <f>LEN(D40)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H40" s="1" t="str">
         <f>"| [![" &amp; $A40 &amp; "](/doc/img/app/sml/" &amp; $A40 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A40 &amp; "/en-uk-o13-ee-" &amp; $A40 &amp; "-guides.md ""Goto " &amp; B40 &amp; " guides \[" &amp; $A40 &amp; "]"" ) | [" &amp; B40 &amp; "](/en-uk/o13/ee/"&amp;$A40&amp;"/en-uk-o13-ee-" &amp; $A40 &amp; "-guides.md)"</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" ) | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" ) | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)</v>
       </c>
       <c r="I40" s="1" t="str">
         <f>LEFT(H40,LN_en_uk+F40-1) &amp; REPT(" ",ML_en_uk-F40) &amp; MID(H40,LN_en_uk+F40,200)&amp;REPT(" ",ML_en_uk-F40+1) &amp;"|"</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" )           | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)           |</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" )       | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)       |</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K40" s="1" t="str">
         <f>"| [![" &amp; $A40 &amp; "](/doc/img/app/sml/" &amp; $A40 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A40 &amp; "/es-mx-o13-ee-" &amp; $A40 &amp; "-guides.md ""Ver a las guías de " &amp; D40 &amp; " \[" &amp; $A40 &amp; "]"" ) | [" &amp; D40 &amp; "](/es-mx/o13/ee/"&amp;$A40&amp;"/es-mx-o13-ee-" &amp; $A40 &amp; "-guides.md)"</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" ) | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" ) | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)</v>
       </c>
       <c r="L40" s="1" t="str">
         <f>LEFT(K40,LN_es_mx-1+G40) &amp; REPT(" ",ML_es_mx-G40) &amp; MID(K40,LN_es_mx+G40,200)&amp;REPT(" ",ML_es_mx-G40+1) &amp;"|"</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )    | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)    |</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )     | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)     |</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>0</v>
@@ -3197,21 +3163,21 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C41" t="str">
         <f>B41</f>
-        <v>Holidays</v>
+        <v>Helpdesk</v>
       </c>
       <c r="D41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E41" t="str">
         <f>D41</f>
-        <v>Vacaciones</v>
+        <v>Mesa de Ayuda</v>
       </c>
       <c r="F41">
         <f>LEN(B41)</f>
@@ -3219,26 +3185,26 @@
       </c>
       <c r="G41">
         <f>LEN(D41)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H41" s="1" t="str">
         <f>"| [![" &amp; $A41 &amp; "](/doc/img/app/sml/" &amp; $A41 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A41 &amp; "/en-uk-o13-ee-" &amp; $A41 &amp; "-guides.md ""Goto " &amp; B41 &amp; " guides \[" &amp; $A41 &amp; "]"" ) | [" &amp; B41 &amp; "](/en-uk/o13/ee/"&amp;$A41&amp;"/en-uk-o13-ee-" &amp; $A41 &amp; "-guides.md)"</f>
-        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" ) | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" ) | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)</v>
       </c>
       <c r="I41" s="1" t="str">
         <f>LEFT(H41,LN_en_uk+F41-1) &amp; REPT(" ",ML_en_uk-F41) &amp; MID(H41,LN_en_uk+F41,200)&amp;REPT(" ",ML_en_uk-F41+1) &amp;"|"</f>
-        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" )           | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)           |</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" )           | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)           |</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K41" s="1" t="str">
         <f>"| [![" &amp; $A41 &amp; "](/doc/img/app/sml/" &amp; $A41 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A41 &amp; "/es-mx-o13-ee-" &amp; $A41 &amp; "-guides.md ""Ver a las guías de " &amp; D41 &amp; " \[" &amp; $A41 &amp; "]"" ) | [" &amp; D41 &amp; "](/es-mx/o13/ee/"&amp;$A41&amp;"/es-mx-o13-ee-" &amp; $A41 &amp; "-guides.md)"</f>
-        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" ) | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" ) | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)</v>
       </c>
       <c r="L41" s="1" t="str">
         <f>LEFT(K41,LN_es_mx-1+G41) &amp; REPT(" ",ML_es_mx-G41) &amp; MID(K41,LN_es_mx+G41,200)&amp;REPT(" ",ML_es_mx-G41+1) &amp;"|"</f>
-        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )       | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)       |</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )    | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)    |</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>0</v>
@@ -3246,48 +3212,48 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="C42" t="str">
         <f>B42</f>
-        <v>Internet of Things</v>
+        <v>Holidays</v>
       </c>
       <c r="D42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E42" t="str">
         <f>D42</f>
-        <v>Int de las Cosas</v>
+        <v>Vacaciones</v>
       </c>
       <c r="F42">
         <f>LEN(B42)</f>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <f>LEN(D42)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H42" s="1" t="str">
         <f>"| [![" &amp; $A42 &amp; "](/doc/img/app/sml/" &amp; $A42 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A42 &amp; "/en-uk-o13-ee-" &amp; $A42 &amp; "-guides.md ""Goto " &amp; B42 &amp; " guides \[" &amp; $A42 &amp; "]"" ) | [" &amp; B42 &amp; "](/en-uk/o13/ee/"&amp;$A42&amp;"/en-uk-o13-ee-" &amp; $A42 &amp; "-guides.md)"</f>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md)</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" ) | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)</v>
       </c>
       <c r="I42" s="1" t="str">
         <f>LEFT(H42,LN_en_uk+F42-1) &amp; REPT(" ",ML_en_uk-F42) &amp; MID(H42,LN_en_uk+F42,200)&amp;REPT(" ",ML_en_uk-F42+1) &amp;"|"</f>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md) |</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" )           | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)           |</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K42" s="1" t="str">
         <f>"| [![" &amp; $A42 &amp; "](/doc/img/app/sml/" &amp; $A42 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A42 &amp; "/es-mx-o13-ee-" &amp; $A42 &amp; "-guides.md ""Ver a las guías de " &amp; D42 &amp; " \[" &amp; $A42 &amp; "]"" ) | [" &amp; D42 &amp; "](/es-mx/o13/ee/"&amp;$A42&amp;"/es-mx-o13-ee-" &amp; $A42 &amp; "-guides.md)"</f>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md)</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" ) | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)</v>
       </c>
       <c r="L42" s="1" t="str">
         <f>LEFT(K42,LN_es_mx-1+G42) &amp; REPT(" ",ML_es_mx-G42) &amp; MID(K42,LN_es_mx+G42,200)&amp;REPT(" ",ML_es_mx-G42+1) &amp;"|"</f>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md) |</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )       | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)       |</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>0</v>
@@ -3295,48 +3261,48 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C43" t="str">
         <f>B43</f>
-        <v>Inventory</v>
+        <v>Internet of Things</v>
       </c>
       <c r="D43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E43" t="str">
         <f>D43</f>
-        <v>Inventarios</v>
+        <v>Int de las Cosas</v>
       </c>
       <c r="F43">
         <f>LEN(B43)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G43">
         <f>LEN(D43)</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H43" s="1" t="str">
         <f>"| [![" &amp; $A43 &amp; "](/doc/img/app/sml/" &amp; $A43 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A43 &amp; "/en-uk-o13-ee-" &amp; $A43 &amp; "-guides.md ""Goto " &amp; B43 &amp; " guides \[" &amp; $A43 &amp; "]"" ) | [" &amp; B43 &amp; "](/en-uk/o13/ee/"&amp;$A43&amp;"/en-uk-o13-ee-" &amp; $A43 &amp; "-guides.md)"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" ) | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md)</v>
       </c>
       <c r="I43" s="1" t="str">
         <f>LEFT(H43,LN_en_uk+F43-1) &amp; REPT(" ",ML_en_uk-F43) &amp; MID(H43,LN_en_uk+F43,200)&amp;REPT(" ",ML_en_uk-F43+1) &amp;"|"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" )          | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)          |</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md) |</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K43" s="1" t="str">
         <f>"| [![" &amp; $A43 &amp; "](/doc/img/app/sml/" &amp; $A43 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A43 &amp; "/es-mx-o13-ee-" &amp; $A43 &amp; "-guides.md ""Ver a las guías de " &amp; D43 &amp; " \[" &amp; $A43 &amp; "]"" ) | [" &amp; D43 &amp; "](/es-mx/o13/ee/"&amp;$A43&amp;"/es-mx-o13-ee-" &amp; $A43 &amp; "-guides.md)"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" ) | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md)</v>
       </c>
       <c r="L43" s="1" t="str">
         <f>LEFT(K43,LN_es_mx-1+G43) &amp; REPT(" ",ML_es_mx-G43) &amp; MID(K43,LN_es_mx+G43,200)&amp;REPT(" ",ML_es_mx-G43+1) &amp;"|"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )      | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)      |</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md) |</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>0</v>
@@ -3344,21 +3310,21 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" t="str">
         <f>B44</f>
-        <v>Invoicing</v>
+        <v>Inventory</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E44" t="str">
         <f>D44</f>
-        <v>Facturación</v>
+        <v>Inventarios</v>
       </c>
       <c r="F44">
         <f>LEN(B44)</f>
@@ -3370,22 +3336,22 @@
       </c>
       <c r="H44" s="1" t="str">
         <f>"| [![" &amp; $A44 &amp; "](/doc/img/app/sml/" &amp; $A44 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A44 &amp; "/en-uk-o13-ee-" &amp; $A44 &amp; "-guides.md ""Goto " &amp; B44 &amp; " guides \[" &amp; $A44 &amp; "]"" ) | [" &amp; B44 &amp; "](/en-uk/o13/ee/"&amp;$A44&amp;"/en-uk-o13-ee-" &amp; $A44 &amp; "-guides.md)"</f>
-        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" ) | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" ) | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)</v>
       </c>
       <c r="I44" s="1" t="str">
         <f>LEFT(H44,LN_en_uk+F44-1) &amp; REPT(" ",ML_en_uk-F44) &amp; MID(H44,LN_en_uk+F44,200)&amp;REPT(" ",ML_en_uk-F44+1) &amp;"|"</f>
-        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" )          | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)          |</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" )          | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)          |</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K44" s="1" t="str">
         <f>"| [![" &amp; $A44 &amp; "](/doc/img/app/sml/" &amp; $A44 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A44 &amp; "/es-mx-o13-ee-" &amp; $A44 &amp; "-guides.md ""Ver a las guías de " &amp; D44 &amp; " \[" &amp; $A44 &amp; "]"" ) | [" &amp; D44 &amp; "](/es-mx/o13/ee/"&amp;$A44&amp;"/es-mx-o13-ee-" &amp; $A44 &amp; "-guides.md)"</f>
-        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" ) | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" ) | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)</v>
       </c>
       <c r="L44" s="1" t="str">
         <f>LEFT(K44,LN_es_mx-1+G44) &amp; REPT(" ",ML_es_mx-G44) &amp; MID(K44,LN_es_mx+G44,200)&amp;REPT(" ",ML_es_mx-G44+1) &amp;"|"</f>
-        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )      | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)      |</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )      | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)      |</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>0</v>
@@ -3393,21 +3359,21 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C45" t="str">
         <f>B45</f>
-        <v>Live Chat</v>
+        <v>Invoicing</v>
       </c>
       <c r="D45" t="s">
-        <v>288</v>
+        <v>245</v>
       </c>
       <c r="E45" t="str">
         <f>D45</f>
-        <v>Chat en Línea</v>
+        <v>Facturación</v>
       </c>
       <c r="F45">
         <f>LEN(B45)</f>
@@ -3415,26 +3381,26 @@
       </c>
       <c r="G45">
         <f>LEN(D45)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H45" s="1" t="str">
         <f>"| [![" &amp; $A45 &amp; "](/doc/img/app/sml/" &amp; $A45 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A45 &amp; "/en-uk-o13-ee-" &amp; $A45 &amp; "-guides.md ""Goto " &amp; B45 &amp; " guides \[" &amp; $A45 &amp; "]"" ) | [" &amp; B45 &amp; "](/en-uk/o13/ee/"&amp;$A45&amp;"/en-uk-o13-ee-" &amp; $A45 &amp; "-guides.md)"</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" ) | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)</v>
+        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" ) | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)</v>
       </c>
       <c r="I45" s="1" t="str">
         <f>LEFT(H45,LN_en_uk+F45-1) &amp; REPT(" ",ML_en_uk-F45) &amp; MID(H45,LN_en_uk+F45,200)&amp;REPT(" ",ML_en_uk-F45+1) &amp;"|"</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" )          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)          |</v>
+        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" )          | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)          |</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K45" s="1" t="str">
         <f>"| [![" &amp; $A45 &amp; "](/doc/img/app/sml/" &amp; $A45 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A45 &amp; "/es-mx-o13-ee-" &amp; $A45 &amp; "-guides.md ""Ver a las guías de " &amp; D45 &amp; " \[" &amp; $A45 &amp; "]"" ) | [" &amp; D45 &amp; "](/es-mx/o13/ee/"&amp;$A45&amp;"/es-mx-o13-ee-" &amp; $A45 &amp; "-guides.md)"</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" ) | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)</v>
+        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" ) | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)</v>
       </c>
       <c r="L45" s="1" t="str">
         <f>LEFT(K45,LN_es_mx-1+G45) &amp; REPT(" ",ML_es_mx-G45) &amp; MID(K45,LN_es_mx+G45,200)&amp;REPT(" ",ML_es_mx-G45+1) &amp;"|"</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )    | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)    |</v>
+        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )      | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)      |</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>0</v>
@@ -3442,48 +3408,48 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C46" t="str">
         <f>B46</f>
-        <v>Lunch</v>
+        <v>Live Chat</v>
       </c>
       <c r="D46" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="E46" t="str">
         <f>D46</f>
-        <v>Comidas</v>
+        <v>Chat en Línea</v>
       </c>
       <c r="F46">
         <f>LEN(B46)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G46">
         <f>LEN(D46)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H46" s="1" t="str">
         <f>"| [![" &amp; $A46 &amp; "](/doc/img/app/sml/" &amp; $A46 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A46 &amp; "/en-uk-o13-ee-" &amp; $A46 &amp; "-guides.md ""Goto " &amp; B46 &amp; " guides \[" &amp; $A46 &amp; "]"" ) | [" &amp; B46 &amp; "](/en-uk/o13/ee/"&amp;$A46&amp;"/en-uk-o13-ee-" &amp; $A46 &amp; "-guides.md)"</f>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" ) | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" ) | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)</v>
       </c>
       <c r="I46" s="1" t="str">
         <f>LEFT(H46,LN_en_uk+F46-1) &amp; REPT(" ",ML_en_uk-F46) &amp; MID(H46,LN_en_uk+F46,200)&amp;REPT(" ",ML_en_uk-F46+1) &amp;"|"</f>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" )              | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)              |</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" )          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)          |</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K46" s="1" t="str">
         <f>"| [![" &amp; $A46 &amp; "](/doc/img/app/sml/" &amp; $A46 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A46 &amp; "/es-mx-o13-ee-" &amp; $A46 &amp; "-guides.md ""Ver a las guías de " &amp; D46 &amp; " \[" &amp; $A46 &amp; "]"" ) | [" &amp; D46 &amp; "](/es-mx/o13/ee/"&amp;$A46&amp;"/es-mx-o13-ee-" &amp; $A46 &amp; "-guides.md)"</f>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" ) | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" ) | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)</v>
       </c>
       <c r="L46" s="1" t="str">
         <f>LEFT(K46,LN_es_mx-1+G46) &amp; REPT(" ",ML_es_mx-G46) &amp; MID(K46,LN_es_mx+G46,200)&amp;REPT(" ",ML_es_mx-G46+1) &amp;"|"</f>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )          | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)          |</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )    | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)    |</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>0</v>
@@ -3491,48 +3457,48 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C47" t="str">
         <f>B47</f>
-        <v>Mail Push</v>
+        <v>Lunch</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E47" t="str">
         <f>D47</f>
-        <v>Correo Push</v>
+        <v>Comidas</v>
       </c>
       <c r="F47">
         <f>LEN(B47)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <f>LEN(D47)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H47" s="1" t="str">
         <f>"| [![" &amp; $A47 &amp; "](/doc/img/app/sml/" &amp; $A47 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A47 &amp; "/en-uk-o13-ee-" &amp; $A47 &amp; "-guides.md ""Goto " &amp; B47 &amp; " guides \[" &amp; $A47 &amp; "]"" ) | [" &amp; B47 &amp; "](/en-uk/o13/ee/"&amp;$A47&amp;"/en-uk-o13-ee-" &amp; $A47 &amp; "-guides.md)"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" ) | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" ) | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)</v>
       </c>
       <c r="I47" s="1" t="str">
         <f>LEFT(H47,LN_en_uk+F47-1) &amp; REPT(" ",ML_en_uk-F47) &amp; MID(H47,LN_en_uk+F47,200)&amp;REPT(" ",ML_en_uk-F47+1) &amp;"|"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" )          | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)          |</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" )              | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)              |</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K47" s="1" t="str">
         <f>"| [![" &amp; $A47 &amp; "](/doc/img/app/sml/" &amp; $A47 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A47 &amp; "/es-mx-o13-ee-" &amp; $A47 &amp; "-guides.md ""Ver a las guías de " &amp; D47 &amp; " \[" &amp; $A47 &amp; "]"" ) | [" &amp; D47 &amp; "](/es-mx/o13/ee/"&amp;$A47&amp;"/es-mx-o13-ee-" &amp; $A47 &amp; "-guides.md)"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" ) | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" ) | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)</v>
       </c>
       <c r="L47" s="1" t="str">
         <f>LEFT(K47,LN_es_mx-1+G47) &amp; REPT(" ",ML_es_mx-G47) &amp; MID(K47,LN_es_mx+G47,200)&amp;REPT(" ",ML_es_mx-G47+1) &amp;"|"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )      | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)      |</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )          | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)          |</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>0</v>
@@ -3540,48 +3506,48 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="C48" t="str">
         <f>B48</f>
-        <v>Maintenance</v>
+        <v>Mail Push</v>
       </c>
       <c r="D48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E48" t="str">
         <f>D48</f>
-        <v>Mantenimiento</v>
+        <v>Correo Push</v>
       </c>
       <c r="F48">
         <f>LEN(B48)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G48">
         <f>LEN(D48)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H48" s="1" t="str">
         <f>"| [![" &amp; $A48 &amp; "](/doc/img/app/sml/" &amp; $A48 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A48 &amp; "/en-uk-o13-ee-" &amp; $A48 &amp; "-guides.md ""Goto " &amp; B48 &amp; " guides \[" &amp; $A48 &amp; "]"" ) | [" &amp; B48 &amp; "](/en-uk/o13/ee/"&amp;$A48&amp;"/en-uk-o13-ee-" &amp; $A48 &amp; "-guides.md)"</f>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" ) | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" ) | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)</v>
       </c>
       <c r="I48" s="1" t="str">
         <f>LEFT(H48,LN_en_uk+F48-1) &amp; REPT(" ",ML_en_uk-F48) &amp; MID(H48,LN_en_uk+F48,200)&amp;REPT(" ",ML_en_uk-F48+1) &amp;"|"</f>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" )        | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)        |</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" )          | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)          |</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K48" s="1" t="str">
         <f>"| [![" &amp; $A48 &amp; "](/doc/img/app/sml/" &amp; $A48 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A48 &amp; "/es-mx-o13-ee-" &amp; $A48 &amp; "-guides.md ""Ver a las guías de " &amp; D48 &amp; " \[" &amp; $A48 &amp; "]"" ) | [" &amp; D48 &amp; "](/es-mx/o13/ee/"&amp;$A48&amp;"/es-mx-o13-ee-" &amp; $A48 &amp; "-guides.md)"</f>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" ) | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" ) | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)</v>
       </c>
       <c r="L48" s="1" t="str">
         <f>LEFT(K48,LN_es_mx-1+G48) &amp; REPT(" ",ML_es_mx-G48) &amp; MID(K48,LN_es_mx+G48,200)&amp;REPT(" ",ML_es_mx-G48+1) &amp;"|"</f>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )    | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)    |</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )      | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)      |</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>0</v>
@@ -3589,49 +3555,48 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C49" t="str">
         <f>B49</f>
-        <v>Marketing Auto</v>
-      </c>
-      <c r="D49" t="str">
-        <f>C49</f>
-        <v>Marketing Auto</v>
+        <v>Maintenance</v>
+      </c>
+      <c r="D49" t="s">
+        <v>248</v>
       </c>
       <c r="E49" t="str">
         <f>D49</f>
-        <v>Marketing Auto</v>
+        <v>Mantenimiento</v>
       </c>
       <c r="F49">
         <f>LEN(B49)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G49">
         <f>LEN(D49)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49" s="1" t="str">
         <f>"| [![" &amp; $A49 &amp; "](/doc/img/app/sml/" &amp; $A49 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A49 &amp; "/en-uk-o13-ee-" &amp; $A49 &amp; "-guides.md ""Goto " &amp; B49 &amp; " guides \[" &amp; $A49 &amp; "]"" ) | [" &amp; B49 &amp; "](/en-uk/o13/ee/"&amp;$A49&amp;"/en-uk-o13-ee-" &amp; $A49 &amp; "-guides.md)"</f>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" ) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" ) | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)</v>
       </c>
       <c r="I49" s="1" t="str">
         <f>LEFT(H49,LN_en_uk+F49-1) &amp; REPT(" ",ML_en_uk-F49) &amp; MID(H49,LN_en_uk+F49,200)&amp;REPT(" ",ML_en_uk-F49+1) &amp;"|"</f>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" )     | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)     |</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" )        | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)        |</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K49" s="1" t="str">
         <f>"| [![" &amp; $A49 &amp; "](/doc/img/app/sml/" &amp; $A49 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A49 &amp; "/es-mx-o13-ee-" &amp; $A49 &amp; "-guides.md ""Ver a las guías de " &amp; D49 &amp; " \[" &amp; $A49 &amp; "]"" ) | [" &amp; D49 &amp; "](/es-mx/o13/ee/"&amp;$A49&amp;"/es-mx-o13-ee-" &amp; $A49 &amp; "-guides.md)"</f>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" ) | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" ) | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)</v>
       </c>
       <c r="L49" s="1" t="str">
         <f>LEFT(K49,LN_es_mx-1+G49) &amp; REPT(" ",ML_es_mx-G49) &amp; MID(K49,LN_es_mx+G49,200)&amp;REPT(" ",ML_es_mx-G49+1) &amp;"|"</f>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )   | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)   |</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )    | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)    |</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>0</v>
@@ -3639,48 +3604,49 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C50" t="str">
         <f>B50</f>
-        <v>Mass Mail</v>
-      </c>
-      <c r="D50" t="s">
-        <v>249</v>
+        <v>Marketing Auto</v>
+      </c>
+      <c r="D50" t="str">
+        <f>C50</f>
+        <v>Marketing Auto</v>
       </c>
       <c r="E50" t="str">
         <f>D50</f>
-        <v>Campañas</v>
+        <v>Marketing Auto</v>
       </c>
       <c r="F50">
         <f>LEN(B50)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G50">
         <f>LEN(D50)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H50" s="1" t="str">
         <f>"| [![" &amp; $A50 &amp; "](/doc/img/app/sml/" &amp; $A50 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A50 &amp; "/en-uk-o13-ee-" &amp; $A50 &amp; "-guides.md ""Goto " &amp; B50 &amp; " guides \[" &amp; $A50 &amp; "]"" ) | [" &amp; B50 &amp; "](/en-uk/o13/ee/"&amp;$A50&amp;"/en-uk-o13-ee-" &amp; $A50 &amp; "-guides.md)"</f>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" ) | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" ) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)</v>
       </c>
       <c r="I50" s="1" t="str">
         <f>LEFT(H50,LN_en_uk+F50-1) &amp; REPT(" ",ML_en_uk-F50) &amp; MID(H50,LN_en_uk+F50,200)&amp;REPT(" ",ML_en_uk-F50+1) &amp;"|"</f>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" )          | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)          |</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" )     | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)     |</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K50" s="1" t="str">
         <f>"| [![" &amp; $A50 &amp; "](/doc/img/app/sml/" &amp; $A50 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A50 &amp; "/es-mx-o13-ee-" &amp; $A50 &amp; "-guides.md ""Ver a las guías de " &amp; D50 &amp; " \[" &amp; $A50 &amp; "]"" ) | [" &amp; D50 &amp; "](/es-mx/o13/ee/"&amp;$A50&amp;"/es-mx-o13-ee-" &amp; $A50 &amp; "-guides.md)"</f>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" ) | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" ) | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)</v>
       </c>
       <c r="L50" s="1" t="str">
         <f>LEFT(K50,LN_es_mx-1+G50) &amp; REPT(" ",ML_es_mx-G50) &amp; MID(K50,LN_es_mx+G50,200)&amp;REPT(" ",ML_es_mx-G50+1) &amp;"|"</f>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )         | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)         |</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )   | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)   |</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>0</v>
@@ -3688,48 +3654,48 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="C51" t="str">
         <f>B51</f>
-        <v>Membership</v>
+        <v>Mass Mail</v>
       </c>
       <c r="D51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E51" t="str">
         <f>D51</f>
-        <v>Membresías</v>
+        <v>Campañas</v>
       </c>
       <c r="F51">
         <f>LEN(B51)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G51">
         <f>LEN(D51)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H51" s="1" t="str">
         <f>"| [![" &amp; $A51 &amp; "](/doc/img/app/sml/" &amp; $A51 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A51 &amp; "/en-uk-o13-ee-" &amp; $A51 &amp; "-guides.md ""Goto " &amp; B51 &amp; " guides \[" &amp; $A51 &amp; "]"" ) | [" &amp; B51 &amp; "](/en-uk/o13/ee/"&amp;$A51&amp;"/en-uk-o13-ee-" &amp; $A51 &amp; "-guides.md)"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" ) | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" ) | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)</v>
       </c>
       <c r="I51" s="1" t="str">
         <f>LEFT(H51,LN_en_uk+F51-1) &amp; REPT(" ",ML_en_uk-F51) &amp; MID(H51,LN_en_uk+F51,200)&amp;REPT(" ",ML_en_uk-F51+1) &amp;"|"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" )         | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)         |</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" )          | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)          |</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K51" s="1" t="str">
         <f>"| [![" &amp; $A51 &amp; "](/doc/img/app/sml/" &amp; $A51 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A51 &amp; "/es-mx-o13-ee-" &amp; $A51 &amp; "-guides.md ""Ver a las guías de " &amp; D51 &amp; " \[" &amp; $A51 &amp; "]"" ) | [" &amp; D51 &amp; "](/es-mx/o13/ee/"&amp;$A51&amp;"/es-mx-o13-ee-" &amp; $A51 &amp; "-guides.md)"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" ) | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" ) | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)</v>
       </c>
       <c r="L51" s="1" t="str">
         <f>LEFT(K51,LN_es_mx-1+G51) &amp; REPT(" ",ML_es_mx-G51) &amp; MID(K51,LN_es_mx+G51,200)&amp;REPT(" ",ML_es_mx-G51+1) &amp;"|"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )       | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)       |</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )         | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)         |</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>0</v>
@@ -3737,48 +3703,48 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C52" t="str">
         <f>B52</f>
-        <v>Modules</v>
+        <v>Membership</v>
       </c>
       <c r="D52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E52" t="str">
         <f>D52</f>
-        <v>Módulos</v>
+        <v>Membresías</v>
       </c>
       <c r="F52">
         <f>LEN(B52)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <f>LEN(D52)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H52" s="1" t="str">
         <f>"| [![" &amp; $A52 &amp; "](/doc/img/app/sml/" &amp; $A52 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A52 &amp; "/en-uk-o13-ee-" &amp; $A52 &amp; "-guides.md ""Goto " &amp; B52 &amp; " guides \[" &amp; $A52 &amp; "]"" ) | [" &amp; B52 &amp; "](/en-uk/o13/ee/"&amp;$A52&amp;"/en-uk-o13-ee-" &amp; $A52 &amp; "-guides.md)"</f>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" ) | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" ) | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)</v>
       </c>
       <c r="I52" s="1" t="str">
         <f>LEFT(H52,LN_en_uk+F52-1) &amp; REPT(" ",ML_en_uk-F52) &amp; MID(H52,LN_en_uk+F52,200)&amp;REPT(" ",ML_en_uk-F52+1) &amp;"|"</f>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" )            | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)            |</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" )         | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)         |</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K52" s="1" t="str">
         <f>"| [![" &amp; $A52 &amp; "](/doc/img/app/sml/" &amp; $A52 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A52 &amp; "/es-mx-o13-ee-" &amp; $A52 &amp; "-guides.md ""Ver a las guías de " &amp; D52 &amp; " \[" &amp; $A52 &amp; "]"" ) | [" &amp; D52 &amp; "](/es-mx/o13/ee/"&amp;$A52&amp;"/es-mx-o13-ee-" &amp; $A52 &amp; "-guides.md)"</f>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" ) | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" ) | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)</v>
       </c>
       <c r="L52" s="1" t="str">
         <f>LEFT(K52,LN_es_mx-1+G52) &amp; REPT(" ",ML_es_mx-G52) &amp; MID(K52,LN_es_mx+G52,200)&amp;REPT(" ",ML_es_mx-G52+1) &amp;"|"</f>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )          | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)          |</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )       | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)       |</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>0</v>
@@ -3786,48 +3752,48 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="C53" t="str">
         <f>B53</f>
-        <v>MRP</v>
+        <v>Modules</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="E53" t="str">
         <f>D53</f>
-        <v>MRP</v>
+        <v>Módulos</v>
       </c>
       <c r="F53">
         <f>LEN(B53)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G53">
         <f>LEN(D53)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H53" s="1" t="str">
         <f>"| [![" &amp; $A53 &amp; "](/doc/img/app/sml/" &amp; $A53 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A53 &amp; "/en-uk-o13-ee-" &amp; $A53 &amp; "-guides.md ""Goto " &amp; B53 &amp; " guides \[" &amp; $A53 &amp; "]"" ) | [" &amp; B53 &amp; "](/en-uk/o13/ee/"&amp;$A53&amp;"/en-uk-o13-ee-" &amp; $A53 &amp; "-guides.md)"</f>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" ) | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" ) | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)</v>
       </c>
       <c r="I53" s="1" t="str">
         <f>LEFT(H53,LN_en_uk+F53-1) &amp; REPT(" ",ML_en_uk-F53) &amp; MID(H53,LN_en_uk+F53,200)&amp;REPT(" ",ML_en_uk-F53+1) &amp;"|"</f>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" )                | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)                |</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" )            | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)            |</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K53" s="1" t="str">
         <f>"| [![" &amp; $A53 &amp; "](/doc/img/app/sml/" &amp; $A53 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A53 &amp; "/es-mx-o13-ee-" &amp; $A53 &amp; "-guides.md ""Ver a las guías de " &amp; D53 &amp; " \[" &amp; $A53 &amp; "]"" ) | [" &amp; D53 &amp; "](/es-mx/o13/ee/"&amp;$A53&amp;"/es-mx-o13-ee-" &amp; $A53 &amp; "-guides.md)"</f>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" ) | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" ) | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)</v>
       </c>
       <c r="L53" s="1" t="str">
         <f>LEFT(K53,LN_es_mx-1+G53) &amp; REPT(" ",ML_es_mx-G53) &amp; MID(K53,LN_es_mx+G53,200)&amp;REPT(" ",ML_es_mx-G53+1) &amp;"|"</f>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )              | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)              |</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )          | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)          |</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>0</v>
@@ -3835,48 +3801,48 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C54" t="str">
         <f>B54</f>
-        <v>MRP Maintenance</v>
+        <v>MRP</v>
       </c>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="E54" t="str">
         <f>D54</f>
-        <v>MRP Mantto</v>
+        <v>MRP</v>
       </c>
       <c r="F54">
         <f>LEN(B54)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G54">
         <f>LEN(D54)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H54" s="1" t="str">
         <f>"| [![" &amp; $A54 &amp; "](/doc/img/app/sml/" &amp; $A54 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A54 &amp; "/en-uk-o13-ee-" &amp; $A54 &amp; "-guides.md ""Goto " &amp; B54 &amp; " guides \[" &amp; $A54 &amp; "]"" ) | [" &amp; B54 &amp; "](/en-uk/o13/ee/"&amp;$A54&amp;"/en-uk-o13-ee-" &amp; $A54 &amp; "-guides.md)"</f>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" ) | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" ) | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)</v>
       </c>
       <c r="I54" s="1" t="str">
         <f>LEFT(H54,LN_en_uk+F54-1) &amp; REPT(" ",ML_en_uk-F54) &amp; MID(H54,LN_en_uk+F54,200)&amp;REPT(" ",ML_en_uk-F54+1) &amp;"|"</f>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" )    | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)    |</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" )                | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)                |</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K54" s="1" t="str">
         <f>"| [![" &amp; $A54 &amp; "](/doc/img/app/sml/" &amp; $A54 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A54 &amp; "/es-mx-o13-ee-" &amp; $A54 &amp; "-guides.md ""Ver a las guías de " &amp; D54 &amp; " \[" &amp; $A54 &amp; "]"" ) | [" &amp; D54 &amp; "](/es-mx/o13/ee/"&amp;$A54&amp;"/es-mx-o13-ee-" &amp; $A54 &amp; "-guides.md)"</f>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" ) | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" ) | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)</v>
       </c>
       <c r="L54" s="1" t="str">
         <f>LEFT(K54,LN_es_mx-1+G54) &amp; REPT(" ",ML_es_mx-G54) &amp; MID(K54,LN_es_mx+G54,200)&amp;REPT(" ",ML_es_mx-G54+1) &amp;"|"</f>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )       | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)       |</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )              | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)              |</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>0</v>
@@ -3884,48 +3850,48 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C55" t="str">
         <f>B55</f>
-        <v>Note</v>
+        <v>MRP Maintenance</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E55" t="str">
         <f>D55</f>
-        <v>Notas</v>
+        <v>MRP Mantto</v>
       </c>
       <c r="F55">
         <f>LEN(B55)</f>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G55">
         <f>LEN(D55)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H55" s="1" t="str">
         <f>"| [![" &amp; $A55 &amp; "](/doc/img/app/sml/" &amp; $A55 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A55 &amp; "/en-uk-o13-ee-" &amp; $A55 &amp; "-guides.md ""Goto " &amp; B55 &amp; " guides \[" &amp; $A55 &amp; "]"" ) | [" &amp; B55 &amp; "](/en-uk/o13/ee/"&amp;$A55&amp;"/en-uk-o13-ee-" &amp; $A55 &amp; "-guides.md)"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" ) | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" ) | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)</v>
       </c>
       <c r="I55" s="1" t="str">
         <f>LEFT(H55,LN_en_uk+F55-1) &amp; REPT(" ",ML_en_uk-F55) &amp; MID(H55,LN_en_uk+F55,200)&amp;REPT(" ",ML_en_uk-F55+1) &amp;"|"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" )               | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)               |</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" )    | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)    |</v>
       </c>
       <c r="J55" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K55" s="1" t="str">
         <f>"| [![" &amp; $A55 &amp; "](/doc/img/app/sml/" &amp; $A55 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A55 &amp; "/es-mx-o13-ee-" &amp; $A55 &amp; "-guides.md ""Ver a las guías de " &amp; D55 &amp; " \[" &amp; $A55 &amp; "]"" ) | [" &amp; D55 &amp; "](/es-mx/o13/ee/"&amp;$A55&amp;"/es-mx-o13-ee-" &amp; $A55 &amp; "-guides.md)"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" ) | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" ) | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)</v>
       </c>
       <c r="L55" s="1" t="str">
         <f>LEFT(K55,LN_es_mx-1+G55) &amp; REPT(" ",ML_es_mx-G55) &amp; MID(K55,LN_es_mx+G55,200)&amp;REPT(" ",ML_es_mx-G55+1) &amp;"|"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )            | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)            |</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )       | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)       |</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>0</v>
@@ -3933,25 +3899,25 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C56" t="str">
         <f>B56</f>
-        <v>Payment</v>
+        <v>Note</v>
       </c>
       <c r="D56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E56" t="str">
         <f>D56</f>
-        <v>Pagos</v>
+        <v>Notas</v>
       </c>
       <c r="F56">
         <f>LEN(B56)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <f>LEN(D56)</f>
@@ -3959,22 +3925,22 @@
       </c>
       <c r="H56" s="1" t="str">
         <f>"| [![" &amp; $A56 &amp; "](/doc/img/app/sml/" &amp; $A56 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A56 &amp; "/en-uk-o13-ee-" &amp; $A56 &amp; "-guides.md ""Goto " &amp; B56 &amp; " guides \[" &amp; $A56 &amp; "]"" ) | [" &amp; B56 &amp; "](/en-uk/o13/ee/"&amp;$A56&amp;"/en-uk-o13-ee-" &amp; $A56 &amp; "-guides.md)"</f>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" ) | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" ) | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)</v>
       </c>
       <c r="I56" s="1" t="str">
         <f>LEFT(H56,LN_en_uk+F56-1) &amp; REPT(" ",ML_en_uk-F56) &amp; MID(H56,LN_en_uk+F56,200)&amp;REPT(" ",ML_en_uk-F56+1) &amp;"|"</f>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" )            | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)            |</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" )               | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)               |</v>
       </c>
       <c r="J56" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K56" s="1" t="str">
         <f>"| [![" &amp; $A56 &amp; "](/doc/img/app/sml/" &amp; $A56 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A56 &amp; "/es-mx-o13-ee-" &amp; $A56 &amp; "-guides.md ""Ver a las guías de " &amp; D56 &amp; " \[" &amp; $A56 &amp; "]"" ) | [" &amp; D56 &amp; "](/es-mx/o13/ee/"&amp;$A56&amp;"/es-mx-o13-ee-" &amp; $A56 &amp; "-guides.md)"</f>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" ) | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" ) | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)</v>
       </c>
       <c r="L56" s="1" t="str">
         <f>LEFT(K56,LN_es_mx-1+G56) &amp; REPT(" ",ML_es_mx-G56) &amp; MID(K56,LN_es_mx+G56,200)&amp;REPT(" ",ML_es_mx-G56+1) &amp;"|"</f>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )            | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)            |</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )            | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)            |</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>0</v>
@@ -3982,21 +3948,21 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="C57" t="str">
         <f>B57</f>
-        <v>Payroll</v>
+        <v>Payment</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E57" t="str">
         <f>D57</f>
-        <v>Nómina</v>
+        <v>Pagos</v>
       </c>
       <c r="F57">
         <f>LEN(B57)</f>
@@ -4004,26 +3970,26 @@
       </c>
       <c r="G57">
         <f>LEN(D57)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H57" s="1" t="str">
         <f>"| [![" &amp; $A57 &amp; "](/doc/img/app/sml/" &amp; $A57 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A57 &amp; "/en-uk-o13-ee-" &amp; $A57 &amp; "-guides.md ""Goto " &amp; B57 &amp; " guides \[" &amp; $A57 &amp; "]"" ) | [" &amp; B57 &amp; "](/en-uk/o13/ee/"&amp;$A57&amp;"/en-uk-o13-ee-" &amp; $A57 &amp; "-guides.md)"</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" ) | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" ) | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)</v>
       </c>
       <c r="I57" s="1" t="str">
         <f>LEFT(H57,LN_en_uk+F57-1) &amp; REPT(" ",ML_en_uk-F57) &amp; MID(H57,LN_en_uk+F57,200)&amp;REPT(" ",ML_en_uk-F57+1) &amp;"|"</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" )            | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)            |</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" )            | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)            |</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K57" s="1" t="str">
         <f>"| [![" &amp; $A57 &amp; "](/doc/img/app/sml/" &amp; $A57 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A57 &amp; "/es-mx-o13-ee-" &amp; $A57 &amp; "-guides.md ""Ver a las guías de " &amp; D57 &amp; " \[" &amp; $A57 &amp; "]"" ) | [" &amp; D57 &amp; "](/es-mx/o13/ee/"&amp;$A57&amp;"/es-mx-o13-ee-" &amp; $A57 &amp; "-guides.md)"</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" ) | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" ) | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)</v>
       </c>
       <c r="L57" s="1" t="str">
         <f>LEFT(K57,LN_es_mx-1+G57) &amp; REPT(" ",ML_es_mx-G57) &amp; MID(K57,LN_es_mx+G57,200)&amp;REPT(" ",ML_es_mx-G57+1) &amp;"|"</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)           |</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )            | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)            |</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>0</v>
@@ -4031,48 +3997,48 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C58" t="str">
         <f>B58</f>
-        <v>PLM</v>
+        <v>Payroll</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="E58" t="str">
         <f>D58</f>
-        <v>PLM</v>
+        <v>Nómina</v>
       </c>
       <c r="F58">
         <f>LEN(B58)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G58">
         <f>LEN(D58)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H58" s="1" t="str">
         <f>"| [![" &amp; $A58 &amp; "](/doc/img/app/sml/" &amp; $A58 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A58 &amp; "/en-uk-o13-ee-" &amp; $A58 &amp; "-guides.md ""Goto " &amp; B58 &amp; " guides \[" &amp; $A58 &amp; "]"" ) | [" &amp; B58 &amp; "](/en-uk/o13/ee/"&amp;$A58&amp;"/en-uk-o13-ee-" &amp; $A58 &amp; "-guides.md)"</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" ) | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" ) | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)</v>
       </c>
       <c r="I58" s="1" t="str">
         <f>LEFT(H58,LN_en_uk+F58-1) &amp; REPT(" ",ML_en_uk-F58) &amp; MID(H58,LN_en_uk+F58,200)&amp;REPT(" ",ML_en_uk-F58+1) &amp;"|"</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" )                | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)                |</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" )            | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)            |</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K58" s="1" t="str">
         <f>"| [![" &amp; $A58 &amp; "](/doc/img/app/sml/" &amp; $A58 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A58 &amp; "/es-mx-o13-ee-" &amp; $A58 &amp; "-guides.md ""Ver a las guías de " &amp; D58 &amp; " \[" &amp; $A58 &amp; "]"" ) | [" &amp; D58 &amp; "](/es-mx/o13/ee/"&amp;$A58&amp;"/es-mx-o13-ee-" &amp; $A58 &amp; "-guides.md)"</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" ) | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" ) | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)</v>
       </c>
       <c r="L58" s="1" t="str">
         <f>LEFT(K58,LN_es_mx-1+G58) &amp; REPT(" ",ML_es_mx-G58) &amp; MID(K58,LN_es_mx+G58,200)&amp;REPT(" ",ML_es_mx-G58+1) &amp;"|"</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )              | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)              |</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)           |</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>0</v>
@@ -4080,48 +4046,48 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C59" t="str">
         <f>B59</f>
-        <v>Point of Sale</v>
+        <v>PLM</v>
       </c>
       <c r="D59" t="s">
-        <v>256</v>
+        <v>135</v>
       </c>
       <c r="E59" t="str">
         <f>D59</f>
-        <v>Punto de Venta</v>
+        <v>PLM</v>
       </c>
       <c r="F59">
         <f>LEN(B59)</f>
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G59">
         <f>LEN(D59)</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H59" s="1" t="str">
         <f>"| [![" &amp; $A59 &amp; "](/doc/img/app/sml/" &amp; $A59 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A59 &amp; "/en-uk-o13-ee-" &amp; $A59 &amp; "-guides.md ""Goto " &amp; B59 &amp; " guides \[" &amp; $A59 &amp; "]"" ) | [" &amp; B59 &amp; "](/en-uk/o13/ee/"&amp;$A59&amp;"/en-uk-o13-ee-" &amp; $A59 &amp; "-guides.md)"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" ) | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" ) | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)</v>
       </c>
       <c r="I59" s="1" t="str">
         <f>LEFT(H59,LN_en_uk+F59-1) &amp; REPT(" ",ML_en_uk-F59) &amp; MID(H59,LN_en_uk+F59,200)&amp;REPT(" ",ML_en_uk-F59+1) &amp;"|"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" )      | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)      |</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" )                | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)                |</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K59" s="1" t="str">
         <f>"| [![" &amp; $A59 &amp; "](/doc/img/app/sml/" &amp; $A59 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A59 &amp; "/es-mx-o13-ee-" &amp; $A59 &amp; "-guides.md ""Ver a las guías de " &amp; D59 &amp; " \[" &amp; $A59 &amp; "]"" ) | [" &amp; D59 &amp; "](/es-mx/o13/ee/"&amp;$A59&amp;"/es-mx-o13-ee-" &amp; $A59 &amp; "-guides.md)"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" ) | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" ) | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)</v>
       </c>
       <c r="L59" s="1" t="str">
         <f>LEFT(K59,LN_es_mx-1+G59) &amp; REPT(" ",ML_es_mx-G59) &amp; MID(K59,LN_es_mx+G59,200)&amp;REPT(" ",ML_es_mx-G59+1) &amp;"|"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )   | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)   |</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )              | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)              |</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>0</v>
@@ -4129,48 +4095,48 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C60" t="str">
         <f>B60</f>
-        <v>Presence</v>
+        <v>Point of Sale</v>
       </c>
       <c r="D60" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E60" t="str">
         <f>D60</f>
-        <v>Presencia</v>
+        <v>Punto de Venta</v>
       </c>
       <c r="F60">
         <f>LEN(B60)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G60">
         <f>LEN(D60)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H60" s="1" t="str">
         <f>"| [![" &amp; $A60 &amp; "](/doc/img/app/sml/" &amp; $A60 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A60 &amp; "/en-uk-o13-ee-" &amp; $A60 &amp; "-guides.md ""Goto " &amp; B60 &amp; " guides \[" &amp; $A60 &amp; "]"" ) | [" &amp; B60 &amp; "](/en-uk/o13/ee/"&amp;$A60&amp;"/en-uk-o13-ee-" &amp; $A60 &amp; "-guides.md)"</f>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" ) | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" ) | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)</v>
       </c>
       <c r="I60" s="1" t="str">
         <f>LEFT(H60,LN_en_uk+F60-1) &amp; REPT(" ",ML_en_uk-F60) &amp; MID(H60,LN_en_uk+F60,200)&amp;REPT(" ",ML_en_uk-F60+1) &amp;"|"</f>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" )           | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)           |</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" )      | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)      |</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K60" s="1" t="str">
         <f>"| [![" &amp; $A60 &amp; "](/doc/img/app/sml/" &amp; $A60 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A60 &amp; "/es-mx-o13-ee-" &amp; $A60 &amp; "-guides.md ""Ver a las guías de " &amp; D60 &amp; " \[" &amp; $A60 &amp; "]"" ) | [" &amp; D60 &amp; "](/es-mx/o13/ee/"&amp;$A60&amp;"/es-mx-o13-ee-" &amp; $A60 &amp; "-guides.md)"</f>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" ) | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" ) | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)</v>
       </c>
       <c r="L60" s="1" t="str">
         <f>LEFT(K60,LN_es_mx-1+G60) &amp; REPT(" ",ML_es_mx-G60) &amp; MID(K60,LN_es_mx+G60,200)&amp;REPT(" ",ML_es_mx-G60+1) &amp;"|"</f>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )        | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)        |</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )   | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)   |</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>0</v>
@@ -4178,48 +4144,48 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C61" t="str">
         <f>B61</f>
-        <v>Project Forecast</v>
+        <v>Presence</v>
       </c>
       <c r="D61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E61" t="str">
         <f>D61</f>
-        <v>Pronósticos</v>
+        <v>Presencia</v>
       </c>
       <c r="F61">
         <f>LEN(B61)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G61">
         <f>LEN(D61)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H61" s="1" t="str">
         <f>"| [![" &amp; $A61 &amp; "](/doc/img/app/sml/" &amp; $A61 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A61 &amp; "/en-uk-o13-ee-" &amp; $A61 &amp; "-guides.md ""Goto " &amp; B61 &amp; " guides \[" &amp; $A61 &amp; "]"" ) | [" &amp; B61 &amp; "](/en-uk/o13/ee/"&amp;$A61&amp;"/en-uk-o13-ee-" &amp; $A61 &amp; "-guides.md)"</f>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" ) | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" ) | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)</v>
       </c>
       <c r="I61" s="1" t="str">
         <f>LEFT(H61,LN_en_uk+F61-1) &amp; REPT(" ",ML_en_uk-F61) &amp; MID(H61,LN_en_uk+F61,200)&amp;REPT(" ",ML_en_uk-F61+1) &amp;"|"</f>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" )   | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)   |</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" )           | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)           |</v>
       </c>
       <c r="J61" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K61" s="1" t="str">
         <f>"| [![" &amp; $A61 &amp; "](/doc/img/app/sml/" &amp; $A61 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A61 &amp; "/es-mx-o13-ee-" &amp; $A61 &amp; "-guides.md ""Ver a las guías de " &amp; D61 &amp; " \[" &amp; $A61 &amp; "]"" ) | [" &amp; D61 &amp; "](/es-mx/o13/ee/"&amp;$A61&amp;"/es-mx-o13-ee-" &amp; $A61 &amp; "-guides.md)"</f>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" ) | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" ) | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)</v>
       </c>
       <c r="L61" s="1" t="str">
         <f>LEFT(K61,LN_es_mx-1+G61) &amp; REPT(" ",ML_es_mx-G61) &amp; MID(K61,LN_es_mx+G61,200)&amp;REPT(" ",ML_es_mx-G61+1) &amp;"|"</f>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )      | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)      |</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )        | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)        |</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>0</v>
@@ -4227,48 +4193,48 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="C62" t="str">
         <f>B62</f>
-        <v>Projects</v>
+        <v>Project Forecast</v>
       </c>
       <c r="D62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E62" t="str">
         <f>D62</f>
-        <v>Proyectos</v>
+        <v>Pronósticos</v>
       </c>
       <c r="F62">
         <f>LEN(B62)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G62">
         <f>LEN(D62)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H62" s="1" t="str">
         <f>"| [![" &amp; $A62 &amp; "](/doc/img/app/sml/" &amp; $A62 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A62 &amp; "/en-uk-o13-ee-" &amp; $A62 &amp; "-guides.md ""Goto " &amp; B62 &amp; " guides \[" &amp; $A62 &amp; "]"" ) | [" &amp; B62 &amp; "](/en-uk/o13/ee/"&amp;$A62&amp;"/en-uk-o13-ee-" &amp; $A62 &amp; "-guides.md)"</f>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" ) | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" ) | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)</v>
       </c>
       <c r="I62" s="1" t="str">
         <f>LEFT(H62,LN_en_uk+F62-1) &amp; REPT(" ",ML_en_uk-F62) &amp; MID(H62,LN_en_uk+F62,200)&amp;REPT(" ",ML_en_uk-F62+1) &amp;"|"</f>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" )           | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)           |</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" )   | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)   |</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K62" s="1" t="str">
         <f>"| [![" &amp; $A62 &amp; "](/doc/img/app/sml/" &amp; $A62 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A62 &amp; "/es-mx-o13-ee-" &amp; $A62 &amp; "-guides.md ""Ver a las guías de " &amp; D62 &amp; " \[" &amp; $A62 &amp; "]"" ) | [" &amp; D62 &amp; "](/es-mx/o13/ee/"&amp;$A62&amp;"/es-mx-o13-ee-" &amp; $A62 &amp; "-guides.md)"</f>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" ) | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" ) | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)</v>
       </c>
       <c r="L62" s="1" t="str">
         <f>LEFT(K62,LN_es_mx-1+G62) &amp; REPT(" ",ML_es_mx-G62) &amp; MID(K62,LN_es_mx+G62,200)&amp;REPT(" ",ML_es_mx-G62+1) &amp;"|"</f>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )        | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)        |</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )      | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)      |</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>0</v>
@@ -4276,48 +4242,48 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C63" t="str">
         <f>B63</f>
-        <v>Purchasing</v>
+        <v>Projects</v>
       </c>
       <c r="D63" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E63" t="str">
         <f>D63</f>
-        <v>Compras</v>
+        <v>Proyectos</v>
       </c>
       <c r="F63">
         <f>LEN(B63)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G63">
         <f>LEN(D63)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H63" s="1" t="str">
         <f>"| [![" &amp; $A63 &amp; "](/doc/img/app/sml/" &amp; $A63 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A63 &amp; "/en-uk-o13-ee-" &amp; $A63 &amp; "-guides.md ""Goto " &amp; B63 &amp; " guides \[" &amp; $A63 &amp; "]"" ) | [" &amp; B63 &amp; "](/en-uk/o13/ee/"&amp;$A63&amp;"/en-uk-o13-ee-" &amp; $A63 &amp; "-guides.md)"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" ) | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" ) | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)</v>
       </c>
       <c r="I63" s="1" t="str">
         <f>LEFT(H63,LN_en_uk+F63-1) &amp; REPT(" ",ML_en_uk-F63) &amp; MID(H63,LN_en_uk+F63,200)&amp;REPT(" ",ML_en_uk-F63+1) &amp;"|"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" )         | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)         |</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" )           | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)           |</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K63" s="1" t="str">
         <f>"| [![" &amp; $A63 &amp; "](/doc/img/app/sml/" &amp; $A63 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A63 &amp; "/es-mx-o13-ee-" &amp; $A63 &amp; "-guides.md ""Ver a las guías de " &amp; D63 &amp; " \[" &amp; $A63 &amp; "]"" ) | [" &amp; D63 &amp; "](/es-mx/o13/ee/"&amp;$A63&amp;"/es-mx-o13-ee-" &amp; $A63 &amp; "-guides.md)"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" ) | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" ) | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)</v>
       </c>
       <c r="L63" s="1" t="str">
         <f>LEFT(K63,LN_es_mx-1+G63) &amp; REPT(" ",ML_es_mx-G63) &amp; MID(K63,LN_es_mx+G63,200)&amp;REPT(" ",ML_es_mx-G63+1) &amp;"|"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )          | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)          |</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )        | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)        |</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>0</v>
@@ -4325,48 +4291,48 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="C64" t="str">
         <f>B64</f>
-        <v>Quality Control</v>
+        <v>Purchasing</v>
       </c>
       <c r="D64" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="E64" t="str">
         <f>D64</f>
-        <v>Ctrl de Calidad</v>
+        <v>Compras</v>
       </c>
       <c r="F64">
         <f>LEN(B64)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G64">
         <f>LEN(D64)</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H64" s="1" t="str">
         <f>"| [![" &amp; $A64 &amp; "](/doc/img/app/sml/" &amp; $A64 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A64 &amp; "/en-uk-o13-ee-" &amp; $A64 &amp; "-guides.md ""Goto " &amp; B64 &amp; " guides \[" &amp; $A64 &amp; "]"" ) | [" &amp; B64 &amp; "](/en-uk/o13/ee/"&amp;$A64&amp;"/en-uk-o13-ee-" &amp; $A64 &amp; "-guides.md)"</f>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" ) | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" ) | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)</v>
       </c>
       <c r="I64" s="1" t="str">
         <f>LEFT(H64,LN_en_uk+F64-1) &amp; REPT(" ",ML_en_uk-F64) &amp; MID(H64,LN_en_uk+F64,200)&amp;REPT(" ",ML_en_uk-F64+1) &amp;"|"</f>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" )    | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)    |</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" )         | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)         |</v>
       </c>
       <c r="J64" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K64" s="1" t="str">
         <f>"| [![" &amp; $A64 &amp; "](/doc/img/app/sml/" &amp; $A64 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A64 &amp; "/es-mx-o13-ee-" &amp; $A64 &amp; "-guides.md ""Ver a las guías de " &amp; D64 &amp; " \[" &amp; $A64 &amp; "]"" ) | [" &amp; D64 &amp; "](/es-mx/o13/ee/"&amp;$A64&amp;"/es-mx-o13-ee-" &amp; $A64 &amp; "-guides.md)"</f>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" ) | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" ) | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)</v>
       </c>
       <c r="L64" s="1" t="str">
         <f>LEFT(K64,LN_es_mx-1+G64) &amp; REPT(" ",ML_es_mx-G64) &amp; MID(K64,LN_es_mx+G64,200)&amp;REPT(" ",ML_es_mx-G64+1) &amp;"|"</f>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" )  | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)  |</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )          | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)          |</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>0</v>
@@ -4374,48 +4340,48 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="C65" t="str">
         <f>B65</f>
-        <v>Recruitment</v>
+        <v>Quality Control</v>
       </c>
       <c r="D65" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="E65" t="str">
         <f>D65</f>
-        <v>Reclutamiento</v>
+        <v>Ctrl de Calidad</v>
       </c>
       <c r="F65">
         <f>LEN(B65)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G65">
         <f>LEN(D65)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H65" s="1" t="str">
         <f>"| [![" &amp; $A65 &amp; "](/doc/img/app/sml/" &amp; $A65 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A65 &amp; "/en-uk-o13-ee-" &amp; $A65 &amp; "-guides.md ""Goto " &amp; B65 &amp; " guides \[" &amp; $A65 &amp; "]"" ) | [" &amp; B65 &amp; "](/en-uk/o13/ee/"&amp;$A65&amp;"/en-uk-o13-ee-" &amp; $A65 &amp; "-guides.md)"</f>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" ) | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" ) | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)</v>
       </c>
       <c r="I65" s="1" t="str">
         <f>LEFT(H65,LN_en_uk+F65-1) &amp; REPT(" ",ML_en_uk-F65) &amp; MID(H65,LN_en_uk+F65,200)&amp;REPT(" ",ML_en_uk-F65+1) &amp;"|"</f>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" )        | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)        |</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" )    | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)    |</v>
       </c>
       <c r="J65" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K65" s="1" t="str">
         <f>"| [![" &amp; $A65 &amp; "](/doc/img/app/sml/" &amp; $A65 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A65 &amp; "/es-mx-o13-ee-" &amp; $A65 &amp; "-guides.md ""Ver a las guías de " &amp; D65 &amp; " \[" &amp; $A65 &amp; "]"" ) | [" &amp; D65 &amp; "](/es-mx/o13/ee/"&amp;$A65&amp;"/es-mx-o13-ee-" &amp; $A65 &amp; "-guides.md)"</f>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" ) | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" ) | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)</v>
       </c>
       <c r="L65" s="1" t="str">
         <f>LEFT(K65,LN_es_mx-1+G65) &amp; REPT(" ",ML_es_mx-G65) &amp; MID(K65,LN_es_mx+G65,200)&amp;REPT(" ",ML_es_mx-G65+1) &amp;"|"</f>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )    | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)    |</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" )  | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)  |</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>0</v>
@@ -4423,48 +4389,48 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" t="str">
         <f>B66</f>
-        <v>Rental</v>
+        <v>Recruitment</v>
       </c>
       <c r="D66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E66" t="str">
         <f>D66</f>
-        <v>Rentas</v>
+        <v>Reclutamiento</v>
       </c>
       <c r="F66">
         <f>LEN(B66)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G66">
         <f>LEN(D66)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H66" s="1" t="str">
         <f>"| [![" &amp; $A66 &amp; "](/doc/img/app/sml/" &amp; $A66 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A66 &amp; "/en-uk-o13-ee-" &amp; $A66 &amp; "-guides.md ""Goto " &amp; B66 &amp; " guides \[" &amp; $A66 &amp; "]"" ) | [" &amp; B66 &amp; "](/en-uk/o13/ee/"&amp;$A66&amp;"/en-uk-o13-ee-" &amp; $A66 &amp; "-guides.md)"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" ) | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" ) | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)</v>
       </c>
       <c r="I66" s="1" t="str">
         <f>LEFT(H66,LN_en_uk+F66-1) &amp; REPT(" ",ML_en_uk-F66) &amp; MID(H66,LN_en_uk+F66,200)&amp;REPT(" ",ML_en_uk-F66+1) &amp;"|"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" )             | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)             |</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" )        | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)        |</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K66" s="1" t="str">
         <f>"| [![" &amp; $A66 &amp; "](/doc/img/app/sml/" &amp; $A66 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A66 &amp; "/es-mx-o13-ee-" &amp; $A66 &amp; "-guides.md ""Ver a las guías de " &amp; D66 &amp; " \[" &amp; $A66 &amp; "]"" ) | [" &amp; D66 &amp; "](/es-mx/o13/ee/"&amp;$A66&amp;"/es-mx-o13-ee-" &amp; $A66 &amp; "-guides.md)"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" ) | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" ) | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)</v>
       </c>
       <c r="L66" s="1" t="str">
         <f>LEFT(K66,LN_es_mx-1+G66) &amp; REPT(" ",ML_es_mx-G66) &amp; MID(K66,LN_es_mx+G66,200)&amp;REPT(" ",ML_es_mx-G66+1) &amp;"|"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )           | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)           |</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )    | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)    |</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>0</v>
@@ -4472,48 +4438,48 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>73</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
-        <v>175</v>
+        <v>308</v>
       </c>
       <c r="C67" t="str">
         <f>B67</f>
-        <v>Repair</v>
+        <v>Referrals</v>
       </c>
       <c r="D67" t="s">
-        <v>263</v>
+        <v>309</v>
       </c>
       <c r="E67" t="str">
         <f>D67</f>
-        <v>Reparaciones</v>
+        <v>Referencias</v>
       </c>
       <c r="F67">
         <f>LEN(B67)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G67">
         <f>LEN(D67)</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" s="1" t="str">
         <f>"| [![" &amp; $A67 &amp; "](/doc/img/app/sml/" &amp; $A67 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A67 &amp; "/en-uk-o13-ee-" &amp; $A67 &amp; "-guides.md ""Goto " &amp; B67 &amp; " guides \[" &amp; $A67 &amp; "]"" ) | [" &amp; B67 &amp; "](/en-uk/o13/ee/"&amp;$A67&amp;"/en-uk-o13-ee-" &amp; $A67 &amp; "-guides.md)"</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" ) | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)</v>
+        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" ) | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)</v>
       </c>
       <c r="I67" s="1" t="str">
         <f>LEFT(H67,LN_en_uk+F67-1) &amp; REPT(" ",ML_en_uk-F67) &amp; MID(H67,LN_en_uk+F67,200)&amp;REPT(" ",ML_en_uk-F67+1) &amp;"|"</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" )             | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)             |</v>
+        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" )          | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)          |</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K67" s="1" t="str">
         <f>"| [![" &amp; $A67 &amp; "](/doc/img/app/sml/" &amp; $A67 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A67 &amp; "/es-mx-o13-ee-" &amp; $A67 &amp; "-guides.md ""Ver a las guías de " &amp; D67 &amp; " \[" &amp; $A67 &amp; "]"" ) | [" &amp; D67 &amp; "](/es-mx/o13/ee/"&amp;$A67&amp;"/es-mx-o13-ee-" &amp; $A67 &amp; "-guides.md)"</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" ) | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)</v>
+        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" ) | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)</v>
       </c>
       <c r="L67" s="1" t="str">
         <f>LEFT(K67,LN_es_mx-1+G67) &amp; REPT(" ",ML_es_mx-G67) &amp; MID(K67,LN_es_mx+G67,200)&amp;REPT(" ",ML_es_mx-G67+1) &amp;"|"</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )     | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)     |</v>
+        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" )      | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)      |</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>0</v>
@@ -4521,49 +4487,48 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C68" t="str">
         <f>B68</f>
-        <v>S€PA</v>
-      </c>
-      <c r="D68" t="str">
-        <f>C68</f>
-        <v>S€PA</v>
+        <v>Rental</v>
+      </c>
+      <c r="D68" t="s">
+        <v>262</v>
       </c>
       <c r="E68" t="str">
         <f>D68</f>
-        <v>S€PA</v>
+        <v>Rentas</v>
       </c>
       <c r="F68">
         <f>LEN(B68)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G68">
         <f>LEN(D68)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H68" s="1" t="str">
         <f>"| [![" &amp; $A68 &amp; "](/doc/img/app/sml/" &amp; $A68 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A68 &amp; "/en-uk-o13-ee-" &amp; $A68 &amp; "-guides.md ""Goto " &amp; B68 &amp; " guides \[" &amp; $A68 &amp; "]"" ) | [" &amp; B68 &amp; "](/en-uk/o13/ee/"&amp;$A68&amp;"/en-uk-o13-ee-" &amp; $A68 &amp; "-guides.md)"</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" ) | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" ) | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)</v>
       </c>
       <c r="I68" s="1" t="str">
         <f>LEFT(H68,LN_en_uk+F68-1) &amp; REPT(" ",ML_en_uk-F68) &amp; MID(H68,LN_en_uk+F68,200)&amp;REPT(" ",ML_en_uk-F68+1) &amp;"|"</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" )               | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)               |</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" )             | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)             |</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K68" s="1" t="str">
         <f>"| [![" &amp; $A68 &amp; "](/doc/img/app/sml/" &amp; $A68 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A68 &amp; "/es-mx-o13-ee-" &amp; $A68 &amp; "-guides.md ""Ver a las guías de " &amp; D68 &amp; " \[" &amp; $A68 &amp; "]"" ) | [" &amp; D68 &amp; "](/es-mx/o13/ee/"&amp;$A68&amp;"/es-mx-o13-ee-" &amp; $A68 &amp; "-guides.md)"</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" ) | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" ) | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)</v>
       </c>
       <c r="L68" s="1" t="str">
         <f>LEFT(K68,LN_es_mx-1+G68) &amp; REPT(" ",ML_es_mx-G68) &amp; MID(K68,LN_es_mx+G68,200)&amp;REPT(" ",ML_es_mx-G68+1) &amp;"|"</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )             | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)             |</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )           | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)           |</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>0</v>
@@ -4571,48 +4536,48 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>306</v>
+        <v>175</v>
       </c>
       <c r="C69" t="str">
         <f>B69</f>
-        <v>Sales Management</v>
+        <v>Repair</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E69" t="str">
         <f>D69</f>
-        <v>Ventas - Control</v>
+        <v>Reparaciones</v>
       </c>
       <c r="F69">
         <f>LEN(B69)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G69">
         <f>LEN(D69)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H69" s="1" t="str">
         <f>"| [![" &amp; $A69 &amp; "](/doc/img/app/sml/" &amp; $A69 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A69 &amp; "/en-uk-o13-ee-" &amp; $A69 &amp; "-guides.md ""Goto " &amp; B69 &amp; " guides \[" &amp; $A69 &amp; "]"" ) | [" &amp; B69 &amp; "](/en-uk/o13/ee/"&amp;$A69&amp;"/en-uk-o13-ee-" &amp; $A69 &amp; "-guides.md)"</f>
-        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" ) | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" ) | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)</v>
       </c>
       <c r="I69" s="1" t="str">
         <f>LEFT(H69,LN_en_uk+F69-1) &amp; REPT(" ",ML_en_uk-F69) &amp; MID(H69,LN_en_uk+F69,200)&amp;REPT(" ",ML_en_uk-F69+1) &amp;"|"</f>
-        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" )   | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)   |</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" )             | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)             |</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K69" s="1" t="str">
         <f>"| [![" &amp; $A69 &amp; "](/doc/img/app/sml/" &amp; $A69 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A69 &amp; "/es-mx-o13-ee-" &amp; $A69 &amp; "-guides.md ""Ver a las guías de " &amp; D69 &amp; " \[" &amp; $A69 &amp; "]"" ) | [" &amp; D69 &amp; "](/es-mx/o13/ee/"&amp;$A69&amp;"/es-mx-o13-ee-" &amp; $A69 &amp; "-guides.md)"</f>
-        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md)</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" ) | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)</v>
       </c>
       <c r="L69" s="1" t="str">
         <f>LEFT(K69,LN_es_mx-1+G69) &amp; REPT(" ",ML_es_mx-G69) &amp; MID(K69,LN_es_mx+G69,200)&amp;REPT(" ",ML_es_mx-G69+1) &amp;"|"</f>
-        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md) |</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )     | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)     |</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>0</v>
@@ -4620,48 +4585,49 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>176</v>
       </c>
       <c r="C70" t="str">
         <f>B70</f>
-        <v>Sales</v>
-      </c>
-      <c r="D70" t="s">
-        <v>265</v>
+        <v>S€PA</v>
+      </c>
+      <c r="D70" t="str">
+        <f>C70</f>
+        <v>S€PA</v>
       </c>
       <c r="E70" t="str">
         <f>D70</f>
-        <v>Ventas</v>
+        <v>S€PA</v>
       </c>
       <c r="F70">
         <f>LEN(B70)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G70">
         <f>LEN(D70)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H70" s="1" t="str">
         <f>"| [![" &amp; $A70 &amp; "](/doc/img/app/sml/" &amp; $A70 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A70 &amp; "/en-uk-o13-ee-" &amp; $A70 &amp; "-guides.md ""Goto " &amp; B70 &amp; " guides \[" &amp; $A70 &amp; "]"" ) | [" &amp; B70 &amp; "](/en-uk/o13/ee/"&amp;$A70&amp;"/en-uk-o13-ee-" &amp; $A70 &amp; "-guides.md)"</f>
-        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" ) | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" ) | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)</v>
       </c>
       <c r="I70" s="1" t="str">
         <f>LEFT(H70,LN_en_uk+F70-1) &amp; REPT(" ",ML_en_uk-F70) &amp; MID(H70,LN_en_uk+F70,200)&amp;REPT(" ",ML_en_uk-F70+1) &amp;"|"</f>
-        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" )              | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)              |</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" )               | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)               |</v>
       </c>
       <c r="J70" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K70" s="1" t="str">
         <f>"| [![" &amp; $A70 &amp; "](/doc/img/app/sml/" &amp; $A70 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A70 &amp; "/es-mx-o13-ee-" &amp; $A70 &amp; "-guides.md ""Ver a las guías de " &amp; D70 &amp; " \[" &amp; $A70 &amp; "]"" ) | [" &amp; D70 &amp; "](/es-mx/o13/ee/"&amp;$A70&amp;"/es-mx-o13-ee-" &amp; $A70 &amp; "-guides.md)"</f>
-        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" ) | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" ) | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)</v>
       </c>
       <c r="L70" s="1" t="str">
         <f>LEFT(K70,LN_es_mx-1+G70) &amp; REPT(" ",ML_es_mx-G70) &amp; MID(K70,LN_es_mx+G70,200)&amp;REPT(" ",ML_es_mx-G70+1) &amp;"|"</f>
-        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )           | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)           |</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )             | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)             |</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>0</v>
@@ -4669,48 +4635,48 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B71" t="s">
-        <v>177</v>
+        <v>144</v>
       </c>
       <c r="C71" t="str">
         <f>B71</f>
-        <v>Settings</v>
+        <v>Sales</v>
       </c>
       <c r="D71" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E71" t="str">
         <f>D71</f>
-        <v>Configuración</v>
+        <v>Ventas</v>
       </c>
       <c r="F71">
         <f>LEN(B71)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G71">
         <f>LEN(D71)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H71" s="1" t="str">
         <f>"| [![" &amp; $A71 &amp; "](/doc/img/app/sml/" &amp; $A71 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A71 &amp; "/en-uk-o13-ee-" &amp; $A71 &amp; "-guides.md ""Goto " &amp; B71 &amp; " guides \[" &amp; $A71 &amp; "]"" ) | [" &amp; B71 &amp; "](/en-uk/o13/ee/"&amp;$A71&amp;"/en-uk-o13-ee-" &amp; $A71 &amp; "-guides.md)"</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" ) | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" ) | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)</v>
       </c>
       <c r="I71" s="1" t="str">
         <f>LEFT(H71,LN_en_uk+F71-1) &amp; REPT(" ",ML_en_uk-F71) &amp; MID(H71,LN_en_uk+F71,200)&amp;REPT(" ",ML_en_uk-F71+1) &amp;"|"</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" )           | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)           |</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" )              | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)              |</v>
       </c>
       <c r="J71" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K71" s="1" t="str">
         <f>"| [![" &amp; $A71 &amp; "](/doc/img/app/sml/" &amp; $A71 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A71 &amp; "/es-mx-o13-ee-" &amp; $A71 &amp; "-guides.md ""Ver a las guías de " &amp; D71 &amp; " \[" &amp; $A71 &amp; "]"" ) | [" &amp; D71 &amp; "](/es-mx/o13/ee/"&amp;$A71&amp;"/es-mx-o13-ee-" &amp; $A71 &amp; "-guides.md)"</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" ) | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" ) | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)</v>
       </c>
       <c r="L71" s="1" t="str">
         <f>LEFT(K71,LN_es_mx-1+G71) &amp; REPT(" ",ML_es_mx-G71) &amp; MID(K71,LN_es_mx+G71,200)&amp;REPT(" ",ML_es_mx-G71+1) &amp;"|"</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )    | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)    |</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )           | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)           |</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>0</v>
@@ -4718,48 +4684,48 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>306</v>
       </c>
       <c r="C72" t="str">
         <f>B72</f>
-        <v>Skills</v>
+        <v>Sales Management</v>
       </c>
       <c r="D72" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E72" t="str">
         <f>D72</f>
-        <v>Competencias</v>
+        <v>Ventas - Control</v>
       </c>
       <c r="F72">
         <f>LEN(B72)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G72">
         <f>LEN(D72)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H72" s="1" t="str">
         <f>"| [![" &amp; $A72 &amp; "](/doc/img/app/sml/" &amp; $A72 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A72 &amp; "/en-uk-o13-ee-" &amp; $A72 &amp; "-guides.md ""Goto " &amp; B72 &amp; " guides \[" &amp; $A72 &amp; "]"" ) | [" &amp; B72 &amp; "](/en-uk/o13/ee/"&amp;$A72&amp;"/en-uk-o13-ee-" &amp; $A72 &amp; "-guides.md)"</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" ) | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" ) | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)</v>
       </c>
       <c r="I72" s="1" t="str">
         <f>LEFT(H72,LN_en_uk+F72-1) &amp; REPT(" ",ML_en_uk-F72) &amp; MID(H72,LN_en_uk+F72,200)&amp;REPT(" ",ML_en_uk-F72+1) &amp;"|"</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" )             | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)             |</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" )   | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)   |</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K72" s="1" t="str">
         <f>"| [![" &amp; $A72 &amp; "](/doc/img/app/sml/" &amp; $A72 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A72 &amp; "/es-mx-o13-ee-" &amp; $A72 &amp; "-guides.md ""Ver a las guías de " &amp; D72 &amp; " \[" &amp; $A72 &amp; "]"" ) | [" &amp; D72 &amp; "](/es-mx/o13/ee/"&amp;$A72&amp;"/es-mx-o13-ee-" &amp; $A72 &amp; "-guides.md)"</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" ) | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md)</v>
       </c>
       <c r="L72" s="1" t="str">
         <f>LEFT(K72,LN_es_mx-1+G72) &amp; REPT(" ",ML_es_mx-G72) &amp; MID(K72,LN_es_mx+G72,200)&amp;REPT(" ",ML_es_mx-G72+1) &amp;"|"</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )     | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)     |</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md) |</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>0</v>
@@ -4767,48 +4733,48 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="C73" t="str">
         <f>B73</f>
-        <v>Slides</v>
+        <v>Settings</v>
       </c>
       <c r="D73" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E73" t="str">
         <f>D73</f>
-        <v>Diapositivas</v>
+        <v>Configuración</v>
       </c>
       <c r="F73">
         <f>LEN(B73)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G73">
         <f>LEN(D73)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H73" s="1" t="str">
         <f>"| [![" &amp; $A73 &amp; "](/doc/img/app/sml/" &amp; $A73 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A73 &amp; "/en-uk-o13-ee-" &amp; $A73 &amp; "-guides.md ""Goto " &amp; B73 &amp; " guides \[" &amp; $A73 &amp; "]"" ) | [" &amp; B73 &amp; "](/en-uk/o13/ee/"&amp;$A73&amp;"/en-uk-o13-ee-" &amp; $A73 &amp; "-guides.md)"</f>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" ) | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" ) | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)</v>
       </c>
       <c r="I73" s="1" t="str">
         <f>LEFT(H73,LN_en_uk+F73-1) &amp; REPT(" ",ML_en_uk-F73) &amp; MID(H73,LN_en_uk+F73,200)&amp;REPT(" ",ML_en_uk-F73+1) &amp;"|"</f>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" )             | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)             |</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" )           | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)           |</v>
       </c>
       <c r="J73" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K73" s="1" t="str">
         <f>"| [![" &amp; $A73 &amp; "](/doc/img/app/sml/" &amp; $A73 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A73 &amp; "/es-mx-o13-ee-" &amp; $A73 &amp; "-guides.md ""Ver a las guías de " &amp; D73 &amp; " \[" &amp; $A73 &amp; "]"" ) | [" &amp; D73 &amp; "](/es-mx/o13/ee/"&amp;$A73&amp;"/es-mx-o13-ee-" &amp; $A73 &amp; "-guides.md)"</f>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" ) | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" ) | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)</v>
       </c>
       <c r="L73" s="1" t="str">
         <f>LEFT(K73,LN_es_mx-1+G73) &amp; REPT(" ",ML_es_mx-G73) &amp; MID(K73,LN_es_mx+G73,200)&amp;REPT(" ",ML_es_mx-G73+1) &amp;"|"</f>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )     | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)     |</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )    | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)    |</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>0</v>
@@ -4816,48 +4782,48 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C74" t="str">
         <f>B74</f>
-        <v>Subscriptions</v>
+        <v>Skills</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E74" t="str">
         <f>D74</f>
-        <v>Suscripciones</v>
+        <v>Competencias</v>
       </c>
       <c r="F74">
         <f>LEN(B74)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G74">
         <f>LEN(D74)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H74" s="1" t="str">
         <f>"| [![" &amp; $A74 &amp; "](/doc/img/app/sml/" &amp; $A74 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A74 &amp; "/en-uk-o13-ee-" &amp; $A74 &amp; "-guides.md ""Goto " &amp; B74 &amp; " guides \[" &amp; $A74 &amp; "]"" ) | [" &amp; B74 &amp; "](/en-uk/o13/ee/"&amp;$A74&amp;"/en-uk-o13-ee-" &amp; $A74 &amp; "-guides.md)"</f>
-        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" ) | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" ) | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)</v>
       </c>
       <c r="I74" s="1" t="str">
         <f>LEFT(H74,LN_en_uk+F74-1) &amp; REPT(" ",ML_en_uk-F74) &amp; MID(H74,LN_en_uk+F74,200)&amp;REPT(" ",ML_en_uk-F74+1) &amp;"|"</f>
-        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" )      | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)      |</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" )             | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)             |</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K74" s="1" t="str">
         <f>"| [![" &amp; $A74 &amp; "](/doc/img/app/sml/" &amp; $A74 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A74 &amp; "/es-mx-o13-ee-" &amp; $A74 &amp; "-guides.md ""Ver a las guías de " &amp; D74 &amp; " \[" &amp; $A74 &amp; "]"" ) | [" &amp; D74 &amp; "](/es-mx/o13/ee/"&amp;$A74&amp;"/es-mx-o13-ee-" &amp; $A74 &amp; "-guides.md)"</f>
-        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" ) | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" ) | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)</v>
       </c>
       <c r="L74" s="1" t="str">
         <f>LEFT(K74,LN_es_mx-1+G74) &amp; REPT(" ",ML_es_mx-G74) &amp; MID(K74,LN_es_mx+G74,200)&amp;REPT(" ",ML_es_mx-G74+1) &amp;"|"</f>
-        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" )    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)    |</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )     | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)     |</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>0</v>
@@ -4865,48 +4831,48 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B75" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C75" t="str">
         <f>B75</f>
-        <v>Surveys</v>
+        <v>Slides</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E75" t="str">
         <f>D75</f>
-        <v>Encuestas</v>
+        <v>Diapositivas</v>
       </c>
       <c r="F75">
         <f>LEN(B75)</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G75">
         <f>LEN(D75)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H75" s="1" t="str">
         <f>"| [![" &amp; $A75 &amp; "](/doc/img/app/sml/" &amp; $A75 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A75 &amp; "/en-uk-o13-ee-" &amp; $A75 &amp; "-guides.md ""Goto " &amp; B75 &amp; " guides \[" &amp; $A75 &amp; "]"" ) | [" &amp; B75 &amp; "](/en-uk/o13/ee/"&amp;$A75&amp;"/en-uk-o13-ee-" &amp; $A75 &amp; "-guides.md)"</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" ) | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" ) | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)</v>
       </c>
       <c r="I75" s="1" t="str">
         <f>LEFT(H75,LN_en_uk+F75-1) &amp; REPT(" ",ML_en_uk-F75) &amp; MID(H75,LN_en_uk+F75,200)&amp;REPT(" ",ML_en_uk-F75+1) &amp;"|"</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" )            | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)            |</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" )             | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)             |</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K75" s="1" t="str">
         <f>"| [![" &amp; $A75 &amp; "](/doc/img/app/sml/" &amp; $A75 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A75 &amp; "/es-mx-o13-ee-" &amp; $A75 &amp; "-guides.md ""Ver a las guías de " &amp; D75 &amp; " \[" &amp; $A75 &amp; "]"" ) | [" &amp; D75 &amp; "](/es-mx/o13/ee/"&amp;$A75&amp;"/es-mx-o13-ee-" &amp; $A75 &amp; "-guides.md)"</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" ) | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" ) | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)</v>
       </c>
       <c r="L75" s="1" t="str">
         <f>LEFT(K75,LN_es_mx-1+G75) &amp; REPT(" ",ML_es_mx-G75) &amp; MID(K75,LN_es_mx+G75,200)&amp;REPT(" ",ML_es_mx-G75+1) &amp;"|"</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )        | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)        |</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )     | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)     |</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>0</v>
@@ -4914,48 +4880,48 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C76" t="str">
         <f>B76</f>
-        <v>Time Off</v>
+        <v>Subscriptions</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="E76" t="str">
         <f>D76</f>
-        <v>Permisos</v>
+        <v>Suscripciones</v>
       </c>
       <c r="F76">
         <f>LEN(B76)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G76">
         <f>LEN(D76)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H76" s="1" t="str">
         <f>"| [![" &amp; $A76 &amp; "](/doc/img/app/sml/" &amp; $A76 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A76 &amp; "/en-uk-o13-ee-" &amp; $A76 &amp; "-guides.md ""Goto " &amp; B76 &amp; " guides \[" &amp; $A76 &amp; "]"" ) | [" &amp; B76 &amp; "](/en-uk/o13/ee/"&amp;$A76&amp;"/en-uk-o13-ee-" &amp; $A76 &amp; "-guides.md)"</f>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" ) | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)</v>
+        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" ) | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)</v>
       </c>
       <c r="I76" s="1" t="str">
         <f>LEFT(H76,LN_en_uk+F76-1) &amp; REPT(" ",ML_en_uk-F76) &amp; MID(H76,LN_en_uk+F76,200)&amp;REPT(" ",ML_en_uk-F76+1) &amp;"|"</f>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" )           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)           |</v>
+        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" )      | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)      |</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K76" s="1" t="str">
         <f>"| [![" &amp; $A76 &amp; "](/doc/img/app/sml/" &amp; $A76 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A76 &amp; "/es-mx-o13-ee-" &amp; $A76 &amp; "-guides.md ""Ver a las guías de " &amp; D76 &amp; " \[" &amp; $A76 &amp; "]"" ) | [" &amp; D76 &amp; "](/es-mx/o13/ee/"&amp;$A76&amp;"/es-mx-o13-ee-" &amp; $A76 &amp; "-guides.md)"</f>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" ) | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)</v>
+        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" ) | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)</v>
       </c>
       <c r="L76" s="1" t="str">
         <f>LEFT(K76,LN_es_mx-1+G76) &amp; REPT(" ",ML_es_mx-G76) &amp; MID(K76,LN_es_mx+G76,200)&amp;REPT(" ",ML_es_mx-G76+1) &amp;"|"</f>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )         | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)         |</v>
+        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" )    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)    |</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>0</v>
@@ -4963,48 +4929,48 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C77" t="str">
         <f>B77</f>
-        <v>Timesheet</v>
+        <v>Surveys</v>
       </c>
       <c r="D77" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E77" t="str">
         <f>D77</f>
-        <v>Agenda Móvil</v>
+        <v>Encuestas</v>
       </c>
       <c r="F77">
         <f>LEN(B77)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G77">
         <f>LEN(D77)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H77" s="1" t="str">
         <f>"| [![" &amp; $A77 &amp; "](/doc/img/app/sml/" &amp; $A77 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A77 &amp; "/en-uk-o13-ee-" &amp; $A77 &amp; "-guides.md ""Goto " &amp; B77 &amp; " guides \[" &amp; $A77 &amp; "]"" ) | [" &amp; B77 &amp; "](/en-uk/o13/ee/"&amp;$A77&amp;"/en-uk-o13-ee-" &amp; $A77 &amp; "-guides.md)"</f>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" ) | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)</v>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" ) | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)</v>
       </c>
       <c r="I77" s="1" t="str">
         <f>LEFT(H77,LN_en_uk+F77-1) &amp; REPT(" ",ML_en_uk-F77) &amp; MID(H77,LN_en_uk+F77,200)&amp;REPT(" ",ML_en_uk-F77+1) &amp;"|"</f>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" )          | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)          |</v>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" )            | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)            |</v>
       </c>
       <c r="J77" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K77" s="1" t="str">
         <f>"| [![" &amp; $A77 &amp; "](/doc/img/app/sml/" &amp; $A77 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A77 &amp; "/es-mx-o13-ee-" &amp; $A77 &amp; "-guides.md ""Ver a las guías de " &amp; D77 &amp; " \[" &amp; $A77 &amp; "]"" ) | [" &amp; D77 &amp; "](/es-mx/o13/ee/"&amp;$A77&amp;"/es-mx-o13-ee-" &amp; $A77 &amp; "-guides.md)"</f>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" ) | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)</v>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" ) | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)</v>
       </c>
       <c r="L77" s="1" t="str">
         <f>LEFT(K77,LN_es_mx-1+G77) &amp; REPT(" ",ML_es_mx-G77) &amp; MID(K77,LN_es_mx+G77,200)&amp;REPT(" ",ML_es_mx-G77+1) &amp;"|"</f>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )     | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)     |</v>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )        | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)        |</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>0</v>
@@ -5012,21 +4978,21 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C78" t="str">
         <f>B78</f>
-        <v>Voice IP</v>
+        <v>Time Off</v>
       </c>
       <c r="D78" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="E78" t="str">
         <f>D78</f>
-        <v>Voz por IP</v>
+        <v>Permisos</v>
       </c>
       <c r="F78">
         <f>LEN(B78)</f>
@@ -5034,26 +5000,26 @@
       </c>
       <c r="G78">
         <f>LEN(D78)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H78" s="1" t="str">
         <f>"| [![" &amp; $A78 &amp; "](/doc/img/app/sml/" &amp; $A78 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A78 &amp; "/en-uk-o13-ee-" &amp; $A78 &amp; "-guides.md ""Goto " &amp; B78 &amp; " guides \[" &amp; $A78 &amp; "]"" ) | [" &amp; B78 &amp; "](/en-uk/o13/ee/"&amp;$A78&amp;"/en-uk-o13-ee-" &amp; $A78 &amp; "-guides.md)"</f>
-        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" ) | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)</v>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" ) | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)</v>
       </c>
       <c r="I78" s="1" t="str">
         <f>LEFT(H78,LN_en_uk+F78-1) &amp; REPT(" ",ML_en_uk-F78) &amp; MID(H78,LN_en_uk+F78,200)&amp;REPT(" ",ML_en_uk-F78+1) &amp;"|"</f>
-        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" )           | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)           |</v>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" )           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)           |</v>
       </c>
       <c r="J78" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K78" s="1" t="str">
         <f>"| [![" &amp; $A78 &amp; "](/doc/img/app/sml/" &amp; $A78 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A78 &amp; "/es-mx-o13-ee-" &amp; $A78 &amp; "-guides.md ""Ver a las guías de " &amp; D78 &amp; " \[" &amp; $A78 &amp; "]"" ) | [" &amp; D78 &amp; "](/es-mx/o13/ee/"&amp;$A78&amp;"/es-mx-o13-ee-" &amp; $A78 &amp; "-guides.md)"</f>
-        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" ) | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)</v>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" ) | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)</v>
       </c>
       <c r="L78" s="1" t="str">
         <f>LEFT(K78,LN_es_mx-1+G78) &amp; REPT(" ",ML_es_mx-G78) &amp; MID(K78,LN_es_mx+G78,200)&amp;REPT(" ",ML_es_mx-G78+1) &amp;"|"</f>
-        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" )       | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)       |</v>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )         | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)         |</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>0</v>
@@ -5061,48 +5027,48 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C79" t="str">
         <f>B79</f>
-        <v>Websites</v>
+        <v>Timesheet</v>
       </c>
       <c r="D79" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E79" t="str">
         <f>D79</f>
-        <v>Web Sitios</v>
+        <v>Agenda Móvil</v>
       </c>
       <c r="F79">
         <f>LEN(B79)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G79">
         <f>LEN(D79)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H79" s="1" t="str">
         <f>"| [![" &amp; $A79 &amp; "](/doc/img/app/sml/" &amp; $A79 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A79 &amp; "/en-uk-o13-ee-" &amp; $A79 &amp; "-guides.md ""Goto " &amp; B79 &amp; " guides \[" &amp; $A79 &amp; "]"" ) | [" &amp; B79 &amp; "](/en-uk/o13/ee/"&amp;$A79&amp;"/en-uk-o13-ee-" &amp; $A79 &amp; "-guides.md)"</f>
-        <v>| [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" ) | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)</v>
+        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" ) | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)</v>
       </c>
       <c r="I79" s="1" t="str">
         <f>LEFT(H79,LN_en_uk+F79-1) &amp; REPT(" ",ML_en_uk-F79) &amp; MID(H79,LN_en_uk+F79,200)&amp;REPT(" ",ML_en_uk-F79+1) &amp;"|"</f>
-        <v>| [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" )           | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)           |</v>
+        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" )          | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)          |</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K79" s="1" t="str">
         <f>"| [![" &amp; $A79 &amp; "](/doc/img/app/sml/" &amp; $A79 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A79 &amp; "/es-mx-o13-ee-" &amp; $A79 &amp; "-guides.md ""Ver a las guías de " &amp; D79 &amp; " \[" &amp; $A79 &amp; "]"" ) | [" &amp; D79 &amp; "](/es-mx/o13/ee/"&amp;$A79&amp;"/es-mx-o13-ee-" &amp; $A79 &amp; "-guides.md)"</f>
-        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" ) | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)</v>
+        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" ) | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)</v>
       </c>
       <c r="L79" s="1" t="str">
         <f>LEFT(K79,LN_es_mx-1+G79) &amp; REPT(" ",ML_es_mx-G79) &amp; MID(K79,LN_es_mx+G79,200)&amp;REPT(" ",ML_es_mx-G79+1) &amp;"|"</f>
-        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" )       | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)       |</v>
+        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )     | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)     |</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>0</v>
@@ -5110,48 +5076,48 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C80" t="str">
         <f>B80</f>
-        <v>Ws Calendar</v>
+        <v>Voice IP</v>
       </c>
       <c r="D80" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E80" t="str">
         <f>D80</f>
-        <v>Ws Calendario</v>
+        <v>Voz por IP</v>
       </c>
       <c r="F80">
         <f>LEN(B80)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G80">
         <f>LEN(D80)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H80" s="1" t="str">
         <f>"| [![" &amp; $A80 &amp; "](/doc/img/app/sml/" &amp; $A80 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A80 &amp; "/en-uk-o13-ee-" &amp; $A80 &amp; "-guides.md ""Goto " &amp; B80 &amp; " guides \[" &amp; $A80 &amp; "]"" ) | [" &amp; B80 &amp; "](/en-uk/o13/ee/"&amp;$A80&amp;"/en-uk-o13-ee-" &amp; $A80 &amp; "-guides.md)"</f>
-        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" ) | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)</v>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" ) | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)</v>
       </c>
       <c r="I80" s="1" t="str">
         <f>LEFT(H80,LN_en_uk+F80-1) &amp; REPT(" ",ML_en_uk-F80) &amp; MID(H80,LN_en_uk+F80,200)&amp;REPT(" ",ML_en_uk-F80+1) &amp;"|"</f>
-        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" )        | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)        |</v>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" )           | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)           |</v>
       </c>
       <c r="J80" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K80" s="1" t="str">
         <f>"| [![" &amp; $A80 &amp; "](/doc/img/app/sml/" &amp; $A80 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A80 &amp; "/es-mx-o13-ee-" &amp; $A80 &amp; "-guides.md ""Ver a las guías de " &amp; D80 &amp; " \[" &amp; $A80 &amp; "]"" ) | [" &amp; D80 &amp; "](/es-mx/o13/ee/"&amp;$A80&amp;"/es-mx-o13-ee-" &amp; $A80 &amp; "-guides.md)"</f>
-        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" ) | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)</v>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" ) | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)</v>
       </c>
       <c r="L80" s="1" t="str">
         <f>LEFT(K80,LN_es_mx-1+G80) &amp; REPT(" ",ML_es_mx-G80) &amp; MID(K80,LN_es_mx+G80,200)&amp;REPT(" ",ML_es_mx-G80+1) &amp;"|"</f>
-        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" )    | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)    |</v>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" )       | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)       |</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>0</v>
@@ -5159,48 +5125,48 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="C81" t="str">
         <f>B81</f>
-        <v>Ws CRM</v>
+        <v>Websites</v>
       </c>
       <c r="D81" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="E81" t="str">
         <f>D81</f>
-        <v>Ws CRM</v>
+        <v>Web Sitios</v>
       </c>
       <c r="F81">
         <f>LEN(B81)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G81">
         <f>LEN(D81)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H81" s="1" t="str">
         <f>"| [![" &amp; $A81 &amp; "](/doc/img/app/sml/" &amp; $A81 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A81 &amp; "/en-uk-o13-ee-" &amp; $A81 &amp; "-guides.md ""Goto " &amp; B81 &amp; " guides \[" &amp; $A81 &amp; "]"" ) | [" &amp; B81 &amp; "](/en-uk/o13/ee/"&amp;$A81&amp;"/en-uk-o13-ee-" &amp; $A81 &amp; "-guides.md)"</f>
-        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" ) | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)</v>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" ) | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)</v>
       </c>
       <c r="I81" s="1" t="str">
         <f>LEFT(H81,LN_en_uk+F81-1) &amp; REPT(" ",ML_en_uk-F81) &amp; MID(H81,LN_en_uk+F81,200)&amp;REPT(" ",ML_en_uk-F81+1) &amp;"|"</f>
-        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" )             | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)             |</v>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" )           | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)           |</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K81" s="1" t="str">
         <f>"| [![" &amp; $A81 &amp; "](/doc/img/app/sml/" &amp; $A81 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A81 &amp; "/es-mx-o13-ee-" &amp; $A81 &amp; "-guides.md ""Ver a las guías de " &amp; D81 &amp; " \[" &amp; $A81 &amp; "]"" ) | [" &amp; D81 &amp; "](/es-mx/o13/ee/"&amp;$A81&amp;"/es-mx-o13-ee-" &amp; $A81 &amp; "-guides.md)"</f>
-        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" ) | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)</v>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" ) | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)</v>
       </c>
       <c r="L81" s="1" t="str">
         <f>LEFT(K81,LN_es_mx-1+G81) &amp; REPT(" ",ML_es_mx-G81) &amp; MID(K81,LN_es_mx+G81,200)&amp;REPT(" ",ML_es_mx-G81+1) &amp;"|"</f>
-        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" )           | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)           |</v>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" )       | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)       |</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>0</v>
@@ -5208,25 +5174,25 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="C82" t="str">
         <f>B82</f>
-        <v>Ws CRM Partners</v>
+        <v>Ws Calendar</v>
       </c>
       <c r="D82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E82" t="str">
         <f>D82</f>
-        <v>Ws CRM Socios</v>
+        <v>Ws Calendario</v>
       </c>
       <c r="F82">
         <f>LEN(B82)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G82">
         <f>LEN(D82)</f>
@@ -5234,22 +5200,22 @@
       </c>
       <c r="H82" s="1" t="str">
         <f>"| [![" &amp; $A82 &amp; "](/doc/img/app/sml/" &amp; $A82 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A82 &amp; "/en-uk-o13-ee-" &amp; $A82 &amp; "-guides.md ""Goto " &amp; B82 &amp; " guides \[" &amp; $A82 &amp; "]"" ) | [" &amp; B82 &amp; "](/en-uk/o13/ee/"&amp;$A82&amp;"/en-uk-o13-ee-" &amp; $A82 &amp; "-guides.md)"</f>
-        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" ) | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)</v>
+        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" ) | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)</v>
       </c>
       <c r="I82" s="1" t="str">
         <f>LEFT(H82,LN_en_uk+F82-1) &amp; REPT(" ",ML_en_uk-F82) &amp; MID(H82,LN_en_uk+F82,200)&amp;REPT(" ",ML_en_uk-F82+1) &amp;"|"</f>
-        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" )    | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)    |</v>
+        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" )        | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)        |</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K82" s="1" t="str">
         <f>"| [![" &amp; $A82 &amp; "](/doc/img/app/sml/" &amp; $A82 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A82 &amp; "/es-mx-o13-ee-" &amp; $A82 &amp; "-guides.md ""Ver a las guías de " &amp; D82 &amp; " \[" &amp; $A82 &amp; "]"" ) | [" &amp; D82 &amp; "](/es-mx/o13/ee/"&amp;$A82&amp;"/es-mx-o13-ee-" &amp; $A82 &amp; "-guides.md)"</f>
-        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" ) | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)</v>
+        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" ) | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)</v>
       </c>
       <c r="L82" s="1" t="str">
         <f>LEFT(K82,LN_es_mx-1+G82) &amp; REPT(" ",ML_es_mx-G82) &amp; MID(K82,LN_es_mx+G82,200)&amp;REPT(" ",ML_es_mx-G82+1) &amp;"|"</f>
-        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" )    | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)    |</v>
+        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" )    | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)    |</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>0</v>
@@ -5257,48 +5223,48 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C83" t="str">
         <f>B83</f>
-        <v>Ws CRM Score</v>
+        <v>Ws CRM</v>
       </c>
       <c r="D83" t="s">
-        <v>277</v>
+        <v>181</v>
       </c>
       <c r="E83" t="str">
         <f>D83</f>
-        <v>Ws CRM Puntos</v>
+        <v>Ws CRM</v>
       </c>
       <c r="F83">
         <f>LEN(B83)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G83">
         <f>LEN(D83)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H83" s="1" t="str">
         <f>"| [![" &amp; $A83 &amp; "](/doc/img/app/sml/" &amp; $A83 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A83 &amp; "/en-uk-o13-ee-" &amp; $A83 &amp; "-guides.md ""Goto " &amp; B83 &amp; " guides \[" &amp; $A83 &amp; "]"" ) | [" &amp; B83 &amp; "](/en-uk/o13/ee/"&amp;$A83&amp;"/en-uk-o13-ee-" &amp; $A83 &amp; "-guides.md)"</f>
-        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" ) | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)</v>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" ) | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)</v>
       </c>
       <c r="I83" s="1" t="str">
         <f>LEFT(H83,LN_en_uk+F83-1) &amp; REPT(" ",ML_en_uk-F83) &amp; MID(H83,LN_en_uk+F83,200)&amp;REPT(" ",ML_en_uk-F83+1) &amp;"|"</f>
-        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" )       | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)       |</v>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" )             | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)             |</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K83" s="1" t="str">
         <f>"| [![" &amp; $A83 &amp; "](/doc/img/app/sml/" &amp; $A83 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A83 &amp; "/es-mx-o13-ee-" &amp; $A83 &amp; "-guides.md ""Ver a las guías de " &amp; D83 &amp; " \[" &amp; $A83 &amp; "]"" ) | [" &amp; D83 &amp; "](/es-mx/o13/ee/"&amp;$A83&amp;"/es-mx-o13-ee-" &amp; $A83 &amp; "-guides.md)"</f>
-        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" ) | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)</v>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" ) | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)</v>
       </c>
       <c r="L83" s="1" t="str">
         <f>LEFT(K83,LN_es_mx-1+G83) &amp; REPT(" ",ML_es_mx-G83) &amp; MID(K83,LN_es_mx+G83,200)&amp;REPT(" ",ML_es_mx-G83+1) &amp;"|"</f>
-        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" )    | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)    |</v>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" )           | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)           |</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>0</v>
@@ -5306,48 +5272,48 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C84" t="str">
         <f>B84</f>
-        <v>Ws Customer</v>
+        <v>Ws CRM Partners</v>
       </c>
       <c r="D84" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E84" t="str">
         <f>D84</f>
-        <v>Ws Cliente</v>
+        <v>Ws CRM Socios</v>
       </c>
       <c r="F84">
         <f>LEN(B84)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G84">
         <f>LEN(D84)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H84" s="1" t="str">
         <f>"| [![" &amp; $A84 &amp; "](/doc/img/app/sml/" &amp; $A84 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A84 &amp; "/en-uk-o13-ee-" &amp; $A84 &amp; "-guides.md ""Goto " &amp; B84 &amp; " guides \[" &amp; $A84 &amp; "]"" ) | [" &amp; B84 &amp; "](/en-uk/o13/ee/"&amp;$A84&amp;"/en-uk-o13-ee-" &amp; $A84 &amp; "-guides.md)"</f>
-        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md "Goto Ws Customer guides \[wcu]" ) | [Ws Customer](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md)</v>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" ) | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)</v>
       </c>
       <c r="I84" s="1" t="str">
         <f>LEFT(H84,LN_en_uk+F84-1) &amp; REPT(" ",ML_en_uk-F84) &amp; MID(H84,LN_en_uk+F84,200)&amp;REPT(" ",ML_en_uk-F84+1) &amp;"|"</f>
-        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md "Goto Ws Customer guides \[wcu]" )        | [Ws Customer](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md)        |</v>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" )    | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)    |</v>
       </c>
       <c r="J84" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K84" s="1" t="str">
         <f>"| [![" &amp; $A84 &amp; "](/doc/img/app/sml/" &amp; $A84 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A84 &amp; "/es-mx-o13-ee-" &amp; $A84 &amp; "-guides.md ""Ver a las guías de " &amp; D84 &amp; " \[" &amp; $A84 &amp; "]"" ) | [" &amp; D84 &amp; "](/es-mx/o13/ee/"&amp;$A84&amp;"/es-mx-o13-ee-" &amp; $A84 &amp; "-guides.md)"</f>
-        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" ) | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)</v>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" ) | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)</v>
       </c>
       <c r="L84" s="1" t="str">
         <f>LEFT(K84,LN_es_mx-1+G84) &amp; REPT(" ",ML_es_mx-G84) &amp; MID(K84,LN_es_mx+G84,200)&amp;REPT(" ",ML_es_mx-G84+1) &amp;"|"</f>
-        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" )       | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)       |</v>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" )    | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)    |</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>0</v>
@@ -5355,48 +5321,48 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C85" t="str">
         <f>B85</f>
-        <v>Ws Enterprise</v>
+        <v>Ws CRM Score</v>
       </c>
       <c r="D85" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E85" t="str">
         <f>D85</f>
-        <v>Ws Empresarial</v>
+        <v>Ws CRM Puntos</v>
       </c>
       <c r="F85">
         <f>LEN(B85)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G85">
         <f>LEN(D85)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H85" s="1" t="str">
         <f>"| [![" &amp; $A85 &amp; "](/doc/img/app/sml/" &amp; $A85 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A85 &amp; "/en-uk-o13-ee-" &amp; $A85 &amp; "-guides.md ""Goto " &amp; B85 &amp; " guides \[" &amp; $A85 &amp; "]"" ) | [" &amp; B85 &amp; "](/en-uk/o13/ee/"&amp;$A85&amp;"/en-uk-o13-ee-" &amp; $A85 &amp; "-guides.md)"</f>
-        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" ) | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)</v>
+        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" ) | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)</v>
       </c>
       <c r="I85" s="1" t="str">
         <f>LEFT(H85,LN_en_uk+F85-1) &amp; REPT(" ",ML_en_uk-F85) &amp; MID(H85,LN_en_uk+F85,200)&amp;REPT(" ",ML_en_uk-F85+1) &amp;"|"</f>
-        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" )      | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)      |</v>
+        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" )       | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)       |</v>
       </c>
       <c r="J85" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K85" s="1" t="str">
         <f>"| [![" &amp; $A85 &amp; "](/doc/img/app/sml/" &amp; $A85 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A85 &amp; "/es-mx-o13-ee-" &amp; $A85 &amp; "-guides.md ""Ver a las guías de " &amp; D85 &amp; " \[" &amp; $A85 &amp; "]"" ) | [" &amp; D85 &amp; "](/es-mx/o13/ee/"&amp;$A85&amp;"/es-mx-o13-ee-" &amp; $A85 &amp; "-guides.md)"</f>
-        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" ) | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)</v>
+        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" ) | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)</v>
       </c>
       <c r="L85" s="1" t="str">
         <f>LEFT(K85,LN_es_mx-1+G85) &amp; REPT(" ",ML_es_mx-G85) &amp; MID(K85,LN_es_mx+G85,200)&amp;REPT(" ",ML_es_mx-G85+1) &amp;"|"</f>
-        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" )   | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)   |</v>
+        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" )    | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)    |</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>0</v>
@@ -5404,25 +5370,25 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C86" t="str">
         <f>B86</f>
-        <v>Ws Event</v>
+        <v>Ws Customer</v>
       </c>
       <c r="D86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E86" t="str">
         <f>D86</f>
-        <v>Ws Eventos</v>
+        <v>Ws Cliente</v>
       </c>
       <c r="F86">
         <f>LEN(B86)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G86">
         <f>LEN(D86)</f>
@@ -5430,22 +5396,22 @@
       </c>
       <c r="H86" s="1" t="str">
         <f>"| [![" &amp; $A86 &amp; "](/doc/img/app/sml/" &amp; $A86 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A86 &amp; "/en-uk-o13-ee-" &amp; $A86 &amp; "-guides.md ""Goto " &amp; B86 &amp; " guides \[" &amp; $A86 &amp; "]"" ) | [" &amp; B86 &amp; "](/en-uk/o13/ee/"&amp;$A86&amp;"/en-uk-o13-ee-" &amp; $A86 &amp; "-guides.md)"</f>
-        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" ) | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)</v>
+        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md "Goto Ws Customer guides \[wcu]" ) | [Ws Customer](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md)</v>
       </c>
       <c r="I86" s="1" t="str">
         <f>LEFT(H86,LN_en_uk+F86-1) &amp; REPT(" ",ML_en_uk-F86) &amp; MID(H86,LN_en_uk+F86,200)&amp;REPT(" ",ML_en_uk-F86+1) &amp;"|"</f>
-        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" )           | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)           |</v>
+        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md "Goto Ws Customer guides \[wcu]" )        | [Ws Customer](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md)        |</v>
       </c>
       <c r="J86" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K86" s="1" t="str">
         <f>"| [![" &amp; $A86 &amp; "](/doc/img/app/sml/" &amp; $A86 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A86 &amp; "/es-mx-o13-ee-" &amp; $A86 &amp; "-guides.md ""Ver a las guías de " &amp; D86 &amp; " \[" &amp; $A86 &amp; "]"" ) | [" &amp; D86 &amp; "](/es-mx/o13/ee/"&amp;$A86&amp;"/es-mx-o13-ee-" &amp; $A86 &amp; "-guides.md)"</f>
-        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" ) | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)</v>
+        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" ) | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)</v>
       </c>
       <c r="L86" s="1" t="str">
         <f>LEFT(K86,LN_es_mx-1+G86) &amp; REPT(" ",ML_es_mx-G86) &amp; MID(K86,LN_es_mx+G86,200)&amp;REPT(" ",ML_es_mx-G86+1) &amp;"|"</f>
-        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" )       | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)       |</v>
+        <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" )       | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)       |</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>0</v>
@@ -5453,48 +5419,48 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C87" t="str">
         <f>B87</f>
-        <v>Ws Event Quest</v>
+        <v>Ws Enterprise</v>
       </c>
       <c r="D87" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E87" t="str">
         <f>D87</f>
-        <v>Ws Eve Preguntas</v>
+        <v>Ws Empresarial</v>
       </c>
       <c r="F87">
         <f>LEN(B87)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G87">
         <f>LEN(D87)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H87" s="1" t="str">
         <f>"| [![" &amp; $A87 &amp; "](/doc/img/app/sml/" &amp; $A87 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A87 &amp; "/en-uk-o13-ee-" &amp; $A87 &amp; "-guides.md ""Goto " &amp; B87 &amp; " guides \[" &amp; $A87 &amp; "]"" ) | [" &amp; B87 &amp; "](/en-uk/o13/ee/"&amp;$A87&amp;"/en-uk-o13-ee-" &amp; $A87 &amp; "-guides.md)"</f>
-        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" ) | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)</v>
+        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" ) | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)</v>
       </c>
       <c r="I87" s="1" t="str">
         <f>LEFT(H87,LN_en_uk+F87-1) &amp; REPT(" ",ML_en_uk-F87) &amp; MID(H87,LN_en_uk+F87,200)&amp;REPT(" ",ML_en_uk-F87+1) &amp;"|"</f>
-        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" )     | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)     |</v>
+        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" )      | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)      |</v>
       </c>
       <c r="J87" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K87" s="1" t="str">
         <f>"| [![" &amp; $A87 &amp; "](/doc/img/app/sml/" &amp; $A87 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A87 &amp; "/es-mx-o13-ee-" &amp; $A87 &amp; "-guides.md ""Ver a las guías de " &amp; D87 &amp; " \[" &amp; $A87 &amp; "]"" ) | [" &amp; D87 &amp; "](/es-mx/o13/ee/"&amp;$A87&amp;"/es-mx-o13-ee-" &amp; $A87 &amp; "-guides.md)"</f>
-        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md)</v>
+        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" ) | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)</v>
       </c>
       <c r="L87" s="1" t="str">
         <f>LEFT(K87,LN_es_mx-1+G87) &amp; REPT(" ",ML_es_mx-G87) &amp; MID(K87,LN_es_mx+G87,200)&amp;REPT(" ",ML_es_mx-G87+1) &amp;"|"</f>
-        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md) |</v>
+        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" )   | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)   |</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>0</v>
@@ -5502,48 +5468,48 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C88" t="str">
         <f>B88</f>
-        <v>Ws Event Sale</v>
+        <v>Ws Event</v>
       </c>
       <c r="D88" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E88" t="str">
         <f>D88</f>
-        <v>Ws Eve Ventas</v>
+        <v>Ws Eventos</v>
       </c>
       <c r="F88">
         <f>LEN(B88)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G88">
         <f>LEN(D88)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H88" s="1" t="str">
         <f>"| [![" &amp; $A88 &amp; "](/doc/img/app/sml/" &amp; $A88 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A88 &amp; "/en-uk-o13-ee-" &amp; $A88 &amp; "-guides.md ""Goto " &amp; B88 &amp; " guides \[" &amp; $A88 &amp; "]"" ) | [" &amp; B88 &amp; "](/en-uk/o13/ee/"&amp;$A88&amp;"/en-uk-o13-ee-" &amp; $A88 &amp; "-guides.md)"</f>
-        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" ) | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)</v>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" ) | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)</v>
       </c>
       <c r="I88" s="1" t="str">
         <f>LEFT(H88,LN_en_uk+F88-1) &amp; REPT(" ",ML_en_uk-F88) &amp; MID(H88,LN_en_uk+F88,200)&amp;REPT(" ",ML_en_uk-F88+1) &amp;"|"</f>
-        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" )      | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)      |</v>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" )           | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)           |</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K88" s="1" t="str">
         <f>"| [![" &amp; $A88 &amp; "](/doc/img/app/sml/" &amp; $A88 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A88 &amp; "/es-mx-o13-ee-" &amp; $A88 &amp; "-guides.md ""Ver a las guías de " &amp; D88 &amp; " \[" &amp; $A88 &amp; "]"" ) | [" &amp; D88 &amp; "](/es-mx/o13/ee/"&amp;$A88&amp;"/es-mx-o13-ee-" &amp; $A88 &amp; "-guides.md)"</f>
-        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" ) | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)</v>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" ) | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)</v>
       </c>
       <c r="L88" s="1" t="str">
         <f>LEFT(K88,LN_es_mx-1+G88) &amp; REPT(" ",ML_es_mx-G88) &amp; MID(K88,LN_es_mx+G88,200)&amp;REPT(" ",ML_es_mx-G88+1) &amp;"|"</f>
-        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" )    | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)    |</v>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" )       | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)       |</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>0</v>
@@ -5551,21 +5517,21 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C89" t="str">
         <f>B89</f>
-        <v>Ws Event Track</v>
+        <v>Ws Event Quest</v>
       </c>
       <c r="D89" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E89" t="str">
         <f>D89</f>
-        <v>Ws Eve Segmnto</v>
+        <v>Ws Eve Preguntas</v>
       </c>
       <c r="F89">
         <f>LEN(B89)</f>
@@ -5573,26 +5539,26 @@
       </c>
       <c r="G89">
         <f>LEN(D89)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H89" s="1" t="str">
         <f>"| [![" &amp; $A89 &amp; "](/doc/img/app/sml/" &amp; $A89 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A89 &amp; "/en-uk-o13-ee-" &amp; $A89 &amp; "-guides.md ""Goto " &amp; B89 &amp; " guides \[" &amp; $A89 &amp; "]"" ) | [" &amp; B89 &amp; "](/en-uk/o13/ee/"&amp;$A89&amp;"/en-uk-o13-ee-" &amp; $A89 &amp; "-guides.md)"</f>
-        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" ) | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)</v>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" ) | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)</v>
       </c>
       <c r="I89" s="1" t="str">
         <f>LEFT(H89,LN_en_uk+F89-1) &amp; REPT(" ",ML_en_uk-F89) &amp; MID(H89,LN_en_uk+F89,200)&amp;REPT(" ",ML_en_uk-F89+1) &amp;"|"</f>
-        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" )     | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)     |</v>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" )     | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)     |</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K89" s="1" t="str">
         <f>"| [![" &amp; $A89 &amp; "](/doc/img/app/sml/" &amp; $A89 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A89 &amp; "/es-mx-o13-ee-" &amp; $A89 &amp; "-guides.md ""Ver a las guías de " &amp; D89 &amp; " \[" &amp; $A89 &amp; "]"" ) | [" &amp; D89 &amp; "](/es-mx/o13/ee/"&amp;$A89&amp;"/es-mx-o13-ee-" &amp; $A89 &amp; "-guides.md)"</f>
-        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" ) | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)</v>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md)</v>
       </c>
       <c r="L89" s="1" t="str">
         <f>LEFT(K89,LN_es_mx-1+G89) &amp; REPT(" ",ML_es_mx-G89) &amp; MID(K89,LN_es_mx+G89,200)&amp;REPT(" ",ML_es_mx-G89+1) &amp;"|"</f>
-        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" )   | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)   |</v>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md) |</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>0</v>
@@ -5600,48 +5566,48 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B90" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C90" t="str">
         <f>B90</f>
-        <v>Ws Forum Doc</v>
+        <v>Ws Event Sale</v>
       </c>
       <c r="D90" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E90" t="str">
         <f>D90</f>
-        <v>Ws Foro Docs</v>
+        <v>Ws Eve Ventas</v>
       </c>
       <c r="F90">
         <f>LEN(B90)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90">
         <f>LEN(D90)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H90" s="1" t="str">
         <f>"| [![" &amp; $A90 &amp; "](/doc/img/app/sml/" &amp; $A90 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A90 &amp; "/en-uk-o13-ee-" &amp; $A90 &amp; "-guides.md ""Goto " &amp; B90 &amp; " guides \[" &amp; $A90 &amp; "]"" ) | [" &amp; B90 &amp; "](/en-uk/o13/ee/"&amp;$A90&amp;"/en-uk-o13-ee-" &amp; $A90 &amp; "-guides.md)"</f>
-        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" ) | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)</v>
+        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" ) | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)</v>
       </c>
       <c r="I90" s="1" t="str">
         <f>LEFT(H90,LN_en_uk+F90-1) &amp; REPT(" ",ML_en_uk-F90) &amp; MID(H90,LN_en_uk+F90,200)&amp;REPT(" ",ML_en_uk-F90+1) &amp;"|"</f>
-        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" )       | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)       |</v>
+        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" )      | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)      |</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K90" s="1" t="str">
         <f>"| [![" &amp; $A90 &amp; "](/doc/img/app/sml/" &amp; $A90 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A90 &amp; "/es-mx-o13-ee-" &amp; $A90 &amp; "-guides.md ""Ver a las guías de " &amp; D90 &amp; " \[" &amp; $A90 &amp; "]"" ) | [" &amp; D90 &amp; "](/es-mx/o13/ee/"&amp;$A90&amp;"/es-mx-o13-ee-" &amp; $A90 &amp; "-guides.md)"</f>
-        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" ) | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)</v>
+        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" ) | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)</v>
       </c>
       <c r="L90" s="1" t="str">
         <f>LEFT(K90,LN_es_mx-1+G90) &amp; REPT(" ",ML_es_mx-G90) &amp; MID(K90,LN_es_mx+G90,200)&amp;REPT(" ",ML_es_mx-G90+1) &amp;"|"</f>
-        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" )     | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)     |</v>
+        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" )    | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)    |</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>0</v>
@@ -5649,25 +5615,25 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B91" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C91" t="str">
         <f>B91</f>
-        <v>Ws Forum Editor</v>
+        <v>Ws Event Track</v>
       </c>
       <c r="D91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E91" t="str">
         <f>D91</f>
-        <v>Ws Foro Editor</v>
+        <v>Ws Eve Segmnto</v>
       </c>
       <c r="F91">
         <f>LEN(B91)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G91">
         <f>LEN(D91)</f>
@@ -5675,22 +5641,22 @@
       </c>
       <c r="H91" s="1" t="str">
         <f>"| [![" &amp; $A91 &amp; "](/doc/img/app/sml/" &amp; $A91 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A91 &amp; "/en-uk-o13-ee-" &amp; $A91 &amp; "-guides.md ""Goto " &amp; B91 &amp; " guides \[" &amp; $A91 &amp; "]"" ) | [" &amp; B91 &amp; "](/en-uk/o13/ee/"&amp;$A91&amp;"/en-uk-o13-ee-" &amp; $A91 &amp; "-guides.md)"</f>
-        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" ) | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)</v>
+        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" ) | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)</v>
       </c>
       <c r="I91" s="1" t="str">
         <f>LEFT(H91,LN_en_uk+F91-1) &amp; REPT(" ",ML_en_uk-F91) &amp; MID(H91,LN_en_uk+F91,200)&amp;REPT(" ",ML_en_uk-F91+1) &amp;"|"</f>
-        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" )    | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)    |</v>
+        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" )     | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)     |</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K91" s="1" t="str">
         <f>"| [![" &amp; $A91 &amp; "](/doc/img/app/sml/" &amp; $A91 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A91 &amp; "/es-mx-o13-ee-" &amp; $A91 &amp; "-guides.md ""Ver a las guías de " &amp; D91 &amp; " \[" &amp; $A91 &amp; "]"" ) | [" &amp; D91 &amp; "](/es-mx/o13/ee/"&amp;$A91&amp;"/es-mx-o13-ee-" &amp; $A91 &amp; "-guides.md)"</f>
-        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" ) | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)</v>
+        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" ) | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)</v>
       </c>
       <c r="L91" s="1" t="str">
         <f>LEFT(K91,LN_es_mx-1+G91) &amp; REPT(" ",ML_es_mx-G91) &amp; MID(K91,LN_es_mx+G91,200)&amp;REPT(" ",ML_es_mx-G91+1) &amp;"|"</f>
-        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" )   | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)   |</v>
+        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" )   | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)   |</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>0</v>
@@ -5698,48 +5664,48 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C92" t="str">
         <f>B92</f>
-        <v>Ws Gengo</v>
+        <v>Ws Forum Doc</v>
       </c>
       <c r="D92" t="s">
-        <v>191</v>
+        <v>284</v>
       </c>
       <c r="E92" t="str">
         <f>D92</f>
-        <v>Ws Gengo</v>
+        <v>Ws Foro Docs</v>
       </c>
       <c r="F92">
         <f>LEN(B92)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G92">
         <f>LEN(D92)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H92" s="1" t="str">
         <f>"| [![" &amp; $A92 &amp; "](/doc/img/app/sml/" &amp; $A92 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A92 &amp; "/en-uk-o13-ee-" &amp; $A92 &amp; "-guides.md ""Goto " &amp; B92 &amp; " guides \[" &amp; $A92 &amp; "]"" ) | [" &amp; B92 &amp; "](/en-uk/o13/ee/"&amp;$A92&amp;"/en-uk-o13-ee-" &amp; $A92 &amp; "-guides.md)"</f>
-        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" ) | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)</v>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" ) | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)</v>
       </c>
       <c r="I92" s="1" t="str">
         <f>LEFT(H92,LN_en_uk+F92-1) &amp; REPT(" ",ML_en_uk-F92) &amp; MID(H92,LN_en_uk+F92,200)&amp;REPT(" ",ML_en_uk-F92+1) &amp;"|"</f>
-        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" )           | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)           |</v>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" )       | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)       |</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K92" s="1" t="str">
         <f>"| [![" &amp; $A92 &amp; "](/doc/img/app/sml/" &amp; $A92 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A92 &amp; "/es-mx-o13-ee-" &amp; $A92 &amp; "-guides.md ""Ver a las guías de " &amp; D92 &amp; " \[" &amp; $A92 &amp; "]"" ) | [" &amp; D92 &amp; "](/es-mx/o13/ee/"&amp;$A92&amp;"/es-mx-o13-ee-" &amp; $A92 &amp; "-guides.md)"</f>
-        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" ) | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)</v>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" ) | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)</v>
       </c>
       <c r="L92" s="1" t="str">
         <f>LEFT(K92,LN_es_mx-1+G92) &amp; REPT(" ",ML_es_mx-G92) &amp; MID(K92,LN_es_mx+G92,200)&amp;REPT(" ",ML_es_mx-G92+1) &amp;"|"</f>
-        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" )         | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)         |</v>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" )     | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)     |</v>
       </c>
       <c r="M92" s="4" t="s">
         <v>0</v>
@@ -5747,48 +5713,48 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B93" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C93" t="str">
         <f>B93</f>
-        <v>Ws HR</v>
+        <v>Ws Forum Editor</v>
       </c>
       <c r="D93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E93" t="str">
         <f>D93</f>
-        <v>Ws Nómina</v>
+        <v>Ws Foro Editor</v>
       </c>
       <c r="F93">
         <f>LEN(B93)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G93">
         <f>LEN(D93)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H93" s="1" t="str">
         <f>"| [![" &amp; $A93 &amp; "](/doc/img/app/sml/" &amp; $A93 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A93 &amp; "/en-uk-o13-ee-" &amp; $A93 &amp; "-guides.md ""Goto " &amp; B93 &amp; " guides \[" &amp; $A93 &amp; "]"" ) | [" &amp; B93 &amp; "](/en-uk/o13/ee/"&amp;$A93&amp;"/en-uk-o13-ee-" &amp; $A93 &amp; "-guides.md)"</f>
-        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" ) | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)</v>
+        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" ) | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)</v>
       </c>
       <c r="I93" s="1" t="str">
         <f>LEFT(H93,LN_en_uk+F93-1) &amp; REPT(" ",ML_en_uk-F93) &amp; MID(H93,LN_en_uk+F93,200)&amp;REPT(" ",ML_en_uk-F93+1) &amp;"|"</f>
-        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" )              | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)              |</v>
+        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" )    | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)    |</v>
       </c>
       <c r="J93" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K93" s="1" t="str">
         <f>"| [![" &amp; $A93 &amp; "](/doc/img/app/sml/" &amp; $A93 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A93 &amp; "/es-mx-o13-ee-" &amp; $A93 &amp; "-guides.md ""Ver a las guías de " &amp; D93 &amp; " \[" &amp; $A93 &amp; "]"" ) | [" &amp; D93 &amp; "](/es-mx/o13/ee/"&amp;$A93&amp;"/es-mx-o13-ee-" &amp; $A93 &amp; "-guides.md)"</f>
-        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" ) | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)</v>
+        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" ) | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)</v>
       </c>
       <c r="L93" s="1" t="str">
         <f>LEFT(K93,LN_es_mx-1+G93) &amp; REPT(" ",ML_es_mx-G93) &amp; MID(K93,LN_es_mx+G93,200)&amp;REPT(" ",ML_es_mx-G93+1) &amp;"|"</f>
-        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" )        | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)        |</v>
+        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" )   | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)   |</v>
       </c>
       <c r="M93" s="4" t="s">
         <v>0</v>
@@ -5796,48 +5762,48 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C94" t="str">
         <f>B94</f>
-        <v>Ws HR Recruit</v>
+        <v>Ws Gengo</v>
       </c>
       <c r="D94" t="s">
-        <v>287</v>
+        <v>191</v>
       </c>
       <c r="E94" t="str">
         <f>D94</f>
-        <v>Ws Nom Reclut</v>
+        <v>Ws Gengo</v>
       </c>
       <c r="F94">
         <f>LEN(B94)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G94">
         <f>LEN(D94)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H94" s="1" t="str">
         <f>"| [![" &amp; $A94 &amp; "](/doc/img/app/sml/" &amp; $A94 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A94 &amp; "/en-uk-o13-ee-" &amp; $A94 &amp; "-guides.md ""Goto " &amp; B94 &amp; " guides \[" &amp; $A94 &amp; "]"" ) | [" &amp; B94 &amp; "](/en-uk/o13/ee/"&amp;$A94&amp;"/en-uk-o13-ee-" &amp; $A94 &amp; "-guides.md)"</f>
-        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" ) | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)</v>
+        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" ) | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)</v>
       </c>
       <c r="I94" s="1" t="str">
         <f>LEFT(H94,LN_en_uk+F94-1) &amp; REPT(" ",ML_en_uk-F94) &amp; MID(H94,LN_en_uk+F94,200)&amp;REPT(" ",ML_en_uk-F94+1) &amp;"|"</f>
-        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" )      | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)      |</v>
+        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" )           | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)           |</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K94" s="1" t="str">
         <f>"| [![" &amp; $A94 &amp; "](/doc/img/app/sml/" &amp; $A94 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A94 &amp; "/es-mx-o13-ee-" &amp; $A94 &amp; "-guides.md ""Ver a las guías de " &amp; D94 &amp; " \[" &amp; $A94 &amp; "]"" ) | [" &amp; D94 &amp; "](/es-mx/o13/ee/"&amp;$A94&amp;"/es-mx-o13-ee-" &amp; $A94 &amp; "-guides.md)"</f>
-        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" ) | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)</v>
+        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" ) | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)</v>
       </c>
       <c r="L94" s="1" t="str">
         <f>LEFT(K94,LN_es_mx-1+G94) &amp; REPT(" ",ML_es_mx-G94) &amp; MID(K94,LN_es_mx+G94,200)&amp;REPT(" ",ML_es_mx-G94+1) &amp;"|"</f>
-        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" )    | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)    |</v>
+        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" )         | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)         |</v>
       </c>
       <c r="M94" s="4" t="s">
         <v>0</v>
@@ -5845,48 +5811,48 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B95" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C95" t="str">
         <f>B95</f>
-        <v>Ws Live Chat</v>
+        <v>Ws HR</v>
       </c>
       <c r="D95" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="E95" t="str">
         <f>D95</f>
-        <v>Ws Chat en Vivo</v>
+        <v>Ws Nómina</v>
       </c>
       <c r="F95">
         <f>LEN(B95)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G95">
         <f>LEN(D95)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H95" s="1" t="str">
         <f>"| [![" &amp; $A95 &amp; "](/doc/img/app/sml/" &amp; $A95 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A95 &amp; "/en-uk-o13-ee-" &amp; $A95 &amp; "-guides.md ""Goto " &amp; B95 &amp; " guides \[" &amp; $A95 &amp; "]"" ) | [" &amp; B95 &amp; "](/en-uk/o13/ee/"&amp;$A95&amp;"/en-uk-o13-ee-" &amp; $A95 &amp; "-guides.md)"</f>
-        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" ) | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)</v>
+        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" ) | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)</v>
       </c>
       <c r="I95" s="1" t="str">
         <f>LEFT(H95,LN_en_uk+F95-1) &amp; REPT(" ",ML_en_uk-F95) &amp; MID(H95,LN_en_uk+F95,200)&amp;REPT(" ",ML_en_uk-F95+1) &amp;"|"</f>
-        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" )       | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)       |</v>
+        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" )              | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)              |</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K95" s="1" t="str">
         <f>"| [![" &amp; $A95 &amp; "](/doc/img/app/sml/" &amp; $A95 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A95 &amp; "/es-mx-o13-ee-" &amp; $A95 &amp; "-guides.md ""Ver a las guías de " &amp; D95 &amp; " \[" &amp; $A95 &amp; "]"" ) | [" &amp; D95 &amp; "](/es-mx/o13/ee/"&amp;$A95&amp;"/es-mx-o13-ee-" &amp; $A95 &amp; "-guides.md)"</f>
-        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" ) | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)</v>
+        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" ) | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)</v>
       </c>
       <c r="L95" s="1" t="str">
         <f>LEFT(K95,LN_es_mx-1+G95) &amp; REPT(" ",ML_es_mx-G95) &amp; MID(K95,LN_es_mx+G95,200)&amp;REPT(" ",ML_es_mx-G95+1) &amp;"|"</f>
-        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" )  | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)  |</v>
+        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" )        | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)        |</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>0</v>
@@ -5894,48 +5860,48 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="C96" t="str">
         <f>B96</f>
-        <v>Ws Mail Channel</v>
+        <v>Ws HR Recruit</v>
       </c>
       <c r="D96" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E96" t="str">
         <f>D96</f>
-        <v>Ws Canal Correo</v>
+        <v>Ws Nom Reclut</v>
       </c>
       <c r="F96">
         <f>LEN(B96)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G96">
         <f>LEN(D96)</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H96" s="1" t="str">
         <f>"| [![" &amp; $A96 &amp; "](/doc/img/app/sml/" &amp; $A96 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A96 &amp; "/en-uk-o13-ee-" &amp; $A96 &amp; "-guides.md ""Goto " &amp; B96 &amp; " guides \[" &amp; $A96 &amp; "]"" ) | [" &amp; B96 &amp; "](/en-uk/o13/ee/"&amp;$A96&amp;"/en-uk-o13-ee-" &amp; $A96 &amp; "-guides.md)"</f>
-        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" ) | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)</v>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" ) | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)</v>
       </c>
       <c r="I96" s="1" t="str">
         <f>LEFT(H96,LN_en_uk+F96-1) &amp; REPT(" ",ML_en_uk-F96) &amp; MID(H96,LN_en_uk+F96,200)&amp;REPT(" ",ML_en_uk-F96+1) &amp;"|"</f>
-        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" )    | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)    |</v>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" )      | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)      |</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K96" s="1" t="str">
         <f>"| [![" &amp; $A96 &amp; "](/doc/img/app/sml/" &amp; $A96 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A96 &amp; "/es-mx-o13-ee-" &amp; $A96 &amp; "-guides.md ""Ver a las guías de " &amp; D96 &amp; " \[" &amp; $A96 &amp; "]"" ) | [" &amp; D96 &amp; "](/es-mx/o13/ee/"&amp;$A96&amp;"/es-mx-o13-ee-" &amp; $A96 &amp; "-guides.md)"</f>
-        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" ) | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)</v>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" ) | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)</v>
       </c>
       <c r="L96" s="1" t="str">
         <f>LEFT(K96,LN_es_mx-1+G96) &amp; REPT(" ",ML_es_mx-G96) &amp; MID(K96,LN_es_mx+G96,200)&amp;REPT(" ",ML_es_mx-G96+1) &amp;"|"</f>
-        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" )  | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)  |</v>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" )    | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)    |</v>
       </c>
       <c r="M96" s="4" t="s">
         <v>0</v>
@@ -5943,48 +5909,48 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C97" t="str">
         <f>B97</f>
-        <v>Ws Membership</v>
+        <v>Ws Live Chat</v>
       </c>
       <c r="D97" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="E97" t="str">
         <f>D97</f>
-        <v>Ws Membresías</v>
+        <v>Ws Chat en Vivo</v>
       </c>
       <c r="F97">
         <f>LEN(B97)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G97">
         <f>LEN(D97)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H97" s="1" t="str">
         <f>"| [![" &amp; $A97 &amp; "](/doc/img/app/sml/" &amp; $A97 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A97 &amp; "/en-uk-o13-ee-" &amp; $A97 &amp; "-guides.md ""Goto " &amp; B97 &amp; " guides \[" &amp; $A97 &amp; "]"" ) | [" &amp; B97 &amp; "](/en-uk/o13/ee/"&amp;$A97&amp;"/en-uk-o13-ee-" &amp; $A97 &amp; "-guides.md)"</f>
-        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" ) | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)</v>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" ) | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)</v>
       </c>
       <c r="I97" s="1" t="str">
         <f>LEFT(H97,LN_en_uk+F97-1) &amp; REPT(" ",ML_en_uk-F97) &amp; MID(H97,LN_en_uk+F97,200)&amp;REPT(" ",ML_en_uk-F97+1) &amp;"|"</f>
-        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" )      | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)      |</v>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" )       | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)       |</v>
       </c>
       <c r="J97" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K97" s="1" t="str">
         <f>"| [![" &amp; $A97 &amp; "](/doc/img/app/sml/" &amp; $A97 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A97 &amp; "/es-mx-o13-ee-" &amp; $A97 &amp; "-guides.md ""Ver a las guías de " &amp; D97 &amp; " \[" &amp; $A97 &amp; "]"" ) | [" &amp; D97 &amp; "](/es-mx/o13/ee/"&amp;$A97&amp;"/es-mx-o13-ee-" &amp; $A97 &amp; "-guides.md)"</f>
-        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" ) | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)</v>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" ) | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)</v>
       </c>
       <c r="L97" s="1" t="str">
         <f>LEFT(K97,LN_es_mx-1+G97) &amp; REPT(" ",ML_es_mx-G97) &amp; MID(K97,LN_es_mx+G97,200)&amp;REPT(" ",ML_es_mx-G97+1) &amp;"|"</f>
-        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" )    | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)    |</v>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" )  | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)  |</v>
       </c>
       <c r="M97" s="4" t="s">
         <v>0</v>
@@ -5992,48 +5958,48 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C98" t="str">
         <f>B98</f>
-        <v>Ws Partner</v>
+        <v>Ws Mail Channel</v>
       </c>
       <c r="D98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E98" t="str">
         <f>D98</f>
-        <v>Ws Socios</v>
+        <v>Ws Canal Correo</v>
       </c>
       <c r="F98">
         <f>LEN(B98)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G98">
         <f>LEN(D98)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H98" s="1" t="str">
         <f>"| [![" &amp; $A98 &amp; "](/doc/img/app/sml/" &amp; $A98 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A98 &amp; "/en-uk-o13-ee-" &amp; $A98 &amp; "-guides.md ""Goto " &amp; B98 &amp; " guides \[" &amp; $A98 &amp; "]"" ) | [" &amp; B98 &amp; "](/en-uk/o13/ee/"&amp;$A98&amp;"/en-uk-o13-ee-" &amp; $A98 &amp; "-guides.md)"</f>
-        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" ) | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)</v>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" ) | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)</v>
       </c>
       <c r="I98" s="1" t="str">
         <f>LEFT(H98,LN_en_uk+F98-1) &amp; REPT(" ",ML_en_uk-F98) &amp; MID(H98,LN_en_uk+F98,200)&amp;REPT(" ",ML_en_uk-F98+1) &amp;"|"</f>
-        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" )         | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)         |</v>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" )    | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)    |</v>
       </c>
       <c r="J98" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K98" s="1" t="str">
         <f>"| [![" &amp; $A98 &amp; "](/doc/img/app/sml/" &amp; $A98 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A98 &amp; "/es-mx-o13-ee-" &amp; $A98 &amp; "-guides.md ""Ver a las guías de " &amp; D98 &amp; " \[" &amp; $A98 &amp; "]"" ) | [" &amp; D98 &amp; "](/es-mx/o13/ee/"&amp;$A98&amp;"/es-mx-o13-ee-" &amp; $A98 &amp; "-guides.md)"</f>
-        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" ) | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)</v>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" ) | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)</v>
       </c>
       <c r="L98" s="1" t="str">
         <f>LEFT(K98,LN_es_mx-1+G98) &amp; REPT(" ",ML_es_mx-G98) &amp; MID(K98,LN_es_mx+G98,200)&amp;REPT(" ",ML_es_mx-G98+1) &amp;"|"</f>
-        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" )        | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)        |</v>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" )  | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)  |</v>
       </c>
       <c r="M98" s="4" t="s">
         <v>0</v>
@@ -6041,48 +6007,48 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C99" t="str">
         <f>B99</f>
-        <v>Ws Payment</v>
+        <v>Ws Membership</v>
       </c>
       <c r="D99" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E99" t="str">
         <f>D99</f>
-        <v>Ws Pagos</v>
+        <v>Ws Membresías</v>
       </c>
       <c r="F99">
         <f>LEN(B99)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G99">
         <f>LEN(D99)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H99" s="1" t="str">
         <f>"| [![" &amp; $A99 &amp; "](/doc/img/app/sml/" &amp; $A99 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A99 &amp; "/en-uk-o13-ee-" &amp; $A99 &amp; "-guides.md ""Goto " &amp; B99 &amp; " guides \[" &amp; $A99 &amp; "]"" ) | [" &amp; B99 &amp; "](/en-uk/o13/ee/"&amp;$A99&amp;"/en-uk-o13-ee-" &amp; $A99 &amp; "-guides.md)"</f>
-        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" ) | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)</v>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" ) | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)</v>
       </c>
       <c r="I99" s="1" t="str">
         <f>LEFT(H99,LN_en_uk+F99-1) &amp; REPT(" ",ML_en_uk-F99) &amp; MID(H99,LN_en_uk+F99,200)&amp;REPT(" ",ML_en_uk-F99+1) &amp;"|"</f>
-        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" )         | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)         |</v>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" )      | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)      |</v>
       </c>
       <c r="J99" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K99" s="1" t="str">
         <f>"| [![" &amp; $A99 &amp; "](/doc/img/app/sml/" &amp; $A99 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A99 &amp; "/es-mx-o13-ee-" &amp; $A99 &amp; "-guides.md ""Ver a las guías de " &amp; D99 &amp; " \[" &amp; $A99 &amp; "]"" ) | [" &amp; D99 &amp; "](/es-mx/o13/ee/"&amp;$A99&amp;"/es-mx-o13-ee-" &amp; $A99 &amp; "-guides.md)"</f>
-        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" ) | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)</v>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" ) | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)</v>
       </c>
       <c r="L99" s="1" t="str">
         <f>LEFT(K99,LN_es_mx-1+G99) &amp; REPT(" ",ML_es_mx-G99) &amp; MID(K99,LN_es_mx+G99,200)&amp;REPT(" ",ML_es_mx-G99+1) &amp;"|"</f>
-        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" )         | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)         |</v>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" )    | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)    |</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>0</v>
@@ -6090,48 +6056,48 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C100" t="str">
         <f>B100</f>
-        <v>Ws Quote</v>
+        <v>Ws Partner</v>
       </c>
       <c r="D100" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E100" t="str">
         <f>D100</f>
-        <v>Ws Cotizaciones</v>
+        <v>Ws Socios</v>
       </c>
       <c r="F100">
         <f>LEN(B100)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G100">
         <f>LEN(D100)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H100" s="1" t="str">
         <f>"| [![" &amp; $A100 &amp; "](/doc/img/app/sml/" &amp; $A100 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A100 &amp; "/en-uk-o13-ee-" &amp; $A100 &amp; "-guides.md ""Goto " &amp; B100 &amp; " guides \[" &amp; $A100 &amp; "]"" ) | [" &amp; B100 &amp; "](/en-uk/o13/ee/"&amp;$A100&amp;"/en-uk-o13-ee-" &amp; $A100 &amp; "-guides.md)"</f>
-        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" ) | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)</v>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" ) | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)</v>
       </c>
       <c r="I100" s="1" t="str">
         <f>LEFT(H100,LN_en_uk+F100-1) &amp; REPT(" ",ML_en_uk-F100) &amp; MID(H100,LN_en_uk+F100,200)&amp;REPT(" ",ML_en_uk-F100+1) &amp;"|"</f>
-        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" )           | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)           |</v>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" )         | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)         |</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K100" s="1" t="str">
         <f>"| [![" &amp; $A100 &amp; "](/doc/img/app/sml/" &amp; $A100 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A100 &amp; "/es-mx-o13-ee-" &amp; $A100 &amp; "-guides.md ""Ver a las guías de " &amp; D100 &amp; " \[" &amp; $A100 &amp; "]"" ) | [" &amp; D100 &amp; "](/es-mx/o13/ee/"&amp;$A100&amp;"/es-mx-o13-ee-" &amp; $A100 &amp; "-guides.md)"</f>
-        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" ) | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)</v>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" ) | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)</v>
       </c>
       <c r="L100" s="1" t="str">
         <f>LEFT(K100,LN_es_mx-1+G100) &amp; REPT(" ",ML_es_mx-G100) &amp; MID(K100,LN_es_mx+G100,200)&amp;REPT(" ",ML_es_mx-G100+1) &amp;"|"</f>
-        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" )  | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)  |</v>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" )        | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)        |</v>
       </c>
       <c r="M100" s="4" t="s">
         <v>0</v>
@@ -6139,48 +6105,48 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C101" t="str">
         <f>B101</f>
-        <v>Ws Rating Project</v>
+        <v>Ws Payment</v>
       </c>
       <c r="D101" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E101" t="str">
         <f>D101</f>
-        <v>Ws Proy Clasific</v>
+        <v>Ws Pagos</v>
       </c>
       <c r="F101">
         <f>LEN(B101)</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G101">
         <f>LEN(D101)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H101" s="1" t="str">
         <f>"| [![" &amp; $A101 &amp; "](/doc/img/app/sml/" &amp; $A101 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A101 &amp; "/en-uk-o13-ee-" &amp; $A101 &amp; "-guides.md ""Goto " &amp; B101 &amp; " guides \[" &amp; $A101 &amp; "]"" ) | [" &amp; B101 &amp; "](/en-uk/o13/ee/"&amp;$A101&amp;"/en-uk-o13-ee-" &amp; $A101 &amp; "-guides.md)"</f>
-        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" ) | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)</v>
+        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" ) | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)</v>
       </c>
       <c r="I101" s="1" t="str">
         <f>LEFT(H101,LN_en_uk+F101-1) &amp; REPT(" ",ML_en_uk-F101) &amp; MID(H101,LN_en_uk+F101,200)&amp;REPT(" ",ML_en_uk-F101+1) &amp;"|"</f>
-        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" )  | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)  |</v>
+        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" )         | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)         |</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K101" s="1" t="str">
         <f>"| [![" &amp; $A101 &amp; "](/doc/img/app/sml/" &amp; $A101 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A101 &amp; "/es-mx-o13-ee-" &amp; $A101 &amp; "-guides.md ""Ver a las guías de " &amp; D101 &amp; " \[" &amp; $A101 &amp; "]"" ) | [" &amp; D101 &amp; "](/es-mx/o13/ee/"&amp;$A101&amp;"/es-mx-o13-ee-" &amp; $A101 &amp; "-guides.md)"</f>
-        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md)</v>
+        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" ) | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)</v>
       </c>
       <c r="L101" s="1" t="str">
         <f>LEFT(K101,LN_es_mx-1+G101) &amp; REPT(" ",ML_es_mx-G101) &amp; MID(K101,LN_es_mx+G101,200)&amp;REPT(" ",ML_es_mx-G101+1) &amp;"|"</f>
-        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md) |</v>
+        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" )         | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)         |</v>
       </c>
       <c r="M101" s="4" t="s">
         <v>0</v>
@@ -6188,48 +6154,48 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C102" t="str">
         <f>B102</f>
-        <v>Ws Sale Delivery</v>
+        <v>Ws Quote</v>
       </c>
       <c r="D102" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E102" t="str">
         <f>D102</f>
-        <v>Ws Ven Envíos</v>
+        <v>Ws Cotizaciones</v>
       </c>
       <c r="F102">
         <f>LEN(B102)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G102">
         <f>LEN(D102)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H102" s="1" t="str">
         <f>"| [![" &amp; $A102 &amp; "](/doc/img/app/sml/" &amp; $A102 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A102 &amp; "/en-uk-o13-ee-" &amp; $A102 &amp; "-guides.md ""Goto " &amp; B102 &amp; " guides \[" &amp; $A102 &amp; "]"" ) | [" &amp; B102 &amp; "](/en-uk/o13/ee/"&amp;$A102&amp;"/en-uk-o13-ee-" &amp; $A102 &amp; "-guides.md)"</f>
-        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" ) | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)</v>
+        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" ) | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)</v>
       </c>
       <c r="I102" s="1" t="str">
         <f>LEFT(H102,LN_en_uk+F102-1) &amp; REPT(" ",ML_en_uk-F102) &amp; MID(H102,LN_en_uk+F102,200)&amp;REPT(" ",ML_en_uk-F102+1) &amp;"|"</f>
-        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" )   | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)   |</v>
+        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" )           | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)           |</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K102" s="1" t="str">
         <f>"| [![" &amp; $A102 &amp; "](/doc/img/app/sml/" &amp; $A102 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A102 &amp; "/es-mx-o13-ee-" &amp; $A102 &amp; "-guides.md ""Ver a las guías de " &amp; D102 &amp; " \[" &amp; $A102 &amp; "]"" ) | [" &amp; D102 &amp; "](/es-mx/o13/ee/"&amp;$A102&amp;"/es-mx-o13-ee-" &amp; $A102 &amp; "-guides.md)"</f>
-        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" ) | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)</v>
+        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" ) | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)</v>
       </c>
       <c r="L102" s="1" t="str">
         <f>LEFT(K102,LN_es_mx-1+G102) &amp; REPT(" ",ML_es_mx-G102) &amp; MID(K102,LN_es_mx+G102,200)&amp;REPT(" ",ML_es_mx-G102+1) &amp;"|"</f>
-        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" )    | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)    |</v>
+        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" )  | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)  |</v>
       </c>
       <c r="M102" s="4" t="s">
         <v>0</v>
@@ -6237,48 +6203,48 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C103" t="str">
         <f>B103</f>
-        <v>Ws Sale Options</v>
+        <v>Ws Rating Project</v>
       </c>
       <c r="D103" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E103" t="str">
         <f>D103</f>
-        <v>Ws Ven Opciones</v>
+        <v>Ws Proy Clasific</v>
       </c>
       <c r="F103">
         <f>LEN(B103)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G103">
         <f>LEN(D103)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H103" s="1" t="str">
         <f>"| [![" &amp; $A103 &amp; "](/doc/img/app/sml/" &amp; $A103 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A103 &amp; "/en-uk-o13-ee-" &amp; $A103 &amp; "-guides.md ""Goto " &amp; B103 &amp; " guides \[" &amp; $A103 &amp; "]"" ) | [" &amp; B103 &amp; "](/en-uk/o13/ee/"&amp;$A103&amp;"/en-uk-o13-ee-" &amp; $A103 &amp; "-guides.md)"</f>
-        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" ) | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)</v>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" ) | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)</v>
       </c>
       <c r="I103" s="1" t="str">
         <f>LEFT(H103,LN_en_uk+F103-1) &amp; REPT(" ",ML_en_uk-F103) &amp; MID(H103,LN_en_uk+F103,200)&amp;REPT(" ",ML_en_uk-F103+1) &amp;"|"</f>
-        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" )    | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)    |</v>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" )  | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)  |</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K103" s="1" t="str">
         <f>"| [![" &amp; $A103 &amp; "](/doc/img/app/sml/" &amp; $A103 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A103 &amp; "/es-mx-o13-ee-" &amp; $A103 &amp; "-guides.md ""Ver a las guías de " &amp; D103 &amp; " \[" &amp; $A103 &amp; "]"" ) | [" &amp; D103 &amp; "](/es-mx/o13/ee/"&amp;$A103&amp;"/es-mx-o13-ee-" &amp; $A103 &amp; "-guides.md)"</f>
-        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" ) | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)</v>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md)</v>
       </c>
       <c r="L103" s="1" t="str">
         <f>LEFT(K103,LN_es_mx-1+G103) &amp; REPT(" ",ML_es_mx-G103) &amp; MID(K103,LN_es_mx+G103,200)&amp;REPT(" ",ML_es_mx-G103+1) &amp;"|"</f>
-        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" )  | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)  |</v>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md) |</v>
       </c>
       <c r="M103" s="4" t="s">
         <v>0</v>
@@ -6286,21 +6252,21 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C104" t="str">
         <f>B104</f>
-        <v>Ws Theme Install</v>
+        <v>Ws Sale Delivery</v>
       </c>
       <c r="D104" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E104" t="str">
         <f>D104</f>
-        <v>Ws Instalar Tema</v>
+        <v>Ws Ven Envíos</v>
       </c>
       <c r="F104">
         <f>LEN(B104)</f>
@@ -6308,26 +6274,26 @@
       </c>
       <c r="G104">
         <f>LEN(D104)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H104" s="1" t="str">
         <f>"| [![" &amp; $A104 &amp; "](/doc/img/app/sml/" &amp; $A104 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A104 &amp; "/en-uk-o13-ee-" &amp; $A104 &amp; "-guides.md ""Goto " &amp; B104 &amp; " guides \[" &amp; $A104 &amp; "]"" ) | [" &amp; B104 &amp; "](/en-uk/o13/ee/"&amp;$A104&amp;"/en-uk-o13-ee-" &amp; $A104 &amp; "-guides.md)"</f>
-        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" ) | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)</v>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" ) | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)</v>
       </c>
       <c r="I104" s="1" t="str">
         <f>LEFT(H104,LN_en_uk+F104-1) &amp; REPT(" ",ML_en_uk-F104) &amp; MID(H104,LN_en_uk+F104,200)&amp;REPT(" ",ML_en_uk-F104+1) &amp;"|"</f>
-        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" )   | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)   |</v>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" )   | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)   |</v>
       </c>
       <c r="J104" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K104" s="1" t="str">
         <f>"| [![" &amp; $A104 &amp; "](/doc/img/app/sml/" &amp; $A104 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A104 &amp; "/es-mx-o13-ee-" &amp; $A104 &amp; "-guides.md ""Ver a las guías de " &amp; D104 &amp; " \[" &amp; $A104 &amp; "]"" ) | [" &amp; D104 &amp; "](/es-mx/o13/ee/"&amp;$A104&amp;"/es-mx-o13-ee-" &amp; $A104 &amp; "-guides.md)"</f>
-        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md)</v>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" ) | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)</v>
       </c>
       <c r="L104" s="1" t="str">
         <f>LEFT(K104,LN_es_mx-1+G104) &amp; REPT(" ",ML_es_mx-G104) &amp; MID(K104,LN_es_mx+G104,200)&amp;REPT(" ",ML_es_mx-G104+1) &amp;"|"</f>
-        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md) |</v>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" )    | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)    |</v>
       </c>
       <c r="M104" s="4" t="s">
         <v>0</v>
@@ -6335,48 +6301,48 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C105" t="str">
         <f>B105</f>
-        <v>Ws Twitter</v>
+        <v>Ws Sale Options</v>
       </c>
       <c r="D105" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="E105" t="str">
         <f>D105</f>
-        <v>Ws Twitter</v>
+        <v>Ws Ven Opciones</v>
       </c>
       <c r="F105">
         <f>LEN(B105)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G105">
         <f>LEN(D105)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H105" s="1" t="str">
         <f>"| [![" &amp; $A105 &amp; "](/doc/img/app/sml/" &amp; $A105 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A105 &amp; "/en-uk-o13-ee-" &amp; $A105 &amp; "-guides.md ""Goto " &amp; B105 &amp; " guides \[" &amp; $A105 &amp; "]"" ) | [" &amp; B105 &amp; "](/en-uk/o13/ee/"&amp;$A105&amp;"/en-uk-o13-ee-" &amp; $A105 &amp; "-guides.md)"</f>
-        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" ) | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)</v>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" ) | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)</v>
       </c>
       <c r="I105" s="1" t="str">
         <f>LEFT(H105,LN_en_uk+F105-1) &amp; REPT(" ",ML_en_uk-F105) &amp; MID(H105,LN_en_uk+F105,200)&amp;REPT(" ",ML_en_uk-F105+1) &amp;"|"</f>
-        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" )         | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)         |</v>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" )    | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)    |</v>
       </c>
       <c r="J105" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K105" s="1" t="str">
         <f>"| [![" &amp; $A105 &amp; "](/doc/img/app/sml/" &amp; $A105 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A105 &amp; "/es-mx-o13-ee-" &amp; $A105 &amp; "-guides.md ""Ver a las guías de " &amp; D105 &amp; " \[" &amp; $A105 &amp; "]"" ) | [" &amp; D105 &amp; "](/es-mx/o13/ee/"&amp;$A105&amp;"/es-mx-o13-ee-" &amp; $A105 &amp; "-guides.md)"</f>
-        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" ) | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)</v>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" ) | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)</v>
       </c>
       <c r="L105" s="1" t="str">
         <f>LEFT(K105,LN_es_mx-1+G105) &amp; REPT(" ",ML_es_mx-G105) &amp; MID(K105,LN_es_mx+G105,200)&amp;REPT(" ",ML_es_mx-G105+1) &amp;"|"</f>
-        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" )       | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)       |</v>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" )  | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)  |</v>
       </c>
       <c r="M105" s="4" t="s">
         <v>0</v>
@@ -6384,186 +6350,216 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C106" t="str">
         <f>B106</f>
-        <v>Ws Version</v>
+        <v>Ws Theme Install</v>
       </c>
       <c r="D106" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E106" t="str">
         <f>D106</f>
-        <v>Ws Versión</v>
+        <v>Ws Instalar Tema</v>
       </c>
       <c r="F106">
         <f>LEN(B106)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G106">
         <f>LEN(D106)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H106" s="1" t="str">
         <f>"| [![" &amp; $A106 &amp; "](/doc/img/app/sml/" &amp; $A106 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A106 &amp; "/en-uk-o13-ee-" &amp; $A106 &amp; "-guides.md ""Goto " &amp; B106 &amp; " guides \[" &amp; $A106 &amp; "]"" ) | [" &amp; B106 &amp; "](/en-uk/o13/ee/"&amp;$A106&amp;"/en-uk-o13-ee-" &amp; $A106 &amp; "-guides.md)"</f>
-        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" ) | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)</v>
+        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" ) | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)</v>
       </c>
       <c r="I106" s="1" t="str">
         <f>LEFT(H106,LN_en_uk+F106-1) &amp; REPT(" ",ML_en_uk-F106) &amp; MID(H106,LN_en_uk+F106,200)&amp;REPT(" ",ML_en_uk-F106+1) &amp;"|"</f>
-        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" )         | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)         |</v>
+        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" )   | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)   |</v>
       </c>
       <c r="J106" s="3" t="s">
         <v>0</v>
       </c>
       <c r="K106" s="1" t="str">
         <f>"| [![" &amp; $A106 &amp; "](/doc/img/app/sml/" &amp; $A106 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A106 &amp; "/es-mx-o13-ee-" &amp; $A106 &amp; "-guides.md ""Ver a las guías de " &amp; D106 &amp; " \[" &amp; $A106 &amp; "]"" ) | [" &amp; D106 &amp; "](/es-mx/o13/ee/"&amp;$A106&amp;"/es-mx-o13-ee-" &amp; $A106 &amp; "-guides.md)"</f>
-        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" ) | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)</v>
+        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md)</v>
       </c>
       <c r="L106" s="1" t="str">
         <f>LEFT(K106,LN_es_mx-1+G106) &amp; REPT(" ",ML_es_mx-G106) &amp; MID(K106,LN_es_mx+G106,200)&amp;REPT(" ",ML_es_mx-G106+1) &amp;"|"</f>
+        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md) |</v>
+      </c>
+      <c r="M106" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" t="s">
+        <v>204</v>
+      </c>
+      <c r="C107" t="str">
+        <f>B107</f>
+        <v>Ws Twitter</v>
+      </c>
+      <c r="D107" t="s">
+        <v>204</v>
+      </c>
+      <c r="E107" t="str">
+        <f>D107</f>
+        <v>Ws Twitter</v>
+      </c>
+      <c r="F107">
+        <f>LEN(B107)</f>
+        <v>10</v>
+      </c>
+      <c r="G107">
+        <f>LEN(D107)</f>
+        <v>10</v>
+      </c>
+      <c r="H107" s="1" t="str">
+        <f>"| [![" &amp; $A107 &amp; "](/doc/img/app/sml/" &amp; $A107 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A107 &amp; "/en-uk-o13-ee-" &amp; $A107 &amp; "-guides.md ""Goto " &amp; B107 &amp; " guides \[" &amp; $A107 &amp; "]"" ) | [" &amp; B107 &amp; "](/en-uk/o13/ee/"&amp;$A107&amp;"/en-uk-o13-ee-" &amp; $A107 &amp; "-guides.md)"</f>
+        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" ) | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)</v>
+      </c>
+      <c r="I107" s="1" t="str">
+        <f>LEFT(H107,LN_en_uk+F107-1) &amp; REPT(" ",ML_en_uk-F107) &amp; MID(H107,LN_en_uk+F107,200)&amp;REPT(" ",ML_en_uk-F107+1) &amp;"|"</f>
+        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" )         | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)         |</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1" t="str">
+        <f>"| [![" &amp; $A107 &amp; "](/doc/img/app/sml/" &amp; $A107 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A107 &amp; "/es-mx-o13-ee-" &amp; $A107 &amp; "-guides.md ""Ver a las guías de " &amp; D107 &amp; " \[" &amp; $A107 &amp; "]"" ) | [" &amp; D107 &amp; "](/es-mx/o13/ee/"&amp;$A107&amp;"/es-mx-o13-ee-" &amp; $A107 &amp; "-guides.md)"</f>
+        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" ) | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)</v>
+      </c>
+      <c r="L107" s="1" t="str">
+        <f>LEFT(K107,LN_es_mx-1+G107) &amp; REPT(" ",ML_es_mx-G107) &amp; MID(K107,LN_es_mx+G107,200)&amp;REPT(" ",ML_es_mx-G107+1) &amp;"|"</f>
+        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" )       | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)       |</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108" t="str">
+        <f>B108</f>
+        <v>Ws Version</v>
+      </c>
+      <c r="D108" t="s">
+        <v>298</v>
+      </c>
+      <c r="E108" t="str">
+        <f>D108</f>
+        <v>Ws Versión</v>
+      </c>
+      <c r="F108">
+        <f>LEN(B108)</f>
+        <v>10</v>
+      </c>
+      <c r="G108">
+        <f>LEN(D108)</f>
+        <v>10</v>
+      </c>
+      <c r="H108" s="1" t="str">
+        <f>"| [![" &amp; $A108 &amp; "](/doc/img/app/sml/" &amp; $A108 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A108 &amp; "/en-uk-o13-ee-" &amp; $A108 &amp; "-guides.md ""Goto " &amp; B108 &amp; " guides \[" &amp; $A108 &amp; "]"" ) | [" &amp; B108 &amp; "](/en-uk/o13/ee/"&amp;$A108&amp;"/en-uk-o13-ee-" &amp; $A108 &amp; "-guides.md)"</f>
+        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" ) | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)</v>
+      </c>
+      <c r="I108" s="1" t="str">
+        <f>LEFT(H108,LN_en_uk+F108-1) &amp; REPT(" ",ML_en_uk-F108) &amp; MID(H108,LN_en_uk+F108,200)&amp;REPT(" ",ML_en_uk-F108+1) &amp;"|"</f>
+        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" )         | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)         |</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K108" s="1" t="str">
+        <f>"| [![" &amp; $A108 &amp; "](/doc/img/app/sml/" &amp; $A108 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A108 &amp; "/es-mx-o13-ee-" &amp; $A108 &amp; "-guides.md ""Ver a las guías de " &amp; D108 &amp; " \[" &amp; $A108 &amp; "]"" ) | [" &amp; D108 &amp; "](/es-mx/o13/ee/"&amp;$A108&amp;"/es-mx-o13-ee-" &amp; $A108 &amp; "-guides.md)"</f>
+        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" ) | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)</v>
+      </c>
+      <c r="L108" s="1" t="str">
+        <f>LEFT(K108,LN_es_mx-1+G108) &amp; REPT(" ",ML_es_mx-G108) &amp; MID(K108,LN_es_mx+G108,200)&amp;REPT(" ",ML_es_mx-G108+1) &amp;"|"</f>
         <v>| [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" )       | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)       |</v>
       </c>
-      <c r="M106" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F108">
-        <f>MAX(F3:F106)</f>
+      <c r="M108" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>310</v>
+      </c>
+      <c r="L109" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <f>MAX(F4:F108)</f>
         <v>18</v>
       </c>
-      <c r="G108">
-        <f>MAX(G3:G106)</f>
+      <c r="G110">
+        <f>MAX(G4:G108)</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F109">
+      <c r="I110" t="s">
+        <v>310</v>
+      </c>
+      <c r="L110" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F111">
         <v>107</v>
       </c>
-      <c r="G109">
+      <c r="G111">
         <v>113</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="I111" t="s">
+        <v>310</v>
+      </c>
+      <c r="L111" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>310</v>
+      </c>
+      <c r="L112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>301</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="str">
-        <f>I3 &amp; MID(I4,2,200) &amp; MID(I5,2,200) &amp; MID(I6,2,200)</f>
-        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md "Goto Odoo System guides \[o13]" )        | [Odoo System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md)        | [![stu](/doc/img/app/sml/stu.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md "Goto Odoo Studio guides \[stu]" )        | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md)        | [![osh](/doc/img/app/sml/osh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md "Goto Odoo SH guides \[osh]" )            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md)            | [![3rd](/doc/img/app/sml/3rd.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md "Goto 3rd Parties guides \[3rd]" )        | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md)        |</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D113" s="1" t="str">
-        <f>L3 &amp; MID(L4,2,200) &amp; MID(L5,2,200) &amp; MID(L6,2,200)</f>
-        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" )   | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)   | [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" )    | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)    | [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" )        | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)        | [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" )     | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)     |</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="str">
-        <f>I7 &amp; MID(I8,2,200) &amp; MID(I9,2,200) &amp; MID(I10,2,200)</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" )         | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)         | [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" )       | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)       | [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" )          | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)          | [![apv](/doc/img/app/sml/apv.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md "Goto Approvals guides \[apv]" )          | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md)          |</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D114" s="1" t="str">
-        <f>L7 &amp; MID(L8,2,200) &amp; MID(L9,2,200) &amp; MID(L10,2,200)</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )     | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)     | [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )            | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)            | [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )     | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)     | [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" )   | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)   |</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="str">
-        <f>I11 &amp; MID(I12,2,200) &amp; MID(I13,2,200) &amp; MID(I14,2,200)</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" )             | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)             | [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" )         | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)         | [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" )           | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)           | [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" )               | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)               |</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D115" s="1" t="str">
-        <f>L11 &amp; MID(L12,2,200) &amp; MID(L13,2,200) &amp; MID(L14,2,200)</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )          | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)          | [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )       | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)       | [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md) | [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )             | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)             |</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="str">
-        <f>I15 &amp; MID(I16,2,200) &amp; MID(I17,2,200) &amp; MID(I18,2,200)</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" )           | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)           | [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" )           | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)           | [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" )                | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)                | [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" )         | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)         |</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D116" s="1" t="str">
-        <f>L15 &amp; MID(L16,2,200) &amp; MID(L17,2,200) &amp; MID(L18,2,200)</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )       | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)       | [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )        | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)        | [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )              | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)              | [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )         | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)         |</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="str">
-        <f>I19 &amp; MID(I20,2,200) &amp; MID(I21,2,200) &amp; MID(I22,2,200)</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" )     | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)     | [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" )       | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)       | [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" )     | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)     | [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" )       | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)       |</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D117" s="1" t="str">
-        <f>L19 &amp; MID(L20,2,200) &amp; MID(L21,2,200) &amp; MID(L22,2,200)</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )     | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)     | [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )       | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)       | [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )     | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)     | [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )       | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)       |</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="str">
-        <f>I23 &amp; MID(I24,2,200) &amp; MID(I25,2,200) &amp; MID(I26,2,200)</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" )      | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)      | [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" )            | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)            | [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" )          | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)          | [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" )          | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)          |</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D118" s="1" t="str">
-        <f>L23 &amp; MID(L24,2,200) &amp; MID(L25,2,200) &amp; MID(L26,2,200)</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )      | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)      | [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )          | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)          | [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )       | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)       | [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )        | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)        |</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="str">
-        <f>I27 &amp; MID(I28,2,200) &amp; MID(I29,2,200) &amp; MID(I30,2,200)</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" )              | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)              | [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" )          | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)          | [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" )          | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)          | [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" )         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)         |</v>
+        <f>I4 &amp; MID(I5,2,LEN(I5)-2) &amp; "|" &amp; MID(I6,2,LEN(I6)-2) &amp; "|" &amp; MID(I7,2,LEN(I7)-2) &amp; "|"</f>
+        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md "Goto Odoo System guides \[o13]" )        | [Odoo System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md)        | [![stu](/doc/img/app/sml/stu.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md "Goto Odoo Studio guides \[stu]" )        | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md)        | [![osh](/doc/img/app/sml/osh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md "Goto Odoo SH guides \[osh]" )            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md)            | [![3rd](/doc/img/app/sml/3rd.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md "Goto 3rd Parties guides \[3rd]" )        | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md)        |</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D119" s="1" t="str">
-        <f>L27 &amp; MID(L28,2,200) &amp; MID(L29,2,200) &amp; MID(L30,2,200)</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" )          | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)          | [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )        | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)        | [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )          | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)          | [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )           | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)           |</v>
+        <f>L4 &amp; MID(L5,2,LEN(L5)-2) &amp; "|" &amp; MID(L6,2,LEN(L6)-2) &amp; "|" &amp; MID(L7,2,LEN(L7)-2) &amp; "|"</f>
+        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" )   | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)   | [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" )    | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)    | [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" )        | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)        | [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" )     | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)     |</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>0</v>
@@ -6571,15 +6567,15 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="str">
-        <f>I31 &amp; MID(I32,2,200) &amp; MID(I33,2,200) &amp; MID(I34,2,200)</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" )             | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)             | [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" )           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)           | [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" )      | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)      | [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" )              | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)              |</v>
+        <f>I8 &amp; MID(I9,2,LEN(I9)-2) &amp; "|" &amp; MID(I10,2,LEN(I10)-2) &amp; "|" &amp; MID(I11,2,LEN(I11)-2) &amp; "|"</f>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" )         | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)         | [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" )       | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)       | [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" )          | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)          | [![apv](/doc/img/app/sml/apv.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md "Goto Approvals guides \[apv]" )          | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md)          |</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D120" s="1" t="str">
-        <f>L31 &amp; MID(L32,2,200) &amp; MID(L33,2,200) &amp; MID(L34,2,200)</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )          | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)          | [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)           | [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )         | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)         | [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )        | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)        |</v>
+        <f>L8 &amp; MID(L9,2,LEN(L9)-2) &amp; "|" &amp; MID(L10,2,LEN(L10)-2) &amp; "|" &amp; MID(L11,2,LEN(L11)-2) &amp; "|"</f>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )     | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)     | [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )            | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)            | [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )     | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)     | [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" )   | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)   |</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>0</v>
@@ -6587,15 +6583,15 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="str">
-        <f>I35 &amp; MID(I36,2,200) &amp; MID(I37,2,200) &amp; MID(I38,2,200)</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" )              | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)              | [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" )       | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)       | [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" )        | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)        | [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" )    | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)    |</v>
+        <f>I12 &amp; MID(I13,2,LEN(I13)-2) &amp; "|" &amp; MID(I14,2,LEN(I14)-2) &amp; "|" &amp; MID(I15,2,LEN(I15)-2) &amp; "|"</f>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" )             | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)             | [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" )         | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)         | [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" )           | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)           | [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" )               | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)               |</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D121" s="1" t="str">
-        <f>L35 &amp; MID(L36,2,200) &amp; MID(L37,2,200) &amp; MID(L38,2,200)</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )             | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)             | [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )     | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)     | [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )    | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)    | [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" )    | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)    |</v>
+        <f>L12 &amp; MID(L13,2,LEN(L13)-2) &amp; "|" &amp; MID(L14,2,LEN(L14)-2) &amp; "|" &amp; MID(L15,2,LEN(L15)-2) &amp; "|"</f>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )          | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)          | [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )       | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)       | [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md) | [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )             | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)             |</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>0</v>
@@ -6603,15 +6599,15 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="str">
-        <f>I39 &amp; MID(I40,2,200) &amp; MID(I41,2,200) &amp; MID(I42,2,200)</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" )       | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)       | [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" )           | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)           | [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" )           | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)           | [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md) |</v>
+        <f>I16 &amp; MID(I17,2,LEN(I17)-2) &amp; "|" &amp; MID(I18,2,LEN(I18)-2) &amp; "|" &amp; MID(I19,2,LEN(I19)-2) &amp; "|"</f>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" )           | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)           | [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" )           | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)           | [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" )                | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)                | [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" )         | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)         |</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D122" s="1" t="str">
-        <f>L39 &amp; MID(L40,2,200) &amp; MID(L41,2,200) &amp; MID(L42,2,200)</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )     | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)     | [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )    | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)    | [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )       | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)       | [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md) |</v>
+        <f>L16 &amp; MID(L17,2,LEN(L17)-2) &amp; "|" &amp; MID(L18,2,LEN(L18)-2) &amp; "|" &amp; MID(L19,2,LEN(L19)-2) &amp; "|"</f>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )       | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)       | [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )        | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)        | [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )              | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)              | [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )         | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)         |</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>0</v>
@@ -6619,15 +6615,15 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="str">
-        <f>I43 &amp; MID(I44,2,200) &amp; MID(I45,2,200) &amp; MID(I46,2,200)</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" )          | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)          | [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" )          | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)          | [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" )          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)          | [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" )              | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)              |</v>
+        <f>I20 &amp; MID(I21,2,LEN(I21)-2) &amp; "|" &amp; MID(I22,2,LEN(I22)-2) &amp; "|" &amp; MID(I23,2,LEN(I23)-2) &amp; "|"</f>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" )     | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)     | [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" )       | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)       | [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" )     | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)     | [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" )       | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)       |</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D123" s="1" t="str">
-        <f>L43 &amp; MID(L44,2,200) &amp; MID(L45,2,200) &amp; MID(L46,2,200)</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )      | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)      | [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )      | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)      | [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )    | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)    | [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )          | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)          |</v>
+        <f>L20 &amp; MID(L21,2,LEN(L21)-2) &amp; "|" &amp; MID(L22,2,LEN(L22)-2) &amp; "|" &amp; MID(L23,2,LEN(L23)-2) &amp; "|"</f>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )     | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)     | [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )       | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)       | [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )     | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)     | [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )       | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)       |</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>0</v>
@@ -6635,15 +6631,15 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="str">
-        <f>I47 &amp; MID(I48,2,200) &amp; MID(I49,2,200) &amp; MID(I50,2,200)</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" )          | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)          | [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" )        | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)        | [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" )     | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)     | [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" )          | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)          |</v>
+        <f>I24 &amp; MID(I25,2,LEN(I25)-2) &amp; "|" &amp; MID(I26,2,LEN(I26)-2) &amp; "|" &amp; MID(I27,2,LEN(I27)-2) &amp; "|"</f>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" )      | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)      | [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" )            | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)            | [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" )          | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)          | [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" )          | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)          |</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D124" s="1" t="str">
-        <f>L47 &amp; MID(L48,2,200) &amp; MID(L49,2,200) &amp; MID(L50,2,200)</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )      | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)      | [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )    | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)    | [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )   | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)   | [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )         | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)         |</v>
+        <f>L24 &amp; MID(L25,2,LEN(L25)-2) &amp; "|" &amp; MID(L26,2,LEN(L26)-2) &amp; "|" &amp; MID(L27,2,LEN(L27)-2) &amp; "|"</f>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )      | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)      | [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )          | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)          | [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )       | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)       | [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )        | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)        |</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>0</v>
@@ -6651,15 +6647,15 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="str">
-        <f>I51 &amp; MID(I52,2,200) &amp; MID(I53,2,200) &amp; MID(I54,2,200)</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" )         | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)         | [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" )            | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)            | [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" )                | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)                | [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" )    | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)    |</v>
+        <f>I28 &amp; MID(I29,2,LEN(I29)-2) &amp; "|" &amp; MID(I30,2,LEN(I30)-2) &amp; "|" &amp; MID(I31,2,LEN(I31)-2) &amp; "|"</f>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" )              | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)              | [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" )          | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)          | [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" )          | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)          | [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" )         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)         |</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D125" s="1" t="str">
-        <f>L51 &amp; MID(L52,2,200) &amp; MID(L53,2,200) &amp; MID(L54,2,200)</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )       | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)       | [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )          | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)          | [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )              | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)              | [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )       | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)       |</v>
+        <f>L28 &amp; MID(L29,2,LEN(L29)-2) &amp; "|" &amp; MID(L30,2,LEN(L30)-2) &amp; "|" &amp; MID(L31,2,LEN(L31)-2) &amp; "|"</f>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" )          | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)          | [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )        | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)        | [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )          | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)          | [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )           | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)           |</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>0</v>
@@ -6667,15 +6663,15 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="str">
-        <f>I55 &amp; MID(I56,2,200) &amp; MID(I57,2,200) &amp; MID(I58,2,200)</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" )               | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)               | [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" )            | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)            | [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" )            | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)            | [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" )                | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)                |</v>
+        <f>I32 &amp; MID(I33,2,LEN(I33)-2) &amp; "|" &amp; MID(I34,2,LEN(I34)-2) &amp; "|" &amp; MID(I35,2,LEN(I35)-2) &amp; "|"</f>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" )             | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)             | [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" )           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)           | [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" )      | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)      | [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" )              | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)              |</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D126" s="1" t="str">
-        <f>L55 &amp; MID(L56,2,200) &amp; MID(L57,2,200) &amp; MID(L58,2,200)</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )            | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)            | [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )            | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)            | [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)           | [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )              | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)              |</v>
+        <f>L32 &amp; MID(L33,2,LEN(L33)-2) &amp; "|" &amp; MID(L34,2,LEN(L34)-2) &amp; "|" &amp; MID(L35,2,LEN(L35)-2) &amp; "|"</f>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )          | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)          | [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)           | [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )         | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)         | [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )        | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)        |</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>0</v>
@@ -6683,15 +6679,15 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="str">
-        <f>I59 &amp; MID(I60,2,200) &amp; MID(I61,2,200) &amp; MID(I62,2,200)</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" )      | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)      | [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" )           | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)           | [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" )   | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)   | [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" )           | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)           |</v>
+        <f>I36 &amp; MID(I37,2,LEN(I37)-2) &amp; "|" &amp; MID(I38,2,LEN(I38)-2) &amp; "|" &amp; MID(I39,2,LEN(I39)-2) &amp; "|"</f>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" )              | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)              | [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" )       | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)       | [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" )        | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)        | [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" )    | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)    |</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D127" s="1" t="str">
-        <f>L59 &amp; MID(L60,2,200) &amp; MID(L61,2,200) &amp; MID(L62,2,200)</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )   | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)   | [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )        | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)        | [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )      | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)      | [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )        | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)        |</v>
+        <f>L36 &amp; MID(L37,2,LEN(L37)-2) &amp; "|" &amp; MID(L38,2,LEN(L38)-2) &amp; "|" &amp; MID(L39,2,LEN(L39)-2) &amp; "|"</f>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )             | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)             | [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )     | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)     | [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )    | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)    | [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" )    | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)    |</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>0</v>
@@ -6699,15 +6695,15 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="str">
-        <f>I63 &amp; MID(I64,2,200) &amp; MID(I65,2,200) &amp; MID(I66,2,200)</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" )         | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)         | [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" )    | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)    | [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" )        | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)        | [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" )             | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)             |</v>
+        <f>I40 &amp; MID(I41,2,LEN(I41)-2) &amp; "|" &amp; MID(I42,2,LEN(I42)-2) &amp; "|" &amp; MID(I43,2,LEN(I43)-2) &amp; "|"</f>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" )       | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)       | [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" )           | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)           | [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" )           | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)           | [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md) |</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D128" s="1" t="str">
-        <f>L63 &amp; MID(L64,2,200) &amp; MID(L65,2,200) &amp; MID(L66,2,200)</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )          | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)          | [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" )  | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)  | [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )    | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)    | [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )           | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)           |</v>
+        <f>L40 &amp; MID(L41,2,LEN(L41)-2) &amp; "|" &amp; MID(L42,2,LEN(L42)-2) &amp; "|" &amp; MID(L43,2,LEN(L43)-2) &amp; "|"</f>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )     | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)     | [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )    | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)    | [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )       | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)       | [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md) |</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>0</v>
@@ -6715,15 +6711,15 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="str">
-        <f>I67 &amp; MID(I68,2,200) &amp; MID(I69,2,200) &amp; MID(I70,2,200)</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" )             | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)             | [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" )               | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)               | [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" )   | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)   | [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" )              | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)              |</v>
+        <f>I44 &amp; MID(I45,2,LEN(I45)-2) &amp; "|" &amp; MID(I46,2,LEN(I46)-2) &amp; "|" &amp; MID(I47,2,LEN(I47)-2) &amp; "|"</f>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" )          | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)          | [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" )          | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)          | [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" )          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)          | [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" )              | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)              |</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D129" s="1" t="str">
-        <f>L67 &amp; MID(L68,2,200) &amp; MID(L69,2,200) &amp; MID(L70,2,200)</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )     | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)     | [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )             | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)             | [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md) | [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )           | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)           |</v>
+        <f>L44 &amp; MID(L45,2,LEN(L45)-2) &amp; "|" &amp; MID(L46,2,LEN(L46)-2) &amp; "|" &amp; MID(L47,2,LEN(L47)-2) &amp; "|"</f>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )      | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)      | [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )      | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)      | [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )    | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)    | [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )          | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)          |</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>0</v>
@@ -6731,15 +6727,15 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="str">
-        <f>I71 &amp; MID(I72,2,200) &amp; MID(I73,2,200) &amp; MID(I74,2,200)</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" )           | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)           | [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" )             | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)             | [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" )             | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)             | [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" )      | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)      |</v>
+        <f>I48 &amp; MID(I49,2,LEN(I49)-2) &amp; "|" &amp; MID(I50,2,LEN(I50)-2) &amp; "|" &amp; MID(I51,2,LEN(I51)-2) &amp; "|"</f>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" )          | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)          | [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" )        | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)        | [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" )     | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)     | [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" )          | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)          |</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D130" s="1" t="str">
-        <f>L71 &amp; MID(L72,2,200) &amp; MID(L73,2,200) &amp; MID(L74,2,200)</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )    | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)    | [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )     | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)     | [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )     | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)     | [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" )    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)    |</v>
+        <f>L48 &amp; MID(L49,2,LEN(L49)-2) &amp; "|" &amp; MID(L50,2,LEN(L50)-2) &amp; "|" &amp; MID(L51,2,LEN(L51)-2) &amp; "|"</f>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )      | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)      | [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )    | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)    | [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )   | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)   | [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )         | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)         |</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>0</v>
@@ -6747,15 +6743,15 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="str">
-        <f>I75 &amp; MID(I76,2,200) &amp; MID(I77,2,200) &amp; MID(I78,2,200)</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" )            | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)            | [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" )           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)           | [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" )          | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)          | [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" )           | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)           |</v>
+        <f>I52 &amp; MID(I53,2,LEN(I53)-2) &amp; "|" &amp; MID(I54,2,LEN(I54)-2) &amp; "|" &amp; MID(I55,2,LEN(I55)-2) &amp; "|"</f>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" )         | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)         | [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" )            | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)            | [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" )                | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)                | [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" )    | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)    |</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D131" s="1" t="str">
-        <f>L75 &amp; MID(L76,2,200) &amp; MID(L77,2,200) &amp; MID(L78,2,200)</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )        | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)        | [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )         | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)         | [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )     | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)     | [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" )       | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)       |</v>
+        <f>L52 &amp; MID(L53,2,LEN(L53)-2) &amp; "|" &amp; MID(L54,2,LEN(L54)-2) &amp; "|" &amp; MID(L55,2,LEN(L55)-2) &amp; "|"</f>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )       | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)       | [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )          | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)          | [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )              | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)              | [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )       | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)       |</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>0</v>
@@ -6763,15 +6759,15 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="str">
-        <f>I79 &amp; MID(I80,2,200) &amp; MID(I81,2,200) &amp; MID(I82,2,200)</f>
-        <v>| [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" )           | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)           | [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" )        | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)        | [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" )             | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)             | [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" )    | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)    |</v>
+        <f>I56 &amp; MID(I57,2,LEN(I57)-2) &amp; "|" &amp; MID(I58,2,LEN(I58)-2) &amp; "|" &amp; MID(I59,2,LEN(I59)-2) &amp; "|"</f>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" )               | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)               | [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" )            | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)            | [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" )            | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)            | [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" )                | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)                |</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D132" s="1" t="str">
-        <f>L79 &amp; MID(L80,2,200) &amp; MID(L81,2,200) &amp; MID(L82,2,200)</f>
-        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" )       | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)       | [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" )    | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)    | [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" )           | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)           | [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" )    | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)    |</v>
+        <f>L56 &amp; MID(L57,2,LEN(L57)-2) &amp; "|" &amp; MID(L58,2,LEN(L58)-2) &amp; "|" &amp; MID(L59,2,LEN(L59)-2) &amp; "|"</f>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )            | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)            | [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )            | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)            | [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)           | [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )              | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)              |</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>0</v>
@@ -6779,15 +6775,15 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="str">
-        <f>I83 &amp; MID(I84,2,200) &amp; MID(I85,2,200) &amp; MID(I86,2,200)</f>
-        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" )       | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)       | [![wcu](/doc/img/app/sml/wcu.jpg)](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md "Goto Ws Customer guides \[wcu]" )        | [Ws Customer](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md)        | [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" )      | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)      | [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" )           | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)           |</v>
+        <f>I60 &amp; MID(I61,2,LEN(I61)-2) &amp; "|" &amp; MID(I62,2,LEN(I62)-2) &amp; "|" &amp; MID(I63,2,LEN(I63)-2) &amp; "|"</f>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" )      | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)      | [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" )           | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)           | [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" )   | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)   | [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" )           | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)           |</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f>L83 &amp; MID(L84,2,200) &amp; MID(L85,2,200) &amp; MID(L86,2,200)</f>
-        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" )    | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)    | [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" )       | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)       | [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" )   | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)   | [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" )       | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)       |</v>
+        <f>L60 &amp; MID(L61,2,LEN(L61)-2) &amp; "|" &amp; MID(L62,2,LEN(L62)-2) &amp; "|" &amp; MID(L63,2,LEN(L63)-2) &amp; "|"</f>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )   | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)   | [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )        | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)        | [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )      | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)      | [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )        | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)        |</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>0</v>
@@ -6795,15 +6791,15 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="str">
-        <f>I87 &amp; MID(I88,2,200) &amp; MID(I89,2,200) &amp; MID(I90,2,200)</f>
-        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" )     | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)     | [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" )      | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)      | [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" )     | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)     | [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" )       | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)       |</v>
+        <f>I64 &amp; MID(I65,2,LEN(I65)-2) &amp; "|" &amp; MID(I66,2,LEN(I66)-2) &amp; "|" &amp; MID(I67,2,LEN(I67)-2) &amp; "|"</f>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" )         | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)         | [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" )    | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)    | [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" )        | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)        | [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" )          | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)          |</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D134" s="1" t="str">
-        <f>L87 &amp; MID(L88,2,200) &amp; MID(L89,2,200) &amp; MID(L90,2,200)</f>
-        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md) | [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" )    | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)    | [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" )   | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)   | [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" )     | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)     |</v>
+        <f>L64 &amp; MID(L65,2,LEN(L65)-2) &amp; "|" &amp; MID(L66,2,LEN(L66)-2) &amp; "|" &amp; MID(L67,2,LEN(L67)-2) &amp; "|"</f>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )          | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)          | [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" )  | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)  | [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )    | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)    | [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" )      | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)      |</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>0</v>
@@ -6811,15 +6807,15 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="str">
-        <f>I91 &amp; MID(I92,2,200) &amp; MID(I93,2,200) &amp; MID(I94,2,200)</f>
-        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" )    | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)    | [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" )           | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)           | [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" )              | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)              | [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" )      | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)      |</v>
+        <f>I68 &amp; MID(I69,2,LEN(I69)-2) &amp; "|" &amp; MID(I70,2,LEN(I70)-2) &amp; "|" &amp; MID(I71,2,LEN(I71)-2) &amp; "|"</f>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" )             | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)             | [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" )             | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)             | [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" )               | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)               | [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" )              | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)              |</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D135" s="1" t="str">
-        <f>L91 &amp; MID(L92,2,200) &amp; MID(L93,2,200) &amp; MID(L94,2,200)</f>
-        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" )   | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)   | [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" )         | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)         | [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" )        | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)        | [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" )    | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)    |</v>
+        <f>L68 &amp; MID(L69,2,LEN(L69)-2) &amp; "|" &amp; MID(L70,2,LEN(L70)-2) &amp; "|" &amp; MID(L71,2,LEN(L71)-2) &amp; "|"</f>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )           | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)           | [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )     | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)     | [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )             | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)             | [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )           | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)           |</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>0</v>
@@ -6827,15 +6823,15 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="str">
-        <f>I95 &amp; MID(I96,2,200) &amp; MID(I97,2,200) &amp; MID(I98,2,200)</f>
-        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" )       | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)       | [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" )    | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)    | [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" )      | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)      | [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" )         | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)         |</v>
+        <f>I72 &amp; MID(I73,2,LEN(I73)-2) &amp; "|" &amp; MID(I74,2,LEN(I74)-2) &amp; "|" &amp; MID(I75,2,LEN(I75)-2) &amp; "|"</f>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" )   | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)   | [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" )           | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)           | [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" )             | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)             | [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" )             | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)             |</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D136" s="1" t="str">
-        <f>L95 &amp; MID(L96,2,200) &amp; MID(L97,2,200) &amp; MID(L98,2,200)</f>
-        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" )  | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)  | [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" )  | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)  | [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" )    | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)    | [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" )        | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)        |</v>
+        <f>L72 &amp; MID(L73,2,LEN(L73)-2) &amp; "|" &amp; MID(L74,2,LEN(L74)-2) &amp; "|" &amp; MID(L75,2,LEN(L75)-2) &amp; "|"</f>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md) | [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )    | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)    | [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )     | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)     | [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )     | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)     |</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>0</v>
@@ -6843,15 +6839,15 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="str">
-        <f>I99 &amp; MID(I100,2,200) &amp; MID(I101,2,200) &amp; MID(I102,2,200)</f>
-        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" )         | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)         | [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" )           | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)           | [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" )  | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)  | [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" )   | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)   |</v>
+        <f>I76 &amp; MID(I77,2,LEN(I77)-2) &amp; "|" &amp; MID(I78,2,LEN(I78)-2) &amp; "|" &amp; MID(I79,2,LEN(I79)-2) &amp; "|"</f>
+        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" )      | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)      | [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" )            | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)            | [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" )           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)           | [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" )          | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)          |</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D137" s="1" t="str">
-        <f>L99 &amp; MID(L100,2,200) &amp; MID(L101,2,200) &amp; MID(L102,2,200)</f>
-        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" )         | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)         | [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" )  | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)  | [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md) | [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" )    | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)    |</v>
+        <f>L76 &amp; MID(L77,2,LEN(L77)-2) &amp; "|" &amp; MID(L78,2,LEN(L78)-2) &amp; "|" &amp; MID(L79,2,LEN(L79)-2) &amp; "|"</f>
+        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" )    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)    | [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )        | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)        | [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )         | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)         | [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )     | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)     |</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>0</v>
@@ -6859,69 +6855,160 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="str">
-        <f>I103 &amp; MID(I104,2,200) &amp; MID(I105,2,200) &amp; MID(I106,2,200)</f>
-        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" )    | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)    | [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" )   | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)   | [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" )         | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)         | [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" )         | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)         |</v>
+        <f>I80 &amp; MID(I81,2,LEN(I81)-2) &amp; "|" &amp; MID(I82,2,LEN(I82)-2) &amp; "|" &amp; MID(I83,2,LEN(I83)-2) &amp; "|"</f>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" )           | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)           | [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" )           | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)           | [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" )        | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)        | [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" )             | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)             |</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D138" s="1" t="str">
-        <f>L103 &amp; MID(L104,2,200) &amp; MID(L105,2,200) &amp; MID(L106,2,200)</f>
-        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" )  | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)  | [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md) | [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" )       | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)       | [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" )       | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)       |</v>
+        <f>L80 &amp; MID(L81,2,LEN(L81)-2) &amp; "|" &amp; MID(L82,2,LEN(L82)-2) &amp; "|" &amp; MID(L83,2,LEN(L83)-2) &amp; "|"</f>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" )       | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)       | [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" )       | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)       | [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" )    | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)    | [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" )           | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)           |</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1"/>
+      <c r="A139" s="1" t="str">
+        <f>I84 &amp; MID(I85,2,LEN(I85)-2) &amp; "|" &amp; MID(I86,2,LEN(I86)-2) &amp; "|" &amp; MID(I87,2,LEN(I87)-2) &amp; "|"</f>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" )    | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)    | [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" )       | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)       | [![wcu](/doc/img/app/sml/wcu.jpg)](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md "Goto Ws Customer guides \[wcu]" )        | [Ws Customer](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md)        | [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" )      | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)      |</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1" t="str">
+        <f>L84 &amp; MID(L85,2,LEN(L85)-2) &amp; "|" &amp; MID(L86,2,LEN(L86)-2) &amp; "|" &amp; MID(L87,2,LEN(L87)-2) &amp; "|"</f>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" )    | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)    | [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" )    | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)    | [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" )       | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)       | [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" )   | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)   |</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="str">
+        <f>I88 &amp; MID(I89,2,LEN(I89)-2) &amp; "|" &amp; MID(I90,2,LEN(I90)-2) &amp; "|" &amp; MID(I91,2,LEN(I91)-2) &amp; "|"</f>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" )           | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)           | [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" )     | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)     | [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" )      | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)      | [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" )     | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)     |</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1" t="str">
+        <f>L88 &amp; MID(L89,2,LEN(L89)-2) &amp; "|" &amp; MID(L90,2,LEN(L90)-2) &amp; "|" &amp; MID(L91,2,LEN(L91)-2) &amp; "|"</f>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" )       | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)       | [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md) | [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" )    | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)    | [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" )   | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)   |</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="str">
+        <f>I92 &amp; MID(I93,2,LEN(I93)-2) &amp; "|" &amp; MID(I94,2,LEN(I94)-2) &amp; "|" &amp; MID(I95,2,LEN(I95)-2) &amp; "|"</f>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" )       | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)       | [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" )    | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)    | [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" )           | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)           | [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" )              | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)              |</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1" t="str">
+        <f>L92 &amp; MID(L93,2,LEN(L93)-2) &amp; "|" &amp; MID(L94,2,LEN(L94)-2) &amp; "|" &amp; MID(L95,2,LEN(L95)-2) &amp; "|"</f>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" )     | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)     | [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" )   | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)   | [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" )         | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)         | [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" )        | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)        |</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="str">
+        <f>I96 &amp; MID(I97,2,LEN(I97)-2) &amp; "|" &amp; MID(I98,2,LEN(I98)-2) &amp; "|" &amp; MID(I99,2,LEN(I99)-2) &amp; "|"</f>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" )      | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)      | [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" )       | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)       | [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" )    | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)    | [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" )      | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)      |</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1" t="str">
+        <f>L96 &amp; MID(L97,2,LEN(L97)-2) &amp; "|" &amp; MID(L98,2,LEN(L98)-2) &amp; "|" &amp; MID(L99,2,LEN(L99)-2) &amp; "|"</f>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" )    | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)    | [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" )  | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)  | [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" )  | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)  | [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" )    | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)    |</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1"/>
+      <c r="A143" s="1" t="str">
+        <f>I100 &amp; MID(I101,2,LEN(I101)-2) &amp; "|" &amp; MID(I102,2,LEN(I102)-2) &amp; "|" &amp; MID(I103,2,LEN(I103)-2) &amp; "|"</f>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" )         | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)         | [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" )         | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)         | [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" )           | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)           | [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" )  | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)  |</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1" t="str">
+        <f>L100 &amp; MID(L101,2,LEN(L101)-2) &amp; "|" &amp; MID(L102,2,LEN(L102)-2) &amp; "|" &amp; MID(L103,2,LEN(L103)-2) &amp; "|"</f>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" )        | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)        | [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" )         | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)         | [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" )  | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)  | [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md) |</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="str">
+        <f>I104 &amp; MID(I105,2,LEN(I105)-2) &amp; "|" &amp; MID(I106,2,LEN(I106)-2) &amp; "|" &amp; MID(I107,2,LEN(I107)-2) &amp; "|"</f>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" )   | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)   | [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" )    | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)    | [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" )   | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)   | [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" )         | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)         |</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1" t="str">
+        <f>L104 &amp; MID(L105,2,LEN(L105)-2) &amp; "|" &amp; MID(L106,2,LEN(L106)-2) &amp; "|" &amp; MID(L107,2,LEN(L107)-2) &amp; "|"</f>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" )    | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)    | [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" )  | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)  | [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md) | [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" )       | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)       |</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="str">
+        <f>I108 &amp; MID(I109,2,LEN(I109)-2) &amp; "|" &amp; MID(I110,2,LEN(I110)-2) &amp; "|" &amp; MID(I111,2,LEN(I111)-2) &amp; "|"</f>
+        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" )         | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)         | | | | | | |</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1" t="str">
+        <f>L108 &amp; MID(L109,2,LEN(L109)-2) &amp; "|" &amp; MID(L110,2,LEN(L110)-2) &amp; "|" &amp; MID(L111,2,LEN(L111)-2) &amp; "|"</f>
+        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" )       | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)       | | | | | | |</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -7290,9 +7377,30 @@
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="1"/>
     </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+    </row>
   </sheetData>
-  <sortState ref="A3:L106">
-    <sortCondition ref="C3"/>
+  <sortState ref="A4:M112">
+    <sortCondition ref="C4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/Reorder APPs Menu.xlsx
+++ b/doc/Reorder APPs Menu.xlsx
@@ -11,18 +11,20 @@
   </sheets>
   <definedNames>
     <definedName name="actual">NewMenu!#REF!</definedName>
-    <definedName name="dir">NewMenu!$A$4:$A$108</definedName>
-    <definedName name="LN_en_uk">NewMenu!$F$111</definedName>
-    <definedName name="LN_es_mx">NewMenu!$G$111</definedName>
-    <definedName name="ML_en_uk">NewMenu!$F$110</definedName>
-    <definedName name="ML_es_mx">NewMenu!$G$110</definedName>
+    <definedName name="dir">NewMenu!$A$4:$A$109</definedName>
+    <definedName name="LN_en_uk">NewMenu!$F$117</definedName>
+    <definedName name="LN_es_mx">NewMenu!$G$117</definedName>
+    <definedName name="ML_en_uk">NewMenu!$F$116</definedName>
+    <definedName name="ML_es_mx">NewMenu!$G$116</definedName>
+    <definedName name="MnuIni">NewMenu!$B$116</definedName>
+    <definedName name="MnuPos">NewMenu!$A$119</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="319">
   <si>
     <t/>
   </si>
@@ -648,9 +650,6 @@
     <t>Odoo System</t>
   </si>
   <si>
-    <t>SORT en-uk⯆</t>
-  </si>
-  <si>
     <t>Odoo - Sistema</t>
   </si>
   <si>
@@ -921,9 +920,6 @@
     <t>Ws Versión</t>
   </si>
   <si>
-    <t>SORT es-mx⯆</t>
-  </si>
-  <si>
     <t>MENU en-uk⯆</t>
   </si>
   <si>
@@ -955,6 +951,36 @@
   </si>
   <si>
     <t>| | |</t>
+  </si>
+  <si>
+    <t>ele</t>
+  </si>
+  <si>
+    <t>eLearning</t>
+  </si>
+  <si>
+    <t>eAprendizaje</t>
+  </si>
+  <si>
+    <t>MnuIni:</t>
+  </si>
+  <si>
+    <t>MaxLen</t>
+  </si>
+  <si>
+    <t>ItmLen</t>
+  </si>
+  <si>
+    <t>SORT en-uk ⯅</t>
+  </si>
+  <si>
+    <t>SORT es-mx ⯅</t>
+  </si>
+  <si>
+    <t>SORT en-uk ⯆</t>
+  </si>
+  <si>
+    <t>SORT es-mx ⯆</t>
   </si>
 </sst>
 </file>
@@ -1009,12 +1035,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1322,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M289"/>
+  <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121:D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,17 +1368,30 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
-        <v>208</v>
+        <v>317</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
@@ -1360,7 +1404,7 @@
         <v>_1_ Odoo System</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4" t="str">
         <f>"_1_ "&amp; D4</f>
@@ -1382,8 +1426,9 @@
         <f>LEFT(H4,LN_en_uk+F4-1) &amp; REPT(" ",ML_en_uk-F4) &amp; MID(H4,LN_en_uk+F4,200)&amp;REPT(" ",ML_en_uk-F4+1) &amp;"|"</f>
         <v>| [![o13](/doc/img/app/sml/o13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md "Goto Odoo System guides \[o13]" )        | [Odoo System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md)        |</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>0</v>
+      <c r="J4" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K4" s="1" t="str">
         <f>"| [![" &amp; $A4 &amp; "](/doc/img/app/sml/" &amp; $A4 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A4 &amp; "/es-mx-o13-ee-" &amp; $A4 &amp; "-guides.md ""Ver a las guías de " &amp; D4 &amp; " \[" &amp; $A4 &amp; "]"" ) | [" &amp; D4 &amp; "](/es-mx/o13/ee/"&amp;$A4&amp;"/es-mx-o13-ee-" &amp; $A4 &amp; "-guides.md)"</f>
@@ -1393,8 +1438,9 @@
         <f>LEFT(K4,LN_es_mx+G4-1) &amp; REPT(" ",ML_es_mx-G4) &amp; MID(K4,LN_es_mx+G4,200)&amp;REPT(" ",ML_es_mx-G4+1) &amp;"|"</f>
         <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" )   | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)   |</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>0</v>
+      <c r="M4" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1409,7 +1455,7 @@
         <v>_2_ Odoo Studio</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" t="str">
         <f>"_2_ "&amp; D5</f>
@@ -1431,8 +1477,9 @@
         <f>LEFT(H5,LN_en_uk+F5-1) &amp; REPT(" ",ML_en_uk-F5) &amp; MID(H5,LN_en_uk+F5,200)&amp;REPT(" ",ML_en_uk-F5+1) &amp;"|"</f>
         <v>| [![stu](/doc/img/app/sml/stu.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md "Goto Odoo Studio guides \[stu]" )        | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md)        |</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>0</v>
+      <c r="J5" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K5" s="1" t="str">
         <f>"| [![" &amp; $A5 &amp; "](/doc/img/app/sml/" &amp; $A5 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A5 &amp; "/es-mx-o13-ee-" &amp; $A5 &amp; "-guides.md ""Ver a las guías de " &amp; D5 &amp; " \[" &amp; $A5 &amp; "]"" ) | [" &amp; D5 &amp; "](/es-mx/o13/ee/"&amp;$A5&amp;"/es-mx-o13-ee-" &amp; $A5 &amp; "-guides.md)"</f>
@@ -1442,8 +1489,9 @@
         <f>LEFT(K5,LN_es_mx+G5-1) &amp; REPT(" ",ML_es_mx-G5) &amp; MID(K5,LN_es_mx+G5,200)&amp;REPT(" ",ML_es_mx-G5+1) &amp;"|"</f>
         <v>| [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" )    | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)    |</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>0</v>
+      <c r="M5" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1458,7 +1506,7 @@
         <v>_3_ Odoo SH</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" t="str">
         <f>"_3_ "&amp; D6</f>
@@ -1480,8 +1528,9 @@
         <f>LEFT(H6,LN_en_uk+F6-1) &amp; REPT(" ",ML_en_uk-F6) &amp; MID(H6,LN_en_uk+F6,200)&amp;REPT(" ",ML_en_uk-F6+1) &amp;"|"</f>
         <v>| [![osh](/doc/img/app/sml/osh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md "Goto Odoo SH guides \[osh]" )            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md)            |</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>0</v>
+      <c r="J6" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K6" s="1" t="str">
         <f>"| [![" &amp; $A6 &amp; "](/doc/img/app/sml/" &amp; $A6 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A6 &amp; "/es-mx-o13-ee-" &amp; $A6 &amp; "-guides.md ""Ver a las guías de " &amp; D6 &amp; " \[" &amp; $A6 &amp; "]"" ) | [" &amp; D6 &amp; "](/es-mx/o13/ee/"&amp;$A6&amp;"/es-mx-o13-ee-" &amp; $A6 &amp; "-guides.md)"</f>
@@ -1491,8 +1540,9 @@
         <f>LEFT(K6,LN_es_mx-1+G6) &amp; REPT(" ",ML_es_mx-G6) &amp; MID(K6,LN_es_mx+G6,200)&amp;REPT(" ",ML_es_mx-G6+1) &amp;"|"</f>
         <v>| [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" )        | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)        |</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>0</v>
+      <c r="M6" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1507,7 +1557,7 @@
         <v>_4_ 3rd Parties</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E7" t="str">
         <f>"_4_ "&amp; D7</f>
@@ -1529,8 +1579,9 @@
         <f>LEFT(H7,LN_en_uk+F7-1) &amp; REPT(" ",ML_en_uk-F7) &amp; MID(H7,LN_en_uk+F7,200)&amp;REPT(" ",ML_en_uk-F7+1) &amp;"|"</f>
         <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md "Goto 3rd Parties guides \[3rd]" )        | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md)        |</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>0</v>
+      <c r="J7" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K7" s="1" t="str">
         <f>"| [![" &amp; $A7 &amp; "](/doc/img/app/sml/" &amp; $A7 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A7 &amp; "/es-mx-o13-ee-" &amp; $A7 &amp; "-guides.md ""Ver a las guías de " &amp; D7 &amp; " \[" &amp; $A7 &amp; "]"" ) | [" &amp; D7 &amp; "](/es-mx/o13/ee/"&amp;$A7&amp;"/es-mx-o13-ee-" &amp; $A7 &amp; "-guides.md)"</f>
@@ -1540,155 +1591,162 @@
         <f>LEFT(K7,LN_es_mx-1+G7) &amp; REPT(" ",ML_es_mx-G7) &amp; MID(K7,LN_es_mx+G7,200)&amp;REPT(" ",ML_es_mx-G7+1) &amp;"|"</f>
         <v>| [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" )     | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)     |</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>0</v>
+      <c r="M7" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="C8" t="str">
         <f>B8</f>
-        <v>Accounting</v>
+        <v>Assets</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E8" t="str">
         <f>D8</f>
-        <v>Contabilidad</v>
+        <v>Activos</v>
       </c>
       <c r="F8">
         <f>LEN(B8)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <f>LEN(D8)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>"| [![" &amp; $A8 &amp; "](/doc/img/app/sml/" &amp; $A8 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A8 &amp; "/en-uk-o13-ee-" &amp; $A8 &amp; "-guides.md ""Goto " &amp; B8 &amp; " guides \[" &amp; $A8 &amp; "]"" ) | [" &amp; B8 &amp; "](/en-uk/o13/ee/"&amp;$A8&amp;"/en-uk-o13-ee-" &amp; $A8 &amp; "-guides.md)"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" ) | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" ) | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>LEFT(H8,LN_en_uk+F8-1) &amp; REPT(" ",ML_en_uk-F8) &amp; MID(H8,LN_en_uk+F8,200)&amp;REPT(" ",ML_en_uk-F8+1) &amp;"|"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" )         | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)         |</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>0</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" )             | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)             |</v>
+      </c>
+      <c r="J8" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K8" s="1" t="str">
         <f>"| [![" &amp; $A8 &amp; "](/doc/img/app/sml/" &amp; $A8 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A8 &amp; "/es-mx-o13-ee-" &amp; $A8 &amp; "-guides.md ""Ver a las guías de " &amp; D8 &amp; " \[" &amp; $A8 &amp; "]"" ) | [" &amp; D8 &amp; "](/es-mx/o13/ee/"&amp;$A8&amp;"/es-mx-o13-ee-" &amp; $A8 &amp; "-guides.md)"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" ) | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" ) | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)</v>
       </c>
       <c r="L8" s="1" t="str">
         <f>LEFT(K8,LN_es_mx-1+G8) &amp; REPT(" ",ML_es_mx-G8) &amp; MID(K8,LN_es_mx+G8,200)&amp;REPT(" ",ML_es_mx-G8+1) &amp;"|"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )     | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)     |</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>0</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )          | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)          |</v>
+      </c>
+      <c r="M8" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="C9" t="str">
         <f>B9</f>
-        <v>Appointments</v>
+        <v>Timesheet</v>
       </c>
       <c r="D9" t="s">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="E9" t="str">
         <f>D9</f>
-        <v>Citas</v>
+        <v>Agenda Móvil</v>
       </c>
       <c r="F9">
         <f>LEN(B9)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <f>LEN(D9)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>"| [![" &amp; $A9 &amp; "](/doc/img/app/sml/" &amp; $A9 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A9 &amp; "/en-uk-o13-ee-" &amp; $A9 &amp; "-guides.md ""Goto " &amp; B9 &amp; " guides \[" &amp; $A9 &amp; "]"" ) | [" &amp; B9 &amp; "](/en-uk/o13/ee/"&amp;$A9&amp;"/en-uk-o13-ee-" &amp; $A9 &amp; "-guides.md)"</f>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" ) | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)</v>
+        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" ) | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>LEFT(H9,LN_en_uk+F9-1) &amp; REPT(" ",ML_en_uk-F9) &amp; MID(H9,LN_en_uk+F9,200)&amp;REPT(" ",ML_en_uk-F9+1) &amp;"|"</f>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" )       | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)       |</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>0</v>
+        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" )          | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)          |</v>
+      </c>
+      <c r="J9" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K9" s="1" t="str">
         <f>"| [![" &amp; $A9 &amp; "](/doc/img/app/sml/" &amp; $A9 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A9 &amp; "/es-mx-o13-ee-" &amp; $A9 &amp; "-guides.md ""Ver a las guías de " &amp; D9 &amp; " \[" &amp; $A9 &amp; "]"" ) | [" &amp; D9 &amp; "](/es-mx/o13/ee/"&amp;$A9&amp;"/es-mx-o13-ee-" &amp; $A9 &amp; "-guides.md)"</f>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" ) | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)</v>
+        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" ) | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>LEFT(K9,LN_es_mx-1+G9) &amp; REPT(" ",ML_es_mx-G9) &amp; MID(K9,LN_es_mx+G9,200)&amp;REPT(" ",ML_es_mx-G9+1) &amp;"|"</f>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )            | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)            |</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>0</v>
+        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )     | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)     |</v>
+      </c>
+      <c r="M9" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="C10" t="str">
         <f>B10</f>
-        <v>Appraisal</v>
+        <v>Attendance</v>
       </c>
       <c r="D10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E10" t="str">
         <f>D10</f>
-        <v>Evaluaciones</v>
+        <v>Asistencia</v>
       </c>
       <c r="F10">
         <f>LEN(B10)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <f>LEN(D10)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>"| [![" &amp; $A10 &amp; "](/doc/img/app/sml/" &amp; $A10 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A10 &amp; "/en-uk-o13-ee-" &amp; $A10 &amp; "-guides.md ""Goto " &amp; B10 &amp; " guides \[" &amp; $A10 &amp; "]"" ) | [" &amp; B10 &amp; "](/en-uk/o13/ee/"&amp;$A10&amp;"/en-uk-o13-ee-" &amp; $A10 &amp; "-guides.md)"</f>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" ) | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" ) | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>LEFT(H10,LN_en_uk+F10-1) &amp; REPT(" ",ML_en_uk-F10) &amp; MID(H10,LN_en_uk+F10,200)&amp;REPT(" ",ML_en_uk-F10+1) &amp;"|"</f>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" )          | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)          |</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>0</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" )         | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)         |</v>
+      </c>
+      <c r="J10" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K10" s="1" t="str">
         <f>"| [![" &amp; $A10 &amp; "](/doc/img/app/sml/" &amp; $A10 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A10 &amp; "/es-mx-o13-ee-" &amp; $A10 &amp; "-guides.md ""Ver a las guías de " &amp; D10 &amp; " \[" &amp; $A10 &amp; "]"" ) | [" &amp; D10 &amp; "](/es-mx/o13/ee/"&amp;$A10&amp;"/es-mx-o13-ee-" &amp; $A10 &amp; "-guides.md)"</f>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" ) | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" ) | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)</v>
       </c>
       <c r="L10" s="1" t="str">
         <f>LEFT(K10,LN_es_mx-1+G10) &amp; REPT(" ",ML_es_mx-G10) &amp; MID(K10,LN_es_mx+G10,200)&amp;REPT(" ",ML_es_mx-G10+1) &amp;"|"</f>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )     | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)     |</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>0</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )       | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)       |</v>
+      </c>
+      <c r="M10" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1703,7 +1761,7 @@
         <v>Approvals</v>
       </c>
       <c r="D11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" t="str">
         <f>D11</f>
@@ -1725,8 +1783,9 @@
         <f>LEFT(H11,LN_en_uk+F11-1) &amp; REPT(" ",ML_en_uk-F11) &amp; MID(H11,LN_en_uk+F11,200)&amp;REPT(" ",ML_en_uk-F11+1) &amp;"|"</f>
         <v>| [![apv](/doc/img/app/sml/apv.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md "Goto Approvals guides \[apv]" )          | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md)          |</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>0</v>
+      <c r="J11" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K11" s="1" t="str">
         <f>"| [![" &amp; $A11 &amp; "](/doc/img/app/sml/" &amp; $A11 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A11 &amp; "/es-mx-o13-ee-" &amp; $A11 &amp; "-guides.md ""Ver a las guías de " &amp; D11 &amp; " \[" &amp; $A11 &amp; "]"" ) | [" &amp; D11 &amp; "](/es-mx/o13/ee/"&amp;$A11&amp;"/es-mx-o13-ee-" &amp; $A11 &amp; "-guides.md)"</f>
@@ -1736,80 +1795,83 @@
         <f>LEFT(K11,LN_es_mx-1+G11) &amp; REPT(" ",ML_es_mx-G11) &amp; MID(K11,LN_es_mx+G11,200)&amp;REPT(" ",ML_es_mx-G11+1) &amp;"|"</f>
         <v>| [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" )   | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)   |</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>0</v>
+      <c r="M11" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="C12" t="str">
         <f>B12</f>
-        <v>Assets</v>
+        <v>Blog</v>
       </c>
       <c r="D12" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="E12" t="str">
         <f>D12</f>
-        <v>Activos</v>
+        <v>Blog</v>
       </c>
       <c r="F12">
         <f>LEN(B12)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <f>LEN(D12)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H12" s="1" t="str">
         <f>"| [![" &amp; $A12 &amp; "](/doc/img/app/sml/" &amp; $A12 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A12 &amp; "/en-uk-o13-ee-" &amp; $A12 &amp; "-guides.md ""Goto " &amp; B12 &amp; " guides \[" &amp; $A12 &amp; "]"" ) | [" &amp; B12 &amp; "](/en-uk/o13/ee/"&amp;$A12&amp;"/en-uk-o13-ee-" &amp; $A12 &amp; "-guides.md)"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" ) | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" ) | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>LEFT(H12,LN_en_uk+F12-1) &amp; REPT(" ",ML_en_uk-F12) &amp; MID(H12,LN_en_uk+F12,200)&amp;REPT(" ",ML_en_uk-F12+1) &amp;"|"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" )             | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)             |</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>0</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" )               | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)               |</v>
+      </c>
+      <c r="J12" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K12" s="1" t="str">
         <f>"| [![" &amp; $A12 &amp; "](/doc/img/app/sml/" &amp; $A12 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A12 &amp; "/es-mx-o13-ee-" &amp; $A12 &amp; "-guides.md ""Ver a las guías de " &amp; D12 &amp; " \[" &amp; $A12 &amp; "]"" ) | [" &amp; D12 &amp; "](/es-mx/o13/ee/"&amp;$A12&amp;"/es-mx-o13-ee-" &amp; $A12 &amp; "-guides.md)"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" ) | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" ) | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)</v>
       </c>
       <c r="L12" s="1" t="str">
         <f>LEFT(K12,LN_es_mx-1+G12) &amp; REPT(" ",ML_es_mx-G12) &amp; MID(K12,LN_es_mx+G12,200)&amp;REPT(" ",ML_es_mx-G12+1) &amp;"|"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )          | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)          |</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>0</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )             | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)             |</v>
+      </c>
+      <c r="M12" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="C13" t="str">
         <f>B13</f>
-        <v>Attendance</v>
+        <v>Calendar</v>
       </c>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E13" t="str">
         <f>D13</f>
-        <v>Asistencia</v>
+        <v>Calendario</v>
       </c>
       <c r="F13">
         <f>LEN(B13)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <f>LEN(D13)</f>
@@ -1817,342 +1879,356 @@
       </c>
       <c r="H13" s="1" t="str">
         <f>"| [![" &amp; $A13 &amp; "](/doc/img/app/sml/" &amp; $A13 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A13 &amp; "/en-uk-o13-ee-" &amp; $A13 &amp; "-guides.md ""Goto " &amp; B13 &amp; " guides \[" &amp; $A13 &amp; "]"" ) | [" &amp; B13 &amp; "](/en-uk/o13/ee/"&amp;$A13&amp;"/en-uk-o13-ee-" &amp; $A13 &amp; "-guides.md)"</f>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" ) | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" ) | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>LEFT(H13,LN_en_uk+F13-1) &amp; REPT(" ",ML_en_uk-F13) &amp; MID(H13,LN_en_uk+F13,200)&amp;REPT(" ",ML_en_uk-F13+1) &amp;"|"</f>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" )         | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)         |</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>0</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" )           | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)           |</v>
+      </c>
+      <c r="J13" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K13" s="1" t="str">
         <f>"| [![" &amp; $A13 &amp; "](/doc/img/app/sml/" &amp; $A13 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A13 &amp; "/es-mx-o13-ee-" &amp; $A13 &amp; "-guides.md ""Ver a las guías de " &amp; D13 &amp; " \[" &amp; $A13 &amp; "]"" ) | [" &amp; D13 &amp; "](/es-mx/o13/ee/"&amp;$A13&amp;"/es-mx-o13-ee-" &amp; $A13 &amp; "-guides.md)"</f>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" ) | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" ) | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)</v>
       </c>
       <c r="L13" s="1" t="str">
         <f>LEFT(K13,LN_es_mx-1+G13) &amp; REPT(" ",ML_es_mx-G13) &amp; MID(K13,LN_es_mx+G13,200)&amp;REPT(" ",ML_es_mx-G13+1) &amp;"|"</f>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )       | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)       |</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>0</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )       | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)       |</v>
+      </c>
+      <c r="M13" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="C14" t="str">
         <f>B14</f>
-        <v>Bar Code</v>
+        <v>Mass Mail</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="E14" t="str">
         <f>D14</f>
-        <v>Código de Barras</v>
+        <v>Campañas</v>
       </c>
       <c r="F14">
         <f>LEN(B14)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14">
         <f>LEN(D14)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>"| [![" &amp; $A14 &amp; "](/doc/img/app/sml/" &amp; $A14 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A14 &amp; "/en-uk-o13-ee-" &amp; $A14 &amp; "-guides.md ""Goto " &amp; B14 &amp; " guides \[" &amp; $A14 &amp; "]"" ) | [" &amp; B14 &amp; "](/en-uk/o13/ee/"&amp;$A14&amp;"/en-uk-o13-ee-" &amp; $A14 &amp; "-guides.md)"</f>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" ) | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" ) | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>LEFT(H14,LN_en_uk+F14-1) &amp; REPT(" ",ML_en_uk-F14) &amp; MID(H14,LN_en_uk+F14,200)&amp;REPT(" ",ML_en_uk-F14+1) &amp;"|"</f>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" )           | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)           |</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>0</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" )          | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)          |</v>
+      </c>
+      <c r="J14" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K14" s="1" t="str">
         <f>"| [![" &amp; $A14 &amp; "](/doc/img/app/sml/" &amp; $A14 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A14 &amp; "/es-mx-o13-ee-" &amp; $A14 &amp; "-guides.md ""Ver a las guías de " &amp; D14 &amp; " \[" &amp; $A14 &amp; "]"" ) | [" &amp; D14 &amp; "](/es-mx/o13/ee/"&amp;$A14&amp;"/es-mx-o13-ee-" &amp; $A14 &amp; "-guides.md)"</f>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md)</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" ) | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)</v>
       </c>
       <c r="L14" s="1" t="str">
         <f>LEFT(K14,LN_es_mx-1+G14) &amp; REPT(" ",ML_es_mx-G14) &amp; MID(K14,LN_es_mx+G14,200)&amp;REPT(" ",ML_es_mx-G14+1) &amp;"|"</f>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md) |</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>0</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )         | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)         |</v>
+      </c>
+      <c r="M14" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C15" t="str">
         <f>B15</f>
-        <v>Blog</v>
+        <v>Discuss</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>227</v>
       </c>
       <c r="E15" t="str">
         <f>D15</f>
-        <v>Blog</v>
+        <v>Charlas</v>
       </c>
       <c r="F15">
         <f>LEN(B15)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G15">
         <f>LEN(D15)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>"| [![" &amp; $A15 &amp; "](/doc/img/app/sml/" &amp; $A15 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A15 &amp; "/en-uk-o13-ee-" &amp; $A15 &amp; "-guides.md ""Goto " &amp; B15 &amp; " guides \[" &amp; $A15 &amp; "]"" ) | [" &amp; B15 &amp; "](/en-uk/o13/ee/"&amp;$A15&amp;"/en-uk-o13-ee-" &amp; $A15 &amp; "-guides.md)"</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" ) | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" ) | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>LEFT(H15,LN_en_uk+F15-1) &amp; REPT(" ",ML_en_uk-F15) &amp; MID(H15,LN_en_uk+F15,200)&amp;REPT(" ",ML_en_uk-F15+1) &amp;"|"</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" )               | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)               |</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>0</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" )            | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)            |</v>
+      </c>
+      <c r="J15" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K15" s="1" t="str">
         <f>"| [![" &amp; $A15 &amp; "](/doc/img/app/sml/" &amp; $A15 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A15 &amp; "/es-mx-o13-ee-" &amp; $A15 &amp; "-guides.md ""Ver a las guías de " &amp; D15 &amp; " \[" &amp; $A15 &amp; "]"" ) | [" &amp; D15 &amp; "](/es-mx/o13/ee/"&amp;$A15&amp;"/es-mx-o13-ee-" &amp; $A15 &amp; "-guides.md)"</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" ) | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" ) | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)</v>
       </c>
       <c r="L15" s="1" t="str">
         <f>LEFT(K15,LN_es_mx-1+G15) &amp; REPT(" ",ML_es_mx-G15) &amp; MID(K15,LN_es_mx+G15,200)&amp;REPT(" ",ML_es_mx-G15+1) &amp;"|"</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )             | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)             |</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>0</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )          | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)          |</v>
+      </c>
+      <c r="M15" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="C16" t="str">
         <f>B16</f>
-        <v>Calendar</v>
+        <v>Live Chat</v>
       </c>
       <c r="D16" t="s">
-        <v>220</v>
+        <v>287</v>
       </c>
       <c r="E16" t="str">
         <f>D16</f>
-        <v>Calendario</v>
+        <v>Chat en Línea</v>
       </c>
       <c r="F16">
         <f>LEN(B16)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <f>LEN(D16)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H16" s="1" t="str">
         <f>"| [![" &amp; $A16 &amp; "](/doc/img/app/sml/" &amp; $A16 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A16 &amp; "/en-uk-o13-ee-" &amp; $A16 &amp; "-guides.md ""Goto " &amp; B16 &amp; " guides \[" &amp; $A16 &amp; "]"" ) | [" &amp; B16 &amp; "](/en-uk/o13/ee/"&amp;$A16&amp;"/en-uk-o13-ee-" &amp; $A16 &amp; "-guides.md)"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" ) | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" ) | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>LEFT(H16,LN_en_uk+F16-1) &amp; REPT(" ",ML_en_uk-F16) &amp; MID(H16,LN_en_uk+F16,200)&amp;REPT(" ",ML_en_uk-F16+1) &amp;"|"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" )           | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)           |</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>0</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" )          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)          |</v>
+      </c>
+      <c r="J16" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K16" s="1" t="str">
         <f>"| [![" &amp; $A16 &amp; "](/doc/img/app/sml/" &amp; $A16 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A16 &amp; "/es-mx-o13-ee-" &amp; $A16 &amp; "-guides.md ""Ver a las guías de " &amp; D16 &amp; " \[" &amp; $A16 &amp; "]"" ) | [" &amp; D16 &amp; "](/es-mx/o13/ee/"&amp;$A16&amp;"/es-mx-o13-ee-" &amp; $A16 &amp; "-guides.md)"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" ) | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" ) | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)</v>
       </c>
       <c r="L16" s="1" t="str">
         <f>LEFT(K16,LN_es_mx-1+G16) &amp; REPT(" ",ML_es_mx-G16) &amp; MID(K16,LN_es_mx+G16,200)&amp;REPT(" ",ML_es_mx-G16+1) &amp;"|"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )       | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)       |</v>
-      </c>
-      <c r="M16" s="4" t="s">
-        <v>0</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )    | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)    |</v>
+      </c>
+      <c r="M16" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C17" t="str">
         <f>B17</f>
-        <v>Contacts</v>
+        <v>Appointments</v>
       </c>
       <c r="D17" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E17" t="str">
         <f>D17</f>
-        <v>Contactos</v>
+        <v>Citas</v>
       </c>
       <c r="F17">
         <f>LEN(B17)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G17">
         <f>LEN(D17)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H17" s="1" t="str">
         <f>"| [![" &amp; $A17 &amp; "](/doc/img/app/sml/" &amp; $A17 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A17 &amp; "/en-uk-o13-ee-" &amp; $A17 &amp; "-guides.md ""Goto " &amp; B17 &amp; " guides \[" &amp; $A17 &amp; "]"" ) | [" &amp; B17 &amp; "](/en-uk/o13/ee/"&amp;$A17&amp;"/en-uk-o13-ee-" &amp; $A17 &amp; "-guides.md)"</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" ) | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" ) | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>LEFT(H17,LN_en_uk+F17-1) &amp; REPT(" ",ML_en_uk-F17) &amp; MID(H17,LN_en_uk+F17,200)&amp;REPT(" ",ML_en_uk-F17+1) &amp;"|"</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" )           | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)           |</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>0</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" )       | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)       |</v>
+      </c>
+      <c r="J17" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K17" s="1" t="str">
         <f>"| [![" &amp; $A17 &amp; "](/doc/img/app/sml/" &amp; $A17 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A17 &amp; "/es-mx-o13-ee-" &amp; $A17 &amp; "-guides.md ""Ver a las guías de " &amp; D17 &amp; " \[" &amp; $A17 &amp; "]"" ) | [" &amp; D17 &amp; "](/es-mx/o13/ee/"&amp;$A17&amp;"/es-mx-o13-ee-" &amp; $A17 &amp; "-guides.md)"</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" ) | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" ) | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)</v>
       </c>
       <c r="L17" s="1" t="str">
         <f>LEFT(K17,LN_es_mx-1+G17) &amp; REPT(" ",ML_es_mx-G17) &amp; MID(K17,LN_es_mx+G17,200)&amp;REPT(" ",ML_es_mx-G17+1) &amp;"|"</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )        | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)        |</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>0</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )            | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)            |</v>
+      </c>
+      <c r="M17" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="C18" t="str">
         <f>B18</f>
-        <v>CRM</v>
+        <v>Bar Code</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>218</v>
       </c>
       <c r="E18" t="str">
         <f>D18</f>
-        <v>CRM</v>
+        <v>Código de Barras</v>
       </c>
       <c r="F18">
         <f>LEN(B18)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G18">
         <f>LEN(D18)</f>
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>"| [![" &amp; $A18 &amp; "](/doc/img/app/sml/" &amp; $A18 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A18 &amp; "/en-uk-o13-ee-" &amp; $A18 &amp; "-guides.md ""Goto " &amp; B18 &amp; " guides \[" &amp; $A18 &amp; "]"" ) | [" &amp; B18 &amp; "](/en-uk/o13/ee/"&amp;$A18&amp;"/en-uk-o13-ee-" &amp; $A18 &amp; "-guides.md)"</f>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" ) | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" ) | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>LEFT(H18,LN_en_uk+F18-1) &amp; REPT(" ",ML_en_uk-F18) &amp; MID(H18,LN_en_uk+F18,200)&amp;REPT(" ",ML_en_uk-F18+1) &amp;"|"</f>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" )                | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)                |</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>0</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" )           | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)           |</v>
+      </c>
+      <c r="J18" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K18" s="1" t="str">
         <f>"| [![" &amp; $A18 &amp; "](/doc/img/app/sml/" &amp; $A18 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A18 &amp; "/es-mx-o13-ee-" &amp; $A18 &amp; "-guides.md ""Ver a las guías de " &amp; D18 &amp; " \[" &amp; $A18 &amp; "]"" ) | [" &amp; D18 &amp; "](/es-mx/o13/ee/"&amp;$A18&amp;"/es-mx-o13-ee-" &amp; $A18 &amp; "-guides.md)"</f>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" ) | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md)</v>
       </c>
       <c r="L18" s="1" t="str">
         <f>LEFT(K18,LN_es_mx-1+G18) &amp; REPT(" ",ML_es_mx-G18) &amp; MID(K18,LN_es_mx+G18,200)&amp;REPT(" ",ML_es_mx-G18+1) &amp;"|"</f>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )              | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)              |</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>0</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md) |</v>
+      </c>
+      <c r="M18" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="C19" t="str">
         <f>B19</f>
-        <v>Dashboards</v>
+        <v>Lunch</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="E19" t="str">
         <f>D19</f>
-        <v>Tableros</v>
+        <v>Comidas</v>
       </c>
       <c r="F19">
         <f>LEN(B19)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G19">
         <f>LEN(D19)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>"| [![" &amp; $A19 &amp; "](/doc/img/app/sml/" &amp; $A19 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A19 &amp; "/en-uk-o13-ee-" &amp; $A19 &amp; "-guides.md ""Goto " &amp; B19 &amp; " guides \[" &amp; $A19 &amp; "]"" ) | [" &amp; B19 &amp; "](/en-uk/o13/ee/"&amp;$A19&amp;"/en-uk-o13-ee-" &amp; $A19 &amp; "-guides.md)"</f>
-        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" ) | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" ) | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>LEFT(H19,LN_en_uk+F19-1) &amp; REPT(" ",ML_en_uk-F19) &amp; MID(H19,LN_en_uk+F19,200)&amp;REPT(" ",ML_en_uk-F19+1) &amp;"|"</f>
-        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" )         | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)         |</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>0</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" )              | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)              |</v>
+      </c>
+      <c r="J19" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K19" s="1" t="str">
         <f>"| [![" &amp; $A19 &amp; "](/doc/img/app/sml/" &amp; $A19 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A19 &amp; "/es-mx-o13-ee-" &amp; $A19 &amp; "-guides.md ""Ver a las guías de " &amp; D19 &amp; " \[" &amp; $A19 &amp; "]"" ) | [" &amp; D19 &amp; "](/es-mx/o13/ee/"&amp;$A19&amp;"/es-mx-o13-ee-" &amp; $A19 &amp; "-guides.md)"</f>
-        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" ) | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" ) | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)</v>
       </c>
       <c r="L19" s="1" t="str">
         <f>LEFT(K19,LN_es_mx-1+G19) &amp; REPT(" ",ML_es_mx-G19) &amp; MID(K19,LN_es_mx+G19,200)&amp;REPT(" ",ML_es_mx-G19+1) &amp;"|"</f>
-        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )         | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)         |</v>
-      </c>
-      <c r="M19" s="4" t="s">
-        <v>0</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )          | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)          |</v>
+      </c>
+      <c r="M19" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C20" t="str">
         <f>B20</f>
-        <v>Delivery Bpost</v>
+        <v>Skills</v>
       </c>
       <c r="D20" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="E20" t="str">
         <f>D20</f>
-        <v>Envíos Bpost</v>
+        <v>Competencias</v>
       </c>
       <c r="F20">
         <f>LEN(B20)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <f>LEN(D20)</f>
@@ -2160,289 +2236,301 @@
       </c>
       <c r="H20" s="1" t="str">
         <f>"| [![" &amp; $A20 &amp; "](/doc/img/app/sml/" &amp; $A20 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A20 &amp; "/en-uk-o13-ee-" &amp; $A20 &amp; "-guides.md ""Goto " &amp; B20 &amp; " guides \[" &amp; $A20 &amp; "]"" ) | [" &amp; B20 &amp; "](/en-uk/o13/ee/"&amp;$A20&amp;"/en-uk-o13-ee-" &amp; $A20 &amp; "-guides.md)"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" ) | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" ) | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)</v>
       </c>
       <c r="I20" s="1" t="str">
         <f>LEFT(H20,LN_en_uk+F20-1) &amp; REPT(" ",ML_en_uk-F20) &amp; MID(H20,LN_en_uk+F20,200)&amp;REPT(" ",ML_en_uk-F20+1) &amp;"|"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" )     | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)     |</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>0</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" )             | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)             |</v>
+      </c>
+      <c r="J20" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K20" s="1" t="str">
         <f>"| [![" &amp; $A20 &amp; "](/doc/img/app/sml/" &amp; $A20 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A20 &amp; "/es-mx-o13-ee-" &amp; $A20 &amp; "-guides.md ""Ver a las guías de " &amp; D20 &amp; " \[" &amp; $A20 &amp; "]"" ) | [" &amp; D20 &amp; "](/es-mx/o13/ee/"&amp;$A20&amp;"/es-mx-o13-ee-" &amp; $A20 &amp; "-guides.md)"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" ) | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" ) | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)</v>
       </c>
       <c r="L20" s="1" t="str">
         <f>LEFT(K20,LN_es_mx-1+G20) &amp; REPT(" ",ML_es_mx-G20) &amp; MID(K20,LN_es_mx+G20,200)&amp;REPT(" ",ML_es_mx-G20+1) &amp;"|"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )     | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)     |</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>0</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )     | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)     |</v>
+      </c>
+      <c r="M20" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="C21" t="str">
         <f>B21</f>
-        <v>Delivery DHL</v>
+        <v>Purchasing</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="E21" t="str">
         <f>D21</f>
-        <v>Envíos DHL</v>
+        <v>Compras</v>
       </c>
       <c r="F21">
         <f>LEN(B21)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G21">
         <f>LEN(D21)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H21" s="1" t="str">
         <f>"| [![" &amp; $A21 &amp; "](/doc/img/app/sml/" &amp; $A21 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A21 &amp; "/en-uk-o13-ee-" &amp; $A21 &amp; "-guides.md ""Goto " &amp; B21 &amp; " guides \[" &amp; $A21 &amp; "]"" ) | [" &amp; B21 &amp; "](/en-uk/o13/ee/"&amp;$A21&amp;"/en-uk-o13-ee-" &amp; $A21 &amp; "-guides.md)"</f>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" ) | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" ) | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>LEFT(H21,LN_en_uk+F21-1) &amp; REPT(" ",ML_en_uk-F21) &amp; MID(H21,LN_en_uk+F21,200)&amp;REPT(" ",ML_en_uk-F21+1) &amp;"|"</f>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" )       | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)       |</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>0</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" )         | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)         |</v>
+      </c>
+      <c r="J21" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K21" s="1" t="str">
         <f>"| [![" &amp; $A21 &amp; "](/doc/img/app/sml/" &amp; $A21 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A21 &amp; "/es-mx-o13-ee-" &amp; $A21 &amp; "-guides.md ""Ver a las guías de " &amp; D21 &amp; " \[" &amp; $A21 &amp; "]"" ) | [" &amp; D21 &amp; "](/es-mx/o13/ee/"&amp;$A21&amp;"/es-mx-o13-ee-" &amp; $A21 &amp; "-guides.md)"</f>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" ) | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" ) | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)</v>
       </c>
       <c r="L21" s="1" t="str">
         <f>LEFT(K21,LN_es_mx-1+G21) &amp; REPT(" ",ML_es_mx-G21) &amp; MID(K21,LN_es_mx+G21,200)&amp;REPT(" ",ML_es_mx-G21+1) &amp;"|"</f>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )       | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)       |</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>0</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )          | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)          |</v>
+      </c>
+      <c r="M21" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C22" t="str">
         <f>B22</f>
-        <v>Delivery FedEx</v>
+        <v>Settings</v>
       </c>
       <c r="D22" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="E22" t="str">
         <f>D22</f>
-        <v>Envíos FedEx</v>
+        <v>Configuración</v>
       </c>
       <c r="F22">
         <f>LEN(B22)</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G22">
         <f>LEN(D22)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="1" t="str">
         <f>"| [![" &amp; $A22 &amp; "](/doc/img/app/sml/" &amp; $A22 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A22 &amp; "/en-uk-o13-ee-" &amp; $A22 &amp; "-guides.md ""Goto " &amp; B22 &amp; " guides \[" &amp; $A22 &amp; "]"" ) | [" &amp; B22 &amp; "](/en-uk/o13/ee/"&amp;$A22&amp;"/en-uk-o13-ee-" &amp; $A22 &amp; "-guides.md)"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" ) | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" ) | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)</v>
       </c>
       <c r="I22" s="1" t="str">
         <f>LEFT(H22,LN_en_uk+F22-1) &amp; REPT(" ",ML_en_uk-F22) &amp; MID(H22,LN_en_uk+F22,200)&amp;REPT(" ",ML_en_uk-F22+1) &amp;"|"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" )     | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)     |</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>0</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" )           | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)           |</v>
+      </c>
+      <c r="J22" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K22" s="1" t="str">
         <f>"| [![" &amp; $A22 &amp; "](/doc/img/app/sml/" &amp; $A22 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A22 &amp; "/es-mx-o13-ee-" &amp; $A22 &amp; "-guides.md ""Ver a las guías de " &amp; D22 &amp; " \[" &amp; $A22 &amp; "]"" ) | [" &amp; D22 &amp; "](/es-mx/o13/ee/"&amp;$A22&amp;"/es-mx-o13-ee-" &amp; $A22 &amp; "-guides.md)"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" ) | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" ) | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)</v>
       </c>
       <c r="L22" s="1" t="str">
         <f>LEFT(K22,LN_es_mx-1+G22) &amp; REPT(" ",ML_es_mx-G22) &amp; MID(K22,LN_es_mx+G22,200)&amp;REPT(" ",ML_es_mx-G22+1) &amp;"|"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )     | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)     |</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>0</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )    | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)    |</v>
+      </c>
+      <c r="M22" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="C23" t="str">
         <f>B23</f>
-        <v>Delivery UPS</v>
+        <v>Accounting</v>
       </c>
       <c r="D23" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="E23" t="str">
         <f>D23</f>
-        <v>Envíos UPS</v>
+        <v>Contabilidad</v>
       </c>
       <c r="F23">
         <f>LEN(B23)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <f>LEN(D23)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H23" s="1" t="str">
         <f>"| [![" &amp; $A23 &amp; "](/doc/img/app/sml/" &amp; $A23 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A23 &amp; "/en-uk-o13-ee-" &amp; $A23 &amp; "-guides.md ""Goto " &amp; B23 &amp; " guides \[" &amp; $A23 &amp; "]"" ) | [" &amp; B23 &amp; "](/en-uk/o13/ee/"&amp;$A23&amp;"/en-uk-o13-ee-" &amp; $A23 &amp; "-guides.md)"</f>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" ) | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" ) | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>LEFT(H23,LN_en_uk+F23-1) &amp; REPT(" ",ML_en_uk-F23) &amp; MID(H23,LN_en_uk+F23,200)&amp;REPT(" ",ML_en_uk-F23+1) &amp;"|"</f>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" )       | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)       |</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>0</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" )         | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)         |</v>
+      </c>
+      <c r="J23" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K23" s="1" t="str">
         <f>"| [![" &amp; $A23 &amp; "](/doc/img/app/sml/" &amp; $A23 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A23 &amp; "/es-mx-o13-ee-" &amp; $A23 &amp; "-guides.md ""Ver a las guías de " &amp; D23 &amp; " \[" &amp; $A23 &amp; "]"" ) | [" &amp; D23 &amp; "](/es-mx/o13/ee/"&amp;$A23&amp;"/es-mx-o13-ee-" &amp; $A23 &amp; "-guides.md)"</f>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" ) | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" ) | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)</v>
       </c>
       <c r="L23" s="1" t="str">
         <f>LEFT(K23,LN_es_mx-1+G23) &amp; REPT(" ",ML_es_mx-G23) &amp; MID(K23,LN_es_mx+G23,200)&amp;REPT(" ",ML_es_mx-G23+1) &amp;"|"</f>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )       | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)       |</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>0</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )     | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)     |</v>
+      </c>
+      <c r="M23" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="C24" t="str">
         <f>B24</f>
-        <v>Delivery USps</v>
+        <v>Contacts</v>
       </c>
       <c r="D24" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E24" t="str">
         <f>D24</f>
-        <v>Envíos Usps</v>
+        <v>Contactos</v>
       </c>
       <c r="F24">
         <f>LEN(B24)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G24">
         <f>LEN(D24)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H24" s="1" t="str">
         <f>"| [![" &amp; $A24 &amp; "](/doc/img/app/sml/" &amp; $A24 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A24 &amp; "/en-uk-o13-ee-" &amp; $A24 &amp; "-guides.md ""Goto " &amp; B24 &amp; " guides \[" &amp; $A24 &amp; "]"" ) | [" &amp; B24 &amp; "](/en-uk/o13/ee/"&amp;$A24&amp;"/en-uk-o13-ee-" &amp; $A24 &amp; "-guides.md)"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" ) | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" ) | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>LEFT(H24,LN_en_uk+F24-1) &amp; REPT(" ",ML_en_uk-F24) &amp; MID(H24,LN_en_uk+F24,200)&amp;REPT(" ",ML_en_uk-F24+1) &amp;"|"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" )      | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)      |</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>0</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" )           | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)           |</v>
+      </c>
+      <c r="J24" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K24" s="1" t="str">
         <f>"| [![" &amp; $A24 &amp; "](/doc/img/app/sml/" &amp; $A24 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A24 &amp; "/es-mx-o13-ee-" &amp; $A24 &amp; "-guides.md ""Ver a las guías de " &amp; D24 &amp; " \[" &amp; $A24 &amp; "]"" ) | [" &amp; D24 &amp; "](/es-mx/o13/ee/"&amp;$A24&amp;"/es-mx-o13-ee-" &amp; $A24 &amp; "-guides.md)"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" ) | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" ) | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)</v>
       </c>
       <c r="L24" s="1" t="str">
         <f>LEFT(K24,LN_es_mx-1+G24) &amp; REPT(" ",ML_es_mx-G24) &amp; MID(K24,LN_es_mx+G24,200)&amp;REPT(" ",ML_es_mx-G24+1) &amp;"|"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )      | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)      |</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>0</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )        | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)        |</v>
+      </c>
+      <c r="M24" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="C25" t="str">
         <f>B25</f>
-        <v>Discuss</v>
+        <v>Github Mail</v>
       </c>
       <c r="D25" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="E25" t="str">
         <f>D25</f>
-        <v>Charlas</v>
+        <v>Correo Github</v>
       </c>
       <c r="F25">
         <f>LEN(B25)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <f>LEN(D25)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H25" s="1" t="str">
         <f>"| [![" &amp; $A25 &amp; "](/doc/img/app/sml/" &amp; $A25 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A25 &amp; "/en-uk-o13-ee-" &amp; $A25 &amp; "-guides.md ""Goto " &amp; B25 &amp; " guides \[" &amp; $A25 &amp; "]"" ) | [" &amp; B25 &amp; "](/en-uk/o13/ee/"&amp;$A25&amp;"/en-uk-o13-ee-" &amp; $A25 &amp; "-guides.md)"</f>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" ) | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" ) | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>LEFT(H25,LN_en_uk+F25-1) &amp; REPT(" ",ML_en_uk-F25) &amp; MID(H25,LN_en_uk+F25,200)&amp;REPT(" ",ML_en_uk-F25+1) &amp;"|"</f>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" )            | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)            |</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>0</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" )        | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)        |</v>
+      </c>
+      <c r="J25" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K25" s="1" t="str">
         <f>"| [![" &amp; $A25 &amp; "](/doc/img/app/sml/" &amp; $A25 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A25 &amp; "/es-mx-o13-ee-" &amp; $A25 &amp; "-guides.md ""Ver a las guías de " &amp; D25 &amp; " \[" &amp; $A25 &amp; "]"" ) | [" &amp; D25 &amp; "](/es-mx/o13/ee/"&amp;$A25&amp;"/es-mx-o13-ee-" &amp; $A25 &amp; "-guides.md)"</f>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" ) | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" ) | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)</v>
       </c>
       <c r="L25" s="1" t="str">
         <f>LEFT(K25,LN_es_mx-1+G25) &amp; REPT(" ",ML_es_mx-G25) &amp; MID(K25,LN_es_mx+G25,200)&amp;REPT(" ",ML_es_mx-G25+1) &amp;"|"</f>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )          | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)          |</v>
-      </c>
-      <c r="M25" s="4" t="s">
-        <v>0</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )    | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)    |</v>
+      </c>
+      <c r="M25" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="C26" t="str">
         <f>B26</f>
-        <v>Documents</v>
+        <v>Mail Push</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="E26" t="str">
         <f>D26</f>
-        <v>Documentos</v>
+        <v>Correo Push</v>
       </c>
       <c r="F26">
         <f>LEN(B26)</f>
@@ -2450,195 +2538,203 @@
       </c>
       <c r="G26">
         <f>LEN(D26)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26" s="1" t="str">
         <f>"| [![" &amp; $A26 &amp; "](/doc/img/app/sml/" &amp; $A26 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A26 &amp; "/en-uk-o13-ee-" &amp; $A26 &amp; "-guides.md ""Goto " &amp; B26 &amp; " guides \[" &amp; $A26 &amp; "]"" ) | [" &amp; B26 &amp; "](/en-uk/o13/ee/"&amp;$A26&amp;"/en-uk-o13-ee-" &amp; $A26 &amp; "-guides.md)"</f>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" ) | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" ) | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>LEFT(H26,LN_en_uk+F26-1) &amp; REPT(" ",ML_en_uk-F26) &amp; MID(H26,LN_en_uk+F26,200)&amp;REPT(" ",ML_en_uk-F26+1) &amp;"|"</f>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" )          | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)          |</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>0</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" )          | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)          |</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K26" s="1" t="str">
         <f>"| [![" &amp; $A26 &amp; "](/doc/img/app/sml/" &amp; $A26 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A26 &amp; "/es-mx-o13-ee-" &amp; $A26 &amp; "-guides.md ""Ver a las guías de " &amp; D26 &amp; " \[" &amp; $A26 &amp; "]"" ) | [" &amp; D26 &amp; "](/es-mx/o13/ee/"&amp;$A26&amp;"/es-mx-o13-ee-" &amp; $A26 &amp; "-guides.md)"</f>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" ) | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" ) | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)</v>
       </c>
       <c r="L26" s="1" t="str">
         <f>LEFT(K26,LN_es_mx-1+G26) &amp; REPT(" ",ML_es_mx-G26) &amp; MID(K26,LN_es_mx+G26,200)&amp;REPT(" ",ML_es_mx-G26+1) &amp;"|"</f>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )       | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)       |</v>
-      </c>
-      <c r="M26" s="4" t="s">
-        <v>0</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )      | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)      |</v>
+      </c>
+      <c r="M26" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C27" t="str">
         <f>B27</f>
-        <v>eCommerce</v>
+        <v>CRM</v>
       </c>
       <c r="D27" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
       <c r="E27" t="str">
         <f>D27</f>
-        <v>eComercio</v>
+        <v>CRM</v>
       </c>
       <c r="F27">
         <f>LEN(B27)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G27">
         <f>LEN(D27)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H27" s="1" t="str">
         <f>"| [![" &amp; $A27 &amp; "](/doc/img/app/sml/" &amp; $A27 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A27 &amp; "/en-uk-o13-ee-" &amp; $A27 &amp; "-guides.md ""Goto " &amp; B27 &amp; " guides \[" &amp; $A27 &amp; "]"" ) | [" &amp; B27 &amp; "](/en-uk/o13/ee/"&amp;$A27&amp;"/en-uk-o13-ee-" &amp; $A27 &amp; "-guides.md)"</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" ) | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" ) | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)</v>
       </c>
       <c r="I27" s="1" t="str">
         <f>LEFT(H27,LN_en_uk+F27-1) &amp; REPT(" ",ML_en_uk-F27) &amp; MID(H27,LN_en_uk+F27,200)&amp;REPT(" ",ML_en_uk-F27+1) &amp;"|"</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" )          | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)          |</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>0</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" )                | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)                |</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K27" s="1" t="str">
         <f>"| [![" &amp; $A27 &amp; "](/doc/img/app/sml/" &amp; $A27 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A27 &amp; "/es-mx-o13-ee-" &amp; $A27 &amp; "-guides.md ""Ver a las guías de " &amp; D27 &amp; " \[" &amp; $A27 &amp; "]"" ) | [" &amp; D27 &amp; "](/es-mx/o13/ee/"&amp;$A27&amp;"/es-mx-o13-ee-" &amp; $A27 &amp; "-guides.md)"</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" ) | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" ) | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)</v>
       </c>
       <c r="L27" s="1" t="str">
         <f>LEFT(K27,LN_es_mx-1+G27) &amp; REPT(" ",ML_es_mx-G27) &amp; MID(K27,LN_es_mx+G27,200)&amp;REPT(" ",ML_es_mx-G27+1) &amp;"|"</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )        | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)        |</v>
-      </c>
-      <c r="M27" s="4" t="s">
-        <v>0</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )              | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)              |</v>
+      </c>
+      <c r="M27" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C28" t="str">
         <f>B28</f>
-        <v>eMail</v>
+        <v>Quality Control</v>
       </c>
       <c r="D28" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E28" t="str">
         <f>D28</f>
-        <v>eCorreo</v>
+        <v>Ctrl de Calidad</v>
       </c>
       <c r="F28">
         <f>LEN(B28)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G28">
         <f>LEN(D28)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H28" s="1" t="str">
         <f>"| [![" &amp; $A28 &amp; "](/doc/img/app/sml/" &amp; $A28 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A28 &amp; "/en-uk-o13-ee-" &amp; $A28 &amp; "-guides.md ""Goto " &amp; B28 &amp; " guides \[" &amp; $A28 &amp; "]"" ) | [" &amp; B28 &amp; "](/en-uk/o13/ee/"&amp;$A28&amp;"/en-uk-o13-ee-" &amp; $A28 &amp; "-guides.md)"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" ) | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" ) | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)</v>
       </c>
       <c r="I28" s="1" t="str">
         <f>LEFT(H28,LN_en_uk+F28-1) &amp; REPT(" ",ML_en_uk-F28) &amp; MID(H28,LN_en_uk+F28,200)&amp;REPT(" ",ML_en_uk-F28+1) &amp;"|"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" )              | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)              |</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>0</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" )    | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)    |</v>
+      </c>
+      <c r="J28" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K28" s="1" t="str">
         <f>"| [![" &amp; $A28 &amp; "](/doc/img/app/sml/" &amp; $A28 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A28 &amp; "/es-mx-o13-ee-" &amp; $A28 &amp; "-guides.md ""Ver a las guías de " &amp; D28 &amp; " \[" &amp; $A28 &amp; "]"" ) | [" &amp; D28 &amp; "](/es-mx/o13/ee/"&amp;$A28&amp;"/es-mx-o13-ee-" &amp; $A28 &amp; "-guides.md)"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" ) | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" ) | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)</v>
       </c>
       <c r="L28" s="1" t="str">
         <f>LEFT(K28,LN_es_mx-1+G28) &amp; REPT(" ",ML_es_mx-G28) &amp; MID(K28,LN_es_mx+G28,200)&amp;REPT(" ",ML_es_mx-G28+1) &amp;"|"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" )          | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)          |</v>
-      </c>
-      <c r="M28" s="4" t="s">
-        <v>0</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" )  | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)  |</v>
+      </c>
+      <c r="M28" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="C29" t="str">
         <f>B29</f>
-        <v>Employees</v>
+        <v>Slides</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="E29" t="str">
         <f>D29</f>
-        <v>Empleados</v>
+        <v>Diapositivas</v>
       </c>
       <c r="F29">
         <f>LEN(B29)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <f>LEN(D29)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>"| [![" &amp; $A29 &amp; "](/doc/img/app/sml/" &amp; $A29 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A29 &amp; "/en-uk-o13-ee-" &amp; $A29 &amp; "-guides.md ""Goto " &amp; B29 &amp; " guides \[" &amp; $A29 &amp; "]"" ) | [" &amp; B29 &amp; "](/en-uk/o13/ee/"&amp;$A29&amp;"/en-uk-o13-ee-" &amp; $A29 &amp; "-guides.md)"</f>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" ) | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" ) | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>LEFT(H29,LN_en_uk+F29-1) &amp; REPT(" ",ML_en_uk-F29) &amp; MID(H29,LN_en_uk+F29,200)&amp;REPT(" ",ML_en_uk-F29+1) &amp;"|"</f>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" )          | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)          |</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>0</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" )             | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)             |</v>
+      </c>
+      <c r="J29" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K29" s="1" t="str">
         <f>"| [![" &amp; $A29 &amp; "](/doc/img/app/sml/" &amp; $A29 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A29 &amp; "/es-mx-o13-ee-" &amp; $A29 &amp; "-guides.md ""Ver a las guías de " &amp; D29 &amp; " \[" &amp; $A29 &amp; "]"" ) | [" &amp; D29 &amp; "](/es-mx/o13/ee/"&amp;$A29&amp;"/es-mx-o13-ee-" &amp; $A29 &amp; "-guides.md)"</f>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" ) | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" ) | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)</v>
       </c>
       <c r="L29" s="1" t="str">
         <f>LEFT(K29,LN_es_mx-1+G29) &amp; REPT(" ",ML_es_mx-G29) &amp; MID(K29,LN_es_mx+G29,200)&amp;REPT(" ",ML_es_mx-G29+1) &amp;"|"</f>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )        | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)        |</v>
-      </c>
-      <c r="M29" s="4" t="s">
-        <v>0</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )     | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)     |</v>
+      </c>
+      <c r="M29" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>157</v>
       </c>
       <c r="C30" t="str">
         <f>B30</f>
-        <v>Equipment</v>
+        <v>Documents</v>
       </c>
       <c r="D30" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E30" t="str">
         <f>D30</f>
-        <v>Equipos</v>
+        <v>Documentos</v>
       </c>
       <c r="F30">
         <f>LEN(B30)</f>
@@ -2646,248 +2742,258 @@
       </c>
       <c r="G30">
         <f>LEN(D30)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H30" s="1" t="str">
         <f>"| [![" &amp; $A30 &amp; "](/doc/img/app/sml/" &amp; $A30 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A30 &amp; "/en-uk-o13-ee-" &amp; $A30 &amp; "-guides.md ""Goto " &amp; B30 &amp; " guides \[" &amp; $A30 &amp; "]"" ) | [" &amp; B30 &amp; "](/en-uk/o13/ee/"&amp;$A30&amp;"/en-uk-o13-ee-" &amp; $A30 &amp; "-guides.md)"</f>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" ) | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" ) | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)</v>
       </c>
       <c r="I30" s="1" t="str">
         <f>LEFT(H30,LN_en_uk+F30-1) &amp; REPT(" ",ML_en_uk-F30) &amp; MID(H30,LN_en_uk+F30,200)&amp;REPT(" ",ML_en_uk-F30+1) &amp;"|"</f>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" )          | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)          |</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>0</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" )          | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)          |</v>
+      </c>
+      <c r="J30" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K30" s="1" t="str">
         <f>"| [![" &amp; $A30 &amp; "](/doc/img/app/sml/" &amp; $A30 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A30 &amp; "/es-mx-o13-ee-" &amp; $A30 &amp; "-guides.md ""Ver a las guías de " &amp; D30 &amp; " \[" &amp; $A30 &amp; "]"" ) | [" &amp; D30 &amp; "](/es-mx/o13/ee/"&amp;$A30&amp;"/es-mx-o13-ee-" &amp; $A30 &amp; "-guides.md)"</f>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" ) | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" ) | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)</v>
       </c>
       <c r="L30" s="1" t="str">
         <f>LEFT(K30,LN_es_mx-1+G30) &amp; REPT(" ",ML_es_mx-G30) &amp; MID(K30,LN_es_mx+G30,200)&amp;REPT(" ",ML_es_mx-G30+1) &amp;"|"</f>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )          | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)          |</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>0</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )       | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)       |</v>
+      </c>
+      <c r="M30" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>309</v>
       </c>
       <c r="B31" t="s">
-        <v>118</v>
+        <v>310</v>
       </c>
       <c r="C31" t="str">
         <f>B31</f>
-        <v>eSignature</v>
+        <v>eLearning</v>
       </c>
       <c r="D31" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="E31" t="str">
         <f>D31</f>
-        <v>eFirma</v>
+        <v>eAprendizaje</v>
       </c>
       <c r="F31">
         <f>LEN(B31)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31">
         <f>LEN(D31)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H31" s="1" t="str">
         <f>"| [![" &amp; $A31 &amp; "](/doc/img/app/sml/" &amp; $A31 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A31 &amp; "/en-uk-o13-ee-" &amp; $A31 &amp; "-guides.md ""Goto " &amp; B31 &amp; " guides \[" &amp; $A31 &amp; "]"" ) | [" &amp; B31 &amp; "](/en-uk/o13/ee/"&amp;$A31&amp;"/en-uk-o13-ee-" &amp; $A31 &amp; "-guides.md)"</f>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" ) | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)</v>
+        <v>| [![ele](/doc/img/app/sml/ele.jpg)](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md "Goto eLearning guides \[ele]" ) | [eLearning](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md)</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>LEFT(H31,LN_en_uk+F31-1) &amp; REPT(" ",ML_en_uk-F31) &amp; MID(H31,LN_en_uk+F31,200)&amp;REPT(" ",ML_en_uk-F31+1) &amp;"|"</f>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" )         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)         |</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>0</v>
+        <v>| [![ele](/doc/img/app/sml/ele.jpg)](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md "Goto eLearning guides \[ele]" )          | [eLearning](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md)          |</v>
+      </c>
+      <c r="J31" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K31" s="1" t="str">
         <f>"| [![" &amp; $A31 &amp; "](/doc/img/app/sml/" &amp; $A31 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A31 &amp; "/es-mx-o13-ee-" &amp; $A31 &amp; "-guides.md ""Ver a las guías de " &amp; D31 &amp; " \[" &amp; $A31 &amp; "]"" ) | [" &amp; D31 &amp; "](/es-mx/o13/ee/"&amp;$A31&amp;"/es-mx-o13-ee-" &amp; $A31 &amp; "-guides.md)"</f>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" ) | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)</v>
+        <v>| [![ele](/doc/img/app/sml/ele.jpg)](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md "Ver a las guías de eAprendizaje \[ele]" ) | [eAprendizaje](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md)</v>
       </c>
       <c r="L31" s="1" t="str">
         <f>LEFT(K31,LN_es_mx-1+G31) &amp; REPT(" ",ML_es_mx-G31) &amp; MID(K31,LN_es_mx+G31,200)&amp;REPT(" ",ML_es_mx-G31+1) &amp;"|"</f>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )           | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)           |</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>0</v>
+        <v>| [![ele](/doc/img/app/sml/ele.jpg)](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md "Ver a las guías de eAprendizaje \[ele]" )     | [eAprendizaje](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md)     |</v>
+      </c>
+      <c r="M31" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C32" t="str">
         <f>B32</f>
-        <v>Events</v>
+        <v>eCommerce</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E32" t="str">
         <f>D32</f>
-        <v>Eventos</v>
+        <v>eComercio</v>
       </c>
       <c r="F32">
         <f>LEN(B32)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G32">
         <f>LEN(D32)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H32" s="1" t="str">
         <f>"| [![" &amp; $A32 &amp; "](/doc/img/app/sml/" &amp; $A32 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A32 &amp; "/en-uk-o13-ee-" &amp; $A32 &amp; "-guides.md ""Goto " &amp; B32 &amp; " guides \[" &amp; $A32 &amp; "]"" ) | [" &amp; B32 &amp; "](/en-uk/o13/ee/"&amp;$A32&amp;"/en-uk-o13-ee-" &amp; $A32 &amp; "-guides.md)"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" ) | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" ) | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)</v>
       </c>
       <c r="I32" s="1" t="str">
         <f>LEFT(H32,LN_en_uk+F32-1) &amp; REPT(" ",ML_en_uk-F32) &amp; MID(H32,LN_en_uk+F32,200)&amp;REPT(" ",ML_en_uk-F32+1) &amp;"|"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" )             | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)             |</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>0</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" )          | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)          |</v>
+      </c>
+      <c r="J32" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K32" s="1" t="str">
         <f>"| [![" &amp; $A32 &amp; "](/doc/img/app/sml/" &amp; $A32 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A32 &amp; "/es-mx-o13-ee-" &amp; $A32 &amp; "-guides.md ""Ver a las guías de " &amp; D32 &amp; " \[" &amp; $A32 &amp; "]"" ) | [" &amp; D32 &amp; "](/es-mx/o13/ee/"&amp;$A32&amp;"/es-mx-o13-ee-" &amp; $A32 &amp; "-guides.md)"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" ) | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" ) | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)</v>
       </c>
       <c r="L32" s="1" t="str">
         <f>LEFT(K32,LN_es_mx-1+G32) &amp; REPT(" ",ML_es_mx-G32) &amp; MID(K32,LN_es_mx+G32,200)&amp;REPT(" ",ML_es_mx-G32+1) &amp;"|"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )          | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)          |</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>0</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )        | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)        |</v>
+      </c>
+      <c r="M32" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="C33" t="str">
         <f>B33</f>
-        <v>Expenses</v>
+        <v>eMail</v>
       </c>
       <c r="D33" t="s">
-        <v>235</v>
+        <v>301</v>
       </c>
       <c r="E33" t="str">
         <f>D33</f>
-        <v>Gastos</v>
+        <v>eCorreo</v>
       </c>
       <c r="F33">
         <f>LEN(B33)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G33">
         <f>LEN(D33)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H33" s="1" t="str">
         <f>"| [![" &amp; $A33 &amp; "](/doc/img/app/sml/" &amp; $A33 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A33 &amp; "/en-uk-o13-ee-" &amp; $A33 &amp; "-guides.md ""Goto " &amp; B33 &amp; " guides \[" &amp; $A33 &amp; "]"" ) | [" &amp; B33 &amp; "](/en-uk/o13/ee/"&amp;$A33&amp;"/en-uk-o13-ee-" &amp; $A33 &amp; "-guides.md)"</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" ) | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" ) | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>LEFT(H33,LN_en_uk+F33-1) &amp; REPT(" ",ML_en_uk-F33) &amp; MID(H33,LN_en_uk+F33,200)&amp;REPT(" ",ML_en_uk-F33+1) &amp;"|"</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" )           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)           |</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>0</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" )              | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)              |</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K33" s="1" t="str">
         <f>"| [![" &amp; $A33 &amp; "](/doc/img/app/sml/" &amp; $A33 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A33 &amp; "/es-mx-o13-ee-" &amp; $A33 &amp; "-guides.md ""Ver a las guías de " &amp; D33 &amp; " \[" &amp; $A33 &amp; "]"" ) | [" &amp; D33 &amp; "](/es-mx/o13/ee/"&amp;$A33&amp;"/es-mx-o13-ee-" &amp; $A33 &amp; "-guides.md)"</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" ) | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" ) | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)</v>
       </c>
       <c r="L33" s="1" t="str">
         <f>LEFT(K33,LN_es_mx-1+G33) &amp; REPT(" ",ML_es_mx-G33) &amp; MID(K33,LN_es_mx+G33,200)&amp;REPT(" ",ML_es_mx-G33+1) &amp;"|"</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)           |</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>0</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" )          | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)          |</v>
+      </c>
+      <c r="M33" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C34" t="str">
         <f>B34</f>
-        <v>Field Service</v>
+        <v>eSignature</v>
       </c>
       <c r="D34" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E34" t="str">
         <f>D34</f>
-        <v>Servicio</v>
+        <v>eFirma</v>
       </c>
       <c r="F34">
         <f>LEN(B34)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G34">
         <f>LEN(D34)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H34" s="1" t="str">
         <f>"| [![" &amp; $A34 &amp; "](/doc/img/app/sml/" &amp; $A34 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A34 &amp; "/en-uk-o13-ee-" &amp; $A34 &amp; "-guides.md ""Goto " &amp; B34 &amp; " guides \[" &amp; $A34 &amp; "]"" ) | [" &amp; B34 &amp; "](/en-uk/o13/ee/"&amp;$A34&amp;"/en-uk-o13-ee-" &amp; $A34 &amp; "-guides.md)"</f>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" ) | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" ) | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>LEFT(H34,LN_en_uk+F34-1) &amp; REPT(" ",ML_en_uk-F34) &amp; MID(H34,LN_en_uk+F34,200)&amp;REPT(" ",ML_en_uk-F34+1) &amp;"|"</f>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" )      | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)      |</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>0</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" )         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)         |</v>
+      </c>
+      <c r="J34" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K34" s="1" t="str">
         <f>"| [![" &amp; $A34 &amp; "](/doc/img/app/sml/" &amp; $A34 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A34 &amp; "/es-mx-o13-ee-" &amp; $A34 &amp; "-guides.md ""Ver a las guías de " &amp; D34 &amp; " \[" &amp; $A34 &amp; "]"" ) | [" &amp; D34 &amp; "](/es-mx/o13/ee/"&amp;$A34&amp;"/es-mx-o13-ee-" &amp; $A34 &amp; "-guides.md)"</f>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" ) | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" ) | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)</v>
       </c>
       <c r="L34" s="1" t="str">
         <f>LEFT(K34,LN_es_mx-1+G34) &amp; REPT(" ",ML_es_mx-G34) &amp; MID(K34,LN_es_mx+G34,200)&amp;REPT(" ",ML_es_mx-G34+1) &amp;"|"</f>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )         | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)         |</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>0</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )           | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)           |</v>
+      </c>
+      <c r="M34" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C35" t="str">
         <f>B35</f>
-        <v>Fleet</v>
+        <v>Employees</v>
       </c>
       <c r="D35" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E35" t="str">
         <f>D35</f>
-        <v>Flotillas</v>
+        <v>Empleados</v>
       </c>
       <c r="F35">
         <f>LEN(B35)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G35">
         <f>LEN(D35)</f>
@@ -2895,97 +3001,101 @@
       </c>
       <c r="H35" s="1" t="str">
         <f>"| [![" &amp; $A35 &amp; "](/doc/img/app/sml/" &amp; $A35 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A35 &amp; "/en-uk-o13-ee-" &amp; $A35 &amp; "-guides.md ""Goto " &amp; B35 &amp; " guides \[" &amp; $A35 &amp; "]"" ) | [" &amp; B35 &amp; "](/en-uk/o13/ee/"&amp;$A35&amp;"/en-uk-o13-ee-" &amp; $A35 &amp; "-guides.md)"</f>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" ) | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" ) | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>LEFT(H35,LN_en_uk+F35-1) &amp; REPT(" ",ML_en_uk-F35) &amp; MID(H35,LN_en_uk+F35,200)&amp;REPT(" ",ML_en_uk-F35+1) &amp;"|"</f>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" )              | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)              |</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>0</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" )          | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)          |</v>
+      </c>
+      <c r="J35" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K35" s="1" t="str">
         <f>"| [![" &amp; $A35 &amp; "](/doc/img/app/sml/" &amp; $A35 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A35 &amp; "/es-mx-o13-ee-" &amp; $A35 &amp; "-guides.md ""Ver a las guías de " &amp; D35 &amp; " \[" &amp; $A35 &amp; "]"" ) | [" &amp; D35 &amp; "](/es-mx/o13/ee/"&amp;$A35&amp;"/es-mx-o13-ee-" &amp; $A35 &amp; "-guides.md)"</f>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" ) | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" ) | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)</v>
       </c>
       <c r="L35" s="1" t="str">
         <f>LEFT(K35,LN_es_mx-1+G35) &amp; REPT(" ",ML_es_mx-G35) &amp; MID(K35,LN_es_mx+G35,200)&amp;REPT(" ",ML_es_mx-G35+1) &amp;"|"</f>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )        | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)        |</v>
-      </c>
-      <c r="M35" s="4" t="s">
-        <v>0</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )        | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)        |</v>
+      </c>
+      <c r="M35" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="C36" t="str">
         <f>B36</f>
-        <v>Forum</v>
+        <v>Surveys</v>
       </c>
       <c r="D36" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="E36" t="str">
         <f>D36</f>
-        <v>Foro</v>
+        <v>Encuestas</v>
       </c>
       <c r="F36">
         <f>LEN(B36)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G36">
         <f>LEN(D36)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H36" s="1" t="str">
         <f>"| [![" &amp; $A36 &amp; "](/doc/img/app/sml/" &amp; $A36 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A36 &amp; "/en-uk-o13-ee-" &amp; $A36 &amp; "-guides.md ""Goto " &amp; B36 &amp; " guides \[" &amp; $A36 &amp; "]"" ) | [" &amp; B36 &amp; "](/en-uk/o13/ee/"&amp;$A36&amp;"/en-uk-o13-ee-" &amp; $A36 &amp; "-guides.md)"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" ) | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)</v>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" ) | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)</v>
       </c>
       <c r="I36" s="1" t="str">
         <f>LEFT(H36,LN_en_uk+F36-1) &amp; REPT(" ",ML_en_uk-F36) &amp; MID(H36,LN_en_uk+F36,200)&amp;REPT(" ",ML_en_uk-F36+1) &amp;"|"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" )              | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)              |</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>0</v>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" )            | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)            |</v>
+      </c>
+      <c r="J36" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K36" s="1" t="str">
         <f>"| [![" &amp; $A36 &amp; "](/doc/img/app/sml/" &amp; $A36 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A36 &amp; "/es-mx-o13-ee-" &amp; $A36 &amp; "-guides.md ""Ver a las guías de " &amp; D36 &amp; " \[" &amp; $A36 &amp; "]"" ) | [" &amp; D36 &amp; "](/es-mx/o13/ee/"&amp;$A36&amp;"/es-mx-o13-ee-" &amp; $A36 &amp; "-guides.md)"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" ) | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)</v>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" ) | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)</v>
       </c>
       <c r="L36" s="1" t="str">
         <f>LEFT(K36,LN_es_mx-1+G36) &amp; REPT(" ",ML_es_mx-G36) &amp; MID(K36,LN_es_mx+G36,200)&amp;REPT(" ",ML_es_mx-G36+1) &amp;"|"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )             | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)             |</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>0</v>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )        | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)        |</v>
+      </c>
+      <c r="M36" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C37" t="str">
         <f>B37</f>
-        <v>Gamification</v>
+        <v>Delivery Bpost</v>
       </c>
       <c r="D37" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E37" t="str">
         <f>D37</f>
-        <v>Gamificación</v>
+        <v>Envíos Bpost</v>
       </c>
       <c r="F37">
         <f>LEN(B37)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G37">
         <f>LEN(D37)</f>
@@ -2993,142 +3103,148 @@
       </c>
       <c r="H37" s="1" t="str">
         <f>"| [![" &amp; $A37 &amp; "](/doc/img/app/sml/" &amp; $A37 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A37 &amp; "/en-uk-o13-ee-" &amp; $A37 &amp; "-guides.md ""Goto " &amp; B37 &amp; " guides \[" &amp; $A37 &amp; "]"" ) | [" &amp; B37 &amp; "](/en-uk/o13/ee/"&amp;$A37&amp;"/en-uk-o13-ee-" &amp; $A37 &amp; "-guides.md)"</f>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" ) | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" ) | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)</v>
       </c>
       <c r="I37" s="1" t="str">
         <f>LEFT(H37,LN_en_uk+F37-1) &amp; REPT(" ",ML_en_uk-F37) &amp; MID(H37,LN_en_uk+F37,200)&amp;REPT(" ",ML_en_uk-F37+1) &amp;"|"</f>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" )       | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)       |</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>0</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" )     | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)     |</v>
+      </c>
+      <c r="J37" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K37" s="1" t="str">
         <f>"| [![" &amp; $A37 &amp; "](/doc/img/app/sml/" &amp; $A37 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A37 &amp; "/es-mx-o13-ee-" &amp; $A37 &amp; "-guides.md ""Ver a las guías de " &amp; D37 &amp; " \[" &amp; $A37 &amp; "]"" ) | [" &amp; D37 &amp; "](/es-mx/o13/ee/"&amp;$A37&amp;"/es-mx-o13-ee-" &amp; $A37 &amp; "-guides.md)"</f>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" ) | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" ) | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)</v>
       </c>
       <c r="L37" s="1" t="str">
         <f>LEFT(K37,LN_es_mx-1+G37) &amp; REPT(" ",ML_es_mx-G37) &amp; MID(K37,LN_es_mx+G37,200)&amp;REPT(" ",ML_es_mx-G37+1) &amp;"|"</f>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )     | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)     |</v>
-      </c>
-      <c r="M37" s="4" t="s">
-        <v>0</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )     | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)     |</v>
+      </c>
+      <c r="M37" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C38" t="str">
         <f>B38</f>
-        <v>Github Mail</v>
+        <v>Delivery DHL</v>
       </c>
       <c r="D38" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="E38" t="str">
         <f>D38</f>
-        <v>Correo Github</v>
+        <v>Envíos DHL</v>
       </c>
       <c r="F38">
         <f>LEN(B38)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <f>LEN(D38)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H38" s="1" t="str">
         <f>"| [![" &amp; $A38 &amp; "](/doc/img/app/sml/" &amp; $A38 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A38 &amp; "/en-uk-o13-ee-" &amp; $A38 &amp; "-guides.md ""Goto " &amp; B38 &amp; " guides \[" &amp; $A38 &amp; "]"" ) | [" &amp; B38 &amp; "](/en-uk/o13/ee/"&amp;$A38&amp;"/en-uk-o13-ee-" &amp; $A38 &amp; "-guides.md)"</f>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" ) | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" ) | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)</v>
       </c>
       <c r="I38" s="1" t="str">
         <f>LEFT(H38,LN_en_uk+F38-1) &amp; REPT(" ",ML_en_uk-F38) &amp; MID(H38,LN_en_uk+F38,200)&amp;REPT(" ",ML_en_uk-F38+1) &amp;"|"</f>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" )        | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)        |</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>0</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" )       | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)       |</v>
+      </c>
+      <c r="J38" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K38" s="1" t="str">
         <f>"| [![" &amp; $A38 &amp; "](/doc/img/app/sml/" &amp; $A38 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A38 &amp; "/es-mx-o13-ee-" &amp; $A38 &amp; "-guides.md ""Ver a las guías de " &amp; D38 &amp; " \[" &amp; $A38 &amp; "]"" ) | [" &amp; D38 &amp; "](/es-mx/o13/ee/"&amp;$A38&amp;"/es-mx-o13-ee-" &amp; $A38 &amp; "-guides.md)"</f>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" ) | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" ) | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)</v>
       </c>
       <c r="L38" s="1" t="str">
         <f>LEFT(K38,LN_es_mx-1+G38) &amp; REPT(" ",ML_es_mx-G38) &amp; MID(K38,LN_es_mx+G38,200)&amp;REPT(" ",ML_es_mx-G38+1) &amp;"|"</f>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )    | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)    |</v>
-      </c>
-      <c r="M38" s="4" t="s">
-        <v>0</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )       | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)       |</v>
+      </c>
+      <c r="M38" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C39" t="str">
         <f>B39</f>
-        <v>Google Calendar</v>
+        <v>Delivery FedEx</v>
       </c>
       <c r="D39" t="s">
-        <v>304</v>
+        <v>224</v>
       </c>
       <c r="E39" t="str">
         <f>D39</f>
-        <v>Google Calend</v>
+        <v>Envíos FedEx</v>
       </c>
       <c r="F39">
         <f>LEN(B39)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39">
         <f>LEN(D39)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H39" s="1" t="str">
         <f>"| [![" &amp; $A39 &amp; "](/doc/img/app/sml/" &amp; $A39 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A39 &amp; "/en-uk-o13-ee-" &amp; $A39 &amp; "-guides.md ""Goto " &amp; B39 &amp; " guides \[" &amp; $A39 &amp; "]"" ) | [" &amp; B39 &amp; "](/en-uk/o13/ee/"&amp;$A39&amp;"/en-uk-o13-ee-" &amp; $A39 &amp; "-guides.md)"</f>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" ) | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" ) | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)</v>
       </c>
       <c r="I39" s="1" t="str">
         <f>LEFT(H39,LN_en_uk+F39-1) &amp; REPT(" ",ML_en_uk-F39) &amp; MID(H39,LN_en_uk+F39,200)&amp;REPT(" ",ML_en_uk-F39+1) &amp;"|"</f>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" )    | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)    |</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>0</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" )     | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)     |</v>
+      </c>
+      <c r="J39" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K39" s="1" t="str">
         <f>"| [![" &amp; $A39 &amp; "](/doc/img/app/sml/" &amp; $A39 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A39 &amp; "/es-mx-o13-ee-" &amp; $A39 &amp; "-guides.md ""Ver a las guías de " &amp; D39 &amp; " \[" &amp; $A39 &amp; "]"" ) | [" &amp; D39 &amp; "](/es-mx/o13/ee/"&amp;$A39&amp;"/es-mx-o13-ee-" &amp; $A39 &amp; "-guides.md)"</f>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" ) | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" ) | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)</v>
       </c>
       <c r="L39" s="1" t="str">
         <f>LEFT(K39,LN_es_mx-1+G39) &amp; REPT(" ",ML_es_mx-G39) &amp; MID(K39,LN_es_mx+G39,200)&amp;REPT(" ",ML_es_mx-G39+1) &amp;"|"</f>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" )    | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)    |</v>
-      </c>
-      <c r="M39" s="4" t="s">
-        <v>0</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )     | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)     |</v>
+      </c>
+      <c r="M39" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C40" t="str">
         <f>B40</f>
-        <v>Google Drive</v>
+        <v>Delivery UPS</v>
       </c>
       <c r="D40" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="E40" t="str">
         <f>D40</f>
-        <v>Google Drive</v>
+        <v>Envíos UPS</v>
       </c>
       <c r="F40">
         <f>LEN(B40)</f>
@@ -3136,225 +3252,235 @@
       </c>
       <c r="G40">
         <f>LEN(D40)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H40" s="1" t="str">
         <f>"| [![" &amp; $A40 &amp; "](/doc/img/app/sml/" &amp; $A40 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A40 &amp; "/en-uk-o13-ee-" &amp; $A40 &amp; "-guides.md ""Goto " &amp; B40 &amp; " guides \[" &amp; $A40 &amp; "]"" ) | [" &amp; B40 &amp; "](/en-uk/o13/ee/"&amp;$A40&amp;"/en-uk-o13-ee-" &amp; $A40 &amp; "-guides.md)"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" ) | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" ) | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)</v>
       </c>
       <c r="I40" s="1" t="str">
         <f>LEFT(H40,LN_en_uk+F40-1) &amp; REPT(" ",ML_en_uk-F40) &amp; MID(H40,LN_en_uk+F40,200)&amp;REPT(" ",ML_en_uk-F40+1) &amp;"|"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" )       | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)       |</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>0</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" )       | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)       |</v>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K40" s="1" t="str">
         <f>"| [![" &amp; $A40 &amp; "](/doc/img/app/sml/" &amp; $A40 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A40 &amp; "/es-mx-o13-ee-" &amp; $A40 &amp; "-guides.md ""Ver a las guías de " &amp; D40 &amp; " \[" &amp; $A40 &amp; "]"" ) | [" &amp; D40 &amp; "](/es-mx/o13/ee/"&amp;$A40&amp;"/es-mx-o13-ee-" &amp; $A40 &amp; "-guides.md)"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" ) | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" ) | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)</v>
       </c>
       <c r="L40" s="1" t="str">
         <f>LEFT(K40,LN_es_mx-1+G40) &amp; REPT(" ",ML_es_mx-G40) &amp; MID(K40,LN_es_mx+G40,200)&amp;REPT(" ",ML_es_mx-G40+1) &amp;"|"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )     | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)     |</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>0</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )       | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)       |</v>
+      </c>
+      <c r="M40" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="C41" t="str">
         <f>B41</f>
-        <v>Helpdesk</v>
+        <v>Delivery USps</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="E41" t="str">
         <f>D41</f>
-        <v>Mesa de Ayuda</v>
+        <v>Envíos Usps</v>
       </c>
       <c r="F41">
         <f>LEN(B41)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G41">
         <f>LEN(D41)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H41" s="1" t="str">
         <f>"| [![" &amp; $A41 &amp; "](/doc/img/app/sml/" &amp; $A41 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A41 &amp; "/en-uk-o13-ee-" &amp; $A41 &amp; "-guides.md ""Goto " &amp; B41 &amp; " guides \[" &amp; $A41 &amp; "]"" ) | [" &amp; B41 &amp; "](/en-uk/o13/ee/"&amp;$A41&amp;"/en-uk-o13-ee-" &amp; $A41 &amp; "-guides.md)"</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" ) | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" ) | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)</v>
       </c>
       <c r="I41" s="1" t="str">
         <f>LEFT(H41,LN_en_uk+F41-1) &amp; REPT(" ",ML_en_uk-F41) &amp; MID(H41,LN_en_uk+F41,200)&amp;REPT(" ",ML_en_uk-F41+1) &amp;"|"</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" )           | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)           |</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>0</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" )      | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)      |</v>
+      </c>
+      <c r="J41" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K41" s="1" t="str">
         <f>"| [![" &amp; $A41 &amp; "](/doc/img/app/sml/" &amp; $A41 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A41 &amp; "/es-mx-o13-ee-" &amp; $A41 &amp; "-guides.md ""Ver a las guías de " &amp; D41 &amp; " \[" &amp; $A41 &amp; "]"" ) | [" &amp; D41 &amp; "](/es-mx/o13/ee/"&amp;$A41&amp;"/es-mx-o13-ee-" &amp; $A41 &amp; "-guides.md)"</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" ) | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" ) | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)</v>
       </c>
       <c r="L41" s="1" t="str">
         <f>LEFT(K41,LN_es_mx-1+G41) &amp; REPT(" ",ML_es_mx-G41) &amp; MID(K41,LN_es_mx+G41,200)&amp;REPT(" ",ML_es_mx-G41+1) &amp;"|"</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )    | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)    |</v>
-      </c>
-      <c r="M41" s="4" t="s">
-        <v>0</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )      | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)      |</v>
+      </c>
+      <c r="M41" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="C42" t="str">
         <f>B42</f>
-        <v>Holidays</v>
+        <v>Equipment</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="E42" t="str">
         <f>D42</f>
-        <v>Vacaciones</v>
+        <v>Equipos</v>
       </c>
       <c r="F42">
         <f>LEN(B42)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42">
         <f>LEN(D42)</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H42" s="1" t="str">
         <f>"| [![" &amp; $A42 &amp; "](/doc/img/app/sml/" &amp; $A42 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A42 &amp; "/en-uk-o13-ee-" &amp; $A42 &amp; "-guides.md ""Goto " &amp; B42 &amp; " guides \[" &amp; $A42 &amp; "]"" ) | [" &amp; B42 &amp; "](/en-uk/o13/ee/"&amp;$A42&amp;"/en-uk-o13-ee-" &amp; $A42 &amp; "-guides.md)"</f>
-        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" ) | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" ) | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)</v>
       </c>
       <c r="I42" s="1" t="str">
         <f>LEFT(H42,LN_en_uk+F42-1) &amp; REPT(" ",ML_en_uk-F42) &amp; MID(H42,LN_en_uk+F42,200)&amp;REPT(" ",ML_en_uk-F42+1) &amp;"|"</f>
-        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" )           | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)           |</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>0</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" )          | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)          |</v>
+      </c>
+      <c r="J42" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K42" s="1" t="str">
         <f>"| [![" &amp; $A42 &amp; "](/doc/img/app/sml/" &amp; $A42 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A42 &amp; "/es-mx-o13-ee-" &amp; $A42 &amp; "-guides.md ""Ver a las guías de " &amp; D42 &amp; " \[" &amp; $A42 &amp; "]"" ) | [" &amp; D42 &amp; "](/es-mx/o13/ee/"&amp;$A42&amp;"/es-mx-o13-ee-" &amp; $A42 &amp; "-guides.md)"</f>
-        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" ) | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" ) | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)</v>
       </c>
       <c r="L42" s="1" t="str">
         <f>LEFT(K42,LN_es_mx-1+G42) &amp; REPT(" ",ML_es_mx-G42) &amp; MID(K42,LN_es_mx+G42,200)&amp;REPT(" ",ML_es_mx-G42+1) &amp;"|"</f>
-        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )       | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)       |</v>
-      </c>
-      <c r="M42" s="4" t="s">
-        <v>0</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )          | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)          |</v>
+      </c>
+      <c r="M42" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="C43" t="str">
         <f>B43</f>
-        <v>Internet of Things</v>
+        <v>Appraisal</v>
       </c>
       <c r="D43" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="E43" t="str">
         <f>D43</f>
-        <v>Int de las Cosas</v>
+        <v>Evaluaciones</v>
       </c>
       <c r="F43">
         <f>LEN(B43)</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G43">
         <f>LEN(D43)</f>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H43" s="1" t="str">
         <f>"| [![" &amp; $A43 &amp; "](/doc/img/app/sml/" &amp; $A43 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A43 &amp; "/en-uk-o13-ee-" &amp; $A43 &amp; "-guides.md ""Goto " &amp; B43 &amp; " guides \[" &amp; $A43 &amp; "]"" ) | [" &amp; B43 &amp; "](/en-uk/o13/ee/"&amp;$A43&amp;"/en-uk-o13-ee-" &amp; $A43 &amp; "-guides.md)"</f>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md)</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" ) | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)</v>
       </c>
       <c r="I43" s="1" t="str">
         <f>LEFT(H43,LN_en_uk+F43-1) &amp; REPT(" ",ML_en_uk-F43) &amp; MID(H43,LN_en_uk+F43,200)&amp;REPT(" ",ML_en_uk-F43+1) &amp;"|"</f>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md) |</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>0</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" )          | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)          |</v>
+      </c>
+      <c r="J43" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K43" s="1" t="str">
         <f>"| [![" &amp; $A43 &amp; "](/doc/img/app/sml/" &amp; $A43 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A43 &amp; "/es-mx-o13-ee-" &amp; $A43 &amp; "-guides.md ""Ver a las guías de " &amp; D43 &amp; " \[" &amp; $A43 &amp; "]"" ) | [" &amp; D43 &amp; "](/es-mx/o13/ee/"&amp;$A43&amp;"/es-mx-o13-ee-" &amp; $A43 &amp; "-guides.md)"</f>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md)</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" ) | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)</v>
       </c>
       <c r="L43" s="1" t="str">
         <f>LEFT(K43,LN_es_mx-1+G43) &amp; REPT(" ",ML_es_mx-G43) &amp; MID(K43,LN_es_mx+G43,200)&amp;REPT(" ",ML_es_mx-G43+1) &amp;"|"</f>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md) |</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>0</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )     | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)     |</v>
+      </c>
+      <c r="M43" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B44" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C44" t="str">
         <f>B44</f>
-        <v>Inventory</v>
+        <v>Events</v>
       </c>
       <c r="D44" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E44" t="str">
         <f>D44</f>
-        <v>Inventarios</v>
+        <v>Eventos</v>
       </c>
       <c r="F44">
         <f>LEN(B44)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G44">
         <f>LEN(D44)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H44" s="1" t="str">
         <f>"| [![" &amp; $A44 &amp; "](/doc/img/app/sml/" &amp; $A44 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A44 &amp; "/en-uk-o13-ee-" &amp; $A44 &amp; "-guides.md ""Goto " &amp; B44 &amp; " guides \[" &amp; $A44 &amp; "]"" ) | [" &amp; B44 &amp; "](/en-uk/o13/ee/"&amp;$A44&amp;"/en-uk-o13-ee-" &amp; $A44 &amp; "-guides.md)"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" ) | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" ) | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)</v>
       </c>
       <c r="I44" s="1" t="str">
         <f>LEFT(H44,LN_en_uk+F44-1) &amp; REPT(" ",ML_en_uk-F44) &amp; MID(H44,LN_en_uk+F44,200)&amp;REPT(" ",ML_en_uk-F44+1) &amp;"|"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" )          | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)          |</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>0</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" )             | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)             |</v>
+      </c>
+      <c r="J44" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K44" s="1" t="str">
         <f>"| [![" &amp; $A44 &amp; "](/doc/img/app/sml/" &amp; $A44 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A44 &amp; "/es-mx-o13-ee-" &amp; $A44 &amp; "-guides.md ""Ver a las guías de " &amp; D44 &amp; " \[" &amp; $A44 &amp; "]"" ) | [" &amp; D44 &amp; "](/es-mx/o13/ee/"&amp;$A44&amp;"/es-mx-o13-ee-" &amp; $A44 &amp; "-guides.md)"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" ) | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" ) | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)</v>
       </c>
       <c r="L44" s="1" t="str">
         <f>LEFT(K44,LN_es_mx-1+G44) &amp; REPT(" ",ML_es_mx-G44) &amp; MID(K44,LN_es_mx+G44,200)&amp;REPT(" ",ML_es_mx-G44+1) &amp;"|"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )      | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)      |</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>0</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )          | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)          |</v>
+      </c>
+      <c r="M44" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
@@ -3369,7 +3495,7 @@
         <v>Invoicing</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E45" t="str">
         <f>D45</f>
@@ -3391,8 +3517,9 @@
         <f>LEFT(H45,LN_en_uk+F45-1) &amp; REPT(" ",ML_en_uk-F45) &amp; MID(H45,LN_en_uk+F45,200)&amp;REPT(" ",ML_en_uk-F45+1) &amp;"|"</f>
         <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" )          | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)          |</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>0</v>
+      <c r="J45" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K45" s="1" t="str">
         <f>"| [![" &amp; $A45 &amp; "](/doc/img/app/sml/" &amp; $A45 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A45 &amp; "/es-mx-o13-ee-" &amp; $A45 &amp; "-guides.md ""Ver a las guías de " &amp; D45 &amp; " \[" &amp; $A45 &amp; "]"" ) | [" &amp; D45 &amp; "](/es-mx/o13/ee/"&amp;$A45&amp;"/es-mx-o13-ee-" &amp; $A45 &amp; "-guides.md)"</f>
@@ -3402,76 +3529,79 @@
         <f>LEFT(K45,LN_es_mx-1+G45) &amp; REPT(" ",ML_es_mx-G45) &amp; MID(K45,LN_es_mx+G45,200)&amp;REPT(" ",ML_es_mx-G45+1) &amp;"|"</f>
         <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )      | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)      |</v>
       </c>
-      <c r="M45" s="4" t="s">
-        <v>0</v>
+      <c r="M45" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C46" t="str">
         <f>B46</f>
-        <v>Live Chat</v>
+        <v>Fleet</v>
       </c>
       <c r="D46" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="E46" t="str">
         <f>D46</f>
-        <v>Chat en Línea</v>
+        <v>Flotillas</v>
       </c>
       <c r="F46">
         <f>LEN(B46)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G46">
         <f>LEN(D46)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H46" s="1" t="str">
         <f>"| [![" &amp; $A46 &amp; "](/doc/img/app/sml/" &amp; $A46 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A46 &amp; "/en-uk-o13-ee-" &amp; $A46 &amp; "-guides.md ""Goto " &amp; B46 &amp; " guides \[" &amp; $A46 &amp; "]"" ) | [" &amp; B46 &amp; "](/en-uk/o13/ee/"&amp;$A46&amp;"/en-uk-o13-ee-" &amp; $A46 &amp; "-guides.md)"</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" ) | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" ) | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)</v>
       </c>
       <c r="I46" s="1" t="str">
         <f>LEFT(H46,LN_en_uk+F46-1) &amp; REPT(" ",ML_en_uk-F46) &amp; MID(H46,LN_en_uk+F46,200)&amp;REPT(" ",ML_en_uk-F46+1) &amp;"|"</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" )          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)          |</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>0</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" )              | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)              |</v>
+      </c>
+      <c r="J46" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K46" s="1" t="str">
         <f>"| [![" &amp; $A46 &amp; "](/doc/img/app/sml/" &amp; $A46 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A46 &amp; "/es-mx-o13-ee-" &amp; $A46 &amp; "-guides.md ""Ver a las guías de " &amp; D46 &amp; " \[" &amp; $A46 &amp; "]"" ) | [" &amp; D46 &amp; "](/es-mx/o13/ee/"&amp;$A46&amp;"/es-mx-o13-ee-" &amp; $A46 &amp; "-guides.md)"</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" ) | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" ) | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)</v>
       </c>
       <c r="L46" s="1" t="str">
         <f>LEFT(K46,LN_es_mx-1+G46) &amp; REPT(" ",ML_es_mx-G46) &amp; MID(K46,LN_es_mx+G46,200)&amp;REPT(" ",ML_es_mx-G46+1) &amp;"|"</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )    | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)    |</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>0</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )        | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)        |</v>
+      </c>
+      <c r="M46" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C47" t="str">
         <f>B47</f>
-        <v>Lunch</v>
+        <v>Forum</v>
       </c>
       <c r="D47" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E47" t="str">
         <f>D47</f>
-        <v>Comidas</v>
+        <v>Foro</v>
       </c>
       <c r="F47">
         <f>LEN(B47)</f>
@@ -3479,539 +3609,561 @@
       </c>
       <c r="G47">
         <f>LEN(D47)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H47" s="1" t="str">
         <f>"| [![" &amp; $A47 &amp; "](/doc/img/app/sml/" &amp; $A47 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A47 &amp; "/en-uk-o13-ee-" &amp; $A47 &amp; "-guides.md ""Goto " &amp; B47 &amp; " guides \[" &amp; $A47 &amp; "]"" ) | [" &amp; B47 &amp; "](/en-uk/o13/ee/"&amp;$A47&amp;"/en-uk-o13-ee-" &amp; $A47 &amp; "-guides.md)"</f>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" ) | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" ) | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)</v>
       </c>
       <c r="I47" s="1" t="str">
         <f>LEFT(H47,LN_en_uk+F47-1) &amp; REPT(" ",ML_en_uk-F47) &amp; MID(H47,LN_en_uk+F47,200)&amp;REPT(" ",ML_en_uk-F47+1) &amp;"|"</f>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" )              | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)              |</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>0</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" )              | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)              |</v>
+      </c>
+      <c r="J47" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K47" s="1" t="str">
         <f>"| [![" &amp; $A47 &amp; "](/doc/img/app/sml/" &amp; $A47 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A47 &amp; "/es-mx-o13-ee-" &amp; $A47 &amp; "-guides.md ""Ver a las guías de " &amp; D47 &amp; " \[" &amp; $A47 &amp; "]"" ) | [" &amp; D47 &amp; "](/es-mx/o13/ee/"&amp;$A47&amp;"/es-mx-o13-ee-" &amp; $A47 &amp; "-guides.md)"</f>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" ) | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" ) | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)</v>
       </c>
       <c r="L47" s="1" t="str">
         <f>LEFT(K47,LN_es_mx-1+G47) &amp; REPT(" ",ML_es_mx-G47) &amp; MID(K47,LN_es_mx+G47,200)&amp;REPT(" ",ML_es_mx-G47+1) &amp;"|"</f>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )          | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)          |</v>
-      </c>
-      <c r="M47" s="4" t="s">
-        <v>0</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )             | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)             |</v>
+      </c>
+      <c r="M47" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C48" t="str">
         <f>B48</f>
-        <v>Mail Push</v>
+        <v>Gamification</v>
       </c>
       <c r="D48" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E48" t="str">
         <f>D48</f>
-        <v>Correo Push</v>
+        <v>Gamificación</v>
       </c>
       <c r="F48">
         <f>LEN(B48)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G48">
         <f>LEN(D48)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H48" s="1" t="str">
         <f>"| [![" &amp; $A48 &amp; "](/doc/img/app/sml/" &amp; $A48 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A48 &amp; "/en-uk-o13-ee-" &amp; $A48 &amp; "-guides.md ""Goto " &amp; B48 &amp; " guides \[" &amp; $A48 &amp; "]"" ) | [" &amp; B48 &amp; "](/en-uk/o13/ee/"&amp;$A48&amp;"/en-uk-o13-ee-" &amp; $A48 &amp; "-guides.md)"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" ) | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" ) | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)</v>
       </c>
       <c r="I48" s="1" t="str">
         <f>LEFT(H48,LN_en_uk+F48-1) &amp; REPT(" ",ML_en_uk-F48) &amp; MID(H48,LN_en_uk+F48,200)&amp;REPT(" ",ML_en_uk-F48+1) &amp;"|"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" )          | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)          |</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>0</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" )       | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)       |</v>
+      </c>
+      <c r="J48" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K48" s="1" t="str">
         <f>"| [![" &amp; $A48 &amp; "](/doc/img/app/sml/" &amp; $A48 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A48 &amp; "/es-mx-o13-ee-" &amp; $A48 &amp; "-guides.md ""Ver a las guías de " &amp; D48 &amp; " \[" &amp; $A48 &amp; "]"" ) | [" &amp; D48 &amp; "](/es-mx/o13/ee/"&amp;$A48&amp;"/es-mx-o13-ee-" &amp; $A48 &amp; "-guides.md)"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" ) | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" ) | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)</v>
       </c>
       <c r="L48" s="1" t="str">
         <f>LEFT(K48,LN_es_mx-1+G48) &amp; REPT(" ",ML_es_mx-G48) &amp; MID(K48,LN_es_mx+G48,200)&amp;REPT(" ",ML_es_mx-G48+1) &amp;"|"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )      | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)      |</v>
-      </c>
-      <c r="M48" s="4" t="s">
-        <v>0</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )     | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)     |</v>
+      </c>
+      <c r="M48" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C49" t="str">
         <f>B49</f>
-        <v>Maintenance</v>
+        <v>Expenses</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E49" t="str">
         <f>D49</f>
-        <v>Mantenimiento</v>
+        <v>Gastos</v>
       </c>
       <c r="F49">
         <f>LEN(B49)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G49">
         <f>LEN(D49)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H49" s="1" t="str">
         <f>"| [![" &amp; $A49 &amp; "](/doc/img/app/sml/" &amp; $A49 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A49 &amp; "/en-uk-o13-ee-" &amp; $A49 &amp; "-guides.md ""Goto " &amp; B49 &amp; " guides \[" &amp; $A49 &amp; "]"" ) | [" &amp; B49 &amp; "](/en-uk/o13/ee/"&amp;$A49&amp;"/en-uk-o13-ee-" &amp; $A49 &amp; "-guides.md)"</f>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" ) | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" ) | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)</v>
       </c>
       <c r="I49" s="1" t="str">
         <f>LEFT(H49,LN_en_uk+F49-1) &amp; REPT(" ",ML_en_uk-F49) &amp; MID(H49,LN_en_uk+F49,200)&amp;REPT(" ",ML_en_uk-F49+1) &amp;"|"</f>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" )        | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)        |</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>0</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" )           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)           |</v>
+      </c>
+      <c r="J49" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K49" s="1" t="str">
         <f>"| [![" &amp; $A49 &amp; "](/doc/img/app/sml/" &amp; $A49 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A49 &amp; "/es-mx-o13-ee-" &amp; $A49 &amp; "-guides.md ""Ver a las guías de " &amp; D49 &amp; " \[" &amp; $A49 &amp; "]"" ) | [" &amp; D49 &amp; "](/es-mx/o13/ee/"&amp;$A49&amp;"/es-mx-o13-ee-" &amp; $A49 &amp; "-guides.md)"</f>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" ) | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" ) | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)</v>
       </c>
       <c r="L49" s="1" t="str">
         <f>LEFT(K49,LN_es_mx-1+G49) &amp; REPT(" ",ML_es_mx-G49) &amp; MID(K49,LN_es_mx+G49,200)&amp;REPT(" ",ML_es_mx-G49+1) &amp;"|"</f>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )    | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)    |</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>0</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)           |</v>
+      </c>
+      <c r="M49" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C50" t="str">
         <f>B50</f>
-        <v>Marketing Auto</v>
-      </c>
-      <c r="D50" t="str">
-        <f>C50</f>
-        <v>Marketing Auto</v>
+        <v>Google Calendar</v>
+      </c>
+      <c r="D50" t="s">
+        <v>302</v>
       </c>
       <c r="E50" t="str">
         <f>D50</f>
-        <v>Marketing Auto</v>
+        <v>Google Calend</v>
       </c>
       <c r="F50">
         <f>LEN(B50)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G50">
         <f>LEN(D50)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H50" s="1" t="str">
         <f>"| [![" &amp; $A50 &amp; "](/doc/img/app/sml/" &amp; $A50 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A50 &amp; "/en-uk-o13-ee-" &amp; $A50 &amp; "-guides.md ""Goto " &amp; B50 &amp; " guides \[" &amp; $A50 &amp; "]"" ) | [" &amp; B50 &amp; "](/en-uk/o13/ee/"&amp;$A50&amp;"/en-uk-o13-ee-" &amp; $A50 &amp; "-guides.md)"</f>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" ) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" ) | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)</v>
       </c>
       <c r="I50" s="1" t="str">
         <f>LEFT(H50,LN_en_uk+F50-1) &amp; REPT(" ",ML_en_uk-F50) &amp; MID(H50,LN_en_uk+F50,200)&amp;REPT(" ",ML_en_uk-F50+1) &amp;"|"</f>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" )     | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)     |</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>0</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" )    | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)    |</v>
+      </c>
+      <c r="J50" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K50" s="1" t="str">
         <f>"| [![" &amp; $A50 &amp; "](/doc/img/app/sml/" &amp; $A50 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A50 &amp; "/es-mx-o13-ee-" &amp; $A50 &amp; "-guides.md ""Ver a las guías de " &amp; D50 &amp; " \[" &amp; $A50 &amp; "]"" ) | [" &amp; D50 &amp; "](/es-mx/o13/ee/"&amp;$A50&amp;"/es-mx-o13-ee-" &amp; $A50 &amp; "-guides.md)"</f>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" ) | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" ) | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)</v>
       </c>
       <c r="L50" s="1" t="str">
         <f>LEFT(K50,LN_es_mx-1+G50) &amp; REPT(" ",ML_es_mx-G50) &amp; MID(K50,LN_es_mx+G50,200)&amp;REPT(" ",ML_es_mx-G50+1) &amp;"|"</f>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )   | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)   |</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>0</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" )    | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)    |</v>
+      </c>
+      <c r="M50" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="C51" t="str">
         <f>B51</f>
-        <v>Mass Mail</v>
+        <v>Google Drive</v>
       </c>
       <c r="D51" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="E51" t="str">
         <f>D51</f>
-        <v>Campañas</v>
+        <v>Google Drive</v>
       </c>
       <c r="F51">
         <f>LEN(B51)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G51">
         <f>LEN(D51)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H51" s="1" t="str">
         <f>"| [![" &amp; $A51 &amp; "](/doc/img/app/sml/" &amp; $A51 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A51 &amp; "/en-uk-o13-ee-" &amp; $A51 &amp; "-guides.md ""Goto " &amp; B51 &amp; " guides \[" &amp; $A51 &amp; "]"" ) | [" &amp; B51 &amp; "](/en-uk/o13/ee/"&amp;$A51&amp;"/en-uk-o13-ee-" &amp; $A51 &amp; "-guides.md)"</f>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" ) | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" ) | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)</v>
       </c>
       <c r="I51" s="1" t="str">
         <f>LEFT(H51,LN_en_uk+F51-1) &amp; REPT(" ",ML_en_uk-F51) &amp; MID(H51,LN_en_uk+F51,200)&amp;REPT(" ",ML_en_uk-F51+1) &amp;"|"</f>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" )          | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)          |</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>0</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" )       | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)       |</v>
+      </c>
+      <c r="J51" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K51" s="1" t="str">
         <f>"| [![" &amp; $A51 &amp; "](/doc/img/app/sml/" &amp; $A51 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A51 &amp; "/es-mx-o13-ee-" &amp; $A51 &amp; "-guides.md ""Ver a las guías de " &amp; D51 &amp; " \[" &amp; $A51 &amp; "]"" ) | [" &amp; D51 &amp; "](/es-mx/o13/ee/"&amp;$A51&amp;"/es-mx-o13-ee-" &amp; $A51 &amp; "-guides.md)"</f>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" ) | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" ) | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)</v>
       </c>
       <c r="L51" s="1" t="str">
         <f>LEFT(K51,LN_es_mx-1+G51) &amp; REPT(" ",ML_es_mx-G51) &amp; MID(K51,LN_es_mx+G51,200)&amp;REPT(" ",ML_es_mx-G51+1) &amp;"|"</f>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )         | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)         |</v>
-      </c>
-      <c r="M51" s="4" t="s">
-        <v>0</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )     | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)     |</v>
+      </c>
+      <c r="M51" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="C52" t="str">
         <f>B52</f>
-        <v>Membership</v>
+        <v>Internet of Things</v>
       </c>
       <c r="D52" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E52" t="str">
         <f>D52</f>
-        <v>Membresías</v>
+        <v>Int de las Cosas</v>
       </c>
       <c r="F52">
         <f>LEN(B52)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G52">
         <f>LEN(D52)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H52" s="1" t="str">
         <f>"| [![" &amp; $A52 &amp; "](/doc/img/app/sml/" &amp; $A52 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A52 &amp; "/en-uk-o13-ee-" &amp; $A52 &amp; "-guides.md ""Goto " &amp; B52 &amp; " guides \[" &amp; $A52 &amp; "]"" ) | [" &amp; B52 &amp; "](/en-uk/o13/ee/"&amp;$A52&amp;"/en-uk-o13-ee-" &amp; $A52 &amp; "-guides.md)"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" ) | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md)</v>
       </c>
       <c r="I52" s="1" t="str">
         <f>LEFT(H52,LN_en_uk+F52-1) &amp; REPT(" ",ML_en_uk-F52) &amp; MID(H52,LN_en_uk+F52,200)&amp;REPT(" ",ML_en_uk-F52+1) &amp;"|"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" )         | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)         |</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>0</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md) |</v>
+      </c>
+      <c r="J52" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K52" s="1" t="str">
         <f>"| [![" &amp; $A52 &amp; "](/doc/img/app/sml/" &amp; $A52 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A52 &amp; "/es-mx-o13-ee-" &amp; $A52 &amp; "-guides.md ""Ver a las guías de " &amp; D52 &amp; " \[" &amp; $A52 &amp; "]"" ) | [" &amp; D52 &amp; "](/es-mx/o13/ee/"&amp;$A52&amp;"/es-mx-o13-ee-" &amp; $A52 &amp; "-guides.md)"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" ) | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md)</v>
       </c>
       <c r="L52" s="1" t="str">
         <f>LEFT(K52,LN_es_mx-1+G52) &amp; REPT(" ",ML_es_mx-G52) &amp; MID(K52,LN_es_mx+G52,200)&amp;REPT(" ",ML_es_mx-G52+1) &amp;"|"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )       | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)       |</v>
-      </c>
-      <c r="M52" s="4" t="s">
-        <v>0</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md) |</v>
+      </c>
+      <c r="M52" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="C53" t="str">
         <f>B53</f>
-        <v>Modules</v>
+        <v>Inventory</v>
       </c>
       <c r="D53" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E53" t="str">
         <f>D53</f>
-        <v>Módulos</v>
+        <v>Inventarios</v>
       </c>
       <c r="F53">
         <f>LEN(B53)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <f>LEN(D53)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H53" s="1" t="str">
         <f>"| [![" &amp; $A53 &amp; "](/doc/img/app/sml/" &amp; $A53 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A53 &amp; "/en-uk-o13-ee-" &amp; $A53 &amp; "-guides.md ""Goto " &amp; B53 &amp; " guides \[" &amp; $A53 &amp; "]"" ) | [" &amp; B53 &amp; "](/en-uk/o13/ee/"&amp;$A53&amp;"/en-uk-o13-ee-" &amp; $A53 &amp; "-guides.md)"</f>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" ) | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" ) | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)</v>
       </c>
       <c r="I53" s="1" t="str">
         <f>LEFT(H53,LN_en_uk+F53-1) &amp; REPT(" ",ML_en_uk-F53) &amp; MID(H53,LN_en_uk+F53,200)&amp;REPT(" ",ML_en_uk-F53+1) &amp;"|"</f>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" )            | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)            |</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>0</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" )          | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)          |</v>
+      </c>
+      <c r="J53" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K53" s="1" t="str">
         <f>"| [![" &amp; $A53 &amp; "](/doc/img/app/sml/" &amp; $A53 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A53 &amp; "/es-mx-o13-ee-" &amp; $A53 &amp; "-guides.md ""Ver a las guías de " &amp; D53 &amp; " \[" &amp; $A53 &amp; "]"" ) | [" &amp; D53 &amp; "](/es-mx/o13/ee/"&amp;$A53&amp;"/es-mx-o13-ee-" &amp; $A53 &amp; "-guides.md)"</f>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" ) | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" ) | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)</v>
       </c>
       <c r="L53" s="1" t="str">
         <f>LEFT(K53,LN_es_mx-1+G53) &amp; REPT(" ",ML_es_mx-G53) &amp; MID(K53,LN_es_mx+G53,200)&amp;REPT(" ",ML_es_mx-G53+1) &amp;"|"</f>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )          | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)          |</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>0</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )      | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)      |</v>
+      </c>
+      <c r="M53" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C54" t="str">
         <f>B54</f>
-        <v>MRP</v>
+        <v>Maintenance</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="E54" t="str">
         <f>D54</f>
-        <v>MRP</v>
+        <v>Mantenimiento</v>
       </c>
       <c r="F54">
         <f>LEN(B54)</f>
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G54">
         <f>LEN(D54)</f>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H54" s="1" t="str">
         <f>"| [![" &amp; $A54 &amp; "](/doc/img/app/sml/" &amp; $A54 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A54 &amp; "/en-uk-o13-ee-" &amp; $A54 &amp; "-guides.md ""Goto " &amp; B54 &amp; " guides \[" &amp; $A54 &amp; "]"" ) | [" &amp; B54 &amp; "](/en-uk/o13/ee/"&amp;$A54&amp;"/en-uk-o13-ee-" &amp; $A54 &amp; "-guides.md)"</f>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" ) | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" ) | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)</v>
       </c>
       <c r="I54" s="1" t="str">
         <f>LEFT(H54,LN_en_uk+F54-1) &amp; REPT(" ",ML_en_uk-F54) &amp; MID(H54,LN_en_uk+F54,200)&amp;REPT(" ",ML_en_uk-F54+1) &amp;"|"</f>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" )                | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)                |</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>0</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" )        | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)        |</v>
+      </c>
+      <c r="J54" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K54" s="1" t="str">
         <f>"| [![" &amp; $A54 &amp; "](/doc/img/app/sml/" &amp; $A54 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A54 &amp; "/es-mx-o13-ee-" &amp; $A54 &amp; "-guides.md ""Ver a las guías de " &amp; D54 &amp; " \[" &amp; $A54 &amp; "]"" ) | [" &amp; D54 &amp; "](/es-mx/o13/ee/"&amp;$A54&amp;"/es-mx-o13-ee-" &amp; $A54 &amp; "-guides.md)"</f>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" ) | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" ) | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)</v>
       </c>
       <c r="L54" s="1" t="str">
         <f>LEFT(K54,LN_es_mx-1+G54) &amp; REPT(" ",ML_es_mx-G54) &amp; MID(K54,LN_es_mx+G54,200)&amp;REPT(" ",ML_es_mx-G54+1) &amp;"|"</f>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )              | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)              |</v>
-      </c>
-      <c r="M54" s="4" t="s">
-        <v>0</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )    | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)    |</v>
+      </c>
+      <c r="M54" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="C55" t="str">
         <f>B55</f>
-        <v>MRP Maintenance</v>
-      </c>
-      <c r="D55" t="s">
-        <v>252</v>
+        <v>Marketing Auto</v>
+      </c>
+      <c r="D55" t="str">
+        <f>C55</f>
+        <v>Marketing Auto</v>
       </c>
       <c r="E55" t="str">
         <f>D55</f>
-        <v>MRP Mantto</v>
+        <v>Marketing Auto</v>
       </c>
       <c r="F55">
         <f>LEN(B55)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55">
         <f>LEN(D55)</f>
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H55" s="1" t="str">
         <f>"| [![" &amp; $A55 &amp; "](/doc/img/app/sml/" &amp; $A55 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A55 &amp; "/en-uk-o13-ee-" &amp; $A55 &amp; "-guides.md ""Goto " &amp; B55 &amp; " guides \[" &amp; $A55 &amp; "]"" ) | [" &amp; B55 &amp; "](/en-uk/o13/ee/"&amp;$A55&amp;"/en-uk-o13-ee-" &amp; $A55 &amp; "-guides.md)"</f>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" ) | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" ) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)</v>
       </c>
       <c r="I55" s="1" t="str">
         <f>LEFT(H55,LN_en_uk+F55-1) &amp; REPT(" ",ML_en_uk-F55) &amp; MID(H55,LN_en_uk+F55,200)&amp;REPT(" ",ML_en_uk-F55+1) &amp;"|"</f>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" )    | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)    |</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>0</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" )     | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)     |</v>
+      </c>
+      <c r="J55" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K55" s="1" t="str">
         <f>"| [![" &amp; $A55 &amp; "](/doc/img/app/sml/" &amp; $A55 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A55 &amp; "/es-mx-o13-ee-" &amp; $A55 &amp; "-guides.md ""Ver a las guías de " &amp; D55 &amp; " \[" &amp; $A55 &amp; "]"" ) | [" &amp; D55 &amp; "](/es-mx/o13/ee/"&amp;$A55&amp;"/es-mx-o13-ee-" &amp; $A55 &amp; "-guides.md)"</f>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" ) | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" ) | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)</v>
       </c>
       <c r="L55" s="1" t="str">
         <f>LEFT(K55,LN_es_mx-1+G55) &amp; REPT(" ",ML_es_mx-G55) &amp; MID(K55,LN_es_mx+G55,200)&amp;REPT(" ",ML_es_mx-G55+1) &amp;"|"</f>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )       | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)       |</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>0</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )   | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)   |</v>
+      </c>
+      <c r="M55" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C56" t="str">
         <f>B56</f>
-        <v>Note</v>
+        <v>Membership</v>
       </c>
       <c r="D56" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E56" t="str">
         <f>D56</f>
-        <v>Notas</v>
+        <v>Membresías</v>
       </c>
       <c r="F56">
         <f>LEN(B56)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G56">
         <f>LEN(D56)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H56" s="1" t="str">
         <f>"| [![" &amp; $A56 &amp; "](/doc/img/app/sml/" &amp; $A56 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A56 &amp; "/en-uk-o13-ee-" &amp; $A56 &amp; "-guides.md ""Goto " &amp; B56 &amp; " guides \[" &amp; $A56 &amp; "]"" ) | [" &amp; B56 &amp; "](/en-uk/o13/ee/"&amp;$A56&amp;"/en-uk-o13-ee-" &amp; $A56 &amp; "-guides.md)"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" ) | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" ) | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)</v>
       </c>
       <c r="I56" s="1" t="str">
         <f>LEFT(H56,LN_en_uk+F56-1) &amp; REPT(" ",ML_en_uk-F56) &amp; MID(H56,LN_en_uk+F56,200)&amp;REPT(" ",ML_en_uk-F56+1) &amp;"|"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" )               | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)               |</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>0</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" )         | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)         |</v>
+      </c>
+      <c r="J56" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K56" s="1" t="str">
         <f>"| [![" &amp; $A56 &amp; "](/doc/img/app/sml/" &amp; $A56 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A56 &amp; "/es-mx-o13-ee-" &amp; $A56 &amp; "-guides.md ""Ver a las guías de " &amp; D56 &amp; " \[" &amp; $A56 &amp; "]"" ) | [" &amp; D56 &amp; "](/es-mx/o13/ee/"&amp;$A56&amp;"/es-mx-o13-ee-" &amp; $A56 &amp; "-guides.md)"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" ) | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" ) | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)</v>
       </c>
       <c r="L56" s="1" t="str">
         <f>LEFT(K56,LN_es_mx-1+G56) &amp; REPT(" ",ML_es_mx-G56) &amp; MID(K56,LN_es_mx+G56,200)&amp;REPT(" ",ML_es_mx-G56+1) &amp;"|"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )            | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)            |</v>
-      </c>
-      <c r="M56" s="4" t="s">
-        <v>0</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )       | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)       |</v>
+      </c>
+      <c r="M56" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="B57" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="C57" t="str">
         <f>B57</f>
-        <v>Payment</v>
+        <v>Helpdesk</v>
       </c>
       <c r="D57" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E57" t="str">
         <f>D57</f>
-        <v>Pagos</v>
+        <v>Mesa de Ayuda</v>
       </c>
       <c r="F57">
         <f>LEN(B57)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G57">
         <f>LEN(D57)</f>
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H57" s="1" t="str">
         <f>"| [![" &amp; $A57 &amp; "](/doc/img/app/sml/" &amp; $A57 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A57 &amp; "/en-uk-o13-ee-" &amp; $A57 &amp; "-guides.md ""Goto " &amp; B57 &amp; " guides \[" &amp; $A57 &amp; "]"" ) | [" &amp; B57 &amp; "](/en-uk/o13/ee/"&amp;$A57&amp;"/en-uk-o13-ee-" &amp; $A57 &amp; "-guides.md)"</f>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" ) | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" ) | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)</v>
       </c>
       <c r="I57" s="1" t="str">
         <f>LEFT(H57,LN_en_uk+F57-1) &amp; REPT(" ",ML_en_uk-F57) &amp; MID(H57,LN_en_uk+F57,200)&amp;REPT(" ",ML_en_uk-F57+1) &amp;"|"</f>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" )            | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)            |</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>0</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" )           | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)           |</v>
+      </c>
+      <c r="J57" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K57" s="1" t="str">
         <f>"| [![" &amp; $A57 &amp; "](/doc/img/app/sml/" &amp; $A57 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A57 &amp; "/es-mx-o13-ee-" &amp; $A57 &amp; "-guides.md ""Ver a las guías de " &amp; D57 &amp; " \[" &amp; $A57 &amp; "]"" ) | [" &amp; D57 &amp; "](/es-mx/o13/ee/"&amp;$A57&amp;"/es-mx-o13-ee-" &amp; $A57 &amp; "-guides.md)"</f>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" ) | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" ) | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)</v>
       </c>
       <c r="L57" s="1" t="str">
         <f>LEFT(K57,LN_es_mx-1+G57) &amp; REPT(" ",ML_es_mx-G57) &amp; MID(K57,LN_es_mx+G57,200)&amp;REPT(" ",ML_es_mx-G57+1) &amp;"|"</f>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )            | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)            |</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>0</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )    | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)    |</v>
+      </c>
+      <c r="M57" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="C58" t="str">
         <f>B58</f>
-        <v>Payroll</v>
+        <v>Modules</v>
       </c>
       <c r="D58" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E58" t="str">
         <f>D58</f>
-        <v>Nómina</v>
+        <v>Módulos</v>
       </c>
       <c r="F58">
         <f>LEN(B58)</f>
@@ -4019,48 +4171,50 @@
       </c>
       <c r="G58">
         <f>LEN(D58)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H58" s="1" t="str">
         <f>"| [![" &amp; $A58 &amp; "](/doc/img/app/sml/" &amp; $A58 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A58 &amp; "/en-uk-o13-ee-" &amp; $A58 &amp; "-guides.md ""Goto " &amp; B58 &amp; " guides \[" &amp; $A58 &amp; "]"" ) | [" &amp; B58 &amp; "](/en-uk/o13/ee/"&amp;$A58&amp;"/en-uk-o13-ee-" &amp; $A58 &amp; "-guides.md)"</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" ) | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" ) | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)</v>
       </c>
       <c r="I58" s="1" t="str">
         <f>LEFT(H58,LN_en_uk+F58-1) &amp; REPT(" ",ML_en_uk-F58) &amp; MID(H58,LN_en_uk+F58,200)&amp;REPT(" ",ML_en_uk-F58+1) &amp;"|"</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" )            | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)            |</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>0</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" )            | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)            |</v>
+      </c>
+      <c r="J58" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K58" s="1" t="str">
         <f>"| [![" &amp; $A58 &amp; "](/doc/img/app/sml/" &amp; $A58 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A58 &amp; "/es-mx-o13-ee-" &amp; $A58 &amp; "-guides.md ""Ver a las guías de " &amp; D58 &amp; " \[" &amp; $A58 &amp; "]"" ) | [" &amp; D58 &amp; "](/es-mx/o13/ee/"&amp;$A58&amp;"/es-mx-o13-ee-" &amp; $A58 &amp; "-guides.md)"</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" ) | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" ) | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)</v>
       </c>
       <c r="L58" s="1" t="str">
         <f>LEFT(K58,LN_es_mx-1+G58) &amp; REPT(" ",ML_es_mx-G58) &amp; MID(K58,LN_es_mx+G58,200)&amp;REPT(" ",ML_es_mx-G58+1) &amp;"|"</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)           |</v>
-      </c>
-      <c r="M58" s="4" t="s">
-        <v>0</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )          | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)          |</v>
+      </c>
+      <c r="M58" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C59" t="str">
         <f>B59</f>
-        <v>PLM</v>
+        <v>MRP</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E59" t="str">
         <f>D59</f>
-        <v>PLM</v>
+        <v>MRP</v>
       </c>
       <c r="F59">
         <f>LEN(B59)</f>
@@ -4072,391 +4226,407 @@
       </c>
       <c r="H59" s="1" t="str">
         <f>"| [![" &amp; $A59 &amp; "](/doc/img/app/sml/" &amp; $A59 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A59 &amp; "/en-uk-o13-ee-" &amp; $A59 &amp; "-guides.md ""Goto " &amp; B59 &amp; " guides \[" &amp; $A59 &amp; "]"" ) | [" &amp; B59 &amp; "](/en-uk/o13/ee/"&amp;$A59&amp;"/en-uk-o13-ee-" &amp; $A59 &amp; "-guides.md)"</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" ) | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" ) | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)</v>
       </c>
       <c r="I59" s="1" t="str">
         <f>LEFT(H59,LN_en_uk+F59-1) &amp; REPT(" ",ML_en_uk-F59) &amp; MID(H59,LN_en_uk+F59,200)&amp;REPT(" ",ML_en_uk-F59+1) &amp;"|"</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" )                | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)                |</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>0</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" )                | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)                |</v>
+      </c>
+      <c r="J59" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K59" s="1" t="str">
         <f>"| [![" &amp; $A59 &amp; "](/doc/img/app/sml/" &amp; $A59 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A59 &amp; "/es-mx-o13-ee-" &amp; $A59 &amp; "-guides.md ""Ver a las guías de " &amp; D59 &amp; " \[" &amp; $A59 &amp; "]"" ) | [" &amp; D59 &amp; "](/es-mx/o13/ee/"&amp;$A59&amp;"/es-mx-o13-ee-" &amp; $A59 &amp; "-guides.md)"</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" ) | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" ) | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)</v>
       </c>
       <c r="L59" s="1" t="str">
         <f>LEFT(K59,LN_es_mx-1+G59) &amp; REPT(" ",ML_es_mx-G59) &amp; MID(K59,LN_es_mx+G59,200)&amp;REPT(" ",ML_es_mx-G59+1) &amp;"|"</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )              | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)              |</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>0</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )              | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)              |</v>
+      </c>
+      <c r="M59" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B60" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="C60" t="str">
         <f>B60</f>
-        <v>Point of Sale</v>
+        <v>MRP Maintenance</v>
       </c>
       <c r="D60" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E60" t="str">
         <f>D60</f>
-        <v>Punto de Venta</v>
+        <v>MRP Mantto</v>
       </c>
       <c r="F60">
         <f>LEN(B60)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G60">
         <f>LEN(D60)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H60" s="1" t="str">
         <f>"| [![" &amp; $A60 &amp; "](/doc/img/app/sml/" &amp; $A60 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A60 &amp; "/en-uk-o13-ee-" &amp; $A60 &amp; "-guides.md ""Goto " &amp; B60 &amp; " guides \[" &amp; $A60 &amp; "]"" ) | [" &amp; B60 &amp; "](/en-uk/o13/ee/"&amp;$A60&amp;"/en-uk-o13-ee-" &amp; $A60 &amp; "-guides.md)"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" ) | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" ) | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)</v>
       </c>
       <c r="I60" s="1" t="str">
         <f>LEFT(H60,LN_en_uk+F60-1) &amp; REPT(" ",ML_en_uk-F60) &amp; MID(H60,LN_en_uk+F60,200)&amp;REPT(" ",ML_en_uk-F60+1) &amp;"|"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" )      | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)      |</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>0</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" )    | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)    |</v>
+      </c>
+      <c r="J60" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K60" s="1" t="str">
         <f>"| [![" &amp; $A60 &amp; "](/doc/img/app/sml/" &amp; $A60 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A60 &amp; "/es-mx-o13-ee-" &amp; $A60 &amp; "-guides.md ""Ver a las guías de " &amp; D60 &amp; " \[" &amp; $A60 &amp; "]"" ) | [" &amp; D60 &amp; "](/es-mx/o13/ee/"&amp;$A60&amp;"/es-mx-o13-ee-" &amp; $A60 &amp; "-guides.md)"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" ) | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" ) | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)</v>
       </c>
       <c r="L60" s="1" t="str">
         <f>LEFT(K60,LN_es_mx-1+G60) &amp; REPT(" ",ML_es_mx-G60) &amp; MID(K60,LN_es_mx+G60,200)&amp;REPT(" ",ML_es_mx-G60+1) &amp;"|"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )   | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)   |</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>0</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )       | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)       |</v>
+      </c>
+      <c r="M60" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C61" t="str">
         <f>B61</f>
-        <v>Presence</v>
+        <v>Payroll</v>
       </c>
       <c r="D61" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E61" t="str">
         <f>D61</f>
-        <v>Presencia</v>
+        <v>Nómina</v>
       </c>
       <c r="F61">
         <f>LEN(B61)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61">
         <f>LEN(D61)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H61" s="1" t="str">
         <f>"| [![" &amp; $A61 &amp; "](/doc/img/app/sml/" &amp; $A61 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A61 &amp; "/en-uk-o13-ee-" &amp; $A61 &amp; "-guides.md ""Goto " &amp; B61 &amp; " guides \[" &amp; $A61 &amp; "]"" ) | [" &amp; B61 &amp; "](/en-uk/o13/ee/"&amp;$A61&amp;"/en-uk-o13-ee-" &amp; $A61 &amp; "-guides.md)"</f>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" ) | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" ) | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)</v>
       </c>
       <c r="I61" s="1" t="str">
         <f>LEFT(H61,LN_en_uk+F61-1) &amp; REPT(" ",ML_en_uk-F61) &amp; MID(H61,LN_en_uk+F61,200)&amp;REPT(" ",ML_en_uk-F61+1) &amp;"|"</f>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" )           | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)           |</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>0</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" )            | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)            |</v>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K61" s="1" t="str">
         <f>"| [![" &amp; $A61 &amp; "](/doc/img/app/sml/" &amp; $A61 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A61 &amp; "/es-mx-o13-ee-" &amp; $A61 &amp; "-guides.md ""Ver a las guías de " &amp; D61 &amp; " \[" &amp; $A61 &amp; "]"" ) | [" &amp; D61 &amp; "](/es-mx/o13/ee/"&amp;$A61&amp;"/es-mx-o13-ee-" &amp; $A61 &amp; "-guides.md)"</f>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" ) | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" ) | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)</v>
       </c>
       <c r="L61" s="1" t="str">
         <f>LEFT(K61,LN_es_mx-1+G61) &amp; REPT(" ",ML_es_mx-G61) &amp; MID(K61,LN_es_mx+G61,200)&amp;REPT(" ",ML_es_mx-G61+1) &amp;"|"</f>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )        | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)        |</v>
-      </c>
-      <c r="M61" s="4" t="s">
-        <v>0</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)           |</v>
+      </c>
+      <c r="M61" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C62" t="str">
         <f>B62</f>
-        <v>Project Forecast</v>
+        <v>Note</v>
       </c>
       <c r="D62" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E62" t="str">
         <f>D62</f>
-        <v>Pronósticos</v>
+        <v>Notas</v>
       </c>
       <c r="F62">
         <f>LEN(B62)</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G62">
         <f>LEN(D62)</f>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H62" s="1" t="str">
         <f>"| [![" &amp; $A62 &amp; "](/doc/img/app/sml/" &amp; $A62 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A62 &amp; "/en-uk-o13-ee-" &amp; $A62 &amp; "-guides.md ""Goto " &amp; B62 &amp; " guides \[" &amp; $A62 &amp; "]"" ) | [" &amp; B62 &amp; "](/en-uk/o13/ee/"&amp;$A62&amp;"/en-uk-o13-ee-" &amp; $A62 &amp; "-guides.md)"</f>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" ) | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" ) | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)</v>
       </c>
       <c r="I62" s="1" t="str">
         <f>LEFT(H62,LN_en_uk+F62-1) &amp; REPT(" ",ML_en_uk-F62) &amp; MID(H62,LN_en_uk+F62,200)&amp;REPT(" ",ML_en_uk-F62+1) &amp;"|"</f>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" )   | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)   |</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>0</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" )               | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)               |</v>
+      </c>
+      <c r="J62" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K62" s="1" t="str">
         <f>"| [![" &amp; $A62 &amp; "](/doc/img/app/sml/" &amp; $A62 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A62 &amp; "/es-mx-o13-ee-" &amp; $A62 &amp; "-guides.md ""Ver a las guías de " &amp; D62 &amp; " \[" &amp; $A62 &amp; "]"" ) | [" &amp; D62 &amp; "](/es-mx/o13/ee/"&amp;$A62&amp;"/es-mx-o13-ee-" &amp; $A62 &amp; "-guides.md)"</f>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" ) | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" ) | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)</v>
       </c>
       <c r="L62" s="1" t="str">
         <f>LEFT(K62,LN_es_mx-1+G62) &amp; REPT(" ",ML_es_mx-G62) &amp; MID(K62,LN_es_mx+G62,200)&amp;REPT(" ",ML_es_mx-G62+1) &amp;"|"</f>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )      | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)      |</v>
-      </c>
-      <c r="M62" s="4" t="s">
-        <v>0</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )            | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)            |</v>
+      </c>
+      <c r="M62" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="C63" t="str">
         <f>B63</f>
-        <v>Projects</v>
+        <v>Payment</v>
       </c>
       <c r="D63" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E63" t="str">
         <f>D63</f>
-        <v>Proyectos</v>
+        <v>Pagos</v>
       </c>
       <c r="F63">
         <f>LEN(B63)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G63">
         <f>LEN(D63)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H63" s="1" t="str">
         <f>"| [![" &amp; $A63 &amp; "](/doc/img/app/sml/" &amp; $A63 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A63 &amp; "/en-uk-o13-ee-" &amp; $A63 &amp; "-guides.md ""Goto " &amp; B63 &amp; " guides \[" &amp; $A63 &amp; "]"" ) | [" &amp; B63 &amp; "](/en-uk/o13/ee/"&amp;$A63&amp;"/en-uk-o13-ee-" &amp; $A63 &amp; "-guides.md)"</f>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" ) | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" ) | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)</v>
       </c>
       <c r="I63" s="1" t="str">
         <f>LEFT(H63,LN_en_uk+F63-1) &amp; REPT(" ",ML_en_uk-F63) &amp; MID(H63,LN_en_uk+F63,200)&amp;REPT(" ",ML_en_uk-F63+1) &amp;"|"</f>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" )           | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)           |</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>0</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" )            | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)            |</v>
+      </c>
+      <c r="J63" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K63" s="1" t="str">
         <f>"| [![" &amp; $A63 &amp; "](/doc/img/app/sml/" &amp; $A63 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A63 &amp; "/es-mx-o13-ee-" &amp; $A63 &amp; "-guides.md ""Ver a las guías de " &amp; D63 &amp; " \[" &amp; $A63 &amp; "]"" ) | [" &amp; D63 &amp; "](/es-mx/o13/ee/"&amp;$A63&amp;"/es-mx-o13-ee-" &amp; $A63 &amp; "-guides.md)"</f>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" ) | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" ) | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)</v>
       </c>
       <c r="L63" s="1" t="str">
         <f>LEFT(K63,LN_es_mx-1+G63) &amp; REPT(" ",ML_es_mx-G63) &amp; MID(K63,LN_es_mx+G63,200)&amp;REPT(" ",ML_es_mx-G63+1) &amp;"|"</f>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )        | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)        |</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>0</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )            | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)            |</v>
+      </c>
+      <c r="M63" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="C64" t="str">
         <f>B64</f>
-        <v>Purchasing</v>
+        <v>Time Off</v>
       </c>
       <c r="D64" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="E64" t="str">
         <f>D64</f>
-        <v>Compras</v>
+        <v>Permisos</v>
       </c>
       <c r="F64">
         <f>LEN(B64)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G64">
         <f>LEN(D64)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H64" s="1" t="str">
         <f>"| [![" &amp; $A64 &amp; "](/doc/img/app/sml/" &amp; $A64 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A64 &amp; "/en-uk-o13-ee-" &amp; $A64 &amp; "-guides.md ""Goto " &amp; B64 &amp; " guides \[" &amp; $A64 &amp; "]"" ) | [" &amp; B64 &amp; "](/en-uk/o13/ee/"&amp;$A64&amp;"/en-uk-o13-ee-" &amp; $A64 &amp; "-guides.md)"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" ) | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)</v>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" ) | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)</v>
       </c>
       <c r="I64" s="1" t="str">
         <f>LEFT(H64,LN_en_uk+F64-1) &amp; REPT(" ",ML_en_uk-F64) &amp; MID(H64,LN_en_uk+F64,200)&amp;REPT(" ",ML_en_uk-F64+1) &amp;"|"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" )         | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)         |</v>
-      </c>
-      <c r="J64" s="3" t="s">
-        <v>0</v>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" )           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)           |</v>
+      </c>
+      <c r="J64" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K64" s="1" t="str">
         <f>"| [![" &amp; $A64 &amp; "](/doc/img/app/sml/" &amp; $A64 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A64 &amp; "/es-mx-o13-ee-" &amp; $A64 &amp; "-guides.md ""Ver a las guías de " &amp; D64 &amp; " \[" &amp; $A64 &amp; "]"" ) | [" &amp; D64 &amp; "](/es-mx/o13/ee/"&amp;$A64&amp;"/es-mx-o13-ee-" &amp; $A64 &amp; "-guides.md)"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" ) | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)</v>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" ) | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)</v>
       </c>
       <c r="L64" s="1" t="str">
         <f>LEFT(K64,LN_es_mx-1+G64) &amp; REPT(" ",ML_es_mx-G64) &amp; MID(K64,LN_es_mx+G64,200)&amp;REPT(" ",ML_es_mx-G64+1) &amp;"|"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )          | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)          |</v>
-      </c>
-      <c r="M64" s="4" t="s">
-        <v>0</v>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )         | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)         |</v>
+      </c>
+      <c r="M64" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="C65" t="str">
         <f>B65</f>
-        <v>Quality Control</v>
+        <v>PLM</v>
       </c>
       <c r="D65" t="s">
-        <v>302</v>
+        <v>135</v>
       </c>
       <c r="E65" t="str">
         <f>D65</f>
-        <v>Ctrl de Calidad</v>
+        <v>PLM</v>
       </c>
       <c r="F65">
         <f>LEN(B65)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G65">
         <f>LEN(D65)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="H65" s="1" t="str">
         <f>"| [![" &amp; $A65 &amp; "](/doc/img/app/sml/" &amp; $A65 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A65 &amp; "/en-uk-o13-ee-" &amp; $A65 &amp; "-guides.md ""Goto " &amp; B65 &amp; " guides \[" &amp; $A65 &amp; "]"" ) | [" &amp; B65 &amp; "](/en-uk/o13/ee/"&amp;$A65&amp;"/en-uk-o13-ee-" &amp; $A65 &amp; "-guides.md)"</f>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" ) | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" ) | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)</v>
       </c>
       <c r="I65" s="1" t="str">
         <f>LEFT(H65,LN_en_uk+F65-1) &amp; REPT(" ",ML_en_uk-F65) &amp; MID(H65,LN_en_uk+F65,200)&amp;REPT(" ",ML_en_uk-F65+1) &amp;"|"</f>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" )    | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)    |</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>0</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" )                | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)                |</v>
+      </c>
+      <c r="J65" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K65" s="1" t="str">
         <f>"| [![" &amp; $A65 &amp; "](/doc/img/app/sml/" &amp; $A65 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A65 &amp; "/es-mx-o13-ee-" &amp; $A65 &amp; "-guides.md ""Ver a las guías de " &amp; D65 &amp; " \[" &amp; $A65 &amp; "]"" ) | [" &amp; D65 &amp; "](/es-mx/o13/ee/"&amp;$A65&amp;"/es-mx-o13-ee-" &amp; $A65 &amp; "-guides.md)"</f>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" ) | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" ) | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)</v>
       </c>
       <c r="L65" s="1" t="str">
         <f>LEFT(K65,LN_es_mx-1+G65) &amp; REPT(" ",ML_es_mx-G65) &amp; MID(K65,LN_es_mx+G65,200)&amp;REPT(" ",ML_es_mx-G65+1) &amp;"|"</f>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" )  | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)  |</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>0</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )              | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)              |</v>
+      </c>
+      <c r="M65" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C66" t="str">
         <f>B66</f>
-        <v>Recruitment</v>
+        <v>Presence</v>
       </c>
       <c r="D66" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E66" t="str">
         <f>D66</f>
-        <v>Reclutamiento</v>
+        <v>Presencia</v>
       </c>
       <c r="F66">
         <f>LEN(B66)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G66">
         <f>LEN(D66)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H66" s="1" t="str">
         <f>"| [![" &amp; $A66 &amp; "](/doc/img/app/sml/" &amp; $A66 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A66 &amp; "/en-uk-o13-ee-" &amp; $A66 &amp; "-guides.md ""Goto " &amp; B66 &amp; " guides \[" &amp; $A66 &amp; "]"" ) | [" &amp; B66 &amp; "](/en-uk/o13/ee/"&amp;$A66&amp;"/en-uk-o13-ee-" &amp; $A66 &amp; "-guides.md)"</f>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" ) | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" ) | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)</v>
       </c>
       <c r="I66" s="1" t="str">
         <f>LEFT(H66,LN_en_uk+F66-1) &amp; REPT(" ",ML_en_uk-F66) &amp; MID(H66,LN_en_uk+F66,200)&amp;REPT(" ",ML_en_uk-F66+1) &amp;"|"</f>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" )        | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)        |</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>0</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" )           | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)           |</v>
+      </c>
+      <c r="J66" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K66" s="1" t="str">
         <f>"| [![" &amp; $A66 &amp; "](/doc/img/app/sml/" &amp; $A66 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A66 &amp; "/es-mx-o13-ee-" &amp; $A66 &amp; "-guides.md ""Ver a las guías de " &amp; D66 &amp; " \[" &amp; $A66 &amp; "]"" ) | [" &amp; D66 &amp; "](/es-mx/o13/ee/"&amp;$A66&amp;"/es-mx-o13-ee-" &amp; $A66 &amp; "-guides.md)"</f>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" ) | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" ) | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)</v>
       </c>
       <c r="L66" s="1" t="str">
         <f>LEFT(K66,LN_es_mx-1+G66) &amp; REPT(" ",ML_es_mx-G66) &amp; MID(K66,LN_es_mx+G66,200)&amp;REPT(" ",ML_es_mx-G66+1) &amp;"|"</f>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )    | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)    |</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>0</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )        | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)        |</v>
+      </c>
+      <c r="M66" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>308</v>
+        <v>172</v>
       </c>
       <c r="C67" t="str">
         <f>B67</f>
-        <v>Referrals</v>
+        <v>Project Forecast</v>
       </c>
       <c r="D67" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="E67" t="str">
         <f>D67</f>
-        <v>Referencias</v>
+        <v>Pronósticos</v>
       </c>
       <c r="F67">
         <f>LEN(B67)</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G67">
         <f>LEN(D67)</f>
@@ -4464,418 +4634,436 @@
       </c>
       <c r="H67" s="1" t="str">
         <f>"| [![" &amp; $A67 &amp; "](/doc/img/app/sml/" &amp; $A67 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A67 &amp; "/en-uk-o13-ee-" &amp; $A67 &amp; "-guides.md ""Goto " &amp; B67 &amp; " guides \[" &amp; $A67 &amp; "]"" ) | [" &amp; B67 &amp; "](/en-uk/o13/ee/"&amp;$A67&amp;"/en-uk-o13-ee-" &amp; $A67 &amp; "-guides.md)"</f>
-        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" ) | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" ) | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)</v>
       </c>
       <c r="I67" s="1" t="str">
         <f>LEFT(H67,LN_en_uk+F67-1) &amp; REPT(" ",ML_en_uk-F67) &amp; MID(H67,LN_en_uk+F67,200)&amp;REPT(" ",ML_en_uk-F67+1) &amp;"|"</f>
-        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" )          | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)          |</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>0</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" )   | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)   |</v>
+      </c>
+      <c r="J67" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K67" s="1" t="str">
         <f>"| [![" &amp; $A67 &amp; "](/doc/img/app/sml/" &amp; $A67 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A67 &amp; "/es-mx-o13-ee-" &amp; $A67 &amp; "-guides.md ""Ver a las guías de " &amp; D67 &amp; " \[" &amp; $A67 &amp; "]"" ) | [" &amp; D67 &amp; "](/es-mx/o13/ee/"&amp;$A67&amp;"/es-mx-o13-ee-" &amp; $A67 &amp; "-guides.md)"</f>
-        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" ) | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" ) | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)</v>
       </c>
       <c r="L67" s="1" t="str">
         <f>LEFT(K67,LN_es_mx-1+G67) &amp; REPT(" ",ML_es_mx-G67) &amp; MID(K67,LN_es_mx+G67,200)&amp;REPT(" ",ML_es_mx-G67+1) &amp;"|"</f>
-        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" )      | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)      |</v>
-      </c>
-      <c r="M67" s="4" t="s">
-        <v>0</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )      | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)      |</v>
+      </c>
+      <c r="M67" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B68" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" t="str">
         <f>B68</f>
-        <v>Rental</v>
+        <v>Projects</v>
       </c>
       <c r="D68" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E68" t="str">
         <f>D68</f>
-        <v>Rentas</v>
+        <v>Proyectos</v>
       </c>
       <c r="F68">
         <f>LEN(B68)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G68">
         <f>LEN(D68)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H68" s="1" t="str">
         <f>"| [![" &amp; $A68 &amp; "](/doc/img/app/sml/" &amp; $A68 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A68 &amp; "/en-uk-o13-ee-" &amp; $A68 &amp; "-guides.md ""Goto " &amp; B68 &amp; " guides \[" &amp; $A68 &amp; "]"" ) | [" &amp; B68 &amp; "](/en-uk/o13/ee/"&amp;$A68&amp;"/en-uk-o13-ee-" &amp; $A68 &amp; "-guides.md)"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" ) | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" ) | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)</v>
       </c>
       <c r="I68" s="1" t="str">
         <f>LEFT(H68,LN_en_uk+F68-1) &amp; REPT(" ",ML_en_uk-F68) &amp; MID(H68,LN_en_uk+F68,200)&amp;REPT(" ",ML_en_uk-F68+1) &amp;"|"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" )             | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)             |</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>0</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" )           | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)           |</v>
+      </c>
+      <c r="J68" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K68" s="1" t="str">
         <f>"| [![" &amp; $A68 &amp; "](/doc/img/app/sml/" &amp; $A68 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A68 &amp; "/es-mx-o13-ee-" &amp; $A68 &amp; "-guides.md ""Ver a las guías de " &amp; D68 &amp; " \[" &amp; $A68 &amp; "]"" ) | [" &amp; D68 &amp; "](/es-mx/o13/ee/"&amp;$A68&amp;"/es-mx-o13-ee-" &amp; $A68 &amp; "-guides.md)"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" ) | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" ) | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)</v>
       </c>
       <c r="L68" s="1" t="str">
         <f>LEFT(K68,LN_es_mx-1+G68) &amp; REPT(" ",ML_es_mx-G68) &amp; MID(K68,LN_es_mx+G68,200)&amp;REPT(" ",ML_es_mx-G68+1) &amp;"|"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )           | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)           |</v>
-      </c>
-      <c r="M68" s="4" t="s">
-        <v>0</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )        | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)        |</v>
+      </c>
+      <c r="M68" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="C69" t="str">
         <f>B69</f>
-        <v>Repair</v>
+        <v>Point of Sale</v>
       </c>
       <c r="D69" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E69" t="str">
         <f>D69</f>
-        <v>Reparaciones</v>
+        <v>Punto de Venta</v>
       </c>
       <c r="F69">
         <f>LEN(B69)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G69">
         <f>LEN(D69)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H69" s="1" t="str">
         <f>"| [![" &amp; $A69 &amp; "](/doc/img/app/sml/" &amp; $A69 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A69 &amp; "/en-uk-o13-ee-" &amp; $A69 &amp; "-guides.md ""Goto " &amp; B69 &amp; " guides \[" &amp; $A69 &amp; "]"" ) | [" &amp; B69 &amp; "](/en-uk/o13/ee/"&amp;$A69&amp;"/en-uk-o13-ee-" &amp; $A69 &amp; "-guides.md)"</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" ) | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" ) | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)</v>
       </c>
       <c r="I69" s="1" t="str">
         <f>LEFT(H69,LN_en_uk+F69-1) &amp; REPT(" ",ML_en_uk-F69) &amp; MID(H69,LN_en_uk+F69,200)&amp;REPT(" ",ML_en_uk-F69+1) &amp;"|"</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" )             | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)             |</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>0</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" )      | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)      |</v>
+      </c>
+      <c r="J69" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K69" s="1" t="str">
         <f>"| [![" &amp; $A69 &amp; "](/doc/img/app/sml/" &amp; $A69 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A69 &amp; "/es-mx-o13-ee-" &amp; $A69 &amp; "-guides.md ""Ver a las guías de " &amp; D69 &amp; " \[" &amp; $A69 &amp; "]"" ) | [" &amp; D69 &amp; "](/es-mx/o13/ee/"&amp;$A69&amp;"/es-mx-o13-ee-" &amp; $A69 &amp; "-guides.md)"</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" ) | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" ) | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)</v>
       </c>
       <c r="L69" s="1" t="str">
         <f>LEFT(K69,LN_es_mx-1+G69) &amp; REPT(" ",ML_es_mx-G69) &amp; MID(K69,LN_es_mx+G69,200)&amp;REPT(" ",ML_es_mx-G69+1) &amp;"|"</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )     | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)     |</v>
-      </c>
-      <c r="M69" s="4" t="s">
-        <v>0</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )   | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)   |</v>
+      </c>
+      <c r="M69" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="C70" t="str">
         <f>B70</f>
-        <v>S€PA</v>
-      </c>
-      <c r="D70" t="str">
-        <f>C70</f>
-        <v>S€PA</v>
+        <v>Recruitment</v>
+      </c>
+      <c r="D70" t="s">
+        <v>260</v>
       </c>
       <c r="E70" t="str">
         <f>D70</f>
-        <v>S€PA</v>
+        <v>Reclutamiento</v>
       </c>
       <c r="F70">
         <f>LEN(B70)</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G70">
         <f>LEN(D70)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H70" s="1" t="str">
         <f>"| [![" &amp; $A70 &amp; "](/doc/img/app/sml/" &amp; $A70 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A70 &amp; "/en-uk-o13-ee-" &amp; $A70 &amp; "-guides.md ""Goto " &amp; B70 &amp; " guides \[" &amp; $A70 &amp; "]"" ) | [" &amp; B70 &amp; "](/en-uk/o13/ee/"&amp;$A70&amp;"/en-uk-o13-ee-" &amp; $A70 &amp; "-guides.md)"</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" ) | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" ) | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)</v>
       </c>
       <c r="I70" s="1" t="str">
         <f>LEFT(H70,LN_en_uk+F70-1) &amp; REPT(" ",ML_en_uk-F70) &amp; MID(H70,LN_en_uk+F70,200)&amp;REPT(" ",ML_en_uk-F70+1) &amp;"|"</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" )               | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)               |</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>0</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" )        | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)        |</v>
+      </c>
+      <c r="J70" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K70" s="1" t="str">
         <f>"| [![" &amp; $A70 &amp; "](/doc/img/app/sml/" &amp; $A70 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A70 &amp; "/es-mx-o13-ee-" &amp; $A70 &amp; "-guides.md ""Ver a las guías de " &amp; D70 &amp; " \[" &amp; $A70 &amp; "]"" ) | [" &amp; D70 &amp; "](/es-mx/o13/ee/"&amp;$A70&amp;"/es-mx-o13-ee-" &amp; $A70 &amp; "-guides.md)"</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" ) | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" ) | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)</v>
       </c>
       <c r="L70" s="1" t="str">
         <f>LEFT(K70,LN_es_mx-1+G70) &amp; REPT(" ",ML_es_mx-G70) &amp; MID(K70,LN_es_mx+G70,200)&amp;REPT(" ",ML_es_mx-G70+1) &amp;"|"</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )             | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)             |</v>
-      </c>
-      <c r="M70" s="4" t="s">
-        <v>0</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )    | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)    |</v>
+      </c>
+      <c r="M70" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>305</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c r="C71" t="str">
         <f>B71</f>
-        <v>Sales</v>
+        <v>Referrals</v>
       </c>
       <c r="D71" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="E71" t="str">
         <f>D71</f>
-        <v>Ventas</v>
+        <v>Referencias</v>
       </c>
       <c r="F71">
         <f>LEN(B71)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G71">
         <f>LEN(D71)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H71" s="1" t="str">
         <f>"| [![" &amp; $A71 &amp; "](/doc/img/app/sml/" &amp; $A71 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A71 &amp; "/en-uk-o13-ee-" &amp; $A71 &amp; "-guides.md ""Goto " &amp; B71 &amp; " guides \[" &amp; $A71 &amp; "]"" ) | [" &amp; B71 &amp; "](/en-uk/o13/ee/"&amp;$A71&amp;"/en-uk-o13-ee-" &amp; $A71 &amp; "-guides.md)"</f>
-        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" ) | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)</v>
+        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" ) | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)</v>
       </c>
       <c r="I71" s="1" t="str">
         <f>LEFT(H71,LN_en_uk+F71-1) &amp; REPT(" ",ML_en_uk-F71) &amp; MID(H71,LN_en_uk+F71,200)&amp;REPT(" ",ML_en_uk-F71+1) &amp;"|"</f>
-        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" )              | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)              |</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>0</v>
+        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" )          | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)          |</v>
+      </c>
+      <c r="J71" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K71" s="1" t="str">
         <f>"| [![" &amp; $A71 &amp; "](/doc/img/app/sml/" &amp; $A71 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A71 &amp; "/es-mx-o13-ee-" &amp; $A71 &amp; "-guides.md ""Ver a las guías de " &amp; D71 &amp; " \[" &amp; $A71 &amp; "]"" ) | [" &amp; D71 &amp; "](/es-mx/o13/ee/"&amp;$A71&amp;"/es-mx-o13-ee-" &amp; $A71 &amp; "-guides.md)"</f>
-        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" ) | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)</v>
+        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" ) | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)</v>
       </c>
       <c r="L71" s="1" t="str">
         <f>LEFT(K71,LN_es_mx-1+G71) &amp; REPT(" ",ML_es_mx-G71) &amp; MID(K71,LN_es_mx+G71,200)&amp;REPT(" ",ML_es_mx-G71+1) &amp;"|"</f>
-        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )           | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)           |</v>
-      </c>
-      <c r="M71" s="4" t="s">
-        <v>0</v>
+        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" )      | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)      |</v>
+      </c>
+      <c r="M71" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>306</v>
+        <v>141</v>
       </c>
       <c r="C72" t="str">
         <f>B72</f>
-        <v>Sales Management</v>
+        <v>Rental</v>
       </c>
       <c r="D72" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E72" t="str">
         <f>D72</f>
-        <v>Ventas - Control</v>
+        <v>Rentas</v>
       </c>
       <c r="F72">
         <f>LEN(B72)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G72">
         <f>LEN(D72)</f>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H72" s="1" t="str">
         <f>"| [![" &amp; $A72 &amp; "](/doc/img/app/sml/" &amp; $A72 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A72 &amp; "/en-uk-o13-ee-" &amp; $A72 &amp; "-guides.md ""Goto " &amp; B72 &amp; " guides \[" &amp; $A72 &amp; "]"" ) | [" &amp; B72 &amp; "](/en-uk/o13/ee/"&amp;$A72&amp;"/en-uk-o13-ee-" &amp; $A72 &amp; "-guides.md)"</f>
-        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" ) | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" ) | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)</v>
       </c>
       <c r="I72" s="1" t="str">
         <f>LEFT(H72,LN_en_uk+F72-1) &amp; REPT(" ",ML_en_uk-F72) &amp; MID(H72,LN_en_uk+F72,200)&amp;REPT(" ",ML_en_uk-F72+1) &amp;"|"</f>
-        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" )   | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)   |</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>0</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" )             | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)             |</v>
+      </c>
+      <c r="J72" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K72" s="1" t="str">
         <f>"| [![" &amp; $A72 &amp; "](/doc/img/app/sml/" &amp; $A72 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A72 &amp; "/es-mx-o13-ee-" &amp; $A72 &amp; "-guides.md ""Ver a las guías de " &amp; D72 &amp; " \[" &amp; $A72 &amp; "]"" ) | [" &amp; D72 &amp; "](/es-mx/o13/ee/"&amp;$A72&amp;"/es-mx-o13-ee-" &amp; $A72 &amp; "-guides.md)"</f>
-        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md)</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" ) | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)</v>
       </c>
       <c r="L72" s="1" t="str">
         <f>LEFT(K72,LN_es_mx-1+G72) &amp; REPT(" ",ML_es_mx-G72) &amp; MID(K72,LN_es_mx+G72,200)&amp;REPT(" ",ML_es_mx-G72+1) &amp;"|"</f>
-        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md) |</v>
-      </c>
-      <c r="M72" s="4" t="s">
-        <v>0</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )           | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)           |</v>
+      </c>
+      <c r="M72" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C73" t="str">
         <f>B73</f>
-        <v>Settings</v>
+        <v>Repair</v>
       </c>
       <c r="D73" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E73" t="str">
         <f>D73</f>
-        <v>Configuración</v>
+        <v>Reparaciones</v>
       </c>
       <c r="F73">
         <f>LEN(B73)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G73">
         <f>LEN(D73)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H73" s="1" t="str">
         <f>"| [![" &amp; $A73 &amp; "](/doc/img/app/sml/" &amp; $A73 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A73 &amp; "/en-uk-o13-ee-" &amp; $A73 &amp; "-guides.md ""Goto " &amp; B73 &amp; " guides \[" &amp; $A73 &amp; "]"" ) | [" &amp; B73 &amp; "](/en-uk/o13/ee/"&amp;$A73&amp;"/en-uk-o13-ee-" &amp; $A73 &amp; "-guides.md)"</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" ) | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" ) | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)</v>
       </c>
       <c r="I73" s="1" t="str">
         <f>LEFT(H73,LN_en_uk+F73-1) &amp; REPT(" ",ML_en_uk-F73) &amp; MID(H73,LN_en_uk+F73,200)&amp;REPT(" ",ML_en_uk-F73+1) &amp;"|"</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" )           | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)           |</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>0</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" )             | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)             |</v>
+      </c>
+      <c r="J73" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K73" s="1" t="str">
         <f>"| [![" &amp; $A73 &amp; "](/doc/img/app/sml/" &amp; $A73 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A73 &amp; "/es-mx-o13-ee-" &amp; $A73 &amp; "-guides.md ""Ver a las guías de " &amp; D73 &amp; " \[" &amp; $A73 &amp; "]"" ) | [" &amp; D73 &amp; "](/es-mx/o13/ee/"&amp;$A73&amp;"/es-mx-o13-ee-" &amp; $A73 &amp; "-guides.md)"</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" ) | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" ) | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)</v>
       </c>
       <c r="L73" s="1" t="str">
         <f>LEFT(K73,LN_es_mx-1+G73) &amp; REPT(" ",ML_es_mx-G73) &amp; MID(K73,LN_es_mx+G73,200)&amp;REPT(" ",ML_es_mx-G73+1) &amp;"|"</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )    | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)    |</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>0</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )     | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)     |</v>
+      </c>
+      <c r="M73" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C74" t="str">
         <f>B74</f>
-        <v>Skills</v>
-      </c>
-      <c r="D74" t="s">
-        <v>267</v>
+        <v>S€PA</v>
+      </c>
+      <c r="D74" t="str">
+        <f>C74</f>
+        <v>S€PA</v>
       </c>
       <c r="E74" t="str">
         <f>D74</f>
-        <v>Competencias</v>
+        <v>S€PA</v>
       </c>
       <c r="F74">
         <f>LEN(B74)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G74">
         <f>LEN(D74)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H74" s="1" t="str">
         <f>"| [![" &amp; $A74 &amp; "](/doc/img/app/sml/" &amp; $A74 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A74 &amp; "/en-uk-o13-ee-" &amp; $A74 &amp; "-guides.md ""Goto " &amp; B74 &amp; " guides \[" &amp; $A74 &amp; "]"" ) | [" &amp; B74 &amp; "](/en-uk/o13/ee/"&amp;$A74&amp;"/en-uk-o13-ee-" &amp; $A74 &amp; "-guides.md)"</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" ) | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" ) | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)</v>
       </c>
       <c r="I74" s="1" t="str">
         <f>LEFT(H74,LN_en_uk+F74-1) &amp; REPT(" ",ML_en_uk-F74) &amp; MID(H74,LN_en_uk+F74,200)&amp;REPT(" ",ML_en_uk-F74+1) &amp;"|"</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" )             | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)             |</v>
-      </c>
-      <c r="J74" s="3" t="s">
-        <v>0</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" )               | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)               |</v>
+      </c>
+      <c r="J74" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K74" s="1" t="str">
         <f>"| [![" &amp; $A74 &amp; "](/doc/img/app/sml/" &amp; $A74 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A74 &amp; "/es-mx-o13-ee-" &amp; $A74 &amp; "-guides.md ""Ver a las guías de " &amp; D74 &amp; " \[" &amp; $A74 &amp; "]"" ) | [" &amp; D74 &amp; "](/es-mx/o13/ee/"&amp;$A74&amp;"/es-mx-o13-ee-" &amp; $A74 &amp; "-guides.md)"</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" ) | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" ) | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)</v>
       </c>
       <c r="L74" s="1" t="str">
         <f>LEFT(K74,LN_es_mx-1+G74) &amp; REPT(" ",ML_es_mx-G74) &amp; MID(K74,LN_es_mx+G74,200)&amp;REPT(" ",ML_es_mx-G74+1) &amp;"|"</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )     | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)     |</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>0</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )             | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)             |</v>
+      </c>
+      <c r="M74" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C75" t="str">
         <f>B75</f>
-        <v>Slides</v>
+        <v>Field Service</v>
       </c>
       <c r="D75" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="E75" t="str">
         <f>D75</f>
-        <v>Diapositivas</v>
+        <v>Servicio</v>
       </c>
       <c r="F75">
         <f>LEN(B75)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G75">
         <f>LEN(D75)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H75" s="1" t="str">
         <f>"| [![" &amp; $A75 &amp; "](/doc/img/app/sml/" &amp; $A75 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A75 &amp; "/en-uk-o13-ee-" &amp; $A75 &amp; "-guides.md ""Goto " &amp; B75 &amp; " guides \[" &amp; $A75 &amp; "]"" ) | [" &amp; B75 &amp; "](/en-uk/o13/ee/"&amp;$A75&amp;"/en-uk-o13-ee-" &amp; $A75 &amp; "-guides.md)"</f>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" ) | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" ) | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)</v>
       </c>
       <c r="I75" s="1" t="str">
         <f>LEFT(H75,LN_en_uk+F75-1) &amp; REPT(" ",ML_en_uk-F75) &amp; MID(H75,LN_en_uk+F75,200)&amp;REPT(" ",ML_en_uk-F75+1) &amp;"|"</f>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" )             | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)             |</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>0</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" )      | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)      |</v>
+      </c>
+      <c r="J75" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K75" s="1" t="str">
         <f>"| [![" &amp; $A75 &amp; "](/doc/img/app/sml/" &amp; $A75 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A75 &amp; "/es-mx-o13-ee-" &amp; $A75 &amp; "-guides.md ""Ver a las guías de " &amp; D75 &amp; " \[" &amp; $A75 &amp; "]"" ) | [" &amp; D75 &amp; "](/es-mx/o13/ee/"&amp;$A75&amp;"/es-mx-o13-ee-" &amp; $A75 &amp; "-guides.md)"</f>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" ) | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" ) | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)</v>
       </c>
       <c r="L75" s="1" t="str">
         <f>LEFT(K75,LN_es_mx-1+G75) &amp; REPT(" ",ML_es_mx-G75) &amp; MID(K75,LN_es_mx+G75,200)&amp;REPT(" ",ML_es_mx-G75+1) &amp;"|"</f>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )     | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)     |</v>
-      </c>
-      <c r="M75" s="4" t="s">
-        <v>0</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )         | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)         |</v>
+      </c>
+      <c r="M75" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
@@ -4890,7 +5078,7 @@
         <v>Subscriptions</v>
       </c>
       <c r="D76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E76" t="str">
         <f>D76</f>
@@ -4912,8 +5100,9 @@
         <f>LEFT(H76,LN_en_uk+F76-1) &amp; REPT(" ",ML_en_uk-F76) &amp; MID(H76,LN_en_uk+F76,200)&amp;REPT(" ",ML_en_uk-F76+1) &amp;"|"</f>
         <v>| [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" )      | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)      |</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>0</v>
+      <c r="J76" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K76" s="1" t="str">
         <f>"| [![" &amp; $A76 &amp; "](/doc/img/app/sml/" &amp; $A76 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A76 &amp; "/es-mx-o13-ee-" &amp; $A76 &amp; "-guides.md ""Ver a las guías de " &amp; D76 &amp; " \[" &amp; $A76 &amp; "]"" ) | [" &amp; D76 &amp; "](/es-mx/o13/ee/"&amp;$A76&amp;"/es-mx-o13-ee-" &amp; $A76 &amp; "-guides.md)"</f>
@@ -4923,76 +5112,79 @@
         <f>LEFT(K76,LN_es_mx-1+G76) &amp; REPT(" ",ML_es_mx-G76) &amp; MID(K76,LN_es_mx+G76,200)&amp;REPT(" ",ML_es_mx-G76+1) &amp;"|"</f>
         <v>| [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" )    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)    |</v>
       </c>
-      <c r="M76" s="4" t="s">
-        <v>0</v>
+      <c r="M76" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B77" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="C77" t="str">
         <f>B77</f>
-        <v>Surveys</v>
+        <v>Dashboards</v>
       </c>
       <c r="D77" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="E77" t="str">
         <f>D77</f>
-        <v>Encuestas</v>
+        <v>Tableros</v>
       </c>
       <c r="F77">
         <f>LEN(B77)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G77">
         <f>LEN(D77)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H77" s="1" t="str">
         <f>"| [![" &amp; $A77 &amp; "](/doc/img/app/sml/" &amp; $A77 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A77 &amp; "/en-uk-o13-ee-" &amp; $A77 &amp; "-guides.md ""Goto " &amp; B77 &amp; " guides \[" &amp; $A77 &amp; "]"" ) | [" &amp; B77 &amp; "](/en-uk/o13/ee/"&amp;$A77&amp;"/en-uk-o13-ee-" &amp; $A77 &amp; "-guides.md)"</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" ) | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" ) | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)</v>
       </c>
       <c r="I77" s="1" t="str">
         <f>LEFT(H77,LN_en_uk+F77-1) &amp; REPT(" ",ML_en_uk-F77) &amp; MID(H77,LN_en_uk+F77,200)&amp;REPT(" ",ML_en_uk-F77+1) &amp;"|"</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" )            | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)            |</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>0</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" )         | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)         |</v>
+      </c>
+      <c r="J77" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K77" s="1" t="str">
         <f>"| [![" &amp; $A77 &amp; "](/doc/img/app/sml/" &amp; $A77 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A77 &amp; "/es-mx-o13-ee-" &amp; $A77 &amp; "-guides.md ""Ver a las guías de " &amp; D77 &amp; " \[" &amp; $A77 &amp; "]"" ) | [" &amp; D77 &amp; "](/es-mx/o13/ee/"&amp;$A77&amp;"/es-mx-o13-ee-" &amp; $A77 &amp; "-guides.md)"</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" ) | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" ) | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)</v>
       </c>
       <c r="L77" s="1" t="str">
         <f>LEFT(K77,LN_es_mx-1+G77) &amp; REPT(" ",ML_es_mx-G77) &amp; MID(K77,LN_es_mx+G77,200)&amp;REPT(" ",ML_es_mx-G77+1) &amp;"|"</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )        | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)        |</v>
-      </c>
-      <c r="M77" s="4" t="s">
-        <v>0</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )         | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)         |</v>
+      </c>
+      <c r="M77" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="C78" t="str">
         <f>B78</f>
-        <v>Time Off</v>
+        <v>Holidays</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="E78" t="str">
         <f>D78</f>
-        <v>Permisos</v>
+        <v>Vacaciones</v>
       </c>
       <c r="F78">
         <f>LEN(B78)</f>
@@ -5000,146 +5192,152 @@
       </c>
       <c r="G78">
         <f>LEN(D78)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H78" s="1" t="str">
         <f>"| [![" &amp; $A78 &amp; "](/doc/img/app/sml/" &amp; $A78 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A78 &amp; "/en-uk-o13-ee-" &amp; $A78 &amp; "-guides.md ""Goto " &amp; B78 &amp; " guides \[" &amp; $A78 &amp; "]"" ) | [" &amp; B78 &amp; "](/en-uk/o13/ee/"&amp;$A78&amp;"/en-uk-o13-ee-" &amp; $A78 &amp; "-guides.md)"</f>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" ) | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" ) | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)</v>
       </c>
       <c r="I78" s="1" t="str">
         <f>LEFT(H78,LN_en_uk+F78-1) &amp; REPT(" ",ML_en_uk-F78) &amp; MID(H78,LN_en_uk+F78,200)&amp;REPT(" ",ML_en_uk-F78+1) &amp;"|"</f>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" )           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)           |</v>
-      </c>
-      <c r="J78" s="3" t="s">
-        <v>0</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" )           | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)           |</v>
+      </c>
+      <c r="J78" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K78" s="1" t="str">
         <f>"| [![" &amp; $A78 &amp; "](/doc/img/app/sml/" &amp; $A78 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A78 &amp; "/es-mx-o13-ee-" &amp; $A78 &amp; "-guides.md ""Ver a las guías de " &amp; D78 &amp; " \[" &amp; $A78 &amp; "]"" ) | [" &amp; D78 &amp; "](/es-mx/o13/ee/"&amp;$A78&amp;"/es-mx-o13-ee-" &amp; $A78 &amp; "-guides.md)"</f>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" ) | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" ) | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)</v>
       </c>
       <c r="L78" s="1" t="str">
         <f>LEFT(K78,LN_es_mx-1+G78) &amp; REPT(" ",ML_es_mx-G78) &amp; MID(K78,LN_es_mx+G78,200)&amp;REPT(" ",ML_es_mx-G78+1) &amp;"|"</f>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )         | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)         |</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>0</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )       | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)       |</v>
+      </c>
+      <c r="M78" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B79" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C79" t="str">
         <f>B79</f>
-        <v>Timesheet</v>
+        <v>Sales</v>
       </c>
       <c r="D79" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E79" t="str">
         <f>D79</f>
-        <v>Agenda Móvil</v>
+        <v>Ventas</v>
       </c>
       <c r="F79">
         <f>LEN(B79)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G79">
         <f>LEN(D79)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H79" s="1" t="str">
         <f>"| [![" &amp; $A79 &amp; "](/doc/img/app/sml/" &amp; $A79 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A79 &amp; "/en-uk-o13-ee-" &amp; $A79 &amp; "-guides.md ""Goto " &amp; B79 &amp; " guides \[" &amp; $A79 &amp; "]"" ) | [" &amp; B79 &amp; "](/en-uk/o13/ee/"&amp;$A79&amp;"/en-uk-o13-ee-" &amp; $A79 &amp; "-guides.md)"</f>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" ) | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" ) | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)</v>
       </c>
       <c r="I79" s="1" t="str">
         <f>LEFT(H79,LN_en_uk+F79-1) &amp; REPT(" ",ML_en_uk-F79) &amp; MID(H79,LN_en_uk+F79,200)&amp;REPT(" ",ML_en_uk-F79+1) &amp;"|"</f>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" )          | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)          |</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>0</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" )              | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)              |</v>
+      </c>
+      <c r="J79" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K79" s="1" t="str">
         <f>"| [![" &amp; $A79 &amp; "](/doc/img/app/sml/" &amp; $A79 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A79 &amp; "/es-mx-o13-ee-" &amp; $A79 &amp; "-guides.md ""Ver a las guías de " &amp; D79 &amp; " \[" &amp; $A79 &amp; "]"" ) | [" &amp; D79 &amp; "](/es-mx/o13/ee/"&amp;$A79&amp;"/es-mx-o13-ee-" &amp; $A79 &amp; "-guides.md)"</f>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" ) | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" ) | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)</v>
       </c>
       <c r="L79" s="1" t="str">
         <f>LEFT(K79,LN_es_mx-1+G79) &amp; REPT(" ",ML_es_mx-G79) &amp; MID(K79,LN_es_mx+G79,200)&amp;REPT(" ",ML_es_mx-G79+1) &amp;"|"</f>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )     | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)     |</v>
-      </c>
-      <c r="M79" s="4" t="s">
-        <v>0</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )           | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)           |</v>
+      </c>
+      <c r="M79" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>178</v>
+        <v>304</v>
       </c>
       <c r="C80" t="str">
         <f>B80</f>
-        <v>Voice IP</v>
+        <v>Sales Management</v>
       </c>
       <c r="D80" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E80" t="str">
         <f>D80</f>
-        <v>Voz por IP</v>
+        <v>Ventas - Control</v>
       </c>
       <c r="F80">
         <f>LEN(B80)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G80">
         <f>LEN(D80)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H80" s="1" t="str">
         <f>"| [![" &amp; $A80 &amp; "](/doc/img/app/sml/" &amp; $A80 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A80 &amp; "/en-uk-o13-ee-" &amp; $A80 &amp; "-guides.md ""Goto " &amp; B80 &amp; " guides \[" &amp; $A80 &amp; "]"" ) | [" &amp; B80 &amp; "](/en-uk/o13/ee/"&amp;$A80&amp;"/en-uk-o13-ee-" &amp; $A80 &amp; "-guides.md)"</f>
-        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" ) | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" ) | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)</v>
       </c>
       <c r="I80" s="1" t="str">
         <f>LEFT(H80,LN_en_uk+F80-1) &amp; REPT(" ",ML_en_uk-F80) &amp; MID(H80,LN_en_uk+F80,200)&amp;REPT(" ",ML_en_uk-F80+1) &amp;"|"</f>
-        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" )           | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)           |</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>0</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" )   | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)   |</v>
+      </c>
+      <c r="J80" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K80" s="1" t="str">
         <f>"| [![" &amp; $A80 &amp; "](/doc/img/app/sml/" &amp; $A80 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A80 &amp; "/es-mx-o13-ee-" &amp; $A80 &amp; "-guides.md ""Ver a las guías de " &amp; D80 &amp; " \[" &amp; $A80 &amp; "]"" ) | [" &amp; D80 &amp; "](/es-mx/o13/ee/"&amp;$A80&amp;"/es-mx-o13-ee-" &amp; $A80 &amp; "-guides.md)"</f>
-        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" ) | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md)</v>
       </c>
       <c r="L80" s="1" t="str">
         <f>LEFT(K80,LN_es_mx-1+G80) &amp; REPT(" ",ML_es_mx-G80) &amp; MID(K80,LN_es_mx+G80,200)&amp;REPT(" ",ML_es_mx-G80+1) &amp;"|"</f>
-        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" )       | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)       |</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>0</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md) |</v>
+      </c>
+      <c r="M80" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="C81" t="str">
         <f>B81</f>
-        <v>Websites</v>
+        <v>Voice IP</v>
       </c>
       <c r="D81" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E81" t="str">
         <f>D81</f>
-        <v>Web Sitios</v>
+        <v>Voz por IP</v>
       </c>
       <c r="F81">
         <f>LEN(B81)</f>
@@ -5151,142 +5349,148 @@
       </c>
       <c r="H81" s="1" t="str">
         <f>"| [![" &amp; $A81 &amp; "](/doc/img/app/sml/" &amp; $A81 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A81 &amp; "/en-uk-o13-ee-" &amp; $A81 &amp; "-guides.md ""Goto " &amp; B81 &amp; " guides \[" &amp; $A81 &amp; "]"" ) | [" &amp; B81 &amp; "](/en-uk/o13/ee/"&amp;$A81&amp;"/en-uk-o13-ee-" &amp; $A81 &amp; "-guides.md)"</f>
-        <v>| [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" ) | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)</v>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" ) | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)</v>
       </c>
       <c r="I81" s="1" t="str">
         <f>LEFT(H81,LN_en_uk+F81-1) &amp; REPT(" ",ML_en_uk-F81) &amp; MID(H81,LN_en_uk+F81,200)&amp;REPT(" ",ML_en_uk-F81+1) &amp;"|"</f>
-        <v>| [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" )           | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)           |</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>0</v>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" )           | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)           |</v>
+      </c>
+      <c r="J81" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K81" s="1" t="str">
         <f>"| [![" &amp; $A81 &amp; "](/doc/img/app/sml/" &amp; $A81 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A81 &amp; "/es-mx-o13-ee-" &amp; $A81 &amp; "-guides.md ""Ver a las guías de " &amp; D81 &amp; " \[" &amp; $A81 &amp; "]"" ) | [" &amp; D81 &amp; "](/es-mx/o13/ee/"&amp;$A81&amp;"/es-mx-o13-ee-" &amp; $A81 &amp; "-guides.md)"</f>
-        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" ) | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)</v>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" ) | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)</v>
       </c>
       <c r="L81" s="1" t="str">
         <f>LEFT(K81,LN_es_mx-1+G81) &amp; REPT(" ",ML_es_mx-G81) &amp; MID(K81,LN_es_mx+G81,200)&amp;REPT(" ",ML_es_mx-G81+1) &amp;"|"</f>
-        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" )       | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)       |</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>0</v>
+        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" )       | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)       |</v>
+      </c>
+      <c r="M81" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="B82" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C82" t="str">
         <f>B82</f>
-        <v>Ws Calendar</v>
+        <v>Websites</v>
       </c>
       <c r="D82" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E82" t="str">
         <f>D82</f>
-        <v>Ws Calendario</v>
+        <v>Web Sitios</v>
       </c>
       <c r="F82">
         <f>LEN(B82)</f>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G82">
         <f>LEN(D82)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H82" s="1" t="str">
         <f>"| [![" &amp; $A82 &amp; "](/doc/img/app/sml/" &amp; $A82 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A82 &amp; "/en-uk-o13-ee-" &amp; $A82 &amp; "-guides.md ""Goto " &amp; B82 &amp; " guides \[" &amp; $A82 &amp; "]"" ) | [" &amp; B82 &amp; "](/en-uk/o13/ee/"&amp;$A82&amp;"/en-uk-o13-ee-" &amp; $A82 &amp; "-guides.md)"</f>
-        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" ) | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)</v>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" ) | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)</v>
       </c>
       <c r="I82" s="1" t="str">
         <f>LEFT(H82,LN_en_uk+F82-1) &amp; REPT(" ",ML_en_uk-F82) &amp; MID(H82,LN_en_uk+F82,200)&amp;REPT(" ",ML_en_uk-F82+1) &amp;"|"</f>
-        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" )        | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)        |</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>0</v>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" )           | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)           |</v>
+      </c>
+      <c r="J82" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K82" s="1" t="str">
         <f>"| [![" &amp; $A82 &amp; "](/doc/img/app/sml/" &amp; $A82 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A82 &amp; "/es-mx-o13-ee-" &amp; $A82 &amp; "-guides.md ""Ver a las guías de " &amp; D82 &amp; " \[" &amp; $A82 &amp; "]"" ) | [" &amp; D82 &amp; "](/es-mx/o13/ee/"&amp;$A82&amp;"/es-mx-o13-ee-" &amp; $A82 &amp; "-guides.md)"</f>
-        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" ) | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)</v>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" ) | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)</v>
       </c>
       <c r="L82" s="1" t="str">
         <f>LEFT(K82,LN_es_mx-1+G82) &amp; REPT(" ",ML_es_mx-G82) &amp; MID(K82,LN_es_mx+G82,200)&amp;REPT(" ",ML_es_mx-G82+1) &amp;"|"</f>
-        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" )    | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)    |</v>
-      </c>
-      <c r="M82" s="4" t="s">
-        <v>0</v>
+        <v>| [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" )       | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)       |</v>
+      </c>
+      <c r="M82" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C83" t="str">
         <f>B83</f>
-        <v>Ws CRM</v>
+        <v>Ws Calendar</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="E83" t="str">
         <f>D83</f>
-        <v>Ws CRM</v>
+        <v>Ws Calendario</v>
       </c>
       <c r="F83">
         <f>LEN(B83)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G83">
         <f>LEN(D83)</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H83" s="1" t="str">
         <f>"| [![" &amp; $A83 &amp; "](/doc/img/app/sml/" &amp; $A83 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A83 &amp; "/en-uk-o13-ee-" &amp; $A83 &amp; "-guides.md ""Goto " &amp; B83 &amp; " guides \[" &amp; $A83 &amp; "]"" ) | [" &amp; B83 &amp; "](/en-uk/o13/ee/"&amp;$A83&amp;"/en-uk-o13-ee-" &amp; $A83 &amp; "-guides.md)"</f>
-        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" ) | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)</v>
+        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" ) | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)</v>
       </c>
       <c r="I83" s="1" t="str">
         <f>LEFT(H83,LN_en_uk+F83-1) &amp; REPT(" ",ML_en_uk-F83) &amp; MID(H83,LN_en_uk+F83,200)&amp;REPT(" ",ML_en_uk-F83+1) &amp;"|"</f>
-        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" )             | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)             |</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>0</v>
+        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" )        | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)        |</v>
+      </c>
+      <c r="J83" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K83" s="1" t="str">
         <f>"| [![" &amp; $A83 &amp; "](/doc/img/app/sml/" &amp; $A83 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A83 &amp; "/es-mx-o13-ee-" &amp; $A83 &amp; "-guides.md ""Ver a las guías de " &amp; D83 &amp; " \[" &amp; $A83 &amp; "]"" ) | [" &amp; D83 &amp; "](/es-mx/o13/ee/"&amp;$A83&amp;"/es-mx-o13-ee-" &amp; $A83 &amp; "-guides.md)"</f>
-        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" ) | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)</v>
+        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" ) | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)</v>
       </c>
       <c r="L83" s="1" t="str">
         <f>LEFT(K83,LN_es_mx-1+G83) &amp; REPT(" ",ML_es_mx-G83) &amp; MID(K83,LN_es_mx+G83,200)&amp;REPT(" ",ML_es_mx-G83+1) &amp;"|"</f>
-        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" )           | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)           |</v>
-      </c>
-      <c r="M83" s="4" t="s">
-        <v>0</v>
+        <v>| [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" )    | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)    |</v>
+      </c>
+      <c r="M83" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C84" t="str">
         <f>B84</f>
-        <v>Ws CRM Partners</v>
+        <v>Ws Mail Channel</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="E84" t="str">
         <f>D84</f>
-        <v>Ws CRM Socios</v>
+        <v>Ws Canal Correo</v>
       </c>
       <c r="F84">
         <f>LEN(B84)</f>
@@ -5294,48 +5498,50 @@
       </c>
       <c r="G84">
         <f>LEN(D84)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H84" s="1" t="str">
         <f>"| [![" &amp; $A84 &amp; "](/doc/img/app/sml/" &amp; $A84 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A84 &amp; "/en-uk-o13-ee-" &amp; $A84 &amp; "-guides.md ""Goto " &amp; B84 &amp; " guides \[" &amp; $A84 &amp; "]"" ) | [" &amp; B84 &amp; "](/en-uk/o13/ee/"&amp;$A84&amp;"/en-uk-o13-ee-" &amp; $A84 &amp; "-guides.md)"</f>
-        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" ) | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)</v>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" ) | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)</v>
       </c>
       <c r="I84" s="1" t="str">
         <f>LEFT(H84,LN_en_uk+F84-1) &amp; REPT(" ",ML_en_uk-F84) &amp; MID(H84,LN_en_uk+F84,200)&amp;REPT(" ",ML_en_uk-F84+1) &amp;"|"</f>
-        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" )    | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)    |</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>0</v>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" )    | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)    |</v>
+      </c>
+      <c r="J84" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K84" s="1" t="str">
         <f>"| [![" &amp; $A84 &amp; "](/doc/img/app/sml/" &amp; $A84 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A84 &amp; "/es-mx-o13-ee-" &amp; $A84 &amp; "-guides.md ""Ver a las guías de " &amp; D84 &amp; " \[" &amp; $A84 &amp; "]"" ) | [" &amp; D84 &amp; "](/es-mx/o13/ee/"&amp;$A84&amp;"/es-mx-o13-ee-" &amp; $A84 &amp; "-guides.md)"</f>
-        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" ) | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)</v>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" ) | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)</v>
       </c>
       <c r="L84" s="1" t="str">
         <f>LEFT(K84,LN_es_mx-1+G84) &amp; REPT(" ",ML_es_mx-G84) &amp; MID(K84,LN_es_mx+G84,200)&amp;REPT(" ",ML_es_mx-G84+1) &amp;"|"</f>
-        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" )    | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)    |</v>
-      </c>
-      <c r="M84" s="4" t="s">
-        <v>0</v>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" )  | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)  |</v>
+      </c>
+      <c r="M84" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C85" t="str">
         <f>B85</f>
-        <v>Ws CRM Score</v>
+        <v>Ws Live Chat</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="E85" t="str">
         <f>D85</f>
-        <v>Ws CRM Puntos</v>
+        <v>Ws Chat en Vivo</v>
       </c>
       <c r="F85">
         <f>LEN(B85)</f>
@@ -5343,29 +5549,31 @@
       </c>
       <c r="G85">
         <f>LEN(D85)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H85" s="1" t="str">
         <f>"| [![" &amp; $A85 &amp; "](/doc/img/app/sml/" &amp; $A85 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A85 &amp; "/en-uk-o13-ee-" &amp; $A85 &amp; "-guides.md ""Goto " &amp; B85 &amp; " guides \[" &amp; $A85 &amp; "]"" ) | [" &amp; B85 &amp; "](/en-uk/o13/ee/"&amp;$A85&amp;"/en-uk-o13-ee-" &amp; $A85 &amp; "-guides.md)"</f>
-        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" ) | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)</v>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" ) | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)</v>
       </c>
       <c r="I85" s="1" t="str">
         <f>LEFT(H85,LN_en_uk+F85-1) &amp; REPT(" ",ML_en_uk-F85) &amp; MID(H85,LN_en_uk+F85,200)&amp;REPT(" ",ML_en_uk-F85+1) &amp;"|"</f>
-        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" )       | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)       |</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>0</v>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" )       | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)       |</v>
+      </c>
+      <c r="J85" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K85" s="1" t="str">
         <f>"| [![" &amp; $A85 &amp; "](/doc/img/app/sml/" &amp; $A85 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A85 &amp; "/es-mx-o13-ee-" &amp; $A85 &amp; "-guides.md ""Ver a las guías de " &amp; D85 &amp; " \[" &amp; $A85 &amp; "]"" ) | [" &amp; D85 &amp; "](/es-mx/o13/ee/"&amp;$A85&amp;"/es-mx-o13-ee-" &amp; $A85 &amp; "-guides.md)"</f>
-        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" ) | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)</v>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" ) | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)</v>
       </c>
       <c r="L85" s="1" t="str">
         <f>LEFT(K85,LN_es_mx-1+G85) &amp; REPT(" ",ML_es_mx-G85) &amp; MID(K85,LN_es_mx+G85,200)&amp;REPT(" ",ML_es_mx-G85+1) &amp;"|"</f>
-        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" )    | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)    |</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>0</v>
+        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" )  | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)  |</v>
+      </c>
+      <c r="M85" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
@@ -5380,7 +5588,7 @@
         <v>Ws Customer</v>
       </c>
       <c r="D86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E86" t="str">
         <f>D86</f>
@@ -5402,8 +5610,9 @@
         <f>LEFT(H86,LN_en_uk+F86-1) &amp; REPT(" ",ML_en_uk-F86) &amp; MID(H86,LN_en_uk+F86,200)&amp;REPT(" ",ML_en_uk-F86+1) &amp;"|"</f>
         <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md "Goto Ws Customer guides \[wcu]" )        | [Ws Customer](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md)        |</v>
       </c>
-      <c r="J86" s="3" t="s">
-        <v>0</v>
+      <c r="J86" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K86" s="1" t="str">
         <f>"| [![" &amp; $A86 &amp; "](/doc/img/app/sml/" &amp; $A86 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A86 &amp; "/es-mx-o13-ee-" &amp; $A86 &amp; "-guides.md ""Ver a las guías de " &amp; D86 &amp; " \[" &amp; $A86 &amp; "]"" ) | [" &amp; D86 &amp; "](/es-mx/o13/ee/"&amp;$A86&amp;"/es-mx-o13-ee-" &amp; $A86 &amp; "-guides.md)"</f>
@@ -5413,178 +5622,185 @@
         <f>LEFT(K86,LN_es_mx-1+G86) &amp; REPT(" ",ML_es_mx-G86) &amp; MID(K86,LN_es_mx+G86,200)&amp;REPT(" ",ML_es_mx-G86+1) &amp;"|"</f>
         <v>| [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" )       | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)       |</v>
       </c>
-      <c r="M86" s="4" t="s">
-        <v>0</v>
+      <c r="M86" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C87" t="str">
         <f>B87</f>
-        <v>Ws Enterprise</v>
+        <v>Ws Quote</v>
       </c>
       <c r="D87" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="E87" t="str">
         <f>D87</f>
-        <v>Ws Empresarial</v>
+        <v>Ws Cotizaciones</v>
       </c>
       <c r="F87">
         <f>LEN(B87)</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G87">
         <f>LEN(D87)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H87" s="1" t="str">
         <f>"| [![" &amp; $A87 &amp; "](/doc/img/app/sml/" &amp; $A87 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A87 &amp; "/en-uk-o13-ee-" &amp; $A87 &amp; "-guides.md ""Goto " &amp; B87 &amp; " guides \[" &amp; $A87 &amp; "]"" ) | [" &amp; B87 &amp; "](/en-uk/o13/ee/"&amp;$A87&amp;"/en-uk-o13-ee-" &amp; $A87 &amp; "-guides.md)"</f>
-        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" ) | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)</v>
+        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" ) | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)</v>
       </c>
       <c r="I87" s="1" t="str">
         <f>LEFT(H87,LN_en_uk+F87-1) &amp; REPT(" ",ML_en_uk-F87) &amp; MID(H87,LN_en_uk+F87,200)&amp;REPT(" ",ML_en_uk-F87+1) &amp;"|"</f>
-        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" )      | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)      |</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>0</v>
+        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" )           | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)           |</v>
+      </c>
+      <c r="J87" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K87" s="1" t="str">
         <f>"| [![" &amp; $A87 &amp; "](/doc/img/app/sml/" &amp; $A87 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A87 &amp; "/es-mx-o13-ee-" &amp; $A87 &amp; "-guides.md ""Ver a las guías de " &amp; D87 &amp; " \[" &amp; $A87 &amp; "]"" ) | [" &amp; D87 &amp; "](/es-mx/o13/ee/"&amp;$A87&amp;"/es-mx-o13-ee-" &amp; $A87 &amp; "-guides.md)"</f>
-        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" ) | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)</v>
+        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" ) | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)</v>
       </c>
       <c r="L87" s="1" t="str">
         <f>LEFT(K87,LN_es_mx-1+G87) &amp; REPT(" ",ML_es_mx-G87) &amp; MID(K87,LN_es_mx+G87,200)&amp;REPT(" ",ML_es_mx-G87+1) &amp;"|"</f>
-        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" )   | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)   |</v>
-      </c>
-      <c r="M87" s="4" t="s">
-        <v>0</v>
+        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" )  | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)  |</v>
+      </c>
+      <c r="M87" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C88" t="str">
         <f>B88</f>
-        <v>Ws Event</v>
+        <v>Ws CRM</v>
       </c>
       <c r="D88" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="E88" t="str">
         <f>D88</f>
-        <v>Ws Eventos</v>
+        <v>Ws CRM</v>
       </c>
       <c r="F88">
         <f>LEN(B88)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G88">
         <f>LEN(D88)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H88" s="1" t="str">
         <f>"| [![" &amp; $A88 &amp; "](/doc/img/app/sml/" &amp; $A88 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A88 &amp; "/en-uk-o13-ee-" &amp; $A88 &amp; "-guides.md ""Goto " &amp; B88 &amp; " guides \[" &amp; $A88 &amp; "]"" ) | [" &amp; B88 &amp; "](/en-uk/o13/ee/"&amp;$A88&amp;"/en-uk-o13-ee-" &amp; $A88 &amp; "-guides.md)"</f>
-        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" ) | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)</v>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" ) | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)</v>
       </c>
       <c r="I88" s="1" t="str">
         <f>LEFT(H88,LN_en_uk+F88-1) &amp; REPT(" ",ML_en_uk-F88) &amp; MID(H88,LN_en_uk+F88,200)&amp;REPT(" ",ML_en_uk-F88+1) &amp;"|"</f>
-        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" )           | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)           |</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>0</v>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" )             | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)             |</v>
+      </c>
+      <c r="J88" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K88" s="1" t="str">
         <f>"| [![" &amp; $A88 &amp; "](/doc/img/app/sml/" &amp; $A88 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A88 &amp; "/es-mx-o13-ee-" &amp; $A88 &amp; "-guides.md ""Ver a las guías de " &amp; D88 &amp; " \[" &amp; $A88 &amp; "]"" ) | [" &amp; D88 &amp; "](/es-mx/o13/ee/"&amp;$A88&amp;"/es-mx-o13-ee-" &amp; $A88 &amp; "-guides.md)"</f>
-        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" ) | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)</v>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" ) | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)</v>
       </c>
       <c r="L88" s="1" t="str">
         <f>LEFT(K88,LN_es_mx-1+G88) &amp; REPT(" ",ML_es_mx-G88) &amp; MID(K88,LN_es_mx+G88,200)&amp;REPT(" ",ML_es_mx-G88+1) &amp;"|"</f>
-        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" )       | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)       |</v>
-      </c>
-      <c r="M88" s="4" t="s">
-        <v>0</v>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" )           | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)           |</v>
+      </c>
+      <c r="M88" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C89" t="str">
         <f>B89</f>
-        <v>Ws Event Quest</v>
+        <v>Ws CRM Score</v>
       </c>
       <c r="D89" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E89" t="str">
         <f>D89</f>
-        <v>Ws Eve Preguntas</v>
+        <v>Ws CRM Puntos</v>
       </c>
       <c r="F89">
         <f>LEN(B89)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G89">
         <f>LEN(D89)</f>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H89" s="1" t="str">
         <f>"| [![" &amp; $A89 &amp; "](/doc/img/app/sml/" &amp; $A89 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A89 &amp; "/en-uk-o13-ee-" &amp; $A89 &amp; "-guides.md ""Goto " &amp; B89 &amp; " guides \[" &amp; $A89 &amp; "]"" ) | [" &amp; B89 &amp; "](/en-uk/o13/ee/"&amp;$A89&amp;"/en-uk-o13-ee-" &amp; $A89 &amp; "-guides.md)"</f>
-        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" ) | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)</v>
+        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" ) | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)</v>
       </c>
       <c r="I89" s="1" t="str">
         <f>LEFT(H89,LN_en_uk+F89-1) &amp; REPT(" ",ML_en_uk-F89) &amp; MID(H89,LN_en_uk+F89,200)&amp;REPT(" ",ML_en_uk-F89+1) &amp;"|"</f>
-        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" )     | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)     |</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>0</v>
+        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" )       | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)       |</v>
+      </c>
+      <c r="J89" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K89" s="1" t="str">
         <f>"| [![" &amp; $A89 &amp; "](/doc/img/app/sml/" &amp; $A89 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A89 &amp; "/es-mx-o13-ee-" &amp; $A89 &amp; "-guides.md ""Ver a las guías de " &amp; D89 &amp; " \[" &amp; $A89 &amp; "]"" ) | [" &amp; D89 &amp; "](/es-mx/o13/ee/"&amp;$A89&amp;"/es-mx-o13-ee-" &amp; $A89 &amp; "-guides.md)"</f>
-        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md)</v>
+        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" ) | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)</v>
       </c>
       <c r="L89" s="1" t="str">
         <f>LEFT(K89,LN_es_mx-1+G89) &amp; REPT(" ",ML_es_mx-G89) &amp; MID(K89,LN_es_mx+G89,200)&amp;REPT(" ",ML_es_mx-G89+1) &amp;"|"</f>
-        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md) |</v>
-      </c>
-      <c r="M89" s="4" t="s">
-        <v>0</v>
+        <v>| [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" )    | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)    |</v>
+      </c>
+      <c r="M89" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B90" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C90" t="str">
         <f>B90</f>
-        <v>Ws Event Sale</v>
+        <v>Ws CRM Partners</v>
       </c>
       <c r="D90" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E90" t="str">
         <f>D90</f>
-        <v>Ws Eve Ventas</v>
+        <v>Ws CRM Socios</v>
       </c>
       <c r="F90">
         <f>LEN(B90)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G90">
         <f>LEN(D90)</f>
@@ -5592,48 +5808,50 @@
       </c>
       <c r="H90" s="1" t="str">
         <f>"| [![" &amp; $A90 &amp; "](/doc/img/app/sml/" &amp; $A90 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A90 &amp; "/en-uk-o13-ee-" &amp; $A90 &amp; "-guides.md ""Goto " &amp; B90 &amp; " guides \[" &amp; $A90 &amp; "]"" ) | [" &amp; B90 &amp; "](/en-uk/o13/ee/"&amp;$A90&amp;"/en-uk-o13-ee-" &amp; $A90 &amp; "-guides.md)"</f>
-        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" ) | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)</v>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" ) | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)</v>
       </c>
       <c r="I90" s="1" t="str">
         <f>LEFT(H90,LN_en_uk+F90-1) &amp; REPT(" ",ML_en_uk-F90) &amp; MID(H90,LN_en_uk+F90,200)&amp;REPT(" ",ML_en_uk-F90+1) &amp;"|"</f>
-        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" )      | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)      |</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>0</v>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" )    | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)    |</v>
+      </c>
+      <c r="J90" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K90" s="1" t="str">
         <f>"| [![" &amp; $A90 &amp; "](/doc/img/app/sml/" &amp; $A90 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A90 &amp; "/es-mx-o13-ee-" &amp; $A90 &amp; "-guides.md ""Ver a las guías de " &amp; D90 &amp; " \[" &amp; $A90 &amp; "]"" ) | [" &amp; D90 &amp; "](/es-mx/o13/ee/"&amp;$A90&amp;"/es-mx-o13-ee-" &amp; $A90 &amp; "-guides.md)"</f>
-        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" ) | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)</v>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" ) | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)</v>
       </c>
       <c r="L90" s="1" t="str">
         <f>LEFT(K90,LN_es_mx-1+G90) &amp; REPT(" ",ML_es_mx-G90) &amp; MID(K90,LN_es_mx+G90,200)&amp;REPT(" ",ML_es_mx-G90+1) &amp;"|"</f>
-        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" )    | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)    |</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>0</v>
+        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" )    | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)    |</v>
+      </c>
+      <c r="M90" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B91" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C91" t="str">
         <f>B91</f>
-        <v>Ws Event Track</v>
+        <v>Ws Enterprise</v>
       </c>
       <c r="D91" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E91" t="str">
         <f>D91</f>
-        <v>Ws Eve Segmnto</v>
+        <v>Ws Empresarial</v>
       </c>
       <c r="F91">
         <f>LEN(B91)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G91">
         <f>LEN(D91)</f>
@@ -5641,97 +5859,101 @@
       </c>
       <c r="H91" s="1" t="str">
         <f>"| [![" &amp; $A91 &amp; "](/doc/img/app/sml/" &amp; $A91 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A91 &amp; "/en-uk-o13-ee-" &amp; $A91 &amp; "-guides.md ""Goto " &amp; B91 &amp; " guides \[" &amp; $A91 &amp; "]"" ) | [" &amp; B91 &amp; "](/en-uk/o13/ee/"&amp;$A91&amp;"/en-uk-o13-ee-" &amp; $A91 &amp; "-guides.md)"</f>
-        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" ) | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)</v>
+        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" ) | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)</v>
       </c>
       <c r="I91" s="1" t="str">
         <f>LEFT(H91,LN_en_uk+F91-1) &amp; REPT(" ",ML_en_uk-F91) &amp; MID(H91,LN_en_uk+F91,200)&amp;REPT(" ",ML_en_uk-F91+1) &amp;"|"</f>
-        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" )     | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)     |</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>0</v>
+        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" )      | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)      |</v>
+      </c>
+      <c r="J91" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K91" s="1" t="str">
         <f>"| [![" &amp; $A91 &amp; "](/doc/img/app/sml/" &amp; $A91 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A91 &amp; "/es-mx-o13-ee-" &amp; $A91 &amp; "-guides.md ""Ver a las guías de " &amp; D91 &amp; " \[" &amp; $A91 &amp; "]"" ) | [" &amp; D91 &amp; "](/es-mx/o13/ee/"&amp;$A91&amp;"/es-mx-o13-ee-" &amp; $A91 &amp; "-guides.md)"</f>
-        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" ) | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)</v>
+        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" ) | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)</v>
       </c>
       <c r="L91" s="1" t="str">
         <f>LEFT(K91,LN_es_mx-1+G91) &amp; REPT(" ",ML_es_mx-G91) &amp; MID(K91,LN_es_mx+G91,200)&amp;REPT(" ",ML_es_mx-G91+1) &amp;"|"</f>
-        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" )   | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)   |</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>0</v>
+        <v>| [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" )   | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)   |</v>
+      </c>
+      <c r="M91" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C92" t="str">
         <f>B92</f>
-        <v>Ws Forum Doc</v>
+        <v>Ws Event Quest</v>
       </c>
       <c r="D92" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E92" t="str">
         <f>D92</f>
-        <v>Ws Foro Docs</v>
+        <v>Ws Eve Preguntas</v>
       </c>
       <c r="F92">
         <f>LEN(B92)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G92">
         <f>LEN(D92)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H92" s="1" t="str">
         <f>"| [![" &amp; $A92 &amp; "](/doc/img/app/sml/" &amp; $A92 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A92 &amp; "/en-uk-o13-ee-" &amp; $A92 &amp; "-guides.md ""Goto " &amp; B92 &amp; " guides \[" &amp; $A92 &amp; "]"" ) | [" &amp; B92 &amp; "](/en-uk/o13/ee/"&amp;$A92&amp;"/en-uk-o13-ee-" &amp; $A92 &amp; "-guides.md)"</f>
-        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" ) | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)</v>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" ) | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)</v>
       </c>
       <c r="I92" s="1" t="str">
         <f>LEFT(H92,LN_en_uk+F92-1) &amp; REPT(" ",ML_en_uk-F92) &amp; MID(H92,LN_en_uk+F92,200)&amp;REPT(" ",ML_en_uk-F92+1) &amp;"|"</f>
-        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" )       | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)       |</v>
-      </c>
-      <c r="J92" s="3" t="s">
-        <v>0</v>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" )     | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)     |</v>
+      </c>
+      <c r="J92" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K92" s="1" t="str">
         <f>"| [![" &amp; $A92 &amp; "](/doc/img/app/sml/" &amp; $A92 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A92 &amp; "/es-mx-o13-ee-" &amp; $A92 &amp; "-guides.md ""Ver a las guías de " &amp; D92 &amp; " \[" &amp; $A92 &amp; "]"" ) | [" &amp; D92 &amp; "](/es-mx/o13/ee/"&amp;$A92&amp;"/es-mx-o13-ee-" &amp; $A92 &amp; "-guides.md)"</f>
-        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" ) | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)</v>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md)</v>
       </c>
       <c r="L92" s="1" t="str">
         <f>LEFT(K92,LN_es_mx-1+G92) &amp; REPT(" ",ML_es_mx-G92) &amp; MID(K92,LN_es_mx+G92,200)&amp;REPT(" ",ML_es_mx-G92+1) &amp;"|"</f>
-        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" )     | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)     |</v>
-      </c>
-      <c r="M92" s="4" t="s">
-        <v>0</v>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md) |</v>
+      </c>
+      <c r="M92" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C93" t="str">
         <f>B93</f>
-        <v>Ws Forum Editor</v>
+        <v>Ws Event Track</v>
       </c>
       <c r="D93" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E93" t="str">
         <f>D93</f>
-        <v>Ws Foro Editor</v>
+        <v>Ws Eve Segmnto</v>
       </c>
       <c r="F93">
         <f>LEN(B93)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G93">
         <f>LEN(D93)</f>
@@ -5739,971 +5961,1103 @@
       </c>
       <c r="H93" s="1" t="str">
         <f>"| [![" &amp; $A93 &amp; "](/doc/img/app/sml/" &amp; $A93 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A93 &amp; "/en-uk-o13-ee-" &amp; $A93 &amp; "-guides.md ""Goto " &amp; B93 &amp; " guides \[" &amp; $A93 &amp; "]"" ) | [" &amp; B93 &amp; "](/en-uk/o13/ee/"&amp;$A93&amp;"/en-uk-o13-ee-" &amp; $A93 &amp; "-guides.md)"</f>
-        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" ) | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)</v>
+        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" ) | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)</v>
       </c>
       <c r="I93" s="1" t="str">
         <f>LEFT(H93,LN_en_uk+F93-1) &amp; REPT(" ",ML_en_uk-F93) &amp; MID(H93,LN_en_uk+F93,200)&amp;REPT(" ",ML_en_uk-F93+1) &amp;"|"</f>
-        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" )    | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)    |</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>0</v>
+        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" )     | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)     |</v>
+      </c>
+      <c r="J93" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K93" s="1" t="str">
         <f>"| [![" &amp; $A93 &amp; "](/doc/img/app/sml/" &amp; $A93 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A93 &amp; "/es-mx-o13-ee-" &amp; $A93 &amp; "-guides.md ""Ver a las guías de " &amp; D93 &amp; " \[" &amp; $A93 &amp; "]"" ) | [" &amp; D93 &amp; "](/es-mx/o13/ee/"&amp;$A93&amp;"/es-mx-o13-ee-" &amp; $A93 &amp; "-guides.md)"</f>
-        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" ) | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)</v>
+        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" ) | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)</v>
       </c>
       <c r="L93" s="1" t="str">
         <f>LEFT(K93,LN_es_mx-1+G93) &amp; REPT(" ",ML_es_mx-G93) &amp; MID(K93,LN_es_mx+G93,200)&amp;REPT(" ",ML_es_mx-G93+1) &amp;"|"</f>
-        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" )   | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)   |</v>
-      </c>
-      <c r="M93" s="4" t="s">
-        <v>0</v>
+        <v>| [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" )   | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)   |</v>
+      </c>
+      <c r="M93" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C94" t="str">
         <f>B94</f>
-        <v>Ws Gengo</v>
+        <v>Ws Event Sale</v>
       </c>
       <c r="D94" t="s">
-        <v>191</v>
+        <v>281</v>
       </c>
       <c r="E94" t="str">
         <f>D94</f>
-        <v>Ws Gengo</v>
+        <v>Ws Eve Ventas</v>
       </c>
       <c r="F94">
         <f>LEN(B94)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G94">
         <f>LEN(D94)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H94" s="1" t="str">
         <f>"| [![" &amp; $A94 &amp; "](/doc/img/app/sml/" &amp; $A94 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A94 &amp; "/en-uk-o13-ee-" &amp; $A94 &amp; "-guides.md ""Goto " &amp; B94 &amp; " guides \[" &amp; $A94 &amp; "]"" ) | [" &amp; B94 &amp; "](/en-uk/o13/ee/"&amp;$A94&amp;"/en-uk-o13-ee-" &amp; $A94 &amp; "-guides.md)"</f>
-        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" ) | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)</v>
+        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" ) | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)</v>
       </c>
       <c r="I94" s="1" t="str">
         <f>LEFT(H94,LN_en_uk+F94-1) &amp; REPT(" ",ML_en_uk-F94) &amp; MID(H94,LN_en_uk+F94,200)&amp;REPT(" ",ML_en_uk-F94+1) &amp;"|"</f>
-        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" )           | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)           |</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>0</v>
+        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" )      | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)      |</v>
+      </c>
+      <c r="J94" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K94" s="1" t="str">
         <f>"| [![" &amp; $A94 &amp; "](/doc/img/app/sml/" &amp; $A94 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A94 &amp; "/es-mx-o13-ee-" &amp; $A94 &amp; "-guides.md ""Ver a las guías de " &amp; D94 &amp; " \[" &amp; $A94 &amp; "]"" ) | [" &amp; D94 &amp; "](/es-mx/o13/ee/"&amp;$A94&amp;"/es-mx-o13-ee-" &amp; $A94 &amp; "-guides.md)"</f>
-        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" ) | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)</v>
+        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" ) | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)</v>
       </c>
       <c r="L94" s="1" t="str">
         <f>LEFT(K94,LN_es_mx-1+G94) &amp; REPT(" ",ML_es_mx-G94) &amp; MID(K94,LN_es_mx+G94,200)&amp;REPT(" ",ML_es_mx-G94+1) &amp;"|"</f>
-        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" )         | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)         |</v>
-      </c>
-      <c r="M94" s="4" t="s">
-        <v>0</v>
+        <v>| [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" )    | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)    |</v>
+      </c>
+      <c r="M94" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B95" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C95" t="str">
         <f>B95</f>
-        <v>Ws HR</v>
+        <v>Ws Event</v>
       </c>
       <c r="D95" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="E95" t="str">
         <f>D95</f>
-        <v>Ws Nómina</v>
+        <v>Ws Eventos</v>
       </c>
       <c r="F95">
         <f>LEN(B95)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G95">
         <f>LEN(D95)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H95" s="1" t="str">
         <f>"| [![" &amp; $A95 &amp; "](/doc/img/app/sml/" &amp; $A95 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A95 &amp; "/en-uk-o13-ee-" &amp; $A95 &amp; "-guides.md ""Goto " &amp; B95 &amp; " guides \[" &amp; $A95 &amp; "]"" ) | [" &amp; B95 &amp; "](/en-uk/o13/ee/"&amp;$A95&amp;"/en-uk-o13-ee-" &amp; $A95 &amp; "-guides.md)"</f>
-        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" ) | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)</v>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" ) | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)</v>
       </c>
       <c r="I95" s="1" t="str">
         <f>LEFT(H95,LN_en_uk+F95-1) &amp; REPT(" ",ML_en_uk-F95) &amp; MID(H95,LN_en_uk+F95,200)&amp;REPT(" ",ML_en_uk-F95+1) &amp;"|"</f>
-        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" )              | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)              |</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>0</v>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" )           | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)           |</v>
+      </c>
+      <c r="J95" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K95" s="1" t="str">
         <f>"| [![" &amp; $A95 &amp; "](/doc/img/app/sml/" &amp; $A95 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A95 &amp; "/es-mx-o13-ee-" &amp; $A95 &amp; "-guides.md ""Ver a las guías de " &amp; D95 &amp; " \[" &amp; $A95 &amp; "]"" ) | [" &amp; D95 &amp; "](/es-mx/o13/ee/"&amp;$A95&amp;"/es-mx-o13-ee-" &amp; $A95 &amp; "-guides.md)"</f>
-        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" ) | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)</v>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" ) | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)</v>
       </c>
       <c r="L95" s="1" t="str">
         <f>LEFT(K95,LN_es_mx-1+G95) &amp; REPT(" ",ML_es_mx-G95) &amp; MID(K95,LN_es_mx+G95,200)&amp;REPT(" ",ML_es_mx-G95+1) &amp;"|"</f>
-        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" )        | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)        |</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>0</v>
+        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" )       | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)       |</v>
+      </c>
+      <c r="M95" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B96" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C96" t="str">
         <f>B96</f>
-        <v>Ws HR Recruit</v>
+        <v>Ws Forum Doc</v>
       </c>
       <c r="D96" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E96" t="str">
         <f>D96</f>
-        <v>Ws Nom Reclut</v>
+        <v>Ws Foro Docs</v>
       </c>
       <c r="F96">
         <f>LEN(B96)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G96">
         <f>LEN(D96)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H96" s="1" t="str">
         <f>"| [![" &amp; $A96 &amp; "](/doc/img/app/sml/" &amp; $A96 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A96 &amp; "/en-uk-o13-ee-" &amp; $A96 &amp; "-guides.md ""Goto " &amp; B96 &amp; " guides \[" &amp; $A96 &amp; "]"" ) | [" &amp; B96 &amp; "](/en-uk/o13/ee/"&amp;$A96&amp;"/en-uk-o13-ee-" &amp; $A96 &amp; "-guides.md)"</f>
-        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" ) | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)</v>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" ) | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)</v>
       </c>
       <c r="I96" s="1" t="str">
         <f>LEFT(H96,LN_en_uk+F96-1) &amp; REPT(" ",ML_en_uk-F96) &amp; MID(H96,LN_en_uk+F96,200)&amp;REPT(" ",ML_en_uk-F96+1) &amp;"|"</f>
-        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" )      | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)      |</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>0</v>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" )       | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)       |</v>
+      </c>
+      <c r="J96" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K96" s="1" t="str">
         <f>"| [![" &amp; $A96 &amp; "](/doc/img/app/sml/" &amp; $A96 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A96 &amp; "/es-mx-o13-ee-" &amp; $A96 &amp; "-guides.md ""Ver a las guías de " &amp; D96 &amp; " \[" &amp; $A96 &amp; "]"" ) | [" &amp; D96 &amp; "](/es-mx/o13/ee/"&amp;$A96&amp;"/es-mx-o13-ee-" &amp; $A96 &amp; "-guides.md)"</f>
-        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" ) | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)</v>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" ) | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)</v>
       </c>
       <c r="L96" s="1" t="str">
         <f>LEFT(K96,LN_es_mx-1+G96) &amp; REPT(" ",ML_es_mx-G96) &amp; MID(K96,LN_es_mx+G96,200)&amp;REPT(" ",ML_es_mx-G96+1) &amp;"|"</f>
-        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" )    | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)    |</v>
-      </c>
-      <c r="M96" s="4" t="s">
-        <v>0</v>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" )     | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)     |</v>
+      </c>
+      <c r="M96" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C97" t="str">
         <f>B97</f>
-        <v>Ws Live Chat</v>
+        <v>Ws Forum Editor</v>
       </c>
       <c r="D97" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="E97" t="str">
         <f>D97</f>
-        <v>Ws Chat en Vivo</v>
+        <v>Ws Foro Editor</v>
       </c>
       <c r="F97">
         <f>LEN(B97)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G97">
         <f>LEN(D97)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H97" s="1" t="str">
         <f>"| [![" &amp; $A97 &amp; "](/doc/img/app/sml/" &amp; $A97 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A97 &amp; "/en-uk-o13-ee-" &amp; $A97 &amp; "-guides.md ""Goto " &amp; B97 &amp; " guides \[" &amp; $A97 &amp; "]"" ) | [" &amp; B97 &amp; "](/en-uk/o13/ee/"&amp;$A97&amp;"/en-uk-o13-ee-" &amp; $A97 &amp; "-guides.md)"</f>
-        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" ) | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)</v>
+        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" ) | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)</v>
       </c>
       <c r="I97" s="1" t="str">
         <f>LEFT(H97,LN_en_uk+F97-1) &amp; REPT(" ",ML_en_uk-F97) &amp; MID(H97,LN_en_uk+F97,200)&amp;REPT(" ",ML_en_uk-F97+1) &amp;"|"</f>
-        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" )       | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)       |</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>0</v>
+        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" )    | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)    |</v>
+      </c>
+      <c r="J97" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K97" s="1" t="str">
         <f>"| [![" &amp; $A97 &amp; "](/doc/img/app/sml/" &amp; $A97 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A97 &amp; "/es-mx-o13-ee-" &amp; $A97 &amp; "-guides.md ""Ver a las guías de " &amp; D97 &amp; " \[" &amp; $A97 &amp; "]"" ) | [" &amp; D97 &amp; "](/es-mx/o13/ee/"&amp;$A97&amp;"/es-mx-o13-ee-" &amp; $A97 &amp; "-guides.md)"</f>
-        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" ) | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)</v>
+        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" ) | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)</v>
       </c>
       <c r="L97" s="1" t="str">
         <f>LEFT(K97,LN_es_mx-1+G97) &amp; REPT(" ",ML_es_mx-G97) &amp; MID(K97,LN_es_mx+G97,200)&amp;REPT(" ",ML_es_mx-G97+1) &amp;"|"</f>
-        <v>| [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" )  | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)  |</v>
-      </c>
-      <c r="M97" s="4" t="s">
-        <v>0</v>
+        <v>| [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" )   | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)   |</v>
+      </c>
+      <c r="M97" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C98" t="str">
         <f>B98</f>
-        <v>Ws Mail Channel</v>
+        <v>Ws Gengo</v>
       </c>
       <c r="D98" t="s">
-        <v>289</v>
+        <v>191</v>
       </c>
       <c r="E98" t="str">
         <f>D98</f>
-        <v>Ws Canal Correo</v>
+        <v>Ws Gengo</v>
       </c>
       <c r="F98">
         <f>LEN(B98)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G98">
         <f>LEN(D98)</f>
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H98" s="1" t="str">
         <f>"| [![" &amp; $A98 &amp; "](/doc/img/app/sml/" &amp; $A98 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A98 &amp; "/en-uk-o13-ee-" &amp; $A98 &amp; "-guides.md ""Goto " &amp; B98 &amp; " guides \[" &amp; $A98 &amp; "]"" ) | [" &amp; B98 &amp; "](/en-uk/o13/ee/"&amp;$A98&amp;"/en-uk-o13-ee-" &amp; $A98 &amp; "-guides.md)"</f>
-        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" ) | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)</v>
+        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" ) | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)</v>
       </c>
       <c r="I98" s="1" t="str">
         <f>LEFT(H98,LN_en_uk+F98-1) &amp; REPT(" ",ML_en_uk-F98) &amp; MID(H98,LN_en_uk+F98,200)&amp;REPT(" ",ML_en_uk-F98+1) &amp;"|"</f>
-        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" )    | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)    |</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>0</v>
+        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" )           | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)           |</v>
+      </c>
+      <c r="J98" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K98" s="1" t="str">
         <f>"| [![" &amp; $A98 &amp; "](/doc/img/app/sml/" &amp; $A98 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A98 &amp; "/es-mx-o13-ee-" &amp; $A98 &amp; "-guides.md ""Ver a las guías de " &amp; D98 &amp; " \[" &amp; $A98 &amp; "]"" ) | [" &amp; D98 &amp; "](/es-mx/o13/ee/"&amp;$A98&amp;"/es-mx-o13-ee-" &amp; $A98 &amp; "-guides.md)"</f>
-        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" ) | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)</v>
+        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" ) | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)</v>
       </c>
       <c r="L98" s="1" t="str">
         <f>LEFT(K98,LN_es_mx-1+G98) &amp; REPT(" ",ML_es_mx-G98) &amp; MID(K98,LN_es_mx+G98,200)&amp;REPT(" ",ML_es_mx-G98+1) &amp;"|"</f>
-        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" )  | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)  |</v>
-      </c>
-      <c r="M98" s="4" t="s">
-        <v>0</v>
+        <v>| [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" )         | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)         |</v>
+      </c>
+      <c r="M98" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="C99" t="str">
         <f>B99</f>
-        <v>Ws Membership</v>
+        <v>Ws Theme Install</v>
       </c>
       <c r="D99" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E99" t="str">
         <f>D99</f>
-        <v>Ws Membresías</v>
+        <v>Ws Instalar Tema</v>
       </c>
       <c r="F99">
         <f>LEN(B99)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G99">
         <f>LEN(D99)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H99" s="1" t="str">
         <f>"| [![" &amp; $A99 &amp; "](/doc/img/app/sml/" &amp; $A99 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A99 &amp; "/en-uk-o13-ee-" &amp; $A99 &amp; "-guides.md ""Goto " &amp; B99 &amp; " guides \[" &amp; $A99 &amp; "]"" ) | [" &amp; B99 &amp; "](/en-uk/o13/ee/"&amp;$A99&amp;"/en-uk-o13-ee-" &amp; $A99 &amp; "-guides.md)"</f>
-        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" ) | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)</v>
+        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" ) | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)</v>
       </c>
       <c r="I99" s="1" t="str">
         <f>LEFT(H99,LN_en_uk+F99-1) &amp; REPT(" ",ML_en_uk-F99) &amp; MID(H99,LN_en_uk+F99,200)&amp;REPT(" ",ML_en_uk-F99+1) &amp;"|"</f>
-        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" )      | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)      |</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>0</v>
+        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" )   | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)   |</v>
+      </c>
+      <c r="J99" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K99" s="1" t="str">
         <f>"| [![" &amp; $A99 &amp; "](/doc/img/app/sml/" &amp; $A99 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A99 &amp; "/es-mx-o13-ee-" &amp; $A99 &amp; "-guides.md ""Ver a las guías de " &amp; D99 &amp; " \[" &amp; $A99 &amp; "]"" ) | [" &amp; D99 &amp; "](/es-mx/o13/ee/"&amp;$A99&amp;"/es-mx-o13-ee-" &amp; $A99 &amp; "-guides.md)"</f>
-        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" ) | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)</v>
+        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md)</v>
       </c>
       <c r="L99" s="1" t="str">
         <f>LEFT(K99,LN_es_mx-1+G99) &amp; REPT(" ",ML_es_mx-G99) &amp; MID(K99,LN_es_mx+G99,200)&amp;REPT(" ",ML_es_mx-G99+1) &amp;"|"</f>
-        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" )    | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)    |</v>
-      </c>
-      <c r="M99" s="4" t="s">
-        <v>0</v>
+        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md) |</v>
+      </c>
+      <c r="M99" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C100" t="str">
         <f>B100</f>
-        <v>Ws Partner</v>
+        <v>Ws Membership</v>
       </c>
       <c r="D100" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E100" t="str">
         <f>D100</f>
-        <v>Ws Socios</v>
+        <v>Ws Membresías</v>
       </c>
       <c r="F100">
         <f>LEN(B100)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G100">
         <f>LEN(D100)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H100" s="1" t="str">
         <f>"| [![" &amp; $A100 &amp; "](/doc/img/app/sml/" &amp; $A100 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A100 &amp; "/en-uk-o13-ee-" &amp; $A100 &amp; "-guides.md ""Goto " &amp; B100 &amp; " guides \[" &amp; $A100 &amp; "]"" ) | [" &amp; B100 &amp; "](/en-uk/o13/ee/"&amp;$A100&amp;"/en-uk-o13-ee-" &amp; $A100 &amp; "-guides.md)"</f>
-        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" ) | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)</v>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" ) | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)</v>
       </c>
       <c r="I100" s="1" t="str">
         <f>LEFT(H100,LN_en_uk+F100-1) &amp; REPT(" ",ML_en_uk-F100) &amp; MID(H100,LN_en_uk+F100,200)&amp;REPT(" ",ML_en_uk-F100+1) &amp;"|"</f>
-        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" )         | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)         |</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>0</v>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" )      | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)      |</v>
+      </c>
+      <c r="J100" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K100" s="1" t="str">
         <f>"| [![" &amp; $A100 &amp; "](/doc/img/app/sml/" &amp; $A100 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A100 &amp; "/es-mx-o13-ee-" &amp; $A100 &amp; "-guides.md ""Ver a las guías de " &amp; D100 &amp; " \[" &amp; $A100 &amp; "]"" ) | [" &amp; D100 &amp; "](/es-mx/o13/ee/"&amp;$A100&amp;"/es-mx-o13-ee-" &amp; $A100 &amp; "-guides.md)"</f>
-        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" ) | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)</v>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" ) | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)</v>
       </c>
       <c r="L100" s="1" t="str">
         <f>LEFT(K100,LN_es_mx-1+G100) &amp; REPT(" ",ML_es_mx-G100) &amp; MID(K100,LN_es_mx+G100,200)&amp;REPT(" ",ML_es_mx-G100+1) &amp;"|"</f>
-        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" )        | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)        |</v>
-      </c>
-      <c r="M100" s="4" t="s">
-        <v>0</v>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" )    | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)    |</v>
+      </c>
+      <c r="M100" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B101" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C101" t="str">
         <f>B101</f>
-        <v>Ws Payment</v>
+        <v>Ws HR Recruit</v>
       </c>
       <c r="D101" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E101" t="str">
         <f>D101</f>
-        <v>Ws Pagos</v>
+        <v>Ws Nom Reclut</v>
       </c>
       <c r="F101">
         <f>LEN(B101)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G101">
         <f>LEN(D101)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H101" s="1" t="str">
         <f>"| [![" &amp; $A101 &amp; "](/doc/img/app/sml/" &amp; $A101 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A101 &amp; "/en-uk-o13-ee-" &amp; $A101 &amp; "-guides.md ""Goto " &amp; B101 &amp; " guides \[" &amp; $A101 &amp; "]"" ) | [" &amp; B101 &amp; "](/en-uk/o13/ee/"&amp;$A101&amp;"/en-uk-o13-ee-" &amp; $A101 &amp; "-guides.md)"</f>
-        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" ) | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)</v>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" ) | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)</v>
       </c>
       <c r="I101" s="1" t="str">
         <f>LEFT(H101,LN_en_uk+F101-1) &amp; REPT(" ",ML_en_uk-F101) &amp; MID(H101,LN_en_uk+F101,200)&amp;REPT(" ",ML_en_uk-F101+1) &amp;"|"</f>
-        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" )         | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)         |</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>0</v>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" )      | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)      |</v>
+      </c>
+      <c r="J101" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K101" s="1" t="str">
         <f>"| [![" &amp; $A101 &amp; "](/doc/img/app/sml/" &amp; $A101 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A101 &amp; "/es-mx-o13-ee-" &amp; $A101 &amp; "-guides.md ""Ver a las guías de " &amp; D101 &amp; " \[" &amp; $A101 &amp; "]"" ) | [" &amp; D101 &amp; "](/es-mx/o13/ee/"&amp;$A101&amp;"/es-mx-o13-ee-" &amp; $A101 &amp; "-guides.md)"</f>
-        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" ) | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)</v>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" ) | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)</v>
       </c>
       <c r="L101" s="1" t="str">
         <f>LEFT(K101,LN_es_mx-1+G101) &amp; REPT(" ",ML_es_mx-G101) &amp; MID(K101,LN_es_mx+G101,200)&amp;REPT(" ",ML_es_mx-G101+1) &amp;"|"</f>
-        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" )         | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)         |</v>
-      </c>
-      <c r="M101" s="4" t="s">
-        <v>0</v>
+        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" )    | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)    |</v>
+      </c>
+      <c r="M101" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C102" t="str">
         <f>B102</f>
-        <v>Ws Quote</v>
+        <v>Ws HR</v>
       </c>
       <c r="D102" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E102" t="str">
         <f>D102</f>
-        <v>Ws Cotizaciones</v>
+        <v>Ws Nómina</v>
       </c>
       <c r="F102">
         <f>LEN(B102)</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G102">
         <f>LEN(D102)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H102" s="1" t="str">
         <f>"| [![" &amp; $A102 &amp; "](/doc/img/app/sml/" &amp; $A102 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A102 &amp; "/en-uk-o13-ee-" &amp; $A102 &amp; "-guides.md ""Goto " &amp; B102 &amp; " guides \[" &amp; $A102 &amp; "]"" ) | [" &amp; B102 &amp; "](/en-uk/o13/ee/"&amp;$A102&amp;"/en-uk-o13-ee-" &amp; $A102 &amp; "-guides.md)"</f>
-        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" ) | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)</v>
+        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" ) | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)</v>
       </c>
       <c r="I102" s="1" t="str">
         <f>LEFT(H102,LN_en_uk+F102-1) &amp; REPT(" ",ML_en_uk-F102) &amp; MID(H102,LN_en_uk+F102,200)&amp;REPT(" ",ML_en_uk-F102+1) &amp;"|"</f>
-        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" )           | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)           |</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>0</v>
+        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" )              | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)              |</v>
+      </c>
+      <c r="J102" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K102" s="1" t="str">
         <f>"| [![" &amp; $A102 &amp; "](/doc/img/app/sml/" &amp; $A102 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A102 &amp; "/es-mx-o13-ee-" &amp; $A102 &amp; "-guides.md ""Ver a las guías de " &amp; D102 &amp; " \[" &amp; $A102 &amp; "]"" ) | [" &amp; D102 &amp; "](/es-mx/o13/ee/"&amp;$A102&amp;"/es-mx-o13-ee-" &amp; $A102 &amp; "-guides.md)"</f>
-        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" ) | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)</v>
+        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" ) | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)</v>
       </c>
       <c r="L102" s="1" t="str">
         <f>LEFT(K102,LN_es_mx-1+G102) &amp; REPT(" ",ML_es_mx-G102) &amp; MID(K102,LN_es_mx+G102,200)&amp;REPT(" ",ML_es_mx-G102+1) &amp;"|"</f>
-        <v>| [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" )  | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)  |</v>
-      </c>
-      <c r="M102" s="4" t="s">
-        <v>0</v>
+        <v>| [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" )        | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)        |</v>
+      </c>
+      <c r="M102" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C103" t="str">
         <f>B103</f>
-        <v>Ws Rating Project</v>
+        <v>Ws Payment</v>
       </c>
       <c r="D103" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E103" t="str">
         <f>D103</f>
-        <v>Ws Proy Clasific</v>
+        <v>Ws Pagos</v>
       </c>
       <c r="F103">
         <f>LEN(B103)</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G103">
         <f>LEN(D103)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H103" s="1" t="str">
         <f>"| [![" &amp; $A103 &amp; "](/doc/img/app/sml/" &amp; $A103 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A103 &amp; "/en-uk-o13-ee-" &amp; $A103 &amp; "-guides.md ""Goto " &amp; B103 &amp; " guides \[" &amp; $A103 &amp; "]"" ) | [" &amp; B103 &amp; "](/en-uk/o13/ee/"&amp;$A103&amp;"/en-uk-o13-ee-" &amp; $A103 &amp; "-guides.md)"</f>
-        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" ) | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)</v>
+        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" ) | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)</v>
       </c>
       <c r="I103" s="1" t="str">
         <f>LEFT(H103,LN_en_uk+F103-1) &amp; REPT(" ",ML_en_uk-F103) &amp; MID(H103,LN_en_uk+F103,200)&amp;REPT(" ",ML_en_uk-F103+1) &amp;"|"</f>
-        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" )  | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)  |</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>0</v>
+        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" )         | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)         |</v>
+      </c>
+      <c r="J103" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K103" s="1" t="str">
         <f>"| [![" &amp; $A103 &amp; "](/doc/img/app/sml/" &amp; $A103 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A103 &amp; "/es-mx-o13-ee-" &amp; $A103 &amp; "-guides.md ""Ver a las guías de " &amp; D103 &amp; " \[" &amp; $A103 &amp; "]"" ) | [" &amp; D103 &amp; "](/es-mx/o13/ee/"&amp;$A103&amp;"/es-mx-o13-ee-" &amp; $A103 &amp; "-guides.md)"</f>
-        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md)</v>
+        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" ) | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)</v>
       </c>
       <c r="L103" s="1" t="str">
         <f>LEFT(K103,LN_es_mx-1+G103) &amp; REPT(" ",ML_es_mx-G103) &amp; MID(K103,LN_es_mx+G103,200)&amp;REPT(" ",ML_es_mx-G103+1) &amp;"|"</f>
-        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md) |</v>
-      </c>
-      <c r="M103" s="4" t="s">
-        <v>0</v>
+        <v>| [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" )         | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)         |</v>
+      </c>
+      <c r="M103" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C104" t="str">
         <f>B104</f>
-        <v>Ws Sale Delivery</v>
+        <v>Ws Rating Project</v>
       </c>
       <c r="D104" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E104" t="str">
         <f>D104</f>
-        <v>Ws Ven Envíos</v>
+        <v>Ws Proy Clasific</v>
       </c>
       <c r="F104">
         <f>LEN(B104)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G104">
         <f>LEN(D104)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H104" s="1" t="str">
         <f>"| [![" &amp; $A104 &amp; "](/doc/img/app/sml/" &amp; $A104 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A104 &amp; "/en-uk-o13-ee-" &amp; $A104 &amp; "-guides.md ""Goto " &amp; B104 &amp; " guides \[" &amp; $A104 &amp; "]"" ) | [" &amp; B104 &amp; "](/en-uk/o13/ee/"&amp;$A104&amp;"/en-uk-o13-ee-" &amp; $A104 &amp; "-guides.md)"</f>
-        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" ) | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)</v>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" ) | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)</v>
       </c>
       <c r="I104" s="1" t="str">
         <f>LEFT(H104,LN_en_uk+F104-1) &amp; REPT(" ",ML_en_uk-F104) &amp; MID(H104,LN_en_uk+F104,200)&amp;REPT(" ",ML_en_uk-F104+1) &amp;"|"</f>
-        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" )   | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)   |</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>0</v>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" )  | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)  |</v>
+      </c>
+      <c r="J104" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K104" s="1" t="str">
         <f>"| [![" &amp; $A104 &amp; "](/doc/img/app/sml/" &amp; $A104 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A104 &amp; "/es-mx-o13-ee-" &amp; $A104 &amp; "-guides.md ""Ver a las guías de " &amp; D104 &amp; " \[" &amp; $A104 &amp; "]"" ) | [" &amp; D104 &amp; "](/es-mx/o13/ee/"&amp;$A104&amp;"/es-mx-o13-ee-" &amp; $A104 &amp; "-guides.md)"</f>
-        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" ) | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)</v>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md)</v>
       </c>
       <c r="L104" s="1" t="str">
         <f>LEFT(K104,LN_es_mx-1+G104) &amp; REPT(" ",ML_es_mx-G104) &amp; MID(K104,LN_es_mx+G104,200)&amp;REPT(" ",ML_es_mx-G104+1) &amp;"|"</f>
-        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" )    | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)    |</v>
-      </c>
-      <c r="M104" s="4" t="s">
-        <v>0</v>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md) |</v>
+      </c>
+      <c r="M104" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C105" t="str">
         <f>B105</f>
-        <v>Ws Sale Options</v>
+        <v>Ws Partner</v>
       </c>
       <c r="D105" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E105" t="str">
         <f>D105</f>
-        <v>Ws Ven Opciones</v>
+        <v>Ws Socios</v>
       </c>
       <c r="F105">
         <f>LEN(B105)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G105">
         <f>LEN(D105)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H105" s="1" t="str">
         <f>"| [![" &amp; $A105 &amp; "](/doc/img/app/sml/" &amp; $A105 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A105 &amp; "/en-uk-o13-ee-" &amp; $A105 &amp; "-guides.md ""Goto " &amp; B105 &amp; " guides \[" &amp; $A105 &amp; "]"" ) | [" &amp; B105 &amp; "](/en-uk/o13/ee/"&amp;$A105&amp;"/en-uk-o13-ee-" &amp; $A105 &amp; "-guides.md)"</f>
-        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" ) | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)</v>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" ) | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)</v>
       </c>
       <c r="I105" s="1" t="str">
         <f>LEFT(H105,LN_en_uk+F105-1) &amp; REPT(" ",ML_en_uk-F105) &amp; MID(H105,LN_en_uk+F105,200)&amp;REPT(" ",ML_en_uk-F105+1) &amp;"|"</f>
-        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" )    | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)    |</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>0</v>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" )         | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)         |</v>
+      </c>
+      <c r="J105" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K105" s="1" t="str">
         <f>"| [![" &amp; $A105 &amp; "](/doc/img/app/sml/" &amp; $A105 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A105 &amp; "/es-mx-o13-ee-" &amp; $A105 &amp; "-guides.md ""Ver a las guías de " &amp; D105 &amp; " \[" &amp; $A105 &amp; "]"" ) | [" &amp; D105 &amp; "](/es-mx/o13/ee/"&amp;$A105&amp;"/es-mx-o13-ee-" &amp; $A105 &amp; "-guides.md)"</f>
-        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" ) | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)</v>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" ) | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)</v>
       </c>
       <c r="L105" s="1" t="str">
         <f>LEFT(K105,LN_es_mx-1+G105) &amp; REPT(" ",ML_es_mx-G105) &amp; MID(K105,LN_es_mx+G105,200)&amp;REPT(" ",ML_es_mx-G105+1) &amp;"|"</f>
-        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" )  | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)  |</v>
-      </c>
-      <c r="M105" s="4" t="s">
-        <v>0</v>
+        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" )        | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)        |</v>
+      </c>
+      <c r="M105" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B106" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C106" t="str">
         <f>B106</f>
-        <v>Ws Theme Install</v>
+        <v>Ws Twitter</v>
       </c>
       <c r="D106" t="s">
-        <v>297</v>
+        <v>204</v>
       </c>
       <c r="E106" t="str">
         <f>D106</f>
-        <v>Ws Instalar Tema</v>
+        <v>Ws Twitter</v>
       </c>
       <c r="F106">
         <f>LEN(B106)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G106">
         <f>LEN(D106)</f>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="H106" s="1" t="str">
         <f>"| [![" &amp; $A106 &amp; "](/doc/img/app/sml/" &amp; $A106 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A106 &amp; "/en-uk-o13-ee-" &amp; $A106 &amp; "-guides.md ""Goto " &amp; B106 &amp; " guides \[" &amp; $A106 &amp; "]"" ) | [" &amp; B106 &amp; "](/en-uk/o13/ee/"&amp;$A106&amp;"/en-uk-o13-ee-" &amp; $A106 &amp; "-guides.md)"</f>
-        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" ) | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)</v>
+        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" ) | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)</v>
       </c>
       <c r="I106" s="1" t="str">
         <f>LEFT(H106,LN_en_uk+F106-1) &amp; REPT(" ",ML_en_uk-F106) &amp; MID(H106,LN_en_uk+F106,200)&amp;REPT(" ",ML_en_uk-F106+1) &amp;"|"</f>
-        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" )   | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)   |</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>0</v>
+        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" )         | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)         |</v>
+      </c>
+      <c r="J106" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K106" s="1" t="str">
         <f>"| [![" &amp; $A106 &amp; "](/doc/img/app/sml/" &amp; $A106 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A106 &amp; "/es-mx-o13-ee-" &amp; $A106 &amp; "-guides.md ""Ver a las guías de " &amp; D106 &amp; " \[" &amp; $A106 &amp; "]"" ) | [" &amp; D106 &amp; "](/es-mx/o13/ee/"&amp;$A106&amp;"/es-mx-o13-ee-" &amp; $A106 &amp; "-guides.md)"</f>
-        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md)</v>
+        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" ) | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)</v>
       </c>
       <c r="L106" s="1" t="str">
         <f>LEFT(K106,LN_es_mx-1+G106) &amp; REPT(" ",ML_es_mx-G106) &amp; MID(K106,LN_es_mx+G106,200)&amp;REPT(" ",ML_es_mx-G106+1) &amp;"|"</f>
-        <v>| [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md) |</v>
-      </c>
-      <c r="M106" s="4" t="s">
-        <v>0</v>
+        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" )       | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)       |</v>
+      </c>
+      <c r="M106" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C107" t="str">
         <f>B107</f>
-        <v>Ws Twitter</v>
+        <v>Ws Sale Delivery</v>
       </c>
       <c r="D107" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
       <c r="E107" t="str">
         <f>D107</f>
-        <v>Ws Twitter</v>
+        <v>Ws Ven Envíos</v>
       </c>
       <c r="F107">
         <f>LEN(B107)</f>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G107">
         <f>LEN(D107)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H107" s="1" t="str">
         <f>"| [![" &amp; $A107 &amp; "](/doc/img/app/sml/" &amp; $A107 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A107 &amp; "/en-uk-o13-ee-" &amp; $A107 &amp; "-guides.md ""Goto " &amp; B107 &amp; " guides \[" &amp; $A107 &amp; "]"" ) | [" &amp; B107 &amp; "](/en-uk/o13/ee/"&amp;$A107&amp;"/en-uk-o13-ee-" &amp; $A107 &amp; "-guides.md)"</f>
-        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" ) | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)</v>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" ) | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)</v>
       </c>
       <c r="I107" s="1" t="str">
         <f>LEFT(H107,LN_en_uk+F107-1) &amp; REPT(" ",ML_en_uk-F107) &amp; MID(H107,LN_en_uk+F107,200)&amp;REPT(" ",ML_en_uk-F107+1) &amp;"|"</f>
-        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" )         | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)         |</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>0</v>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" )   | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)   |</v>
+      </c>
+      <c r="J107" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K107" s="1" t="str">
         <f>"| [![" &amp; $A107 &amp; "](/doc/img/app/sml/" &amp; $A107 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A107 &amp; "/es-mx-o13-ee-" &amp; $A107 &amp; "-guides.md ""Ver a las guías de " &amp; D107 &amp; " \[" &amp; $A107 &amp; "]"" ) | [" &amp; D107 &amp; "](/es-mx/o13/ee/"&amp;$A107&amp;"/es-mx-o13-ee-" &amp; $A107 &amp; "-guides.md)"</f>
-        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" ) | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)</v>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" ) | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)</v>
       </c>
       <c r="L107" s="1" t="str">
         <f>LEFT(K107,LN_es_mx-1+G107) &amp; REPT(" ",ML_es_mx-G107) &amp; MID(K107,LN_es_mx+G107,200)&amp;REPT(" ",ML_es_mx-G107+1) &amp;"|"</f>
-        <v>| [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" )       | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)       |</v>
-      </c>
-      <c r="M107" s="4" t="s">
-        <v>0</v>
+        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" )    | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)    |</v>
+      </c>
+      <c r="M107" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B108" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C108" t="str">
         <f>B108</f>
-        <v>Ws Version</v>
+        <v>Ws Sale Options</v>
       </c>
       <c r="D108" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E108" t="str">
         <f>D108</f>
-        <v>Ws Versión</v>
+        <v>Ws Ven Opciones</v>
       </c>
       <c r="F108">
         <f>LEN(B108)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G108">
         <f>LEN(D108)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H108" s="1" t="str">
         <f>"| [![" &amp; $A108 &amp; "](/doc/img/app/sml/" &amp; $A108 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A108 &amp; "/en-uk-o13-ee-" &amp; $A108 &amp; "-guides.md ""Goto " &amp; B108 &amp; " guides \[" &amp; $A108 &amp; "]"" ) | [" &amp; B108 &amp; "](/en-uk/o13/ee/"&amp;$A108&amp;"/en-uk-o13-ee-" &amp; $A108 &amp; "-guides.md)"</f>
-        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" ) | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)</v>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" ) | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)</v>
       </c>
       <c r="I108" s="1" t="str">
         <f>LEFT(H108,LN_en_uk+F108-1) &amp; REPT(" ",ML_en_uk-F108) &amp; MID(H108,LN_en_uk+F108,200)&amp;REPT(" ",ML_en_uk-F108+1) &amp;"|"</f>
-        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" )         | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)         |</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>0</v>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" )    | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)    |</v>
+      </c>
+      <c r="J108" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="K108" s="1" t="str">
         <f>"| [![" &amp; $A108 &amp; "](/doc/img/app/sml/" &amp; $A108 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A108 &amp; "/es-mx-o13-ee-" &amp; $A108 &amp; "-guides.md ""Ver a las guías de " &amp; D108 &amp; " \[" &amp; $A108 &amp; "]"" ) | [" &amp; D108 &amp; "](/es-mx/o13/ee/"&amp;$A108&amp;"/es-mx-o13-ee-" &amp; $A108 &amp; "-guides.md)"</f>
-        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" ) | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)</v>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" ) | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)</v>
       </c>
       <c r="L108" s="1" t="str">
         <f>LEFT(K108,LN_es_mx-1+G108) &amp; REPT(" ",ML_es_mx-G108) &amp; MID(K108,LN_es_mx+G108,200)&amp;REPT(" ",ML_es_mx-G108+1) &amp;"|"</f>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" )  | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)  |</v>
+      </c>
+      <c r="M108" s="4" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>104</v>
+      </c>
+      <c r="B109" t="s">
+        <v>205</v>
+      </c>
+      <c r="C109" t="str">
+        <f>B109</f>
+        <v>Ws Version</v>
+      </c>
+      <c r="D109" t="s">
+        <v>297</v>
+      </c>
+      <c r="E109" t="str">
+        <f>D109</f>
+        <v>Ws Versión</v>
+      </c>
+      <c r="F109">
+        <f>LEN(B109)</f>
+        <v>10</v>
+      </c>
+      <c r="G109">
+        <f>LEN(D109)</f>
+        <v>10</v>
+      </c>
+      <c r="H109" s="1" t="str">
+        <f>"| [![" &amp; $A109 &amp; "](/doc/img/app/sml/" &amp; $A109 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A109 &amp; "/en-uk-o13-ee-" &amp; $A109 &amp; "-guides.md ""Goto " &amp; B109 &amp; " guides \[" &amp; $A109 &amp; "]"" ) | [" &amp; B109 &amp; "](/en-uk/o13/ee/"&amp;$A109&amp;"/en-uk-o13-ee-" &amp; $A109 &amp; "-guides.md)"</f>
+        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" ) | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)</v>
+      </c>
+      <c r="I109" s="1" t="str">
+        <f>LEFT(H109,LN_en_uk+F109-1) &amp; REPT(" ",ML_en_uk-F109) &amp; MID(H109,LN_en_uk+F109,200)&amp;REPT(" ",ML_en_uk-F109+1) &amp;"|"</f>
+        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" )         | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)         |</v>
+      </c>
+      <c r="J109" s="3" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="K109" s="1" t="str">
+        <f>"| [![" &amp; $A109 &amp; "](/doc/img/app/sml/" &amp; $A109 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A109 &amp; "/es-mx-o13-ee-" &amp; $A109 &amp; "-guides.md ""Ver a las guías de " &amp; D109 &amp; " \[" &amp; $A109 &amp; "]"" ) | [" &amp; D109 &amp; "](/es-mx/o13/ee/"&amp;$A109&amp;"/es-mx-o13-ee-" &amp; $A109 &amp; "-guides.md)"</f>
+        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" ) | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)</v>
+      </c>
+      <c r="L109" s="1" t="str">
+        <f>LEFT(K109,LN_es_mx-1+G109) &amp; REPT(" ",ML_es_mx-G109) &amp; MID(K109,LN_es_mx+G109,200)&amp;REPT(" ",ML_es_mx-G109+1) &amp;"|"</f>
         <v>| [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" )       | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)       |</v>
       </c>
-      <c r="M108" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="I109" t="s">
-        <v>310</v>
-      </c>
-      <c r="L109" t="s">
-        <v>310</v>
+      <c r="M109" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F110">
-        <f>MAX(F4:F108)</f>
-        <v>18</v>
-      </c>
-      <c r="G110">
-        <f>MAX(G4:G108)</f>
-        <v>16</v>
-      </c>
       <c r="I110" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="J110" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="L110" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="M110" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F111">
-        <v>107</v>
-      </c>
-      <c r="G111">
-        <v>113</v>
-      </c>
       <c r="I111" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="J111" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="L111" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="M111" s="4" t="str">
+        <f>""</f>
+        <v/>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I112" t="s">
-        <v>310</v>
+        <v>308</v>
+      </c>
+      <c r="J112" s="3" t="str">
+        <f>""</f>
+        <v/>
       </c>
       <c r="L112" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="str">
-        <f>I4 &amp; MID(I5,2,LEN(I5)-2) &amp; "|" &amp; MID(I6,2,LEN(I6)-2) &amp; "|" &amp; MID(I7,2,LEN(I7)-2) &amp; "|"</f>
+        <v>308</v>
+      </c>
+      <c r="M112" s="4" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>308</v>
+      </c>
+      <c r="J113" s="3" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="L113" t="s">
+        <v>308</v>
+      </c>
+      <c r="M113" s="4" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="6"/>
+      <c r="M114" s="4"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C115" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J115" s="3"/>
+      <c r="M115" s="4"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>312</v>
+      </c>
+      <c r="B116" s="5">
+        <f>ROW(MnuPos)+1</f>
+        <v>120</v>
+      </c>
+      <c r="E116" t="s">
+        <v>313</v>
+      </c>
+      <c r="F116">
+        <f>MAX(F3:F110)</f>
+        <v>18</v>
+      </c>
+      <c r="G116">
+        <f>MAX(G3:G110)</f>
+        <v>16</v>
+      </c>
+      <c r="J116" s="3"/>
+      <c r="M116" s="4"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>314</v>
+      </c>
+      <c r="F117">
+        <v>107</v>
+      </c>
+      <c r="G117">
+        <v>113</v>
+      </c>
+      <c r="J117" s="3"/>
+      <c r="M117" s="4"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A118" s="4"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="str">
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
         <v>| [![o13](/doc/img/app/sml/o13.jpg)](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md "Goto Odoo System guides \[o13]" )        | [Odoo System](/en-uk/o13/ee/o13/en-uk-o13-ee-o13-guides.md)        | [![stu](/doc/img/app/sml/stu.jpg)](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md "Goto Odoo Studio guides \[stu]" )        | [Odoo Studio](/en-uk/o13/ee/stu/en-uk-o13-ee-stu-guides.md)        | [![osh](/doc/img/app/sml/osh.jpg)](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md "Goto Odoo SH guides \[osh]" )            | [Odoo SH](/en-uk/o13/ee/osh/en-uk-o13-ee-osh-guides.md)            | [![3rd](/doc/img/app/sml/3rd.jpg)](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md "Goto 3rd Parties guides \[3rd]" )        | [3rd Parties](/en-uk/o13/ee/3rd/en-uk-o13-ee-3rd-guides.md)        |</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D119" s="1" t="str">
-        <f>L4 &amp; MID(L5,2,LEN(L5)-2) &amp; "|" &amp; MID(L6,2,LEN(L6)-2) &amp; "|" &amp; MID(L7,2,LEN(L7)-2) &amp; "|"</f>
-        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" )   | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)   | [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" )    | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)    | [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" )        | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)        | [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" )     | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)     |</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="str">
-        <f>I8 &amp; MID(I9,2,LEN(I9)-2) &amp; "|" &amp; MID(I10,2,LEN(I10)-2) &amp; "|" &amp; MID(I11,2,LEN(I11)-2) &amp; "|"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" )         | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)         | [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" )       | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)       | [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" )          | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)          | [![apv](/doc/img/app/sml/apv.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md "Goto Approvals guides \[apv]" )          | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md)          |</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D120" s="1" t="str">
-        <f>L8 &amp; MID(L9,2,LEN(L9)-2) &amp; "|" &amp; MID(L10,2,LEN(L10)-2) &amp; "|" &amp; MID(L11,2,LEN(L11)-2) &amp; "|"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )     | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)     | [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )            | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)            | [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )     | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)     | [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" )   | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)   |</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="str">
-        <f>I12 &amp; MID(I13,2,LEN(I13)-2) &amp; "|" &amp; MID(I14,2,LEN(I14)-2) &amp; "|" &amp; MID(I15,2,LEN(I15)-2) &amp; "|"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" )             | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)             | [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" )         | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)         | [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" )           | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)           | [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" )               | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)               |</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D121" s="1" t="str">
-        <f>L12 &amp; MID(L13,2,LEN(L13)-2) &amp; "|" &amp; MID(L14,2,LEN(L14)-2) &amp; "|" &amp; MID(L15,2,LEN(L15)-2) &amp; "|"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )          | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)          | [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )       | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)       | [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md) | [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )             | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)             |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![o13](/doc/img/app/sml/o13.jpg)](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md "Ver a las guías de Odoo - Sistema \[o13]" )   | [Odoo - Sistema](/es-mx/o13/ee/o13/es-mx-o13-ee-o13-guides.md)   | [![stu](/doc/img/app/sml/stu.jpg)](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md "Ver a las guías de Odoo - Studio \[stu]" )    | [Odoo - Studio](/es-mx/o13/ee/stu/es-mx-o13-ee-stu-guides.md)    | [![osh](/doc/img/app/sml/osh.jpg)](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md "Ver a las guías de Odoo - SH \[osh]" )        | [Odoo - SH](/es-mx/o13/ee/osh/es-mx-o13-ee-osh-guides.md)        | [![3rd](/doc/img/app/sml/3rd.jpg)](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md "Ver a las guías de Apps de 3os. \[3rd]" )     | [Apps de 3os.](/es-mx/o13/ee/3rd/es-mx-o13-ee-3rd-guides.md)     |</v>
       </c>
       <c r="E121" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="str">
-        <f>I16 &amp; MID(I17,2,LEN(I17)-2) &amp; "|" &amp; MID(I18,2,LEN(I18)-2) &amp; "|" &amp; MID(I19,2,LEN(I19)-2) &amp; "|"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" )           | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)           | [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" )           | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)           | [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" )                | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)                | [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" )         | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)         |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" )             | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)             | [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" )          | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)          | [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" )         | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)         | [![apv](/doc/img/app/sml/apv.jpg)](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md "Goto Approvals guides \[apv]" )          | [Approvals](/en-uk/o13/ee/apv/en-uk-o13-ee-apv-guides.md)          |</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D122" s="1" t="str">
-        <f>L16 &amp; MID(L17,2,LEN(L17)-2) &amp; "|" &amp; MID(L18,2,LEN(L18)-2) &amp; "|" &amp; MID(L19,2,LEN(L19)-2) &amp; "|"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )       | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)       | [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )        | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)        | [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )              | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)              | [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )         | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)         |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )          | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)          | [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )     | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)     | [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )       | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)       | [![apv](/doc/img/app/sml/apv.jpg)](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md "Ver a las guías de Autorizaciones \[apv]" )   | [Autorizaciones](/es-mx/o13/ee/apv/es-mx-o13-ee-apv-guides.md)   |</v>
       </c>
       <c r="E122" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="str">
-        <f>I20 &amp; MID(I21,2,LEN(I21)-2) &amp; "|" &amp; MID(I22,2,LEN(I22)-2) &amp; "|" &amp; MID(I23,2,LEN(I23)-2) &amp; "|"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" )     | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)     | [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" )       | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)       | [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" )     | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)     | [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" )       | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)       |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" )               | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)               | [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" )           | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)           | [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" )          | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)          | [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" )            | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)            |</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D123" s="1" t="str">
-        <f>L20 &amp; MID(L21,2,LEN(L21)-2) &amp; "|" &amp; MID(L22,2,LEN(L22)-2) &amp; "|" &amp; MID(L23,2,LEN(L23)-2) &amp; "|"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )     | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)     | [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )       | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)       | [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )     | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)     | [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )       | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)       |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )             | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)             | [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )       | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)       | [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )         | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)         | [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )          | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)          |</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="str">
-        <f>I24 &amp; MID(I25,2,LEN(I25)-2) &amp; "|" &amp; MID(I26,2,LEN(I26)-2) &amp; "|" &amp; MID(I27,2,LEN(I27)-2) &amp; "|"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" )      | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)      | [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" )            | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)            | [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" )          | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)          | [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" )          | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)          |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" )          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)          | [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" )       | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)       | [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" )           | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)           | [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" )              | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)              |</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D124" s="1" t="str">
-        <f>L24 &amp; MID(L25,2,LEN(L25)-2) &amp; "|" &amp; MID(L26,2,LEN(L26)-2) &amp; "|" &amp; MID(L27,2,LEN(L27)-2) &amp; "|"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )      | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)      | [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )          | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)          | [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )       | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)       | [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )        | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)        |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )    | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)    | [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )            | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)            | [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md) | [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )          | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)          |</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="str">
-        <f>I28 &amp; MID(I29,2,LEN(I29)-2) &amp; "|" &amp; MID(I30,2,LEN(I30)-2) &amp; "|" &amp; MID(I31,2,LEN(I31)-2) &amp; "|"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" )              | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)              | [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" )          | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)          | [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" )          | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)          | [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" )         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)         |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" )             | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)             | [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" )         | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)         | [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" )           | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)           | [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" )         | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)         |</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D125" s="1" t="str">
-        <f>L28 &amp; MID(L29,2,LEN(L29)-2) &amp; "|" &amp; MID(L30,2,LEN(L30)-2) &amp; "|" &amp; MID(L31,2,LEN(L31)-2) &amp; "|"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" )          | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)          | [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )        | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)        | [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )          | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)          | [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )           | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)           |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )     | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)     | [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )          | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)          | [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )    | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)    | [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )     | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)     |</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="str">
-        <f>I32 &amp; MID(I33,2,LEN(I33)-2) &amp; "|" &amp; MID(I34,2,LEN(I34)-2) &amp; "|" &amp; MID(I35,2,LEN(I35)-2) &amp; "|"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" )             | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)             | [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" )           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)           | [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" )      | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)      | [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" )              | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)              |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" )           | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)           | [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" )        | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)        | [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" )          | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)          | [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" )                | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)                |</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D126" s="1" t="str">
-        <f>L32 &amp; MID(L33,2,LEN(L33)-2) &amp; "|" &amp; MID(L34,2,LEN(L34)-2) &amp; "|" &amp; MID(L35,2,LEN(L35)-2) &amp; "|"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )          | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)          | [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)           | [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )         | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)         | [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )        | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)        |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )        | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)        | [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )    | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)    | [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )      | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)      | [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )              | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)              |</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="str">
-        <f>I36 &amp; MID(I37,2,LEN(I37)-2) &amp; "|" &amp; MID(I38,2,LEN(I38)-2) &amp; "|" &amp; MID(I39,2,LEN(I39)-2) &amp; "|"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" )              | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)              | [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" )       | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)       | [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" )        | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)        | [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" )    | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)    |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" )    | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)    | [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" )             | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)             | [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" )          | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)          | [![ele](/doc/img/app/sml/ele.jpg)](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md "Goto eLearning guides \[ele]" )          | [eLearning](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md)          |</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D127" s="1" t="str">
-        <f>L36 &amp; MID(L37,2,LEN(L37)-2) &amp; "|" &amp; MID(L38,2,LEN(L38)-2) &amp; "|" &amp; MID(L39,2,LEN(L39)-2) &amp; "|"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )             | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)             | [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )     | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)     | [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )    | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)    | [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" )    | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)    |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" )  | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)  | [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )     | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)     | [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )       | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)       | [![ele](/doc/img/app/sml/ele.jpg)](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md "Ver a las guías de eAprendizaje \[ele]" )     | [eAprendizaje](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md)     |</v>
       </c>
       <c r="E127" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="str">
-        <f>I40 &amp; MID(I41,2,LEN(I41)-2) &amp; "|" &amp; MID(I42,2,LEN(I42)-2) &amp; "|" &amp; MID(I43,2,LEN(I43)-2) &amp; "|"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" )       | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)       | [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" )           | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)           | [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" )           | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)           | [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md) |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" )          | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)          | [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" )              | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)              | [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" )         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)         | [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" )          | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)          |</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D128" s="1" t="str">
-        <f>L40 &amp; MID(L41,2,LEN(L41)-2) &amp; "|" &amp; MID(L42,2,LEN(L42)-2) &amp; "|" &amp; MID(L43,2,LEN(L43)-2) &amp; "|"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )     | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)     | [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )    | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)    | [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )       | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)       | [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md) |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )        | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)        | [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" )          | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)          | [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )           | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)           | [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )        | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)        |</v>
       </c>
       <c r="E128" s="4" t="s">
         <v>0</v>
@@ -6711,15 +7065,15 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="str">
-        <f>I44 &amp; MID(I45,2,LEN(I45)-2) &amp; "|" &amp; MID(I46,2,LEN(I46)-2) &amp; "|" &amp; MID(I47,2,LEN(I47)-2) &amp; "|"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" )          | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)          | [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" )          | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)          | [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" )          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)          | [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" )              | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)              |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" )            | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)            | [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" )     | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)     | [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" )       | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)       | [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" )     | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)     |</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D129" s="1" t="str">
-        <f>L44 &amp; MID(L45,2,LEN(L45)-2) &amp; "|" &amp; MID(L46,2,LEN(L46)-2) &amp; "|" &amp; MID(L47,2,LEN(L47)-2) &amp; "|"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )      | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)      | [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )      | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)      | [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )    | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)    | [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )          | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)          |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )        | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)        | [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )     | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)     | [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )       | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)       | [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )     | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)     |</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>0</v>
@@ -6727,15 +7081,15 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="str">
-        <f>I48 &amp; MID(I49,2,LEN(I49)-2) &amp; "|" &amp; MID(I50,2,LEN(I50)-2) &amp; "|" &amp; MID(I51,2,LEN(I51)-2) &amp; "|"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" )          | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)          | [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" )        | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)        | [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" )     | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)     | [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" )          | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)          |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" )       | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)       | [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" )      | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)      | [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" )          | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)          | [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" )          | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)          |</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D130" s="1" t="str">
-        <f>L48 &amp; MID(L49,2,LEN(L49)-2) &amp; "|" &amp; MID(L50,2,LEN(L50)-2) &amp; "|" &amp; MID(L51,2,LEN(L51)-2) &amp; "|"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )      | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)      | [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )    | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)    | [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )   | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)   | [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )         | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)         |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )       | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)       | [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )      | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)      | [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )          | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)          | [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )     | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)     |</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>0</v>
@@ -6743,15 +7097,15 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="str">
-        <f>I52 &amp; MID(I53,2,LEN(I53)-2) &amp; "|" &amp; MID(I54,2,LEN(I54)-2) &amp; "|" &amp; MID(I55,2,LEN(I55)-2) &amp; "|"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" )         | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)         | [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" )            | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)            | [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" )                | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)                | [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" )    | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)    |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" )             | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)             | [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" )          | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)          | [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" )              | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)              | [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" )              | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)              |</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D131" s="1" t="str">
-        <f>L52 &amp; MID(L53,2,LEN(L53)-2) &amp; "|" &amp; MID(L54,2,LEN(L54)-2) &amp; "|" &amp; MID(L55,2,LEN(L55)-2) &amp; "|"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )       | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)       | [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )          | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)          | [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )              | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)              | [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )       | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)       |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )          | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)          | [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )      | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)      | [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )        | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)        | [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )             | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)             |</v>
       </c>
       <c r="E131" s="4" t="s">
         <v>0</v>
@@ -6759,15 +7113,15 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="str">
-        <f>I56 &amp; MID(I57,2,LEN(I57)-2) &amp; "|" &amp; MID(I58,2,LEN(I58)-2) &amp; "|" &amp; MID(I59,2,LEN(I59)-2) &amp; "|"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" )               | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)               | [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" )            | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)            | [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" )            | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)            | [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" )                | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)                |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" )       | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)       | [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" )           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)           | [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" )    | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)    | [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" )       | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)       |</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D132" s="1" t="str">
-        <f>L56 &amp; MID(L57,2,LEN(L57)-2) &amp; "|" &amp; MID(L58,2,LEN(L58)-2) &amp; "|" &amp; MID(L59,2,LEN(L59)-2) &amp; "|"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )            | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)            | [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )            | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)            | [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)           | [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )              | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)              |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )     | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)     | [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)           | [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" )    | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)    | [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )     | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)     |</v>
       </c>
       <c r="E132" s="4" t="s">
         <v>0</v>
@@ -6775,15 +7129,15 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="str">
-        <f>I60 &amp; MID(I61,2,LEN(I61)-2) &amp; "|" &amp; MID(I62,2,LEN(I62)-2) &amp; "|" &amp; MID(I63,2,LEN(I63)-2) &amp; "|"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" )      | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)      | [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" )           | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)           | [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" )   | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)   | [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" )           | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)           |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md) | [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" )          | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)          | [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" )        | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)        | [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" )     | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)     |</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D133" s="1" t="str">
-        <f>L60 &amp; MID(L61,2,LEN(L61)-2) &amp; "|" &amp; MID(L62,2,LEN(L62)-2) &amp; "|" &amp; MID(L63,2,LEN(L63)-2) &amp; "|"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )   | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)   | [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )        | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)        | [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )      | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)      | [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )        | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)        |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md) | [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )      | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)      | [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )    | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)    | [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )   | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)   |</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>0</v>
@@ -6791,15 +7145,15 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="str">
-        <f>I64 &amp; MID(I65,2,LEN(I65)-2) &amp; "|" &amp; MID(I66,2,LEN(I66)-2) &amp; "|" &amp; MID(I67,2,LEN(I67)-2) &amp; "|"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" )         | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)         | [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" )    | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)    | [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" )        | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)        | [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" )          | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)          |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" )         | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)         | [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" )           | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)           | [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" )            | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)            | [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" )                | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)                |</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D134" s="1" t="str">
-        <f>L64 &amp; MID(L65,2,LEN(L65)-2) &amp; "|" &amp; MID(L66,2,LEN(L66)-2) &amp; "|" &amp; MID(L67,2,LEN(L67)-2) &amp; "|"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )          | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)          | [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" )  | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)  | [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )    | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)    | [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" )      | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)      |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )       | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)       | [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )    | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)    | [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )          | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)          | [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )              | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)              |</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>0</v>
@@ -6807,15 +7161,15 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="str">
-        <f>I68 &amp; MID(I69,2,LEN(I69)-2) &amp; "|" &amp; MID(I70,2,LEN(I70)-2) &amp; "|" &amp; MID(I71,2,LEN(I71)-2) &amp; "|"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" )             | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)             | [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" )             | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)             | [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" )               | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)               | [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" )              | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)              |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" )    | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)    | [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" )            | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)            | [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" )               | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)               | [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" )            | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)            |</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D135" s="1" t="str">
-        <f>L68 &amp; MID(L69,2,LEN(L69)-2) &amp; "|" &amp; MID(L70,2,LEN(L70)-2) &amp; "|" &amp; MID(L71,2,LEN(L71)-2) &amp; "|"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )           | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)           | [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )     | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)     | [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )             | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)             | [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )           | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)           |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )       | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)       | [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)           | [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )            | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)            | [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )            | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)            |</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>0</v>
@@ -6823,15 +7177,15 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="str">
-        <f>I72 &amp; MID(I73,2,LEN(I73)-2) &amp; "|" &amp; MID(I74,2,LEN(I74)-2) &amp; "|" &amp; MID(I75,2,LEN(I75)-2) &amp; "|"</f>
-        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" )   | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)   | [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" )           | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)           | [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" )             | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)             | [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" )             | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)             |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" )           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)           | [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" )                | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)                | [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" )           | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)           | [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" )   | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)   |</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D136" s="1" t="str">
-        <f>L72 &amp; MID(L73,2,LEN(L73)-2) &amp; "|" &amp; MID(L74,2,LEN(L74)-2) &amp; "|" &amp; MID(L75,2,LEN(L75)-2) &amp; "|"</f>
-        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md) | [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )    | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)    | [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )     | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)     | [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )     | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)     |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )         | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)         | [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )              | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)              | [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )        | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)        | [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )      | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)      |</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>0</v>
@@ -6839,15 +7193,15 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="str">
-        <f>I76 &amp; MID(I77,2,LEN(I77)-2) &amp; "|" &amp; MID(I78,2,LEN(I78)-2) &amp; "|" &amp; MID(I79,2,LEN(I79)-2) &amp; "|"</f>
-        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" )      | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)      | [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" )            | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)            | [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" )           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)           | [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" )          | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)          |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" )           | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)           | [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" )      | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)      | [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" )        | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)        | [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" )          | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)          |</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D137" s="1" t="str">
-        <f>L76 &amp; MID(L77,2,LEN(L77)-2) &amp; "|" &amp; MID(L78,2,LEN(L78)-2) &amp; "|" &amp; MID(L79,2,LEN(L79)-2) &amp; "|"</f>
-        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" )    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)    | [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )        | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)        | [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )         | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)         | [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )     | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)     |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )        | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)        | [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )   | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)   | [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )    | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)    | [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" )      | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)      |</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>0</v>
@@ -6855,15 +7209,15 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="str">
-        <f>I80 &amp; MID(I81,2,LEN(I81)-2) &amp; "|" &amp; MID(I82,2,LEN(I82)-2) &amp; "|" &amp; MID(I83,2,LEN(I83)-2) &amp; "|"</f>
-        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" )           | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)           | [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" )           | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)           | [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" )        | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)        | [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" )             | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)             |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" )             | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)             | [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" )             | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)             | [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" )               | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)               | [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" )      | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)      |</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D138" s="1" t="str">
-        <f>L80 &amp; MID(L81,2,LEN(L81)-2) &amp; "|" &amp; MID(L82,2,LEN(L82)-2) &amp; "|" &amp; MID(L83,2,LEN(L83)-2) &amp; "|"</f>
-        <v>| [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" )       | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)       | [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" )       | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)       | [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" )    | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)    | [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" )           | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)           |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )           | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)           | [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )     | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)     | [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )             | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)             | [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )         | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)         |</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>0</v>
@@ -6871,15 +7225,15 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="str">
-        <f>I84 &amp; MID(I85,2,LEN(I85)-2) &amp; "|" &amp; MID(I86,2,LEN(I86)-2) &amp; "|" &amp; MID(I87,2,LEN(I87)-2) &amp; "|"</f>
-        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" )    | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)    | [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" )       | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)       | [![wcu](/doc/img/app/sml/wcu.jpg)](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md "Goto Ws Customer guides \[wcu]" )        | [Ws Customer](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md)        | [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" )      | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)      |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" )      | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)      | [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" )         | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)         | [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" )           | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)           | [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" )              | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)              |</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D139" s="1" t="str">
-        <f>L84 &amp; MID(L85,2,LEN(L85)-2) &amp; "|" &amp; MID(L86,2,LEN(L86)-2) &amp; "|" &amp; MID(L87,2,LEN(L87)-2) &amp; "|"</f>
-        <v>| [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" )    | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)    | [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" )    | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)    | [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" )       | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)       | [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" )   | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)   |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" )    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)    | [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )         | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)         | [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )       | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)       | [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )           | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)           |</v>
       </c>
       <c r="E139" s="4" t="s">
         <v>0</v>
@@ -6887,15 +7241,15 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="str">
-        <f>I88 &amp; MID(I89,2,LEN(I89)-2) &amp; "|" &amp; MID(I90,2,LEN(I90)-2) &amp; "|" &amp; MID(I91,2,LEN(I91)-2) &amp; "|"</f>
-        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" )           | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)           | [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" )     | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)     | [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" )      | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)      | [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" )     | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)     |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" )   | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)   | [![vip](/doc/img/app/sml/vip.jpg)](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md "Goto Voice IP guides \[vip]" )           | [Voice IP](/en-uk/o13/ee/vip/en-uk-o13-ee-vip-guides.md)           | [![web](/doc/img/app/sml/web.jpg)](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md "Goto Websites guides \[web]" )           | [Websites](/en-uk/o13/ee/web/en-uk-o13-ee-web-guides.md)           | [![wca](/doc/img/app/sml/wca.jpg)](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md "Goto Ws Calendar guides \[wca]" )        | [Ws Calendar](/en-uk/o13/ee/wca/en-uk-o13-ee-wca-guides.md)        |</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D140" s="1" t="str">
-        <f>L88 &amp; MID(L89,2,LEN(L89)-2) &amp; "|" &amp; MID(L90,2,LEN(L90)-2) &amp; "|" &amp; MID(L91,2,LEN(L91)-2) &amp; "|"</f>
-        <v>| [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" )       | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)       | [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md) | [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" )    | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)    | [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" )   | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)   |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md) | [![vip](/doc/img/app/sml/vip.jpg)](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md "Ver a las guías de Voz por IP \[vip]" )       | [Voz por IP](/es-mx/o13/ee/vip/es-mx-o13-ee-vip-guides.md)       | [![web](/doc/img/app/sml/web.jpg)](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md "Ver a las guías de Web Sitios \[web]" )       | [Web Sitios](/es-mx/o13/ee/web/es-mx-o13-ee-web-guides.md)       | [![wca](/doc/img/app/sml/wca.jpg)](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md "Ver a las guías de Ws Calendario \[wca]" )    | [Ws Calendario](/es-mx/o13/ee/wca/es-mx-o13-ee-wca-guides.md)    |</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>0</v>
@@ -6903,15 +7257,15 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="str">
-        <f>I92 &amp; MID(I93,2,LEN(I93)-2) &amp; "|" &amp; MID(I94,2,LEN(I94)-2) &amp; "|" &amp; MID(I95,2,LEN(I95)-2) &amp; "|"</f>
-        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" )       | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)       | [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" )    | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)    | [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" )           | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)           | [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" )              | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)              |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" )    | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)    | [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" )       | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)       | [![wcu](/doc/img/app/sml/wcu.jpg)](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md "Goto Ws Customer guides \[wcu]" )        | [Ws Customer](/en-uk/o13/ee/wcu/en-uk-o13-ee-wcu-guides.md)        | [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" )           | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)           |</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D141" s="1" t="str">
-        <f>L92 &amp; MID(L93,2,LEN(L93)-2) &amp; "|" &amp; MID(L94,2,LEN(L94)-2) &amp; "|" &amp; MID(L95,2,LEN(L95)-2) &amp; "|"</f>
-        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" )     | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)     | [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" )   | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)   | [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" )         | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)         | [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" )        | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)        |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" )  | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)  | [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" )  | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)  | [![wcu](/doc/img/app/sml/wcu.jpg)](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md "Ver a las guías de Ws Cliente \[wcu]" )       | [Ws Cliente](/es-mx/o13/ee/wcu/es-mx-o13-ee-wcu-guides.md)       | [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" )  | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)  |</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>0</v>
@@ -6919,15 +7273,15 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="str">
-        <f>I96 &amp; MID(I97,2,LEN(I97)-2) &amp; "|" &amp; MID(I98,2,LEN(I98)-2) &amp; "|" &amp; MID(I99,2,LEN(I99)-2) &amp; "|"</f>
-        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" )      | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)      | [![wlc](/doc/img/app/sml/wlc.jpg)](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md "Goto Ws Live Chat guides \[wlc]" )       | [Ws Live Chat](/en-uk/o13/ee/wlc/en-uk-o13-ee-wlc-guides.md)       | [![wmc](/doc/img/app/sml/wmc.jpg)](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md "Goto Ws Mail Channel guides \[wmc]" )    | [Ws Mail Channel](/en-uk/o13/ee/wmc/en-uk-o13-ee-wmc-guides.md)    | [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" )      | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)      |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md "Goto Ws CRM guides \[wcr]" )             | [Ws CRM](/en-uk/o13/ee/wcr/en-uk-o13-ee-wcr-guides.md)             | [![wcs](/doc/img/app/sml/wcs.jpg)](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md "Goto Ws CRM Score guides \[wcs]" )       | [Ws CRM Score](/en-uk/o13/ee/wcs/en-uk-o13-ee-wcs-guides.md)       | [![wpa](/doc/img/app/sml/wpa.jpg)](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md "Goto Ws CRM Partners guides \[wpa]" )    | [Ws CRM Partners](/en-uk/o13/ee/wpa/en-uk-o13-ee-wpa-guides.md)    | [![wen](/doc/img/app/sml/wen.jpg)](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md "Goto Ws Enterprise guides \[wen]" )      | [Ws Enterprise](/en-uk/o13/ee/wen/en-uk-o13-ee-wen-guides.md)      |</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D142" s="1" t="str">
-        <f>L96 &amp; MID(L97,2,LEN(L97)-2) &amp; "|" &amp; MID(L98,2,LEN(L98)-2) &amp; "|" &amp; MID(L99,2,LEN(L99)-2) &amp; "|"</f>
-        <v>| [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" )    | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)    | [![wlc](/doc/img/app/sml/wlc.jpg)](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md "Ver a las guías de Ws Chat en Vivo \[wlc]" )  | [Ws Chat en Vivo](/es-mx/o13/ee/wlc/es-mx-o13-ee-wlc-guides.md)  | [![wmc](/doc/img/app/sml/wmc.jpg)](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md "Ver a las guías de Ws Canal Correo \[wmc]" )  | [Ws Canal Correo](/es-mx/o13/ee/wmc/es-mx-o13-ee-wmc-guides.md)  | [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" )    | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)    |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![wcr](/doc/img/app/sml/wcr.jpg)](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md "Ver a las guías de Ws CRM \[wcr]" )           | [Ws CRM](/es-mx/o13/ee/wcr/es-mx-o13-ee-wcr-guides.md)           | [![wcs](/doc/img/app/sml/wcs.jpg)](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md "Ver a las guías de Ws CRM Puntos \[wcs]" )    | [Ws CRM Puntos](/es-mx/o13/ee/wcs/es-mx-o13-ee-wcs-guides.md)    | [![wpa](/doc/img/app/sml/wpa.jpg)](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md "Ver a las guías de Ws CRM Socios \[wpa]" )    | [Ws CRM Socios](/es-mx/o13/ee/wpa/es-mx-o13-ee-wpa-guides.md)    | [![wen](/doc/img/app/sml/wen.jpg)](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md "Ver a las guías de Ws Empresarial \[wen]" )   | [Ws Empresarial](/es-mx/o13/ee/wen/es-mx-o13-ee-wen-guides.md)   |</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>0</v>
@@ -6935,15 +7289,15 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="str">
-        <f>I100 &amp; MID(I101,2,LEN(I101)-2) &amp; "|" &amp; MID(I102,2,LEN(I102)-2) &amp; "|" &amp; MID(I103,2,LEN(I103)-2) &amp; "|"</f>
-        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" )         | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)         | [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" )         | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)         | [![wqt](/doc/img/app/sml/wqt.jpg)](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md "Goto Ws Quote guides \[wqt]" )           | [Ws Quote](/en-uk/o13/ee/wqt/en-uk-o13-ee-wqt-guides.md)           | [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" )  | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)  |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md "Goto Ws Event Quest guides \[weq]" )     | [Ws Event Quest](/en-uk/o13/ee/weq/en-uk-o13-ee-weq-guides.md)     | [![wet](/doc/img/app/sml/wet.jpg)](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md "Goto Ws Event Track guides \[wet]" )     | [Ws Event Track](/en-uk/o13/ee/wet/en-uk-o13-ee-wet-guides.md)     | [![wes](/doc/img/app/sml/wes.jpg)](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md "Goto Ws Event Sale guides \[wes]" )      | [Ws Event Sale](/en-uk/o13/ee/wes/en-uk-o13-ee-wes-guides.md)      | [![wev](/doc/img/app/sml/wev.jpg)](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md "Goto Ws Event guides \[wev]" )           | [Ws Event](/en-uk/o13/ee/wev/en-uk-o13-ee-wev-guides.md)           |</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D143" s="1" t="str">
-        <f>L100 &amp; MID(L101,2,LEN(L101)-2) &amp; "|" &amp; MID(L102,2,LEN(L102)-2) &amp; "|" &amp; MID(L103,2,LEN(L103)-2) &amp; "|"</f>
-        <v>| [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" )        | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)        | [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" )         | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)         | [![wqt](/doc/img/app/sml/wqt.jpg)](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md "Ver a las guías de Ws Cotizaciones \[wqt]" )  | [Ws Cotizaciones](/es-mx/o13/ee/wqt/es-mx-o13-ee-wqt-guides.md)  | [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md) |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![weq](/doc/img/app/sml/weq.jpg)](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md "Ver a las guías de Ws Eve Preguntas \[weq]" ) | [Ws Eve Preguntas](/es-mx/o13/ee/weq/es-mx-o13-ee-weq-guides.md) | [![wet](/doc/img/app/sml/wet.jpg)](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md "Ver a las guías de Ws Eve Segmnto \[wet]" )   | [Ws Eve Segmnto](/es-mx/o13/ee/wet/es-mx-o13-ee-wet-guides.md)   | [![wes](/doc/img/app/sml/wes.jpg)](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md "Ver a las guías de Ws Eve Ventas \[wes]" )    | [Ws Eve Ventas](/es-mx/o13/ee/wes/es-mx-o13-ee-wes-guides.md)    | [![wev](/doc/img/app/sml/wev.jpg)](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md "Ver a las guías de Ws Eventos \[wev]" )       | [Ws Eventos](/es-mx/o13/ee/wev/es-mx-o13-ee-wev-guides.md)       |</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>0</v>
@@ -6951,15 +7305,15 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="str">
-        <f>I104 &amp; MID(I105,2,LEN(I105)-2) &amp; "|" &amp; MID(I106,2,LEN(I106)-2) &amp; "|" &amp; MID(I107,2,LEN(I107)-2) &amp; "|"</f>
-        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" )   | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)   | [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" )    | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)    | [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" )   | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)   | [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" )         | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)         |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md "Goto Ws Forum Doc guides \[wfd]" )       | [Ws Forum Doc](/en-uk/o13/ee/wfd/en-uk-o13-ee-wfd-guides.md)       | [![wfe](/doc/img/app/sml/wfe.jpg)](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md "Goto Ws Forum Editor guides \[wfe]" )    | [Ws Forum Editor](/en-uk/o13/ee/wfe/en-uk-o13-ee-wfe-guides.md)    | [![wge](/doc/img/app/sml/wge.jpg)](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md "Goto Ws Gengo guides \[wge]" )           | [Ws Gengo](/en-uk/o13/ee/wge/en-uk-o13-ee-wge-guides.md)           | [![wti](/doc/img/app/sml/wti.jpg)](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md "Goto Ws Theme Install guides \[wti]" )   | [Ws Theme Install](/en-uk/o13/ee/wti/en-uk-o13-ee-wti-guides.md)   |</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D144" s="1" t="str">
-        <f>L104 &amp; MID(L105,2,LEN(L105)-2) &amp; "|" &amp; MID(L106,2,LEN(L106)-2) &amp; "|" &amp; MID(L107,2,LEN(L107)-2) &amp; "|"</f>
-        <v>| [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" )    | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)    | [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" )  | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)  | [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md) | [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" )       | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)       |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![wfd](/doc/img/app/sml/wfd.jpg)](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md "Ver a las guías de Ws Foro Docs \[wfd]" )     | [Ws Foro Docs](/es-mx/o13/ee/wfd/es-mx-o13-ee-wfd-guides.md)     | [![wfe](/doc/img/app/sml/wfe.jpg)](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md "Ver a las guías de Ws Foro Editor \[wfe]" )   | [Ws Foro Editor](/es-mx/o13/ee/wfe/es-mx-o13-ee-wfe-guides.md)   | [![wge](/doc/img/app/sml/wge.jpg)](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md "Ver a las guías de Ws Gengo \[wge]" )         | [Ws Gengo](/es-mx/o13/ee/wge/es-mx-o13-ee-wge-guides.md)         | [![wti](/doc/img/app/sml/wti.jpg)](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md "Ver a las guías de Ws Instalar Tema \[wti]" ) | [Ws Instalar Tema](/es-mx/o13/ee/wti/es-mx-o13-ee-wti-guides.md) |</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>0</v>
@@ -6967,440 +7321,55 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="str">
-        <f>I108 &amp; MID(I109,2,LEN(I109)-2) &amp; "|" &amp; MID(I110,2,LEN(I110)-2) &amp; "|" &amp; MID(I111,2,LEN(I111)-2) &amp; "|"</f>
-        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" )         | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)         | | | | | | |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md "Goto Ws Membership guides \[wme]" )      | [Ws Membership](/en-uk/o13/ee/wme/en-uk-o13-ee-wme-guides.md)      | [![wrc](/doc/img/app/sml/wrc.jpg)](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md "Goto Ws HR Recruit guides \[wrc]" )      | [Ws HR Recruit](/en-uk/o13/ee/wrc/en-uk-o13-ee-wrc-guides.md)      | [![whr](/doc/img/app/sml/whr.jpg)](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md "Goto Ws HR guides \[whr]" )              | [Ws HR](/en-uk/o13/ee/whr/en-uk-o13-ee-whr-guides.md)              | [![wpy](/doc/img/app/sml/wpy.jpg)](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md "Goto Ws Payment guides \[wpy]" )         | [Ws Payment](/en-uk/o13/ee/wpy/en-uk-o13-ee-wpy-guides.md)         |</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D145" s="1" t="str">
-        <f>L108 &amp; MID(L109,2,LEN(L109)-2) &amp; "|" &amp; MID(L110,2,LEN(L110)-2) &amp; "|" &amp; MID(L111,2,LEN(L111)-2) &amp; "|"</f>
-        <v>| [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" )       | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)       | | | | | | |</v>
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![wme](/doc/img/app/sml/wme.jpg)](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md "Ver a las guías de Ws Membresías \[wme]" )    | [Ws Membresías](/es-mx/o13/ee/wme/es-mx-o13-ee-wme-guides.md)    | [![wrc](/doc/img/app/sml/wrc.jpg)](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md "Ver a las guías de Ws Nom Reclut \[wrc]" )    | [Ws Nom Reclut](/es-mx/o13/ee/wrc/es-mx-o13-ee-wrc-guides.md)    | [![whr](/doc/img/app/sml/whr.jpg)](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md "Ver a las guías de Ws Nómina \[whr]" )        | [Ws Nómina](/es-mx/o13/ee/whr/es-mx-o13-ee-whr-guides.md)        | [![wpy](/doc/img/app/sml/wpy.jpg)](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md "Ver a las guías de Ws Pagos \[wpy]" )         | [Ws Pagos](/es-mx/o13/ee/wpy/es-mx-o13-ee-wpy-guides.md)         |</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1"/>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1"/>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
+      <c r="A146" s="1" t="str">
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md "Goto Ws Rating Project guides \[wrp]" )  | [Ws Rating Project](/en-uk/o13/ee/wrp/en-uk-o13-ee-wrp-guides.md)  | [![wpt](/doc/img/app/sml/wpt.jpg)](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md "Goto Ws Partner guides \[wpt]" )         | [Ws Partner](/en-uk/o13/ee/wpt/en-uk-o13-ee-wpt-guides.md)         | [![wtw](/doc/img/app/sml/wtw.jpg)](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md "Goto Ws Twitter guides \[wtw]" )         | [Ws Twitter](/en-uk/o13/ee/wtw/en-uk-o13-ee-wtw-guides.md)         | [![wsd](/doc/img/app/sml/wsd.jpg)](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md "Goto Ws Sale Delivery guides \[wsd]" )   | [Ws Sale Delivery](/en-uk/o13/ee/wsd/en-uk-o13-ee-wsd-guides.md)   |</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1" t="str">
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![wrp](/doc/img/app/sml/wrp.jpg)](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md "Ver a las guías de Ws Proy Clasific \[wrp]" ) | [Ws Proy Clasific](/es-mx/o13/ee/wrp/es-mx-o13-ee-wrp-guides.md) | [![wpt](/doc/img/app/sml/wpt.jpg)](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md "Ver a las guías de Ws Socios \[wpt]" )        | [Ws Socios](/es-mx/o13/ee/wpt/es-mx-o13-ee-wpt-guides.md)        | [![wtw](/doc/img/app/sml/wtw.jpg)](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md "Ver a las guías de Ws Twitter \[wtw]" )       | [Ws Twitter](/es-mx/o13/ee/wtw/es-mx-o13-ee-wtw-guides.md)       | [![wsd](/doc/img/app/sml/wsd.jpg)](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md "Ver a las guías de Ws Ven Envíos \[wsd]" )    | [Ws Ven Envíos](/es-mx/o13/ee/wsd/es-mx-o13-ee-wsd-guides.md)    |</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="str">
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md "Goto Ws Sale Options guides \[wso]" )    | [Ws Sale Options](/en-uk/o13/ee/wso/en-uk-o13-ee-wso-guides.md)    | [![wve](/doc/img/app/sml/wve.jpg)](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md "Goto Ws Version guides \[wve]" )         | [Ws Version](/en-uk/o13/ee/wve/en-uk-o13-ee-wve-guides.md)         | | | | |</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1" t="str">
+        <f ca="1">INDIRECT("F"&amp;((ROW()-MnuIni))*4&amp;"C" &amp; COLUMN()+8,FALSE) &amp; MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+1&amp;"C" &amp; COLUMN()+8,FALSE))-2)  &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+2&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|" &amp;  MID(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE),2,LEN(INDIRECT("F"&amp;((ROW()-MnuIni))*4+3&amp;"C" &amp; COLUMN()+8,FALSE))-2) &amp; "|"</f>
+        <v>| [![wso](/doc/img/app/sml/wso.jpg)](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md "Ver a las guías de Ws Ven Opciones \[wso]" )  | [Ws Ven Opciones](/es-mx/o13/ee/wso/es-mx-o13-ee-wso-guides.md)  | [![wve](/doc/img/app/sml/wve.jpg)](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md "Ver a las guías de Ws Versión \[wve]" )       | [Ws Versión](/es-mx/o13/ee/wve/es-mx-o13-ee-wve-guides.md)       | | | | |</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A4:M112">
-    <sortCondition ref="C4"/>
+  <sortState ref="A4:M113">
+    <sortCondition ref="E109"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/Reorder APPs Menu.xlsx
+++ b/doc/Reorder APPs Menu.xlsx
@@ -596,9 +596,6 @@
     <t>Ws Forum Doc</t>
   </si>
   <si>
-    <t>Ws Forum Editor</t>
-  </si>
-  <si>
     <t>Ws Gengo</t>
   </si>
   <si>
@@ -878,9 +875,6 @@
     <t>Ws Foro Docs</t>
   </si>
   <si>
-    <t>Ws Foro Editor</t>
-  </si>
-  <si>
     <t>Ws Nómina</t>
   </si>
   <si>
@@ -981,6 +975,12 @@
   </si>
   <si>
     <t>SORT es-mx ⯆</t>
+  </si>
+  <si>
+    <t>Ws Form Editor</t>
+  </si>
+  <si>
+    <t>Ws Editor Formas</t>
   </si>
 </sst>
 </file>
@@ -1355,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121:D147"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,10 +1368,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -1397,14 +1397,14 @@
         <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C4" t="str">
         <f>"_1_ "&amp; B4</f>
         <v>_1_ Odoo System</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" t="str">
         <f>"_1_ "&amp; D4</f>
@@ -1455,7 +1455,7 @@
         <v>_2_ Odoo Studio</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E5" t="str">
         <f>"_2_ "&amp; D5</f>
@@ -1506,7 +1506,7 @@
         <v>_3_ Odoo SH</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6" t="str">
         <f>"_3_ "&amp; D6</f>
@@ -1557,7 +1557,7 @@
         <v>_4_ 3rd Parties</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E7" t="str">
         <f>"_4_ "&amp; D7</f>
@@ -1598,37 +1598,37 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="C8" t="str">
         <f>B8</f>
-        <v>Assets</v>
+        <v>Accounting</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E8" t="str">
         <f>D8</f>
-        <v>Activos</v>
+        <v>Contabilidad</v>
       </c>
       <c r="F8">
         <f>LEN(B8)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <f>LEN(D8)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>"| [![" &amp; $A8 &amp; "](/doc/img/app/sml/" &amp; $A8 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A8 &amp; "/en-uk-o13-ee-" &amp; $A8 &amp; "-guides.md ""Goto " &amp; B8 &amp; " guides \[" &amp; $A8 &amp; "]"" ) | [" &amp; B8 &amp; "](/en-uk/o13/ee/"&amp;$A8&amp;"/en-uk-o13-ee-" &amp; $A8 &amp; "-guides.md)"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" ) | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" ) | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)</v>
       </c>
       <c r="I8" s="1" t="str">
         <f>LEFT(H8,LN_en_uk+F8-1) &amp; REPT(" ",ML_en_uk-F8) &amp; MID(H8,LN_en_uk+F8,200)&amp;REPT(" ",ML_en_uk-F8+1) &amp;"|"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" )             | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)             |</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" )         | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)         |</v>
       </c>
       <c r="J8" s="3" t="str">
         <f>""</f>
@@ -1636,11 +1636,11 @@
       </c>
       <c r="K8" s="1" t="str">
         <f>"| [![" &amp; $A8 &amp; "](/doc/img/app/sml/" &amp; $A8 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A8 &amp; "/es-mx-o13-ee-" &amp; $A8 &amp; "-guides.md ""Ver a las guías de " &amp; D8 &amp; " \[" &amp; $A8 &amp; "]"" ) | [" &amp; D8 &amp; "](/es-mx/o13/ee/"&amp;$A8&amp;"/es-mx-o13-ee-" &amp; $A8 &amp; "-guides.md)"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" ) | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" ) | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)</v>
       </c>
       <c r="L8" s="1" t="str">
         <f>LEFT(K8,LN_es_mx-1+G8) &amp; REPT(" ",ML_es_mx-G8) &amp; MID(K8,LN_es_mx+G8,200)&amp;REPT(" ",ML_es_mx-G8+1) &amp;"|"</f>
-        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )          | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)          |</v>
+        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )     | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)     |</v>
       </c>
       <c r="M8" s="4" t="str">
         <f>""</f>
@@ -1649,37 +1649,37 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C9" t="str">
         <f>B9</f>
-        <v>Timesheet</v>
+        <v>Appointments</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="E9" t="str">
         <f>D9</f>
-        <v>Agenda Móvil</v>
+        <v>Citas</v>
       </c>
       <c r="F9">
         <f>LEN(B9)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G9">
         <f>LEN(D9)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1" t="str">
         <f>"| [![" &amp; $A9 &amp; "](/doc/img/app/sml/" &amp; $A9 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A9 &amp; "/en-uk-o13-ee-" &amp; $A9 &amp; "-guides.md ""Goto " &amp; B9 &amp; " guides \[" &amp; $A9 &amp; "]"" ) | [" &amp; B9 &amp; "](/en-uk/o13/ee/"&amp;$A9&amp;"/en-uk-o13-ee-" &amp; $A9 &amp; "-guides.md)"</f>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" ) | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" ) | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)</v>
       </c>
       <c r="I9" s="1" t="str">
         <f>LEFT(H9,LN_en_uk+F9-1) &amp; REPT(" ",ML_en_uk-F9) &amp; MID(H9,LN_en_uk+F9,200)&amp;REPT(" ",ML_en_uk-F9+1) &amp;"|"</f>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md "Goto Timesheet guides \[tsh]" )          | [Timesheet](/en-uk/o13/ee/tsh/en-uk-o13-ee-tsh-guides.md)          |</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" )       | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)       |</v>
       </c>
       <c r="J9" s="3" t="str">
         <f>""</f>
@@ -1687,11 +1687,11 @@
       </c>
       <c r="K9" s="1" t="str">
         <f>"| [![" &amp; $A9 &amp; "](/doc/img/app/sml/" &amp; $A9 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A9 &amp; "/es-mx-o13-ee-" &amp; $A9 &amp; "-guides.md ""Ver a las guías de " &amp; D9 &amp; " \[" &amp; $A9 &amp; "]"" ) | [" &amp; D9 &amp; "](/es-mx/o13/ee/"&amp;$A9&amp;"/es-mx-o13-ee-" &amp; $A9 &amp; "-guides.md)"</f>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" ) | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" ) | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)</v>
       </c>
       <c r="L9" s="1" t="str">
         <f>LEFT(K9,LN_es_mx-1+G9) &amp; REPT(" ",ML_es_mx-G9) &amp; MID(K9,LN_es_mx+G9,200)&amp;REPT(" ",ML_es_mx-G9+1) &amp;"|"</f>
-        <v>| [![tsh](/doc/img/app/sml/tsh.jpg)](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md "Ver a las guías de Agenda Móvil \[tsh]" )     | [Agenda Móvil](/es-mx/o13/ee/tsh/es-mx-o13-ee-tsh-guides.md)     |</v>
+        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )            | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)            |</v>
       </c>
       <c r="M9" s="4" t="str">
         <f>""</f>
@@ -1700,37 +1700,37 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="C10" t="str">
         <f>B10</f>
-        <v>Attendance</v>
+        <v>Appraisal</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E10" t="str">
         <f>D10</f>
-        <v>Asistencia</v>
+        <v>Evaluaciones</v>
       </c>
       <c r="F10">
         <f>LEN(B10)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <f>LEN(D10)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H10" s="1" t="str">
         <f>"| [![" &amp; $A10 &amp; "](/doc/img/app/sml/" &amp; $A10 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A10 &amp; "/en-uk-o13-ee-" &amp; $A10 &amp; "-guides.md ""Goto " &amp; B10 &amp; " guides \[" &amp; $A10 &amp; "]"" ) | [" &amp; B10 &amp; "](/en-uk/o13/ee/"&amp;$A10&amp;"/en-uk-o13-ee-" &amp; $A10 &amp; "-guides.md)"</f>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" ) | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" ) | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)</v>
       </c>
       <c r="I10" s="1" t="str">
         <f>LEFT(H10,LN_en_uk+F10-1) &amp; REPT(" ",ML_en_uk-F10) &amp; MID(H10,LN_en_uk+F10,200)&amp;REPT(" ",ML_en_uk-F10+1) &amp;"|"</f>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" )         | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)         |</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" )          | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)          |</v>
       </c>
       <c r="J10" s="3" t="str">
         <f>""</f>
@@ -1738,11 +1738,11 @@
       </c>
       <c r="K10" s="1" t="str">
         <f>"| [![" &amp; $A10 &amp; "](/doc/img/app/sml/" &amp; $A10 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A10 &amp; "/es-mx-o13-ee-" &amp; $A10 &amp; "-guides.md ""Ver a las guías de " &amp; D10 &amp; " \[" &amp; $A10 &amp; "]"" ) | [" &amp; D10 &amp; "](/es-mx/o13/ee/"&amp;$A10&amp;"/es-mx-o13-ee-" &amp; $A10 &amp; "-guides.md)"</f>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" ) | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" ) | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)</v>
       </c>
       <c r="L10" s="1" t="str">
         <f>LEFT(K10,LN_es_mx-1+G10) &amp; REPT(" ",ML_es_mx-G10) &amp; MID(K10,LN_es_mx+G10,200)&amp;REPT(" ",ML_es_mx-G10+1) &amp;"|"</f>
-        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )       | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)       |</v>
+        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )     | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)     |</v>
       </c>
       <c r="M10" s="4" t="str">
         <f>""</f>
@@ -1761,7 +1761,7 @@
         <v>Approvals</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E11" t="str">
         <f>D11</f>
@@ -1802,37 +1802,37 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="C12" t="str">
         <f>B12</f>
-        <v>Blog</v>
+        <v>Assets</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>215</v>
       </c>
       <c r="E12" t="str">
         <f>D12</f>
-        <v>Blog</v>
+        <v>Activos</v>
       </c>
       <c r="F12">
         <f>LEN(B12)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <f>LEN(D12)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1" t="str">
         <f>"| [![" &amp; $A12 &amp; "](/doc/img/app/sml/" &amp; $A12 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A12 &amp; "/en-uk-o13-ee-" &amp; $A12 &amp; "-guides.md ""Goto " &amp; B12 &amp; " guides \[" &amp; $A12 &amp; "]"" ) | [" &amp; B12 &amp; "](/en-uk/o13/ee/"&amp;$A12&amp;"/en-uk-o13-ee-" &amp; $A12 &amp; "-guides.md)"</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" ) | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" ) | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)</v>
       </c>
       <c r="I12" s="1" t="str">
         <f>LEFT(H12,LN_en_uk+F12-1) &amp; REPT(" ",ML_en_uk-F12) &amp; MID(H12,LN_en_uk+F12,200)&amp;REPT(" ",ML_en_uk-F12+1) &amp;"|"</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" )               | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)               |</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md "Goto Assets guides \[ast]" )             | [Assets](/en-uk/o13/ee/ast/en-uk-o13-ee-ast-guides.md)             |</v>
       </c>
       <c r="J12" s="3" t="str">
         <f>""</f>
@@ -1840,11 +1840,11 @@
       </c>
       <c r="K12" s="1" t="str">
         <f>"| [![" &amp; $A12 &amp; "](/doc/img/app/sml/" &amp; $A12 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A12 &amp; "/es-mx-o13-ee-" &amp; $A12 &amp; "-guides.md ""Ver a las guías de " &amp; D12 &amp; " \[" &amp; $A12 &amp; "]"" ) | [" &amp; D12 &amp; "](/es-mx/o13/ee/"&amp;$A12&amp;"/es-mx-o13-ee-" &amp; $A12 &amp; "-guides.md)"</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" ) | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" ) | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)</v>
       </c>
       <c r="L12" s="1" t="str">
         <f>LEFT(K12,LN_es_mx-1+G12) &amp; REPT(" ",ML_es_mx-G12) &amp; MID(K12,LN_es_mx+G12,200)&amp;REPT(" ",ML_es_mx-G12+1) &amp;"|"</f>
-        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )             | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)             |</v>
+        <v>| [![ast](/doc/img/app/sml/ast.jpg)](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md "Ver a las guías de Activos \[ast]" )          | [Activos](/es-mx/o13/ee/ast/es-mx-o13-ee-ast-guides.md)          |</v>
       </c>
       <c r="M12" s="4" t="str">
         <f>""</f>
@@ -1853,25 +1853,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="C13" t="str">
         <f>B13</f>
-        <v>Calendar</v>
+        <v>Attendance</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E13" t="str">
         <f>D13</f>
-        <v>Calendario</v>
+        <v>Asistencia</v>
       </c>
       <c r="F13">
         <f>LEN(B13)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <f>LEN(D13)</f>
@@ -1879,11 +1879,11 @@
       </c>
       <c r="H13" s="1" t="str">
         <f>"| [![" &amp; $A13 &amp; "](/doc/img/app/sml/" &amp; $A13 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A13 &amp; "/en-uk-o13-ee-" &amp; $A13 &amp; "-guides.md ""Goto " &amp; B13 &amp; " guides \[" &amp; $A13 &amp; "]"" ) | [" &amp; B13 &amp; "](/en-uk/o13/ee/"&amp;$A13&amp;"/en-uk-o13-ee-" &amp; $A13 &amp; "-guides.md)"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" ) | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" ) | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)</v>
       </c>
       <c r="I13" s="1" t="str">
         <f>LEFT(H13,LN_en_uk+F13-1) &amp; REPT(" ",ML_en_uk-F13) &amp; MID(H13,LN_en_uk+F13,200)&amp;REPT(" ",ML_en_uk-F13+1) &amp;"|"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" )           | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)           |</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md "Goto Attendance guides \[atn]" )         | [Attendance](/en-uk/o13/ee/atn/en-uk-o13-ee-atn-guides.md)         |</v>
       </c>
       <c r="J13" s="3" t="str">
         <f>""</f>
@@ -1891,11 +1891,11 @@
       </c>
       <c r="K13" s="1" t="str">
         <f>"| [![" &amp; $A13 &amp; "](/doc/img/app/sml/" &amp; $A13 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A13 &amp; "/es-mx-o13-ee-" &amp; $A13 &amp; "-guides.md ""Ver a las guías de " &amp; D13 &amp; " \[" &amp; $A13 &amp; "]"" ) | [" &amp; D13 &amp; "](/es-mx/o13/ee/"&amp;$A13&amp;"/es-mx-o13-ee-" &amp; $A13 &amp; "-guides.md)"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" ) | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" ) | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)</v>
       </c>
       <c r="L13" s="1" t="str">
         <f>LEFT(K13,LN_es_mx-1+G13) &amp; REPT(" ",ML_es_mx-G13) &amp; MID(K13,LN_es_mx+G13,200)&amp;REPT(" ",ML_es_mx-G13+1) &amp;"|"</f>
-        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )       | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)       |</v>
+        <v>| [![atn](/doc/img/app/sml/atn.jpg)](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md "Ver a las guías de Asistencia \[atn]" )       | [Asistencia](/es-mx/o13/ee/atn/es-mx-o13-ee-atn-guides.md)       |</v>
       </c>
       <c r="M13" s="4" t="str">
         <f>""</f>
@@ -1904,37 +1904,37 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C14" t="str">
         <f>B14</f>
-        <v>Mass Mail</v>
+        <v>Bar Code</v>
       </c>
       <c r="D14" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="E14" t="str">
         <f>D14</f>
-        <v>Campañas</v>
+        <v>Código de Barras</v>
       </c>
       <c r="F14">
         <f>LEN(B14)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <f>LEN(D14)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="str">
         <f>"| [![" &amp; $A14 &amp; "](/doc/img/app/sml/" &amp; $A14 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A14 &amp; "/en-uk-o13-ee-" &amp; $A14 &amp; "-guides.md ""Goto " &amp; B14 &amp; " guides \[" &amp; $A14 &amp; "]"" ) | [" &amp; B14 &amp; "](/en-uk/o13/ee/"&amp;$A14&amp;"/en-uk-o13-ee-" &amp; $A14 &amp; "-guides.md)"</f>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" ) | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" ) | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)</v>
       </c>
       <c r="I14" s="1" t="str">
         <f>LEFT(H14,LN_en_uk+F14-1) &amp; REPT(" ",ML_en_uk-F14) &amp; MID(H14,LN_en_uk+F14,200)&amp;REPT(" ",ML_en_uk-F14+1) &amp;"|"</f>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" )          | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)          |</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" )           | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)           |</v>
       </c>
       <c r="J14" s="3" t="str">
         <f>""</f>
@@ -1942,11 +1942,11 @@
       </c>
       <c r="K14" s="1" t="str">
         <f>"| [![" &amp; $A14 &amp; "](/doc/img/app/sml/" &amp; $A14 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A14 &amp; "/es-mx-o13-ee-" &amp; $A14 &amp; "-guides.md ""Ver a las guías de " &amp; D14 &amp; " \[" &amp; $A14 &amp; "]"" ) | [" &amp; D14 &amp; "](/es-mx/o13/ee/"&amp;$A14&amp;"/es-mx-o13-ee-" &amp; $A14 &amp; "-guides.md)"</f>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" ) | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md)</v>
       </c>
       <c r="L14" s="1" t="str">
         <f>LEFT(K14,LN_es_mx-1+G14) &amp; REPT(" ",ML_es_mx-G14) &amp; MID(K14,LN_es_mx+G14,200)&amp;REPT(" ",ML_es_mx-G14+1) &amp;"|"</f>
-        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )         | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)         |</v>
+        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md) |</v>
       </c>
       <c r="M14" s="4" t="str">
         <f>""</f>
@@ -1955,37 +1955,37 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C15" t="str">
         <f>B15</f>
-        <v>Discuss</v>
+        <v>Blog</v>
       </c>
       <c r="D15" t="s">
-        <v>227</v>
+        <v>110</v>
       </c>
       <c r="E15" t="str">
         <f>D15</f>
-        <v>Charlas</v>
+        <v>Blog</v>
       </c>
       <c r="F15">
         <f>LEN(B15)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G15">
         <f>LEN(D15)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H15" s="1" t="str">
         <f>"| [![" &amp; $A15 &amp; "](/doc/img/app/sml/" &amp; $A15 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A15 &amp; "/en-uk-o13-ee-" &amp; $A15 &amp; "-guides.md ""Goto " &amp; B15 &amp; " guides \[" &amp; $A15 &amp; "]"" ) | [" &amp; B15 &amp; "](/en-uk/o13/ee/"&amp;$A15&amp;"/en-uk-o13-ee-" &amp; $A15 &amp; "-guides.md)"</f>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" ) | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" ) | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)</v>
       </c>
       <c r="I15" s="1" t="str">
         <f>LEFT(H15,LN_en_uk+F15-1) &amp; REPT(" ",ML_en_uk-F15) &amp; MID(H15,LN_en_uk+F15,200)&amp;REPT(" ",ML_en_uk-F15+1) &amp;"|"</f>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" )            | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)            |</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md "Goto Blog guides \[blg]" )               | [Blog](/en-uk/o13/ee/blg/en-uk-o13-ee-blg-guides.md)               |</v>
       </c>
       <c r="J15" s="3" t="str">
         <f>""</f>
@@ -1993,11 +1993,11 @@
       </c>
       <c r="K15" s="1" t="str">
         <f>"| [![" &amp; $A15 &amp; "](/doc/img/app/sml/" &amp; $A15 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A15 &amp; "/es-mx-o13-ee-" &amp; $A15 &amp; "-guides.md ""Ver a las guías de " &amp; D15 &amp; " \[" &amp; $A15 &amp; "]"" ) | [" &amp; D15 &amp; "](/es-mx/o13/ee/"&amp;$A15&amp;"/es-mx-o13-ee-" &amp; $A15 &amp; "-guides.md)"</f>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" ) | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" ) | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)</v>
       </c>
       <c r="L15" s="1" t="str">
         <f>LEFT(K15,LN_es_mx-1+G15) &amp; REPT(" ",ML_es_mx-G15) &amp; MID(K15,LN_es_mx+G15,200)&amp;REPT(" ",ML_es_mx-G15+1) &amp;"|"</f>
-        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )          | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)          |</v>
+        <v>| [![blg](/doc/img/app/sml/blg.jpg)](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md "Ver a las guías de Blog \[blg]" )             | [Blog](/es-mx/o13/ee/blg/es-mx-o13-ee-blg-guides.md)             |</v>
       </c>
       <c r="M15" s="4" t="str">
         <f>""</f>
@@ -2006,37 +2006,37 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C16" t="str">
         <f>B16</f>
-        <v>Live Chat</v>
+        <v>Calendar</v>
       </c>
       <c r="D16" t="s">
-        <v>287</v>
+        <v>218</v>
       </c>
       <c r="E16" t="str">
         <f>D16</f>
-        <v>Chat en Línea</v>
+        <v>Calendario</v>
       </c>
       <c r="F16">
         <f>LEN(B16)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16">
         <f>LEN(D16)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1" t="str">
         <f>"| [![" &amp; $A16 &amp; "](/doc/img/app/sml/" &amp; $A16 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A16 &amp; "/en-uk-o13-ee-" &amp; $A16 &amp; "-guides.md ""Goto " &amp; B16 &amp; " guides \[" &amp; $A16 &amp; "]"" ) | [" &amp; B16 &amp; "](/en-uk/o13/ee/"&amp;$A16&amp;"/en-uk-o13-ee-" &amp; $A16 &amp; "-guides.md)"</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" ) | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" ) | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)</v>
       </c>
       <c r="I16" s="1" t="str">
         <f>LEFT(H16,LN_en_uk+F16-1) &amp; REPT(" ",ML_en_uk-F16) &amp; MID(H16,LN_en_uk+F16,200)&amp;REPT(" ",ML_en_uk-F16+1) &amp;"|"</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" )          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)          |</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md "Goto Calendar guides \[cal]" )           | [Calendar](/en-uk/o13/ee/cal/en-uk-o13-ee-cal-guides.md)           |</v>
       </c>
       <c r="J16" s="3" t="str">
         <f>""</f>
@@ -2044,11 +2044,11 @@
       </c>
       <c r="K16" s="1" t="str">
         <f>"| [![" &amp; $A16 &amp; "](/doc/img/app/sml/" &amp; $A16 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A16 &amp; "/es-mx-o13-ee-" &amp; $A16 &amp; "-guides.md ""Ver a las guías de " &amp; D16 &amp; " \[" &amp; $A16 &amp; "]"" ) | [" &amp; D16 &amp; "](/es-mx/o13/ee/"&amp;$A16&amp;"/es-mx-o13-ee-" &amp; $A16 &amp; "-guides.md)"</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" ) | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" ) | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)</v>
       </c>
       <c r="L16" s="1" t="str">
         <f>LEFT(K16,LN_es_mx-1+G16) &amp; REPT(" ",ML_es_mx-G16) &amp; MID(K16,LN_es_mx+G16,200)&amp;REPT(" ",ML_es_mx-G16+1) &amp;"|"</f>
-        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )    | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)    |</v>
+        <v>| [![cal](/doc/img/app/sml/cal.jpg)](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md "Ver a las guías de Calendario \[cal]" )       | [Calendario](/es-mx/o13/ee/cal/es-mx-o13-ee-cal-guides.md)       |</v>
       </c>
       <c r="M16" s="4" t="str">
         <f>""</f>
@@ -2057,37 +2057,37 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C17" t="str">
         <f>B17</f>
-        <v>Appointments</v>
+        <v>Contacts</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E17" t="str">
         <f>D17</f>
-        <v>Citas</v>
+        <v>Contactos</v>
       </c>
       <c r="F17">
         <f>LEN(B17)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <f>LEN(D17)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1" t="str">
         <f>"| [![" &amp; $A17 &amp; "](/doc/img/app/sml/" &amp; $A17 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A17 &amp; "/en-uk-o13-ee-" &amp; $A17 &amp; "-guides.md ""Goto " &amp; B17 &amp; " guides \[" &amp; $A17 &amp; "]"" ) | [" &amp; B17 &amp; "](/en-uk/o13/ee/"&amp;$A17&amp;"/en-uk-o13-ee-" &amp; $A17 &amp; "-guides.md)"</f>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" ) | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" ) | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)</v>
       </c>
       <c r="I17" s="1" t="str">
         <f>LEFT(H17,LN_en_uk+F17-1) &amp; REPT(" ",ML_en_uk-F17) &amp; MID(H17,LN_en_uk+F17,200)&amp;REPT(" ",ML_en_uk-F17+1) &amp;"|"</f>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md "Goto Appointments guides \[apt]" )       | [Appointments](/en-uk/o13/ee/apt/en-uk-o13-ee-apt-guides.md)       |</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" )           | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)           |</v>
       </c>
       <c r="J17" s="3" t="str">
         <f>""</f>
@@ -2095,11 +2095,11 @@
       </c>
       <c r="K17" s="1" t="str">
         <f>"| [![" &amp; $A17 &amp; "](/doc/img/app/sml/" &amp; $A17 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A17 &amp; "/es-mx-o13-ee-" &amp; $A17 &amp; "-guides.md ""Ver a las guías de " &amp; D17 &amp; " \[" &amp; $A17 &amp; "]"" ) | [" &amp; D17 &amp; "](/es-mx/o13/ee/"&amp;$A17&amp;"/es-mx-o13-ee-" &amp; $A17 &amp; "-guides.md)"</f>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" ) | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" ) | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)</v>
       </c>
       <c r="L17" s="1" t="str">
         <f>LEFT(K17,LN_es_mx-1+G17) &amp; REPT(" ",ML_es_mx-G17) &amp; MID(K17,LN_es_mx+G17,200)&amp;REPT(" ",ML_es_mx-G17+1) &amp;"|"</f>
-        <v>| [![apt](/doc/img/app/sml/apt.jpg)](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md "Ver a las guías de Citas \[apt]" )            | [Citas](/es-mx/o13/ee/apt/es-mx-o13-ee-apt-guides.md)            |</v>
+        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )        | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)        |</v>
       </c>
       <c r="M17" s="4" t="str">
         <f>""</f>
@@ -2108,37 +2108,37 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C18" t="str">
         <f>B18</f>
-        <v>Bar Code</v>
+        <v>CRM</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
       <c r="E18" t="str">
         <f>D18</f>
-        <v>Código de Barras</v>
+        <v>CRM</v>
       </c>
       <c r="F18">
         <f>LEN(B18)</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G18">
         <f>LEN(D18)</f>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1" t="str">
         <f>"| [![" &amp; $A18 &amp; "](/doc/img/app/sml/" &amp; $A18 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A18 &amp; "/en-uk-o13-ee-" &amp; $A18 &amp; "-guides.md ""Goto " &amp; B18 &amp; " guides \[" &amp; $A18 &amp; "]"" ) | [" &amp; B18 &amp; "](/en-uk/o13/ee/"&amp;$A18&amp;"/en-uk-o13-ee-" &amp; $A18 &amp; "-guides.md)"</f>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" ) | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" ) | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)</v>
       </c>
       <c r="I18" s="1" t="str">
         <f>LEFT(H18,LN_en_uk+F18-1) &amp; REPT(" ",ML_en_uk-F18) &amp; MID(H18,LN_en_uk+F18,200)&amp;REPT(" ",ML_en_uk-F18+1) &amp;"|"</f>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md "Goto Bar Code guides \[bar]" )           | [Bar Code](/en-uk/o13/ee/bar/en-uk-o13-ee-bar-guides.md)           |</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" )                | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)                |</v>
       </c>
       <c r="J18" s="3" t="str">
         <f>""</f>
@@ -2146,11 +2146,11 @@
       </c>
       <c r="K18" s="1" t="str">
         <f>"| [![" &amp; $A18 &amp; "](/doc/img/app/sml/" &amp; $A18 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A18 &amp; "/es-mx-o13-ee-" &amp; $A18 &amp; "-guides.md ""Ver a las guías de " &amp; D18 &amp; " \[" &amp; $A18 &amp; "]"" ) | [" &amp; D18 &amp; "](/es-mx/o13/ee/"&amp;$A18&amp;"/es-mx-o13-ee-" &amp; $A18 &amp; "-guides.md)"</f>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md)</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" ) | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)</v>
       </c>
       <c r="L18" s="1" t="str">
         <f>LEFT(K18,LN_es_mx-1+G18) &amp; REPT(" ",ML_es_mx-G18) &amp; MID(K18,LN_es_mx+G18,200)&amp;REPT(" ",ML_es_mx-G18+1) &amp;"|"</f>
-        <v>| [![bar](/doc/img/app/sml/bar.jpg)](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md "Ver a las guías de Código de Barras \[bar]" ) | [Código de Barras](/es-mx/o13/ee/bar/es-mx-o13-ee-bar-guides.md) |</v>
+        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )              | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)              |</v>
       </c>
       <c r="M18" s="4" t="str">
         <f>""</f>
@@ -2159,37 +2159,37 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="C19" t="str">
         <f>B19</f>
-        <v>Lunch</v>
+        <v>Dashboards</v>
       </c>
       <c r="D19" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="E19" t="str">
         <f>D19</f>
-        <v>Comidas</v>
+        <v>Tableros</v>
       </c>
       <c r="F19">
         <f>LEN(B19)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <f>LEN(D19)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" s="1" t="str">
         <f>"| [![" &amp; $A19 &amp; "](/doc/img/app/sml/" &amp; $A19 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A19 &amp; "/en-uk-o13-ee-" &amp; $A19 &amp; "-guides.md ""Goto " &amp; B19 &amp; " guides \[" &amp; $A19 &amp; "]"" ) | [" &amp; B19 &amp; "](/en-uk/o13/ee/"&amp;$A19&amp;"/en-uk-o13-ee-" &amp; $A19 &amp; "-guides.md)"</f>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" ) | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" ) | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)</v>
       </c>
       <c r="I19" s="1" t="str">
         <f>LEFT(H19,LN_en_uk+F19-1) &amp; REPT(" ",ML_en_uk-F19) &amp; MID(H19,LN_en_uk+F19,200)&amp;REPT(" ",ML_en_uk-F19+1) &amp;"|"</f>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" )              | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)              |</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md "Goto Dashboards guides \[dsh]" )         | [Dashboards](/en-uk/o13/ee/dsh/en-uk-o13-ee-dsh-guides.md)         |</v>
       </c>
       <c r="J19" s="3" t="str">
         <f>""</f>
@@ -2197,11 +2197,11 @@
       </c>
       <c r="K19" s="1" t="str">
         <f>"| [![" &amp; $A19 &amp; "](/doc/img/app/sml/" &amp; $A19 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A19 &amp; "/es-mx-o13-ee-" &amp; $A19 &amp; "-guides.md ""Ver a las guías de " &amp; D19 &amp; " \[" &amp; $A19 &amp; "]"" ) | [" &amp; D19 &amp; "](/es-mx/o13/ee/"&amp;$A19&amp;"/es-mx-o13-ee-" &amp; $A19 &amp; "-guides.md)"</f>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" ) | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" ) | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)</v>
       </c>
       <c r="L19" s="1" t="str">
         <f>LEFT(K19,LN_es_mx-1+G19) &amp; REPT(" ",ML_es_mx-G19) &amp; MID(K19,LN_es_mx+G19,200)&amp;REPT(" ",ML_es_mx-G19+1) &amp;"|"</f>
-        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )          | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)          |</v>
+        <v>| [![dsh](/doc/img/app/sml/dsh.jpg)](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md "Ver a las guías de Tableros \[dsh]" )         | [Tableros](/es-mx/o13/ee/dsh/es-mx-o13-ee-dsh-guides.md)         |</v>
       </c>
       <c r="M19" s="4" t="str">
         <f>""</f>
@@ -2210,25 +2210,25 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C20" t="str">
         <f>B20</f>
-        <v>Skills</v>
+        <v>Delivery Bpost</v>
       </c>
       <c r="D20" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="E20" t="str">
         <f>D20</f>
-        <v>Competencias</v>
+        <v>Envíos Bpost</v>
       </c>
       <c r="F20">
         <f>LEN(B20)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G20">
         <f>LEN(D20)</f>
@@ -2236,11 +2236,11 @@
       </c>
       <c r="H20" s="1" t="str">
         <f>"| [![" &amp; $A20 &amp; "](/doc/img/app/sml/" &amp; $A20 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A20 &amp; "/en-uk-o13-ee-" &amp; $A20 &amp; "-guides.md ""Goto " &amp; B20 &amp; " guides \[" &amp; $A20 &amp; "]"" ) | [" &amp; B20 &amp; "](/en-uk/o13/ee/"&amp;$A20&amp;"/en-uk-o13-ee-" &amp; $A20 &amp; "-guides.md)"</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" ) | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" ) | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)</v>
       </c>
       <c r="I20" s="1" t="str">
         <f>LEFT(H20,LN_en_uk+F20-1) &amp; REPT(" ",ML_en_uk-F20) &amp; MID(H20,LN_en_uk+F20,200)&amp;REPT(" ",ML_en_uk-F20+1) &amp;"|"</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" )             | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)             |</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" )     | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)     |</v>
       </c>
       <c r="J20" s="3" t="str">
         <f>""</f>
@@ -2248,11 +2248,11 @@
       </c>
       <c r="K20" s="1" t="str">
         <f>"| [![" &amp; $A20 &amp; "](/doc/img/app/sml/" &amp; $A20 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A20 &amp; "/es-mx-o13-ee-" &amp; $A20 &amp; "-guides.md ""Ver a las guías de " &amp; D20 &amp; " \[" &amp; $A20 &amp; "]"" ) | [" &amp; D20 &amp; "](/es-mx/o13/ee/"&amp;$A20&amp;"/es-mx-o13-ee-" &amp; $A20 &amp; "-guides.md)"</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" ) | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" ) | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)</v>
       </c>
       <c r="L20" s="1" t="str">
         <f>LEFT(K20,LN_es_mx-1+G20) &amp; REPT(" ",ML_es_mx-G20) &amp; MID(K20,LN_es_mx+G20,200)&amp;REPT(" ",ML_es_mx-G20+1) &amp;"|"</f>
-        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )     | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)     |</v>
+        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )     | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)     |</v>
       </c>
       <c r="M20" s="4" t="str">
         <f>""</f>
@@ -2261,37 +2261,37 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C21" t="str">
         <f>B21</f>
-        <v>Purchasing</v>
+        <v>Delivery DHL</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="E21" t="str">
         <f>D21</f>
-        <v>Compras</v>
+        <v>Envíos DHL</v>
       </c>
       <c r="F21">
         <f>LEN(B21)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G21">
         <f>LEN(D21)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H21" s="1" t="str">
         <f>"| [![" &amp; $A21 &amp; "](/doc/img/app/sml/" &amp; $A21 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A21 &amp; "/en-uk-o13-ee-" &amp; $A21 &amp; "-guides.md ""Goto " &amp; B21 &amp; " guides \[" &amp; $A21 &amp; "]"" ) | [" &amp; B21 &amp; "](/en-uk/o13/ee/"&amp;$A21&amp;"/en-uk-o13-ee-" &amp; $A21 &amp; "-guides.md)"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" ) | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" ) | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)</v>
       </c>
       <c r="I21" s="1" t="str">
         <f>LEFT(H21,LN_en_uk+F21-1) &amp; REPT(" ",ML_en_uk-F21) &amp; MID(H21,LN_en_uk+F21,200)&amp;REPT(" ",ML_en_uk-F21+1) &amp;"|"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" )         | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)         |</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" )       | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)       |</v>
       </c>
       <c r="J21" s="3" t="str">
         <f>""</f>
@@ -2299,11 +2299,11 @@
       </c>
       <c r="K21" s="1" t="str">
         <f>"| [![" &amp; $A21 &amp; "](/doc/img/app/sml/" &amp; $A21 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A21 &amp; "/es-mx-o13-ee-" &amp; $A21 &amp; "-guides.md ""Ver a las guías de " &amp; D21 &amp; " \[" &amp; $A21 &amp; "]"" ) | [" &amp; D21 &amp; "](/es-mx/o13/ee/"&amp;$A21&amp;"/es-mx-o13-ee-" &amp; $A21 &amp; "-guides.md)"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" ) | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" ) | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)</v>
       </c>
       <c r="L21" s="1" t="str">
         <f>LEFT(K21,LN_es_mx-1+G21) &amp; REPT(" ",ML_es_mx-G21) &amp; MID(K21,LN_es_mx+G21,200)&amp;REPT(" ",ML_es_mx-G21+1) &amp;"|"</f>
-        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )          | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)          |</v>
+        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )       | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)       |</v>
       </c>
       <c r="M21" s="4" t="str">
         <f>""</f>
@@ -2312,37 +2312,37 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="C22" t="str">
         <f>B22</f>
-        <v>Settings</v>
+        <v>Delivery FedEx</v>
       </c>
       <c r="D22" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="E22" t="str">
         <f>D22</f>
-        <v>Configuración</v>
+        <v>Envíos FedEx</v>
       </c>
       <c r="F22">
         <f>LEN(B22)</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G22">
         <f>LEN(D22)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1" t="str">
         <f>"| [![" &amp; $A22 &amp; "](/doc/img/app/sml/" &amp; $A22 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A22 &amp; "/en-uk-o13-ee-" &amp; $A22 &amp; "-guides.md ""Goto " &amp; B22 &amp; " guides \[" &amp; $A22 &amp; "]"" ) | [" &amp; B22 &amp; "](/en-uk/o13/ee/"&amp;$A22&amp;"/en-uk-o13-ee-" &amp; $A22 &amp; "-guides.md)"</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" ) | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" ) | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)</v>
       </c>
       <c r="I22" s="1" t="str">
         <f>LEFT(H22,LN_en_uk+F22-1) &amp; REPT(" ",ML_en_uk-F22) &amp; MID(H22,LN_en_uk+F22,200)&amp;REPT(" ",ML_en_uk-F22+1) &amp;"|"</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" )           | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)           |</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" )     | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)     |</v>
       </c>
       <c r="J22" s="3" t="str">
         <f>""</f>
@@ -2350,11 +2350,11 @@
       </c>
       <c r="K22" s="1" t="str">
         <f>"| [![" &amp; $A22 &amp; "](/doc/img/app/sml/" &amp; $A22 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A22 &amp; "/es-mx-o13-ee-" &amp; $A22 &amp; "-guides.md ""Ver a las guías de " &amp; D22 &amp; " \[" &amp; $A22 &amp; "]"" ) | [" &amp; D22 &amp; "](/es-mx/o13/ee/"&amp;$A22&amp;"/es-mx-o13-ee-" &amp; $A22 &amp; "-guides.md)"</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" ) | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" ) | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)</v>
       </c>
       <c r="L22" s="1" t="str">
         <f>LEFT(K22,LN_es_mx-1+G22) &amp; REPT(" ",ML_es_mx-G22) &amp; MID(K22,LN_es_mx+G22,200)&amp;REPT(" ",ML_es_mx-G22+1) &amp;"|"</f>
-        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )    | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)    |</v>
+        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )     | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)     |</v>
       </c>
       <c r="M22" s="4" t="str">
         <f>""</f>
@@ -2363,37 +2363,37 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="C23" t="str">
         <f>B23</f>
-        <v>Accounting</v>
+        <v>Delivery UPS</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="E23" t="str">
         <f>D23</f>
-        <v>Contabilidad</v>
+        <v>Envíos UPS</v>
       </c>
       <c r="F23">
         <f>LEN(B23)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G23">
         <f>LEN(D23)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1" t="str">
         <f>"| [![" &amp; $A23 &amp; "](/doc/img/app/sml/" &amp; $A23 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A23 &amp; "/en-uk-o13-ee-" &amp; $A23 &amp; "-guides.md ""Goto " &amp; B23 &amp; " guides \[" &amp; $A23 &amp; "]"" ) | [" &amp; B23 &amp; "](/en-uk/o13/ee/"&amp;$A23&amp;"/en-uk-o13-ee-" &amp; $A23 &amp; "-guides.md)"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" ) | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" ) | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)</v>
       </c>
       <c r="I23" s="1" t="str">
         <f>LEFT(H23,LN_en_uk+F23-1) &amp; REPT(" ",ML_en_uk-F23) &amp; MID(H23,LN_en_uk+F23,200)&amp;REPT(" ",ML_en_uk-F23+1) &amp;"|"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md "Goto Accounting guides \[acc]" )         | [Accounting](/en-uk/o13/ee/acc/en-uk-o13-ee-acc-guides.md)         |</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" )       | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)       |</v>
       </c>
       <c r="J23" s="3" t="str">
         <f>""</f>
@@ -2401,11 +2401,11 @@
       </c>
       <c r="K23" s="1" t="str">
         <f>"| [![" &amp; $A23 &amp; "](/doc/img/app/sml/" &amp; $A23 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A23 &amp; "/es-mx-o13-ee-" &amp; $A23 &amp; "-guides.md ""Ver a las guías de " &amp; D23 &amp; " \[" &amp; $A23 &amp; "]"" ) | [" &amp; D23 &amp; "](/es-mx/o13/ee/"&amp;$A23&amp;"/es-mx-o13-ee-" &amp; $A23 &amp; "-guides.md)"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" ) | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" ) | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)</v>
       </c>
       <c r="L23" s="1" t="str">
         <f>LEFT(K23,LN_es_mx-1+G23) &amp; REPT(" ",ML_es_mx-G23) &amp; MID(K23,LN_es_mx+G23,200)&amp;REPT(" ",ML_es_mx-G23+1) &amp;"|"</f>
-        <v>| [![acc](/doc/img/app/sml/acc.jpg)](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md "Ver a las guías de Contabilidad \[acc]" )     | [Contabilidad](/es-mx/o13/ee/acc/es-mx-o13-ee-acc-guides.md)     |</v>
+        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )       | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)       |</v>
       </c>
       <c r="M23" s="4" t="str">
         <f>""</f>
@@ -2414,37 +2414,37 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="C24" t="str">
         <f>B24</f>
-        <v>Contacts</v>
+        <v>Delivery USps</v>
       </c>
       <c r="D24" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E24" t="str">
         <f>D24</f>
-        <v>Contactos</v>
+        <v>Envíos Usps</v>
       </c>
       <c r="F24">
         <f>LEN(B24)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G24">
         <f>LEN(D24)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H24" s="1" t="str">
         <f>"| [![" &amp; $A24 &amp; "](/doc/img/app/sml/" &amp; $A24 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A24 &amp; "/en-uk-o13-ee-" &amp; $A24 &amp; "-guides.md ""Goto " &amp; B24 &amp; " guides \[" &amp; $A24 &amp; "]"" ) | [" &amp; B24 &amp; "](/en-uk/o13/ee/"&amp;$A24&amp;"/en-uk-o13-ee-" &amp; $A24 &amp; "-guides.md)"</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" ) | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" ) | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)</v>
       </c>
       <c r="I24" s="1" t="str">
         <f>LEFT(H24,LN_en_uk+F24-1) &amp; REPT(" ",ML_en_uk-F24) &amp; MID(H24,LN_en_uk+F24,200)&amp;REPT(" ",ML_en_uk-F24+1) &amp;"|"</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md "Goto Contacts guides \[ctc]" )           | [Contacts](/en-uk/o13/ee/ctc/en-uk-o13-ee-ctc-guides.md)           |</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" )      | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)      |</v>
       </c>
       <c r="J24" s="3" t="str">
         <f>""</f>
@@ -2452,11 +2452,11 @@
       </c>
       <c r="K24" s="1" t="str">
         <f>"| [![" &amp; $A24 &amp; "](/doc/img/app/sml/" &amp; $A24 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A24 &amp; "/es-mx-o13-ee-" &amp; $A24 &amp; "-guides.md ""Ver a las guías de " &amp; D24 &amp; " \[" &amp; $A24 &amp; "]"" ) | [" &amp; D24 &amp; "](/es-mx/o13/ee/"&amp;$A24&amp;"/es-mx-o13-ee-" &amp; $A24 &amp; "-guides.md)"</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" ) | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" ) | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)</v>
       </c>
       <c r="L24" s="1" t="str">
         <f>LEFT(K24,LN_es_mx-1+G24) &amp; REPT(" ",ML_es_mx-G24) &amp; MID(K24,LN_es_mx+G24,200)&amp;REPT(" ",ML_es_mx-G24+1) &amp;"|"</f>
-        <v>| [![ctc](/doc/img/app/sml/ctc.jpg)](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md "Ver a las guías de Contactos \[ctc]" )        | [Contactos](/es-mx/o13/ee/ctc/es-mx-o13-ee-ctc-guides.md)        |</v>
+        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )      | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)      |</v>
       </c>
       <c r="M24" s="4" t="str">
         <f>""</f>
@@ -2465,37 +2465,37 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="C25" t="str">
         <f>B25</f>
-        <v>Github Mail</v>
+        <v>Discuss</v>
       </c>
       <c r="D25" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E25" t="str">
         <f>D25</f>
-        <v>Correo Github</v>
+        <v>Charlas</v>
       </c>
       <c r="F25">
         <f>LEN(B25)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <f>LEN(D25)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H25" s="1" t="str">
         <f>"| [![" &amp; $A25 &amp; "](/doc/img/app/sml/" &amp; $A25 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A25 &amp; "/en-uk-o13-ee-" &amp; $A25 &amp; "-guides.md ""Goto " &amp; B25 &amp; " guides \[" &amp; $A25 &amp; "]"" ) | [" &amp; B25 &amp; "](/en-uk/o13/ee/"&amp;$A25&amp;"/en-uk-o13-ee-" &amp; $A25 &amp; "-guides.md)"</f>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" ) | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" ) | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)</v>
       </c>
       <c r="I25" s="1" t="str">
         <f>LEFT(H25,LN_en_uk+F25-1) &amp; REPT(" ",ML_en_uk-F25) &amp; MID(H25,LN_en_uk+F25,200)&amp;REPT(" ",ML_en_uk-F25+1) &amp;"|"</f>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" )        | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)        |</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md "Goto Discuss guides \[dsc]" )            | [Discuss](/en-uk/o13/ee/dsc/en-uk-o13-ee-dsc-guides.md)            |</v>
       </c>
       <c r="J25" s="3" t="str">
         <f>""</f>
@@ -2503,11 +2503,11 @@
       </c>
       <c r="K25" s="1" t="str">
         <f>"| [![" &amp; $A25 &amp; "](/doc/img/app/sml/" &amp; $A25 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A25 &amp; "/es-mx-o13-ee-" &amp; $A25 &amp; "-guides.md ""Ver a las guías de " &amp; D25 &amp; " \[" &amp; $A25 &amp; "]"" ) | [" &amp; D25 &amp; "](/es-mx/o13/ee/"&amp;$A25&amp;"/es-mx-o13-ee-" &amp; $A25 &amp; "-guides.md)"</f>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" ) | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" ) | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)</v>
       </c>
       <c r="L25" s="1" t="str">
         <f>LEFT(K25,LN_es_mx-1+G25) &amp; REPT(" ",ML_es_mx-G25) &amp; MID(K25,LN_es_mx+G25,200)&amp;REPT(" ",ML_es_mx-G25+1) &amp;"|"</f>
-        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )    | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)    |</v>
+        <v>| [![dsc](/doc/img/app/sml/dsc.jpg)](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md "Ver a las guías de Charlas \[dsc]" )          | [Charlas](/es-mx/o13/ee/dsc/es-mx-o13-ee-dsc-guides.md)          |</v>
       </c>
       <c r="M25" s="4" t="str">
         <f>""</f>
@@ -2516,21 +2516,21 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C26" t="str">
         <f>B26</f>
-        <v>Mail Push</v>
+        <v>Documents</v>
       </c>
       <c r="D26" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="E26" t="str">
         <f>D26</f>
-        <v>Correo Push</v>
+        <v>Documentos</v>
       </c>
       <c r="F26">
         <f>LEN(B26)</f>
@@ -2538,15 +2538,15 @@
       </c>
       <c r="G26">
         <f>LEN(D26)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1" t="str">
         <f>"| [![" &amp; $A26 &amp; "](/doc/img/app/sml/" &amp; $A26 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A26 &amp; "/en-uk-o13-ee-" &amp; $A26 &amp; "-guides.md ""Goto " &amp; B26 &amp; " guides \[" &amp; $A26 &amp; "]"" ) | [" &amp; B26 &amp; "](/en-uk/o13/ee/"&amp;$A26&amp;"/en-uk-o13-ee-" &amp; $A26 &amp; "-guides.md)"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" ) | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" ) | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)</v>
       </c>
       <c r="I26" s="1" t="str">
         <f>LEFT(H26,LN_en_uk+F26-1) &amp; REPT(" ",ML_en_uk-F26) &amp; MID(H26,LN_en_uk+F26,200)&amp;REPT(" ",ML_en_uk-F26+1) &amp;"|"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" )          | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)          |</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" )          | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)          |</v>
       </c>
       <c r="J26" s="3" t="str">
         <f>""</f>
@@ -2554,11 +2554,11 @@
       </c>
       <c r="K26" s="1" t="str">
         <f>"| [![" &amp; $A26 &amp; "](/doc/img/app/sml/" &amp; $A26 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A26 &amp; "/es-mx-o13-ee-" &amp; $A26 &amp; "-guides.md ""Ver a las guías de " &amp; D26 &amp; " \[" &amp; $A26 &amp; "]"" ) | [" &amp; D26 &amp; "](/es-mx/o13/ee/"&amp;$A26&amp;"/es-mx-o13-ee-" &amp; $A26 &amp; "-guides.md)"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" ) | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" ) | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)</v>
       </c>
       <c r="L26" s="1" t="str">
         <f>LEFT(K26,LN_es_mx-1+G26) &amp; REPT(" ",ML_es_mx-G26) &amp; MID(K26,LN_es_mx+G26,200)&amp;REPT(" ",ML_es_mx-G26+1) &amp;"|"</f>
-        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )      | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)      |</v>
+        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )       | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)       |</v>
       </c>
       <c r="M26" s="4" t="str">
         <f>""</f>
@@ -2567,37 +2567,37 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C27" t="str">
         <f>B27</f>
-        <v>CRM</v>
+        <v>eCommerce</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>228</v>
       </c>
       <c r="E27" t="str">
         <f>D27</f>
-        <v>CRM</v>
+        <v>eComercio</v>
       </c>
       <c r="F27">
         <f>LEN(B27)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G27">
         <f>LEN(D27)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H27" s="1" t="str">
         <f>"| [![" &amp; $A27 &amp; "](/doc/img/app/sml/" &amp; $A27 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A27 &amp; "/en-uk-o13-ee-" &amp; $A27 &amp; "-guides.md ""Goto " &amp; B27 &amp; " guides \[" &amp; $A27 &amp; "]"" ) | [" &amp; B27 &amp; "](/en-uk/o13/ee/"&amp;$A27&amp;"/en-uk-o13-ee-" &amp; $A27 &amp; "-guides.md)"</f>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" ) | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" ) | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)</v>
       </c>
       <c r="I27" s="1" t="str">
         <f>LEFT(H27,LN_en_uk+F27-1) &amp; REPT(" ",ML_en_uk-F27) &amp; MID(H27,LN_en_uk+F27,200)&amp;REPT(" ",ML_en_uk-F27+1) &amp;"|"</f>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md "Goto CRM guides \[crm]" )                | [CRM](/en-uk/o13/ee/crm/en-uk-o13-ee-crm-guides.md)                |</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" )          | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)          |</v>
       </c>
       <c r="J27" s="3" t="str">
         <f>""</f>
@@ -2605,11 +2605,11 @@
       </c>
       <c r="K27" s="1" t="str">
         <f>"| [![" &amp; $A27 &amp; "](/doc/img/app/sml/" &amp; $A27 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A27 &amp; "/es-mx-o13-ee-" &amp; $A27 &amp; "-guides.md ""Ver a las guías de " &amp; D27 &amp; " \[" &amp; $A27 &amp; "]"" ) | [" &amp; D27 &amp; "](/es-mx/o13/ee/"&amp;$A27&amp;"/es-mx-o13-ee-" &amp; $A27 &amp; "-guides.md)"</f>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" ) | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" ) | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)</v>
       </c>
       <c r="L27" s="1" t="str">
         <f>LEFT(K27,LN_es_mx-1+G27) &amp; REPT(" ",ML_es_mx-G27) &amp; MID(K27,LN_es_mx+G27,200)&amp;REPT(" ",ML_es_mx-G27+1) &amp;"|"</f>
-        <v>| [![crm](/doc/img/app/sml/crm.jpg)](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md "Ver a las guías de CRM \[crm]" )              | [CRM](/es-mx/o13/ee/crm/es-mx-o13-ee-crm-guides.md)              |</v>
+        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )        | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)        |</v>
       </c>
       <c r="M27" s="4" t="str">
         <f>""</f>
@@ -2618,37 +2618,37 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>307</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>308</v>
       </c>
       <c r="C28" t="str">
         <f>B28</f>
-        <v>Quality Control</v>
+        <v>eLearning</v>
       </c>
       <c r="D28" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E28" t="str">
         <f>D28</f>
-        <v>Ctrl de Calidad</v>
+        <v>eAprendizaje</v>
       </c>
       <c r="F28">
         <f>LEN(B28)</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G28">
         <f>LEN(D28)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H28" s="1" t="str">
         <f>"| [![" &amp; $A28 &amp; "](/doc/img/app/sml/" &amp; $A28 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A28 &amp; "/en-uk-o13-ee-" &amp; $A28 &amp; "-guides.md ""Goto " &amp; B28 &amp; " guides \[" &amp; $A28 &amp; "]"" ) | [" &amp; B28 &amp; "](/en-uk/o13/ee/"&amp;$A28&amp;"/en-uk-o13-ee-" &amp; $A28 &amp; "-guides.md)"</f>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" ) | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)</v>
+        <v>| [![ele](/doc/img/app/sml/ele.jpg)](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md "Goto eLearning guides \[ele]" ) | [eLearning](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md)</v>
       </c>
       <c r="I28" s="1" t="str">
         <f>LEFT(H28,LN_en_uk+F28-1) &amp; REPT(" ",ML_en_uk-F28) &amp; MID(H28,LN_en_uk+F28,200)&amp;REPT(" ",ML_en_uk-F28+1) &amp;"|"</f>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" )    | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)    |</v>
+        <v>| [![ele](/doc/img/app/sml/ele.jpg)](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md "Goto eLearning guides \[ele]" )          | [eLearning](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md)          |</v>
       </c>
       <c r="J28" s="3" t="str">
         <f>""</f>
@@ -2656,11 +2656,11 @@
       </c>
       <c r="K28" s="1" t="str">
         <f>"| [![" &amp; $A28 &amp; "](/doc/img/app/sml/" &amp; $A28 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A28 &amp; "/es-mx-o13-ee-" &amp; $A28 &amp; "-guides.md ""Ver a las guías de " &amp; D28 &amp; " \[" &amp; $A28 &amp; "]"" ) | [" &amp; D28 &amp; "](/es-mx/o13/ee/"&amp;$A28&amp;"/es-mx-o13-ee-" &amp; $A28 &amp; "-guides.md)"</f>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" ) | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)</v>
+        <v>| [![ele](/doc/img/app/sml/ele.jpg)](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md "Ver a las guías de eAprendizaje \[ele]" ) | [eAprendizaje](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md)</v>
       </c>
       <c r="L28" s="1" t="str">
         <f>LEFT(K28,LN_es_mx-1+G28) &amp; REPT(" ",ML_es_mx-G28) &amp; MID(K28,LN_es_mx+G28,200)&amp;REPT(" ",ML_es_mx-G28+1) &amp;"|"</f>
-        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" )  | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)  |</v>
+        <v>| [![ele](/doc/img/app/sml/ele.jpg)](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md "Ver a las guías de eAprendizaje \[ele]" )     | [eAprendizaje](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md)     |</v>
       </c>
       <c r="M28" s="4" t="str">
         <f>""</f>
@@ -2669,37 +2669,37 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C29" t="str">
         <f>B29</f>
-        <v>Slides</v>
+        <v>eMail</v>
       </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="E29" t="str">
         <f>D29</f>
-        <v>Diapositivas</v>
+        <v>eCorreo</v>
       </c>
       <c r="F29">
         <f>LEN(B29)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29">
         <f>LEN(D29)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H29" s="1" t="str">
         <f>"| [![" &amp; $A29 &amp; "](/doc/img/app/sml/" &amp; $A29 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A29 &amp; "/en-uk-o13-ee-" &amp; $A29 &amp; "-guides.md ""Goto " &amp; B29 &amp; " guides \[" &amp; $A29 &amp; "]"" ) | [" &amp; B29 &amp; "](/en-uk/o13/ee/"&amp;$A29&amp;"/en-uk-o13-ee-" &amp; $A29 &amp; "-guides.md)"</f>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" ) | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" ) | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)</v>
       </c>
       <c r="I29" s="1" t="str">
         <f>LEFT(H29,LN_en_uk+F29-1) &amp; REPT(" ",ML_en_uk-F29) &amp; MID(H29,LN_en_uk+F29,200)&amp;REPT(" ",ML_en_uk-F29+1) &amp;"|"</f>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" )             | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)             |</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" )              | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)              |</v>
       </c>
       <c r="J29" s="3" t="str">
         <f>""</f>
@@ -2707,11 +2707,11 @@
       </c>
       <c r="K29" s="1" t="str">
         <f>"| [![" &amp; $A29 &amp; "](/doc/img/app/sml/" &amp; $A29 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A29 &amp; "/es-mx-o13-ee-" &amp; $A29 &amp; "-guides.md ""Ver a las guías de " &amp; D29 &amp; " \[" &amp; $A29 &amp; "]"" ) | [" &amp; D29 &amp; "](/es-mx/o13/ee/"&amp;$A29&amp;"/es-mx-o13-ee-" &amp; $A29 &amp; "-guides.md)"</f>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" ) | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" ) | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)</v>
       </c>
       <c r="L29" s="1" t="str">
         <f>LEFT(K29,LN_es_mx-1+G29) &amp; REPT(" ",ML_es_mx-G29) &amp; MID(K29,LN_es_mx+G29,200)&amp;REPT(" ",ML_es_mx-G29+1) &amp;"|"</f>
-        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )     | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)     |</v>
+        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" )          | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)          |</v>
       </c>
       <c r="M29" s="4" t="str">
         <f>""</f>
@@ -2720,21 +2720,21 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C30" t="str">
         <f>B30</f>
-        <v>Documents</v>
+        <v>Employees</v>
       </c>
       <c r="D30" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E30" t="str">
         <f>D30</f>
-        <v>Documentos</v>
+        <v>Empleados</v>
       </c>
       <c r="F30">
         <f>LEN(B30)</f>
@@ -2742,15 +2742,15 @@
       </c>
       <c r="G30">
         <f>LEN(D30)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H30" s="1" t="str">
         <f>"| [![" &amp; $A30 &amp; "](/doc/img/app/sml/" &amp; $A30 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A30 &amp; "/en-uk-o13-ee-" &amp; $A30 &amp; "-guides.md ""Goto " &amp; B30 &amp; " guides \[" &amp; $A30 &amp; "]"" ) | [" &amp; B30 &amp; "](/en-uk/o13/ee/"&amp;$A30&amp;"/en-uk-o13-ee-" &amp; $A30 &amp; "-guides.md)"</f>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" ) | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" ) | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)</v>
       </c>
       <c r="I30" s="1" t="str">
         <f>LEFT(H30,LN_en_uk+F30-1) &amp; REPT(" ",ML_en_uk-F30) &amp; MID(H30,LN_en_uk+F30,200)&amp;REPT(" ",ML_en_uk-F30+1) &amp;"|"</f>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md "Goto Documents guides \[doc]" )          | [Documents](/en-uk/o13/ee/doc/en-uk-o13-ee-doc-guides.md)          |</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" )          | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)          |</v>
       </c>
       <c r="J30" s="3" t="str">
         <f>""</f>
@@ -2758,11 +2758,11 @@
       </c>
       <c r="K30" s="1" t="str">
         <f>"| [![" &amp; $A30 &amp; "](/doc/img/app/sml/" &amp; $A30 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A30 &amp; "/es-mx-o13-ee-" &amp; $A30 &amp; "-guides.md ""Ver a las guías de " &amp; D30 &amp; " \[" &amp; $A30 &amp; "]"" ) | [" &amp; D30 &amp; "](/es-mx/o13/ee/"&amp;$A30&amp;"/es-mx-o13-ee-" &amp; $A30 &amp; "-guides.md)"</f>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" ) | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" ) | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)</v>
       </c>
       <c r="L30" s="1" t="str">
         <f>LEFT(K30,LN_es_mx-1+G30) &amp; REPT(" ",ML_es_mx-G30) &amp; MID(K30,LN_es_mx+G30,200)&amp;REPT(" ",ML_es_mx-G30+1) &amp;"|"</f>
-        <v>| [![doc](/doc/img/app/sml/doc.jpg)](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md "Ver a las guías de Documentos \[doc]" )       | [Documentos](/es-mx/o13/ee/doc/es-mx-o13-ee-doc-guides.md)       |</v>
+        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )        | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)        |</v>
       </c>
       <c r="M30" s="4" t="str">
         <f>""</f>
@@ -2771,21 +2771,21 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>309</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c r="C31" t="str">
         <f>B31</f>
-        <v>eLearning</v>
+        <v>Equipment</v>
       </c>
       <c r="D31" t="s">
-        <v>311</v>
+        <v>230</v>
       </c>
       <c r="E31" t="str">
         <f>D31</f>
-        <v>eAprendizaje</v>
+        <v>Equipos</v>
       </c>
       <c r="F31">
         <f>LEN(B31)</f>
@@ -2793,15 +2793,15 @@
       </c>
       <c r="G31">
         <f>LEN(D31)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H31" s="1" t="str">
         <f>"| [![" &amp; $A31 &amp; "](/doc/img/app/sml/" &amp; $A31 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A31 &amp; "/en-uk-o13-ee-" &amp; $A31 &amp; "-guides.md ""Goto " &amp; B31 &amp; " guides \[" &amp; $A31 &amp; "]"" ) | [" &amp; B31 &amp; "](/en-uk/o13/ee/"&amp;$A31&amp;"/en-uk-o13-ee-" &amp; $A31 &amp; "-guides.md)"</f>
-        <v>| [![ele](/doc/img/app/sml/ele.jpg)](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md "Goto eLearning guides \[ele]" ) | [eLearning](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md)</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" ) | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)</v>
       </c>
       <c r="I31" s="1" t="str">
         <f>LEFT(H31,LN_en_uk+F31-1) &amp; REPT(" ",ML_en_uk-F31) &amp; MID(H31,LN_en_uk+F31,200)&amp;REPT(" ",ML_en_uk-F31+1) &amp;"|"</f>
-        <v>| [![ele](/doc/img/app/sml/ele.jpg)](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md "Goto eLearning guides \[ele]" )          | [eLearning](/en-uk/o13/ee/ele/en-uk-o13-ee-ele-guides.md)          |</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" )          | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)          |</v>
       </c>
       <c r="J31" s="3" t="str">
         <f>""</f>
@@ -2809,11 +2809,11 @@
       </c>
       <c r="K31" s="1" t="str">
         <f>"| [![" &amp; $A31 &amp; "](/doc/img/app/sml/" &amp; $A31 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A31 &amp; "/es-mx-o13-ee-" &amp; $A31 &amp; "-guides.md ""Ver a las guías de " &amp; D31 &amp; " \[" &amp; $A31 &amp; "]"" ) | [" &amp; D31 &amp; "](/es-mx/o13/ee/"&amp;$A31&amp;"/es-mx-o13-ee-" &amp; $A31 &amp; "-guides.md)"</f>
-        <v>| [![ele](/doc/img/app/sml/ele.jpg)](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md "Ver a las guías de eAprendizaje \[ele]" ) | [eAprendizaje](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md)</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" ) | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)</v>
       </c>
       <c r="L31" s="1" t="str">
         <f>LEFT(K31,LN_es_mx-1+G31) &amp; REPT(" ",ML_es_mx-G31) &amp; MID(K31,LN_es_mx+G31,200)&amp;REPT(" ",ML_es_mx-G31+1) &amp;"|"</f>
-        <v>| [![ele](/doc/img/app/sml/ele.jpg)](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md "Ver a las guías de eAprendizaje \[ele]" )     | [eAprendizaje](/es-mx/o13/ee/ele/es-mx-o13-ee-ele-guides.md)     |</v>
+        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )          | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)          |</v>
       </c>
       <c r="M31" s="4" t="str">
         <f>""</f>
@@ -2822,37 +2822,37 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C32" t="str">
         <f>B32</f>
-        <v>eCommerce</v>
+        <v>eSignature</v>
       </c>
       <c r="D32" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E32" t="str">
         <f>D32</f>
-        <v>eComercio</v>
+        <v>eFirma</v>
       </c>
       <c r="F32">
         <f>LEN(B32)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G32">
         <f>LEN(D32)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H32" s="1" t="str">
         <f>"| [![" &amp; $A32 &amp; "](/doc/img/app/sml/" &amp; $A32 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A32 &amp; "/en-uk-o13-ee-" &amp; $A32 &amp; "-guides.md ""Goto " &amp; B32 &amp; " guides \[" &amp; $A32 &amp; "]"" ) | [" &amp; B32 &amp; "](/en-uk/o13/ee/"&amp;$A32&amp;"/en-uk-o13-ee-" &amp; $A32 &amp; "-guides.md)"</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" ) | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" ) | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)</v>
       </c>
       <c r="I32" s="1" t="str">
         <f>LEFT(H32,LN_en_uk+F32-1) &amp; REPT(" ",ML_en_uk-F32) &amp; MID(H32,LN_en_uk+F32,200)&amp;REPT(" ",ML_en_uk-F32+1) &amp;"|"</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md "Goto eCommerce guides \[eco]" )          | [eCommerce](/en-uk/o13/ee/eco/en-uk-o13-ee-eco-guides.md)          |</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" )         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)         |</v>
       </c>
       <c r="J32" s="3" t="str">
         <f>""</f>
@@ -2860,11 +2860,11 @@
       </c>
       <c r="K32" s="1" t="str">
         <f>"| [![" &amp; $A32 &amp; "](/doc/img/app/sml/" &amp; $A32 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A32 &amp; "/es-mx-o13-ee-" &amp; $A32 &amp; "-guides.md ""Ver a las guías de " &amp; D32 &amp; " \[" &amp; $A32 &amp; "]"" ) | [" &amp; D32 &amp; "](/es-mx/o13/ee/"&amp;$A32&amp;"/es-mx-o13-ee-" &amp; $A32 &amp; "-guides.md)"</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" ) | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" ) | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)</v>
       </c>
       <c r="L32" s="1" t="str">
         <f>LEFT(K32,LN_es_mx-1+G32) &amp; REPT(" ",ML_es_mx-G32) &amp; MID(K32,LN_es_mx+G32,200)&amp;REPT(" ",ML_es_mx-G32+1) &amp;"|"</f>
-        <v>| [![eco](/doc/img/app/sml/eco.jpg)](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md "Ver a las guías de eComercio \[eco]" )        | [eComercio](/es-mx/o13/ee/eco/es-mx-o13-ee-eco-guides.md)        |</v>
+        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )           | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)           |</v>
       </c>
       <c r="M32" s="4" t="str">
         <f>""</f>
@@ -2873,25 +2873,25 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="C33" t="str">
         <f>B33</f>
-        <v>eMail</v>
+        <v>Events</v>
       </c>
       <c r="D33" t="s">
-        <v>301</v>
+        <v>232</v>
       </c>
       <c r="E33" t="str">
         <f>D33</f>
-        <v>eCorreo</v>
+        <v>Eventos</v>
       </c>
       <c r="F33">
         <f>LEN(B33)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G33">
         <f>LEN(D33)</f>
@@ -2899,11 +2899,11 @@
       </c>
       <c r="H33" s="1" t="str">
         <f>"| [![" &amp; $A33 &amp; "](/doc/img/app/sml/" &amp; $A33 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A33 &amp; "/en-uk-o13-ee-" &amp; $A33 &amp; "-guides.md ""Goto " &amp; B33 &amp; " guides \[" &amp; $A33 &amp; "]"" ) | [" &amp; B33 &amp; "](/en-uk/o13/ee/"&amp;$A33&amp;"/en-uk-o13-ee-" &amp; $A33 &amp; "-guides.md)"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" ) | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" ) | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)</v>
       </c>
       <c r="I33" s="1" t="str">
         <f>LEFT(H33,LN_en_uk+F33-1) &amp; REPT(" ",ML_en_uk-F33) &amp; MID(H33,LN_en_uk+F33,200)&amp;REPT(" ",ML_en_uk-F33+1) &amp;"|"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md "Goto eMail guides \[eml]" )              | [eMail](/en-uk/o13/ee/eml/en-uk-o13-ee-eml-guides.md)              |</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" )             | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)             |</v>
       </c>
       <c r="J33" s="3" t="str">
         <f>""</f>
@@ -2911,11 +2911,11 @@
       </c>
       <c r="K33" s="1" t="str">
         <f>"| [![" &amp; $A33 &amp; "](/doc/img/app/sml/" &amp; $A33 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A33 &amp; "/es-mx-o13-ee-" &amp; $A33 &amp; "-guides.md ""Ver a las guías de " &amp; D33 &amp; " \[" &amp; $A33 &amp; "]"" ) | [" &amp; D33 &amp; "](/es-mx/o13/ee/"&amp;$A33&amp;"/es-mx-o13-ee-" &amp; $A33 &amp; "-guides.md)"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" ) | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" ) | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)</v>
       </c>
       <c r="L33" s="1" t="str">
         <f>LEFT(K33,LN_es_mx-1+G33) &amp; REPT(" ",ML_es_mx-G33) &amp; MID(K33,LN_es_mx+G33,200)&amp;REPT(" ",ML_es_mx-G33+1) &amp;"|"</f>
-        <v>| [![eml](/doc/img/app/sml/eml.jpg)](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md "Ver a las guías de eCorreo \[eml]" )          | [eCorreo](/es-mx/o13/ee/eml/es-mx-o13-ee-eml-guides.md)          |</v>
+        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )          | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)          |</v>
       </c>
       <c r="M33" s="4" t="str">
         <f>""</f>
@@ -2924,25 +2924,25 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C34" t="str">
         <f>B34</f>
-        <v>eSignature</v>
+        <v>Expenses</v>
       </c>
       <c r="D34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E34" t="str">
         <f>D34</f>
-        <v>eFirma</v>
+        <v>Gastos</v>
       </c>
       <c r="F34">
         <f>LEN(B34)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G34">
         <f>LEN(D34)</f>
@@ -2950,11 +2950,11 @@
       </c>
       <c r="H34" s="1" t="str">
         <f>"| [![" &amp; $A34 &amp; "](/doc/img/app/sml/" &amp; $A34 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A34 &amp; "/en-uk-o13-ee-" &amp; $A34 &amp; "-guides.md ""Goto " &amp; B34 &amp; " guides \[" &amp; $A34 &amp; "]"" ) | [" &amp; B34 &amp; "](/en-uk/o13/ee/"&amp;$A34&amp;"/en-uk-o13-ee-" &amp; $A34 &amp; "-guides.md)"</f>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" ) | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" ) | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)</v>
       </c>
       <c r="I34" s="1" t="str">
         <f>LEFT(H34,LN_en_uk+F34-1) &amp; REPT(" ",ML_en_uk-F34) &amp; MID(H34,LN_en_uk+F34,200)&amp;REPT(" ",ML_en_uk-F34+1) &amp;"|"</f>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md "Goto eSignature guides \[esg]" )         | [eSignature](/en-uk/o13/ee/esg/en-uk-o13-ee-esg-guides.md)         |</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" )           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)           |</v>
       </c>
       <c r="J34" s="3" t="str">
         <f>""</f>
@@ -2962,11 +2962,11 @@
       </c>
       <c r="K34" s="1" t="str">
         <f>"| [![" &amp; $A34 &amp; "](/doc/img/app/sml/" &amp; $A34 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A34 &amp; "/es-mx-o13-ee-" &amp; $A34 &amp; "-guides.md ""Ver a las guías de " &amp; D34 &amp; " \[" &amp; $A34 &amp; "]"" ) | [" &amp; D34 &amp; "](/es-mx/o13/ee/"&amp;$A34&amp;"/es-mx-o13-ee-" &amp; $A34 &amp; "-guides.md)"</f>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" ) | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" ) | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)</v>
       </c>
       <c r="L34" s="1" t="str">
         <f>LEFT(K34,LN_es_mx-1+G34) &amp; REPT(" ",ML_es_mx-G34) &amp; MID(K34,LN_es_mx+G34,200)&amp;REPT(" ",ML_es_mx-G34+1) &amp;"|"</f>
-        <v>| [![esg](/doc/img/app/sml/esg.jpg)](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md "Ver a las guías de eFirma \[esg]" )           | [eFirma](/es-mx/o13/ee/esg/es-mx-o13-ee-esg-guides.md)           |</v>
+        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)           |</v>
       </c>
       <c r="M34" s="4" t="str">
         <f>""</f>
@@ -2975,37 +2975,37 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B35" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C35" t="str">
         <f>B35</f>
-        <v>Employees</v>
+        <v>Field Service</v>
       </c>
       <c r="D35" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E35" t="str">
         <f>D35</f>
-        <v>Empleados</v>
+        <v>Servicio</v>
       </c>
       <c r="F35">
         <f>LEN(B35)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G35">
         <f>LEN(D35)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H35" s="1" t="str">
         <f>"| [![" &amp; $A35 &amp; "](/doc/img/app/sml/" &amp; $A35 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A35 &amp; "/en-uk-o13-ee-" &amp; $A35 &amp; "-guides.md ""Goto " &amp; B35 &amp; " guides \[" &amp; $A35 &amp; "]"" ) | [" &amp; B35 &amp; "](/en-uk/o13/ee/"&amp;$A35&amp;"/en-uk-o13-ee-" &amp; $A35 &amp; "-guides.md)"</f>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" ) | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" ) | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)</v>
       </c>
       <c r="I35" s="1" t="str">
         <f>LEFT(H35,LN_en_uk+F35-1) &amp; REPT(" ",ML_en_uk-F35) &amp; MID(H35,LN_en_uk+F35,200)&amp;REPT(" ",ML_en_uk-F35+1) &amp;"|"</f>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md "Goto Employees guides \[emp]" )          | [Employees](/en-uk/o13/ee/emp/en-uk-o13-ee-emp-guides.md)          |</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" )      | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)      |</v>
       </c>
       <c r="J35" s="3" t="str">
         <f>""</f>
@@ -3013,11 +3013,11 @@
       </c>
       <c r="K35" s="1" t="str">
         <f>"| [![" &amp; $A35 &amp; "](/doc/img/app/sml/" &amp; $A35 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A35 &amp; "/es-mx-o13-ee-" &amp; $A35 &amp; "-guides.md ""Ver a las guías de " &amp; D35 &amp; " \[" &amp; $A35 &amp; "]"" ) | [" &amp; D35 &amp; "](/es-mx/o13/ee/"&amp;$A35&amp;"/es-mx-o13-ee-" &amp; $A35 &amp; "-guides.md)"</f>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" ) | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" ) | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)</v>
       </c>
       <c r="L35" s="1" t="str">
         <f>LEFT(K35,LN_es_mx-1+G35) &amp; REPT(" ",ML_es_mx-G35) &amp; MID(K35,LN_es_mx+G35,200)&amp;REPT(" ",ML_es_mx-G35+1) &amp;"|"</f>
-        <v>| [![emp](/doc/img/app/sml/emp.jpg)](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md "Ver a las guías de Empleados \[emp]" )        | [Empleados](/es-mx/o13/ee/emp/es-mx-o13-ee-emp-guides.md)        |</v>
+        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )         | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)         |</v>
       </c>
       <c r="M35" s="4" t="str">
         <f>""</f>
@@ -3026,25 +3026,25 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C36" t="str">
         <f>B36</f>
-        <v>Surveys</v>
+        <v>Fleet</v>
       </c>
       <c r="D36" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="E36" t="str">
         <f>D36</f>
-        <v>Encuestas</v>
+        <v>Flotillas</v>
       </c>
       <c r="F36">
         <f>LEN(B36)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <f>LEN(D36)</f>
@@ -3052,11 +3052,11 @@
       </c>
       <c r="H36" s="1" t="str">
         <f>"| [![" &amp; $A36 &amp; "](/doc/img/app/sml/" &amp; $A36 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A36 &amp; "/en-uk-o13-ee-" &amp; $A36 &amp; "-guides.md ""Goto " &amp; B36 &amp; " guides \[" &amp; $A36 &amp; "]"" ) | [" &amp; B36 &amp; "](/en-uk/o13/ee/"&amp;$A36&amp;"/en-uk-o13-ee-" &amp; $A36 &amp; "-guides.md)"</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" ) | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" ) | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)</v>
       </c>
       <c r="I36" s="1" t="str">
         <f>LEFT(H36,LN_en_uk+F36-1) &amp; REPT(" ",ML_en_uk-F36) &amp; MID(H36,LN_en_uk+F36,200)&amp;REPT(" ",ML_en_uk-F36+1) &amp;"|"</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md "Goto Surveys guides \[svy]" )            | [Surveys](/en-uk/o13/ee/svy/en-uk-o13-ee-svy-guides.md)            |</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" )              | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)              |</v>
       </c>
       <c r="J36" s="3" t="str">
         <f>""</f>
@@ -3064,11 +3064,11 @@
       </c>
       <c r="K36" s="1" t="str">
         <f>"| [![" &amp; $A36 &amp; "](/doc/img/app/sml/" &amp; $A36 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A36 &amp; "/es-mx-o13-ee-" &amp; $A36 &amp; "-guides.md ""Ver a las guías de " &amp; D36 &amp; " \[" &amp; $A36 &amp; "]"" ) | [" &amp; D36 &amp; "](/es-mx/o13/ee/"&amp;$A36&amp;"/es-mx-o13-ee-" &amp; $A36 &amp; "-guides.md)"</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" ) | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" ) | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)</v>
       </c>
       <c r="L36" s="1" t="str">
         <f>LEFT(K36,LN_es_mx-1+G36) &amp; REPT(" ",ML_es_mx-G36) &amp; MID(K36,LN_es_mx+G36,200)&amp;REPT(" ",ML_es_mx-G36+1) &amp;"|"</f>
-        <v>| [![svy](/doc/img/app/sml/svy.jpg)](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md "Ver a las guías de Encuestas \[svy]" )        | [Encuestas](/es-mx/o13/ee/svy/es-mx-o13-ee-svy-guides.md)        |</v>
+        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )        | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)        |</v>
       </c>
       <c r="M36" s="4" t="str">
         <f>""</f>
@@ -3077,37 +3077,37 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C37" t="str">
         <f>B37</f>
-        <v>Delivery Bpost</v>
+        <v>Forum</v>
       </c>
       <c r="D37" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E37" t="str">
         <f>D37</f>
-        <v>Envíos Bpost</v>
+        <v>Foro</v>
       </c>
       <c r="F37">
         <f>LEN(B37)</f>
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="G37">
         <f>LEN(D37)</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H37" s="1" t="str">
         <f>"| [![" &amp; $A37 &amp; "](/doc/img/app/sml/" &amp; $A37 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A37 &amp; "/en-uk-o13-ee-" &amp; $A37 &amp; "-guides.md ""Goto " &amp; B37 &amp; " guides \[" &amp; $A37 &amp; "]"" ) | [" &amp; B37 &amp; "](/en-uk/o13/ee/"&amp;$A37&amp;"/en-uk-o13-ee-" &amp; $A37 &amp; "-guides.md)"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" ) | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" ) | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)</v>
       </c>
       <c r="I37" s="1" t="str">
         <f>LEFT(H37,LN_en_uk+F37-1) &amp; REPT(" ",ML_en_uk-F37) &amp; MID(H37,LN_en_uk+F37,200)&amp;REPT(" ",ML_en_uk-F37+1) &amp;"|"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md "Goto Delivery Bpost guides \[dbp]" )     | [Delivery Bpost](/en-uk/o13/ee/dbp/en-uk-o13-ee-dbp-guides.md)     |</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" )              | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)              |</v>
       </c>
       <c r="J37" s="3" t="str">
         <f>""</f>
@@ -3115,11 +3115,11 @@
       </c>
       <c r="K37" s="1" t="str">
         <f>"| [![" &amp; $A37 &amp; "](/doc/img/app/sml/" &amp; $A37 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A37 &amp; "/es-mx-o13-ee-" &amp; $A37 &amp; "-guides.md ""Ver a las guías de " &amp; D37 &amp; " \[" &amp; $A37 &amp; "]"" ) | [" &amp; D37 &amp; "](/es-mx/o13/ee/"&amp;$A37&amp;"/es-mx-o13-ee-" &amp; $A37 &amp; "-guides.md)"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" ) | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" ) | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)</v>
       </c>
       <c r="L37" s="1" t="str">
         <f>LEFT(K37,LN_es_mx-1+G37) &amp; REPT(" ",ML_es_mx-G37) &amp; MID(K37,LN_es_mx+G37,200)&amp;REPT(" ",ML_es_mx-G37+1) &amp;"|"</f>
-        <v>| [![dbp](/doc/img/app/sml/dbp.jpg)](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md "Ver a las guías de Envíos Bpost \[dbp]" )     | [Envíos Bpost](/es-mx/o13/ee/dbp/es-mx-o13-ee-dbp-guides.md)     |</v>
+        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )             | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)             |</v>
       </c>
       <c r="M37" s="4" t="str">
         <f>""</f>
@@ -3128,21 +3128,21 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C38" t="str">
         <f>B38</f>
-        <v>Delivery DHL</v>
+        <v>Gamification</v>
       </c>
       <c r="D38" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="E38" t="str">
         <f>D38</f>
-        <v>Envíos DHL</v>
+        <v>Gamificación</v>
       </c>
       <c r="F38">
         <f>LEN(B38)</f>
@@ -3150,15 +3150,15 @@
       </c>
       <c r="G38">
         <f>LEN(D38)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H38" s="1" t="str">
         <f>"| [![" &amp; $A38 &amp; "](/doc/img/app/sml/" &amp; $A38 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A38 &amp; "/en-uk-o13-ee-" &amp; $A38 &amp; "-guides.md ""Goto " &amp; B38 &amp; " guides \[" &amp; $A38 &amp; "]"" ) | [" &amp; B38 &amp; "](/en-uk/o13/ee/"&amp;$A38&amp;"/en-uk-o13-ee-" &amp; $A38 &amp; "-guides.md)"</f>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" ) | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" ) | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)</v>
       </c>
       <c r="I38" s="1" t="str">
         <f>LEFT(H38,LN_en_uk+F38-1) &amp; REPT(" ",ML_en_uk-F38) &amp; MID(H38,LN_en_uk+F38,200)&amp;REPT(" ",ML_en_uk-F38+1) &amp;"|"</f>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md "Goto Delivery DHL guides \[ddh]" )       | [Delivery DHL](/en-uk/o13/ee/ddh/en-uk-o13-ee-ddh-guides.md)       |</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" )       | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)       |</v>
       </c>
       <c r="J38" s="3" t="str">
         <f>""</f>
@@ -3166,11 +3166,11 @@
       </c>
       <c r="K38" s="1" t="str">
         <f>"| [![" &amp; $A38 &amp; "](/doc/img/app/sml/" &amp; $A38 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A38 &amp; "/es-mx-o13-ee-" &amp; $A38 &amp; "-guides.md ""Ver a las guías de " &amp; D38 &amp; " \[" &amp; $A38 &amp; "]"" ) | [" &amp; D38 &amp; "](/es-mx/o13/ee/"&amp;$A38&amp;"/es-mx-o13-ee-" &amp; $A38 &amp; "-guides.md)"</f>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" ) | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" ) | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)</v>
       </c>
       <c r="L38" s="1" t="str">
         <f>LEFT(K38,LN_es_mx-1+G38) &amp; REPT(" ",ML_es_mx-G38) &amp; MID(K38,LN_es_mx+G38,200)&amp;REPT(" ",ML_es_mx-G38+1) &amp;"|"</f>
-        <v>| [![ddh](/doc/img/app/sml/ddh.jpg)](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md "Ver a las guías de Envíos DHL \[ddh]" )       | [Envíos DHL](/es-mx/o13/ee/ddh/es-mx-o13-ee-ddh-guides.md)       |</v>
+        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )     | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)     |</v>
       </c>
       <c r="M38" s="4" t="str">
         <f>""</f>
@@ -3179,37 +3179,37 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C39" t="str">
         <f>B39</f>
-        <v>Delivery FedEx</v>
+        <v>Github Mail</v>
       </c>
       <c r="D39" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="E39" t="str">
         <f>D39</f>
-        <v>Envíos FedEx</v>
+        <v>Correo Github</v>
       </c>
       <c r="F39">
         <f>LEN(B39)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G39">
         <f>LEN(D39)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" s="1" t="str">
         <f>"| [![" &amp; $A39 &amp; "](/doc/img/app/sml/" &amp; $A39 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A39 &amp; "/en-uk-o13-ee-" &amp; $A39 &amp; "-guides.md ""Goto " &amp; B39 &amp; " guides \[" &amp; $A39 &amp; "]"" ) | [" &amp; B39 &amp; "](/en-uk/o13/ee/"&amp;$A39&amp;"/en-uk-o13-ee-" &amp; $A39 &amp; "-guides.md)"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" ) | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" ) | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)</v>
       </c>
       <c r="I39" s="1" t="str">
         <f>LEFT(H39,LN_en_uk+F39-1) &amp; REPT(" ",ML_en_uk-F39) &amp; MID(H39,LN_en_uk+F39,200)&amp;REPT(" ",ML_en_uk-F39+1) &amp;"|"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md "Goto Delivery FedEx guides \[dfe]" )     | [Delivery FedEx](/en-uk/o13/ee/dfe/en-uk-o13-ee-dfe-guides.md)     |</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md "Goto Github Mail guides \[ghm]" )        | [Github Mail](/en-uk/o13/ee/ghm/en-uk-o13-ee-ghm-guides.md)        |</v>
       </c>
       <c r="J39" s="3" t="str">
         <f>""</f>
@@ -3217,11 +3217,11 @@
       </c>
       <c r="K39" s="1" t="str">
         <f>"| [![" &amp; $A39 &amp; "](/doc/img/app/sml/" &amp; $A39 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A39 &amp; "/es-mx-o13-ee-" &amp; $A39 &amp; "-guides.md ""Ver a las guías de " &amp; D39 &amp; " \[" &amp; $A39 &amp; "]"" ) | [" &amp; D39 &amp; "](/es-mx/o13/ee/"&amp;$A39&amp;"/es-mx-o13-ee-" &amp; $A39 &amp; "-guides.md)"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" ) | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" ) | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)</v>
       </c>
       <c r="L39" s="1" t="str">
         <f>LEFT(K39,LN_es_mx-1+G39) &amp; REPT(" ",ML_es_mx-G39) &amp; MID(K39,LN_es_mx+G39,200)&amp;REPT(" ",ML_es_mx-G39+1) &amp;"|"</f>
-        <v>| [![dfe](/doc/img/app/sml/dfe.jpg)](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md "Ver a las guías de Envíos FedEx \[dfe]" )     | [Envíos FedEx](/es-mx/o13/ee/dfe/es-mx-o13-ee-dfe-guides.md)     |</v>
+        <v>| [![ghm](/doc/img/app/sml/ghm.jpg)](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md "Ver a las guías de Correo Github \[ghm]" )    | [Correo Github](/es-mx/o13/ee/ghm/es-mx-o13-ee-ghm-guides.md)    |</v>
       </c>
       <c r="M39" s="4" t="str">
         <f>""</f>
@@ -3230,37 +3230,37 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C40" t="str">
         <f>B40</f>
-        <v>Delivery UPS</v>
+        <v>Google Calendar</v>
       </c>
       <c r="D40" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="E40" t="str">
         <f>D40</f>
-        <v>Envíos UPS</v>
+        <v>Google Calend</v>
       </c>
       <c r="F40">
         <f>LEN(B40)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G40">
         <f>LEN(D40)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H40" s="1" t="str">
         <f>"| [![" &amp; $A40 &amp; "](/doc/img/app/sml/" &amp; $A40 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A40 &amp; "/en-uk-o13-ee-" &amp; $A40 &amp; "-guides.md ""Goto " &amp; B40 &amp; " guides \[" &amp; $A40 &amp; "]"" ) | [" &amp; B40 &amp; "](/en-uk/o13/ee/"&amp;$A40&amp;"/en-uk-o13-ee-" &amp; $A40 &amp; "-guides.md)"</f>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" ) | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" ) | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)</v>
       </c>
       <c r="I40" s="1" t="str">
         <f>LEFT(H40,LN_en_uk+F40-1) &amp; REPT(" ",ML_en_uk-F40) &amp; MID(H40,LN_en_uk+F40,200)&amp;REPT(" ",ML_en_uk-F40+1) &amp;"|"</f>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md "Goto Delivery UPS guides \[dup]" )       | [Delivery UPS](/en-uk/o13/ee/dup/en-uk-o13-ee-dup-guides.md)       |</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" )    | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)    |</v>
       </c>
       <c r="J40" s="3" t="str">
         <f>""</f>
@@ -3268,11 +3268,11 @@
       </c>
       <c r="K40" s="1" t="str">
         <f>"| [![" &amp; $A40 &amp; "](/doc/img/app/sml/" &amp; $A40 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A40 &amp; "/es-mx-o13-ee-" &amp; $A40 &amp; "-guides.md ""Ver a las guías de " &amp; D40 &amp; " \[" &amp; $A40 &amp; "]"" ) | [" &amp; D40 &amp; "](/es-mx/o13/ee/"&amp;$A40&amp;"/es-mx-o13-ee-" &amp; $A40 &amp; "-guides.md)"</f>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" ) | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" ) | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)</v>
       </c>
       <c r="L40" s="1" t="str">
         <f>LEFT(K40,LN_es_mx-1+G40) &amp; REPT(" ",ML_es_mx-G40) &amp; MID(K40,LN_es_mx+G40,200)&amp;REPT(" ",ML_es_mx-G40+1) &amp;"|"</f>
-        <v>| [![dup](/doc/img/app/sml/dup.jpg)](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md "Ver a las guías de Envíos UPS \[dup]" )       | [Envíos UPS](/es-mx/o13/ee/dup/es-mx-o13-ee-dup-guides.md)       |</v>
+        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" )    | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)    |</v>
       </c>
       <c r="M40" s="4" t="str">
         <f>""</f>
@@ -3281,37 +3281,37 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C41" t="str">
         <f>B41</f>
-        <v>Delivery USps</v>
+        <v>Google Drive</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="E41" t="str">
         <f>D41</f>
-        <v>Envíos Usps</v>
+        <v>Google Drive</v>
       </c>
       <c r="F41">
         <f>LEN(B41)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G41">
         <f>LEN(D41)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" s="1" t="str">
         <f>"| [![" &amp; $A41 &amp; "](/doc/img/app/sml/" &amp; $A41 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A41 &amp; "/en-uk-o13-ee-" &amp; $A41 &amp; "-guides.md ""Goto " &amp; B41 &amp; " guides \[" &amp; $A41 &amp; "]"" ) | [" &amp; B41 &amp; "](/en-uk/o13/ee/"&amp;$A41&amp;"/en-uk-o13-ee-" &amp; $A41 &amp; "-guides.md)"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" ) | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" ) | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)</v>
       </c>
       <c r="I41" s="1" t="str">
         <f>LEFT(H41,LN_en_uk+F41-1) &amp; REPT(" ",ML_en_uk-F41) &amp; MID(H41,LN_en_uk+F41,200)&amp;REPT(" ",ML_en_uk-F41+1) &amp;"|"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md "Goto Delivery USps guides \[dus]" )      | [Delivery USps](/en-uk/o13/ee/dus/en-uk-o13-ee-dus-guides.md)      |</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" )       | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)       |</v>
       </c>
       <c r="J41" s="3" t="str">
         <f>""</f>
@@ -3319,11 +3319,11 @@
       </c>
       <c r="K41" s="1" t="str">
         <f>"| [![" &amp; $A41 &amp; "](/doc/img/app/sml/" &amp; $A41 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A41 &amp; "/es-mx-o13-ee-" &amp; $A41 &amp; "-guides.md ""Ver a las guías de " &amp; D41 &amp; " \[" &amp; $A41 &amp; "]"" ) | [" &amp; D41 &amp; "](/es-mx/o13/ee/"&amp;$A41&amp;"/es-mx-o13-ee-" &amp; $A41 &amp; "-guides.md)"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" ) | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" ) | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)</v>
       </c>
       <c r="L41" s="1" t="str">
         <f>LEFT(K41,LN_es_mx-1+G41) &amp; REPT(" ",ML_es_mx-G41) &amp; MID(K41,LN_es_mx+G41,200)&amp;REPT(" ",ML_es_mx-G41+1) &amp;"|"</f>
-        <v>| [![dus](/doc/img/app/sml/dus.jpg)](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md "Ver a las guías de Envíos Usps \[dus]" )      | [Envíos Usps](/es-mx/o13/ee/dus/es-mx-o13-ee-dus-guides.md)      |</v>
+        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )     | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)     |</v>
       </c>
       <c r="M41" s="4" t="str">
         <f>""</f>
@@ -3332,37 +3332,37 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C42" t="str">
         <f>B42</f>
-        <v>Equipment</v>
+        <v>Helpdesk</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="E42" t="str">
         <f>D42</f>
-        <v>Equipos</v>
+        <v>Mesa de Ayuda</v>
       </c>
       <c r="F42">
         <f>LEN(B42)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42">
         <f>LEN(D42)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H42" s="1" t="str">
         <f>"| [![" &amp; $A42 &amp; "](/doc/img/app/sml/" &amp; $A42 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A42 &amp; "/en-uk-o13-ee-" &amp; $A42 &amp; "-guides.md ""Goto " &amp; B42 &amp; " guides \[" &amp; $A42 &amp; "]"" ) | [" &amp; B42 &amp; "](/en-uk/o13/ee/"&amp;$A42&amp;"/en-uk-o13-ee-" &amp; $A42 &amp; "-guides.md)"</f>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" ) | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" ) | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)</v>
       </c>
       <c r="I42" s="1" t="str">
         <f>LEFT(H42,LN_en_uk+F42-1) &amp; REPT(" ",ML_en_uk-F42) &amp; MID(H42,LN_en_uk+F42,200)&amp;REPT(" ",ML_en_uk-F42+1) &amp;"|"</f>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md "Goto Equipment guides \[equ]" )          | [Equipment](/en-uk/o13/ee/equ/en-uk-o13-ee-equ-guides.md)          |</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" )           | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)           |</v>
       </c>
       <c r="J42" s="3" t="str">
         <f>""</f>
@@ -3370,11 +3370,11 @@
       </c>
       <c r="K42" s="1" t="str">
         <f>"| [![" &amp; $A42 &amp; "](/doc/img/app/sml/" &amp; $A42 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A42 &amp; "/es-mx-o13-ee-" &amp; $A42 &amp; "-guides.md ""Ver a las guías de " &amp; D42 &amp; " \[" &amp; $A42 &amp; "]"" ) | [" &amp; D42 &amp; "](/es-mx/o13/ee/"&amp;$A42&amp;"/es-mx-o13-ee-" &amp; $A42 &amp; "-guides.md)"</f>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" ) | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" ) | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)</v>
       </c>
       <c r="L42" s="1" t="str">
         <f>LEFT(K42,LN_es_mx-1+G42) &amp; REPT(" ",ML_es_mx-G42) &amp; MID(K42,LN_es_mx+G42,200)&amp;REPT(" ",ML_es_mx-G42+1) &amp;"|"</f>
-        <v>| [![equ](/doc/img/app/sml/equ.jpg)](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md "Ver a las guías de Equipos \[equ]" )          | [Equipos](/es-mx/o13/ee/equ/es-mx-o13-ee-equ-guides.md)          |</v>
+        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )    | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)    |</v>
       </c>
       <c r="M42" s="4" t="str">
         <f>""</f>
@@ -3383,37 +3383,37 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
       <c r="C43" t="str">
         <f>B43</f>
-        <v>Appraisal</v>
+        <v>Holidays</v>
       </c>
       <c r="D43" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="E43" t="str">
         <f>D43</f>
-        <v>Evaluaciones</v>
+        <v>Vacaciones</v>
       </c>
       <c r="F43">
         <f>LEN(B43)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43">
         <f>LEN(D43)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H43" s="1" t="str">
         <f>"| [![" &amp; $A43 &amp; "](/doc/img/app/sml/" &amp; $A43 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A43 &amp; "/en-uk-o13-ee-" &amp; $A43 &amp; "-guides.md ""Goto " &amp; B43 &amp; " guides \[" &amp; $A43 &amp; "]"" ) | [" &amp; B43 &amp; "](/en-uk/o13/ee/"&amp;$A43&amp;"/en-uk-o13-ee-" &amp; $A43 &amp; "-guides.md)"</f>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" ) | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" ) | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)</v>
       </c>
       <c r="I43" s="1" t="str">
         <f>LEFT(H43,LN_en_uk+F43-1) &amp; REPT(" ",ML_en_uk-F43) &amp; MID(H43,LN_en_uk+F43,200)&amp;REPT(" ",ML_en_uk-F43+1) &amp;"|"</f>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md "Goto Appraisal guides \[apr]" )          | [Appraisal](/en-uk/o13/ee/apr/en-uk-o13-ee-apr-guides.md)          |</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md "Goto Holidays guides \[hol]" )           | [Holidays](/en-uk/o13/ee/hol/en-uk-o13-ee-hol-guides.md)           |</v>
       </c>
       <c r="J43" s="3" t="str">
         <f>""</f>
@@ -3421,11 +3421,11 @@
       </c>
       <c r="K43" s="1" t="str">
         <f>"| [![" &amp; $A43 &amp; "](/doc/img/app/sml/" &amp; $A43 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A43 &amp; "/es-mx-o13-ee-" &amp; $A43 &amp; "-guides.md ""Ver a las guías de " &amp; D43 &amp; " \[" &amp; $A43 &amp; "]"" ) | [" &amp; D43 &amp; "](/es-mx/o13/ee/"&amp;$A43&amp;"/es-mx-o13-ee-" &amp; $A43 &amp; "-guides.md)"</f>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" ) | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" ) | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)</v>
       </c>
       <c r="L43" s="1" t="str">
         <f>LEFT(K43,LN_es_mx-1+G43) &amp; REPT(" ",ML_es_mx-G43) &amp; MID(K43,LN_es_mx+G43,200)&amp;REPT(" ",ML_es_mx-G43+1) &amp;"|"</f>
-        <v>| [![apr](/doc/img/app/sml/apr.jpg)](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md "Ver a las guías de Evaluaciones \[apr]" )     | [Evaluaciones](/es-mx/o13/ee/apr/es-mx-o13-ee-apr-guides.md)     |</v>
+        <v>| [![hol](/doc/img/app/sml/hol.jpg)](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md "Ver a las guías de Vacaciones \[hol]" )       | [Vacaciones](/es-mx/o13/ee/hol/es-mx-o13-ee-hol-guides.md)       |</v>
       </c>
       <c r="M43" s="4" t="str">
         <f>""</f>
@@ -3434,37 +3434,37 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="C44" t="str">
         <f>B44</f>
-        <v>Events</v>
+        <v>Internet of Things</v>
       </c>
       <c r="D44" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="E44" t="str">
         <f>D44</f>
-        <v>Eventos</v>
+        <v>Int de las Cosas</v>
       </c>
       <c r="F44">
         <f>LEN(B44)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G44">
         <f>LEN(D44)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H44" s="1" t="str">
         <f>"| [![" &amp; $A44 &amp; "](/doc/img/app/sml/" &amp; $A44 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A44 &amp; "/en-uk-o13-ee-" &amp; $A44 &amp; "-guides.md ""Goto " &amp; B44 &amp; " guides \[" &amp; $A44 &amp; "]"" ) | [" &amp; B44 &amp; "](/en-uk/o13/ee/"&amp;$A44&amp;"/en-uk-o13-ee-" &amp; $A44 &amp; "-guides.md)"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" ) | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md)</v>
       </c>
       <c r="I44" s="1" t="str">
         <f>LEFT(H44,LN_en_uk+F44-1) &amp; REPT(" ",ML_en_uk-F44) &amp; MID(H44,LN_en_uk+F44,200)&amp;REPT(" ",ML_en_uk-F44+1) &amp;"|"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md "Goto Events guides \[eve]" )             | [Events](/en-uk/o13/ee/eve/en-uk-o13-ee-eve-guides.md)             |</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md) |</v>
       </c>
       <c r="J44" s="3" t="str">
         <f>""</f>
@@ -3472,11 +3472,11 @@
       </c>
       <c r="K44" s="1" t="str">
         <f>"| [![" &amp; $A44 &amp; "](/doc/img/app/sml/" &amp; $A44 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A44 &amp; "/es-mx-o13-ee-" &amp; $A44 &amp; "-guides.md ""Ver a las guías de " &amp; D44 &amp; " \[" &amp; $A44 &amp; "]"" ) | [" &amp; D44 &amp; "](/es-mx/o13/ee/"&amp;$A44&amp;"/es-mx-o13-ee-" &amp; $A44 &amp; "-guides.md)"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" ) | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md)</v>
       </c>
       <c r="L44" s="1" t="str">
         <f>LEFT(K44,LN_es_mx-1+G44) &amp; REPT(" ",ML_es_mx-G44) &amp; MID(K44,LN_es_mx+G44,200)&amp;REPT(" ",ML_es_mx-G44+1) &amp;"|"</f>
-        <v>| [![eve](/doc/img/app/sml/eve.jpg)](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md "Ver a las guías de Eventos \[eve]" )          | [Eventos](/es-mx/o13/ee/eve/es-mx-o13-ee-eve-guides.md)          |</v>
+        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md) |</v>
       </c>
       <c r="M44" s="4" t="str">
         <f>""</f>
@@ -3485,21 +3485,21 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C45" t="str">
         <f>B45</f>
-        <v>Invoicing</v>
+        <v>Inventory</v>
       </c>
       <c r="D45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E45" t="str">
         <f>D45</f>
-        <v>Facturación</v>
+        <v>Inventarios</v>
       </c>
       <c r="F45">
         <f>LEN(B45)</f>
@@ -3511,11 +3511,11 @@
       </c>
       <c r="H45" s="1" t="str">
         <f>"| [![" &amp; $A45 &amp; "](/doc/img/app/sml/" &amp; $A45 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A45 &amp; "/en-uk-o13-ee-" &amp; $A45 &amp; "-guides.md ""Goto " &amp; B45 &amp; " guides \[" &amp; $A45 &amp; "]"" ) | [" &amp; B45 &amp; "](/en-uk/o13/ee/"&amp;$A45&amp;"/en-uk-o13-ee-" &amp; $A45 &amp; "-guides.md)"</f>
-        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" ) | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" ) | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)</v>
       </c>
       <c r="I45" s="1" t="str">
         <f>LEFT(H45,LN_en_uk+F45-1) &amp; REPT(" ",ML_en_uk-F45) &amp; MID(H45,LN_en_uk+F45,200)&amp;REPT(" ",ML_en_uk-F45+1) &amp;"|"</f>
-        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" )          | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)          |</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" )          | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)          |</v>
       </c>
       <c r="J45" s="3" t="str">
         <f>""</f>
@@ -3523,11 +3523,11 @@
       </c>
       <c r="K45" s="1" t="str">
         <f>"| [![" &amp; $A45 &amp; "](/doc/img/app/sml/" &amp; $A45 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A45 &amp; "/es-mx-o13-ee-" &amp; $A45 &amp; "-guides.md ""Ver a las guías de " &amp; D45 &amp; " \[" &amp; $A45 &amp; "]"" ) | [" &amp; D45 &amp; "](/es-mx/o13/ee/"&amp;$A45&amp;"/es-mx-o13-ee-" &amp; $A45 &amp; "-guides.md)"</f>
-        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" ) | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" ) | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)</v>
       </c>
       <c r="L45" s="1" t="str">
         <f>LEFT(K45,LN_es_mx-1+G45) &amp; REPT(" ",ML_es_mx-G45) &amp; MID(K45,LN_es_mx+G45,200)&amp;REPT(" ",ML_es_mx-G45+1) &amp;"|"</f>
-        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )      | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)      |</v>
+        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )      | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)      |</v>
       </c>
       <c r="M45" s="4" t="str">
         <f>""</f>
@@ -3536,37 +3536,37 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C46" t="str">
         <f>B46</f>
-        <v>Fleet</v>
+        <v>Invoicing</v>
       </c>
       <c r="D46" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E46" t="str">
         <f>D46</f>
-        <v>Flotillas</v>
+        <v>Facturación</v>
       </c>
       <c r="F46">
         <f>LEN(B46)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G46">
         <f>LEN(D46)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H46" s="1" t="str">
         <f>"| [![" &amp; $A46 &amp; "](/doc/img/app/sml/" &amp; $A46 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A46 &amp; "/en-uk-o13-ee-" &amp; $A46 &amp; "-guides.md ""Goto " &amp; B46 &amp; " guides \[" &amp; $A46 &amp; "]"" ) | [" &amp; B46 &amp; "](/en-uk/o13/ee/"&amp;$A46&amp;"/en-uk-o13-ee-" &amp; $A46 &amp; "-guides.md)"</f>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" ) | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)</v>
+        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" ) | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)</v>
       </c>
       <c r="I46" s="1" t="str">
         <f>LEFT(H46,LN_en_uk+F46-1) &amp; REPT(" ",ML_en_uk-F46) &amp; MID(H46,LN_en_uk+F46,200)&amp;REPT(" ",ML_en_uk-F46+1) &amp;"|"</f>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md "Goto Fleet guides \[flt]" )              | [Fleet](/en-uk/o13/ee/flt/en-uk-o13-ee-flt-guides.md)              |</v>
+        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md "Goto Invoicing guides \[ivc]" )          | [Invoicing](/en-uk/o13/ee/ivc/en-uk-o13-ee-ivc-guides.md)          |</v>
       </c>
       <c r="J46" s="3" t="str">
         <f>""</f>
@@ -3574,11 +3574,11 @@
       </c>
       <c r="K46" s="1" t="str">
         <f>"| [![" &amp; $A46 &amp; "](/doc/img/app/sml/" &amp; $A46 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A46 &amp; "/es-mx-o13-ee-" &amp; $A46 &amp; "-guides.md ""Ver a las guías de " &amp; D46 &amp; " \[" &amp; $A46 &amp; "]"" ) | [" &amp; D46 &amp; "](/es-mx/o13/ee/"&amp;$A46&amp;"/es-mx-o13-ee-" &amp; $A46 &amp; "-guides.md)"</f>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" ) | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)</v>
+        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" ) | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)</v>
       </c>
       <c r="L46" s="1" t="str">
         <f>LEFT(K46,LN_es_mx-1+G46) &amp; REPT(" ",ML_es_mx-G46) &amp; MID(K46,LN_es_mx+G46,200)&amp;REPT(" ",ML_es_mx-G46+1) &amp;"|"</f>
-        <v>| [![flt](/doc/img/app/sml/flt.jpg)](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md "Ver a las guías de Flotillas \[flt]" )        | [Flotillas](/es-mx/o13/ee/flt/es-mx-o13-ee-flt-guides.md)        |</v>
+        <v>| [![ivc](/doc/img/app/sml/ivc.jpg)](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md "Ver a las guías de Facturación \[ivc]" )      | [Facturación](/es-mx/o13/ee/ivc/es-mx-o13-ee-ivc-guides.md)      |</v>
       </c>
       <c r="M46" s="4" t="str">
         <f>""</f>
@@ -3587,37 +3587,37 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C47" t="str">
         <f>B47</f>
-        <v>Forum</v>
+        <v>Live Chat</v>
       </c>
       <c r="D47" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="E47" t="str">
         <f>D47</f>
-        <v>Foro</v>
+        <v>Chat en Línea</v>
       </c>
       <c r="F47">
         <f>LEN(B47)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G47">
         <f>LEN(D47)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H47" s="1" t="str">
         <f>"| [![" &amp; $A47 &amp; "](/doc/img/app/sml/" &amp; $A47 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A47 &amp; "/en-uk-o13-ee-" &amp; $A47 &amp; "-guides.md ""Goto " &amp; B47 &amp; " guides \[" &amp; $A47 &amp; "]"" ) | [" &amp; B47 &amp; "](/en-uk/o13/ee/"&amp;$A47&amp;"/en-uk-o13-ee-" &amp; $A47 &amp; "-guides.md)"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" ) | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" ) | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)</v>
       </c>
       <c r="I47" s="1" t="str">
         <f>LEFT(H47,LN_en_uk+F47-1) &amp; REPT(" ",ML_en_uk-F47) &amp; MID(H47,LN_en_uk+F47,200)&amp;REPT(" ",ML_en_uk-F47+1) &amp;"|"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md "Goto Forum guides \[for]" )              | [Forum](/en-uk/o13/ee/for/en-uk-o13-ee-for-guides.md)              |</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md "Goto Live Chat guides \[lch]" )          | [Live Chat](/en-uk/o13/ee/lch/en-uk-o13-ee-lch-guides.md)          |</v>
       </c>
       <c r="J47" s="3" t="str">
         <f>""</f>
@@ -3625,11 +3625,11 @@
       </c>
       <c r="K47" s="1" t="str">
         <f>"| [![" &amp; $A47 &amp; "](/doc/img/app/sml/" &amp; $A47 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A47 &amp; "/es-mx-o13-ee-" &amp; $A47 &amp; "-guides.md ""Ver a las guías de " &amp; D47 &amp; " \[" &amp; $A47 &amp; "]"" ) | [" &amp; D47 &amp; "](/es-mx/o13/ee/"&amp;$A47&amp;"/es-mx-o13-ee-" &amp; $A47 &amp; "-guides.md)"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" ) | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" ) | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)</v>
       </c>
       <c r="L47" s="1" t="str">
         <f>LEFT(K47,LN_es_mx-1+G47) &amp; REPT(" ",ML_es_mx-G47) &amp; MID(K47,LN_es_mx+G47,200)&amp;REPT(" ",ML_es_mx-G47+1) &amp;"|"</f>
-        <v>| [![for](/doc/img/app/sml/for.jpg)](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md "Ver a las guías de Foro \[for]" )             | [Foro](/es-mx/o13/ee/for/es-mx-o13-ee-for-guides.md)             |</v>
+        <v>| [![lch](/doc/img/app/sml/lch.jpg)](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md "Ver a las guías de Chat en Línea \[lch]" )    | [Chat en Línea](/es-mx/o13/ee/lch/es-mx-o13-ee-lch-guides.md)    |</v>
       </c>
       <c r="M47" s="4" t="str">
         <f>""</f>
@@ -3638,37 +3638,37 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C48" t="str">
         <f>B48</f>
-        <v>Gamification</v>
+        <v>Lunch</v>
       </c>
       <c r="D48" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E48" t="str">
         <f>D48</f>
-        <v>Gamificación</v>
+        <v>Comidas</v>
       </c>
       <c r="F48">
         <f>LEN(B48)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G48">
         <f>LEN(D48)</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H48" s="1" t="str">
         <f>"| [![" &amp; $A48 &amp; "](/doc/img/app/sml/" &amp; $A48 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A48 &amp; "/en-uk-o13-ee-" &amp; $A48 &amp; "-guides.md ""Goto " &amp; B48 &amp; " guides \[" &amp; $A48 &amp; "]"" ) | [" &amp; B48 &amp; "](/en-uk/o13/ee/"&amp;$A48&amp;"/en-uk-o13-ee-" &amp; $A48 &amp; "-guides.md)"</f>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" ) | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" ) | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)</v>
       </c>
       <c r="I48" s="1" t="str">
         <f>LEFT(H48,LN_en_uk+F48-1) &amp; REPT(" ",ML_en_uk-F48) &amp; MID(H48,LN_en_uk+F48,200)&amp;REPT(" ",ML_en_uk-F48+1) &amp;"|"</f>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md "Goto Gamification guides \[gam]" )       | [Gamification](/en-uk/o13/ee/gam/en-uk-o13-ee-gam-guides.md)       |</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md "Goto Lunch guides \[lun]" )              | [Lunch](/en-uk/o13/ee/lun/en-uk-o13-ee-lun-guides.md)              |</v>
       </c>
       <c r="J48" s="3" t="str">
         <f>""</f>
@@ -3676,11 +3676,11 @@
       </c>
       <c r="K48" s="1" t="str">
         <f>"| [![" &amp; $A48 &amp; "](/doc/img/app/sml/" &amp; $A48 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A48 &amp; "/es-mx-o13-ee-" &amp; $A48 &amp; "-guides.md ""Ver a las guías de " &amp; D48 &amp; " \[" &amp; $A48 &amp; "]"" ) | [" &amp; D48 &amp; "](/es-mx/o13/ee/"&amp;$A48&amp;"/es-mx-o13-ee-" &amp; $A48 &amp; "-guides.md)"</f>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" ) | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" ) | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)</v>
       </c>
       <c r="L48" s="1" t="str">
         <f>LEFT(K48,LN_es_mx-1+G48) &amp; REPT(" ",ML_es_mx-G48) &amp; MID(K48,LN_es_mx+G48,200)&amp;REPT(" ",ML_es_mx-G48+1) &amp;"|"</f>
-        <v>| [![gam](/doc/img/app/sml/gam.jpg)](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md "Ver a las guías de Gamificación \[gam]" )     | [Gamificación](/es-mx/o13/ee/gam/es-mx-o13-ee-gam-guides.md)     |</v>
+        <v>| [![lun](/doc/img/app/sml/lun.jpg)](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md "Ver a las guías de Comidas \[lun]" )          | [Comidas](/es-mx/o13/ee/lun/es-mx-o13-ee-lun-guides.md)          |</v>
       </c>
       <c r="M48" s="4" t="str">
         <f>""</f>
@@ -3689,37 +3689,37 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="C49" t="str">
         <f>B49</f>
-        <v>Expenses</v>
+        <v>Mail Push</v>
       </c>
       <c r="D49" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="E49" t="str">
         <f>D49</f>
-        <v>Gastos</v>
+        <v>Correo Push</v>
       </c>
       <c r="F49">
         <f>LEN(B49)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G49">
         <f>LEN(D49)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H49" s="1" t="str">
         <f>"| [![" &amp; $A49 &amp; "](/doc/img/app/sml/" &amp; $A49 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A49 &amp; "/en-uk-o13-ee-" &amp; $A49 &amp; "-guides.md ""Goto " &amp; B49 &amp; " guides \[" &amp; $A49 &amp; "]"" ) | [" &amp; B49 &amp; "](/en-uk/o13/ee/"&amp;$A49&amp;"/en-uk-o13-ee-" &amp; $A49 &amp; "-guides.md)"</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" ) | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" ) | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)</v>
       </c>
       <c r="I49" s="1" t="str">
         <f>LEFT(H49,LN_en_uk+F49-1) &amp; REPT(" ",ML_en_uk-F49) &amp; MID(H49,LN_en_uk+F49,200)&amp;REPT(" ",ML_en_uk-F49+1) &amp;"|"</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md "Goto Expenses guides \[exp]" )           | [Expenses](/en-uk/o13/ee/exp/en-uk-o13-ee-exp-guides.md)           |</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md "Goto Mail Push guides \[mpu]" )          | [Mail Push](/en-uk/o13/ee/mpu/en-uk-o13-ee-mpu-guides.md)          |</v>
       </c>
       <c r="J49" s="3" t="str">
         <f>""</f>
@@ -3727,11 +3727,11 @@
       </c>
       <c r="K49" s="1" t="str">
         <f>"| [![" &amp; $A49 &amp; "](/doc/img/app/sml/" &amp; $A49 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A49 &amp; "/es-mx-o13-ee-" &amp; $A49 &amp; "-guides.md ""Ver a las guías de " &amp; D49 &amp; " \[" &amp; $A49 &amp; "]"" ) | [" &amp; D49 &amp; "](/es-mx/o13/ee/"&amp;$A49&amp;"/es-mx-o13-ee-" &amp; $A49 &amp; "-guides.md)"</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" ) | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" ) | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)</v>
       </c>
       <c r="L49" s="1" t="str">
         <f>LEFT(K49,LN_es_mx-1+G49) &amp; REPT(" ",ML_es_mx-G49) &amp; MID(K49,LN_es_mx+G49,200)&amp;REPT(" ",ML_es_mx-G49+1) &amp;"|"</f>
-        <v>| [![exp](/doc/img/app/sml/exp.jpg)](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md "Ver a las guías de Gastos \[exp]" )           | [Gastos](/es-mx/o13/ee/exp/es-mx-o13-ee-exp-guides.md)           |</v>
+        <v>| [![mpu](/doc/img/app/sml/mpu.jpg)](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md "Ver a las guías de Correo Push \[mpu]" )      | [Correo Push](/es-mx/o13/ee/mpu/es-mx-o13-ee-mpu-guides.md)      |</v>
       </c>
       <c r="M49" s="4" t="str">
         <f>""</f>
@@ -3740,25 +3740,25 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C50" t="str">
         <f>B50</f>
-        <v>Google Calendar</v>
+        <v>Maintenance</v>
       </c>
       <c r="D50" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="E50" t="str">
         <f>D50</f>
-        <v>Google Calend</v>
+        <v>Mantenimiento</v>
       </c>
       <c r="F50">
         <f>LEN(B50)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G50">
         <f>LEN(D50)</f>
@@ -3766,11 +3766,11 @@
       </c>
       <c r="H50" s="1" t="str">
         <f>"| [![" &amp; $A50 &amp; "](/doc/img/app/sml/" &amp; $A50 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A50 &amp; "/en-uk-o13-ee-" &amp; $A50 &amp; "-guides.md ""Goto " &amp; B50 &amp; " guides \[" &amp; $A50 &amp; "]"" ) | [" &amp; B50 &amp; "](/en-uk/o13/ee/"&amp;$A50&amp;"/en-uk-o13-ee-" &amp; $A50 &amp; "-guides.md)"</f>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" ) | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" ) | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)</v>
       </c>
       <c r="I50" s="1" t="str">
         <f>LEFT(H50,LN_en_uk+F50-1) &amp; REPT(" ",ML_en_uk-F50) &amp; MID(H50,LN_en_uk+F50,200)&amp;REPT(" ",ML_en_uk-F50+1) &amp;"|"</f>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md "Goto Google Calendar guides \[gca]" )    | [Google Calendar](/en-uk/o13/ee/gca/en-uk-o13-ee-gca-guides.md)    |</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" )        | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)        |</v>
       </c>
       <c r="J50" s="3" t="str">
         <f>""</f>
@@ -3778,11 +3778,11 @@
       </c>
       <c r="K50" s="1" t="str">
         <f>"| [![" &amp; $A50 &amp; "](/doc/img/app/sml/" &amp; $A50 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A50 &amp; "/es-mx-o13-ee-" &amp; $A50 &amp; "-guides.md ""Ver a las guías de " &amp; D50 &amp; " \[" &amp; $A50 &amp; "]"" ) | [" &amp; D50 &amp; "](/es-mx/o13/ee/"&amp;$A50&amp;"/es-mx-o13-ee-" &amp; $A50 &amp; "-guides.md)"</f>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" ) | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" ) | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)</v>
       </c>
       <c r="L50" s="1" t="str">
         <f>LEFT(K50,LN_es_mx-1+G50) &amp; REPT(" ",ML_es_mx-G50) &amp; MID(K50,LN_es_mx+G50,200)&amp;REPT(" ",ML_es_mx-G50+1) &amp;"|"</f>
-        <v>| [![gca](/doc/img/app/sml/gca.jpg)](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md "Ver a las guías de Google Calend \[gca]" )    | [Google Calend](/es-mx/o13/ee/gca/es-mx-o13-ee-gca-guides.md)    |</v>
+        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )    | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)    |</v>
       </c>
       <c r="M50" s="4" t="str">
         <f>""</f>
@@ -3791,37 +3791,38 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C51" t="str">
         <f>B51</f>
-        <v>Google Drive</v>
-      </c>
-      <c r="D51" t="s">
-        <v>164</v>
+        <v>Marketing Auto</v>
+      </c>
+      <c r="D51" t="str">
+        <f>C51</f>
+        <v>Marketing Auto</v>
       </c>
       <c r="E51" t="str">
         <f>D51</f>
-        <v>Google Drive</v>
+        <v>Marketing Auto</v>
       </c>
       <c r="F51">
         <f>LEN(B51)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G51">
         <f>LEN(D51)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H51" s="1" t="str">
         <f>"| [![" &amp; $A51 &amp; "](/doc/img/app/sml/" &amp; $A51 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A51 &amp; "/en-uk-o13-ee-" &amp; $A51 &amp; "-guides.md ""Goto " &amp; B51 &amp; " guides \[" &amp; $A51 &amp; "]"" ) | [" &amp; B51 &amp; "](/en-uk/o13/ee/"&amp;$A51&amp;"/en-uk-o13-ee-" &amp; $A51 &amp; "-guides.md)"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" ) | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" ) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)</v>
       </c>
       <c r="I51" s="1" t="str">
         <f>LEFT(H51,LN_en_uk+F51-1) &amp; REPT(" ",ML_en_uk-F51) &amp; MID(H51,LN_en_uk+F51,200)&amp;REPT(" ",ML_en_uk-F51+1) &amp;"|"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md "Goto Google Drive guides \[gdr]" )       | [Google Drive](/en-uk/o13/ee/gdr/en-uk-o13-ee-gdr-guides.md)       |</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" )     | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)     |</v>
       </c>
       <c r="J51" s="3" t="str">
         <f>""</f>
@@ -3829,11 +3830,11 @@
       </c>
       <c r="K51" s="1" t="str">
         <f>"| [![" &amp; $A51 &amp; "](/doc/img/app/sml/" &amp; $A51 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A51 &amp; "/es-mx-o13-ee-" &amp; $A51 &amp; "-guides.md ""Ver a las guías de " &amp; D51 &amp; " \[" &amp; $A51 &amp; "]"" ) | [" &amp; D51 &amp; "](/es-mx/o13/ee/"&amp;$A51&amp;"/es-mx-o13-ee-" &amp; $A51 &amp; "-guides.md)"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" ) | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" ) | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)</v>
       </c>
       <c r="L51" s="1" t="str">
         <f>LEFT(K51,LN_es_mx-1+G51) &amp; REPT(" ",ML_es_mx-G51) &amp; MID(K51,LN_es_mx+G51,200)&amp;REPT(" ",ML_es_mx-G51+1) &amp;"|"</f>
-        <v>| [![gdr](/doc/img/app/sml/gdr.jpg)](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md "Ver a las guías de Google Drive \[gdr]" )     | [Google Drive](/es-mx/o13/ee/gdr/es-mx-o13-ee-gdr-guides.md)     |</v>
+        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )   | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)   |</v>
       </c>
       <c r="M51" s="4" t="str">
         <f>""</f>
@@ -3842,37 +3843,37 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C52" t="str">
         <f>B52</f>
-        <v>Internet of Things</v>
+        <v>Mass Mail</v>
       </c>
       <c r="D52" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E52" t="str">
         <f>D52</f>
-        <v>Int de las Cosas</v>
+        <v>Campañas</v>
       </c>
       <c r="F52">
         <f>LEN(B52)</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G52">
         <f>LEN(D52)</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H52" s="1" t="str">
         <f>"| [![" &amp; $A52 &amp; "](/doc/img/app/sml/" &amp; $A52 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A52 &amp; "/en-uk-o13-ee-" &amp; $A52 &amp; "-guides.md ""Goto " &amp; B52 &amp; " guides \[" &amp; $A52 &amp; "]"" ) | [" &amp; B52 &amp; "](/en-uk/o13/ee/"&amp;$A52&amp;"/en-uk-o13-ee-" &amp; $A52 &amp; "-guides.md)"</f>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md)</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" ) | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)</v>
       </c>
       <c r="I52" s="1" t="str">
         <f>LEFT(H52,LN_en_uk+F52-1) &amp; REPT(" ",ML_en_uk-F52) &amp; MID(H52,LN_en_uk+F52,200)&amp;REPT(" ",ML_en_uk-F52+1) &amp;"|"</f>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md "Goto Internet of Things guides \[iot]" ) | [Internet of Things](/en-uk/o13/ee/iot/en-uk-o13-ee-iot-guides.md) |</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md "Goto Mass Mail guides \[msm]" )          | [Mass Mail](/en-uk/o13/ee/msm/en-uk-o13-ee-msm-guides.md)          |</v>
       </c>
       <c r="J52" s="3" t="str">
         <f>""</f>
@@ -3880,11 +3881,11 @@
       </c>
       <c r="K52" s="1" t="str">
         <f>"| [![" &amp; $A52 &amp; "](/doc/img/app/sml/" &amp; $A52 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A52 &amp; "/es-mx-o13-ee-" &amp; $A52 &amp; "-guides.md ""Ver a las guías de " &amp; D52 &amp; " \[" &amp; $A52 &amp; "]"" ) | [" &amp; D52 &amp; "](/es-mx/o13/ee/"&amp;$A52&amp;"/es-mx-o13-ee-" &amp; $A52 &amp; "-guides.md)"</f>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md)</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" ) | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)</v>
       </c>
       <c r="L52" s="1" t="str">
         <f>LEFT(K52,LN_es_mx-1+G52) &amp; REPT(" ",ML_es_mx-G52) &amp; MID(K52,LN_es_mx+G52,200)&amp;REPT(" ",ML_es_mx-G52+1) &amp;"|"</f>
-        <v>| [![iot](/doc/img/app/sml/iot.jpg)](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md "Ver a las guías de Int de las Cosas \[iot]" ) | [Int de las Cosas](/es-mx/o13/ee/iot/es-mx-o13-ee-iot-guides.md) |</v>
+        <v>| [![msm](/doc/img/app/sml/msm.jpg)](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md "Ver a las guías de Campañas \[msm]" )         | [Campañas](/es-mx/o13/ee/msm/es-mx-o13-ee-msm-guides.md)         |</v>
       </c>
       <c r="M52" s="4" t="str">
         <f>""</f>
@@ -3893,37 +3894,37 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="C53" t="str">
         <f>B53</f>
-        <v>Inventory</v>
+        <v>Membership</v>
       </c>
       <c r="D53" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E53" t="str">
         <f>D53</f>
-        <v>Inventarios</v>
+        <v>Membresías</v>
       </c>
       <c r="F53">
         <f>LEN(B53)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G53">
         <f>LEN(D53)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H53" s="1" t="str">
         <f>"| [![" &amp; $A53 &amp; "](/doc/img/app/sml/" &amp; $A53 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A53 &amp; "/en-uk-o13-ee-" &amp; $A53 &amp; "-guides.md ""Goto " &amp; B53 &amp; " guides \[" &amp; $A53 &amp; "]"" ) | [" &amp; B53 &amp; "](/en-uk/o13/ee/"&amp;$A53&amp;"/en-uk-o13-ee-" &amp; $A53 &amp; "-guides.md)"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" ) | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" ) | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)</v>
       </c>
       <c r="I53" s="1" t="str">
         <f>LEFT(H53,LN_en_uk+F53-1) &amp; REPT(" ",ML_en_uk-F53) &amp; MID(H53,LN_en_uk+F53,200)&amp;REPT(" ",ML_en_uk-F53+1) &amp;"|"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md "Goto Inventory guides \[inv]" )          | [Inventory](/en-uk/o13/ee/inv/en-uk-o13-ee-inv-guides.md)          |</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" )         | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)         |</v>
       </c>
       <c r="J53" s="3" t="str">
         <f>""</f>
@@ -3931,11 +3932,11 @@
       </c>
       <c r="K53" s="1" t="str">
         <f>"| [![" &amp; $A53 &amp; "](/doc/img/app/sml/" &amp; $A53 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A53 &amp; "/es-mx-o13-ee-" &amp; $A53 &amp; "-guides.md ""Ver a las guías de " &amp; D53 &amp; " \[" &amp; $A53 &amp; "]"" ) | [" &amp; D53 &amp; "](/es-mx/o13/ee/"&amp;$A53&amp;"/es-mx-o13-ee-" &amp; $A53 &amp; "-guides.md)"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" ) | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" ) | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)</v>
       </c>
       <c r="L53" s="1" t="str">
         <f>LEFT(K53,LN_es_mx-1+G53) &amp; REPT(" ",ML_es_mx-G53) &amp; MID(K53,LN_es_mx+G53,200)&amp;REPT(" ",ML_es_mx-G53+1) &amp;"|"</f>
-        <v>| [![inv](/doc/img/app/sml/inv.jpg)](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md "Ver a las guías de Inventarios \[inv]" )      | [Inventarios](/es-mx/o13/ee/inv/es-mx-o13-ee-inv-guides.md)      |</v>
+        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )       | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)       |</v>
       </c>
       <c r="M53" s="4" t="str">
         <f>""</f>
@@ -3944,37 +3945,37 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="C54" t="str">
         <f>B54</f>
-        <v>Maintenance</v>
+        <v>Modules</v>
       </c>
       <c r="D54" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E54" t="str">
         <f>D54</f>
-        <v>Mantenimiento</v>
+        <v>Módulos</v>
       </c>
       <c r="F54">
         <f>LEN(B54)</f>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G54">
         <f>LEN(D54)</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H54" s="1" t="str">
         <f>"| [![" &amp; $A54 &amp; "](/doc/img/app/sml/" &amp; $A54 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A54 &amp; "/en-uk-o13-ee-" &amp; $A54 &amp; "-guides.md ""Goto " &amp; B54 &amp; " guides \[" &amp; $A54 &amp; "]"" ) | [" &amp; B54 &amp; "](/en-uk/o13/ee/"&amp;$A54&amp;"/en-uk-o13-ee-" &amp; $A54 &amp; "-guides.md)"</f>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" ) | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" ) | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)</v>
       </c>
       <c r="I54" s="1" t="str">
         <f>LEFT(H54,LN_en_uk+F54-1) &amp; REPT(" ",ML_en_uk-F54) &amp; MID(H54,LN_en_uk+F54,200)&amp;REPT(" ",ML_en_uk-F54+1) &amp;"|"</f>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md "Goto Maintenance guides \[mnt]" )        | [Maintenance](/en-uk/o13/ee/mnt/en-uk-o13-ee-mnt-guides.md)        |</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" )            | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)            |</v>
       </c>
       <c r="J54" s="3" t="str">
         <f>""</f>
@@ -3982,11 +3983,11 @@
       </c>
       <c r="K54" s="1" t="str">
         <f>"| [![" &amp; $A54 &amp; "](/doc/img/app/sml/" &amp; $A54 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A54 &amp; "/es-mx-o13-ee-" &amp; $A54 &amp; "-guides.md ""Ver a las guías de " &amp; D54 &amp; " \[" &amp; $A54 &amp; "]"" ) | [" &amp; D54 &amp; "](/es-mx/o13/ee/"&amp;$A54&amp;"/es-mx-o13-ee-" &amp; $A54 &amp; "-guides.md)"</f>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" ) | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" ) | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)</v>
       </c>
       <c r="L54" s="1" t="str">
         <f>LEFT(K54,LN_es_mx-1+G54) &amp; REPT(" ",ML_es_mx-G54) &amp; MID(K54,LN_es_mx+G54,200)&amp;REPT(" ",ML_es_mx-G54+1) &amp;"|"</f>
-        <v>| [![mnt](/doc/img/app/sml/mnt.jpg)](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md "Ver a las guías de Mantenimiento \[mnt]" )    | [Mantenimiento](/es-mx/o13/ee/mnt/es-mx-o13-ee-mnt-guides.md)    |</v>
+        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )          | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)          |</v>
       </c>
       <c r="M54" s="4" t="str">
         <f>""</f>
@@ -3995,38 +3996,37 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B55" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C55" t="str">
         <f>B55</f>
-        <v>Marketing Auto</v>
-      </c>
-      <c r="D55" t="str">
-        <f>C55</f>
-        <v>Marketing Auto</v>
+        <v>MRP</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
       </c>
       <c r="E55" t="str">
         <f>D55</f>
-        <v>Marketing Auto</v>
+        <v>MRP</v>
       </c>
       <c r="F55">
         <f>LEN(B55)</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G55">
         <f>LEN(D55)</f>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H55" s="1" t="str">
         <f>"| [![" &amp; $A55 &amp; "](/doc/img/app/sml/" &amp; $A55 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A55 &amp; "/en-uk-o13-ee-" &amp; $A55 &amp; "-guides.md ""Goto " &amp; B55 &amp; " guides \[" &amp; $A55 &amp; "]"" ) | [" &amp; B55 &amp; "](/en-uk/o13/ee/"&amp;$A55&amp;"/en-uk-o13-ee-" &amp; $A55 &amp; "-guides.md)"</f>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" ) | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" ) | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)</v>
       </c>
       <c r="I55" s="1" t="str">
         <f>LEFT(H55,LN_en_uk+F55-1) &amp; REPT(" ",ML_en_uk-F55) &amp; MID(H55,LN_en_uk+F55,200)&amp;REPT(" ",ML_en_uk-F55+1) &amp;"|"</f>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md "Goto Marketing Auto guides \[mka]" )     | [Marketing Auto](/en-uk/o13/ee/mka/en-uk-o13-ee-mka-guides.md)     |</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" )                | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)                |</v>
       </c>
       <c r="J55" s="3" t="str">
         <f>""</f>
@@ -4034,11 +4034,11 @@
       </c>
       <c r="K55" s="1" t="str">
         <f>"| [![" &amp; $A55 &amp; "](/doc/img/app/sml/" &amp; $A55 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A55 &amp; "/es-mx-o13-ee-" &amp; $A55 &amp; "-guides.md ""Ver a las guías de " &amp; D55 &amp; " \[" &amp; $A55 &amp; "]"" ) | [" &amp; D55 &amp; "](/es-mx/o13/ee/"&amp;$A55&amp;"/es-mx-o13-ee-" &amp; $A55 &amp; "-guides.md)"</f>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" ) | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" ) | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)</v>
       </c>
       <c r="L55" s="1" t="str">
         <f>LEFT(K55,LN_es_mx-1+G55) &amp; REPT(" ",ML_es_mx-G55) &amp; MID(K55,LN_es_mx+G55,200)&amp;REPT(" ",ML_es_mx-G55+1) &amp;"|"</f>
-        <v>| [![mka](/doc/img/app/sml/mka.jpg)](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md "Ver a las guías de Marketing Auto \[mka]" )   | [Marketing Auto](/es-mx/o13/ee/mka/es-mx-o13-ee-mka-guides.md)   |</v>
+        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )              | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)              |</v>
       </c>
       <c r="M55" s="4" t="str">
         <f>""</f>
@@ -4047,25 +4047,25 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C56" t="str">
         <f>B56</f>
-        <v>Membership</v>
+        <v>MRP Maintenance</v>
       </c>
       <c r="D56" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E56" t="str">
         <f>D56</f>
-        <v>Membresías</v>
+        <v>MRP Mantto</v>
       </c>
       <c r="F56">
         <f>LEN(B56)</f>
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G56">
         <f>LEN(D56)</f>
@@ -4073,11 +4073,11 @@
       </c>
       <c r="H56" s="1" t="str">
         <f>"| [![" &amp; $A56 &amp; "](/doc/img/app/sml/" &amp; $A56 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A56 &amp; "/en-uk-o13-ee-" &amp; $A56 &amp; "-guides.md ""Goto " &amp; B56 &amp; " guides \[" &amp; $A56 &amp; "]"" ) | [" &amp; B56 &amp; "](/en-uk/o13/ee/"&amp;$A56&amp;"/en-uk-o13-ee-" &amp; $A56 &amp; "-guides.md)"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" ) | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" ) | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)</v>
       </c>
       <c r="I56" s="1" t="str">
         <f>LEFT(H56,LN_en_uk+F56-1) &amp; REPT(" ",ML_en_uk-F56) &amp; MID(H56,LN_en_uk+F56,200)&amp;REPT(" ",ML_en_uk-F56+1) &amp;"|"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md "Goto Membership guides \[mem]" )         | [Membership](/en-uk/o13/ee/mem/en-uk-o13-ee-mem-guides.md)         |</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" )    | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)    |</v>
       </c>
       <c r="J56" s="3" t="str">
         <f>""</f>
@@ -4085,11 +4085,11 @@
       </c>
       <c r="K56" s="1" t="str">
         <f>"| [![" &amp; $A56 &amp; "](/doc/img/app/sml/" &amp; $A56 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A56 &amp; "/es-mx-o13-ee-" &amp; $A56 &amp; "-guides.md ""Ver a las guías de " &amp; D56 &amp; " \[" &amp; $A56 &amp; "]"" ) | [" &amp; D56 &amp; "](/es-mx/o13/ee/"&amp;$A56&amp;"/es-mx-o13-ee-" &amp; $A56 &amp; "-guides.md)"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" ) | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" ) | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)</v>
       </c>
       <c r="L56" s="1" t="str">
         <f>LEFT(K56,LN_es_mx-1+G56) &amp; REPT(" ",ML_es_mx-G56) &amp; MID(K56,LN_es_mx+G56,200)&amp;REPT(" ",ML_es_mx-G56+1) &amp;"|"</f>
-        <v>| [![mem](/doc/img/app/sml/mem.jpg)](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md "Ver a las guías de Membresías \[mem]" )       | [Membresías](/es-mx/o13/ee/mem/es-mx-o13-ee-mem-guides.md)       |</v>
+        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )       | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)       |</v>
       </c>
       <c r="M56" s="4" t="str">
         <f>""</f>
@@ -4098,37 +4098,37 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="C57" t="str">
         <f>B57</f>
-        <v>Helpdesk</v>
+        <v>Note</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E57" t="str">
         <f>D57</f>
-        <v>Mesa de Ayuda</v>
+        <v>Notas</v>
       </c>
       <c r="F57">
         <f>LEN(B57)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G57">
         <f>LEN(D57)</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="H57" s="1" t="str">
         <f>"| [![" &amp; $A57 &amp; "](/doc/img/app/sml/" &amp; $A57 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A57 &amp; "/en-uk-o13-ee-" &amp; $A57 &amp; "-guides.md ""Goto " &amp; B57 &amp; " guides \[" &amp; $A57 &amp; "]"" ) | [" &amp; B57 &amp; "](/en-uk/o13/ee/"&amp;$A57&amp;"/en-uk-o13-ee-" &amp; $A57 &amp; "-guides.md)"</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" ) | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" ) | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)</v>
       </c>
       <c r="I57" s="1" t="str">
         <f>LEFT(H57,LN_en_uk+F57-1) &amp; REPT(" ",ML_en_uk-F57) &amp; MID(H57,LN_en_uk+F57,200)&amp;REPT(" ",ML_en_uk-F57+1) &amp;"|"</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md "Goto Helpdesk guides \[hdk]" )           | [Helpdesk](/en-uk/o13/ee/hdk/en-uk-o13-ee-hdk-guides.md)           |</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" )               | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)               |</v>
       </c>
       <c r="J57" s="3" t="str">
         <f>""</f>
@@ -4136,11 +4136,11 @@
       </c>
       <c r="K57" s="1" t="str">
         <f>"| [![" &amp; $A57 &amp; "](/doc/img/app/sml/" &amp; $A57 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A57 &amp; "/es-mx-o13-ee-" &amp; $A57 &amp; "-guides.md ""Ver a las guías de " &amp; D57 &amp; " \[" &amp; $A57 &amp; "]"" ) | [" &amp; D57 &amp; "](/es-mx/o13/ee/"&amp;$A57&amp;"/es-mx-o13-ee-" &amp; $A57 &amp; "-guides.md)"</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" ) | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" ) | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)</v>
       </c>
       <c r="L57" s="1" t="str">
         <f>LEFT(K57,LN_es_mx-1+G57) &amp; REPT(" ",ML_es_mx-G57) &amp; MID(K57,LN_es_mx+G57,200)&amp;REPT(" ",ML_es_mx-G57+1) &amp;"|"</f>
-        <v>| [![hdk](/doc/img/app/sml/hdk.jpg)](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md "Ver a las guías de Mesa de Ayuda \[hdk]" )    | [Mesa de Ayuda](/es-mx/o13/ee/hdk/es-mx-o13-ee-hdk-guides.md)    |</v>
+        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )            | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)            |</v>
       </c>
       <c r="M57" s="4" t="str">
         <f>""</f>
@@ -4149,21 +4149,21 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C58" t="str">
         <f>B58</f>
-        <v>Modules</v>
+        <v>Payment</v>
       </c>
       <c r="D58" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E58" t="str">
         <f>D58</f>
-        <v>Módulos</v>
+        <v>Pagos</v>
       </c>
       <c r="F58">
         <f>LEN(B58)</f>
@@ -4171,15 +4171,15 @@
       </c>
       <c r="G58">
         <f>LEN(D58)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H58" s="1" t="str">
         <f>"| [![" &amp; $A58 &amp; "](/doc/img/app/sml/" &amp; $A58 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A58 &amp; "/en-uk-o13-ee-" &amp; $A58 &amp; "-guides.md ""Goto " &amp; B58 &amp; " guides \[" &amp; $A58 &amp; "]"" ) | [" &amp; B58 &amp; "](/en-uk/o13/ee/"&amp;$A58&amp;"/en-uk-o13-ee-" &amp; $A58 &amp; "-guides.md)"</f>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" ) | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" ) | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)</v>
       </c>
       <c r="I58" s="1" t="str">
         <f>LEFT(H58,LN_en_uk+F58-1) &amp; REPT(" ",ML_en_uk-F58) &amp; MID(H58,LN_en_uk+F58,200)&amp;REPT(" ",ML_en_uk-F58+1) &amp;"|"</f>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md "Goto Modules guides \[mdl]" )            | [Modules](/en-uk/o13/ee/mdl/en-uk-o13-ee-mdl-guides.md)            |</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" )            | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)            |</v>
       </c>
       <c r="J58" s="3" t="str">
         <f>""</f>
@@ -4187,11 +4187,11 @@
       </c>
       <c r="K58" s="1" t="str">
         <f>"| [![" &amp; $A58 &amp; "](/doc/img/app/sml/" &amp; $A58 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A58 &amp; "/es-mx-o13-ee-" &amp; $A58 &amp; "-guides.md ""Ver a las guías de " &amp; D58 &amp; " \[" &amp; $A58 &amp; "]"" ) | [" &amp; D58 &amp; "](/es-mx/o13/ee/"&amp;$A58&amp;"/es-mx-o13-ee-" &amp; $A58 &amp; "-guides.md)"</f>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" ) | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" ) | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)</v>
       </c>
       <c r="L58" s="1" t="str">
         <f>LEFT(K58,LN_es_mx-1+G58) &amp; REPT(" ",ML_es_mx-G58) &amp; MID(K58,LN_es_mx+G58,200)&amp;REPT(" ",ML_es_mx-G58+1) &amp;"|"</f>
-        <v>| [![mdl](/doc/img/app/sml/mdl.jpg)](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md "Ver a las guías de Módulos \[mdl]" )          | [Módulos](/es-mx/o13/ee/mdl/es-mx-o13-ee-mdl-guides.md)          |</v>
+        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )            | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)            |</v>
       </c>
       <c r="M58" s="4" t="str">
         <f>""</f>
@@ -4200,37 +4200,37 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C59" t="str">
         <f>B59</f>
-        <v>MRP</v>
+        <v>Payroll</v>
       </c>
       <c r="D59" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="E59" t="str">
         <f>D59</f>
-        <v>MRP</v>
+        <v>Nómina</v>
       </c>
       <c r="F59">
         <f>LEN(B59)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G59">
         <f>LEN(D59)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H59" s="1" t="str">
         <f>"| [![" &amp; $A59 &amp; "](/doc/img/app/sml/" &amp; $A59 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A59 &amp; "/en-uk-o13-ee-" &amp; $A59 &amp; "-guides.md ""Goto " &amp; B59 &amp; " guides \[" &amp; $A59 &amp; "]"" ) | [" &amp; B59 &amp; "](/en-uk/o13/ee/"&amp;$A59&amp;"/en-uk-o13-ee-" &amp; $A59 &amp; "-guides.md)"</f>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" ) | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" ) | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)</v>
       </c>
       <c r="I59" s="1" t="str">
         <f>LEFT(H59,LN_en_uk+F59-1) &amp; REPT(" ",ML_en_uk-F59) &amp; MID(H59,LN_en_uk+F59,200)&amp;REPT(" ",ML_en_uk-F59+1) &amp;"|"</f>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md "Goto MRP guides \[mrp]" )                | [MRP](/en-uk/o13/ee/mrp/en-uk-o13-ee-mrp-guides.md)                |</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" )            | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)            |</v>
       </c>
       <c r="J59" s="3" t="str">
         <f>""</f>
@@ -4238,11 +4238,11 @@
       </c>
       <c r="K59" s="1" t="str">
         <f>"| [![" &amp; $A59 &amp; "](/doc/img/app/sml/" &amp; $A59 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A59 &amp; "/es-mx-o13-ee-" &amp; $A59 &amp; "-guides.md ""Ver a las guías de " &amp; D59 &amp; " \[" &amp; $A59 &amp; "]"" ) | [" &amp; D59 &amp; "](/es-mx/o13/ee/"&amp;$A59&amp;"/es-mx-o13-ee-" &amp; $A59 &amp; "-guides.md)"</f>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" ) | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" ) | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)</v>
       </c>
       <c r="L59" s="1" t="str">
         <f>LEFT(K59,LN_es_mx-1+G59) &amp; REPT(" ",ML_es_mx-G59) &amp; MID(K59,LN_es_mx+G59,200)&amp;REPT(" ",ML_es_mx-G59+1) &amp;"|"</f>
-        <v>| [![mrp](/doc/img/app/sml/mrp.jpg)](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md "Ver a las guías de MRP \[mrp]" )              | [MRP](/es-mx/o13/ee/mrp/es-mx-o13-ee-mrp-guides.md)              |</v>
+        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)           |</v>
       </c>
       <c r="M59" s="4" t="str">
         <f>""</f>
@@ -4251,37 +4251,37 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="C60" t="str">
         <f>B60</f>
-        <v>MRP Maintenance</v>
+        <v>PLM</v>
       </c>
       <c r="D60" t="s">
-        <v>251</v>
+        <v>135</v>
       </c>
       <c r="E60" t="str">
         <f>D60</f>
-        <v>MRP Mantto</v>
+        <v>PLM</v>
       </c>
       <c r="F60">
         <f>LEN(B60)</f>
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G60">
         <f>LEN(D60)</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H60" s="1" t="str">
         <f>"| [![" &amp; $A60 &amp; "](/doc/img/app/sml/" &amp; $A60 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A60 &amp; "/en-uk-o13-ee-" &amp; $A60 &amp; "-guides.md ""Goto " &amp; B60 &amp; " guides \[" &amp; $A60 &amp; "]"" ) | [" &amp; B60 &amp; "](/en-uk/o13/ee/"&amp;$A60&amp;"/en-uk-o13-ee-" &amp; $A60 &amp; "-guides.md)"</f>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" ) | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" ) | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)</v>
       </c>
       <c r="I60" s="1" t="str">
         <f>LEFT(H60,LN_en_uk+F60-1) &amp; REPT(" ",ML_en_uk-F60) &amp; MID(H60,LN_en_uk+F60,200)&amp;REPT(" ",ML_en_uk-F60+1) &amp;"|"</f>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md "Goto MRP Maintenance guides \[mma]" )    | [MRP Maintenance](/en-uk/o13/ee/mma/en-uk-o13-ee-mma-guides.md)    |</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" )                | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)                |</v>
       </c>
       <c r="J60" s="3" t="str">
         <f>""</f>
@@ -4289,11 +4289,11 @@
       </c>
       <c r="K60" s="1" t="str">
         <f>"| [![" &amp; $A60 &amp; "](/doc/img/app/sml/" &amp; $A60 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A60 &amp; "/es-mx-o13-ee-" &amp; $A60 &amp; "-guides.md ""Ver a las guías de " &amp; D60 &amp; " \[" &amp; $A60 &amp; "]"" ) | [" &amp; D60 &amp; "](/es-mx/o13/ee/"&amp;$A60&amp;"/es-mx-o13-ee-" &amp; $A60 &amp; "-guides.md)"</f>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" ) | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" ) | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)</v>
       </c>
       <c r="L60" s="1" t="str">
         <f>LEFT(K60,LN_es_mx-1+G60) &amp; REPT(" ",ML_es_mx-G60) &amp; MID(K60,LN_es_mx+G60,200)&amp;REPT(" ",ML_es_mx-G60+1) &amp;"|"</f>
-        <v>| [![mma](/doc/img/app/sml/mma.jpg)](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md "Ver a las guías de MRP Mantto \[mma]" )       | [MRP Mantto](/es-mx/o13/ee/mma/es-mx-o13-ee-mma-guides.md)       |</v>
+        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )              | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)              |</v>
       </c>
       <c r="M60" s="4" t="str">
         <f>""</f>
@@ -4302,37 +4302,37 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C61" t="str">
         <f>B61</f>
-        <v>Payroll</v>
+        <v>Point of Sale</v>
       </c>
       <c r="D61" t="s">
         <v>254</v>
       </c>
       <c r="E61" t="str">
         <f>D61</f>
-        <v>Nómina</v>
+        <v>Punto de Venta</v>
       </c>
       <c r="F61">
         <f>LEN(B61)</f>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G61">
         <f>LEN(D61)</f>
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H61" s="1" t="str">
         <f>"| [![" &amp; $A61 &amp; "](/doc/img/app/sml/" &amp; $A61 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A61 &amp; "/en-uk-o13-ee-" &amp; $A61 &amp; "-guides.md ""Goto " &amp; B61 &amp; " guides \[" &amp; $A61 &amp; "]"" ) | [" &amp; B61 &amp; "](/en-uk/o13/ee/"&amp;$A61&amp;"/en-uk-o13-ee-" &amp; $A61 &amp; "-guides.md)"</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" ) | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" ) | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)</v>
       </c>
       <c r="I61" s="1" t="str">
         <f>LEFT(H61,LN_en_uk+F61-1) &amp; REPT(" ",ML_en_uk-F61) &amp; MID(H61,LN_en_uk+F61,200)&amp;REPT(" ",ML_en_uk-F61+1) &amp;"|"</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md "Goto Payroll guides \[pyr]" )            | [Payroll](/en-uk/o13/ee/pyr/en-uk-o13-ee-pyr-guides.md)            |</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" )      | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)      |</v>
       </c>
       <c r="J61" s="3" t="str">
         <f>""</f>
@@ -4340,11 +4340,11 @@
       </c>
       <c r="K61" s="1" t="str">
         <f>"| [![" &amp; $A61 &amp; "](/doc/img/app/sml/" &amp; $A61 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A61 &amp; "/es-mx-o13-ee-" &amp; $A61 &amp; "-guides.md ""Ver a las guías de " &amp; D61 &amp; " \[" &amp; $A61 &amp; "]"" ) | [" &amp; D61 &amp; "](/es-mx/o13/ee/"&amp;$A61&amp;"/es-mx-o13-ee-" &amp; $A61 &amp; "-guides.md)"</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" ) | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" ) | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)</v>
       </c>
       <c r="L61" s="1" t="str">
         <f>LEFT(K61,LN_es_mx-1+G61) &amp; REPT(" ",ML_es_mx-G61) &amp; MID(K61,LN_es_mx+G61,200)&amp;REPT(" ",ML_es_mx-G61+1) &amp;"|"</f>
-        <v>| [![pyr](/doc/img/app/sml/pyr.jpg)](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md "Ver a las guías de Nómina \[pyr]" )           | [Nómina](/es-mx/o13/ee/pyr/es-mx-o13-ee-pyr-guides.md)           |</v>
+        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )   | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)   |</v>
       </c>
       <c r="M61" s="4" t="str">
         <f>""</f>
@@ -4353,37 +4353,37 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C62" t="str">
         <f>B62</f>
-        <v>Note</v>
+        <v>Presence</v>
       </c>
       <c r="D62" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E62" t="str">
         <f>D62</f>
-        <v>Notas</v>
+        <v>Presencia</v>
       </c>
       <c r="F62">
         <f>LEN(B62)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G62">
         <f>LEN(D62)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H62" s="1" t="str">
         <f>"| [![" &amp; $A62 &amp; "](/doc/img/app/sml/" &amp; $A62 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A62 &amp; "/en-uk-o13-ee-" &amp; $A62 &amp; "-guides.md ""Goto " &amp; B62 &amp; " guides \[" &amp; $A62 &amp; "]"" ) | [" &amp; B62 &amp; "](/en-uk/o13/ee/"&amp;$A62&amp;"/en-uk-o13-ee-" &amp; $A62 &amp; "-guides.md)"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" ) | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" ) | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)</v>
       </c>
       <c r="I62" s="1" t="str">
         <f>LEFT(H62,LN_en_uk+F62-1) &amp; REPT(" ",ML_en_uk-F62) &amp; MID(H62,LN_en_uk+F62,200)&amp;REPT(" ",ML_en_uk-F62+1) &amp;"|"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md "Goto Note guides \[nte]" )               | [Note](/en-uk/o13/ee/nte/en-uk-o13-ee-nte-guides.md)               |</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" )           | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)           |</v>
       </c>
       <c r="J62" s="3" t="str">
         <f>""</f>
@@ -4391,11 +4391,11 @@
       </c>
       <c r="K62" s="1" t="str">
         <f>"| [![" &amp; $A62 &amp; "](/doc/img/app/sml/" &amp; $A62 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A62 &amp; "/es-mx-o13-ee-" &amp; $A62 &amp; "-guides.md ""Ver a las guías de " &amp; D62 &amp; " \[" &amp; $A62 &amp; "]"" ) | [" &amp; D62 &amp; "](/es-mx/o13/ee/"&amp;$A62&amp;"/es-mx-o13-ee-" &amp; $A62 &amp; "-guides.md)"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" ) | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" ) | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)</v>
       </c>
       <c r="L62" s="1" t="str">
         <f>LEFT(K62,LN_es_mx-1+G62) &amp; REPT(" ",ML_es_mx-G62) &amp; MID(K62,LN_es_mx+G62,200)&amp;REPT(" ",ML_es_mx-G62+1) &amp;"|"</f>
-        <v>| [![nte](/doc/img/app/sml/nte.jpg)](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md "Ver a las guías de Notas \[nte]" )            | [Notas](/es-mx/o13/ee/nte/es-mx-o13-ee-nte-guides.md)            |</v>
+        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )        | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)        |</v>
       </c>
       <c r="M62" s="4" t="str">
         <f>""</f>
@@ -4404,37 +4404,37 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C63" t="str">
         <f>B63</f>
-        <v>Payment</v>
+        <v>Project Forecast</v>
       </c>
       <c r="D63" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E63" t="str">
         <f>D63</f>
-        <v>Pagos</v>
+        <v>Pronósticos</v>
       </c>
       <c r="F63">
         <f>LEN(B63)</f>
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G63">
         <f>LEN(D63)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H63" s="1" t="str">
         <f>"| [![" &amp; $A63 &amp; "](/doc/img/app/sml/" &amp; $A63 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A63 &amp; "/en-uk-o13-ee-" &amp; $A63 &amp; "-guides.md ""Goto " &amp; B63 &amp; " guides \[" &amp; $A63 &amp; "]"" ) | [" &amp; B63 &amp; "](/en-uk/o13/ee/"&amp;$A63&amp;"/en-uk-o13-ee-" &amp; $A63 &amp; "-guides.md)"</f>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" ) | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" ) | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)</v>
       </c>
       <c r="I63" s="1" t="str">
         <f>LEFT(H63,LN_en_uk+F63-1) &amp; REPT(" ",ML_en_uk-F63) &amp; MID(H63,LN_en_uk+F63,200)&amp;REPT(" ",ML_en_uk-F63+1) &amp;"|"</f>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md "Goto Payment guides \[pmt]" )            | [Payment](/en-uk/o13/ee/pmt/en-uk-o13-ee-pmt-guides.md)            |</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" )   | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)   |</v>
       </c>
       <c r="J63" s="3" t="str">
         <f>""</f>
@@ -4442,11 +4442,11 @@
       </c>
       <c r="K63" s="1" t="str">
         <f>"| [![" &amp; $A63 &amp; "](/doc/img/app/sml/" &amp; $A63 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A63 &amp; "/es-mx-o13-ee-" &amp; $A63 &amp; "-guides.md ""Ver a las guías de " &amp; D63 &amp; " \[" &amp; $A63 &amp; "]"" ) | [" &amp; D63 &amp; "](/es-mx/o13/ee/"&amp;$A63&amp;"/es-mx-o13-ee-" &amp; $A63 &amp; "-guides.md)"</f>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" ) | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" ) | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)</v>
       </c>
       <c r="L63" s="1" t="str">
         <f>LEFT(K63,LN_es_mx-1+G63) &amp; REPT(" ",ML_es_mx-G63) &amp; MID(K63,LN_es_mx+G63,200)&amp;REPT(" ",ML_es_mx-G63+1) &amp;"|"</f>
-        <v>| [![pmt](/doc/img/app/sml/pmt.jpg)](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md "Ver a las guías de Pagos \[pmt]" )            | [Pagos](/es-mx/o13/ee/pmt/es-mx-o13-ee-pmt-guides.md)            |</v>
+        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )      | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)      |</v>
       </c>
       <c r="M63" s="4" t="str">
         <f>""</f>
@@ -4455,21 +4455,21 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B64" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C64" t="str">
         <f>B64</f>
-        <v>Time Off</v>
+        <v>Projects</v>
       </c>
       <c r="D64" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="E64" t="str">
         <f>D64</f>
-        <v>Permisos</v>
+        <v>Proyectos</v>
       </c>
       <c r="F64">
         <f>LEN(B64)</f>
@@ -4477,15 +4477,15 @@
       </c>
       <c r="G64">
         <f>LEN(D64)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H64" s="1" t="str">
         <f>"| [![" &amp; $A64 &amp; "](/doc/img/app/sml/" &amp; $A64 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A64 &amp; "/en-uk-o13-ee-" &amp; $A64 &amp; "-guides.md ""Goto " &amp; B64 &amp; " guides \[" &amp; $A64 &amp; "]"" ) | [" &amp; B64 &amp; "](/en-uk/o13/ee/"&amp;$A64&amp;"/en-uk-o13-ee-" &amp; $A64 &amp; "-guides.md)"</f>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" ) | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" ) | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)</v>
       </c>
       <c r="I64" s="1" t="str">
         <f>LEFT(H64,LN_en_uk+F64-1) &amp; REPT(" ",ML_en_uk-F64) &amp; MID(H64,LN_en_uk+F64,200)&amp;REPT(" ",ML_en_uk-F64+1) &amp;"|"</f>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md "Goto Time Off guides \[tof]" )           | [Time Off](/en-uk/o13/ee/tof/en-uk-o13-ee-tof-guides.md)           |</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" )           | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)           |</v>
       </c>
       <c r="J64" s="3" t="str">
         <f>""</f>
@@ -4493,11 +4493,11 @@
       </c>
       <c r="K64" s="1" t="str">
         <f>"| [![" &amp; $A64 &amp; "](/doc/img/app/sml/" &amp; $A64 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A64 &amp; "/es-mx-o13-ee-" &amp; $A64 &amp; "-guides.md ""Ver a las guías de " &amp; D64 &amp; " \[" &amp; $A64 &amp; "]"" ) | [" &amp; D64 &amp; "](/es-mx/o13/ee/"&amp;$A64&amp;"/es-mx-o13-ee-" &amp; $A64 &amp; "-guides.md)"</f>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" ) | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" ) | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)</v>
       </c>
       <c r="L64" s="1" t="str">
         <f>LEFT(K64,LN_es_mx-1+G64) &amp; REPT(" ",ML_es_mx-G64) &amp; MID(K64,LN_es_mx+G64,200)&amp;REPT(" ",ML_es_mx-G64+1) &amp;"|"</f>
-        <v>| [![tof](/doc/img/app/sml/tof.jpg)](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md "Ver a las guías de Permisos \[tof]" )         | [Permisos](/es-mx/o13/ee/tof/es-mx-o13-ee-tof-guides.md)         |</v>
+        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )        | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)        |</v>
       </c>
       <c r="M64" s="4" t="str">
         <f>""</f>
@@ -4506,37 +4506,37 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" t="str">
         <f>B65</f>
-        <v>PLM</v>
+        <v>Purchasing</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>258</v>
       </c>
       <c r="E65" t="str">
         <f>D65</f>
-        <v>PLM</v>
+        <v>Compras</v>
       </c>
       <c r="F65">
         <f>LEN(B65)</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G65">
         <f>LEN(D65)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H65" s="1" t="str">
         <f>"| [![" &amp; $A65 &amp; "](/doc/img/app/sml/" &amp; $A65 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A65 &amp; "/en-uk-o13-ee-" &amp; $A65 &amp; "-guides.md ""Goto " &amp; B65 &amp; " guides \[" &amp; $A65 &amp; "]"" ) | [" &amp; B65 &amp; "](/en-uk/o13/ee/"&amp;$A65&amp;"/en-uk-o13-ee-" &amp; $A65 &amp; "-guides.md)"</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" ) | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" ) | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)</v>
       </c>
       <c r="I65" s="1" t="str">
         <f>LEFT(H65,LN_en_uk+F65-1) &amp; REPT(" ",ML_en_uk-F65) &amp; MID(H65,LN_en_uk+F65,200)&amp;REPT(" ",ML_en_uk-F65+1) &amp;"|"</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md "Goto PLM guides \[plm]" )                | [PLM](/en-uk/o13/ee/plm/en-uk-o13-ee-plm-guides.md)                |</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md "Goto Purchasing guides \[pch]" )         | [Purchasing](/en-uk/o13/ee/pch/en-uk-o13-ee-pch-guides.md)         |</v>
       </c>
       <c r="J65" s="3" t="str">
         <f>""</f>
@@ -4544,11 +4544,11 @@
       </c>
       <c r="K65" s="1" t="str">
         <f>"| [![" &amp; $A65 &amp; "](/doc/img/app/sml/" &amp; $A65 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A65 &amp; "/es-mx-o13-ee-" &amp; $A65 &amp; "-guides.md ""Ver a las guías de " &amp; D65 &amp; " \[" &amp; $A65 &amp; "]"" ) | [" &amp; D65 &amp; "](/es-mx/o13/ee/"&amp;$A65&amp;"/es-mx-o13-ee-" &amp; $A65 &amp; "-guides.md)"</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" ) | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" ) | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)</v>
       </c>
       <c r="L65" s="1" t="str">
         <f>LEFT(K65,LN_es_mx-1+G65) &amp; REPT(" ",ML_es_mx-G65) &amp; MID(K65,LN_es_mx+G65,200)&amp;REPT(" ",ML_es_mx-G65+1) &amp;"|"</f>
-        <v>| [![plm](/doc/img/app/sml/plm.jpg)](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md "Ver a las guías de PLM \[plm]" )              | [PLM](/es-mx/o13/ee/plm/es-mx-o13-ee-plm-guides.md)              |</v>
+        <v>| [![pch](/doc/img/app/sml/pch.jpg)](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md "Ver a las guías de Compras \[pch]" )          | [Compras](/es-mx/o13/ee/pch/es-mx-o13-ee-pch-guides.md)          |</v>
       </c>
       <c r="M65" s="4" t="str">
         <f>""</f>
@@ -4557,37 +4557,37 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="C66" t="str">
         <f>B66</f>
-        <v>Presence</v>
+        <v>Quality Control</v>
       </c>
       <c r="D66" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="E66" t="str">
         <f>D66</f>
-        <v>Presencia</v>
+        <v>Ctrl de Calidad</v>
       </c>
       <c r="F66">
         <f>LEN(B66)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G66">
         <f>LEN(D66)</f>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H66" s="1" t="str">
         <f>"| [![" &amp; $A66 &amp; "](/doc/img/app/sml/" &amp; $A66 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A66 &amp; "/en-uk-o13-ee-" &amp; $A66 &amp; "-guides.md ""Goto " &amp; B66 &amp; " guides \[" &amp; $A66 &amp; "]"" ) | [" &amp; B66 &amp; "](/en-uk/o13/ee/"&amp;$A66&amp;"/en-uk-o13-ee-" &amp; $A66 &amp; "-guides.md)"</f>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" ) | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" ) | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)</v>
       </c>
       <c r="I66" s="1" t="str">
         <f>LEFT(H66,LN_en_uk+F66-1) &amp; REPT(" ",ML_en_uk-F66) &amp; MID(H66,LN_en_uk+F66,200)&amp;REPT(" ",ML_en_uk-F66+1) &amp;"|"</f>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md "Goto Presence guides \[psc]" )           | [Presence](/en-uk/o13/ee/psc/en-uk-o13-ee-psc-guides.md)           |</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md "Goto Quality Control guides \[qco]" )    | [Quality Control](/en-uk/o13/ee/qco/en-uk-o13-ee-qco-guides.md)    |</v>
       </c>
       <c r="J66" s="3" t="str">
         <f>""</f>
@@ -4595,11 +4595,11 @@
       </c>
       <c r="K66" s="1" t="str">
         <f>"| [![" &amp; $A66 &amp; "](/doc/img/app/sml/" &amp; $A66 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A66 &amp; "/es-mx-o13-ee-" &amp; $A66 &amp; "-guides.md ""Ver a las guías de " &amp; D66 &amp; " \[" &amp; $A66 &amp; "]"" ) | [" &amp; D66 &amp; "](/es-mx/o13/ee/"&amp;$A66&amp;"/es-mx-o13-ee-" &amp; $A66 &amp; "-guides.md)"</f>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" ) | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" ) | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)</v>
       </c>
       <c r="L66" s="1" t="str">
         <f>LEFT(K66,LN_es_mx-1+G66) &amp; REPT(" ",ML_es_mx-G66) &amp; MID(K66,LN_es_mx+G66,200)&amp;REPT(" ",ML_es_mx-G66+1) &amp;"|"</f>
-        <v>| [![psc](/doc/img/app/sml/psc.jpg)](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md "Ver a las guías de Presencia \[psc]" )        | [Presencia](/es-mx/o13/ee/psc/es-mx-o13-ee-psc-guides.md)        |</v>
+        <v>| [![qco](/doc/img/app/sml/qco.jpg)](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md "Ver a las guías de Ctrl de Calidad \[qco]" )  | [Ctrl de Calidad](/es-mx/o13/ee/qco/es-mx-o13-ee-qco-guides.md)  |</v>
       </c>
       <c r="M66" s="4" t="str">
         <f>""</f>
@@ -4608,37 +4608,37 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="C67" t="str">
         <f>B67</f>
-        <v>Project Forecast</v>
+        <v>Recruitment</v>
       </c>
       <c r="D67" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E67" t="str">
         <f>D67</f>
-        <v>Pronósticos</v>
+        <v>Reclutamiento</v>
       </c>
       <c r="F67">
         <f>LEN(B67)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G67">
         <f>LEN(D67)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H67" s="1" t="str">
         <f>"| [![" &amp; $A67 &amp; "](/doc/img/app/sml/" &amp; $A67 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A67 &amp; "/en-uk-o13-ee-" &amp; $A67 &amp; "-guides.md ""Goto " &amp; B67 &amp; " guides \[" &amp; $A67 &amp; "]"" ) | [" &amp; B67 &amp; "](/en-uk/o13/ee/"&amp;$A67&amp;"/en-uk-o13-ee-" &amp; $A67 &amp; "-guides.md)"</f>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" ) | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" ) | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)</v>
       </c>
       <c r="I67" s="1" t="str">
         <f>LEFT(H67,LN_en_uk+F67-1) &amp; REPT(" ",ML_en_uk-F67) &amp; MID(H67,LN_en_uk+F67,200)&amp;REPT(" ",ML_en_uk-F67+1) &amp;"|"</f>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md "Goto Project Forecast guides \[pfc]" )   | [Project Forecast](/en-uk/o13/ee/pfc/en-uk-o13-ee-pfc-guides.md)   |</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" )        | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)        |</v>
       </c>
       <c r="J67" s="3" t="str">
         <f>""</f>
@@ -4646,11 +4646,11 @@
       </c>
       <c r="K67" s="1" t="str">
         <f>"| [![" &amp; $A67 &amp; "](/doc/img/app/sml/" &amp; $A67 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A67 &amp; "/es-mx-o13-ee-" &amp; $A67 &amp; "-guides.md ""Ver a las guías de " &amp; D67 &amp; " \[" &amp; $A67 &amp; "]"" ) | [" &amp; D67 &amp; "](/es-mx/o13/ee/"&amp;$A67&amp;"/es-mx-o13-ee-" &amp; $A67 &amp; "-guides.md)"</f>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" ) | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" ) | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)</v>
       </c>
       <c r="L67" s="1" t="str">
         <f>LEFT(K67,LN_es_mx-1+G67) &amp; REPT(" ",ML_es_mx-G67) &amp; MID(K67,LN_es_mx+G67,200)&amp;REPT(" ",ML_es_mx-G67+1) &amp;"|"</f>
-        <v>| [![pfc](/doc/img/app/sml/pfc.jpg)](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md "Ver a las guías de Pronósticos \[pfc]" )      | [Pronósticos](/es-mx/o13/ee/pfc/es-mx-o13-ee-pfc-guides.md)      |</v>
+        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )    | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)    |</v>
       </c>
       <c r="M67" s="4" t="str">
         <f>""</f>
@@ -4659,37 +4659,37 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>303</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="C68" t="str">
         <f>B68</f>
-        <v>Projects</v>
+        <v>Referrals</v>
       </c>
       <c r="D68" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="E68" t="str">
         <f>D68</f>
-        <v>Proyectos</v>
+        <v>Referencias</v>
       </c>
       <c r="F68">
         <f>LEN(B68)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G68">
         <f>LEN(D68)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H68" s="1" t="str">
         <f>"| [![" &amp; $A68 &amp; "](/doc/img/app/sml/" &amp; $A68 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A68 &amp; "/en-uk-o13-ee-" &amp; $A68 &amp; "-guides.md ""Goto " &amp; B68 &amp; " guides \[" &amp; $A68 &amp; "]"" ) | [" &amp; B68 &amp; "](/en-uk/o13/ee/"&amp;$A68&amp;"/en-uk-o13-ee-" &amp; $A68 &amp; "-guides.md)"</f>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" ) | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)</v>
+        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" ) | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)</v>
       </c>
       <c r="I68" s="1" t="str">
         <f>LEFT(H68,LN_en_uk+F68-1) &amp; REPT(" ",ML_en_uk-F68) &amp; MID(H68,LN_en_uk+F68,200)&amp;REPT(" ",ML_en_uk-F68+1) &amp;"|"</f>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md "Goto Projects guides \[prj]" )           | [Projects](/en-uk/o13/ee/prj/en-uk-o13-ee-prj-guides.md)           |</v>
+        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" )          | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)          |</v>
       </c>
       <c r="J68" s="3" t="str">
         <f>""</f>
@@ -4697,11 +4697,11 @@
       </c>
       <c r="K68" s="1" t="str">
         <f>"| [![" &amp; $A68 &amp; "](/doc/img/app/sml/" &amp; $A68 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A68 &amp; "/es-mx-o13-ee-" &amp; $A68 &amp; "-guides.md ""Ver a las guías de " &amp; D68 &amp; " \[" &amp; $A68 &amp; "]"" ) | [" &amp; D68 &amp; "](/es-mx/o13/ee/"&amp;$A68&amp;"/es-mx-o13-ee-" &amp; $A68 &amp; "-guides.md)"</f>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" ) | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)</v>
+        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" ) | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)</v>
       </c>
       <c r="L68" s="1" t="str">
         <f>LEFT(K68,LN_es_mx-1+G68) &amp; REPT(" ",ML_es_mx-G68) &amp; MID(K68,LN_es_mx+G68,200)&amp;REPT(" ",ML_es_mx-G68+1) &amp;"|"</f>
-        <v>| [![prj](/doc/img/app/sml/prj.jpg)](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md "Ver a las guías de Proyectos \[prj]" )        | [Proyectos](/es-mx/o13/ee/prj/es-mx-o13-ee-prj-guides.md)        |</v>
+        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" )      | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)      |</v>
       </c>
       <c r="M68" s="4" t="str">
         <f>""</f>
@@ -4710,37 +4710,37 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C69" t="str">
         <f>B69</f>
-        <v>Point of Sale</v>
+        <v>Rental</v>
       </c>
       <c r="D69" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E69" t="str">
         <f>D69</f>
-        <v>Punto de Venta</v>
+        <v>Rentas</v>
       </c>
       <c r="F69">
         <f>LEN(B69)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G69">
         <f>LEN(D69)</f>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H69" s="1" t="str">
         <f>"| [![" &amp; $A69 &amp; "](/doc/img/app/sml/" &amp; $A69 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A69 &amp; "/en-uk-o13-ee-" &amp; $A69 &amp; "-guides.md ""Goto " &amp; B69 &amp; " guides \[" &amp; $A69 &amp; "]"" ) | [" &amp; B69 &amp; "](/en-uk/o13/ee/"&amp;$A69&amp;"/en-uk-o13-ee-" &amp; $A69 &amp; "-guides.md)"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" ) | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" ) | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)</v>
       </c>
       <c r="I69" s="1" t="str">
         <f>LEFT(H69,LN_en_uk+F69-1) &amp; REPT(" ",ML_en_uk-F69) &amp; MID(H69,LN_en_uk+F69,200)&amp;REPT(" ",ML_en_uk-F69+1) &amp;"|"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md "Goto Point of Sale guides \[pos]" )      | [Point of Sale](/en-uk/o13/ee/pos/en-uk-o13-ee-pos-guides.md)      |</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" )             | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)             |</v>
       </c>
       <c r="J69" s="3" t="str">
         <f>""</f>
@@ -4748,11 +4748,11 @@
       </c>
       <c r="K69" s="1" t="str">
         <f>"| [![" &amp; $A69 &amp; "](/doc/img/app/sml/" &amp; $A69 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A69 &amp; "/es-mx-o13-ee-" &amp; $A69 &amp; "-guides.md ""Ver a las guías de " &amp; D69 &amp; " \[" &amp; $A69 &amp; "]"" ) | [" &amp; D69 &amp; "](/es-mx/o13/ee/"&amp;$A69&amp;"/es-mx-o13-ee-" &amp; $A69 &amp; "-guides.md)"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" ) | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" ) | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)</v>
       </c>
       <c r="L69" s="1" t="str">
         <f>LEFT(K69,LN_es_mx-1+G69) &amp; REPT(" ",ML_es_mx-G69) &amp; MID(K69,LN_es_mx+G69,200)&amp;REPT(" ",ML_es_mx-G69+1) &amp;"|"</f>
-        <v>| [![pos](/doc/img/app/sml/pos.jpg)](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md "Ver a las guías de Punto de Venta \[pos]" )   | [Punto de Venta](/es-mx/o13/ee/pos/es-mx-o13-ee-pos-guides.md)   |</v>
+        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )           | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)           |</v>
       </c>
       <c r="M69" s="4" t="str">
         <f>""</f>
@@ -4761,37 +4761,37 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="C70" t="str">
         <f>B70</f>
-        <v>Recruitment</v>
+        <v>Repair</v>
       </c>
       <c r="D70" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E70" t="str">
         <f>D70</f>
-        <v>Reclutamiento</v>
+        <v>Reparaciones</v>
       </c>
       <c r="F70">
         <f>LEN(B70)</f>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G70">
         <f>LEN(D70)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H70" s="1" t="str">
         <f>"| [![" &amp; $A70 &amp; "](/doc/img/app/sml/" &amp; $A70 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A70 &amp; "/en-uk-o13-ee-" &amp; $A70 &amp; "-guides.md ""Goto " &amp; B70 &amp; " guides \[" &amp; $A70 &amp; "]"" ) | [" &amp; B70 &amp; "](/en-uk/o13/ee/"&amp;$A70&amp;"/en-uk-o13-ee-" &amp; $A70 &amp; "-guides.md)"</f>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" ) | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" ) | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)</v>
       </c>
       <c r="I70" s="1" t="str">
         <f>LEFT(H70,LN_en_uk+F70-1) &amp; REPT(" ",ML_en_uk-F70) &amp; MID(H70,LN_en_uk+F70,200)&amp;REPT(" ",ML_en_uk-F70+1) &amp;"|"</f>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md "Goto Recruitment guides \[rcr]" )        | [Recruitment](/en-uk/o13/ee/rcr/en-uk-o13-ee-rcr-guides.md)        |</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" )             | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)             |</v>
       </c>
       <c r="J70" s="3" t="str">
         <f>""</f>
@@ -4799,11 +4799,11 @@
       </c>
       <c r="K70" s="1" t="str">
         <f>"| [![" &amp; $A70 &amp; "](/doc/img/app/sml/" &amp; $A70 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A70 &amp; "/es-mx-o13-ee-" &amp; $A70 &amp; "-guides.md ""Ver a las guías de " &amp; D70 &amp; " \[" &amp; $A70 &amp; "]"" ) | [" &amp; D70 &amp; "](/es-mx/o13/ee/"&amp;$A70&amp;"/es-mx-o13-ee-" &amp; $A70 &amp; "-guides.md)"</f>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" ) | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" ) | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)</v>
       </c>
       <c r="L70" s="1" t="str">
         <f>LEFT(K70,LN_es_mx-1+G70) &amp; REPT(" ",ML_es_mx-G70) &amp; MID(K70,LN_es_mx+G70,200)&amp;REPT(" ",ML_es_mx-G70+1) &amp;"|"</f>
-        <v>| [![rcr](/doc/img/app/sml/rcr.jpg)](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md "Ver a las guías de Reclutamiento \[rcr]" )    | [Reclutamiento](/es-mx/o13/ee/rcr/es-mx-o13-ee-rcr-guides.md)    |</v>
+        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )     | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)     |</v>
       </c>
       <c r="M70" s="4" t="str">
         <f>""</f>
@@ -4812,37 +4812,38 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>305</v>
+        <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>306</v>
+        <v>176</v>
       </c>
       <c r="C71" t="str">
         <f>B71</f>
-        <v>Referrals</v>
-      </c>
-      <c r="D71" t="s">
-        <v>307</v>
+        <v>S€PA</v>
+      </c>
+      <c r="D71" t="str">
+        <f>C71</f>
+        <v>S€PA</v>
       </c>
       <c r="E71" t="str">
         <f>D71</f>
-        <v>Referencias</v>
+        <v>S€PA</v>
       </c>
       <c r="F71">
         <f>LEN(B71)</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G71">
         <f>LEN(D71)</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="H71" s="1" t="str">
         <f>"| [![" &amp; $A71 &amp; "](/doc/img/app/sml/" &amp; $A71 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A71 &amp; "/en-uk-o13-ee-" &amp; $A71 &amp; "-guides.md ""Goto " &amp; B71 &amp; " guides \[" &amp; $A71 &amp; "]"" ) | [" &amp; B71 &amp; "](/en-uk/o13/ee/"&amp;$A71&amp;"/en-uk-o13-ee-" &amp; $A71 &amp; "-guides.md)"</f>
-        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" ) | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" ) | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)</v>
       </c>
       <c r="I71" s="1" t="str">
         <f>LEFT(H71,LN_en_uk+F71-1) &amp; REPT(" ",ML_en_uk-F71) &amp; MID(H71,LN_en_uk+F71,200)&amp;REPT(" ",ML_en_uk-F71+1) &amp;"|"</f>
-        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md "Goto Referrals guides \[rfr]" )          | [Referrals](/en-uk/o13/ee/rfr/en-uk-o13-ee-rfr-guides.md)          |</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" )               | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)               |</v>
       </c>
       <c r="J71" s="3" t="str">
         <f>""</f>
@@ -4850,11 +4851,11 @@
       </c>
       <c r="K71" s="1" t="str">
         <f>"| [![" &amp; $A71 &amp; "](/doc/img/app/sml/" &amp; $A71 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A71 &amp; "/es-mx-o13-ee-" &amp; $A71 &amp; "-guides.md ""Ver a las guías de " &amp; D71 &amp; " \[" &amp; $A71 &amp; "]"" ) | [" &amp; D71 &amp; "](/es-mx/o13/ee/"&amp;$A71&amp;"/es-mx-o13-ee-" &amp; $A71 &amp; "-guides.md)"</f>
-        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" ) | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" ) | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)</v>
       </c>
       <c r="L71" s="1" t="str">
         <f>LEFT(K71,LN_es_mx-1+G71) &amp; REPT(" ",ML_es_mx-G71) &amp; MID(K71,LN_es_mx+G71,200)&amp;REPT(" ",ML_es_mx-G71+1) &amp;"|"</f>
-        <v>| [![rfr](/doc/img/app/sml/rfr.jpg)](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md "Ver a las guías de Referencias \[rfr]" )      | [Referencias](/es-mx/o13/ee/rfr/es-mx-o13-ee-rfr-guides.md)      |</v>
+        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )             | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)             |</v>
       </c>
       <c r="M71" s="4" t="str">
         <f>""</f>
@@ -4863,25 +4864,25 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C72" t="str">
         <f>B72</f>
-        <v>Rental</v>
+        <v>Sales</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E72" t="str">
         <f>D72</f>
-        <v>Rentas</v>
+        <v>Ventas</v>
       </c>
       <c r="F72">
         <f>LEN(B72)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G72">
         <f>LEN(D72)</f>
@@ -4889,11 +4890,11 @@
       </c>
       <c r="H72" s="1" t="str">
         <f>"| [![" &amp; $A72 &amp; "](/doc/img/app/sml/" &amp; $A72 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A72 &amp; "/en-uk-o13-ee-" &amp; $A72 &amp; "-guides.md ""Goto " &amp; B72 &amp; " guides \[" &amp; $A72 &amp; "]"" ) | [" &amp; B72 &amp; "](/en-uk/o13/ee/"&amp;$A72&amp;"/en-uk-o13-ee-" &amp; $A72 &amp; "-guides.md)"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" ) | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" ) | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)</v>
       </c>
       <c r="I72" s="1" t="str">
         <f>LEFT(H72,LN_en_uk+F72-1) &amp; REPT(" ",ML_en_uk-F72) &amp; MID(H72,LN_en_uk+F72,200)&amp;REPT(" ",ML_en_uk-F72+1) &amp;"|"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md "Goto Rental guides \[rnt]" )             | [Rental](/en-uk/o13/ee/rnt/en-uk-o13-ee-rnt-guides.md)             |</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md "Goto Sales guides \[sls]" )              | [Sales](/en-uk/o13/ee/sls/en-uk-o13-ee-sls-guides.md)              |</v>
       </c>
       <c r="J72" s="3" t="str">
         <f>""</f>
@@ -4901,11 +4902,11 @@
       </c>
       <c r="K72" s="1" t="str">
         <f>"| [![" &amp; $A72 &amp; "](/doc/img/app/sml/" &amp; $A72 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A72 &amp; "/es-mx-o13-ee-" &amp; $A72 &amp; "-guides.md ""Ver a las guías de " &amp; D72 &amp; " \[" &amp; $A72 &amp; "]"" ) | [" &amp; D72 &amp; "](/es-mx/o13/ee/"&amp;$A72&amp;"/es-mx-o13-ee-" &amp; $A72 &amp; "-guides.md)"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" ) | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" ) | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)</v>
       </c>
       <c r="L72" s="1" t="str">
         <f>LEFT(K72,LN_es_mx-1+G72) &amp; REPT(" ",ML_es_mx-G72) &amp; MID(K72,LN_es_mx+G72,200)&amp;REPT(" ",ML_es_mx-G72+1) &amp;"|"</f>
-        <v>| [![rnt](/doc/img/app/sml/rnt.jpg)](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md "Ver a las guías de Rentas \[rnt]" )           | [Rentas](/es-mx/o13/ee/rnt/es-mx-o13-ee-rnt-guides.md)           |</v>
+        <v>| [![sls](/doc/img/app/sml/sls.jpg)](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md "Ver a las guías de Ventas \[sls]" )           | [Ventas](/es-mx/o13/ee/sls/es-mx-o13-ee-sls-guides.md)           |</v>
       </c>
       <c r="M72" s="4" t="str">
         <f>""</f>
@@ -4914,37 +4915,37 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="C73" t="str">
         <f>B73</f>
-        <v>Repair</v>
+        <v>Sales Management</v>
       </c>
       <c r="D73" t="s">
         <v>262</v>
       </c>
       <c r="E73" t="str">
         <f>D73</f>
-        <v>Reparaciones</v>
+        <v>Ventas - Control</v>
       </c>
       <c r="F73">
         <f>LEN(B73)</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G73">
         <f>LEN(D73)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H73" s="1" t="str">
         <f>"| [![" &amp; $A73 &amp; "](/doc/img/app/sml/" &amp; $A73 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A73 &amp; "/en-uk-o13-ee-" &amp; $A73 &amp; "-guides.md ""Goto " &amp; B73 &amp; " guides \[" &amp; $A73 &amp; "]"" ) | [" &amp; B73 &amp; "](/en-uk/o13/ee/"&amp;$A73&amp;"/en-uk-o13-ee-" &amp; $A73 &amp; "-guides.md)"</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" ) | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" ) | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)</v>
       </c>
       <c r="I73" s="1" t="str">
         <f>LEFT(H73,LN_en_uk+F73-1) &amp; REPT(" ",ML_en_uk-F73) &amp; MID(H73,LN_en_uk+F73,200)&amp;REPT(" ",ML_en_uk-F73+1) &amp;"|"</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md "Goto Repair guides \[rpr]" )             | [Repair](/en-uk/o13/ee/rpr/en-uk-o13-ee-rpr-guides.md)             |</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md "Goto Sales Management guides \[smg]" )   | [Sales Management](/en-uk/o13/ee/smg/en-uk-o13-ee-smg-guides.md)   |</v>
       </c>
       <c r="J73" s="3" t="str">
         <f>""</f>
@@ -4952,11 +4953,11 @@
       </c>
       <c r="K73" s="1" t="str">
         <f>"| [![" &amp; $A73 &amp; "](/doc/img/app/sml/" &amp; $A73 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A73 &amp; "/es-mx-o13-ee-" &amp; $A73 &amp; "-guides.md ""Ver a las guías de " &amp; D73 &amp; " \[" &amp; $A73 &amp; "]"" ) | [" &amp; D73 &amp; "](/es-mx/o13/ee/"&amp;$A73&amp;"/es-mx-o13-ee-" &amp; $A73 &amp; "-guides.md)"</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" ) | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md)</v>
       </c>
       <c r="L73" s="1" t="str">
         <f>LEFT(K73,LN_es_mx-1+G73) &amp; REPT(" ",ML_es_mx-G73) &amp; MID(K73,LN_es_mx+G73,200)&amp;REPT(" ",ML_es_mx-G73+1) &amp;"|"</f>
-        <v>| [![rpr](/doc/img/app/sml/rpr.jpg)](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md "Ver a las guías de Reparaciones \[rpr]" )     | [Reparaciones](/es-mx/o13/ee/rpr/es-mx-o13-ee-rpr-guides.md)     |</v>
+        <v>| [![smg](/doc/img/app/sml/smg.jpg)](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md "Ver a las guías de Ventas - Control \[smg]" ) | [Ventas - Control](/es-mx/o13/ee/smg/es-mx-o13-ee-smg-guides.md) |</v>
       </c>
       <c r="M73" s="4" t="str">
         <f>""</f>
@@ -4965,38 +4966,37 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C74" t="str">
         <f>B74</f>
-        <v>S€PA</v>
-      </c>
-      <c r="D74" t="str">
-        <f>C74</f>
-        <v>S€PA</v>
+        <v>Settings</v>
+      </c>
+      <c r="D74" t="s">
+        <v>264</v>
       </c>
       <c r="E74" t="str">
         <f>D74</f>
-        <v>S€PA</v>
+        <v>Configuración</v>
       </c>
       <c r="F74">
         <f>LEN(B74)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G74">
         <f>LEN(D74)</f>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H74" s="1" t="str">
         <f>"| [![" &amp; $A74 &amp; "](/doc/img/app/sml/" &amp; $A74 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A74 &amp; "/en-uk-o13-ee-" &amp; $A74 &amp; "-guides.md ""Goto " &amp; B74 &amp; " guides \[" &amp; $A74 &amp; "]"" ) | [" &amp; B74 &amp; "](/en-uk/o13/ee/"&amp;$A74&amp;"/en-uk-o13-ee-" &amp; $A74 &amp; "-guides.md)"</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" ) | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" ) | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)</v>
       </c>
       <c r="I74" s="1" t="str">
         <f>LEFT(H74,LN_en_uk+F74-1) &amp; REPT(" ",ML_en_uk-F74) &amp; MID(H74,LN_en_uk+F74,200)&amp;REPT(" ",ML_en_uk-F74+1) &amp;"|"</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md "Goto S€PA guides \[sep]" )               | [S€PA](/en-uk/o13/ee/sep/en-uk-o13-ee-sep-guides.md)               |</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md "Goto Settings guides \[set]" )           | [Settings](/en-uk/o13/ee/set/en-uk-o13-ee-set-guides.md)           |</v>
       </c>
       <c r="J74" s="3" t="str">
         <f>""</f>
@@ -5004,11 +5004,11 @@
       </c>
       <c r="K74" s="1" t="str">
         <f>"| [![" &amp; $A74 &amp; "](/doc/img/app/sml/" &amp; $A74 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A74 &amp; "/es-mx-o13-ee-" &amp; $A74 &amp; "-guides.md ""Ver a las guías de " &amp; D74 &amp; " \[" &amp; $A74 &amp; "]"" ) | [" &amp; D74 &amp; "](/es-mx/o13/ee/"&amp;$A74&amp;"/es-mx-o13-ee-" &amp; $A74 &amp; "-guides.md)"</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" ) | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" ) | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)</v>
       </c>
       <c r="L74" s="1" t="str">
         <f>LEFT(K74,LN_es_mx-1+G74) &amp; REPT(" ",ML_es_mx-G74) &amp; MID(K74,LN_es_mx+G74,200)&amp;REPT(" ",ML_es_mx-G74+1) &amp;"|"</f>
-        <v>| [![sep](/doc/img/app/sml/sep.jpg)](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md "Ver a las guías de S€PA \[sep]" )             | [S€PA](/es-mx/o13/ee/sep/es-mx-o13-ee-sep-guides.md)             |</v>
+        <v>| [![set](/doc/img/app/sml/set.jpg)](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md "Ver a las guías de Configuración \[set]" )    | [Configuración](/es-mx/o13/ee/set/es-mx-o13-ee-set-guides.md)    |</v>
       </c>
       <c r="M74" s="4" t="str">
         <f>""</f>
@@ -5017,37 +5017,37 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C75" t="str">
         <f>B75</f>
-        <v>Field Service</v>
+        <v>Skills</v>
       </c>
       <c r="D75" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="E75" t="str">
         <f>D75</f>
-        <v>Servicio</v>
+        <v>Competencias</v>
       </c>
       <c r="F75">
         <f>LEN(B75)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G75">
         <f>LEN(D75)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H75" s="1" t="str">
         <f>"| [![" &amp; $A75 &amp; "](/doc/img/app/sml/" &amp; $A75 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A75 &amp; "/en-uk-o13-ee-" &amp; $A75 &amp; "-guides.md ""Goto " &amp; B75 &amp; " guides \[" &amp; $A75 &amp; "]"" ) | [" &amp; B75 &amp; "](/en-uk/o13/ee/"&amp;$A75&amp;"/en-uk-o13-ee-" &amp; $A75 &amp; "-guides.md)"</f>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" ) | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" ) | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)</v>
       </c>
       <c r="I75" s="1" t="str">
         <f>LEFT(H75,LN_en_uk+F75-1) &amp; REPT(" ",ML_en_uk-F75) &amp; MID(H75,LN_en_uk+F75,200)&amp;REPT(" ",ML_en_uk-F75+1) &amp;"|"</f>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md "Goto Field Service guides \[fsv]" )      | [Field Service](/en-uk/o13/ee/fsv/en-uk-o13-ee-fsv-guides.md)      |</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md "Goto Skills guides \[skm]" )             | [Skills](/en-uk/o13/ee/skm/en-uk-o13-ee-skm-guides.md)             |</v>
       </c>
       <c r="J75" s="3" t="str">
         <f>""</f>
@@ -5055,11 +5055,11 @@
       </c>
       <c r="K75" s="1" t="str">
         <f>"| [![" &amp; $A75 &amp; "](/doc/img/app/sml/" &amp; $A75 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A75 &amp; "/es-mx-o13-ee-" &amp; $A75 &amp; "-guides.md ""Ver a las guías de " &amp; D75 &amp; " \[" &amp; $A75 &amp; "]"" ) | [" &amp; D75 &amp; "](/es-mx/o13/ee/"&amp;$A75&amp;"/es-mx-o13-ee-" &amp; $A75 &amp; "-guides.md)"</f>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" ) | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" ) | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)</v>
       </c>
       <c r="L75" s="1" t="str">
         <f>LEFT(K75,LN_es_mx-1+G75) &amp; REPT(" ",ML_es_mx-G75) &amp; MID(K75,LN_es_mx+G75,200)&amp;REPT(" ",ML_es_mx-G75+1) &amp;"|"</f>
-        <v>| [![fsv](/doc/img/app/sml/fsv.jpg)](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md "Ver a las guías de Servicio \[fsv]" )         | [Servicio](/es-mx/o13/ee/fsv/es-mx-o13-ee-fsv-guides.md)         |</v>
+        <v>| [![skm](/doc/img/app/sml/skm.jpg)](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md "Ver a las guías de Competencias \[skm]" )     | [Competencias](/es-mx/o13/ee/skm/es-mx-o13-ee-skm-guides.md)     |</v>
       </c>
       <c r="M75" s="4" t="str">
         <f>""</f>
@@ -5068,37 +5068,37 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C76" t="str">
         <f>B76</f>
-        <v>Subscriptions</v>
+        <v>Slides</v>
       </c>
       <c r="D76" t="s">
         <v>267</v>
       </c>
       <c r="E76" t="str">
         <f>D76</f>
-        <v>Suscripciones</v>
+        <v>Diapositivas</v>
       </c>
       <c r="F76">
         <f>LEN(B76)</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G76">
         <f>LEN(D76)</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H76" s="1" t="str">
         <f>"| [![" &amp; $A76 &amp; "](/doc/img/app/sml/" &amp; $A76 &amp; ".jpg)](/en-uk/o13/ee/" &amp; $A76 &amp; "/en-uk-o13-ee-" &amp; $A76 &amp; "-guides.md ""Goto " &amp; B76 &amp; " guides \[" &amp; $A76 &amp; "]"" ) | [" &amp; B76 &amp; "](/en-uk/o13/ee/"&amp;$A76&amp;"/en-uk-o13-ee-" &amp; $A76 &amp; "-guides.md)"</f>
-        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" ) | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" ) | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)</v>
       </c>
       <c r="I76" s="1" t="str">
         <f>LEFT(H76,LN_en_uk+F76-1) &amp; REPT(" ",ML_en_uk-F76) &amp; MID(H76,LN_en_uk+F76,200)&amp;REPT(" ",ML_en_uk-F76+1) &amp;"|"</f>
-        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md "Goto Subscriptions guides \[sub]" )      | [Subscriptions](/en-uk/o13/ee/sub/en-uk-o13-ee-sub-guides.md)      |</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md "Goto Slides guides \[sli]" )             | [Slides](/en-uk/o13/ee/sli/en-uk-o13-ee-sli-guides.md)             |</v>
       </c>
       <c r="J76" s="3" t="str">
         <f>""</f>
@@ -5106,11 +5106,11 @@
       </c>
       <c r="K76" s="1" t="str">
         <f>"| [![" &amp; $A76 &amp; "](/doc/img/app/sml/" &amp; $A76 &amp; ".jpg)](/es-mx/o13/ee/" &amp; $A76 &amp; "/es-mx-o13-ee-" &amp; $A76 &amp; "-guides.md ""Ver a las guías de " &amp; D76 &amp; " \[" &amp; $A76 &amp; "]"" ) | [" &amp; D76 &amp; "](/es-mx/o13/ee/"&amp;$A76&amp;"/es-mx-o13-ee-" &amp; $A76 &amp; "-guides.md)"</f>
-        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" ) | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" ) | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)</v>
       </c>
       <c r="L76" s="1" t="str">
         <f>LEFT(K76,LN_es_mx-1+G76) &amp; REPT(" ",ML_es_mx-G76) &amp; MID(K76,LN_es_mx+G76,200)&amp;REPT(" ",ML_es_mx-G76+1) &amp;"|"</f>
-        <v>| [![sub](/doc/img/app/sml/sub.jpg)](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md "Ver a las guías de Suscripciones \[sub]" )    | [Suscripciones](/es-mx/o13/ee/sub/es-mx-o13-ee-sub-guides.md)    |</v>
+        <v>| [![sli](/doc/img/app/sml/sli.jpg)](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md "Ver a las guías de Diapositivas \[sli]" )     | [Diapositivas](/es-mx/o13/ee/sli/es-mx-o13-ee-sli-guides.md)     |</v>
       </c>
       <c r="M76" s="4" t="str">
         <f>""</f>
@@ -5119,37 +5119,37 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDes